--- a/dca_mission_timing_pre_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_pre_tsmc2p_meas.xlsx
@@ -443,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,12 +453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,12 +475,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,115 +973,115 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>50.4093</v>
+        <v>49.5031</v>
       </c>
       <c r="N2">
-        <v>7.00676</v>
+        <v>13.0385</v>
       </c>
       <c r="O2">
-        <v>16.2989</v>
+        <v>18.3126</v>
       </c>
       <c r="P2">
-        <v>31.2692</v>
+        <v>35.3202</v>
       </c>
       <c r="Q2">
-        <v>50.4093</v>
+        <v>49.503</v>
       </c>
       <c r="R2">
-        <v>100</v>
+        <v>99.9999</v>
       </c>
       <c r="S2">
-        <v>30.8618</v>
+        <v>35.3202</v>
       </c>
       <c r="T2">
-        <v>31.2692</v>
+        <v>34.8232</v>
       </c>
       <c r="U2">
-        <v>16.2989</v>
+        <v>16.3791</v>
       </c>
       <c r="V2">
-        <v>9.81134</v>
+        <v>10.5815</v>
       </c>
       <c r="W2">
-        <v>10.08</v>
+        <v>9.969609999999999</v>
       </c>
       <c r="X2">
-        <v>6.43283</v>
+        <v>10.43</v>
       </c>
       <c r="Y2">
-        <v>6.43283</v>
+        <v>10.43</v>
       </c>
       <c r="Z2">
-        <v>6.43283</v>
+        <v>10.4327</v>
       </c>
       <c r="AA2">
-        <v>16.0377</v>
+        <v>18.3126</v>
       </c>
       <c r="AB2">
-        <v>9.419880000000001</v>
+        <v>9.412649999999999</v>
       </c>
       <c r="AC2">
-        <v>9.668010000000001</v>
+        <v>9.42276</v>
       </c>
       <c r="AD2">
-        <v>7.00676</v>
+        <v>13.0385</v>
       </c>
       <c r="AE2">
-        <v>7.00676</v>
+        <v>13.0385</v>
       </c>
       <c r="AF2">
-        <v>7.00676</v>
+        <v>13.0385</v>
       </c>
       <c r="AG2">
-        <v>0.758944</v>
+        <v>0.756509</v>
       </c>
       <c r="AH2">
-        <v>0.357722</v>
+        <v>0.352</v>
       </c>
       <c r="AI2">
-        <v>0.107532</v>
+        <v>0.107526</v>
       </c>
       <c r="AJ2">
-        <v>0.0647831</v>
+        <v>0.0642268</v>
       </c>
       <c r="AK2">
-        <v>0.0696763</v>
+        <v>0.0699308</v>
       </c>
       <c r="AL2">
-        <v>0.0765817</v>
+        <v>0.0734683</v>
       </c>
       <c r="AM2">
-        <v>0.03912259999999999</v>
+        <v>0.0368161</v>
       </c>
       <c r="AN2">
-        <v>0.250769</v>
+        <v>0.245047</v>
       </c>
       <c r="AO2">
-        <v>878.1180000000001</v>
+        <v>878.039</v>
       </c>
       <c r="AP2">
-        <v>834.934</v>
+        <v>836.8680000000001</v>
       </c>
       <c r="AQ2">
-        <v>891.7980000000001</v>
+        <v>891.706</v>
       </c>
       <c r="AR2">
-        <v>746.4879999999999</v>
+        <v>750.947</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT2">
-        <v>727.8340000000001</v>
+        <v>729.2950000000001</v>
       </c>
       <c r="AU2">
-        <v>784.847</v>
+        <v>784.778</v>
       </c>
       <c r="AV2">
-        <v>741.558</v>
+        <v>743.468</v>
       </c>
       <c r="AW2">
-        <v>796.894</v>
+        <v>800.4480000000001</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>62</v>
@@ -1132,115 +1125,115 @@
         <v>73</v>
       </c>
       <c r="M3">
-        <v>50.8729</v>
+        <v>49.6814</v>
       </c>
       <c r="N3">
-        <v>6.01658</v>
+        <v>11.2012</v>
       </c>
       <c r="O3">
-        <v>15.3044</v>
+        <v>16.8471</v>
       </c>
       <c r="P3">
-        <v>27.6598</v>
+        <v>30.9905</v>
       </c>
       <c r="Q3">
-        <v>50.8723</v>
+        <v>49.68170000000001</v>
       </c>
       <c r="R3">
-        <v>99.99890000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S3">
-        <v>26.7858</v>
+        <v>30.9905</v>
       </c>
       <c r="T3">
-        <v>27.6598</v>
+        <v>30.6714</v>
       </c>
       <c r="U3">
-        <v>15.3044</v>
+        <v>15.4334</v>
       </c>
       <c r="V3">
-        <v>8.63574</v>
+        <v>9.27782</v>
       </c>
       <c r="W3">
-        <v>8.70003</v>
+        <v>8.59421</v>
       </c>
       <c r="X3">
-        <v>5.57307</v>
+        <v>9.092359999999999</v>
       </c>
       <c r="Y3">
-        <v>5.57307</v>
+        <v>9.092359999999999</v>
       </c>
       <c r="Z3">
-        <v>5.57349</v>
+        <v>9.093439999999999</v>
       </c>
       <c r="AA3">
-        <v>14.8541</v>
+        <v>16.8471</v>
       </c>
       <c r="AB3">
-        <v>8.28218</v>
+        <v>8.28529</v>
       </c>
       <c r="AC3">
-        <v>8.230449999999999</v>
+        <v>8.01491</v>
       </c>
       <c r="AD3">
-        <v>6.01658</v>
+        <v>11.2012</v>
       </c>
       <c r="AE3">
-        <v>6.01658</v>
+        <v>11.2012</v>
       </c>
       <c r="AF3">
-        <v>6.01658</v>
+        <v>11.2012</v>
       </c>
       <c r="AG3">
-        <v>0.683028</v>
+        <v>0.680884</v>
       </c>
       <c r="AH3">
-        <v>0.363081</v>
+        <v>0.357258</v>
       </c>
       <c r="AI3">
-        <v>0.129437</v>
+        <v>0.129432</v>
       </c>
       <c r="AJ3">
-        <v>0.0613773</v>
+        <v>0.060467</v>
       </c>
       <c r="AK3">
-        <v>0.06567820000000001</v>
+        <v>0.0660505</v>
       </c>
       <c r="AL3">
-        <v>0.07073070000000001</v>
+        <v>0.067713</v>
       </c>
       <c r="AM3">
-        <v>0.0358711</v>
+        <v>0.0336053</v>
       </c>
       <c r="AN3">
-        <v>0.2341</v>
+        <v>0.228277</v>
       </c>
       <c r="AO3">
-        <v>877.228</v>
+        <v>877.1020000000001</v>
       </c>
       <c r="AP3">
-        <v>832.58</v>
+        <v>834.585</v>
       </c>
       <c r="AQ3">
-        <v>888.9789999999999</v>
+        <v>888.8390000000001</v>
       </c>
       <c r="AR3">
-        <v>742.414</v>
+        <v>746.615</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT3">
-        <v>726.3109999999999</v>
+        <v>727.919</v>
       </c>
       <c r="AU3">
-        <v>782.9680000000001</v>
+        <v>782.85</v>
       </c>
       <c r="AV3">
-        <v>738.143</v>
+        <v>740.11</v>
       </c>
       <c r="AW3">
-        <v>793.2850000000001</v>
+        <v>796.296</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>62</v>
@@ -1284,115 +1277,115 @@
         <v>75</v>
       </c>
       <c r="M4">
-        <v>50.7727</v>
+        <v>49.5356</v>
       </c>
       <c r="N4">
-        <v>5.11669</v>
+        <v>9.54782</v>
       </c>
       <c r="O4">
-        <v>14.4637</v>
+        <v>15.8009</v>
       </c>
       <c r="P4">
-        <v>23.0552</v>
+        <v>25.9692</v>
       </c>
       <c r="Q4">
-        <v>50.7669</v>
+        <v>49.5353</v>
       </c>
       <c r="R4">
-        <v>99.9885</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S4">
-        <v>22.2904</v>
+        <v>25.9692</v>
       </c>
       <c r="T4">
-        <v>23.0552</v>
+        <v>25.5003</v>
       </c>
       <c r="U4">
-        <v>14.4637</v>
+        <v>14.655</v>
       </c>
       <c r="V4">
-        <v>7.6023</v>
+        <v>8.16141</v>
       </c>
       <c r="W4">
-        <v>7.38293</v>
+        <v>7.284160000000001</v>
       </c>
       <c r="X4">
-        <v>4.72881</v>
+        <v>7.67625</v>
       </c>
       <c r="Y4">
-        <v>4.72881</v>
+        <v>7.67625</v>
       </c>
       <c r="Z4">
-        <v>4.72847</v>
+        <v>7.674189999999999</v>
       </c>
       <c r="AA4">
-        <v>14.0879</v>
+        <v>15.8009</v>
       </c>
       <c r="AB4">
-        <v>7.34858</v>
+        <v>7.370620000000001</v>
       </c>
       <c r="AC4">
-        <v>7.041250000000001</v>
+        <v>6.842709999999999</v>
       </c>
       <c r="AD4">
-        <v>5.11669</v>
+        <v>9.54782</v>
       </c>
       <c r="AE4">
-        <v>5.11669</v>
+        <v>9.54782</v>
       </c>
       <c r="AF4">
-        <v>5.11669</v>
+        <v>9.54782</v>
       </c>
       <c r="AG4">
-        <v>0.833737</v>
+        <v>0.831402</v>
       </c>
       <c r="AH4">
-        <v>0.547478</v>
+        <v>0.538423</v>
       </c>
       <c r="AI4">
-        <v>0.240595</v>
+        <v>0.240589</v>
       </c>
       <c r="AJ4">
-        <v>0.0836355</v>
+        <v>0.0815159</v>
       </c>
       <c r="AK4">
-        <v>0.08767330000000001</v>
+        <v>0.08860689999999999</v>
       </c>
       <c r="AL4">
-        <v>0.0898906</v>
+        <v>0.0860981</v>
       </c>
       <c r="AM4">
-        <v>0.0458123</v>
+        <v>0.0417329</v>
       </c>
       <c r="AN4">
-        <v>0.307568</v>
+        <v>0.298512</v>
       </c>
       <c r="AO4">
-        <v>875.54</v>
+        <v>875.318</v>
       </c>
       <c r="AP4">
-        <v>829.95</v>
+        <v>831.826</v>
       </c>
       <c r="AQ4">
-        <v>885.191</v>
+        <v>884.96</v>
       </c>
       <c r="AR4">
-        <v>737.903</v>
+        <v>741.595</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT4">
-        <v>724.771</v>
+        <v>726.328</v>
       </c>
       <c r="AU4">
-        <v>780.293</v>
+        <v>780.0880000000001</v>
       </c>
       <c r="AV4">
-        <v>734.5020000000001</v>
+        <v>736.333</v>
       </c>
       <c r="AW4">
-        <v>788.6800000000001</v>
+        <v>791.125</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>62</v>
@@ -1436,115 +1429,115 @@
         <v>73</v>
       </c>
       <c r="M5">
-        <v>50.5005</v>
+        <v>49.1777</v>
       </c>
       <c r="N5">
-        <v>7.11538</v>
+        <v>13.0103</v>
       </c>
       <c r="O5">
-        <v>17.5448</v>
+        <v>19.72</v>
       </c>
       <c r="P5">
-        <v>27.7132</v>
+        <v>31.721</v>
       </c>
       <c r="Q5">
-        <v>50.5006</v>
+        <v>49.1779</v>
       </c>
       <c r="R5">
         <v>100</v>
       </c>
       <c r="S5">
-        <v>27.2115</v>
+        <v>31.721</v>
       </c>
       <c r="T5">
-        <v>27.7132</v>
+        <v>30.9006</v>
       </c>
       <c r="U5">
-        <v>17.5448</v>
+        <v>17.7387</v>
       </c>
       <c r="V5">
-        <v>10.389</v>
+        <v>11.2509</v>
       </c>
       <c r="W5">
-        <v>10.0714</v>
+        <v>9.92764</v>
       </c>
       <c r="X5">
-        <v>6.510190000000001</v>
+        <v>10.2725</v>
       </c>
       <c r="Y5">
-        <v>6.510190000000001</v>
+        <v>10.2725</v>
       </c>
       <c r="Z5">
-        <v>6.50971</v>
+        <v>10.2725</v>
       </c>
       <c r="AA5">
-        <v>17.2013</v>
+        <v>19.72</v>
       </c>
       <c r="AB5">
-        <v>10.0867</v>
+        <v>10.1293</v>
       </c>
       <c r="AC5">
-        <v>9.818230000000002</v>
+        <v>9.578569999999999</v>
       </c>
       <c r="AD5">
-        <v>7.11538</v>
+        <v>13.0103</v>
       </c>
       <c r="AE5">
-        <v>7.11538</v>
+        <v>13.0103</v>
       </c>
       <c r="AF5">
-        <v>7.11538</v>
+        <v>13.0103</v>
       </c>
       <c r="AG5">
-        <v>0.678176</v>
+        <v>0.677127</v>
       </c>
       <c r="AH5">
-        <v>0.5069939999999999</v>
+        <v>0.498017</v>
       </c>
       <c r="AI5">
-        <v>0.248616</v>
+        <v>0.247918</v>
       </c>
       <c r="AJ5">
-        <v>0.0686156</v>
+        <v>0.0666629</v>
       </c>
       <c r="AK5">
-        <v>0.0771405</v>
+        <v>0.0781997</v>
       </c>
       <c r="AL5">
-        <v>0.0771382</v>
+        <v>0.0743491</v>
       </c>
       <c r="AM5">
-        <v>0.0405087</v>
+        <v>0.0352141</v>
       </c>
       <c r="AN5">
-        <v>0.315153</v>
+        <v>0.306175</v>
       </c>
       <c r="AO5">
-        <v>876.476</v>
+        <v>876.203</v>
       </c>
       <c r="AP5">
-        <v>832.611</v>
+        <v>834.8340000000001</v>
       </c>
       <c r="AQ5">
-        <v>888.72</v>
+        <v>888.4340000000001</v>
       </c>
       <c r="AR5">
-        <v>742.837</v>
+        <v>747.343</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT5">
-        <v>726.444</v>
+        <v>728.269</v>
       </c>
       <c r="AU5">
-        <v>782.588</v>
+        <v>782.33</v>
       </c>
       <c r="AV5">
-        <v>738.6419999999999</v>
+        <v>740.818</v>
       </c>
       <c r="AW5">
-        <v>793.338</v>
+        <v>796.5260000000001</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>62</v>
@@ -1588,115 +1581,115 @@
         <v>75</v>
       </c>
       <c r="M6">
-        <v>50.4423</v>
+        <v>49.0284</v>
       </c>
       <c r="N6">
-        <v>6.18289</v>
+        <v>11.2777</v>
       </c>
       <c r="O6">
-        <v>16.6138</v>
+        <v>18.4407</v>
       </c>
       <c r="P6">
-        <v>24.0822</v>
+        <v>27.685</v>
       </c>
       <c r="Q6">
-        <v>50.4407</v>
+        <v>49.0284</v>
       </c>
       <c r="R6">
-        <v>99.9969</v>
+        <v>100</v>
       </c>
       <c r="S6">
-        <v>23.6427</v>
+        <v>27.685</v>
       </c>
       <c r="T6">
-        <v>24.0822</v>
+        <v>26.7121</v>
       </c>
       <c r="U6">
-        <v>16.6138</v>
+        <v>16.8399</v>
       </c>
       <c r="V6">
-        <v>9.33925</v>
+        <v>10.0901</v>
       </c>
       <c r="W6">
-        <v>8.76234</v>
+        <v>8.63757</v>
       </c>
       <c r="X6">
-        <v>5.65463</v>
+        <v>8.89709</v>
       </c>
       <c r="Y6">
-        <v>5.65463</v>
+        <v>8.89709</v>
       </c>
       <c r="Z6">
-        <v>5.65833</v>
+        <v>8.899229999999999</v>
       </c>
       <c r="AA6">
-        <v>16.3224</v>
+        <v>18.4407</v>
       </c>
       <c r="AB6">
-        <v>9.07436</v>
+        <v>9.14771</v>
       </c>
       <c r="AC6">
-        <v>8.549390000000001</v>
+        <v>8.326270000000001</v>
       </c>
       <c r="AD6">
-        <v>6.18289</v>
+        <v>11.2777</v>
       </c>
       <c r="AE6">
-        <v>6.18289</v>
+        <v>11.2777</v>
       </c>
       <c r="AF6">
-        <v>6.18289</v>
+        <v>11.2777</v>
       </c>
       <c r="AG6">
-        <v>0.828508</v>
+        <v>0.827395</v>
       </c>
       <c r="AH6">
-        <v>0.716342</v>
+        <v>0.70338</v>
       </c>
       <c r="AI6">
-        <v>0.377166</v>
+        <v>0.376371</v>
       </c>
       <c r="AJ6">
-        <v>0.0927559</v>
+        <v>0.0892867</v>
       </c>
       <c r="AK6">
-        <v>0.102411</v>
+        <v>0.104137</v>
       </c>
       <c r="AL6">
-        <v>0.0978883</v>
+        <v>0.0944281</v>
       </c>
       <c r="AM6">
-        <v>0.05159859999999999</v>
+        <v>0.0438379</v>
       </c>
       <c r="AN6">
-        <v>0.403392</v>
+        <v>0.39043</v>
       </c>
       <c r="AO6">
-        <v>875.327</v>
+        <v>874.9639999999999</v>
       </c>
       <c r="AP6">
-        <v>830.6260000000001</v>
+        <v>832.741</v>
       </c>
       <c r="AQ6">
-        <v>885.796</v>
+        <v>885.418</v>
       </c>
       <c r="AR6">
-        <v>739.2650000000001</v>
+        <v>743.3100000000001</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT6">
-        <v>725.297</v>
+        <v>727.076</v>
       </c>
       <c r="AU6">
-        <v>780.58</v>
+        <v>780.231</v>
       </c>
       <c r="AV6">
-        <v>735.745</v>
+        <v>737.801</v>
       </c>
       <c r="AW6">
-        <v>789.707</v>
+        <v>792.337</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>62</v>
@@ -1740,115 +1733,115 @@
         <v>73</v>
       </c>
       <c r="M7">
-        <v>50.874</v>
+        <v>49.6782</v>
       </c>
       <c r="N7">
-        <v>5.98403</v>
+        <v>11.1683</v>
       </c>
       <c r="O7">
-        <v>15.3138</v>
+        <v>16.8525</v>
       </c>
       <c r="P7">
-        <v>27.632</v>
+        <v>30.9495</v>
       </c>
       <c r="Q7">
-        <v>50.8753</v>
+        <v>49.6777</v>
       </c>
       <c r="R7">
-        <v>100.003</v>
+        <v>99.99890000000001</v>
       </c>
       <c r="S7">
-        <v>26.7603</v>
+        <v>30.9495</v>
       </c>
       <c r="T7">
-        <v>27.632</v>
+        <v>30.631</v>
       </c>
       <c r="U7">
-        <v>15.3138</v>
+        <v>15.4327</v>
       </c>
       <c r="V7">
-        <v>8.63054</v>
+        <v>9.27234</v>
       </c>
       <c r="W7">
-        <v>8.703010000000001</v>
+        <v>8.59769</v>
       </c>
       <c r="X7">
-        <v>5.55817</v>
+        <v>9.05794</v>
       </c>
       <c r="Y7">
-        <v>5.55817</v>
+        <v>9.05794</v>
       </c>
       <c r="Z7">
-        <v>5.56044</v>
+        <v>9.045959999999999</v>
       </c>
       <c r="AA7">
-        <v>14.8414</v>
+        <v>16.8525</v>
       </c>
       <c r="AB7">
-        <v>8.28346</v>
+        <v>8.280250000000001</v>
       </c>
       <c r="AC7">
-        <v>8.229749999999999</v>
+        <v>8.01388</v>
       </c>
       <c r="AD7">
-        <v>5.98403</v>
+        <v>11.1683</v>
       </c>
       <c r="AE7">
-        <v>5.98403</v>
+        <v>11.1683</v>
       </c>
       <c r="AF7">
-        <v>5.98403</v>
+        <v>11.1683</v>
       </c>
       <c r="AG7">
-        <v>0.683052</v>
+        <v>0.680906</v>
       </c>
       <c r="AH7">
-        <v>0.362866</v>
+        <v>0.35704</v>
       </c>
       <c r="AI7">
-        <v>0.129437</v>
+        <v>0.129432</v>
       </c>
       <c r="AJ7">
-        <v>0.06138619999999999</v>
+        <v>0.0604697</v>
       </c>
       <c r="AK7">
-        <v>0.06567939999999999</v>
+        <v>0.0660554</v>
       </c>
       <c r="AL7">
-        <v>0.0707257</v>
+        <v>0.0677122</v>
       </c>
       <c r="AM7">
-        <v>0.035651</v>
+        <v>0.0333802</v>
       </c>
       <c r="AN7">
-        <v>0.233884</v>
+        <v>0.228059</v>
       </c>
       <c r="AO7">
-        <v>877.229</v>
+        <v>877.1020000000001</v>
       </c>
       <c r="AP7">
-        <v>832.583</v>
+        <v>834.587</v>
       </c>
       <c r="AQ7">
-        <v>888.982</v>
+        <v>888.8390000000001</v>
       </c>
       <c r="AR7">
-        <v>742.38</v>
+        <v>746.574</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT7">
-        <v>726.313</v>
+        <v>727.9200000000001</v>
       </c>
       <c r="AU7">
-        <v>782.965</v>
+        <v>782.852</v>
       </c>
       <c r="AV7">
-        <v>738.139</v>
+        <v>740.1110000000001</v>
       </c>
       <c r="AW7">
-        <v>793.2569999999999</v>
+        <v>796.256</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>62</v>
@@ -1892,115 +1885,115 @@
         <v>75</v>
       </c>
       <c r="M8">
-        <v>50.778</v>
+        <v>49.5303</v>
       </c>
       <c r="N8">
-        <v>5.089869999999999</v>
+        <v>9.493980000000001</v>
       </c>
       <c r="O8">
-        <v>14.4651</v>
+        <v>15.8003</v>
       </c>
       <c r="P8">
-        <v>23.0306</v>
+        <v>25.929</v>
       </c>
       <c r="Q8">
-        <v>50.7779</v>
+        <v>49.5311</v>
       </c>
       <c r="R8">
-        <v>99.99980000000001</v>
+        <v>100.002</v>
       </c>
       <c r="S8">
-        <v>22.2531</v>
+        <v>25.929</v>
       </c>
       <c r="T8">
-        <v>23.0306</v>
+        <v>25.4621</v>
       </c>
       <c r="U8">
-        <v>14.4651</v>
+        <v>14.6558</v>
       </c>
       <c r="V8">
-        <v>7.60435</v>
+        <v>8.160030000000001</v>
       </c>
       <c r="W8">
-        <v>7.384300000000001</v>
+        <v>7.28281</v>
       </c>
       <c r="X8">
-        <v>4.72281</v>
+        <v>7.65233</v>
       </c>
       <c r="Y8">
-        <v>4.72281</v>
+        <v>7.65233</v>
       </c>
       <c r="Z8">
-        <v>4.72289</v>
+        <v>7.65156</v>
       </c>
       <c r="AA8">
-        <v>14.0989</v>
+        <v>15.8003</v>
       </c>
       <c r="AB8">
-        <v>7.34923</v>
+        <v>7.373970000000001</v>
       </c>
       <c r="AC8">
-        <v>7.0428</v>
+        <v>6.84251</v>
       </c>
       <c r="AD8">
-        <v>5.089869999999999</v>
+        <v>9.493980000000001</v>
       </c>
       <c r="AE8">
-        <v>5.089869999999999</v>
+        <v>9.493980000000001</v>
       </c>
       <c r="AF8">
-        <v>5.089869999999999</v>
+        <v>9.493980000000001</v>
       </c>
       <c r="AG8">
-        <v>0.833752</v>
+        <v>0.831429</v>
       </c>
       <c r="AH8">
-        <v>0.547229</v>
+        <v>0.538161</v>
       </c>
       <c r="AI8">
-        <v>0.240595</v>
+        <v>0.240589</v>
       </c>
       <c r="AJ8">
-        <v>0.08362919999999999</v>
+        <v>0.0815139</v>
       </c>
       <c r="AK8">
-        <v>0.0876653</v>
+        <v>0.0886035</v>
       </c>
       <c r="AL8">
-        <v>0.0898958</v>
+        <v>0.0861039</v>
       </c>
       <c r="AM8">
-        <v>0.0455726</v>
+        <v>0.0414689</v>
       </c>
       <c r="AN8">
-        <v>0.30732</v>
+        <v>0.298248</v>
       </c>
       <c r="AO8">
-        <v>875.537</v>
+        <v>875.3200000000001</v>
       </c>
       <c r="AP8">
-        <v>829.941</v>
+        <v>831.827</v>
       </c>
       <c r="AQ8">
-        <v>885.1890000000001</v>
+        <v>884.958</v>
       </c>
       <c r="AR8">
-        <v>737.8770000000001</v>
+        <v>741.553</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT8">
-        <v>724.773</v>
+        <v>726.328</v>
       </c>
       <c r="AU8">
-        <v>780.292</v>
+        <v>780.0890000000001</v>
       </c>
       <c r="AV8">
-        <v>734.503</v>
+        <v>736.331</v>
       </c>
       <c r="AW8">
-        <v>788.6560000000001</v>
+        <v>791.087</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>62</v>
@@ -2044,115 +2037,115 @@
         <v>73</v>
       </c>
       <c r="M9">
-        <v>50.5038</v>
+        <v>49.1678</v>
       </c>
       <c r="N9">
-        <v>7.08555</v>
+        <v>12.9376</v>
       </c>
       <c r="O9">
-        <v>17.5511</v>
+        <v>19.7121</v>
       </c>
       <c r="P9">
-        <v>27.6843</v>
+        <v>31.6822</v>
       </c>
       <c r="Q9">
-        <v>50.5035</v>
+        <v>49.1683</v>
       </c>
       <c r="R9">
-        <v>99.99930000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S9">
-        <v>27.1826</v>
+        <v>31.6822</v>
       </c>
       <c r="T9">
-        <v>27.6843</v>
+        <v>30.849</v>
       </c>
       <c r="U9">
-        <v>17.5511</v>
+        <v>17.7321</v>
       </c>
       <c r="V9">
-        <v>10.3911</v>
+        <v>11.2578</v>
       </c>
       <c r="W9">
-        <v>10.0723</v>
+        <v>9.92651</v>
       </c>
       <c r="X9">
-        <v>6.49849</v>
+        <v>10.2315</v>
       </c>
       <c r="Y9">
-        <v>6.49849</v>
+        <v>10.2315</v>
       </c>
       <c r="Z9">
-        <v>6.49952</v>
+        <v>10.2272</v>
       </c>
       <c r="AA9">
-        <v>17.1977</v>
+        <v>19.7121</v>
       </c>
       <c r="AB9">
-        <v>10.0943</v>
+        <v>10.1233</v>
       </c>
       <c r="AC9">
-        <v>9.82136</v>
+        <v>9.575699999999999</v>
       </c>
       <c r="AD9">
-        <v>7.08555</v>
+        <v>12.9376</v>
       </c>
       <c r="AE9">
-        <v>7.08555</v>
+        <v>12.9376</v>
       </c>
       <c r="AF9">
-        <v>7.08555</v>
+        <v>12.9376</v>
       </c>
       <c r="AG9">
-        <v>0.678172</v>
+        <v>0.677141</v>
       </c>
       <c r="AH9">
-        <v>0.506813</v>
+        <v>0.497815</v>
       </c>
       <c r="AI9">
-        <v>0.248616</v>
+        <v>0.247918</v>
       </c>
       <c r="AJ9">
-        <v>0.06861329999999999</v>
+        <v>0.066662</v>
       </c>
       <c r="AK9">
-        <v>0.0771377</v>
+        <v>0.07822810000000001</v>
       </c>
       <c r="AL9">
-        <v>0.0771481</v>
+        <v>0.0743408</v>
       </c>
       <c r="AM9">
-        <v>0.0403222</v>
+        <v>0.0349936</v>
       </c>
       <c r="AN9">
-        <v>0.314972</v>
+        <v>0.305974</v>
       </c>
       <c r="AO9">
-        <v>876.4780000000001</v>
+        <v>876.205</v>
       </c>
       <c r="AP9">
-        <v>832.612</v>
+        <v>834.841</v>
       </c>
       <c r="AQ9">
-        <v>888.7220000000001</v>
+        <v>888.4359999999999</v>
       </c>
       <c r="AR9">
-        <v>742.808</v>
+        <v>747.308</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT9">
-        <v>726.444</v>
+        <v>728.27</v>
       </c>
       <c r="AU9">
-        <v>782.587</v>
+        <v>782.326</v>
       </c>
       <c r="AV9">
-        <v>738.6419999999999</v>
+        <v>740.826</v>
       </c>
       <c r="AW9">
-        <v>793.3090000000001</v>
+        <v>796.4739999999999</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>62</v>
@@ -2196,115 +2189,115 @@
         <v>75</v>
       </c>
       <c r="M10">
-        <v>50.4421</v>
+        <v>49.0211</v>
       </c>
       <c r="N10">
-        <v>6.15503</v>
+        <v>11.2179</v>
       </c>
       <c r="O10">
-        <v>16.6335</v>
+        <v>18.44</v>
       </c>
       <c r="P10">
-        <v>24.0542</v>
+        <v>27.6469</v>
       </c>
       <c r="Q10">
-        <v>50.4415</v>
+        <v>49.0207</v>
       </c>
       <c r="R10">
-        <v>99.9987</v>
+        <v>99.9992</v>
       </c>
       <c r="S10">
-        <v>23.6126</v>
+        <v>27.6469</v>
       </c>
       <c r="T10">
-        <v>24.0542</v>
+        <v>26.6698</v>
       </c>
       <c r="U10">
-        <v>16.6335</v>
+        <v>16.8342</v>
       </c>
       <c r="V10">
-        <v>9.3377</v>
+        <v>10.0938</v>
       </c>
       <c r="W10">
-        <v>8.765919999999999</v>
+        <v>8.636099999999999</v>
       </c>
       <c r="X10">
-        <v>5.6501</v>
+        <v>8.869160000000001</v>
       </c>
       <c r="Y10">
-        <v>5.6501</v>
+        <v>8.869160000000001</v>
       </c>
       <c r="Z10">
-        <v>5.64954</v>
+        <v>8.872949999999999</v>
       </c>
       <c r="AA10">
-        <v>16.3252</v>
+        <v>18.44</v>
       </c>
       <c r="AB10">
-        <v>9.079499999999999</v>
+        <v>9.14377</v>
       </c>
       <c r="AC10">
-        <v>8.54909</v>
+        <v>8.32612</v>
       </c>
       <c r="AD10">
-        <v>6.15503</v>
+        <v>11.2179</v>
       </c>
       <c r="AE10">
-        <v>6.15503</v>
+        <v>11.2179</v>
       </c>
       <c r="AF10">
-        <v>6.15503</v>
+        <v>11.2179</v>
       </c>
       <c r="AG10">
-        <v>0.828519</v>
+        <v>0.827409</v>
       </c>
       <c r="AH10">
-        <v>0.7161150000000001</v>
+        <v>0.703099</v>
       </c>
       <c r="AI10">
-        <v>0.377166</v>
+        <v>0.376371</v>
       </c>
       <c r="AJ10">
-        <v>0.0927444</v>
+        <v>0.089281</v>
       </c>
       <c r="AK10">
-        <v>0.102415</v>
+        <v>0.10414</v>
       </c>
       <c r="AL10">
-        <v>0.0978834</v>
+        <v>0.0944063</v>
       </c>
       <c r="AM10">
-        <v>0.0513829</v>
+        <v>0.0435825</v>
       </c>
       <c r="AN10">
-        <v>0.403165</v>
+        <v>0.390149</v>
       </c>
       <c r="AO10">
-        <v>875.323</v>
+        <v>874.96</v>
       </c>
       <c r="AP10">
-        <v>830.623</v>
+        <v>832.742</v>
       </c>
       <c r="AQ10">
-        <v>885.793</v>
+        <v>885.418</v>
       </c>
       <c r="AR10">
-        <v>739.24</v>
+        <v>743.271</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT10">
-        <v>725.3</v>
+        <v>727.075</v>
       </c>
       <c r="AU10">
-        <v>780.578</v>
+        <v>780.23</v>
       </c>
       <c r="AV10">
-        <v>735.7479999999999</v>
+        <v>737.803</v>
       </c>
       <c r="AW10">
-        <v>789.679</v>
+        <v>792.2950000000001</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>62</v>
@@ -2348,115 +2341,115 @@
         <v>73</v>
       </c>
       <c r="M11">
-        <v>49.9942</v>
+        <v>48.9685</v>
       </c>
       <c r="N11">
-        <v>10.0172</v>
+        <v>18.7553</v>
       </c>
       <c r="O11">
-        <v>19.49</v>
+        <v>22.0661</v>
       </c>
       <c r="P11">
-        <v>49.6002</v>
+        <v>55.6565</v>
       </c>
       <c r="Q11">
-        <v>49.993</v>
+        <v>48.9687</v>
       </c>
       <c r="R11">
-        <v>99.99760000000001</v>
+        <v>100</v>
       </c>
       <c r="S11">
-        <v>49.6002</v>
+        <v>55.6565</v>
       </c>
       <c r="T11">
-        <v>49.59690000000001</v>
+        <v>54.6245</v>
       </c>
       <c r="U11">
-        <v>19.3803</v>
+        <v>19.6989</v>
       </c>
       <c r="V11">
-        <v>14.0553</v>
+        <v>15.0448</v>
       </c>
       <c r="W11">
-        <v>14.6732</v>
+        <v>14.6219</v>
       </c>
       <c r="X11">
-        <v>9.315859999999999</v>
+        <v>15.2257</v>
       </c>
       <c r="Y11">
-        <v>9.315859999999999</v>
+        <v>15.2257</v>
       </c>
       <c r="Z11">
-        <v>9.318249999999999</v>
+        <v>15.2285</v>
       </c>
       <c r="AA11">
-        <v>19.49</v>
+        <v>22.0661</v>
       </c>
       <c r="AB11">
-        <v>13.2914</v>
+        <v>13.2756</v>
       </c>
       <c r="AC11">
-        <v>13.9321</v>
+        <v>13.6524</v>
       </c>
       <c r="AD11">
-        <v>10.0172</v>
+        <v>18.7553</v>
       </c>
       <c r="AE11">
-        <v>10.0172</v>
+        <v>18.7553</v>
       </c>
       <c r="AF11">
-        <v>10.0172</v>
+        <v>18.7553</v>
       </c>
       <c r="AG11">
-        <v>0.686863</v>
+        <v>0.682949</v>
       </c>
       <c r="AH11">
-        <v>0.227469</v>
+        <v>0.22321</v>
       </c>
       <c r="AI11">
         <v>0.0204357</v>
       </c>
       <c r="AJ11">
-        <v>0.052129</v>
+        <v>0.0514375</v>
       </c>
       <c r="AK11">
-        <v>0.05695799999999999</v>
+        <v>0.0568809</v>
       </c>
       <c r="AL11">
-        <v>0.06458420000000001</v>
+        <v>0.06212119999999999</v>
       </c>
       <c r="AM11">
-        <v>0.0335721</v>
+        <v>0.0325434</v>
       </c>
       <c r="AN11">
-        <v>0.207249</v>
+        <v>0.20299</v>
       </c>
       <c r="AO11">
-        <v>883.1180000000001</v>
+        <v>882.888</v>
       </c>
       <c r="AP11">
-        <v>845.342</v>
+        <v>847.5590000000001</v>
       </c>
       <c r="AQ11">
-        <v>906.376</v>
+        <v>906.136</v>
       </c>
       <c r="AR11">
-        <v>765.221</v>
+        <v>771.2800000000001</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT11">
-        <v>733</v>
+        <v>734.1949999999999</v>
       </c>
       <c r="AU11">
-        <v>794.679</v>
+        <v>794.441</v>
       </c>
       <c r="AV11">
-        <v>756.465</v>
+        <v>758.725</v>
       </c>
       <c r="AW11">
-        <v>815.2220000000001</v>
+        <v>820.249</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>62</v>
@@ -2500,115 +2493,115 @@
         <v>75</v>
       </c>
       <c r="M12">
-        <v>50.0463</v>
+        <v>49.4431</v>
       </c>
       <c r="N12">
-        <v>7.489120000000001</v>
+        <v>14.0851</v>
       </c>
       <c r="O12">
-        <v>16.3789</v>
+        <v>18.3956</v>
       </c>
       <c r="P12">
-        <v>35.8457</v>
+        <v>40.3253</v>
       </c>
       <c r="Q12">
-        <v>50.0482</v>
+        <v>49.44220000000001</v>
       </c>
       <c r="R12">
-        <v>100.004</v>
+        <v>99.998</v>
       </c>
       <c r="S12">
-        <v>35.7952</v>
+        <v>40.3253</v>
       </c>
       <c r="T12">
-        <v>35.8457</v>
+        <v>39.7685</v>
       </c>
       <c r="U12">
-        <v>16.1997</v>
+        <v>16.2282</v>
       </c>
       <c r="V12">
-        <v>10.4204</v>
+        <v>11.165</v>
       </c>
       <c r="W12">
-        <v>10.888</v>
+        <v>10.8359</v>
       </c>
       <c r="X12">
-        <v>6.90592</v>
+        <v>11.296</v>
       </c>
       <c r="Y12">
-        <v>6.90592</v>
+        <v>11.296</v>
       </c>
       <c r="Z12">
-        <v>6.90647</v>
+        <v>11.2951</v>
       </c>
       <c r="AA12">
-        <v>16.3789</v>
+        <v>18.3956</v>
       </c>
       <c r="AB12">
-        <v>9.95951</v>
+        <v>9.945590000000001</v>
       </c>
       <c r="AC12">
-        <v>10.484</v>
+        <v>10.2195</v>
       </c>
       <c r="AD12">
-        <v>7.489120000000001</v>
+        <v>14.0851</v>
       </c>
       <c r="AE12">
-        <v>7.489120000000001</v>
+        <v>14.0851</v>
       </c>
       <c r="AF12">
-        <v>7.489120000000001</v>
+        <v>14.0851</v>
       </c>
       <c r="AG12">
-        <v>0.837473</v>
+        <v>0.833978</v>
       </c>
       <c r="AH12">
-        <v>0.3296269999999999</v>
+        <v>0.324754</v>
       </c>
       <c r="AI12">
-        <v>0.06845789999999999</v>
+        <v>0.0684577</v>
       </c>
       <c r="AJ12">
-        <v>0.06686309999999999</v>
+        <v>0.0666356</v>
       </c>
       <c r="AK12">
-        <v>0.0716011</v>
+        <v>0.0716565</v>
       </c>
       <c r="AL12">
-        <v>0.0811863</v>
+        <v>0.0779651</v>
       </c>
       <c r="AM12">
-        <v>0.0414921</v>
+        <v>0.0400129</v>
       </c>
       <c r="AN12">
-        <v>0.261155</v>
+        <v>0.256283</v>
       </c>
       <c r="AO12">
-        <v>879.701</v>
+        <v>879.6600000000001</v>
       </c>
       <c r="AP12">
-        <v>837.915</v>
+        <v>839.6310000000001</v>
       </c>
       <c r="AQ12">
-        <v>895.539</v>
+        <v>895.49</v>
       </c>
       <c r="AR12">
-        <v>751.422</v>
+        <v>755.946</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT12">
-        <v>729.629</v>
+        <v>730.7280000000001</v>
       </c>
       <c r="AU12">
-        <v>787.5020000000001</v>
+        <v>787.468</v>
       </c>
       <c r="AV12">
-        <v>745.575</v>
+        <v>747.277</v>
       </c>
       <c r="AW12">
-        <v>801.471</v>
+        <v>805.394</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>62</v>
@@ -2652,115 +2645,115 @@
         <v>73</v>
       </c>
       <c r="M13">
-        <v>49.5866</v>
+        <v>48.7244</v>
       </c>
       <c r="N13">
-        <v>10.9745</v>
+        <v>20.4159</v>
       </c>
       <c r="O13">
-        <v>21.51</v>
+        <v>24.7066</v>
       </c>
       <c r="P13">
-        <v>46.7661</v>
+        <v>52.9342</v>
       </c>
       <c r="Q13">
-        <v>49.5879</v>
+        <v>48.7239</v>
       </c>
       <c r="R13">
-        <v>100.002</v>
+        <v>99.99890000000001</v>
       </c>
       <c r="S13">
-        <v>46.7661</v>
+        <v>52.9342</v>
       </c>
       <c r="T13">
-        <v>46.3576</v>
+        <v>51.6561</v>
       </c>
       <c r="U13">
-        <v>20.8796</v>
+        <v>21.3311</v>
       </c>
       <c r="V13">
-        <v>15.0929</v>
+        <v>16.2491</v>
       </c>
       <c r="W13">
-        <v>15.5484</v>
+        <v>15.4449</v>
       </c>
       <c r="X13">
-        <v>9.98263</v>
+        <v>15.9588</v>
       </c>
       <c r="Y13">
-        <v>9.98263</v>
+        <v>15.9588</v>
       </c>
       <c r="Z13">
-        <v>9.98146</v>
+        <v>15.9552</v>
       </c>
       <c r="AA13">
-        <v>21.51</v>
+        <v>24.7066</v>
       </c>
       <c r="AB13">
-        <v>14.571</v>
+        <v>14.5419</v>
       </c>
       <c r="AC13">
-        <v>15.3554</v>
+        <v>15.0149</v>
       </c>
       <c r="AD13">
-        <v>10.9745</v>
+        <v>20.4159</v>
       </c>
       <c r="AE13">
-        <v>10.9745</v>
+        <v>20.4159</v>
       </c>
       <c r="AF13">
-        <v>10.9745</v>
+        <v>20.4159</v>
       </c>
       <c r="AG13">
-        <v>0.682612</v>
+        <v>0.6800850000000001</v>
       </c>
       <c r="AH13">
-        <v>0.259874</v>
+        <v>0.254975</v>
       </c>
       <c r="AI13">
-        <v>0.0471621</v>
+        <v>0.0471416</v>
       </c>
       <c r="AJ13">
-        <v>0.0534667</v>
+        <v>0.0526387</v>
       </c>
       <c r="AK13">
-        <v>0.05901869999999999</v>
+        <v>0.059059</v>
       </c>
       <c r="AL13">
-        <v>0.06599050000000001</v>
+        <v>0.06347949999999999</v>
       </c>
       <c r="AM13">
-        <v>0.0343782</v>
+        <v>0.0327762</v>
       </c>
       <c r="AN13">
-        <v>0.21478</v>
+        <v>0.20988</v>
       </c>
       <c r="AO13">
-        <v>881.485</v>
+        <v>881.224</v>
       </c>
       <c r="AP13">
-        <v>843.443</v>
+        <v>845.759</v>
       </c>
       <c r="AQ13">
-        <v>903.444</v>
+        <v>903.162</v>
       </c>
       <c r="AR13">
-        <v>762.393</v>
+        <v>768.556</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT13">
-        <v>732.2809999999999</v>
+        <v>733.682</v>
       </c>
       <c r="AU13">
-        <v>792.4699999999999</v>
+        <v>792.1990000000001</v>
       </c>
       <c r="AV13">
-        <v>754.461</v>
+        <v>756.797</v>
       </c>
       <c r="AW13">
-        <v>811.9830000000001</v>
+        <v>817.2810000000001</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>62</v>
@@ -2804,115 +2797,115 @@
         <v>75</v>
       </c>
       <c r="M14">
-        <v>49.8003</v>
+        <v>49.1701</v>
       </c>
       <c r="N14">
-        <v>8.552770000000001</v>
+        <v>16.0102</v>
       </c>
       <c r="O14">
-        <v>18.4498</v>
+        <v>21.1251</v>
       </c>
       <c r="P14">
-        <v>35.855</v>
+        <v>40.7568</v>
       </c>
       <c r="Q14">
-        <v>49.8016</v>
+        <v>49.17010000000001</v>
       </c>
       <c r="R14">
-        <v>100.003</v>
+        <v>100</v>
       </c>
       <c r="S14">
-        <v>35.855</v>
+        <v>40.7568</v>
       </c>
       <c r="T14">
-        <v>35.6533</v>
+        <v>39.9266</v>
       </c>
       <c r="U14">
-        <v>18.1336</v>
+        <v>18.2552</v>
       </c>
       <c r="V14">
-        <v>11.8433</v>
+        <v>12.7424</v>
       </c>
       <c r="W14">
-        <v>12.2433</v>
+        <v>12.1263</v>
       </c>
       <c r="X14">
-        <v>7.78843</v>
+        <v>12.5279</v>
       </c>
       <c r="Y14">
-        <v>7.78843</v>
+        <v>12.5279</v>
       </c>
       <c r="Z14">
-        <v>7.78749</v>
+        <v>12.5241</v>
       </c>
       <c r="AA14">
-        <v>18.4498</v>
+        <v>21.1251</v>
       </c>
       <c r="AB14">
-        <v>11.4633</v>
+        <v>11.4471</v>
       </c>
       <c r="AC14">
-        <v>12.0561</v>
+        <v>11.7294</v>
       </c>
       <c r="AD14">
-        <v>8.552770000000001</v>
+        <v>16.0102</v>
       </c>
       <c r="AE14">
-        <v>8.552770000000001</v>
+        <v>16.0102</v>
       </c>
       <c r="AF14">
-        <v>8.552770000000001</v>
+        <v>16.0102</v>
       </c>
       <c r="AG14">
-        <v>0.833853</v>
+        <v>0.831294</v>
       </c>
       <c r="AH14">
-        <v>0.369062</v>
+        <v>0.363085</v>
       </c>
       <c r="AI14">
-        <v>0.0981995</v>
+        <v>0.0981759</v>
       </c>
       <c r="AJ14">
-        <v>0.0693492</v>
+        <v>0.0688241</v>
       </c>
       <c r="AK14">
-        <v>0.07534210000000001</v>
+        <v>0.0756529</v>
       </c>
       <c r="AL14">
-        <v>0.0831909</v>
+        <v>0.0800037</v>
       </c>
       <c r="AM14">
-        <v>0.0430707</v>
+        <v>0.0404955</v>
       </c>
       <c r="AN14">
-        <v>0.27313</v>
+        <v>0.267153</v>
       </c>
       <c r="AO14">
-        <v>878.8530000000001</v>
+        <v>878.761</v>
       </c>
       <c r="AP14">
-        <v>837.619</v>
+        <v>839.5450000000001</v>
       </c>
       <c r="AQ14">
-        <v>895.096</v>
+        <v>894.994</v>
       </c>
       <c r="AR14">
-        <v>751.4830000000001</v>
+        <v>756.386</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT14">
-        <v>729.471</v>
+        <v>730.795</v>
       </c>
       <c r="AU14">
-        <v>786.9350000000001</v>
+        <v>786.8580000000001</v>
       </c>
       <c r="AV14">
-        <v>745.7529999999999</v>
+        <v>747.6569999999999</v>
       </c>
       <c r="AW14">
-        <v>801.278</v>
+        <v>805.552</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>62</v>
@@ -2956,115 +2949,115 @@
         <v>73</v>
       </c>
       <c r="M15">
-        <v>50.0003</v>
+        <v>48.9739</v>
       </c>
       <c r="N15">
-        <v>9.962160000000001</v>
+        <v>18.6369</v>
       </c>
       <c r="O15">
-        <v>19.4906</v>
+        <v>22.0703</v>
       </c>
       <c r="P15">
-        <v>49.561</v>
+        <v>55.5934</v>
       </c>
       <c r="Q15">
-        <v>50.0004</v>
+        <v>48.9758</v>
       </c>
       <c r="R15">
-        <v>100</v>
+        <v>100.004</v>
       </c>
       <c r="S15">
-        <v>49.561</v>
+        <v>55.5934</v>
       </c>
       <c r="T15">
-        <v>49.558</v>
+        <v>54.5624</v>
       </c>
       <c r="U15">
-        <v>19.3776</v>
+        <v>19.6911</v>
       </c>
       <c r="V15">
-        <v>14.0564</v>
+        <v>15.0477</v>
       </c>
       <c r="W15">
-        <v>14.6739</v>
+        <v>14.6213</v>
       </c>
       <c r="X15">
-        <v>9.2805</v>
+        <v>15.1482</v>
       </c>
       <c r="Y15">
-        <v>9.2805</v>
+        <v>15.1482</v>
       </c>
       <c r="Z15">
-        <v>9.27521</v>
+        <v>15.1515</v>
       </c>
       <c r="AA15">
-        <v>19.4906</v>
+        <v>22.0703</v>
       </c>
       <c r="AB15">
-        <v>13.2746</v>
+        <v>13.2529</v>
       </c>
       <c r="AC15">
-        <v>13.9339</v>
+        <v>13.6507</v>
       </c>
       <c r="AD15">
-        <v>9.962160000000001</v>
+        <v>18.6369</v>
       </c>
       <c r="AE15">
-        <v>9.962160000000001</v>
+        <v>18.6369</v>
       </c>
       <c r="AF15">
-        <v>9.962160000000001</v>
+        <v>18.6369</v>
       </c>
       <c r="AG15">
-        <v>0.686869</v>
+        <v>0.683009</v>
       </c>
       <c r="AH15">
-        <v>0.227239</v>
+        <v>0.222936</v>
       </c>
       <c r="AI15">
         <v>0.0204357</v>
       </c>
       <c r="AJ15">
-        <v>0.0521271</v>
+        <v>0.0514263</v>
       </c>
       <c r="AK15">
-        <v>0.0569577</v>
+        <v>0.0568696</v>
       </c>
       <c r="AL15">
-        <v>0.0645926</v>
+        <v>0.0621169</v>
       </c>
       <c r="AM15">
-        <v>0.0333356</v>
+        <v>0.0322976</v>
       </c>
       <c r="AN15">
-        <v>0.207019</v>
+        <v>0.202717</v>
       </c>
       <c r="AO15">
-        <v>883.119</v>
+        <v>882.888</v>
       </c>
       <c r="AP15">
-        <v>845.341</v>
+        <v>847.551</v>
       </c>
       <c r="AQ15">
-        <v>906.376</v>
+        <v>906.138</v>
       </c>
       <c r="AR15">
-        <v>765.186</v>
+        <v>771.221</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT15">
-        <v>733.001</v>
+        <v>734.1949999999999</v>
       </c>
       <c r="AU15">
-        <v>794.6759999999999</v>
+        <v>794.439</v>
       </c>
       <c r="AV15">
-        <v>756.468</v>
+        <v>758.724</v>
       </c>
       <c r="AW15">
-        <v>815.183</v>
+        <v>820.187</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>62</v>
@@ -3108,115 +3101,115 @@
         <v>75</v>
       </c>
       <c r="M16">
-        <v>50.0524</v>
+        <v>49.4486</v>
       </c>
       <c r="N16">
-        <v>7.449020000000001</v>
+        <v>14.0021</v>
       </c>
       <c r="O16">
-        <v>16.3773</v>
+        <v>18.4033</v>
       </c>
       <c r="P16">
-        <v>35.8135</v>
+        <v>40.2682</v>
       </c>
       <c r="Q16">
-        <v>50.0529</v>
+        <v>49.4501</v>
       </c>
       <c r="R16">
-        <v>100.001</v>
+        <v>100.003</v>
       </c>
       <c r="S16">
-        <v>35.7648</v>
+        <v>40.2682</v>
       </c>
       <c r="T16">
-        <v>35.8135</v>
+        <v>39.718</v>
       </c>
       <c r="U16">
-        <v>16.1971</v>
+        <v>16.2251</v>
       </c>
       <c r="V16">
-        <v>10.4232</v>
+        <v>11.1792</v>
       </c>
       <c r="W16">
-        <v>10.8917</v>
+        <v>10.8149</v>
       </c>
       <c r="X16">
-        <v>6.88842</v>
+        <v>11.2471</v>
       </c>
       <c r="Y16">
-        <v>6.88842</v>
+        <v>11.2471</v>
       </c>
       <c r="Z16">
-        <v>6.88666</v>
+        <v>11.2463</v>
       </c>
       <c r="AA16">
-        <v>16.3773</v>
+        <v>18.4033</v>
       </c>
       <c r="AB16">
-        <v>9.9658</v>
+        <v>9.94706</v>
       </c>
       <c r="AC16">
-        <v>10.4801</v>
+        <v>10.2219</v>
       </c>
       <c r="AD16">
-        <v>7.449020000000001</v>
+        <v>14.0021</v>
       </c>
       <c r="AE16">
-        <v>7.449020000000001</v>
+        <v>14.0021</v>
       </c>
       <c r="AF16">
-        <v>7.449020000000001</v>
+        <v>14.0021</v>
       </c>
       <c r="AG16">
-        <v>0.837493</v>
+        <v>0.8340340000000001</v>
       </c>
       <c r="AH16">
-        <v>0.329345</v>
+        <v>0.324471</v>
       </c>
       <c r="AI16">
-        <v>0.06845789999999999</v>
+        <v>0.0684577</v>
       </c>
       <c r="AJ16">
-        <v>0.0668644</v>
+        <v>0.06663720000000001</v>
       </c>
       <c r="AK16">
-        <v>0.07160079999999999</v>
+        <v>0.071647</v>
       </c>
       <c r="AL16">
-        <v>0.0811834</v>
+        <v>0.0779787</v>
       </c>
       <c r="AM16">
-        <v>0.0412123</v>
+        <v>0.039724</v>
       </c>
       <c r="AN16">
-        <v>0.260874</v>
+        <v>0.256</v>
       </c>
       <c r="AO16">
-        <v>879.7</v>
+        <v>879.6600000000001</v>
       </c>
       <c r="AP16">
-        <v>837.915</v>
+        <v>839.626</v>
       </c>
       <c r="AQ16">
-        <v>895.537</v>
+        <v>895.49</v>
       </c>
       <c r="AR16">
-        <v>751.388</v>
+        <v>755.899</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT16">
-        <v>729.628</v>
+        <v>730.7280000000001</v>
       </c>
       <c r="AU16">
-        <v>787.499</v>
+        <v>787.468</v>
       </c>
       <c r="AV16">
-        <v>745.574</v>
+        <v>747.278</v>
       </c>
       <c r="AW16">
-        <v>801.438</v>
+        <v>805.343</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>62</v>
@@ -3260,115 +3253,115 @@
         <v>73</v>
       </c>
       <c r="M17">
-        <v>49.5963</v>
+        <v>48.7187</v>
       </c>
       <c r="N17">
-        <v>10.924</v>
+        <v>20.2944</v>
       </c>
       <c r="O17">
-        <v>21.511</v>
+        <v>24.7063</v>
       </c>
       <c r="P17">
-        <v>46.7215</v>
+        <v>52.8703</v>
       </c>
       <c r="Q17">
-        <v>49.5979</v>
+        <v>48.7202</v>
       </c>
       <c r="R17">
         <v>100.003</v>
       </c>
       <c r="S17">
-        <v>46.7215</v>
+        <v>52.8703</v>
       </c>
       <c r="T17">
-        <v>46.319</v>
+        <v>51.5915</v>
       </c>
       <c r="U17">
-        <v>20.88</v>
+        <v>21.3307</v>
       </c>
       <c r="V17">
-        <v>15.1018</v>
+        <v>16.2577</v>
       </c>
       <c r="W17">
-        <v>15.5495</v>
+        <v>15.4456</v>
       </c>
       <c r="X17">
-        <v>9.953370000000001</v>
+        <v>15.8794</v>
       </c>
       <c r="Y17">
-        <v>9.953370000000001</v>
+        <v>15.8794</v>
       </c>
       <c r="Z17">
-        <v>9.94899</v>
+        <v>15.8845</v>
       </c>
       <c r="AA17">
-        <v>21.511</v>
+        <v>24.7063</v>
       </c>
       <c r="AB17">
-        <v>14.5582</v>
+        <v>14.5393</v>
       </c>
       <c r="AC17">
-        <v>15.3571</v>
+        <v>15.016</v>
       </c>
       <c r="AD17">
-        <v>10.924</v>
+        <v>20.2944</v>
       </c>
       <c r="AE17">
-        <v>10.924</v>
+        <v>20.2944</v>
       </c>
       <c r="AF17">
-        <v>10.924</v>
+        <v>20.2944</v>
       </c>
       <c r="AG17">
-        <v>0.6826140000000001</v>
+        <v>0.680122</v>
       </c>
       <c r="AH17">
-        <v>0.259629</v>
+        <v>0.25475</v>
       </c>
       <c r="AI17">
-        <v>0.0471621</v>
+        <v>0.0471416</v>
       </c>
       <c r="AJ17">
-        <v>0.0534635</v>
+        <v>0.0526388</v>
       </c>
       <c r="AK17">
-        <v>0.0590053</v>
+        <v>0.0590598</v>
       </c>
       <c r="AL17">
-        <v>0.06599150000000001</v>
+        <v>0.0634813</v>
       </c>
       <c r="AM17">
-        <v>0.0341483</v>
+        <v>0.0325488</v>
       </c>
       <c r="AN17">
-        <v>0.214535</v>
+        <v>0.209656</v>
       </c>
       <c r="AO17">
-        <v>881.479</v>
+        <v>881.2230000000001</v>
       </c>
       <c r="AP17">
-        <v>843.442</v>
+        <v>845.756</v>
       </c>
       <c r="AQ17">
-        <v>903.4450000000001</v>
+        <v>903.159</v>
       </c>
       <c r="AR17">
-        <v>762.351</v>
+        <v>768.497</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT17">
-        <v>732.2809999999999</v>
+        <v>733.686</v>
       </c>
       <c r="AU17">
-        <v>792.4670000000001</v>
+        <v>792.202</v>
       </c>
       <c r="AV17">
-        <v>754.46</v>
+        <v>756.798</v>
       </c>
       <c r="AW17">
-        <v>811.9440000000001</v>
+        <v>817.217</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>62</v>
@@ -3412,115 +3405,115 @@
         <v>75</v>
       </c>
       <c r="M18">
-        <v>49.7991</v>
+        <v>49.16</v>
       </c>
       <c r="N18">
-        <v>8.51685</v>
+        <v>15.9201</v>
       </c>
       <c r="O18">
-        <v>18.4498</v>
+        <v>21.1295</v>
       </c>
       <c r="P18">
-        <v>35.8235</v>
+        <v>40.701</v>
       </c>
       <c r="Q18">
-        <v>49.79920000000001</v>
+        <v>49.162</v>
       </c>
       <c r="R18">
-        <v>100</v>
+        <v>100.004</v>
       </c>
       <c r="S18">
-        <v>35.8235</v>
+        <v>40.701</v>
       </c>
       <c r="T18">
-        <v>35.6235</v>
+        <v>39.8684</v>
       </c>
       <c r="U18">
-        <v>18.1314</v>
+        <v>18.249</v>
       </c>
       <c r="V18">
-        <v>11.8442</v>
+        <v>12.746</v>
       </c>
       <c r="W18">
-        <v>12.2417</v>
+        <v>12.1488</v>
       </c>
       <c r="X18">
-        <v>7.769680000000001</v>
+        <v>12.4717</v>
       </c>
       <c r="Y18">
-        <v>7.769680000000001</v>
+        <v>12.4717</v>
       </c>
       <c r="Z18">
-        <v>7.765770000000001</v>
+        <v>12.4734</v>
       </c>
       <c r="AA18">
-        <v>18.4498</v>
+        <v>21.1295</v>
       </c>
       <c r="AB18">
-        <v>11.465</v>
+        <v>11.4521</v>
       </c>
       <c r="AC18">
-        <v>12.0493</v>
+        <v>11.729</v>
       </c>
       <c r="AD18">
-        <v>8.51685</v>
+        <v>15.9201</v>
       </c>
       <c r="AE18">
-        <v>8.51685</v>
+        <v>15.9201</v>
       </c>
       <c r="AF18">
-        <v>8.51685</v>
+        <v>15.9201</v>
       </c>
       <c r="AG18">
-        <v>0.833871</v>
+        <v>0.831313</v>
       </c>
       <c r="AH18">
-        <v>0.368778</v>
+        <v>0.362833</v>
       </c>
       <c r="AI18">
-        <v>0.0981995</v>
+        <v>0.0981759</v>
       </c>
       <c r="AJ18">
-        <v>0.06934459999999999</v>
+        <v>0.06883120000000001</v>
       </c>
       <c r="AK18">
-        <v>0.0753422</v>
+        <v>0.07564700000000001</v>
       </c>
       <c r="AL18">
-        <v>0.08318049999999999</v>
+        <v>0.0800275</v>
       </c>
       <c r="AM18">
-        <v>0.0428018</v>
+        <v>0.0402186</v>
       </c>
       <c r="AN18">
-        <v>0.272846</v>
+        <v>0.266901</v>
       </c>
       <c r="AO18">
-        <v>878.8520000000001</v>
+        <v>878.7620000000001</v>
       </c>
       <c r="AP18">
-        <v>837.619</v>
+        <v>839.54</v>
       </c>
       <c r="AQ18">
-        <v>895.092</v>
+        <v>894.989</v>
       </c>
       <c r="AR18">
-        <v>751.447</v>
+        <v>756.328</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT18">
-        <v>729.4680000000001</v>
+        <v>730.799</v>
       </c>
       <c r="AU18">
-        <v>786.937</v>
+        <v>786.8580000000001</v>
       </c>
       <c r="AV18">
-        <v>745.7529999999999</v>
+        <v>747.652</v>
       </c>
       <c r="AW18">
-        <v>801.248</v>
+        <v>805.4930000000001</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>62</v>
@@ -3563,116 +3556,116 @@
       <c r="L19" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="3">
-        <v>54.3678</v>
+      <c r="M19">
+        <v>52.4239</v>
       </c>
       <c r="N19">
-        <v>7.768040000000001</v>
+        <v>13.4642</v>
       </c>
       <c r="O19">
-        <v>19.9233</v>
+        <v>19.95</v>
       </c>
       <c r="P19">
-        <v>38.3986</v>
+        <v>42.0499</v>
       </c>
       <c r="Q19">
-        <v>54.3672</v>
+        <v>52.4259</v>
       </c>
       <c r="R19">
-        <v>99.99890000000001</v>
+        <v>100.004</v>
       </c>
       <c r="S19">
-        <v>34.0321</v>
+        <v>39.6247</v>
       </c>
       <c r="T19">
-        <v>38.3986</v>
+        <v>42.0499</v>
       </c>
       <c r="U19">
-        <v>19.9233</v>
+        <v>19.95</v>
       </c>
       <c r="V19">
-        <v>12.458</v>
+        <v>13.3587</v>
       </c>
       <c r="W19">
-        <v>13.5204</v>
+        <v>13.3049</v>
       </c>
       <c r="X19">
-        <v>7.766529999999999</v>
+        <v>13.4662</v>
       </c>
       <c r="Y19">
-        <v>7.766529999999999</v>
+        <v>13.4662</v>
       </c>
       <c r="Z19">
-        <v>7.768040000000001</v>
+        <v>13.4642</v>
       </c>
       <c r="AA19">
-        <v>15.0457</v>
+        <v>16.8945</v>
       </c>
       <c r="AB19">
-        <v>9.500259999999999</v>
+        <v>9.48821</v>
       </c>
       <c r="AC19">
-        <v>9.265639999999999</v>
+        <v>9.167159999999999</v>
       </c>
       <c r="AD19">
-        <v>7.36412</v>
+        <v>12.7133</v>
       </c>
       <c r="AE19">
-        <v>7.36412</v>
+        <v>12.7133</v>
       </c>
       <c r="AF19">
-        <v>7.36412</v>
+        <v>12.7133</v>
       </c>
       <c r="AG19">
-        <v>0.684537</v>
+        <v>0.6819</v>
       </c>
       <c r="AH19">
-        <v>0.278335</v>
+        <v>0.273992</v>
       </c>
       <c r="AI19">
-        <v>0.0619627</v>
+        <v>0.06196209999999999</v>
       </c>
       <c r="AJ19">
-        <v>0.0554726</v>
+        <v>0.0552119</v>
       </c>
       <c r="AK19">
-        <v>0.0598108</v>
+        <v>0.0598631</v>
       </c>
       <c r="AL19">
-        <v>0.06710569999999999</v>
+        <v>0.0643826</v>
       </c>
       <c r="AM19">
-        <v>0.0341928</v>
+        <v>0.032781</v>
       </c>
       <c r="AN19">
-        <v>0.216733</v>
+        <v>0.21239</v>
       </c>
       <c r="AO19">
-        <v>882.76</v>
+        <v>882.707</v>
       </c>
       <c r="AP19">
-        <v>836.442</v>
+        <v>838.746</v>
       </c>
       <c r="AQ19">
-        <v>899.0120000000001</v>
+        <v>898.9400000000001</v>
       </c>
       <c r="AR19">
-        <v>749.659</v>
+        <v>755.253</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT19">
-        <v>726.3430000000001</v>
+        <v>727.909</v>
       </c>
       <c r="AU19">
-        <v>789.111</v>
+        <v>789.061</v>
       </c>
       <c r="AV19">
-        <v>742.782</v>
+        <v>745.0390000000001</v>
       </c>
       <c r="AW19">
-        <v>804.024</v>
+        <v>807.6750000000001</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>62</v>
@@ -3715,116 +3708,116 @@
       <c r="L20" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="3">
-        <v>53.444</v>
+      <c r="M20">
+        <v>51.8735</v>
       </c>
       <c r="N20">
-        <v>5.9815</v>
+        <v>10.4318</v>
       </c>
       <c r="O20">
-        <v>16.6796</v>
+        <v>16.7774</v>
       </c>
       <c r="P20">
-        <v>29.6745</v>
+        <v>32.5874</v>
       </c>
       <c r="Q20">
-        <v>53.4452</v>
+        <v>51.8723</v>
       </c>
       <c r="R20">
-        <v>100.002</v>
+        <v>99.9978</v>
       </c>
       <c r="S20">
-        <v>26.2219</v>
+        <v>30.715</v>
       </c>
       <c r="T20">
-        <v>29.6745</v>
+        <v>32.5874</v>
       </c>
       <c r="U20">
-        <v>16.6796</v>
+        <v>16.7774</v>
       </c>
       <c r="V20">
-        <v>9.728389999999999</v>
+        <v>10.3921</v>
       </c>
       <c r="W20">
-        <v>10.1991</v>
+        <v>10.0225</v>
       </c>
       <c r="X20">
-        <v>5.982159999999999</v>
+        <v>10.272</v>
       </c>
       <c r="Y20">
-        <v>5.982159999999999</v>
+        <v>10.272</v>
       </c>
       <c r="Z20">
-        <v>5.9815</v>
+        <v>10.2656</v>
       </c>
       <c r="AA20">
-        <v>14.0809</v>
+        <v>15.656</v>
       </c>
       <c r="AB20">
-        <v>7.84612</v>
+        <v>7.84731</v>
       </c>
       <c r="AC20">
-        <v>7.631620000000001</v>
+        <v>7.491890000000001</v>
       </c>
       <c r="AD20">
-        <v>5.88984</v>
+        <v>10.4318</v>
       </c>
       <c r="AE20">
-        <v>5.88984</v>
+        <v>10.4318</v>
       </c>
       <c r="AF20">
-        <v>5.88984</v>
+        <v>10.4318</v>
       </c>
       <c r="AG20">
-        <v>0.8354470000000001</v>
+        <v>0.832662</v>
       </c>
       <c r="AH20">
-        <v>0.416243</v>
+        <v>0.409816</v>
       </c>
       <c r="AI20">
-        <v>0.139059</v>
+        <v>0.139058</v>
       </c>
       <c r="AJ20">
-        <v>0.07242009999999999</v>
+        <v>0.071603</v>
       </c>
       <c r="AK20">
-        <v>0.0772086</v>
+        <v>0.0774633</v>
       </c>
       <c r="AL20">
-        <v>0.0846913</v>
+        <v>0.0811344</v>
       </c>
       <c r="AM20">
-        <v>0.0429236</v>
+        <v>0.0406165</v>
       </c>
       <c r="AN20">
-        <v>0.277441</v>
+        <v>0.271015</v>
       </c>
       <c r="AO20">
-        <v>879.6490000000001</v>
+        <v>879.554</v>
       </c>
       <c r="AP20">
-        <v>832.0010000000001</v>
+        <v>834.046</v>
       </c>
       <c r="AQ20">
-        <v>891.538</v>
+        <v>891.4200000000001</v>
       </c>
       <c r="AR20">
-        <v>741.8460000000001</v>
+        <v>746.343</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT20">
-        <v>724.3200000000001</v>
+        <v>725.85</v>
       </c>
       <c r="AU20">
-        <v>784.3530000000001</v>
+        <v>784.255</v>
       </c>
       <c r="AV20">
-        <v>736.872</v>
+        <v>738.864</v>
       </c>
       <c r="AW20">
-        <v>795.3000000000001</v>
+        <v>798.212</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>62</v>
@@ -3867,116 +3860,116 @@
       <c r="L21" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="3">
-        <v>53.4657</v>
+      <c r="M21">
+        <v>51.5867</v>
       </c>
       <c r="N21">
-        <v>8.42033</v>
+        <v>14.3799</v>
       </c>
       <c r="O21">
-        <v>21.328</v>
+        <v>21.4383</v>
       </c>
       <c r="P21">
-        <v>36.6985</v>
+        <v>40.572</v>
       </c>
       <c r="Q21">
-        <v>53.46559999999999</v>
+        <v>51.589</v>
       </c>
       <c r="R21">
-        <v>99.99980000000001</v>
+        <v>100.004</v>
       </c>
       <c r="S21">
-        <v>33.2365</v>
+        <v>38.97880000000001</v>
       </c>
       <c r="T21">
-        <v>36.6985</v>
+        <v>40.572</v>
       </c>
       <c r="U21">
-        <v>21.328</v>
+        <v>21.4383</v>
       </c>
       <c r="V21">
-        <v>13.7377</v>
+        <v>14.8085</v>
       </c>
       <c r="W21">
-        <v>14.3852</v>
+        <v>14.1388</v>
       </c>
       <c r="X21">
-        <v>8.43187</v>
+        <v>14.1676</v>
       </c>
       <c r="Y21">
-        <v>8.43187</v>
+        <v>14.1676</v>
       </c>
       <c r="Z21">
-        <v>8.42033</v>
+        <v>14.1593</v>
       </c>
       <c r="AA21">
-        <v>17.0288</v>
+        <v>19.2167</v>
       </c>
       <c r="AB21">
-        <v>10.9016</v>
+        <v>10.9074</v>
       </c>
       <c r="AC21">
-        <v>10.7184</v>
+        <v>10.607</v>
       </c>
       <c r="AD21">
-        <v>8.30373</v>
+        <v>14.3799</v>
       </c>
       <c r="AE21">
-        <v>8.30373</v>
+        <v>14.3799</v>
       </c>
       <c r="AF21">
-        <v>8.30373</v>
+        <v>14.3799</v>
       </c>
       <c r="AG21">
-        <v>0.6805369999999999</v>
+        <v>0.678921</v>
       </c>
       <c r="AH21">
-        <v>0.341082</v>
+        <v>0.335079</v>
       </c>
       <c r="AI21">
-        <v>0.111777</v>
+        <v>0.111667</v>
       </c>
       <c r="AJ21">
-        <v>0.0588765</v>
+        <v>0.0581667</v>
       </c>
       <c r="AK21">
-        <v>0.0652068</v>
+        <v>0.0655741</v>
       </c>
       <c r="AL21">
-        <v>0.0702272</v>
+        <v>0.0675806</v>
       </c>
       <c r="AM21">
-        <v>0.0365259</v>
+        <v>0.0335125</v>
       </c>
       <c r="AN21">
-        <v>0.248224</v>
+        <v>0.242221</v>
       </c>
       <c r="AO21">
-        <v>881.559</v>
+        <v>881.4300000000001</v>
       </c>
       <c r="AP21">
-        <v>835.7610000000001</v>
+        <v>838.277</v>
       </c>
       <c r="AQ21">
-        <v>897.403</v>
+        <v>897.231</v>
       </c>
       <c r="AR21">
-        <v>748.8610000000001</v>
+        <v>754.606</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT21">
-        <v>725.917</v>
+        <v>727.7</v>
       </c>
       <c r="AU21">
-        <v>787.6840000000001</v>
+        <v>787.553</v>
       </c>
       <c r="AV21">
-        <v>742.2080000000001</v>
+        <v>744.649</v>
       </c>
       <c r="AW21">
-        <v>802.323</v>
+        <v>806.1970000000001</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>62</v>
@@ -4020,115 +4013,115 @@
         <v>75</v>
       </c>
       <c r="M22">
-        <v>52.9427</v>
+        <v>51.2742</v>
       </c>
       <c r="N22">
-        <v>6.8956</v>
+        <v>12.1317</v>
       </c>
       <c r="O22">
-        <v>18.5982</v>
+        <v>18.7348</v>
       </c>
       <c r="P22">
-        <v>30.0395</v>
+        <v>33.1948</v>
       </c>
       <c r="Q22">
-        <v>52.944</v>
+        <v>51.2742</v>
       </c>
       <c r="R22">
-        <v>100.003</v>
+        <v>100</v>
       </c>
       <c r="S22">
-        <v>27.0914</v>
+        <v>31.9206</v>
       </c>
       <c r="T22">
-        <v>30.0395</v>
+        <v>33.1948</v>
       </c>
       <c r="U22">
-        <v>18.5982</v>
+        <v>18.7348</v>
       </c>
       <c r="V22">
-        <v>11.2952</v>
+        <v>12.151</v>
       </c>
       <c r="W22">
-        <v>11.5018</v>
+        <v>11.2887</v>
       </c>
       <c r="X22">
-        <v>6.82889</v>
+        <v>11.391</v>
       </c>
       <c r="Y22">
-        <v>6.82889</v>
+        <v>11.391</v>
       </c>
       <c r="Z22">
-        <v>6.83166</v>
+        <v>11.391</v>
       </c>
       <c r="AA22">
-        <v>15.8871</v>
+        <v>17.7951</v>
       </c>
       <c r="AB22">
-        <v>9.37036</v>
+        <v>9.389480000000001</v>
       </c>
       <c r="AC22">
-        <v>9.05518</v>
+        <v>8.90278</v>
       </c>
       <c r="AD22">
-        <v>6.8956</v>
+        <v>12.1317</v>
       </c>
       <c r="AE22">
-        <v>6.8956</v>
+        <v>12.1317</v>
       </c>
       <c r="AF22">
-        <v>6.8956</v>
+        <v>12.1317</v>
       </c>
       <c r="AG22">
-        <v>0.831491</v>
+        <v>0.829641</v>
       </c>
       <c r="AH22">
-        <v>0.481693</v>
+        <v>0.472886</v>
       </c>
       <c r="AI22">
-        <v>0.18525</v>
+        <v>0.18513</v>
       </c>
       <c r="AJ22">
-        <v>0.0778929</v>
+        <v>0.0763354</v>
       </c>
       <c r="AK22">
-        <v>0.08515829999999999</v>
+        <v>0.0859066</v>
       </c>
       <c r="AL22">
-        <v>0.08877299999999999</v>
+        <v>0.08541209999999999</v>
       </c>
       <c r="AM22">
-        <v>0.0462477</v>
+        <v>0.0416106</v>
       </c>
       <c r="AN22">
-        <v>0.317346</v>
+        <v>0.308538</v>
       </c>
       <c r="AO22">
-        <v>879.204</v>
+        <v>879.013</v>
       </c>
       <c r="AP22">
-        <v>832.331</v>
+        <v>834.6170000000001</v>
       </c>
       <c r="AQ22">
-        <v>891.671</v>
+        <v>891.4499999999999</v>
       </c>
       <c r="AR22">
-        <v>742.7149999999999</v>
+        <v>747.546</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT22">
-        <v>724.46</v>
+        <v>726.186</v>
       </c>
       <c r="AU22">
-        <v>784.143</v>
+        <v>783.949</v>
       </c>
       <c r="AV22">
-        <v>737.5980000000001</v>
+        <v>739.802</v>
       </c>
       <c r="AW22">
-        <v>795.665</v>
+        <v>798.8200000000001</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>62</v>
@@ -4171,116 +4164,116 @@
       <c r="L23" t="s">
         <v>73</v>
       </c>
-      <c r="M23" s="3">
-        <v>54.373</v>
+      <c r="M23">
+        <v>52.4386</v>
       </c>
       <c r="N23">
-        <v>7.739440000000001</v>
+        <v>13.3944</v>
       </c>
       <c r="O23">
-        <v>19.9253</v>
+        <v>19.9481</v>
       </c>
       <c r="P23">
-        <v>38.3724</v>
+        <v>42.0113</v>
       </c>
       <c r="Q23">
-        <v>54.3736</v>
+        <v>52.4395</v>
       </c>
       <c r="R23">
-        <v>100.001</v>
+        <v>100.002</v>
       </c>
       <c r="S23">
-        <v>33.9983</v>
+        <v>39.5681</v>
       </c>
       <c r="T23">
-        <v>38.3724</v>
+        <v>42.0113</v>
       </c>
       <c r="U23">
-        <v>19.9253</v>
+        <v>19.9481</v>
       </c>
       <c r="V23">
-        <v>12.4577</v>
+        <v>13.3652</v>
       </c>
       <c r="W23">
-        <v>13.5215</v>
+        <v>13.3022</v>
       </c>
       <c r="X23">
-        <v>7.743230000000001</v>
+        <v>13.3972</v>
       </c>
       <c r="Y23">
-        <v>7.743230000000001</v>
+        <v>13.3972</v>
       </c>
       <c r="Z23">
-        <v>7.739440000000001</v>
+        <v>13.3944</v>
       </c>
       <c r="AA23">
-        <v>15.0415</v>
+        <v>16.8961</v>
       </c>
       <c r="AB23">
-        <v>9.4969</v>
+        <v>9.484690000000001</v>
       </c>
       <c r="AC23">
-        <v>9.268880000000001</v>
+        <v>9.164579999999999</v>
       </c>
       <c r="AD23">
-        <v>7.324520000000001</v>
+        <v>12.6394</v>
       </c>
       <c r="AE23">
-        <v>7.324520000000001</v>
+        <v>12.6394</v>
       </c>
       <c r="AF23">
-        <v>7.324520000000001</v>
+        <v>12.6394</v>
       </c>
       <c r="AG23">
-        <v>0.684566</v>
+        <v>0.681939</v>
       </c>
       <c r="AH23">
-        <v>0.278095</v>
+        <v>0.273761</v>
       </c>
       <c r="AI23">
-        <v>0.0619627</v>
+        <v>0.06196209999999999</v>
       </c>
       <c r="AJ23">
-        <v>0.055469</v>
+        <v>0.0552127</v>
       </c>
       <c r="AK23">
-        <v>0.0598086</v>
+        <v>0.0598656</v>
       </c>
       <c r="AL23">
-        <v>0.0671032</v>
+        <v>0.0643803</v>
       </c>
       <c r="AM23">
-        <v>0.0339614</v>
+        <v>0.03254969999999999</v>
       </c>
       <c r="AN23">
-        <v>0.216493</v>
+        <v>0.21216</v>
       </c>
       <c r="AO23">
-        <v>882.759</v>
+        <v>882.706</v>
       </c>
       <c r="AP23">
-        <v>836.444</v>
+        <v>838.7429999999999</v>
       </c>
       <c r="AQ23">
-        <v>899.009</v>
+        <v>898.939</v>
       </c>
       <c r="AR23">
-        <v>749.6229999999999</v>
+        <v>755.1980000000001</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT23">
-        <v>726.3430000000001</v>
+        <v>727.909</v>
       </c>
       <c r="AU23">
-        <v>789.114</v>
+        <v>789.063</v>
       </c>
       <c r="AV23">
-        <v>742.782</v>
+        <v>745.0390000000001</v>
       </c>
       <c r="AW23">
-        <v>803.997</v>
+        <v>807.636</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>62</v>
@@ -4323,116 +4316,116 @@
       <c r="L24" t="s">
         <v>75</v>
       </c>
-      <c r="M24" s="3">
-        <v>53.4516</v>
+      <c r="M24">
+        <v>51.8789</v>
       </c>
       <c r="N24">
-        <v>5.96478</v>
+        <v>10.3694</v>
       </c>
       <c r="O24">
-        <v>16.6878</v>
+        <v>16.7776</v>
       </c>
       <c r="P24">
-        <v>29.652</v>
+        <v>32.5486</v>
       </c>
       <c r="Q24">
-        <v>53.4494</v>
+        <v>51.8793</v>
       </c>
       <c r="R24">
-        <v>99.99590000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S24">
-        <v>26.1988</v>
+        <v>30.6686</v>
       </c>
       <c r="T24">
-        <v>29.652</v>
+        <v>32.5486</v>
       </c>
       <c r="U24">
-        <v>16.6878</v>
+        <v>16.7776</v>
       </c>
       <c r="V24">
-        <v>9.72709</v>
+        <v>10.3878</v>
       </c>
       <c r="W24">
-        <v>10.2008</v>
+        <v>10.0239</v>
       </c>
       <c r="X24">
-        <v>5.966670000000001</v>
+        <v>10.2222</v>
       </c>
       <c r="Y24">
-        <v>5.966670000000001</v>
+        <v>10.2222</v>
       </c>
       <c r="Z24">
-        <v>5.96478</v>
+        <v>10.2048</v>
       </c>
       <c r="AA24">
-        <v>14.0726</v>
+        <v>15.654</v>
       </c>
       <c r="AB24">
-        <v>7.843249999999999</v>
+        <v>7.841570000000001</v>
       </c>
       <c r="AC24">
-        <v>7.628410000000001</v>
+        <v>7.493320000000001</v>
       </c>
       <c r="AD24">
-        <v>5.85775</v>
+        <v>10.3694</v>
       </c>
       <c r="AE24">
-        <v>5.85775</v>
+        <v>10.3694</v>
       </c>
       <c r="AF24">
-        <v>5.85775</v>
+        <v>10.3694</v>
       </c>
       <c r="AG24">
-        <v>0.835459</v>
+        <v>0.832682</v>
       </c>
       <c r="AH24">
-        <v>0.415972</v>
+        <v>0.40953</v>
       </c>
       <c r="AI24">
-        <v>0.139059</v>
+        <v>0.139058</v>
       </c>
       <c r="AJ24">
-        <v>0.0724154</v>
+        <v>0.0716017</v>
       </c>
       <c r="AK24">
-        <v>0.07721049999999999</v>
+        <v>0.07745929999999999</v>
       </c>
       <c r="AL24">
-        <v>0.08468790000000001</v>
+        <v>0.08113390000000001</v>
       </c>
       <c r="AM24">
-        <v>0.042659</v>
+        <v>0.0403365</v>
       </c>
       <c r="AN24">
-        <v>0.27717</v>
+        <v>0.270729</v>
       </c>
       <c r="AO24">
-        <v>879.654</v>
+        <v>879.5549999999999</v>
       </c>
       <c r="AP24">
-        <v>832.004</v>
+        <v>834.045</v>
       </c>
       <c r="AQ24">
-        <v>891.543</v>
+        <v>891.422</v>
       </c>
       <c r="AR24">
-        <v>741.8190000000001</v>
+        <v>746.2959999999999</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT24">
-        <v>724.323</v>
+        <v>725.849</v>
       </c>
       <c r="AU24">
-        <v>784.354</v>
+        <v>784.256</v>
       </c>
       <c r="AV24">
-        <v>736.876</v>
+        <v>738.8630000000001</v>
       </c>
       <c r="AW24">
-        <v>795.277</v>
+        <v>798.174</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>62</v>
@@ -4475,116 +4468,116 @@
       <c r="L25" t="s">
         <v>73</v>
       </c>
-      <c r="M25" s="3">
-        <v>53.4627</v>
+      <c r="M25">
+        <v>51.5976</v>
       </c>
       <c r="N25">
-        <v>8.401910000000001</v>
+        <v>14.3083</v>
       </c>
       <c r="O25">
-        <v>21.3313</v>
+        <v>21.4354</v>
       </c>
       <c r="P25">
-        <v>36.6657</v>
+        <v>40.5233</v>
       </c>
       <c r="Q25">
-        <v>53.46259999999999</v>
+        <v>51.5944</v>
       </c>
       <c r="R25">
-        <v>99.9999</v>
+        <v>99.9937</v>
       </c>
       <c r="S25">
-        <v>33.2055</v>
+        <v>38.9239</v>
       </c>
       <c r="T25">
-        <v>36.6657</v>
+        <v>40.5233</v>
       </c>
       <c r="U25">
-        <v>21.3313</v>
+        <v>21.4354</v>
       </c>
       <c r="V25">
-        <v>13.7402</v>
+        <v>14.8188</v>
       </c>
       <c r="W25">
-        <v>14.3875</v>
+        <v>14.1395</v>
       </c>
       <c r="X25">
-        <v>8.405190000000001</v>
+        <v>14.0928</v>
       </c>
       <c r="Y25">
-        <v>8.405190000000001</v>
+        <v>14.0928</v>
       </c>
       <c r="Z25">
-        <v>8.401910000000001</v>
+        <v>14.0921</v>
       </c>
       <c r="AA25">
-        <v>17.01</v>
+        <v>19.2188</v>
       </c>
       <c r="AB25">
-        <v>10.9016</v>
+        <v>10.9011</v>
       </c>
       <c r="AC25">
-        <v>10.7178</v>
+        <v>10.6068</v>
       </c>
       <c r="AD25">
-        <v>8.26591</v>
+        <v>14.3083</v>
       </c>
       <c r="AE25">
-        <v>8.26591</v>
+        <v>14.3083</v>
       </c>
       <c r="AF25">
-        <v>8.26591</v>
+        <v>14.3083</v>
       </c>
       <c r="AG25">
-        <v>0.680536</v>
+        <v>0.678942</v>
       </c>
       <c r="AH25">
-        <v>0.340884</v>
+        <v>0.334844</v>
       </c>
       <c r="AI25">
-        <v>0.111777</v>
+        <v>0.111667</v>
       </c>
       <c r="AJ25">
-        <v>0.0588803</v>
+        <v>0.05816519999999999</v>
       </c>
       <c r="AK25">
-        <v>0.0652158</v>
+        <v>0.0655659</v>
       </c>
       <c r="AL25">
-        <v>0.07022669999999999</v>
+        <v>0.067578</v>
       </c>
       <c r="AM25">
-        <v>0.0363157</v>
+        <v>0.0332904</v>
       </c>
       <c r="AN25">
-        <v>0.248026</v>
+        <v>0.241987</v>
       </c>
       <c r="AO25">
-        <v>881.558</v>
+        <v>881.426</v>
       </c>
       <c r="AP25">
-        <v>835.7640000000001</v>
+        <v>838.276</v>
       </c>
       <c r="AQ25">
-        <v>897.4010000000001</v>
+        <v>897.231</v>
       </c>
       <c r="AR25">
-        <v>748.831</v>
+        <v>754.543</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT25">
-        <v>725.9200000000001</v>
+        <v>727.697</v>
       </c>
       <c r="AU25">
-        <v>787.6859999999999</v>
+        <v>787.554</v>
       </c>
       <c r="AV25">
-        <v>742.211</v>
+        <v>744.64</v>
       </c>
       <c r="AW25">
-        <v>802.2910000000001</v>
+        <v>806.148</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>62</v>
@@ -4628,115 +4621,115 @@
         <v>75</v>
       </c>
       <c r="M26">
-        <v>52.9461</v>
+        <v>51.2747</v>
       </c>
       <c r="N26">
-        <v>6.86185</v>
+        <v>12.084</v>
       </c>
       <c r="O26">
-        <v>18.6012</v>
+        <v>18.7387</v>
       </c>
       <c r="P26">
-        <v>30.015</v>
+        <v>33.1483</v>
       </c>
       <c r="Q26">
-        <v>52.9462</v>
+        <v>51.2742</v>
       </c>
       <c r="R26">
-        <v>100</v>
+        <v>99.9991</v>
       </c>
       <c r="S26">
-        <v>27.0643</v>
+        <v>31.8745</v>
       </c>
       <c r="T26">
-        <v>30.015</v>
+        <v>33.1483</v>
       </c>
       <c r="U26">
-        <v>18.6012</v>
+        <v>18.7387</v>
       </c>
       <c r="V26">
-        <v>11.3</v>
+        <v>12.1497</v>
       </c>
       <c r="W26">
-        <v>11.5035</v>
+        <v>11.2866</v>
       </c>
       <c r="X26">
-        <v>6.81393</v>
+        <v>11.3455</v>
       </c>
       <c r="Y26">
-        <v>6.81393</v>
+        <v>11.3455</v>
       </c>
       <c r="Z26">
-        <v>6.81344</v>
+        <v>11.3371</v>
       </c>
       <c r="AA26">
-        <v>15.9014</v>
+        <v>17.8037</v>
       </c>
       <c r="AB26">
-        <v>9.36382</v>
+        <v>9.39128</v>
       </c>
       <c r="AC26">
-        <v>9.057410000000001</v>
+        <v>8.90418</v>
       </c>
       <c r="AD26">
-        <v>6.86185</v>
+        <v>12.084</v>
       </c>
       <c r="AE26">
-        <v>6.86185</v>
+        <v>12.084</v>
       </c>
       <c r="AF26">
-        <v>6.86185</v>
+        <v>12.084</v>
       </c>
       <c r="AG26">
-        <v>0.831503</v>
+        <v>0.829664</v>
       </c>
       <c r="AH26">
-        <v>0.481461</v>
+        <v>0.472667</v>
       </c>
       <c r="AI26">
-        <v>0.18525</v>
+        <v>0.18513</v>
       </c>
       <c r="AJ26">
-        <v>0.07789299999999999</v>
+        <v>0.0763422</v>
       </c>
       <c r="AK26">
-        <v>0.0851628</v>
+        <v>0.08591269999999999</v>
       </c>
       <c r="AL26">
-        <v>0.08877739999999999</v>
+        <v>0.0854345</v>
       </c>
       <c r="AM26">
-        <v>0.0460066</v>
+        <v>0.0413568</v>
       </c>
       <c r="AN26">
-        <v>0.317114</v>
+        <v>0.30832</v>
       </c>
       <c r="AO26">
-        <v>879.2049999999999</v>
+        <v>879.014</v>
       </c>
       <c r="AP26">
-        <v>832.333</v>
+        <v>834.6180000000001</v>
       </c>
       <c r="AQ26">
-        <v>891.672</v>
+        <v>891.4499999999999</v>
       </c>
       <c r="AR26">
-        <v>742.6880000000001</v>
+        <v>747.499</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT26">
-        <v>724.46</v>
+        <v>726.1880000000001</v>
       </c>
       <c r="AU26">
-        <v>784.145</v>
+        <v>783.948</v>
       </c>
       <c r="AV26">
-        <v>737.601</v>
+        <v>739.803</v>
       </c>
       <c r="AW26">
-        <v>795.64</v>
+        <v>798.773</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>62</v>
@@ -4779,116 +4772,116 @@
       <c r="L27" t="s">
         <v>73</v>
       </c>
-      <c r="M27" s="4">
-        <v>46.6291</v>
+      <c r="M27" s="3">
+        <v>46.7146</v>
       </c>
       <c r="N27">
-        <v>8.41635</v>
+        <v>16.8298</v>
       </c>
       <c r="O27">
-        <v>19.7147</v>
+        <v>22.6212</v>
       </c>
       <c r="P27">
-        <v>38.1766</v>
+        <v>42.6246</v>
       </c>
       <c r="Q27">
-        <v>46.6277</v>
+        <v>46.71550000000001</v>
       </c>
       <c r="R27">
-        <v>99.9971</v>
+        <v>100.002</v>
       </c>
       <c r="S27">
-        <v>38.1766</v>
+        <v>42.6246</v>
       </c>
       <c r="T27">
-        <v>34.8032</v>
+        <v>39.3347</v>
       </c>
       <c r="U27">
-        <v>15.2985</v>
+        <v>15.5035</v>
       </c>
       <c r="V27">
-        <v>9.90676</v>
+        <v>10.7379</v>
       </c>
       <c r="W27">
-        <v>9.64171</v>
+        <v>9.605039999999999</v>
       </c>
       <c r="X27">
-        <v>6.842169999999999</v>
+        <v>10.4525</v>
       </c>
       <c r="Y27">
-        <v>6.842169999999999</v>
+        <v>10.4525</v>
       </c>
       <c r="Z27">
-        <v>6.83854</v>
+        <v>10.4515</v>
       </c>
       <c r="AA27">
-        <v>19.7147</v>
+        <v>22.6212</v>
       </c>
       <c r="AB27">
-        <v>11.5846</v>
+        <v>11.5715</v>
       </c>
       <c r="AC27">
-        <v>12.6954</v>
+        <v>12.2085</v>
       </c>
       <c r="AD27">
-        <v>8.41635</v>
+        <v>16.8298</v>
       </c>
       <c r="AE27">
-        <v>8.41635</v>
+        <v>16.8298</v>
       </c>
       <c r="AF27">
-        <v>8.41635</v>
+        <v>16.8298</v>
       </c>
       <c r="AG27">
-        <v>0.684615</v>
+        <v>0.681964</v>
       </c>
       <c r="AH27">
-        <v>0.27552</v>
+        <v>0.2710689999999999</v>
       </c>
       <c r="AI27">
-        <v>0.0592308</v>
+        <v>0.0592285</v>
       </c>
       <c r="AJ27">
-        <v>0.0553074</v>
+        <v>0.0548115</v>
       </c>
       <c r="AK27">
-        <v>0.0595604</v>
+        <v>0.05966</v>
       </c>
       <c r="AL27">
-        <v>0.0670862</v>
+        <v>0.06436399999999999</v>
       </c>
       <c r="AM27">
-        <v>0.03433840000000001</v>
+        <v>0.03300669999999999</v>
       </c>
       <c r="AN27">
-        <v>0.216416</v>
+        <v>0.211965</v>
       </c>
       <c r="AO27">
-        <v>877.15</v>
+        <v>877.026</v>
       </c>
       <c r="AP27">
-        <v>839.453</v>
+        <v>841.2139999999999</v>
       </c>
       <c r="AQ27">
-        <v>893.47</v>
+        <v>893.351</v>
       </c>
       <c r="AR27">
-        <v>753.802</v>
+        <v>758.252</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT27">
-        <v>732.489</v>
+        <v>733.7700000000001</v>
       </c>
       <c r="AU27">
-        <v>786.6320000000001</v>
+        <v>786.534</v>
       </c>
       <c r="AV27">
-        <v>748.73</v>
+        <v>750.508</v>
       </c>
       <c r="AW27">
-        <v>800.428</v>
+        <v>804.96</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>62</v>
@@ -4932,115 +4925,115 @@
         <v>75</v>
       </c>
       <c r="M28">
-        <v>47.4566</v>
+        <v>47.366</v>
       </c>
       <c r="N28">
-        <v>6.5543</v>
+        <v>12.9841</v>
       </c>
       <c r="O28">
-        <v>16.6711</v>
+        <v>18.9186</v>
       </c>
       <c r="P28">
-        <v>29.5015</v>
+        <v>33.1095</v>
       </c>
       <c r="Q28">
-        <v>47.4592</v>
+        <v>47.3624</v>
       </c>
       <c r="R28">
-        <v>100.005</v>
+        <v>99.9924</v>
       </c>
       <c r="S28">
-        <v>29.5015</v>
+        <v>33.1095</v>
       </c>
       <c r="T28">
-        <v>26.9616</v>
+        <v>30.4728</v>
       </c>
       <c r="U28">
-        <v>14.2735</v>
+        <v>14.3426</v>
       </c>
       <c r="V28">
-        <v>8.13617</v>
+        <v>8.767139999999999</v>
       </c>
       <c r="W28">
-        <v>7.93284</v>
+        <v>7.87767</v>
       </c>
       <c r="X28">
-        <v>5.48772</v>
+        <v>8.53749</v>
       </c>
       <c r="Y28">
-        <v>5.48772</v>
+        <v>8.53749</v>
       </c>
       <c r="Z28">
-        <v>5.48699</v>
+        <v>8.53729</v>
       </c>
       <c r="AA28">
-        <v>16.6711</v>
+        <v>18.9186</v>
       </c>
       <c r="AB28">
-        <v>9.22301</v>
+        <v>9.21382</v>
       </c>
       <c r="AC28">
-        <v>9.754240000000001</v>
+        <v>9.368980000000001</v>
       </c>
       <c r="AD28">
-        <v>6.5543</v>
+        <v>12.9841</v>
       </c>
       <c r="AE28">
-        <v>6.5543</v>
+        <v>12.9841</v>
       </c>
       <c r="AF28">
-        <v>6.5543</v>
+        <v>12.9841</v>
       </c>
       <c r="AG28">
-        <v>0.835369</v>
+        <v>0.832627</v>
       </c>
       <c r="AH28">
-        <v>0.417592</v>
+        <v>0.411456</v>
       </c>
       <c r="AI28">
-        <v>0.141045</v>
+        <v>0.141042</v>
       </c>
       <c r="AJ28">
-        <v>0.07193340000000001</v>
+        <v>0.07144639999999999</v>
       </c>
       <c r="AK28">
-        <v>0.07686609999999999</v>
+        <v>0.0771614</v>
       </c>
       <c r="AL28">
-        <v>0.08460380000000001</v>
+        <v>0.0810097</v>
       </c>
       <c r="AM28">
-        <v>0.0431737</v>
+        <v>0.0408235</v>
       </c>
       <c r="AN28">
-        <v>0.276735</v>
+        <v>0.2706</v>
       </c>
       <c r="AO28">
-        <v>874.955</v>
+        <v>874.893</v>
       </c>
       <c r="AP28">
-        <v>834.577</v>
+        <v>836.0500000000001</v>
       </c>
       <c r="AQ28">
-        <v>887.4780000000001</v>
+        <v>887.401</v>
       </c>
       <c r="AR28">
-        <v>745.126</v>
+        <v>748.734</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT28">
-        <v>729.434</v>
+        <v>730.615</v>
       </c>
       <c r="AU28">
-        <v>782.24</v>
+        <v>782.187</v>
       </c>
       <c r="AV28">
-        <v>741.3919999999999</v>
+        <v>742.842</v>
       </c>
       <c r="AW28">
-        <v>792.587</v>
+        <v>796.098</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>62</v>
@@ -5083,116 +5076,116 @@
       <c r="L29" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="4">
-        <v>46.8473</v>
+      <c r="M29" s="3">
+        <v>46.8512</v>
       </c>
       <c r="N29">
-        <v>9.44946</v>
+        <v>18.5877</v>
       </c>
       <c r="O29">
-        <v>21.8051</v>
+        <v>25.0567</v>
       </c>
       <c r="P29">
-        <v>36.9641</v>
+        <v>41.6779</v>
       </c>
       <c r="Q29">
-        <v>46.8462</v>
+        <v>46.8529</v>
       </c>
       <c r="R29">
-        <v>99.9978</v>
+        <v>100.004</v>
       </c>
       <c r="S29">
-        <v>36.9641</v>
+        <v>41.6779</v>
       </c>
       <c r="T29">
-        <v>33.8137</v>
+        <v>38.536</v>
       </c>
       <c r="U29">
-        <v>17.2996</v>
+        <v>17.7512</v>
       </c>
       <c r="V29">
-        <v>11.3841</v>
+        <v>12.3809</v>
       </c>
       <c r="W29">
-        <v>10.9953</v>
+        <v>10.926</v>
       </c>
       <c r="X29">
-        <v>7.752670000000001</v>
+        <v>11.6962</v>
       </c>
       <c r="Y29">
-        <v>7.752670000000001</v>
+        <v>11.6962</v>
       </c>
       <c r="Z29">
-        <v>7.75367</v>
+        <v>11.6976</v>
       </c>
       <c r="AA29">
-        <v>21.8051</v>
+        <v>25.0567</v>
       </c>
       <c r="AB29">
-        <v>13.3222</v>
+        <v>13.3339</v>
       </c>
       <c r="AC29">
-        <v>14.1973</v>
+        <v>13.6575</v>
       </c>
       <c r="AD29">
-        <v>9.44946</v>
+        <v>18.5877</v>
       </c>
       <c r="AE29">
-        <v>9.44946</v>
+        <v>18.5877</v>
       </c>
       <c r="AF29">
-        <v>9.44946</v>
+        <v>18.5877</v>
       </c>
       <c r="AG29">
-        <v>0.680362</v>
+        <v>0.678798</v>
       </c>
       <c r="AH29">
-        <v>0.360036</v>
+        <v>0.353996</v>
       </c>
       <c r="AI29">
-        <v>0.131499</v>
+        <v>0.13109</v>
       </c>
       <c r="AJ29">
-        <v>0.0584727</v>
+        <v>0.0575196</v>
       </c>
       <c r="AK29">
-        <v>0.06517490000000001</v>
+        <v>0.06574919999999999</v>
       </c>
       <c r="AL29">
-        <v>0.07029580000000001</v>
+        <v>0.0675975</v>
       </c>
       <c r="AM29">
-        <v>0.0367947</v>
+        <v>0.0338318</v>
       </c>
       <c r="AN29">
-        <v>0.253137</v>
+        <v>0.247097</v>
       </c>
       <c r="AO29">
-        <v>875.792</v>
+        <v>875.561</v>
       </c>
       <c r="AP29">
-        <v>838.37</v>
+        <v>840.255</v>
       </c>
       <c r="AQ29">
-        <v>892.201</v>
+        <v>891.9829999999999</v>
       </c>
       <c r="AR29">
-        <v>752.587</v>
+        <v>757.303</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT29">
-        <v>732.148</v>
+        <v>733.657</v>
       </c>
       <c r="AU29">
-        <v>785.662</v>
+        <v>785.471</v>
       </c>
       <c r="AV29">
-        <v>748.073</v>
+        <v>749.9640000000001</v>
       </c>
       <c r="AW29">
-        <v>799.439</v>
+        <v>804.1609999999999</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>62</v>
@@ -5236,115 +5229,115 @@
         <v>75</v>
       </c>
       <c r="M30">
-        <v>47.4154</v>
+        <v>47.2073</v>
       </c>
       <c r="N30">
-        <v>7.64282</v>
+        <v>14.9028</v>
       </c>
       <c r="O30">
-        <v>18.8015</v>
+        <v>21.414</v>
       </c>
       <c r="P30">
-        <v>30.1178</v>
+        <v>34.1142</v>
       </c>
       <c r="Q30">
-        <v>47.4155</v>
+        <v>47.2054</v>
       </c>
       <c r="R30">
-        <v>100</v>
+        <v>99.996</v>
       </c>
       <c r="S30">
-        <v>30.1178</v>
+        <v>34.1142</v>
       </c>
       <c r="T30">
-        <v>27.5273</v>
+        <v>31.3207</v>
       </c>
       <c r="U30">
-        <v>16.1281</v>
+        <v>16.305</v>
       </c>
       <c r="V30">
-        <v>9.69509</v>
+        <v>10.4726</v>
       </c>
       <c r="W30">
-        <v>9.292630000000001</v>
+        <v>9.213570000000001</v>
       </c>
       <c r="X30">
-        <v>6.41598</v>
+        <v>9.802420000000001</v>
       </c>
       <c r="Y30">
-        <v>6.41598</v>
+        <v>9.802420000000001</v>
       </c>
       <c r="Z30">
-        <v>6.41103</v>
+        <v>9.79548</v>
       </c>
       <c r="AA30">
-        <v>18.8015</v>
+        <v>21.414</v>
       </c>
       <c r="AB30">
-        <v>10.9627</v>
+        <v>10.9655</v>
       </c>
       <c r="AC30">
-        <v>11.3307</v>
+        <v>10.896</v>
       </c>
       <c r="AD30">
-        <v>7.64282</v>
+        <v>14.9028</v>
       </c>
       <c r="AE30">
-        <v>7.64282</v>
+        <v>14.9028</v>
       </c>
       <c r="AF30">
-        <v>7.64282</v>
+        <v>14.9028</v>
       </c>
       <c r="AG30">
-        <v>0.831317</v>
+        <v>0.829487</v>
       </c>
       <c r="AH30">
-        <v>0.5241440000000001</v>
+        <v>0.515784</v>
       </c>
       <c r="AI30">
-        <v>0.228589</v>
+        <v>0.228117</v>
       </c>
       <c r="AJ30">
-        <v>0.07718649999999999</v>
+        <v>0.0760512</v>
       </c>
       <c r="AK30">
-        <v>0.0851504</v>
+        <v>0.086072</v>
       </c>
       <c r="AL30">
-        <v>0.08889209999999999</v>
+        <v>0.08544249999999999</v>
       </c>
       <c r="AM30">
-        <v>0.0466919</v>
+        <v>0.0419942</v>
       </c>
       <c r="AN30">
-        <v>0.323699</v>
+        <v>0.31534</v>
       </c>
       <c r="AO30">
-        <v>874.336</v>
+        <v>874.187</v>
       </c>
       <c r="AP30">
-        <v>834.634</v>
+        <v>836.332</v>
       </c>
       <c r="AQ30">
-        <v>887.5640000000001</v>
+        <v>887.403</v>
       </c>
       <c r="AR30">
-        <v>745.7429999999999</v>
+        <v>749.7380000000001</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT30">
-        <v>729.6460000000001</v>
+        <v>731.051</v>
       </c>
       <c r="AU30">
-        <v>782.2080000000001</v>
+        <v>782.0790000000001</v>
       </c>
       <c r="AV30">
-        <v>742.1220000000001</v>
+        <v>743.787</v>
       </c>
       <c r="AW30">
-        <v>793.152</v>
+        <v>796.946</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>62</v>
@@ -5387,116 +5380,116 @@
       <c r="L31" t="s">
         <v>73</v>
       </c>
-      <c r="M31" s="4">
-        <v>46.6289</v>
+      <c r="M31" s="3">
+        <v>46.6954</v>
       </c>
       <c r="N31">
-        <v>8.371080000000001</v>
+        <v>16.7143</v>
       </c>
       <c r="O31">
-        <v>19.7102</v>
+        <v>22.6201</v>
       </c>
       <c r="P31">
-        <v>38.1456</v>
+        <v>42.5791</v>
       </c>
       <c r="Q31">
-        <v>46.6273</v>
+        <v>46.6935</v>
       </c>
       <c r="R31">
-        <v>99.9965</v>
+        <v>99.9958</v>
       </c>
       <c r="S31">
-        <v>38.1456</v>
+        <v>42.5791</v>
       </c>
       <c r="T31">
-        <v>34.7716</v>
+        <v>39.2737</v>
       </c>
       <c r="U31">
-        <v>15.3057</v>
+        <v>15.5056</v>
       </c>
       <c r="V31">
-        <v>9.89846</v>
+        <v>10.7393</v>
       </c>
       <c r="W31">
-        <v>9.642469999999999</v>
+        <v>9.607360000000002</v>
       </c>
       <c r="X31">
-        <v>6.824850000000001</v>
+        <v>10.4163</v>
       </c>
       <c r="Y31">
-        <v>6.824850000000001</v>
+        <v>10.4163</v>
       </c>
       <c r="Z31">
-        <v>6.82427</v>
+        <v>10.4166</v>
       </c>
       <c r="AA31">
-        <v>19.7102</v>
+        <v>22.6201</v>
       </c>
       <c r="AB31">
-        <v>11.5836</v>
+        <v>11.5671</v>
       </c>
       <c r="AC31">
-        <v>12.6974</v>
+        <v>12.2094</v>
       </c>
       <c r="AD31">
-        <v>8.371080000000001</v>
+        <v>16.7143</v>
       </c>
       <c r="AE31">
-        <v>8.371080000000001</v>
+        <v>16.7143</v>
       </c>
       <c r="AF31">
-        <v>8.371080000000001</v>
+        <v>16.7143</v>
       </c>
       <c r="AG31">
-        <v>0.68464</v>
+        <v>0.682026</v>
       </c>
       <c r="AH31">
-        <v>0.275273</v>
+        <v>0.270827</v>
       </c>
       <c r="AI31">
-        <v>0.0592308</v>
+        <v>0.0592285</v>
       </c>
       <c r="AJ31">
-        <v>0.0553053</v>
+        <v>0.0548122</v>
       </c>
       <c r="AK31">
-        <v>0.0595465</v>
+        <v>0.059658</v>
       </c>
       <c r="AL31">
-        <v>0.0670849</v>
+        <v>0.064359</v>
       </c>
       <c r="AM31">
-        <v>0.0341089</v>
+        <v>0.0327714</v>
       </c>
       <c r="AN31">
-        <v>0.216169</v>
+        <v>0.211724</v>
       </c>
       <c r="AO31">
-        <v>877.149</v>
+        <v>877.027</v>
       </c>
       <c r="AP31">
-        <v>839.457</v>
+        <v>841.215</v>
       </c>
       <c r="AQ31">
-        <v>893.4720000000001</v>
+        <v>893.3480000000001</v>
       </c>
       <c r="AR31">
-        <v>753.7679999999999</v>
+        <v>758.201</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT31">
-        <v>732.487</v>
+        <v>733.775</v>
       </c>
       <c r="AU31">
-        <v>786.634</v>
+        <v>786.5360000000001</v>
       </c>
       <c r="AV31">
-        <v>748.7289999999999</v>
+        <v>750.5029999999999</v>
       </c>
       <c r="AW31">
-        <v>800.397</v>
+        <v>804.899</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>62</v>
@@ -5540,115 +5533,115 @@
         <v>75</v>
       </c>
       <c r="M32">
-        <v>47.4646</v>
+        <v>47.3534</v>
       </c>
       <c r="N32">
-        <v>6.52205</v>
+        <v>12.9059</v>
       </c>
       <c r="O32">
-        <v>16.6709</v>
+        <v>18.9186</v>
       </c>
       <c r="P32">
-        <v>29.4716</v>
+        <v>33.0648</v>
       </c>
       <c r="Q32">
-        <v>47.4629</v>
+        <v>47.354</v>
       </c>
       <c r="R32">
-        <v>99.9965</v>
+        <v>100.001</v>
       </c>
       <c r="S32">
-        <v>29.4716</v>
+        <v>33.0648</v>
       </c>
       <c r="T32">
-        <v>26.9304</v>
+        <v>30.4182</v>
       </c>
       <c r="U32">
-        <v>14.2752</v>
+        <v>14.3436</v>
       </c>
       <c r="V32">
-        <v>8.13879</v>
+        <v>8.76172</v>
       </c>
       <c r="W32">
-        <v>7.93413</v>
+        <v>7.876890000000001</v>
       </c>
       <c r="X32">
-        <v>5.47741</v>
+        <v>8.504519999999999</v>
       </c>
       <c r="Y32">
-        <v>5.47741</v>
+        <v>8.504519999999999</v>
       </c>
       <c r="Z32">
-        <v>5.47784</v>
+        <v>8.503299999999999</v>
       </c>
       <c r="AA32">
-        <v>16.6709</v>
+        <v>18.9186</v>
       </c>
       <c r="AB32">
-        <v>9.22001</v>
+        <v>9.21228</v>
       </c>
       <c r="AC32">
-        <v>9.75567</v>
+        <v>9.370340000000001</v>
       </c>
       <c r="AD32">
-        <v>6.52205</v>
+        <v>12.9059</v>
       </c>
       <c r="AE32">
-        <v>6.52205</v>
+        <v>12.9059</v>
       </c>
       <c r="AF32">
-        <v>6.52205</v>
+        <v>12.9059</v>
       </c>
       <c r="AG32">
-        <v>0.8353969999999999</v>
+        <v>0.83266</v>
       </c>
       <c r="AH32">
-        <v>0.41731</v>
+        <v>0.411189</v>
       </c>
       <c r="AI32">
-        <v>0.141045</v>
+        <v>0.141042</v>
       </c>
       <c r="AJ32">
-        <v>0.071935</v>
+        <v>0.0714415</v>
       </c>
       <c r="AK32">
-        <v>0.0768546</v>
+        <v>0.07718950000000001</v>
       </c>
       <c r="AL32">
-        <v>0.08460079999999999</v>
+        <v>0.0810033</v>
       </c>
       <c r="AM32">
-        <v>0.0429052</v>
+        <v>0.0405406</v>
       </c>
       <c r="AN32">
-        <v>0.276454</v>
+        <v>0.270333</v>
       </c>
       <c r="AO32">
-        <v>874.9580000000001</v>
+        <v>874.895</v>
       </c>
       <c r="AP32">
-        <v>834.577</v>
+        <v>836.049</v>
       </c>
       <c r="AQ32">
-        <v>887.48</v>
+        <v>887.402</v>
       </c>
       <c r="AR32">
-        <v>745.093</v>
+        <v>748.693</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT32">
-        <v>729.431</v>
+        <v>730.616</v>
       </c>
       <c r="AU32">
-        <v>782.239</v>
+        <v>782.1880000000001</v>
       </c>
       <c r="AV32">
-        <v>741.389</v>
+        <v>742.8440000000001</v>
       </c>
       <c r="AW32">
-        <v>792.5549999999999</v>
+        <v>796.043</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>62</v>
@@ -5691,116 +5684,116 @@
       <c r="L33" t="s">
         <v>73</v>
       </c>
-      <c r="M33" s="4">
-        <v>46.847</v>
+      <c r="M33" s="3">
+        <v>46.8313</v>
       </c>
       <c r="N33">
-        <v>9.40579</v>
+        <v>18.4719</v>
       </c>
       <c r="O33">
-        <v>21.8035</v>
+        <v>25.055</v>
       </c>
       <c r="P33">
-        <v>36.9291</v>
+        <v>41.6356</v>
       </c>
       <c r="Q33">
-        <v>46.8482</v>
+        <v>46.8321</v>
       </c>
       <c r="R33">
-        <v>100.003</v>
+        <v>100.002</v>
       </c>
       <c r="S33">
-        <v>36.9291</v>
+        <v>41.6356</v>
       </c>
       <c r="T33">
-        <v>33.7739</v>
+        <v>38.4654</v>
       </c>
       <c r="U33">
-        <v>17.2938</v>
+        <v>17.75</v>
       </c>
       <c r="V33">
-        <v>11.36</v>
+        <v>12.3756</v>
       </c>
       <c r="W33">
-        <v>11.0001</v>
+        <v>10.9266</v>
       </c>
       <c r="X33">
-        <v>7.736689999999999</v>
+        <v>11.6548</v>
       </c>
       <c r="Y33">
-        <v>7.736689999999999</v>
+        <v>11.6548</v>
       </c>
       <c r="Z33">
-        <v>7.74008</v>
+        <v>11.6573</v>
       </c>
       <c r="AA33">
-        <v>21.8035</v>
+        <v>25.055</v>
       </c>
       <c r="AB33">
-        <v>13.3216</v>
+        <v>13.3325</v>
       </c>
       <c r="AC33">
-        <v>14.198</v>
+        <v>13.6579</v>
       </c>
       <c r="AD33">
-        <v>9.40579</v>
+        <v>18.4719</v>
       </c>
       <c r="AE33">
-        <v>9.40579</v>
+        <v>18.4719</v>
       </c>
       <c r="AF33">
-        <v>9.40579</v>
+        <v>18.4719</v>
       </c>
       <c r="AG33">
-        <v>0.680372</v>
+        <v>0.678818</v>
       </c>
       <c r="AH33">
-        <v>0.359843</v>
+        <v>0.353783</v>
       </c>
       <c r="AI33">
-        <v>0.131499</v>
+        <v>0.13109</v>
       </c>
       <c r="AJ33">
-        <v>0.05848039999999999</v>
+        <v>0.0575071</v>
       </c>
       <c r="AK33">
-        <v>0.06519359999999999</v>
+        <v>0.06576130000000001</v>
       </c>
       <c r="AL33">
-        <v>0.0702855</v>
+        <v>0.0676059</v>
       </c>
       <c r="AM33">
-        <v>0.0365854</v>
+        <v>0.0336105</v>
       </c>
       <c r="AN33">
-        <v>0.252944</v>
+        <v>0.246885</v>
       </c>
       <c r="AO33">
-        <v>875.792</v>
+        <v>875.562</v>
       </c>
       <c r="AP33">
-        <v>838.37</v>
+        <v>840.2619999999999</v>
       </c>
       <c r="AQ33">
-        <v>892.202</v>
+        <v>891.989</v>
       </c>
       <c r="AR33">
-        <v>752.5550000000001</v>
+        <v>757.256</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT33">
-        <v>732.149</v>
+        <v>733.658</v>
       </c>
       <c r="AU33">
-        <v>785.66</v>
+        <v>785.4689999999999</v>
       </c>
       <c r="AV33">
-        <v>748.076</v>
+        <v>749.967</v>
       </c>
       <c r="AW33">
-        <v>799.3990000000001</v>
+        <v>804.09</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>62</v>
@@ -5844,115 +5837,115 @@
         <v>75</v>
       </c>
       <c r="M34">
-        <v>47.4104</v>
+        <v>47.2015</v>
       </c>
       <c r="N34">
-        <v>7.60735</v>
+        <v>14.809</v>
       </c>
       <c r="O34">
-        <v>18.8039</v>
+        <v>21.411</v>
       </c>
       <c r="P34">
-        <v>30.0854</v>
+        <v>34.0574</v>
       </c>
       <c r="Q34">
-        <v>47.411</v>
+        <v>47.2065</v>
       </c>
       <c r="R34">
-        <v>100.001</v>
+        <v>100.01</v>
       </c>
       <c r="S34">
-        <v>30.0854</v>
+        <v>34.0574</v>
       </c>
       <c r="T34">
-        <v>27.4937</v>
+        <v>31.2631</v>
       </c>
       <c r="U34">
-        <v>16.1099</v>
+        <v>16.2915</v>
       </c>
       <c r="V34">
-        <v>9.69702</v>
+        <v>10.4719</v>
       </c>
       <c r="W34">
-        <v>9.29447</v>
+        <v>9.2127</v>
       </c>
       <c r="X34">
-        <v>6.40428</v>
+        <v>9.76679</v>
       </c>
       <c r="Y34">
-        <v>6.40428</v>
+        <v>9.76679</v>
       </c>
       <c r="Z34">
-        <v>6.40165</v>
+        <v>9.76886</v>
       </c>
       <c r="AA34">
-        <v>18.8039</v>
+        <v>21.411</v>
       </c>
       <c r="AB34">
-        <v>10.97</v>
+        <v>10.9739</v>
       </c>
       <c r="AC34">
-        <v>11.3315</v>
+        <v>10.897</v>
       </c>
       <c r="AD34">
-        <v>7.60735</v>
+        <v>14.809</v>
       </c>
       <c r="AE34">
-        <v>7.60735</v>
+        <v>14.809</v>
       </c>
       <c r="AF34">
-        <v>7.60735</v>
+        <v>14.809</v>
       </c>
       <c r="AG34">
-        <v>0.831329</v>
+        <v>0.829501</v>
       </c>
       <c r="AH34">
-        <v>0.523913</v>
+        <v>0.515512</v>
       </c>
       <c r="AI34">
-        <v>0.228589</v>
+        <v>0.228117</v>
       </c>
       <c r="AJ34">
-        <v>0.07719459999999999</v>
+        <v>0.0760604</v>
       </c>
       <c r="AK34">
-        <v>0.08516020000000001</v>
+        <v>0.0860567</v>
       </c>
       <c r="AL34">
-        <v>0.0888914</v>
+        <v>0.0854506</v>
       </c>
       <c r="AM34">
-        <v>0.0464434</v>
+        <v>0.0417208</v>
       </c>
       <c r="AN34">
-        <v>0.323468</v>
+        <v>0.315068</v>
       </c>
       <c r="AO34">
-        <v>874.331</v>
+        <v>874.1890000000001</v>
       </c>
       <c r="AP34">
-        <v>834.634</v>
+        <v>836.3180000000001</v>
       </c>
       <c r="AQ34">
-        <v>887.561</v>
+        <v>887.404</v>
       </c>
       <c r="AR34">
-        <v>745.7130000000001</v>
+        <v>749.694</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT34">
-        <v>729.647</v>
+        <v>731.054</v>
       </c>
       <c r="AU34">
-        <v>782.206</v>
+        <v>782.0799999999999</v>
       </c>
       <c r="AV34">
-        <v>742.123</v>
+        <v>743.79</v>
       </c>
       <c r="AW34">
-        <v>793.119</v>
+        <v>796.888</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>62</v>
@@ -6114,116 +6107,116 @@
       <c r="L36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="4">
-        <v>46.6289</v>
+      <c r="M36" s="3">
+        <v>46.6954</v>
       </c>
       <c r="N36" s="1">
-        <v>5.089869999999999</v>
+        <v>9.493980000000001</v>
       </c>
       <c r="O36" s="1">
-        <v>14.4637</v>
+        <v>15.8003</v>
       </c>
       <c r="P36" s="1">
-        <v>23.0306</v>
+        <v>25.929</v>
       </c>
       <c r="Q36" s="1">
-        <v>46.6273</v>
+        <v>46.6935</v>
       </c>
       <c r="R36" s="1">
-        <v>99.9885</v>
+        <v>99.9924</v>
       </c>
       <c r="S36" s="1">
-        <v>22.2531</v>
+        <v>25.929</v>
       </c>
       <c r="T36" s="1">
-        <v>23.0306</v>
+        <v>25.4621</v>
       </c>
       <c r="U36" s="1">
-        <v>14.2735</v>
+        <v>14.3426</v>
       </c>
       <c r="V36" s="1">
-        <v>7.6023</v>
+        <v>8.160030000000001</v>
       </c>
       <c r="W36" s="1">
-        <v>7.38293</v>
+        <v>7.28281</v>
       </c>
       <c r="X36" s="1">
-        <v>4.72281</v>
+        <v>7.65233</v>
       </c>
       <c r="Y36" s="1">
-        <v>4.72281</v>
+        <v>7.65233</v>
       </c>
       <c r="Z36" s="1">
-        <v>4.72289</v>
+        <v>7.65156</v>
       </c>
       <c r="AA36" s="1">
-        <v>14.0726</v>
+        <v>15.654</v>
       </c>
       <c r="AB36" s="1">
-        <v>7.34858</v>
+        <v>7.370620000000001</v>
       </c>
       <c r="AC36" s="1">
-        <v>7.041250000000001</v>
+        <v>6.84251</v>
       </c>
       <c r="AD36" s="1">
-        <v>5.089869999999999</v>
+        <v>9.493980000000001</v>
       </c>
       <c r="AE36" s="1">
-        <v>5.089869999999999</v>
+        <v>9.493980000000001</v>
       </c>
       <c r="AF36" s="1">
-        <v>5.089869999999999</v>
+        <v>9.493980000000001</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.678172</v>
+        <v>0.677127</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.227239</v>
+        <v>0.222936</v>
       </c>
       <c r="AI36" s="1">
         <v>0.0204357</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.0521271</v>
+        <v>0.0514263</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.0569577</v>
+        <v>0.0568696</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.06458420000000001</v>
+        <v>0.0621169</v>
       </c>
       <c r="AM36" s="1">
-        <v>0.0333356</v>
+        <v>0.0322976</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.207019</v>
+        <v>0.202717</v>
       </c>
       <c r="AO36" s="1">
-        <v>874.331</v>
+        <v>874.187</v>
       </c>
       <c r="AP36" s="1">
-        <v>829.941</v>
+        <v>831.826</v>
       </c>
       <c r="AQ36" s="1">
-        <v>885.1890000000001</v>
+        <v>884.958</v>
       </c>
       <c r="AR36" s="1">
-        <v>737.8770000000001</v>
+        <v>741.553</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT36" s="1">
-        <v>724.3200000000001</v>
+        <v>725.849</v>
       </c>
       <c r="AU36" s="1">
-        <v>780.292</v>
+        <v>780.0880000000001</v>
       </c>
       <c r="AV36" s="1">
-        <v>734.5020000000001</v>
+        <v>736.331</v>
       </c>
       <c r="AW36" s="1">
-        <v>788.6560000000001</v>
+        <v>791.087</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>124</v>
@@ -6233,116 +6226,116 @@
       <c r="L37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M37" s="3">
-        <v>54.373</v>
+      <c r="M37" s="1">
+        <v>52.4386</v>
       </c>
       <c r="N37" s="1">
-        <v>10.9745</v>
+        <v>20.4159</v>
       </c>
       <c r="O37" s="1">
-        <v>21.8051</v>
+        <v>25.0567</v>
       </c>
       <c r="P37" s="1">
-        <v>49.6002</v>
+        <v>55.6565</v>
       </c>
       <c r="Q37" s="1">
-        <v>54.3736</v>
+        <v>52.4395</v>
       </c>
       <c r="R37" s="1">
-        <v>100.005</v>
+        <v>100.01</v>
       </c>
       <c r="S37" s="1">
-        <v>49.6002</v>
+        <v>55.6565</v>
       </c>
       <c r="T37" s="1">
-        <v>49.59690000000001</v>
+        <v>54.6245</v>
       </c>
       <c r="U37" s="1">
-        <v>21.3313</v>
+        <v>21.4383</v>
       </c>
       <c r="V37" s="1">
-        <v>15.1018</v>
+        <v>16.2577</v>
       </c>
       <c r="W37" s="1">
-        <v>15.5495</v>
+        <v>15.4456</v>
       </c>
       <c r="X37" s="1">
-        <v>9.98263</v>
+        <v>15.9588</v>
       </c>
       <c r="Y37" s="1">
-        <v>9.98263</v>
+        <v>15.9588</v>
       </c>
       <c r="Z37" s="1">
-        <v>9.98146</v>
+        <v>15.9552</v>
       </c>
       <c r="AA37" s="1">
-        <v>21.8051</v>
+        <v>25.0567</v>
       </c>
       <c r="AB37" s="1">
-        <v>14.571</v>
+        <v>14.5419</v>
       </c>
       <c r="AC37" s="1">
-        <v>15.3571</v>
+        <v>15.016</v>
       </c>
       <c r="AD37" s="1">
-        <v>10.9745</v>
+        <v>20.4159</v>
       </c>
       <c r="AE37" s="1">
-        <v>10.9745</v>
+        <v>20.4159</v>
       </c>
       <c r="AF37" s="1">
-        <v>10.9745</v>
+        <v>20.4159</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.837493</v>
+        <v>0.8340340000000001</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.716342</v>
+        <v>0.70338</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.377166</v>
+        <v>0.376371</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.0927559</v>
+        <v>0.0892867</v>
       </c>
       <c r="AK37" s="1">
-        <v>0.102415</v>
+        <v>0.10414</v>
       </c>
       <c r="AL37" s="1">
-        <v>0.0978883</v>
+        <v>0.0944281</v>
       </c>
       <c r="AM37" s="1">
-        <v>0.05159859999999999</v>
+        <v>0.0438379</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.403392</v>
+        <v>0.39043</v>
       </c>
       <c r="AO37" s="1">
-        <v>883.119</v>
+        <v>882.888</v>
       </c>
       <c r="AP37" s="1">
-        <v>845.342</v>
+        <v>847.5590000000001</v>
       </c>
       <c r="AQ37" s="1">
-        <v>906.376</v>
+        <v>906.138</v>
       </c>
       <c r="AR37" s="1">
-        <v>765.221</v>
+        <v>771.2800000000001</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT37" s="1">
-        <v>733.001</v>
+        <v>734.1949999999999</v>
       </c>
       <c r="AU37" s="1">
-        <v>794.679</v>
+        <v>794.441</v>
       </c>
       <c r="AV37" s="1">
-        <v>756.468</v>
+        <v>758.725</v>
       </c>
       <c r="AW37" s="1">
-        <v>815.2220000000001</v>
+        <v>820.249</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>124</v>
@@ -6388,115 +6381,115 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>50.29163636363636</v>
+        <v>49.31817272727272</v>
       </c>
       <c r="N42" s="1">
-        <v>7.625486363636366</v>
+        <v>14.17522727272727</v>
       </c>
       <c r="O42" s="1">
-        <v>18.2697606060606</v>
+        <v>20.07104545454545</v>
       </c>
       <c r="P42" s="1">
-        <v>33.66894242424242</v>
+        <v>37.77266363636363</v>
       </c>
       <c r="Q42" s="1">
-        <v>50.29154242424243</v>
+        <v>49.31843030303032</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99979090909093</v>
+        <v>100.0005181818182</v>
       </c>
       <c r="S42" s="1">
-        <v>32.6342</v>
+        <v>37.3374696969697</v>
       </c>
       <c r="T42" s="1">
-        <v>32.92544848484848</v>
+        <v>36.65623333333333</v>
       </c>
       <c r="U42" s="1">
-        <v>17.34628484848485</v>
+        <v>17.52434848484848</v>
       </c>
       <c r="V42" s="1">
-        <v>10.82543909090909</v>
+        <v>11.65807454545455</v>
       </c>
       <c r="W42" s="1">
-        <v>10.95713272727272</v>
+        <v>10.83844939393939</v>
       </c>
       <c r="X42" s="1">
-        <v>6.972550000000001</v>
+        <v>11.24604393939394</v>
       </c>
       <c r="Y42" s="1">
-        <v>6.972550000000001</v>
+        <v>11.24604393939394</v>
       </c>
       <c r="Z42" s="1">
-        <v>6.97153606060606</v>
+        <v>11.24438666666667</v>
       </c>
       <c r="AA42" s="1">
-        <v>17.29311818181818</v>
+        <v>19.62663939393939</v>
       </c>
       <c r="AB42" s="1">
-        <v>10.39329181818182</v>
+        <v>10.39666515151515</v>
       </c>
       <c r="AC42" s="1">
-        <v>10.60308727272727</v>
+        <v>10.32668363636364</v>
       </c>
       <c r="AD42" s="1">
-        <v>7.586997575757576</v>
+        <v>14.12959393939394</v>
       </c>
       <c r="AE42" s="1">
-        <v>7.586997575757576</v>
+        <v>14.12959393939394</v>
       </c>
       <c r="AF42" s="1">
-        <v>7.586997575757576</v>
+        <v>14.12959393939394</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7580306969696969</v>
+        <v>0.7557338787878789</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3994866363636364</v>
+        <v>0.3927999393939394</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1419544060606061</v>
+        <v>0.1417926363636364</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.06716009696969696</v>
+        <v>0.06610436363636363</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.07301792424242423</v>
+        <v>0.07349525151515152</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.07821561515151515</v>
+        <v>0.07514129090909093</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.0402947696969697</v>
+        <v>0.03726066666666666</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2708933333333333</v>
+        <v>0.2642067575757576</v>
       </c>
       <c r="AO42" s="1">
-        <v>878.314363636364</v>
+        <v>878.1522424242426</v>
       </c>
       <c r="AP42" s="1">
-        <v>835.825696969697</v>
+        <v>837.8448787878785</v>
       </c>
       <c r="AQ42" s="1">
-        <v>893.053090909091</v>
+        <v>892.8766666666666</v>
       </c>
       <c r="AR42" s="1">
-        <v>748.2585454545456</v>
+        <v>752.9631515151516</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT42" s="1">
-        <v>728.2352424242428</v>
+        <v>729.7203636363638</v>
       </c>
       <c r="AU42" s="1">
-        <v>785.6040606060608</v>
+        <v>785.4512121212121</v>
       </c>
       <c r="AV42" s="1">
-        <v>743.0210606060605</v>
+        <v>745.0125151515153</v>
       </c>
       <c r="AW42" s="1">
-        <v>798.5504545454544</v>
+        <v>802.2812121212123</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>124</v>
@@ -6507,115 +6500,115 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>2.293672472565549</v>
+        <v>1.693445220821408</v>
       </c>
       <c r="N43" s="1">
-        <v>1.518098940287467</v>
+        <v>3.014445423835111</v>
       </c>
       <c r="O43" s="1">
-        <v>2.148451633568103</v>
+        <v>2.597369609885764</v>
       </c>
       <c r="P43" s="1">
-        <v>7.11454059544682</v>
+        <v>7.934792382910204</v>
       </c>
       <c r="Q43" s="1">
-        <v>2.293675526447545</v>
+        <v>1.693412458748713</v>
       </c>
       <c r="R43" s="1">
-        <v>0.003027286377255069</v>
+        <v>0.003272053802760036</v>
       </c>
       <c r="S43" s="1">
-        <v>7.386614072726012</v>
+        <v>7.981086188721997</v>
       </c>
       <c r="T43" s="1">
-        <v>7.126278605662849</v>
+        <v>7.830858176032262</v>
       </c>
       <c r="U43" s="1">
-        <v>2.085561374920027</v>
+        <v>2.12005433308323</v>
       </c>
       <c r="V43" s="1">
-        <v>2.062950263052032</v>
+        <v>2.215276286152233</v>
       </c>
       <c r="W43" s="1">
-        <v>2.377078499244682</v>
+        <v>2.357691871244621</v>
       </c>
       <c r="X43" s="1">
-        <v>1.371744881848949</v>
+        <v>2.308228573285793</v>
       </c>
       <c r="Y43" s="1">
-        <v>1.371744881848949</v>
+        <v>2.308228573285793</v>
       </c>
       <c r="Z43" s="1">
-        <v>1.370709809973361</v>
+        <v>2.308883593536281</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.323146263472793</v>
+        <v>2.796349965844479</v>
       </c>
       <c r="AB43" s="1">
-        <v>1.960315937229066</v>
+        <v>1.950672977763442</v>
       </c>
       <c r="AC43" s="1">
-        <v>2.347916435535174</v>
+        <v>2.267531372720481</v>
       </c>
       <c r="AD43" s="1">
-        <v>1.521976142665386</v>
+        <v>3.03104695659411</v>
       </c>
       <c r="AE43" s="1">
-        <v>1.521976142665386</v>
+        <v>3.03104695659411</v>
       </c>
       <c r="AF43" s="1">
-        <v>1.521976142665386</v>
+        <v>3.03104695659411</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07429983959503254</v>
+        <v>0.07423750325680066</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1228115682394925</v>
+        <v>0.1206128919658258</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.08940884279979326</v>
+        <v>0.08920758318871443</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.01120141069120408</v>
+        <v>0.01061277397404337</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.01211514874301892</v>
+        <v>0.01251742773634499</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.009947248943578721</v>
+        <v>0.00958047939590561</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.005267918677410368</v>
+        <v>0.004039616679884867</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.05013226014264767</v>
+        <v>0.04796749510331642</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.744099187824135</v>
+        <v>2.764549259444871</v>
       </c>
       <c r="AP43" s="1">
-        <v>4.184114789873624</v>
+        <v>4.220632451225519</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.863057250707068</v>
+        <v>5.871119012986064</v>
       </c>
       <c r="AR43" s="1">
-        <v>7.387492587663442</v>
+        <v>7.980922116242466</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.969431514109734</v>
+        <v>2.819662797571897</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.88378619499684</v>
+        <v>3.888560197495983</v>
       </c>
       <c r="AV43" s="1">
-        <v>6.1528798329523</v>
+        <v>6.204305602349565</v>
       </c>
       <c r="AW43" s="1">
-        <v>7.126298389260899</v>
+        <v>7.830832076836454</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>124</v>
@@ -6626,115 +6619,115 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>4.560743372876212</v>
+        <v>3.433714444746532</v>
       </c>
       <c r="N44" s="1">
-        <v>19.90822444489338</v>
+        <v>21.26558795734314</v>
       </c>
       <c r="O44" s="1">
-        <v>11.75960473644849</v>
+        <v>12.94087851959671</v>
       </c>
       <c r="P44" s="1">
-        <v>21.13087041998737</v>
+        <v>21.00670595883368</v>
       </c>
       <c r="Q44" s="1">
-        <v>4.560757964229602</v>
+        <v>3.433630081784381</v>
       </c>
       <c r="R44" s="1">
-        <v>0.00302729270704891</v>
+        <v>0.003272036847660007</v>
       </c>
       <c r="S44" s="1">
-        <v>22.63457989693638</v>
+        <v>21.37554112128209</v>
       </c>
       <c r="T44" s="1">
-        <v>21.64367968728564</v>
+        <v>21.36296466912566</v>
       </c>
       <c r="U44" s="1">
-        <v>12.02310116048967</v>
+        <v>12.09776406190635</v>
       </c>
       <c r="V44" s="1">
-        <v>19.05650427412632</v>
+        <v>19.00207686539423</v>
       </c>
       <c r="W44" s="1">
-        <v>21.69434795042724</v>
+        <v>21.75303667112186</v>
       </c>
       <c r="X44" s="1">
-        <v>19.6735036944726</v>
+        <v>20.5248048622704</v>
       </c>
       <c r="Y44" s="1">
-        <v>19.6735036944726</v>
+        <v>20.5248048622704</v>
       </c>
       <c r="Z44" s="1">
-        <v>19.66151789300507</v>
+        <v>20.53365525378838</v>
       </c>
       <c r="AA44" s="1">
-        <v>13.43393504310476</v>
+        <v>14.24772682534728</v>
       </c>
       <c r="AB44" s="1">
-        <v>18.86135760952779</v>
+        <v>18.76248729121723</v>
       </c>
       <c r="AC44" s="1">
-        <v>22.14370565047</v>
+        <v>21.95798237428092</v>
       </c>
       <c r="AD44" s="1">
-        <v>20.0603219846609</v>
+        <v>21.45176265924682</v>
       </c>
       <c r="AE44" s="1">
-        <v>20.0603219846609</v>
+        <v>21.45176265924682</v>
       </c>
       <c r="AF44" s="1">
-        <v>20.0603219846609</v>
+        <v>21.45176265924682</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.801692714035664</v>
+        <v>9.823233460946616</v>
       </c>
       <c r="AH44" s="1">
-        <v>30.74234706757553</v>
+        <v>30.70593446422684</v>
       </c>
       <c r="AI44" s="1">
-        <v>62.98419702564287</v>
+        <v>62.91411562440788</v>
       </c>
       <c r="AJ44" s="1">
-        <v>16.67866962172229</v>
+        <v>16.05457399518077</v>
       </c>
       <c r="AK44" s="1">
-        <v>16.59202020423895</v>
+        <v>17.03161425845919</v>
       </c>
       <c r="AL44" s="1">
-        <v>12.71772768686846</v>
+        <v>12.74995316156662</v>
       </c>
       <c r="AM44" s="1">
-        <v>13.07345523259445</v>
+        <v>10.84150403432986</v>
       </c>
       <c r="AN44" s="1">
-        <v>18.50627312447003</v>
+        <v>18.15528699698849</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.3124279075276783</v>
+        <v>0.314814348342721</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.5005965723527307</v>
+        <v>0.5037486721087996</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.6565183313725188</v>
+        <v>0.6575509510069772</v>
       </c>
       <c r="AR44" s="1">
-        <v>0.98729144258229</v>
+        <v>1.059935283709812</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.4077571835475458</v>
+        <v>0.3864031947143247</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4943694145369693</v>
+        <v>0.4950734224464975</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.8280895601981425</v>
+        <v>0.8327787085681074</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.8924042743570015</v>
+        <v>0.9760707291314876</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>124</v>

--- a/dca_mission_timing_pre_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_pre_tsmc2p_meas.xlsx
@@ -443,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,12 +453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6FFF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,11 +469,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,115 +966,115 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>49.5031</v>
+        <v>49.7618</v>
       </c>
       <c r="N2">
-        <v>13.0385</v>
+        <v>11.2693</v>
       </c>
       <c r="O2">
-        <v>18.3126</v>
+        <v>13.1307</v>
       </c>
       <c r="P2">
-        <v>35.3202</v>
+        <v>30.4</v>
       </c>
       <c r="Q2">
-        <v>49.503</v>
+        <v>49.7624</v>
       </c>
       <c r="R2">
-        <v>99.9999</v>
+        <v>100.001</v>
       </c>
       <c r="S2">
-        <v>35.3202</v>
+        <v>30.4</v>
       </c>
       <c r="T2">
-        <v>34.8232</v>
+        <v>30.1632</v>
       </c>
       <c r="U2">
-        <v>16.3791</v>
+        <v>12.5999</v>
       </c>
       <c r="V2">
-        <v>10.5815</v>
+        <v>8.82455</v>
       </c>
       <c r="W2">
-        <v>9.969609999999999</v>
+        <v>9.204980000000001</v>
       </c>
       <c r="X2">
-        <v>10.43</v>
+        <v>10.5263</v>
       </c>
       <c r="Y2">
-        <v>10.43</v>
+        <v>10.5263</v>
       </c>
       <c r="Z2">
-        <v>10.4327</v>
+        <v>10.5277</v>
       </c>
       <c r="AA2">
-        <v>18.3126</v>
+        <v>13.1307</v>
       </c>
       <c r="AB2">
-        <v>9.412649999999999</v>
+        <v>9.072899999999999</v>
       </c>
       <c r="AC2">
-        <v>9.42276</v>
+        <v>9.523620000000001</v>
       </c>
       <c r="AD2">
-        <v>13.0385</v>
+        <v>11.2693</v>
       </c>
       <c r="AE2">
-        <v>13.0385</v>
+        <v>11.2693</v>
       </c>
       <c r="AF2">
-        <v>13.0385</v>
+        <v>11.2693</v>
       </c>
       <c r="AG2">
-        <v>0.756509</v>
+        <v>0.756849</v>
       </c>
       <c r="AH2">
-        <v>0.352</v>
+        <v>0.35553</v>
       </c>
       <c r="AI2">
-        <v>0.107526</v>
+        <v>0.107529</v>
       </c>
       <c r="AJ2">
-        <v>0.0642268</v>
+        <v>0.06886919999999999</v>
       </c>
       <c r="AK2">
-        <v>0.0699308</v>
+        <v>0.0692058</v>
       </c>
       <c r="AL2">
-        <v>0.0734683</v>
+        <v>0.07291350000000001</v>
       </c>
       <c r="AM2">
-        <v>0.0368161</v>
+        <v>0.0369832</v>
       </c>
       <c r="AN2">
-        <v>0.245047</v>
+        <v>0.248577</v>
       </c>
       <c r="AO2">
-        <v>878.039</v>
+        <v>875.2</v>
       </c>
       <c r="AP2">
-        <v>836.8680000000001</v>
+        <v>831.9400000000001</v>
       </c>
       <c r="AQ2">
-        <v>891.706</v>
+        <v>888.176</v>
       </c>
       <c r="AR2">
-        <v>750.947</v>
+        <v>746.028</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT2">
-        <v>729.2950000000001</v>
+        <v>725.4829999999999</v>
       </c>
       <c r="AU2">
-        <v>784.778</v>
+        <v>781.622</v>
       </c>
       <c r="AV2">
-        <v>743.468</v>
+        <v>738.4450000000001</v>
       </c>
       <c r="AW2">
-        <v>800.4480000000001</v>
+        <v>795.788</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>62</v>
@@ -1125,115 +1118,115 @@
         <v>73</v>
       </c>
       <c r="M3">
-        <v>49.6814</v>
+        <v>49.882</v>
       </c>
       <c r="N3">
-        <v>11.2012</v>
+        <v>9.752640000000001</v>
       </c>
       <c r="O3">
-        <v>16.8471</v>
+        <v>12.4428</v>
       </c>
       <c r="P3">
-        <v>30.9905</v>
+        <v>26.5625</v>
       </c>
       <c r="Q3">
-        <v>49.68170000000001</v>
+        <v>49.8832</v>
       </c>
       <c r="R3">
-        <v>100.001</v>
+        <v>100.003</v>
       </c>
       <c r="S3">
-        <v>30.9905</v>
+        <v>26.5625</v>
       </c>
       <c r="T3">
-        <v>30.6714</v>
+        <v>26.4453</v>
       </c>
       <c r="U3">
-        <v>15.4334</v>
+        <v>12.0008</v>
       </c>
       <c r="V3">
-        <v>9.27782</v>
+        <v>7.78766</v>
       </c>
       <c r="W3">
-        <v>8.59421</v>
+        <v>7.88062</v>
       </c>
       <c r="X3">
-        <v>9.092359999999999</v>
+        <v>9.12384</v>
       </c>
       <c r="Y3">
-        <v>9.092359999999999</v>
+        <v>9.12384</v>
       </c>
       <c r="Z3">
-        <v>9.093439999999999</v>
+        <v>9.12115</v>
       </c>
       <c r="AA3">
-        <v>16.8471</v>
+        <v>12.4428</v>
       </c>
       <c r="AB3">
-        <v>8.28529</v>
+        <v>7.89951</v>
       </c>
       <c r="AC3">
-        <v>8.01491</v>
+        <v>8.029670000000001</v>
       </c>
       <c r="AD3">
-        <v>11.2012</v>
+        <v>9.752640000000001</v>
       </c>
       <c r="AE3">
-        <v>11.2012</v>
+        <v>9.752640000000001</v>
       </c>
       <c r="AF3">
-        <v>11.2012</v>
+        <v>9.752640000000001</v>
       </c>
       <c r="AG3">
-        <v>0.680884</v>
+        <v>0.681266</v>
       </c>
       <c r="AH3">
-        <v>0.357258</v>
+        <v>0.361364</v>
       </c>
       <c r="AI3">
-        <v>0.129432</v>
+        <v>0.129435</v>
       </c>
       <c r="AJ3">
-        <v>0.060467</v>
+        <v>0.06613429999999999</v>
       </c>
       <c r="AK3">
-        <v>0.0660505</v>
+        <v>0.06495910000000001</v>
       </c>
       <c r="AL3">
-        <v>0.067713</v>
+        <v>0.0671933</v>
       </c>
       <c r="AM3">
-        <v>0.0336053</v>
+        <v>0.0336552</v>
       </c>
       <c r="AN3">
-        <v>0.228277</v>
+        <v>0.232383</v>
       </c>
       <c r="AO3">
-        <v>877.1020000000001</v>
+        <v>874.443</v>
       </c>
       <c r="AP3">
-        <v>834.585</v>
+        <v>830.1950000000001</v>
       </c>
       <c r="AQ3">
-        <v>888.8390000000001</v>
+        <v>885.521</v>
       </c>
       <c r="AR3">
-        <v>746.615</v>
+        <v>742.189</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT3">
-        <v>727.919</v>
+        <v>724.4929999999999</v>
       </c>
       <c r="AU3">
-        <v>782.85</v>
+        <v>779.908</v>
       </c>
       <c r="AV3">
-        <v>740.11</v>
+        <v>735.615</v>
       </c>
       <c r="AW3">
-        <v>796.296</v>
+        <v>792.0700000000001</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>62</v>
@@ -1277,115 +1270,115 @@
         <v>75</v>
       </c>
       <c r="M4">
-        <v>49.5356</v>
+        <v>49.8021</v>
       </c>
       <c r="N4">
-        <v>9.54782</v>
+        <v>8.3101</v>
       </c>
       <c r="O4">
-        <v>15.8009</v>
+        <v>11.7538</v>
       </c>
       <c r="P4">
-        <v>25.9692</v>
+        <v>22.0793</v>
       </c>
       <c r="Q4">
-        <v>49.5353</v>
+        <v>49.7974</v>
       </c>
       <c r="R4">
-        <v>99.99940000000001</v>
+        <v>99.9905</v>
       </c>
       <c r="S4">
-        <v>25.9692</v>
+        <v>22.0793</v>
       </c>
       <c r="T4">
-        <v>25.5003</v>
+        <v>21.8794</v>
       </c>
       <c r="U4">
-        <v>14.655</v>
+        <v>11.4358</v>
       </c>
       <c r="V4">
-        <v>8.16141</v>
+        <v>6.81348</v>
       </c>
       <c r="W4">
-        <v>7.284160000000001</v>
+        <v>6.670170000000001</v>
       </c>
       <c r="X4">
-        <v>7.67625</v>
+        <v>7.71072</v>
       </c>
       <c r="Y4">
-        <v>7.67625</v>
+        <v>7.71072</v>
       </c>
       <c r="Z4">
-        <v>7.674189999999999</v>
+        <v>7.71241</v>
       </c>
       <c r="AA4">
-        <v>15.8009</v>
+        <v>11.7538</v>
       </c>
       <c r="AB4">
-        <v>7.370620000000001</v>
+        <v>6.93267</v>
       </c>
       <c r="AC4">
-        <v>6.842709999999999</v>
+        <v>6.84565</v>
       </c>
       <c r="AD4">
-        <v>9.54782</v>
+        <v>8.3101</v>
       </c>
       <c r="AE4">
-        <v>9.54782</v>
+        <v>8.3101</v>
       </c>
       <c r="AF4">
-        <v>9.54782</v>
+        <v>8.3101</v>
       </c>
       <c r="AG4">
-        <v>0.831402</v>
+        <v>0.831847</v>
       </c>
       <c r="AH4">
-        <v>0.538423</v>
+        <v>0.54753</v>
       </c>
       <c r="AI4">
-        <v>0.240589</v>
+        <v>0.240592</v>
       </c>
       <c r="AJ4">
-        <v>0.0815159</v>
+        <v>0.09480240000000001</v>
       </c>
       <c r="AK4">
-        <v>0.08860689999999999</v>
+        <v>0.08523889999999999</v>
       </c>
       <c r="AL4">
-        <v>0.0860981</v>
+        <v>0.08517559999999999</v>
       </c>
       <c r="AM4">
-        <v>0.0417329</v>
+        <v>0.0418463</v>
       </c>
       <c r="AN4">
-        <v>0.298512</v>
+        <v>0.307621</v>
       </c>
       <c r="AO4">
-        <v>875.318</v>
+        <v>873.0160000000001</v>
       </c>
       <c r="AP4">
-        <v>831.826</v>
+        <v>827.937</v>
       </c>
       <c r="AQ4">
-        <v>884.96</v>
+        <v>882.1060000000001</v>
       </c>
       <c r="AR4">
-        <v>741.595</v>
+        <v>737.697</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT4">
-        <v>726.328</v>
+        <v>723.259</v>
       </c>
       <c r="AU4">
-        <v>780.0880000000001</v>
+        <v>777.549</v>
       </c>
       <c r="AV4">
-        <v>736.333</v>
+        <v>732.376</v>
       </c>
       <c r="AW4">
-        <v>791.125</v>
+        <v>787.504</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>62</v>
@@ -1429,115 +1422,115 @@
         <v>73</v>
       </c>
       <c r="M5">
-        <v>49.1777</v>
+        <v>49.3208</v>
       </c>
       <c r="N5">
-        <v>13.0103</v>
+        <v>11.3724</v>
       </c>
       <c r="O5">
-        <v>19.72</v>
+        <v>14.4953</v>
       </c>
       <c r="P5">
-        <v>31.721</v>
+        <v>27.247</v>
       </c>
       <c r="Q5">
-        <v>49.1779</v>
+        <v>49.32020000000001</v>
       </c>
       <c r="R5">
-        <v>100</v>
+        <v>99.99890000000001</v>
       </c>
       <c r="S5">
-        <v>31.721</v>
+        <v>27.247</v>
       </c>
       <c r="T5">
-        <v>30.9006</v>
+        <v>26.5684</v>
       </c>
       <c r="U5">
-        <v>17.7387</v>
+        <v>13.937</v>
       </c>
       <c r="V5">
-        <v>11.2509</v>
+        <v>9.298820000000001</v>
       </c>
       <c r="W5">
-        <v>9.92764</v>
+        <v>9.088149999999999</v>
       </c>
       <c r="X5">
-        <v>10.2725</v>
+        <v>10.2928</v>
       </c>
       <c r="Y5">
-        <v>10.2725</v>
+        <v>10.2928</v>
       </c>
       <c r="Z5">
-        <v>10.2725</v>
+        <v>10.2891</v>
       </c>
       <c r="AA5">
-        <v>19.72</v>
+        <v>14.4953</v>
       </c>
       <c r="AB5">
-        <v>10.1293</v>
+        <v>9.527149999999999</v>
       </c>
       <c r="AC5">
-        <v>9.578569999999999</v>
+        <v>9.480180000000001</v>
       </c>
       <c r="AD5">
-        <v>13.0103</v>
+        <v>11.3724</v>
       </c>
       <c r="AE5">
-        <v>13.0103</v>
+        <v>11.3724</v>
       </c>
       <c r="AF5">
-        <v>13.0103</v>
+        <v>11.3724</v>
       </c>
       <c r="AG5">
-        <v>0.677127</v>
+        <v>0.677509</v>
       </c>
       <c r="AH5">
-        <v>0.498017</v>
+        <v>0.50465</v>
       </c>
       <c r="AI5">
-        <v>0.247918</v>
+        <v>0.248263</v>
       </c>
       <c r="AJ5">
-        <v>0.0666629</v>
+        <v>0.07806790000000001</v>
       </c>
       <c r="AK5">
-        <v>0.0781997</v>
+        <v>0.0744679</v>
       </c>
       <c r="AL5">
-        <v>0.0743491</v>
+        <v>0.07316360000000001</v>
       </c>
       <c r="AM5">
-        <v>0.0352141</v>
+        <v>0.035361</v>
       </c>
       <c r="AN5">
-        <v>0.306175</v>
+        <v>0.312809</v>
       </c>
       <c r="AO5">
-        <v>876.203</v>
+        <v>873.5600000000001</v>
       </c>
       <c r="AP5">
-        <v>834.8340000000001</v>
+        <v>830.393</v>
       </c>
       <c r="AQ5">
-        <v>888.4340000000001</v>
+        <v>885.101</v>
       </c>
       <c r="AR5">
-        <v>747.343</v>
+        <v>742.8710000000001</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT5">
-        <v>728.269</v>
+        <v>724.7790000000001</v>
       </c>
       <c r="AU5">
-        <v>782.33</v>
+        <v>779.4059999999999</v>
       </c>
       <c r="AV5">
-        <v>740.818</v>
+        <v>736.272</v>
       </c>
       <c r="AW5">
-        <v>796.5260000000001</v>
+        <v>792.193</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>62</v>
@@ -1581,115 +1574,115 @@
         <v>75</v>
       </c>
       <c r="M6">
-        <v>49.0284</v>
+        <v>49.2677</v>
       </c>
       <c r="N6">
-        <v>11.2777</v>
+        <v>9.873949999999999</v>
       </c>
       <c r="O6">
-        <v>18.4407</v>
+        <v>13.8969</v>
       </c>
       <c r="P6">
-        <v>27.685</v>
+        <v>23.649</v>
       </c>
       <c r="Q6">
-        <v>49.0284</v>
+        <v>49.2672</v>
       </c>
       <c r="R6">
-        <v>100</v>
+        <v>99.99890000000001</v>
       </c>
       <c r="S6">
-        <v>27.685</v>
+        <v>23.649</v>
       </c>
       <c r="T6">
-        <v>26.7121</v>
+        <v>22.916</v>
       </c>
       <c r="U6">
-        <v>16.8399</v>
+        <v>13.4126</v>
       </c>
       <c r="V6">
-        <v>10.0901</v>
+        <v>8.36651</v>
       </c>
       <c r="W6">
-        <v>8.63757</v>
+        <v>7.89636</v>
       </c>
       <c r="X6">
-        <v>8.89709</v>
+        <v>8.920260000000001</v>
       </c>
       <c r="Y6">
-        <v>8.89709</v>
+        <v>8.920260000000001</v>
       </c>
       <c r="Z6">
-        <v>8.899229999999999</v>
+        <v>8.921430000000001</v>
       </c>
       <c r="AA6">
-        <v>18.4407</v>
+        <v>13.8969</v>
       </c>
       <c r="AB6">
-        <v>9.14771</v>
+        <v>8.53431</v>
       </c>
       <c r="AC6">
-        <v>8.326270000000001</v>
+        <v>8.223410000000001</v>
       </c>
       <c r="AD6">
-        <v>11.2777</v>
+        <v>9.873949999999999</v>
       </c>
       <c r="AE6">
-        <v>11.2777</v>
+        <v>9.873949999999999</v>
       </c>
       <c r="AF6">
-        <v>11.2777</v>
+        <v>9.873949999999999</v>
       </c>
       <c r="AG6">
-        <v>0.827395</v>
+        <v>0.827836</v>
       </c>
       <c r="AH6">
-        <v>0.70338</v>
+        <v>0.715566</v>
       </c>
       <c r="AI6">
-        <v>0.376371</v>
+        <v>0.376749</v>
       </c>
       <c r="AJ6">
-        <v>0.0892867</v>
+        <v>0.109475</v>
       </c>
       <c r="AK6">
-        <v>0.104137</v>
+        <v>0.0978368</v>
       </c>
       <c r="AL6">
-        <v>0.0944281</v>
+        <v>0.0926081</v>
       </c>
       <c r="AM6">
-        <v>0.0438379</v>
+        <v>0.0439587</v>
       </c>
       <c r="AN6">
-        <v>0.39043</v>
+        <v>0.402616</v>
       </c>
       <c r="AO6">
-        <v>874.9639999999999</v>
+        <v>872.616</v>
       </c>
       <c r="AP6">
-        <v>832.741</v>
+        <v>828.7</v>
       </c>
       <c r="AQ6">
-        <v>885.418</v>
+        <v>882.4920000000001</v>
       </c>
       <c r="AR6">
-        <v>743.3100000000001</v>
+        <v>739.273</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT6">
-        <v>727.076</v>
+        <v>723.874</v>
       </c>
       <c r="AU6">
-        <v>780.231</v>
+        <v>777.659</v>
       </c>
       <c r="AV6">
-        <v>737.801</v>
+        <v>733.6899999999999</v>
       </c>
       <c r="AW6">
-        <v>792.337</v>
+        <v>788.5409999999999</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>62</v>
@@ -1733,115 +1726,115 @@
         <v>73</v>
       </c>
       <c r="M7">
-        <v>49.6782</v>
+        <v>49.8838</v>
       </c>
       <c r="N7">
-        <v>11.1683</v>
+        <v>9.696610000000002</v>
       </c>
       <c r="O7">
-        <v>16.8525</v>
+        <v>12.451</v>
       </c>
       <c r="P7">
-        <v>30.9495</v>
+        <v>26.5198</v>
       </c>
       <c r="Q7">
-        <v>49.6777</v>
+        <v>49.8853</v>
       </c>
       <c r="R7">
-        <v>99.99890000000001</v>
+        <v>100.003</v>
       </c>
       <c r="S7">
-        <v>30.9495</v>
+        <v>26.5198</v>
       </c>
       <c r="T7">
-        <v>30.631</v>
+        <v>26.4065</v>
       </c>
       <c r="U7">
-        <v>15.4327</v>
+        <v>11.9946</v>
       </c>
       <c r="V7">
-        <v>9.27234</v>
+        <v>7.791320000000001</v>
       </c>
       <c r="W7">
-        <v>8.59769</v>
+        <v>7.882630000000001</v>
       </c>
       <c r="X7">
-        <v>9.05794</v>
+        <v>9.08747</v>
       </c>
       <c r="Y7">
-        <v>9.05794</v>
+        <v>9.08747</v>
       </c>
       <c r="Z7">
-        <v>9.045959999999999</v>
+        <v>9.088560000000001</v>
       </c>
       <c r="AA7">
-        <v>16.8525</v>
+        <v>12.451</v>
       </c>
       <c r="AB7">
-        <v>8.280250000000001</v>
+        <v>7.89761</v>
       </c>
       <c r="AC7">
-        <v>8.01388</v>
+        <v>8.03153</v>
       </c>
       <c r="AD7">
-        <v>11.1683</v>
+        <v>9.696610000000002</v>
       </c>
       <c r="AE7">
-        <v>11.1683</v>
+        <v>9.696610000000002</v>
       </c>
       <c r="AF7">
-        <v>11.1683</v>
+        <v>9.696610000000002</v>
       </c>
       <c r="AG7">
-        <v>0.680906</v>
+        <v>0.681289</v>
       </c>
       <c r="AH7">
-        <v>0.35704</v>
+        <v>0.36114</v>
       </c>
       <c r="AI7">
-        <v>0.129432</v>
+        <v>0.129435</v>
       </c>
       <c r="AJ7">
-        <v>0.0604697</v>
+        <v>0.0661332</v>
       </c>
       <c r="AK7">
-        <v>0.0660554</v>
+        <v>0.06496200000000001</v>
       </c>
       <c r="AL7">
-        <v>0.0677122</v>
+        <v>0.0671924</v>
       </c>
       <c r="AM7">
-        <v>0.0333802</v>
+        <v>0.0334307</v>
       </c>
       <c r="AN7">
-        <v>0.228059</v>
+        <v>0.232159</v>
       </c>
       <c r="AO7">
-        <v>877.1020000000001</v>
+        <v>874.441</v>
       </c>
       <c r="AP7">
-        <v>834.587</v>
+        <v>830.1950000000001</v>
       </c>
       <c r="AQ7">
-        <v>888.8390000000001</v>
+        <v>885.52</v>
       </c>
       <c r="AR7">
-        <v>746.574</v>
+        <v>742.147</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT7">
-        <v>727.9200000000001</v>
+        <v>724.494</v>
       </c>
       <c r="AU7">
-        <v>782.852</v>
+        <v>779.907</v>
       </c>
       <c r="AV7">
-        <v>740.1110000000001</v>
+        <v>735.617</v>
       </c>
       <c r="AW7">
-        <v>796.256</v>
+        <v>792.0310000000001</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>62</v>
@@ -1885,115 +1878,115 @@
         <v>75</v>
       </c>
       <c r="M8">
-        <v>49.5303</v>
+        <v>49.8098</v>
       </c>
       <c r="N8">
-        <v>9.493980000000001</v>
+        <v>8.263870000000001</v>
       </c>
       <c r="O8">
-        <v>15.8003</v>
+        <v>11.7692</v>
       </c>
       <c r="P8">
-        <v>25.929</v>
+        <v>22.0296</v>
       </c>
       <c r="Q8">
-        <v>49.5311</v>
+        <v>49.8103</v>
       </c>
       <c r="R8">
-        <v>100.002</v>
+        <v>100.001</v>
       </c>
       <c r="S8">
-        <v>25.929</v>
+        <v>22.0296</v>
       </c>
       <c r="T8">
-        <v>25.4621</v>
+        <v>21.8429</v>
       </c>
       <c r="U8">
-        <v>14.6558</v>
+        <v>11.4351</v>
       </c>
       <c r="V8">
-        <v>8.160030000000001</v>
+        <v>6.81128</v>
       </c>
       <c r="W8">
-        <v>7.28281</v>
+        <v>6.67137</v>
       </c>
       <c r="X8">
-        <v>7.65233</v>
+        <v>7.68747</v>
       </c>
       <c r="Y8">
-        <v>7.65233</v>
+        <v>7.68747</v>
       </c>
       <c r="Z8">
-        <v>7.65156</v>
+        <v>7.688409999999999</v>
       </c>
       <c r="AA8">
-        <v>15.8003</v>
+        <v>11.7692</v>
       </c>
       <c r="AB8">
-        <v>7.373970000000001</v>
+        <v>6.932840000000001</v>
       </c>
       <c r="AC8">
-        <v>6.84251</v>
+        <v>6.84759</v>
       </c>
       <c r="AD8">
-        <v>9.493980000000001</v>
+        <v>8.263870000000001</v>
       </c>
       <c r="AE8">
-        <v>9.493980000000001</v>
+        <v>8.263870000000001</v>
       </c>
       <c r="AF8">
-        <v>9.493980000000001</v>
+        <v>8.263870000000001</v>
       </c>
       <c r="AG8">
-        <v>0.831429</v>
+        <v>0.831871</v>
       </c>
       <c r="AH8">
-        <v>0.538161</v>
+        <v>0.547277</v>
       </c>
       <c r="AI8">
-        <v>0.240589</v>
+        <v>0.240592</v>
       </c>
       <c r="AJ8">
-        <v>0.0815139</v>
+        <v>0.0948056</v>
       </c>
       <c r="AK8">
-        <v>0.0886035</v>
+        <v>0.0852344</v>
       </c>
       <c r="AL8">
-        <v>0.0861039</v>
+        <v>0.08518050000000001</v>
       </c>
       <c r="AM8">
-        <v>0.0414689</v>
+        <v>0.0415892</v>
       </c>
       <c r="AN8">
-        <v>0.298248</v>
+        <v>0.307367</v>
       </c>
       <c r="AO8">
-        <v>875.3200000000001</v>
+        <v>873.0160000000001</v>
       </c>
       <c r="AP8">
-        <v>831.827</v>
+        <v>827.9280000000001</v>
       </c>
       <c r="AQ8">
-        <v>884.958</v>
+        <v>882.1060000000001</v>
       </c>
       <c r="AR8">
-        <v>741.553</v>
+        <v>737.657</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT8">
-        <v>726.328</v>
+        <v>723.259</v>
       </c>
       <c r="AU8">
-        <v>780.0890000000001</v>
+        <v>777.551</v>
       </c>
       <c r="AV8">
-        <v>736.331</v>
+        <v>732.376</v>
       </c>
       <c r="AW8">
-        <v>791.087</v>
+        <v>787.468</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>62</v>
@@ -2037,115 +2030,115 @@
         <v>73</v>
       </c>
       <c r="M9">
-        <v>49.1678</v>
+        <v>49.3209</v>
       </c>
       <c r="N9">
-        <v>12.9376</v>
+        <v>11.3138</v>
       </c>
       <c r="O9">
-        <v>19.7121</v>
+        <v>14.5048</v>
       </c>
       <c r="P9">
-        <v>31.6822</v>
+        <v>27.2017</v>
       </c>
       <c r="Q9">
-        <v>49.1683</v>
+        <v>49.32190000000001</v>
       </c>
       <c r="R9">
-        <v>100.001</v>
+        <v>100.002</v>
       </c>
       <c r="S9">
-        <v>31.6822</v>
+        <v>27.2017</v>
       </c>
       <c r="T9">
-        <v>30.849</v>
+        <v>26.526</v>
       </c>
       <c r="U9">
-        <v>17.7321</v>
+        <v>13.9495</v>
       </c>
       <c r="V9">
-        <v>11.2578</v>
+        <v>9.296760000000001</v>
       </c>
       <c r="W9">
-        <v>9.92651</v>
+        <v>9.08952</v>
       </c>
       <c r="X9">
-        <v>10.2315</v>
+        <v>10.2551</v>
       </c>
       <c r="Y9">
-        <v>10.2315</v>
+        <v>10.2551</v>
       </c>
       <c r="Z9">
-        <v>10.2272</v>
+        <v>10.2607</v>
       </c>
       <c r="AA9">
-        <v>19.7121</v>
+        <v>14.5048</v>
       </c>
       <c r="AB9">
-        <v>10.1233</v>
+        <v>9.51843</v>
       </c>
       <c r="AC9">
-        <v>9.575699999999999</v>
+        <v>9.480369999999999</v>
       </c>
       <c r="AD9">
-        <v>12.9376</v>
+        <v>11.3138</v>
       </c>
       <c r="AE9">
-        <v>12.9376</v>
+        <v>11.3138</v>
       </c>
       <c r="AF9">
-        <v>12.9376</v>
+        <v>11.3138</v>
       </c>
       <c r="AG9">
-        <v>0.677141</v>
+        <v>0.677516</v>
       </c>
       <c r="AH9">
-        <v>0.497815</v>
+        <v>0.504436</v>
       </c>
       <c r="AI9">
-        <v>0.247918</v>
+        <v>0.248263</v>
       </c>
       <c r="AJ9">
-        <v>0.066662</v>
+        <v>0.0780694</v>
       </c>
       <c r="AK9">
-        <v>0.07822810000000001</v>
+        <v>0.0744648</v>
       </c>
       <c r="AL9">
-        <v>0.0743408</v>
+        <v>0.07316</v>
       </c>
       <c r="AM9">
-        <v>0.0349936</v>
+        <v>0.0351519</v>
       </c>
       <c r="AN9">
-        <v>0.305974</v>
+        <v>0.312595</v>
       </c>
       <c r="AO9">
-        <v>876.205</v>
+        <v>873.561</v>
       </c>
       <c r="AP9">
-        <v>834.841</v>
+        <v>830.394</v>
       </c>
       <c r="AQ9">
-        <v>888.4359999999999</v>
+        <v>885.1030000000001</v>
       </c>
       <c r="AR9">
-        <v>747.308</v>
+        <v>742.828</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT9">
-        <v>728.27</v>
+        <v>724.778</v>
       </c>
       <c r="AU9">
-        <v>782.326</v>
+        <v>779.408</v>
       </c>
       <c r="AV9">
-        <v>740.826</v>
+        <v>736.272</v>
       </c>
       <c r="AW9">
-        <v>796.4739999999999</v>
+        <v>792.1510000000001</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>62</v>
@@ -2189,115 +2182,115 @@
         <v>75</v>
       </c>
       <c r="M10">
-        <v>49.0211</v>
+        <v>49.2715</v>
       </c>
       <c r="N10">
-        <v>11.2179</v>
+        <v>9.818280000000001</v>
       </c>
       <c r="O10">
-        <v>18.44</v>
+        <v>13.8918</v>
       </c>
       <c r="P10">
-        <v>27.6469</v>
+        <v>23.6031</v>
       </c>
       <c r="Q10">
-        <v>49.0207</v>
+        <v>49.2724</v>
       </c>
       <c r="R10">
-        <v>99.9992</v>
+        <v>100.002</v>
       </c>
       <c r="S10">
-        <v>27.6469</v>
+        <v>23.6031</v>
       </c>
       <c r="T10">
-        <v>26.6698</v>
+        <v>22.874</v>
       </c>
       <c r="U10">
-        <v>16.8342</v>
+        <v>13.4195</v>
       </c>
       <c r="V10">
-        <v>10.0938</v>
+        <v>8.3714</v>
       </c>
       <c r="W10">
-        <v>8.636099999999999</v>
+        <v>7.897549999999999</v>
       </c>
       <c r="X10">
-        <v>8.869160000000001</v>
+        <v>8.892380000000001</v>
       </c>
       <c r="Y10">
-        <v>8.869160000000001</v>
+        <v>8.892380000000001</v>
       </c>
       <c r="Z10">
-        <v>8.872949999999999</v>
+        <v>8.89442</v>
       </c>
       <c r="AA10">
-        <v>18.44</v>
+        <v>13.8918</v>
       </c>
       <c r="AB10">
-        <v>9.14377</v>
+        <v>8.527249999999999</v>
       </c>
       <c r="AC10">
-        <v>8.32612</v>
+        <v>8.224350000000001</v>
       </c>
       <c r="AD10">
-        <v>11.2179</v>
+        <v>9.818280000000001</v>
       </c>
       <c r="AE10">
-        <v>11.2179</v>
+        <v>9.818280000000001</v>
       </c>
       <c r="AF10">
-        <v>11.2179</v>
+        <v>9.818280000000001</v>
       </c>
       <c r="AG10">
-        <v>0.827409</v>
+        <v>0.8278489999999999</v>
       </c>
       <c r="AH10">
-        <v>0.703099</v>
+        <v>0.7153590000000001</v>
       </c>
       <c r="AI10">
-        <v>0.376371</v>
+        <v>0.376749</v>
       </c>
       <c r="AJ10">
-        <v>0.089281</v>
+        <v>0.109493</v>
       </c>
       <c r="AK10">
-        <v>0.10414</v>
+        <v>0.0978435</v>
       </c>
       <c r="AL10">
-        <v>0.0944063</v>
+        <v>0.0926231</v>
       </c>
       <c r="AM10">
-        <v>0.0435825</v>
+        <v>0.0437133</v>
       </c>
       <c r="AN10">
-        <v>0.390149</v>
+        <v>0.402409</v>
       </c>
       <c r="AO10">
-        <v>874.96</v>
+        <v>872.616</v>
       </c>
       <c r="AP10">
-        <v>832.742</v>
+        <v>828.7</v>
       </c>
       <c r="AQ10">
-        <v>885.418</v>
+        <v>882.4930000000001</v>
       </c>
       <c r="AR10">
-        <v>743.271</v>
+        <v>739.2310000000001</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT10">
-        <v>727.075</v>
+        <v>723.8750000000001</v>
       </c>
       <c r="AU10">
-        <v>780.23</v>
+        <v>777.658</v>
       </c>
       <c r="AV10">
-        <v>737.803</v>
+        <v>733.691</v>
       </c>
       <c r="AW10">
-        <v>792.2950000000001</v>
+        <v>788.499</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>62</v>
@@ -2341,115 +2334,115 @@
         <v>73</v>
       </c>
       <c r="M11">
-        <v>48.9685</v>
+        <v>49.6866</v>
       </c>
       <c r="N11">
-        <v>18.7553</v>
+        <v>15.8362</v>
       </c>
       <c r="O11">
-        <v>22.0661</v>
+        <v>15.4277</v>
       </c>
       <c r="P11">
-        <v>55.6565</v>
+        <v>48.402</v>
       </c>
       <c r="Q11">
-        <v>48.9687</v>
+        <v>49.6881</v>
       </c>
       <c r="R11">
-        <v>100</v>
+        <v>100.003</v>
       </c>
       <c r="S11">
-        <v>55.6565</v>
+        <v>48.402</v>
       </c>
       <c r="T11">
-        <v>54.6245</v>
+        <v>48.0913</v>
       </c>
       <c r="U11">
-        <v>19.6989</v>
+        <v>13.794</v>
       </c>
       <c r="V11">
-        <v>15.0448</v>
+        <v>12.2693</v>
       </c>
       <c r="W11">
-        <v>14.6219</v>
+        <v>13.7213</v>
       </c>
       <c r="X11">
-        <v>15.2257</v>
+        <v>15.4277</v>
       </c>
       <c r="Y11">
-        <v>15.2257</v>
+        <v>15.4277</v>
       </c>
       <c r="Z11">
-        <v>15.2285</v>
+        <v>15.426</v>
       </c>
       <c r="AA11">
-        <v>22.0661</v>
+        <v>14.3374</v>
       </c>
       <c r="AB11">
-        <v>13.2756</v>
+        <v>12.737</v>
       </c>
       <c r="AC11">
-        <v>13.6524</v>
+        <v>14.1636</v>
       </c>
       <c r="AD11">
-        <v>18.7553</v>
+        <v>15.8362</v>
       </c>
       <c r="AE11">
-        <v>18.7553</v>
+        <v>15.8362</v>
       </c>
       <c r="AF11">
-        <v>18.7553</v>
+        <v>15.8362</v>
       </c>
       <c r="AG11">
-        <v>0.682949</v>
+        <v>0.683386</v>
       </c>
       <c r="AH11">
-        <v>0.22321</v>
+        <v>0.226156</v>
       </c>
       <c r="AI11">
-        <v>0.0204357</v>
+        <v>0.0204356</v>
       </c>
       <c r="AJ11">
-        <v>0.0514375</v>
+        <v>0.0538892</v>
       </c>
       <c r="AK11">
-        <v>0.0568809</v>
+        <v>0.0574387</v>
       </c>
       <c r="AL11">
-        <v>0.06212119999999999</v>
+        <v>0.062031</v>
       </c>
       <c r="AM11">
-        <v>0.0325434</v>
+        <v>0.0325713</v>
       </c>
       <c r="AN11">
-        <v>0.20299</v>
+        <v>0.205937</v>
       </c>
       <c r="AO11">
-        <v>882.888</v>
+        <v>880.019</v>
       </c>
       <c r="AP11">
-        <v>847.5590000000001</v>
+        <v>840.0540000000001</v>
       </c>
       <c r="AQ11">
-        <v>906.136</v>
+        <v>901.533</v>
       </c>
       <c r="AR11">
-        <v>771.2800000000001</v>
+        <v>764.027</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT11">
-        <v>734.1949999999999</v>
+        <v>729.777</v>
       </c>
       <c r="AU11">
-        <v>794.441</v>
+        <v>790.191</v>
       </c>
       <c r="AV11">
-        <v>758.725</v>
+        <v>751.133</v>
       </c>
       <c r="AW11">
-        <v>820.249</v>
+        <v>813.716</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>62</v>
@@ -2493,115 +2486,115 @@
         <v>75</v>
       </c>
       <c r="M12">
-        <v>49.4431</v>
+        <v>49.8521</v>
       </c>
       <c r="N12">
-        <v>14.0851</v>
+        <v>11.9469</v>
       </c>
       <c r="O12">
-        <v>18.3956</v>
+        <v>12.8724</v>
       </c>
       <c r="P12">
-        <v>40.3253</v>
+        <v>34.8732</v>
       </c>
       <c r="Q12">
-        <v>49.44220000000001</v>
+        <v>49.8518</v>
       </c>
       <c r="R12">
-        <v>99.998</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S12">
-        <v>40.3253</v>
+        <v>34.8732</v>
       </c>
       <c r="T12">
-        <v>39.7685</v>
+        <v>34.7259</v>
       </c>
       <c r="U12">
-        <v>16.2282</v>
+        <v>12.364</v>
       </c>
       <c r="V12">
-        <v>11.165</v>
+        <v>9.236130000000001</v>
       </c>
       <c r="W12">
-        <v>10.8359</v>
+        <v>10.0728</v>
       </c>
       <c r="X12">
-        <v>11.296</v>
+        <v>11.4292</v>
       </c>
       <c r="Y12">
-        <v>11.296</v>
+        <v>11.4292</v>
       </c>
       <c r="Z12">
-        <v>11.2951</v>
+        <v>11.4322</v>
       </c>
       <c r="AA12">
-        <v>18.3956</v>
+        <v>12.8724</v>
       </c>
       <c r="AB12">
-        <v>9.945590000000001</v>
+        <v>9.68642</v>
       </c>
       <c r="AC12">
-        <v>10.2195</v>
+        <v>10.5184</v>
       </c>
       <c r="AD12">
-        <v>14.0851</v>
+        <v>11.9469</v>
       </c>
       <c r="AE12">
-        <v>14.0851</v>
+        <v>11.9469</v>
       </c>
       <c r="AF12">
-        <v>14.0851</v>
+        <v>11.9469</v>
       </c>
       <c r="AG12">
-        <v>0.833978</v>
+        <v>0.8342270000000001</v>
       </c>
       <c r="AH12">
-        <v>0.324754</v>
+        <v>0.327021</v>
       </c>
       <c r="AI12">
-        <v>0.0684577</v>
+        <v>0.0684575</v>
       </c>
       <c r="AJ12">
-        <v>0.0666356</v>
+        <v>0.06897539999999999</v>
       </c>
       <c r="AK12">
-        <v>0.0716565</v>
+        <v>0.07188079999999999</v>
       </c>
       <c r="AL12">
-        <v>0.0779651</v>
+        <v>0.0775602</v>
       </c>
       <c r="AM12">
-        <v>0.0400129</v>
+        <v>0.0401231</v>
       </c>
       <c r="AN12">
-        <v>0.256283</v>
+        <v>0.25855</v>
       </c>
       <c r="AO12">
-        <v>879.6600000000001</v>
+        <v>876.7569999999999</v>
       </c>
       <c r="AP12">
-        <v>839.6310000000001</v>
+        <v>834.046</v>
       </c>
       <c r="AQ12">
-        <v>895.49</v>
+        <v>891.8190000000001</v>
       </c>
       <c r="AR12">
-        <v>755.946</v>
+        <v>750.498</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT12">
-        <v>730.7280000000001</v>
+        <v>726.6719999999999</v>
       </c>
       <c r="AU12">
-        <v>787.468</v>
+        <v>784.1079999999999</v>
       </c>
       <c r="AV12">
-        <v>747.277</v>
+        <v>741.644</v>
       </c>
       <c r="AW12">
-        <v>805.394</v>
+        <v>800.3510000000001</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>62</v>
@@ -2645,115 +2638,115 @@
         <v>73</v>
       </c>
       <c r="M13">
-        <v>48.7244</v>
+        <v>49.4365</v>
       </c>
       <c r="N13">
-        <v>20.4159</v>
+        <v>17.4045</v>
       </c>
       <c r="O13">
-        <v>24.7066</v>
+        <v>16.146</v>
       </c>
       <c r="P13">
-        <v>52.9342</v>
+        <v>45.9935</v>
       </c>
       <c r="Q13">
-        <v>48.7239</v>
+        <v>49.43620000000001</v>
       </c>
       <c r="R13">
-        <v>99.99890000000001</v>
+        <v>99.99930000000001</v>
       </c>
       <c r="S13">
-        <v>52.9342</v>
+        <v>45.9935</v>
       </c>
       <c r="T13">
-        <v>51.6561</v>
+        <v>45.42910000000001</v>
       </c>
       <c r="U13">
-        <v>21.3311</v>
+        <v>15.1557</v>
       </c>
       <c r="V13">
-        <v>16.2491</v>
+        <v>13.1634</v>
       </c>
       <c r="W13">
-        <v>15.4449</v>
+        <v>14.4777</v>
       </c>
       <c r="X13">
-        <v>15.9588</v>
+        <v>16.146</v>
       </c>
       <c r="Y13">
-        <v>15.9588</v>
+        <v>16.146</v>
       </c>
       <c r="Z13">
-        <v>15.9552</v>
+        <v>16.142</v>
       </c>
       <c r="AA13">
-        <v>24.7066</v>
+        <v>16.09</v>
       </c>
       <c r="AB13">
-        <v>14.5419</v>
+        <v>13.9641</v>
       </c>
       <c r="AC13">
-        <v>15.0149</v>
+        <v>15.3943</v>
       </c>
       <c r="AD13">
-        <v>20.4159</v>
+        <v>17.4045</v>
       </c>
       <c r="AE13">
-        <v>20.4159</v>
+        <v>17.4045</v>
       </c>
       <c r="AF13">
-        <v>20.4159</v>
+        <v>17.4045</v>
       </c>
       <c r="AG13">
-        <v>0.6800850000000001</v>
+        <v>0.680431</v>
       </c>
       <c r="AH13">
-        <v>0.254975</v>
+        <v>0.258137</v>
       </c>
       <c r="AI13">
-        <v>0.0471416</v>
+        <v>0.04715159999999999</v>
       </c>
       <c r="AJ13">
-        <v>0.0526387</v>
+        <v>0.0561487</v>
       </c>
       <c r="AK13">
-        <v>0.059059</v>
+        <v>0.05888239999999999</v>
       </c>
       <c r="AL13">
-        <v>0.06347949999999999</v>
+        <v>0.0631983</v>
       </c>
       <c r="AM13">
-        <v>0.0327762</v>
+        <v>0.0328851</v>
       </c>
       <c r="AN13">
-        <v>0.20988</v>
+        <v>0.213042</v>
       </c>
       <c r="AO13">
-        <v>881.224</v>
+        <v>878.248</v>
       </c>
       <c r="AP13">
-        <v>845.759</v>
+        <v>838.6660000000001</v>
       </c>
       <c r="AQ13">
-        <v>903.162</v>
+        <v>898.87</v>
       </c>
       <c r="AR13">
-        <v>768.556</v>
+        <v>761.617</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT13">
-        <v>733.682</v>
+        <v>729.0340000000001</v>
       </c>
       <c r="AU13">
-        <v>792.1990000000001</v>
+        <v>788.306</v>
       </c>
       <c r="AV13">
-        <v>756.797</v>
+        <v>749.6089999999999</v>
       </c>
       <c r="AW13">
-        <v>817.2810000000001</v>
+        <v>811.0540000000001</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>62</v>
@@ -2797,115 +2790,115 @@
         <v>75</v>
       </c>
       <c r="M14">
-        <v>49.1701</v>
+        <v>49.5319</v>
       </c>
       <c r="N14">
-        <v>16.0102</v>
+        <v>13.6964</v>
       </c>
       <c r="O14">
-        <v>21.1251</v>
+        <v>14.4018</v>
       </c>
       <c r="P14">
-        <v>40.7568</v>
+        <v>35.2242</v>
       </c>
       <c r="Q14">
-        <v>49.17010000000001</v>
+        <v>49.5304</v>
       </c>
       <c r="R14">
-        <v>100</v>
+        <v>99.997</v>
       </c>
       <c r="S14">
-        <v>40.7568</v>
+        <v>35.2242</v>
       </c>
       <c r="T14">
-        <v>39.9266</v>
+        <v>34.7543</v>
       </c>
       <c r="U14">
-        <v>18.2552</v>
+        <v>13.7548</v>
       </c>
       <c r="V14">
-        <v>12.7424</v>
+        <v>10.532</v>
       </c>
       <c r="W14">
-        <v>12.1263</v>
+        <v>11.2833</v>
       </c>
       <c r="X14">
-        <v>12.5279</v>
+        <v>12.6413</v>
       </c>
       <c r="Y14">
-        <v>12.5279</v>
+        <v>12.6413</v>
       </c>
       <c r="Z14">
-        <v>12.5241</v>
+        <v>12.6417</v>
       </c>
       <c r="AA14">
-        <v>21.1251</v>
+        <v>14.4018</v>
       </c>
       <c r="AB14">
-        <v>11.4471</v>
+        <v>11.1414</v>
       </c>
       <c r="AC14">
-        <v>11.7294</v>
+        <v>11.9697</v>
       </c>
       <c r="AD14">
-        <v>16.0102</v>
+        <v>13.6964</v>
       </c>
       <c r="AE14">
-        <v>16.0102</v>
+        <v>13.6964</v>
       </c>
       <c r="AF14">
-        <v>16.0102</v>
+        <v>13.6964</v>
       </c>
       <c r="AG14">
-        <v>0.831294</v>
+        <v>0.831601</v>
       </c>
       <c r="AH14">
-        <v>0.363085</v>
+        <v>0.36649</v>
       </c>
       <c r="AI14">
-        <v>0.0981759</v>
+        <v>0.0981863</v>
       </c>
       <c r="AJ14">
-        <v>0.0688241</v>
+        <v>0.07375040000000001</v>
       </c>
       <c r="AK14">
-        <v>0.0756529</v>
+        <v>0.0746655</v>
       </c>
       <c r="AL14">
-        <v>0.0800037</v>
+        <v>0.0793031</v>
       </c>
       <c r="AM14">
-        <v>0.0404955</v>
+        <v>0.0406632</v>
       </c>
       <c r="AN14">
-        <v>0.267153</v>
+        <v>0.270558</v>
       </c>
       <c r="AO14">
-        <v>878.761</v>
+        <v>875.768</v>
       </c>
       <c r="AP14">
-        <v>839.5450000000001</v>
+        <v>833.908</v>
       </c>
       <c r="AQ14">
-        <v>894.994</v>
+        <v>891.264</v>
       </c>
       <c r="AR14">
-        <v>756.386</v>
+        <v>750.846</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT14">
-        <v>730.795</v>
+        <v>726.554</v>
       </c>
       <c r="AU14">
-        <v>786.8580000000001</v>
+        <v>783.485</v>
       </c>
       <c r="AV14">
-        <v>747.6569999999999</v>
+        <v>741.9640000000001</v>
       </c>
       <c r="AW14">
-        <v>805.552</v>
+        <v>800.379</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>62</v>
@@ -2949,115 +2942,115 @@
         <v>73</v>
       </c>
       <c r="M15">
-        <v>48.9739</v>
+        <v>49.7032</v>
       </c>
       <c r="N15">
-        <v>18.6369</v>
+        <v>15.7446</v>
       </c>
       <c r="O15">
-        <v>22.0703</v>
+        <v>15.3524</v>
       </c>
       <c r="P15">
-        <v>55.5934</v>
+        <v>48.3394</v>
       </c>
       <c r="Q15">
-        <v>48.9758</v>
+        <v>49.7032</v>
       </c>
       <c r="R15">
-        <v>100.004</v>
+        <v>100</v>
       </c>
       <c r="S15">
-        <v>55.5934</v>
+        <v>48.3394</v>
       </c>
       <c r="T15">
-        <v>54.5624</v>
+        <v>48.03720000000001</v>
       </c>
       <c r="U15">
-        <v>19.6911</v>
+        <v>13.7959</v>
       </c>
       <c r="V15">
-        <v>15.0477</v>
+        <v>12.2754</v>
       </c>
       <c r="W15">
-        <v>14.6213</v>
+        <v>13.721</v>
       </c>
       <c r="X15">
-        <v>15.1482</v>
+        <v>15.3524</v>
       </c>
       <c r="Y15">
-        <v>15.1482</v>
+        <v>15.3524</v>
       </c>
       <c r="Z15">
-        <v>15.1515</v>
+        <v>15.3561</v>
       </c>
       <c r="AA15">
-        <v>22.0703</v>
+        <v>14.339</v>
       </c>
       <c r="AB15">
-        <v>13.2529</v>
+        <v>12.7347</v>
       </c>
       <c r="AC15">
-        <v>13.6507</v>
+        <v>14.165</v>
       </c>
       <c r="AD15">
-        <v>18.6369</v>
+        <v>15.7446</v>
       </c>
       <c r="AE15">
-        <v>18.6369</v>
+        <v>15.7446</v>
       </c>
       <c r="AF15">
-        <v>18.6369</v>
+        <v>15.7446</v>
       </c>
       <c r="AG15">
-        <v>0.683009</v>
+        <v>0.683426</v>
       </c>
       <c r="AH15">
-        <v>0.222936</v>
+        <v>0.225928</v>
       </c>
       <c r="AI15">
-        <v>0.0204357</v>
+        <v>0.0204356</v>
       </c>
       <c r="AJ15">
-        <v>0.0514263</v>
+        <v>0.0538895</v>
       </c>
       <c r="AK15">
-        <v>0.0568696</v>
+        <v>0.057437</v>
       </c>
       <c r="AL15">
-        <v>0.0621169</v>
+        <v>0.0620349</v>
       </c>
       <c r="AM15">
-        <v>0.0322976</v>
+        <v>0.0323406</v>
       </c>
       <c r="AN15">
-        <v>0.202717</v>
+        <v>0.205708</v>
       </c>
       <c r="AO15">
-        <v>882.888</v>
+        <v>880.0210000000001</v>
       </c>
       <c r="AP15">
-        <v>847.551</v>
+        <v>840.0549999999999</v>
       </c>
       <c r="AQ15">
-        <v>906.138</v>
+        <v>901.534</v>
       </c>
       <c r="AR15">
-        <v>771.221</v>
+        <v>763.972</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT15">
-        <v>734.1949999999999</v>
+        <v>729.777</v>
       </c>
       <c r="AU15">
-        <v>794.439</v>
+        <v>790.192</v>
       </c>
       <c r="AV15">
-        <v>758.724</v>
+        <v>751.1360000000001</v>
       </c>
       <c r="AW15">
-        <v>820.187</v>
+        <v>813.662</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>62</v>
@@ -3101,115 +3094,115 @@
         <v>75</v>
       </c>
       <c r="M16">
-        <v>49.4486</v>
+        <v>49.8628</v>
       </c>
       <c r="N16">
-        <v>14.0021</v>
+        <v>11.8758</v>
       </c>
       <c r="O16">
-        <v>18.4033</v>
+        <v>12.8854</v>
       </c>
       <c r="P16">
-        <v>40.2682</v>
+        <v>34.8209</v>
       </c>
       <c r="Q16">
-        <v>49.4501</v>
+        <v>49.8633</v>
       </c>
       <c r="R16">
-        <v>100.003</v>
+        <v>100.001</v>
       </c>
       <c r="S16">
-        <v>40.2682</v>
+        <v>34.8209</v>
       </c>
       <c r="T16">
-        <v>39.718</v>
+        <v>34.68450000000001</v>
       </c>
       <c r="U16">
-        <v>16.2251</v>
+        <v>12.3594</v>
       </c>
       <c r="V16">
-        <v>11.1792</v>
+        <v>9.23789</v>
       </c>
       <c r="W16">
-        <v>10.8149</v>
+        <v>10.0745</v>
       </c>
       <c r="X16">
-        <v>11.2471</v>
+        <v>11.3815</v>
       </c>
       <c r="Y16">
-        <v>11.2471</v>
+        <v>11.3815</v>
       </c>
       <c r="Z16">
-        <v>11.2463</v>
+        <v>11.3812</v>
       </c>
       <c r="AA16">
-        <v>18.4033</v>
+        <v>12.8854</v>
       </c>
       <c r="AB16">
-        <v>9.94706</v>
+        <v>9.68393</v>
       </c>
       <c r="AC16">
-        <v>10.2219</v>
+        <v>10.5193</v>
       </c>
       <c r="AD16">
-        <v>14.0021</v>
+        <v>11.8758</v>
       </c>
       <c r="AE16">
-        <v>14.0021</v>
+        <v>11.8758</v>
       </c>
       <c r="AF16">
-        <v>14.0021</v>
+        <v>11.8758</v>
       </c>
       <c r="AG16">
-        <v>0.8340340000000001</v>
+        <v>0.834301</v>
       </c>
       <c r="AH16">
-        <v>0.324471</v>
+        <v>0.326718</v>
       </c>
       <c r="AI16">
-        <v>0.0684577</v>
+        <v>0.06845759999999999</v>
       </c>
       <c r="AJ16">
-        <v>0.06663720000000001</v>
+        <v>0.0689636</v>
       </c>
       <c r="AK16">
-        <v>0.071647</v>
+        <v>0.07187060000000001</v>
       </c>
       <c r="AL16">
-        <v>0.0779787</v>
+        <v>0.0775656</v>
       </c>
       <c r="AM16">
-        <v>0.039724</v>
+        <v>0.0398352</v>
       </c>
       <c r="AN16">
-        <v>0.256</v>
+        <v>0.258246</v>
       </c>
       <c r="AO16">
-        <v>879.6600000000001</v>
+        <v>876.759</v>
       </c>
       <c r="AP16">
-        <v>839.626</v>
+        <v>834.044</v>
       </c>
       <c r="AQ16">
-        <v>895.49</v>
+        <v>891.821</v>
       </c>
       <c r="AR16">
-        <v>755.899</v>
+        <v>750.448</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT16">
-        <v>730.7280000000001</v>
+        <v>726.673</v>
       </c>
       <c r="AU16">
-        <v>787.468</v>
+        <v>784.1079999999999</v>
       </c>
       <c r="AV16">
-        <v>747.278</v>
+        <v>741.644</v>
       </c>
       <c r="AW16">
-        <v>805.343</v>
+        <v>800.3100000000001</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>62</v>
@@ -3253,115 +3246,115 @@
         <v>73</v>
       </c>
       <c r="M17">
-        <v>48.7187</v>
+        <v>49.441</v>
       </c>
       <c r="N17">
-        <v>20.2944</v>
+        <v>17.3002</v>
       </c>
       <c r="O17">
-        <v>24.7063</v>
+        <v>16.0955</v>
       </c>
       <c r="P17">
-        <v>52.8703</v>
+        <v>45.9303</v>
       </c>
       <c r="Q17">
-        <v>48.7202</v>
+        <v>49.44090000000001</v>
       </c>
       <c r="R17">
-        <v>100.003</v>
+        <v>99.9996</v>
       </c>
       <c r="S17">
-        <v>52.8703</v>
+        <v>45.9303</v>
       </c>
       <c r="T17">
-        <v>51.5915</v>
+        <v>45.37260000000001</v>
       </c>
       <c r="U17">
-        <v>21.3307</v>
+        <v>15.1508</v>
       </c>
       <c r="V17">
-        <v>16.2577</v>
+        <v>13.1706</v>
       </c>
       <c r="W17">
-        <v>15.4456</v>
+        <v>14.4805</v>
       </c>
       <c r="X17">
-        <v>15.8794</v>
+        <v>16.0703</v>
       </c>
       <c r="Y17">
-        <v>15.8794</v>
+        <v>16.0703</v>
       </c>
       <c r="Z17">
-        <v>15.8845</v>
+        <v>16.074</v>
       </c>
       <c r="AA17">
-        <v>24.7063</v>
+        <v>16.0955</v>
       </c>
       <c r="AB17">
-        <v>14.5393</v>
+        <v>13.9711</v>
       </c>
       <c r="AC17">
-        <v>15.016</v>
+        <v>15.3929</v>
       </c>
       <c r="AD17">
-        <v>20.2944</v>
+        <v>17.3002</v>
       </c>
       <c r="AE17">
-        <v>20.2944</v>
+        <v>17.3002</v>
       </c>
       <c r="AF17">
-        <v>20.2944</v>
+        <v>17.3002</v>
       </c>
       <c r="AG17">
-        <v>0.680122</v>
+        <v>0.680493</v>
       </c>
       <c r="AH17">
-        <v>0.25475</v>
+        <v>0.257912</v>
       </c>
       <c r="AI17">
-        <v>0.0471416</v>
+        <v>0.04715159999999999</v>
       </c>
       <c r="AJ17">
-        <v>0.0526388</v>
+        <v>0.0561489</v>
       </c>
       <c r="AK17">
-        <v>0.0590598</v>
+        <v>0.0588864</v>
       </c>
       <c r="AL17">
-        <v>0.0634813</v>
+        <v>0.06319889999999999</v>
       </c>
       <c r="AM17">
-        <v>0.0325488</v>
+        <v>0.0326557</v>
       </c>
       <c r="AN17">
-        <v>0.209656</v>
+        <v>0.212818</v>
       </c>
       <c r="AO17">
-        <v>881.2230000000001</v>
+        <v>878.249</v>
       </c>
       <c r="AP17">
-        <v>845.756</v>
+        <v>838.6610000000001</v>
       </c>
       <c r="AQ17">
-        <v>903.159</v>
+        <v>898.867</v>
       </c>
       <c r="AR17">
-        <v>768.497</v>
+        <v>761.5549999999999</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT17">
-        <v>733.686</v>
+        <v>729.0340000000001</v>
       </c>
       <c r="AU17">
-        <v>792.202</v>
+        <v>788.307</v>
       </c>
       <c r="AV17">
-        <v>756.798</v>
+        <v>749.61</v>
       </c>
       <c r="AW17">
-        <v>817.217</v>
+        <v>810.9979999999999</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>62</v>
@@ -3405,115 +3398,115 @@
         <v>75</v>
       </c>
       <c r="M18">
-        <v>49.16</v>
+        <v>49.5351</v>
       </c>
       <c r="N18">
-        <v>15.9201</v>
+        <v>13.6176</v>
       </c>
       <c r="O18">
-        <v>21.1295</v>
+        <v>14.4045</v>
       </c>
       <c r="P18">
-        <v>40.701</v>
+        <v>35.1696</v>
       </c>
       <c r="Q18">
-        <v>49.162</v>
+        <v>49.5346</v>
       </c>
       <c r="R18">
-        <v>100.004</v>
+        <v>99.9991</v>
       </c>
       <c r="S18">
-        <v>40.701</v>
+        <v>35.1696</v>
       </c>
       <c r="T18">
-        <v>39.8684</v>
+        <v>34.7079</v>
       </c>
       <c r="U18">
-        <v>18.249</v>
+        <v>13.7528</v>
       </c>
       <c r="V18">
-        <v>12.746</v>
+        <v>10.5276</v>
       </c>
       <c r="W18">
-        <v>12.1488</v>
+        <v>11.2827</v>
       </c>
       <c r="X18">
-        <v>12.4717</v>
+        <v>12.5876</v>
       </c>
       <c r="Y18">
-        <v>12.4717</v>
+        <v>12.5876</v>
       </c>
       <c r="Z18">
-        <v>12.4734</v>
+        <v>12.5951</v>
       </c>
       <c r="AA18">
-        <v>21.1295</v>
+        <v>14.4045</v>
       </c>
       <c r="AB18">
-        <v>11.4521</v>
+        <v>11.1373</v>
       </c>
       <c r="AC18">
-        <v>11.729</v>
+        <v>11.9709</v>
       </c>
       <c r="AD18">
-        <v>15.9201</v>
+        <v>13.6176</v>
       </c>
       <c r="AE18">
-        <v>15.9201</v>
+        <v>13.6176</v>
       </c>
       <c r="AF18">
-        <v>15.9201</v>
+        <v>13.6176</v>
       </c>
       <c r="AG18">
-        <v>0.831313</v>
+        <v>0.831643</v>
       </c>
       <c r="AH18">
-        <v>0.362833</v>
+        <v>0.366212</v>
       </c>
       <c r="AI18">
-        <v>0.0981759</v>
+        <v>0.0981863</v>
       </c>
       <c r="AJ18">
-        <v>0.06883120000000001</v>
+        <v>0.0737433</v>
       </c>
       <c r="AK18">
-        <v>0.07564700000000001</v>
+        <v>0.0746594</v>
       </c>
       <c r="AL18">
-        <v>0.0800275</v>
+        <v>0.0793112</v>
       </c>
       <c r="AM18">
-        <v>0.0402186</v>
+        <v>0.04039</v>
       </c>
       <c r="AN18">
-        <v>0.266901</v>
+        <v>0.27028</v>
       </c>
       <c r="AO18">
-        <v>878.7620000000001</v>
+        <v>875.768</v>
       </c>
       <c r="AP18">
-        <v>839.54</v>
+        <v>833.9050000000001</v>
       </c>
       <c r="AQ18">
-        <v>894.989</v>
+        <v>891.2620000000001</v>
       </c>
       <c r="AR18">
-        <v>756.328</v>
+        <v>750.794</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT18">
-        <v>730.799</v>
+        <v>726.552</v>
       </c>
       <c r="AU18">
-        <v>786.8580000000001</v>
+        <v>783.49</v>
       </c>
       <c r="AV18">
-        <v>747.652</v>
+        <v>741.9640000000001</v>
       </c>
       <c r="AW18">
-        <v>805.4930000000001</v>
+        <v>800.333</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>62</v>
@@ -3557,115 +3550,115 @@
         <v>73</v>
       </c>
       <c r="M19">
-        <v>52.4239</v>
+        <v>52.2738</v>
       </c>
       <c r="N19">
-        <v>13.4642</v>
+        <v>13.5258</v>
       </c>
       <c r="O19">
-        <v>19.95</v>
+        <v>13.7826</v>
       </c>
       <c r="P19">
-        <v>42.0499</v>
+        <v>36.6763</v>
       </c>
       <c r="Q19">
-        <v>52.4259</v>
+        <v>52.2738</v>
       </c>
       <c r="R19">
-        <v>100.004</v>
+        <v>99.9999</v>
       </c>
       <c r="S19">
-        <v>39.6247</v>
+        <v>34.4022</v>
       </c>
       <c r="T19">
-        <v>42.0499</v>
+        <v>36.6763</v>
       </c>
       <c r="U19">
-        <v>19.95</v>
+        <v>13.7826</v>
       </c>
       <c r="V19">
-        <v>13.3587</v>
+        <v>11.5137</v>
       </c>
       <c r="W19">
-        <v>13.3049</v>
+        <v>12.2613</v>
       </c>
       <c r="X19">
-        <v>13.4662</v>
+        <v>13.5188</v>
       </c>
       <c r="Y19">
-        <v>13.4662</v>
+        <v>13.5188</v>
       </c>
       <c r="Z19">
-        <v>13.4642</v>
+        <v>13.5258</v>
       </c>
       <c r="AA19">
-        <v>16.8945</v>
+        <v>12.7185</v>
       </c>
       <c r="AB19">
-        <v>9.48821</v>
+        <v>8.483369999999999</v>
       </c>
       <c r="AC19">
-        <v>9.167159999999999</v>
+        <v>9.115920000000001</v>
       </c>
       <c r="AD19">
-        <v>12.7133</v>
+        <v>11.1241</v>
       </c>
       <c r="AE19">
-        <v>12.7133</v>
+        <v>11.1241</v>
       </c>
       <c r="AF19">
-        <v>12.7133</v>
+        <v>11.1241</v>
       </c>
       <c r="AG19">
-        <v>0.6819</v>
+        <v>0.682274</v>
       </c>
       <c r="AH19">
-        <v>0.273992</v>
+        <v>0.276051</v>
       </c>
       <c r="AI19">
-        <v>0.06196209999999999</v>
+        <v>0.06196400000000001</v>
       </c>
       <c r="AJ19">
-        <v>0.0552119</v>
+        <v>0.0573223</v>
       </c>
       <c r="AK19">
-        <v>0.0598631</v>
+        <v>0.0599812</v>
       </c>
       <c r="AL19">
-        <v>0.0643826</v>
+        <v>0.0641259</v>
       </c>
       <c r="AM19">
-        <v>0.032781</v>
+        <v>0.0328701</v>
       </c>
       <c r="AN19">
-        <v>0.21239</v>
+        <v>0.21445</v>
       </c>
       <c r="AO19">
-        <v>882.707</v>
+        <v>879.6129999999999</v>
       </c>
       <c r="AP19">
-        <v>838.746</v>
+        <v>833.489</v>
       </c>
       <c r="AQ19">
-        <v>898.9400000000001</v>
+        <v>894.6160000000001</v>
       </c>
       <c r="AR19">
-        <v>755.253</v>
+        <v>750.028</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT19">
-        <v>727.909</v>
+        <v>724.253</v>
       </c>
       <c r="AU19">
-        <v>789.061</v>
+        <v>785.378</v>
       </c>
       <c r="AV19">
-        <v>745.0390000000001</v>
+        <v>739.728</v>
       </c>
       <c r="AW19">
-        <v>807.6750000000001</v>
+        <v>802.301</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>62</v>
@@ -3709,115 +3702,115 @@
         <v>75</v>
       </c>
       <c r="M20">
-        <v>51.8735</v>
+        <v>52.3149</v>
       </c>
       <c r="N20">
-        <v>10.4318</v>
+        <v>10.2771</v>
       </c>
       <c r="O20">
-        <v>16.7774</v>
+        <v>12.2642</v>
       </c>
       <c r="P20">
-        <v>32.5874</v>
+        <v>28.4346</v>
       </c>
       <c r="Q20">
-        <v>51.8723</v>
+        <v>52.3149</v>
       </c>
       <c r="R20">
-        <v>99.9978</v>
+        <v>100</v>
       </c>
       <c r="S20">
-        <v>30.715</v>
+        <v>26.1183</v>
       </c>
       <c r="T20">
-        <v>32.5874</v>
+        <v>28.4346</v>
       </c>
       <c r="U20">
-        <v>16.7774</v>
+        <v>12.2642</v>
       </c>
       <c r="V20">
-        <v>10.3921</v>
+        <v>8.92658</v>
       </c>
       <c r="W20">
-        <v>10.0225</v>
+        <v>9.208580000000001</v>
       </c>
       <c r="X20">
-        <v>10.272</v>
+        <v>10.2751</v>
       </c>
       <c r="Y20">
-        <v>10.272</v>
+        <v>10.2751</v>
       </c>
       <c r="Z20">
-        <v>10.2656</v>
+        <v>10.2771</v>
       </c>
       <c r="AA20">
-        <v>15.656</v>
+        <v>11.8477</v>
       </c>
       <c r="AB20">
-        <v>7.84731</v>
+        <v>7.30192</v>
       </c>
       <c r="AC20">
-        <v>7.491890000000001</v>
+        <v>7.47186</v>
       </c>
       <c r="AD20">
-        <v>10.4318</v>
+        <v>9.10787</v>
       </c>
       <c r="AE20">
-        <v>10.4318</v>
+        <v>9.10787</v>
       </c>
       <c r="AF20">
-        <v>10.4318</v>
+        <v>9.10787</v>
       </c>
       <c r="AG20">
-        <v>0.832662</v>
+        <v>0.833083</v>
       </c>
       <c r="AH20">
-        <v>0.409816</v>
+        <v>0.41387</v>
       </c>
       <c r="AI20">
-        <v>0.139058</v>
+        <v>0.13906</v>
       </c>
       <c r="AJ20">
-        <v>0.071603</v>
+        <v>0.0769941</v>
       </c>
       <c r="AK20">
-        <v>0.0774633</v>
+        <v>0.0766681</v>
       </c>
       <c r="AL20">
-        <v>0.0811344</v>
+        <v>0.0805497</v>
       </c>
       <c r="AM20">
-        <v>0.0406165</v>
+        <v>0.0406628</v>
       </c>
       <c r="AN20">
-        <v>0.271015</v>
+        <v>0.275069</v>
       </c>
       <c r="AO20">
-        <v>879.554</v>
+        <v>876.812</v>
       </c>
       <c r="AP20">
-        <v>834.046</v>
+        <v>829.409</v>
       </c>
       <c r="AQ20">
-        <v>891.4200000000001</v>
+        <v>888.1080000000001</v>
       </c>
       <c r="AR20">
-        <v>746.343</v>
+        <v>741.7430000000001</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT20">
-        <v>725.85</v>
+        <v>722.424</v>
       </c>
       <c r="AU20">
-        <v>784.255</v>
+        <v>781.388</v>
       </c>
       <c r="AV20">
-        <v>738.864</v>
+        <v>734.1990000000001</v>
       </c>
       <c r="AW20">
-        <v>798.212</v>
+        <v>794.0600000000001</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>62</v>
@@ -3861,115 +3854,115 @@
         <v>73</v>
       </c>
       <c r="M21">
-        <v>51.5867</v>
+        <v>51.7641</v>
       </c>
       <c r="N21">
-        <v>14.3799</v>
+        <v>14.2074</v>
       </c>
       <c r="O21">
-        <v>21.4383</v>
+        <v>15.2497</v>
       </c>
       <c r="P21">
-        <v>40.572</v>
+        <v>35.4219</v>
       </c>
       <c r="Q21">
-        <v>51.589</v>
+        <v>51.7655</v>
       </c>
       <c r="R21">
-        <v>100.004</v>
+        <v>100.003</v>
       </c>
       <c r="S21">
-        <v>38.97880000000001</v>
+        <v>33.6553</v>
       </c>
       <c r="T21">
-        <v>40.572</v>
+        <v>35.4219</v>
       </c>
       <c r="U21">
-        <v>21.4383</v>
+        <v>15.2497</v>
       </c>
       <c r="V21">
-        <v>14.8085</v>
+        <v>12.6321</v>
       </c>
       <c r="W21">
-        <v>14.1388</v>
+        <v>13.0317</v>
       </c>
       <c r="X21">
-        <v>14.1676</v>
+        <v>14.224</v>
       </c>
       <c r="Y21">
-        <v>14.1676</v>
+        <v>14.224</v>
       </c>
       <c r="Z21">
-        <v>14.1593</v>
+        <v>14.2074</v>
       </c>
       <c r="AA21">
-        <v>19.2167</v>
+        <v>14.343</v>
       </c>
       <c r="AB21">
-        <v>10.9074</v>
+        <v>9.90713</v>
       </c>
       <c r="AC21">
-        <v>10.607</v>
+        <v>10.4651</v>
       </c>
       <c r="AD21">
-        <v>14.3799</v>
+        <v>12.6402</v>
       </c>
       <c r="AE21">
-        <v>14.3799</v>
+        <v>12.6402</v>
       </c>
       <c r="AF21">
-        <v>14.3799</v>
+        <v>12.6402</v>
       </c>
       <c r="AG21">
-        <v>0.678921</v>
+        <v>0.679238</v>
       </c>
       <c r="AH21">
-        <v>0.335079</v>
+        <v>0.338169</v>
       </c>
       <c r="AI21">
-        <v>0.111667</v>
+        <v>0.111895</v>
       </c>
       <c r="AJ21">
-        <v>0.0581667</v>
+        <v>0.06313390000000001</v>
       </c>
       <c r="AK21">
-        <v>0.0655741</v>
+        <v>0.06423760000000001</v>
       </c>
       <c r="AL21">
-        <v>0.0675806</v>
+        <v>0.0669242</v>
       </c>
       <c r="AM21">
-        <v>0.0335125</v>
+        <v>0.0336287</v>
       </c>
       <c r="AN21">
-        <v>0.242221</v>
+        <v>0.245311</v>
       </c>
       <c r="AO21">
-        <v>881.4300000000001</v>
+        <v>878.3009999999999</v>
       </c>
       <c r="AP21">
-        <v>838.277</v>
+        <v>832.8969999999999</v>
       </c>
       <c r="AQ21">
-        <v>897.231</v>
+        <v>893.178</v>
       </c>
       <c r="AR21">
-        <v>754.606</v>
+        <v>749.283</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT21">
-        <v>727.7</v>
+        <v>723.88</v>
       </c>
       <c r="AU21">
-        <v>787.553</v>
+        <v>784.1079999999999</v>
       </c>
       <c r="AV21">
-        <v>744.649</v>
+        <v>739.245</v>
       </c>
       <c r="AW21">
-        <v>806.1970000000001</v>
+        <v>801.047</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>62</v>
@@ -4013,115 +4006,115 @@
         <v>75</v>
       </c>
       <c r="M22">
-        <v>51.2742</v>
+        <v>51.7609</v>
       </c>
       <c r="N22">
-        <v>12.1317</v>
+        <v>11.4248</v>
       </c>
       <c r="O22">
-        <v>18.7348</v>
+        <v>13.935</v>
       </c>
       <c r="P22">
-        <v>33.1948</v>
+        <v>28.9414</v>
       </c>
       <c r="Q22">
-        <v>51.2742</v>
+        <v>51.7642</v>
       </c>
       <c r="R22">
-        <v>100</v>
+        <v>100.006</v>
       </c>
       <c r="S22">
-        <v>31.9206</v>
+        <v>27.1764</v>
       </c>
       <c r="T22">
-        <v>33.1948</v>
+        <v>28.9414</v>
       </c>
       <c r="U22">
-        <v>18.7348</v>
+        <v>13.935</v>
       </c>
       <c r="V22">
-        <v>12.151</v>
+        <v>10.3256</v>
       </c>
       <c r="W22">
-        <v>11.2887</v>
+        <v>10.3772</v>
       </c>
       <c r="X22">
-        <v>11.391</v>
+        <v>11.4211</v>
       </c>
       <c r="Y22">
-        <v>11.391</v>
+        <v>11.4211</v>
       </c>
       <c r="Z22">
-        <v>11.391</v>
+        <v>11.4248</v>
       </c>
       <c r="AA22">
-        <v>17.7951</v>
+        <v>13.4791</v>
       </c>
       <c r="AB22">
-        <v>9.389480000000001</v>
+        <v>8.687710000000001</v>
       </c>
       <c r="AC22">
-        <v>8.90278</v>
+        <v>8.806889999999999</v>
       </c>
       <c r="AD22">
-        <v>12.1317</v>
+        <v>10.6783</v>
       </c>
       <c r="AE22">
-        <v>12.1317</v>
+        <v>10.6783</v>
       </c>
       <c r="AF22">
-        <v>12.1317</v>
+        <v>10.6783</v>
       </c>
       <c r="AG22">
-        <v>0.829641</v>
+        <v>0.8300070000000001</v>
       </c>
       <c r="AH22">
-        <v>0.472886</v>
+        <v>0.479016</v>
       </c>
       <c r="AI22">
-        <v>0.18513</v>
+        <v>0.185379</v>
       </c>
       <c r="AJ22">
-        <v>0.0763354</v>
+        <v>0.08630249999999999</v>
       </c>
       <c r="AK22">
-        <v>0.0859066</v>
+        <v>0.08294299999999999</v>
       </c>
       <c r="AL22">
-        <v>0.08541209999999999</v>
+        <v>0.0843275</v>
       </c>
       <c r="AM22">
-        <v>0.0416106</v>
+        <v>0.041825</v>
       </c>
       <c r="AN22">
-        <v>0.308538</v>
+        <v>0.314669</v>
       </c>
       <c r="AO22">
-        <v>879.013</v>
+        <v>876.24</v>
       </c>
       <c r="AP22">
-        <v>834.6170000000001</v>
+        <v>829.813</v>
       </c>
       <c r="AQ22">
-        <v>891.4499999999999</v>
+        <v>888.1170000000001</v>
       </c>
       <c r="AR22">
-        <v>747.546</v>
+        <v>742.807</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT22">
-        <v>726.186</v>
+        <v>722.653</v>
       </c>
       <c r="AU22">
-        <v>783.949</v>
+        <v>781.085</v>
       </c>
       <c r="AV22">
-        <v>739.802</v>
+        <v>734.995</v>
       </c>
       <c r="AW22">
-        <v>798.8200000000001</v>
+        <v>794.566</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>62</v>
@@ -4165,115 +4158,115 @@
         <v>73</v>
       </c>
       <c r="M23">
-        <v>52.4386</v>
+        <v>52.2869</v>
       </c>
       <c r="N23">
-        <v>13.3944</v>
+        <v>13.4509</v>
       </c>
       <c r="O23">
-        <v>19.9481</v>
+        <v>13.782</v>
       </c>
       <c r="P23">
-        <v>42.0113</v>
+        <v>36.6351</v>
       </c>
       <c r="Q23">
-        <v>52.4395</v>
+        <v>52.2869</v>
       </c>
       <c r="R23">
-        <v>100.002</v>
+        <v>99.9999</v>
       </c>
       <c r="S23">
-        <v>39.5681</v>
+        <v>34.3482</v>
       </c>
       <c r="T23">
-        <v>42.0113</v>
+        <v>36.6351</v>
       </c>
       <c r="U23">
-        <v>19.9481</v>
+        <v>13.782</v>
       </c>
       <c r="V23">
-        <v>13.3652</v>
+        <v>11.5131</v>
       </c>
       <c r="W23">
-        <v>13.3022</v>
+        <v>12.2618</v>
       </c>
       <c r="X23">
-        <v>13.3972</v>
+        <v>13.4515</v>
       </c>
       <c r="Y23">
-        <v>13.3972</v>
+        <v>13.4515</v>
       </c>
       <c r="Z23">
-        <v>13.3944</v>
+        <v>13.4509</v>
       </c>
       <c r="AA23">
-        <v>16.8961</v>
+        <v>12.716</v>
       </c>
       <c r="AB23">
-        <v>9.484690000000001</v>
+        <v>8.48381</v>
       </c>
       <c r="AC23">
-        <v>9.164579999999999</v>
+        <v>9.115690000000001</v>
       </c>
       <c r="AD23">
-        <v>12.6394</v>
+        <v>11.0577</v>
       </c>
       <c r="AE23">
-        <v>12.6394</v>
+        <v>11.0577</v>
       </c>
       <c r="AF23">
-        <v>12.6394</v>
+        <v>11.0577</v>
       </c>
       <c r="AG23">
-        <v>0.681939</v>
+        <v>0.68227</v>
       </c>
       <c r="AH23">
-        <v>0.273761</v>
+        <v>0.275805</v>
       </c>
       <c r="AI23">
-        <v>0.06196209999999999</v>
+        <v>0.06196400000000001</v>
       </c>
       <c r="AJ23">
-        <v>0.0552127</v>
+        <v>0.0573213</v>
       </c>
       <c r="AK23">
-        <v>0.0598656</v>
+        <v>0.0599751</v>
       </c>
       <c r="AL23">
-        <v>0.0643803</v>
+        <v>0.064128</v>
       </c>
       <c r="AM23">
-        <v>0.03254969999999999</v>
+        <v>0.03262959999999999</v>
       </c>
       <c r="AN23">
-        <v>0.21216</v>
+        <v>0.214204</v>
       </c>
       <c r="AO23">
-        <v>882.706</v>
+        <v>879.6110000000001</v>
       </c>
       <c r="AP23">
-        <v>838.7429999999999</v>
+        <v>833.49</v>
       </c>
       <c r="AQ23">
-        <v>898.939</v>
+        <v>894.6130000000001</v>
       </c>
       <c r="AR23">
-        <v>755.1980000000001</v>
+        <v>749.973</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT23">
-        <v>727.909</v>
+        <v>724.253</v>
       </c>
       <c r="AU23">
-        <v>789.063</v>
+        <v>785.375</v>
       </c>
       <c r="AV23">
-        <v>745.0390000000001</v>
+        <v>739.729</v>
       </c>
       <c r="AW23">
-        <v>807.636</v>
+        <v>802.26</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>62</v>
@@ -4317,115 +4310,115 @@
         <v>75</v>
       </c>
       <c r="M24">
-        <v>51.8789</v>
+        <v>52.3278</v>
       </c>
       <c r="N24">
-        <v>10.3694</v>
+        <v>10.2311</v>
       </c>
       <c r="O24">
-        <v>16.7776</v>
+        <v>12.2774</v>
       </c>
       <c r="P24">
-        <v>32.5486</v>
+        <v>28.3962</v>
       </c>
       <c r="Q24">
-        <v>51.8793</v>
+        <v>52.3265</v>
       </c>
       <c r="R24">
-        <v>100.001</v>
+        <v>99.9974</v>
       </c>
       <c r="S24">
-        <v>30.6686</v>
+        <v>26.0722</v>
       </c>
       <c r="T24">
-        <v>32.5486</v>
+        <v>28.3962</v>
       </c>
       <c r="U24">
-        <v>16.7776</v>
+        <v>12.2774</v>
       </c>
       <c r="V24">
-        <v>10.3878</v>
+        <v>8.921000000000001</v>
       </c>
       <c r="W24">
-        <v>10.0239</v>
+        <v>9.20865</v>
       </c>
       <c r="X24">
-        <v>10.2222</v>
+        <v>10.229</v>
       </c>
       <c r="Y24">
-        <v>10.2222</v>
+        <v>10.229</v>
       </c>
       <c r="Z24">
-        <v>10.2048</v>
+        <v>10.2311</v>
       </c>
       <c r="AA24">
-        <v>15.654</v>
+        <v>11.835</v>
       </c>
       <c r="AB24">
-        <v>7.841570000000001</v>
+        <v>7.3078</v>
       </c>
       <c r="AC24">
-        <v>7.493320000000001</v>
+        <v>7.47001</v>
       </c>
       <c r="AD24">
-        <v>10.3694</v>
+        <v>9.06066</v>
       </c>
       <c r="AE24">
-        <v>10.3694</v>
+        <v>9.06066</v>
       </c>
       <c r="AF24">
-        <v>10.3694</v>
+        <v>9.06066</v>
       </c>
       <c r="AG24">
-        <v>0.832682</v>
+        <v>0.833113</v>
       </c>
       <c r="AH24">
-        <v>0.40953</v>
+        <v>0.413576</v>
       </c>
       <c r="AI24">
-        <v>0.139058</v>
+        <v>0.13906</v>
       </c>
       <c r="AJ24">
-        <v>0.0716017</v>
+        <v>0.0769899</v>
       </c>
       <c r="AK24">
-        <v>0.07745929999999999</v>
+        <v>0.0766643</v>
       </c>
       <c r="AL24">
-        <v>0.08113390000000001</v>
+        <v>0.0805496</v>
       </c>
       <c r="AM24">
-        <v>0.0403365</v>
+        <v>0.040377</v>
       </c>
       <c r="AN24">
-        <v>0.270729</v>
+        <v>0.274775</v>
       </c>
       <c r="AO24">
-        <v>879.5549999999999</v>
+        <v>876.812</v>
       </c>
       <c r="AP24">
-        <v>834.045</v>
+        <v>829.408</v>
       </c>
       <c r="AQ24">
-        <v>891.422</v>
+        <v>888.109</v>
       </c>
       <c r="AR24">
-        <v>746.2959999999999</v>
+        <v>741.6950000000001</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT24">
-        <v>725.849</v>
+        <v>722.424</v>
       </c>
       <c r="AU24">
-        <v>784.256</v>
+        <v>781.385</v>
       </c>
       <c r="AV24">
-        <v>738.8630000000001</v>
+        <v>734.197</v>
       </c>
       <c r="AW24">
-        <v>798.174</v>
+        <v>794.0210000000001</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>62</v>
@@ -4469,115 +4462,115 @@
         <v>73</v>
       </c>
       <c r="M25">
-        <v>51.5976</v>
+        <v>51.7761</v>
       </c>
       <c r="N25">
-        <v>14.3083</v>
+        <v>14.1496</v>
       </c>
       <c r="O25">
-        <v>21.4354</v>
+        <v>15.2558</v>
       </c>
       <c r="P25">
-        <v>40.5233</v>
+        <v>35.3821</v>
       </c>
       <c r="Q25">
-        <v>51.5944</v>
+        <v>51.7778</v>
       </c>
       <c r="R25">
-        <v>99.9937</v>
+        <v>100.003</v>
       </c>
       <c r="S25">
-        <v>38.9239</v>
+        <v>33.6029</v>
       </c>
       <c r="T25">
-        <v>40.5233</v>
+        <v>35.3821</v>
       </c>
       <c r="U25">
-        <v>21.4354</v>
+        <v>15.2558</v>
       </c>
       <c r="V25">
-        <v>14.8188</v>
+        <v>12.633</v>
       </c>
       <c r="W25">
-        <v>14.1395</v>
+        <v>13.026</v>
       </c>
       <c r="X25">
-        <v>14.0928</v>
+        <v>14.1396</v>
       </c>
       <c r="Y25">
-        <v>14.0928</v>
+        <v>14.1396</v>
       </c>
       <c r="Z25">
-        <v>14.0921</v>
+        <v>14.1496</v>
       </c>
       <c r="AA25">
-        <v>19.2188</v>
+        <v>14.3396</v>
       </c>
       <c r="AB25">
-        <v>10.9011</v>
+        <v>9.915100000000001</v>
       </c>
       <c r="AC25">
-        <v>10.6068</v>
+        <v>10.4661</v>
       </c>
       <c r="AD25">
-        <v>14.3083</v>
+        <v>12.5796</v>
       </c>
       <c r="AE25">
-        <v>14.3083</v>
+        <v>12.5796</v>
       </c>
       <c r="AF25">
-        <v>14.3083</v>
+        <v>12.5796</v>
       </c>
       <c r="AG25">
-        <v>0.678942</v>
+        <v>0.679253</v>
       </c>
       <c r="AH25">
-        <v>0.334844</v>
+        <v>0.337961</v>
       </c>
       <c r="AI25">
-        <v>0.111667</v>
+        <v>0.111895</v>
       </c>
       <c r="AJ25">
-        <v>0.05816519999999999</v>
+        <v>0.06313820000000001</v>
       </c>
       <c r="AK25">
-        <v>0.0655659</v>
+        <v>0.06423920000000001</v>
       </c>
       <c r="AL25">
-        <v>0.067578</v>
+        <v>0.0669265</v>
       </c>
       <c r="AM25">
-        <v>0.0332904</v>
+        <v>0.0334128</v>
       </c>
       <c r="AN25">
-        <v>0.241987</v>
+        <v>0.245103</v>
       </c>
       <c r="AO25">
-        <v>881.426</v>
+        <v>878.3</v>
       </c>
       <c r="AP25">
-        <v>838.276</v>
+        <v>832.899</v>
       </c>
       <c r="AQ25">
-        <v>897.231</v>
+        <v>893.179</v>
       </c>
       <c r="AR25">
-        <v>754.543</v>
+        <v>749.226</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT25">
-        <v>727.697</v>
+        <v>723.881</v>
       </c>
       <c r="AU25">
-        <v>787.554</v>
+        <v>784.1130000000001</v>
       </c>
       <c r="AV25">
-        <v>744.64</v>
+        <v>739.2439999999999</v>
       </c>
       <c r="AW25">
-        <v>806.148</v>
+        <v>801.0069999999999</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>62</v>
@@ -4621,115 +4614,115 @@
         <v>75</v>
       </c>
       <c r="M26">
-        <v>51.2747</v>
+        <v>51.7665</v>
       </c>
       <c r="N26">
-        <v>12.084</v>
+        <v>11.3778</v>
       </c>
       <c r="O26">
-        <v>18.7387</v>
+        <v>13.9322</v>
       </c>
       <c r="P26">
-        <v>33.1483</v>
+        <v>28.8995</v>
       </c>
       <c r="Q26">
-        <v>51.2742</v>
+        <v>51.7662</v>
       </c>
       <c r="R26">
-        <v>99.9991</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S26">
-        <v>31.8745</v>
+        <v>27.1351</v>
       </c>
       <c r="T26">
-        <v>33.1483</v>
+        <v>28.8995</v>
       </c>
       <c r="U26">
-        <v>18.7387</v>
+        <v>13.9322</v>
       </c>
       <c r="V26">
-        <v>12.1497</v>
+        <v>10.3272</v>
       </c>
       <c r="W26">
-        <v>11.2866</v>
+        <v>10.3789</v>
       </c>
       <c r="X26">
-        <v>11.3455</v>
+        <v>11.3763</v>
       </c>
       <c r="Y26">
-        <v>11.3455</v>
+        <v>11.3763</v>
       </c>
       <c r="Z26">
-        <v>11.3371</v>
+        <v>11.3778</v>
       </c>
       <c r="AA26">
-        <v>17.8037</v>
+        <v>13.4824</v>
       </c>
       <c r="AB26">
-        <v>9.39128</v>
+        <v>8.6814</v>
       </c>
       <c r="AC26">
-        <v>8.90418</v>
+        <v>8.80682</v>
       </c>
       <c r="AD26">
-        <v>12.084</v>
+        <v>10.6231</v>
       </c>
       <c r="AE26">
-        <v>12.084</v>
+        <v>10.6231</v>
       </c>
       <c r="AF26">
-        <v>12.084</v>
+        <v>10.6231</v>
       </c>
       <c r="AG26">
-        <v>0.829664</v>
+        <v>0.830021</v>
       </c>
       <c r="AH26">
-        <v>0.472667</v>
+        <v>0.478772</v>
       </c>
       <c r="AI26">
-        <v>0.18513</v>
+        <v>0.185379</v>
       </c>
       <c r="AJ26">
-        <v>0.0763422</v>
+        <v>0.0863073</v>
       </c>
       <c r="AK26">
-        <v>0.08591269999999999</v>
+        <v>0.0829512</v>
       </c>
       <c r="AL26">
-        <v>0.0854345</v>
+        <v>0.0843352</v>
       </c>
       <c r="AM26">
-        <v>0.0413568</v>
+        <v>0.0415599</v>
       </c>
       <c r="AN26">
-        <v>0.30832</v>
+        <v>0.314424</v>
       </c>
       <c r="AO26">
-        <v>879.014</v>
+        <v>876.2389999999999</v>
       </c>
       <c r="AP26">
-        <v>834.6180000000001</v>
+        <v>829.8150000000001</v>
       </c>
       <c r="AQ26">
-        <v>891.4499999999999</v>
+        <v>888.1170000000001</v>
       </c>
       <c r="AR26">
-        <v>747.499</v>
+        <v>742.76</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT26">
-        <v>726.1880000000001</v>
+        <v>722.653</v>
       </c>
       <c r="AU26">
-        <v>783.948</v>
+        <v>781.085</v>
       </c>
       <c r="AV26">
-        <v>739.803</v>
+        <v>734.996</v>
       </c>
       <c r="AW26">
-        <v>798.773</v>
+        <v>794.525</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>62</v>
@@ -4772,116 +4765,116 @@
       <c r="L27" t="s">
         <v>73</v>
       </c>
-      <c r="M27" s="3">
-        <v>46.7146</v>
+      <c r="M27">
+        <v>47.4357</v>
       </c>
       <c r="N27">
-        <v>16.8298</v>
+        <v>14.1756</v>
       </c>
       <c r="O27">
-        <v>22.6212</v>
+        <v>14.2685</v>
       </c>
       <c r="P27">
-        <v>42.6246</v>
+        <v>36.824</v>
       </c>
       <c r="Q27">
-        <v>46.71550000000001</v>
+        <v>47.4357</v>
       </c>
       <c r="R27">
-        <v>100.002</v>
+        <v>100</v>
       </c>
       <c r="S27">
-        <v>42.6246</v>
+        <v>36.824</v>
       </c>
       <c r="T27">
-        <v>39.3347</v>
+        <v>34.2597</v>
       </c>
       <c r="U27">
-        <v>15.5035</v>
+        <v>12.1699</v>
       </c>
       <c r="V27">
-        <v>10.7379</v>
+        <v>8.36027</v>
       </c>
       <c r="W27">
-        <v>9.605039999999999</v>
+        <v>9.040850000000001</v>
       </c>
       <c r="X27">
-        <v>10.4525</v>
+        <v>10.6375</v>
       </c>
       <c r="Y27">
-        <v>10.4525</v>
+        <v>10.6375</v>
       </c>
       <c r="Z27">
-        <v>10.4515</v>
+        <v>10.6375</v>
       </c>
       <c r="AA27">
-        <v>22.6212</v>
+        <v>14.2685</v>
       </c>
       <c r="AB27">
-        <v>11.5715</v>
+        <v>11.8561</v>
       </c>
       <c r="AC27">
-        <v>12.2085</v>
+        <v>12.7417</v>
       </c>
       <c r="AD27">
-        <v>16.8298</v>
+        <v>14.1756</v>
       </c>
       <c r="AE27">
-        <v>16.8298</v>
+        <v>14.1756</v>
       </c>
       <c r="AF27">
-        <v>16.8298</v>
+        <v>14.1756</v>
       </c>
       <c r="AG27">
-        <v>0.681964</v>
+        <v>0.682234</v>
       </c>
       <c r="AH27">
-        <v>0.2710689999999999</v>
+        <v>0.273418</v>
       </c>
       <c r="AI27">
-        <v>0.0592285</v>
+        <v>0.05922839999999999</v>
       </c>
       <c r="AJ27">
-        <v>0.0548115</v>
+        <v>0.0573754</v>
       </c>
       <c r="AK27">
-        <v>0.05966</v>
+        <v>0.0596614</v>
       </c>
       <c r="AL27">
-        <v>0.06436399999999999</v>
+        <v>0.06406719999999999</v>
       </c>
       <c r="AM27">
-        <v>0.03300669999999999</v>
+        <v>0.0330878</v>
       </c>
       <c r="AN27">
-        <v>0.211965</v>
+        <v>0.214315</v>
       </c>
       <c r="AO27">
-        <v>877.026</v>
+        <v>874.269</v>
       </c>
       <c r="AP27">
-        <v>841.2139999999999</v>
+        <v>835.412</v>
       </c>
       <c r="AQ27">
-        <v>893.351</v>
+        <v>889.899</v>
       </c>
       <c r="AR27">
-        <v>758.252</v>
+        <v>752.4490000000001</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT27">
-        <v>733.7700000000001</v>
+        <v>729.4190000000001</v>
       </c>
       <c r="AU27">
-        <v>786.534</v>
+        <v>783.342</v>
       </c>
       <c r="AV27">
-        <v>750.508</v>
+        <v>744.5310000000001</v>
       </c>
       <c r="AW27">
-        <v>804.96</v>
+        <v>799.885</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>62</v>
@@ -4925,115 +4918,115 @@
         <v>75</v>
       </c>
       <c r="M28">
-        <v>47.366</v>
+        <v>47.4604</v>
       </c>
       <c r="N28">
-        <v>12.9841</v>
+        <v>10.9895</v>
       </c>
       <c r="O28">
-        <v>18.9186</v>
+        <v>12.7006</v>
       </c>
       <c r="P28">
-        <v>33.1095</v>
+        <v>28.5798</v>
       </c>
       <c r="Q28">
-        <v>47.3624</v>
+        <v>47.4582</v>
       </c>
       <c r="R28">
-        <v>99.9924</v>
+        <v>99.99550000000001</v>
       </c>
       <c r="S28">
-        <v>33.1095</v>
+        <v>28.5798</v>
       </c>
       <c r="T28">
-        <v>30.4728</v>
+        <v>26.0379</v>
       </c>
       <c r="U28">
-        <v>14.3426</v>
+        <v>11.3594</v>
       </c>
       <c r="V28">
-        <v>8.767139999999999</v>
+        <v>7.15422</v>
       </c>
       <c r="W28">
-        <v>7.87767</v>
+        <v>7.357049999999999</v>
       </c>
       <c r="X28">
-        <v>8.53749</v>
+        <v>8.650509999999999</v>
       </c>
       <c r="Y28">
-        <v>8.53749</v>
+        <v>8.650509999999999</v>
       </c>
       <c r="Z28">
-        <v>8.53729</v>
+        <v>8.649140000000001</v>
       </c>
       <c r="AA28">
-        <v>18.9186</v>
+        <v>12.7006</v>
       </c>
       <c r="AB28">
-        <v>9.21382</v>
+        <v>9.283610000000001</v>
       </c>
       <c r="AC28">
-        <v>9.368980000000001</v>
+        <v>9.69849</v>
       </c>
       <c r="AD28">
-        <v>12.9841</v>
+        <v>10.9895</v>
       </c>
       <c r="AE28">
-        <v>12.9841</v>
+        <v>10.9895</v>
       </c>
       <c r="AF28">
-        <v>12.9841</v>
+        <v>10.9895</v>
       </c>
       <c r="AG28">
-        <v>0.832627</v>
+        <v>0.832958</v>
       </c>
       <c r="AH28">
-        <v>0.411456</v>
+        <v>0.415979</v>
       </c>
       <c r="AI28">
         <v>0.141042</v>
       </c>
       <c r="AJ28">
-        <v>0.07144639999999999</v>
+        <v>0.0771945</v>
       </c>
       <c r="AK28">
-        <v>0.0771614</v>
+        <v>0.07625799999999999</v>
       </c>
       <c r="AL28">
-        <v>0.0810097</v>
+        <v>0.08048669999999999</v>
       </c>
       <c r="AM28">
-        <v>0.0408235</v>
+        <v>0.0410218</v>
       </c>
       <c r="AN28">
-        <v>0.2706</v>
+        <v>0.275123</v>
       </c>
       <c r="AO28">
-        <v>874.893</v>
+        <v>872.3</v>
       </c>
       <c r="AP28">
-        <v>836.0500000000001</v>
+        <v>831.501</v>
       </c>
       <c r="AQ28">
-        <v>887.401</v>
+        <v>884.178</v>
       </c>
       <c r="AR28">
-        <v>748.734</v>
+        <v>744.201</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT28">
-        <v>730.615</v>
+        <v>726.8040000000001</v>
       </c>
       <c r="AU28">
-        <v>782.187</v>
+        <v>779.211</v>
       </c>
       <c r="AV28">
-        <v>742.842</v>
+        <v>738.1949999999999</v>
       </c>
       <c r="AW28">
-        <v>796.098</v>
+        <v>791.663</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>62</v>
@@ -5076,116 +5069,116 @@
       <c r="L29" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="3">
-        <v>46.8512</v>
+      <c r="M29">
+        <v>47.2065</v>
       </c>
       <c r="N29">
-        <v>18.5877</v>
+        <v>15.78</v>
       </c>
       <c r="O29">
-        <v>25.0567</v>
+        <v>16.2519</v>
       </c>
       <c r="P29">
-        <v>41.6779</v>
+        <v>36.0913</v>
       </c>
       <c r="Q29">
-        <v>46.8529</v>
+        <v>47.2054</v>
       </c>
       <c r="R29">
-        <v>100.004</v>
+        <v>99.9978</v>
       </c>
       <c r="S29">
-        <v>41.6779</v>
+        <v>36.0913</v>
       </c>
       <c r="T29">
-        <v>38.536</v>
+        <v>33.2957</v>
       </c>
       <c r="U29">
-        <v>17.7512</v>
+        <v>13.7265</v>
       </c>
       <c r="V29">
-        <v>12.3809</v>
+        <v>9.729430000000001</v>
       </c>
       <c r="W29">
-        <v>10.926</v>
+        <v>10.2389</v>
       </c>
       <c r="X29">
-        <v>11.6962</v>
+        <v>11.8422</v>
       </c>
       <c r="Y29">
-        <v>11.6962</v>
+        <v>11.8422</v>
       </c>
       <c r="Z29">
-        <v>11.6976</v>
+        <v>11.84</v>
       </c>
       <c r="AA29">
-        <v>25.0567</v>
+        <v>16.2519</v>
       </c>
       <c r="AB29">
-        <v>13.3339</v>
+        <v>13.5268</v>
       </c>
       <c r="AC29">
-        <v>13.6575</v>
+        <v>14.0801</v>
       </c>
       <c r="AD29">
-        <v>18.5877</v>
+        <v>15.78</v>
       </c>
       <c r="AE29">
-        <v>18.5877</v>
+        <v>15.78</v>
       </c>
       <c r="AF29">
-        <v>18.5877</v>
+        <v>15.78</v>
       </c>
       <c r="AG29">
-        <v>0.678798</v>
+        <v>0.679076</v>
       </c>
       <c r="AH29">
-        <v>0.353996</v>
+        <v>0.357606</v>
       </c>
       <c r="AI29">
-        <v>0.13109</v>
+        <v>0.131118</v>
       </c>
       <c r="AJ29">
-        <v>0.0575196</v>
+        <v>0.0633933</v>
       </c>
       <c r="AK29">
-        <v>0.06574919999999999</v>
+        <v>0.0639889</v>
       </c>
       <c r="AL29">
-        <v>0.0675975</v>
+        <v>0.06693499999999999</v>
       </c>
       <c r="AM29">
-        <v>0.0338318</v>
+        <v>0.03398979999999999</v>
       </c>
       <c r="AN29">
-        <v>0.247097</v>
+        <v>0.250707</v>
       </c>
       <c r="AO29">
-        <v>875.561</v>
+        <v>872.828</v>
       </c>
       <c r="AP29">
-        <v>840.255</v>
+        <v>834.724</v>
       </c>
       <c r="AQ29">
-        <v>891.9829999999999</v>
+        <v>888.428</v>
       </c>
       <c r="AR29">
-        <v>757.303</v>
+        <v>751.716</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT29">
-        <v>733.657</v>
+        <v>729.192</v>
       </c>
       <c r="AU29">
-        <v>785.471</v>
+        <v>782.254</v>
       </c>
       <c r="AV29">
-        <v>749.9640000000001</v>
+        <v>744.24</v>
       </c>
       <c r="AW29">
-        <v>804.1609999999999</v>
+        <v>798.9209999999999</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>62</v>
@@ -5229,115 +5222,115 @@
         <v>75</v>
       </c>
       <c r="M30">
-        <v>47.2073</v>
+        <v>47.1767</v>
       </c>
       <c r="N30">
-        <v>14.9028</v>
+        <v>12.7088</v>
       </c>
       <c r="O30">
-        <v>21.414</v>
+        <v>14.6145</v>
       </c>
       <c r="P30">
-        <v>34.1142</v>
+        <v>29.5149</v>
       </c>
       <c r="Q30">
-        <v>47.2054</v>
+        <v>47.1773</v>
       </c>
       <c r="R30">
-        <v>99.996</v>
+        <v>100.001</v>
       </c>
       <c r="S30">
-        <v>34.1142</v>
+        <v>29.5149</v>
       </c>
       <c r="T30">
-        <v>31.3207</v>
+        <v>26.6898</v>
       </c>
       <c r="U30">
-        <v>16.305</v>
+        <v>12.9343</v>
       </c>
       <c r="V30">
-        <v>10.4726</v>
+        <v>8.503900000000002</v>
       </c>
       <c r="W30">
-        <v>9.213570000000001</v>
+        <v>8.57358</v>
       </c>
       <c r="X30">
-        <v>9.802420000000001</v>
+        <v>9.916360000000001</v>
       </c>
       <c r="Y30">
-        <v>9.802420000000001</v>
+        <v>9.916360000000001</v>
       </c>
       <c r="Z30">
-        <v>9.79548</v>
+        <v>9.91635</v>
       </c>
       <c r="AA30">
-        <v>21.414</v>
+        <v>14.6145</v>
       </c>
       <c r="AB30">
-        <v>10.9655</v>
+        <v>10.9419</v>
       </c>
       <c r="AC30">
-        <v>10.896</v>
+        <v>11.1525</v>
       </c>
       <c r="AD30">
-        <v>14.9028</v>
+        <v>12.7088</v>
       </c>
       <c r="AE30">
-        <v>14.9028</v>
+        <v>12.7088</v>
       </c>
       <c r="AF30">
-        <v>14.9028</v>
+        <v>12.7088</v>
       </c>
       <c r="AG30">
-        <v>0.829487</v>
+        <v>0.829855</v>
       </c>
       <c r="AH30">
-        <v>0.515784</v>
+        <v>0.5224169999999999</v>
       </c>
       <c r="AI30">
-        <v>0.228117</v>
+        <v>0.228147</v>
       </c>
       <c r="AJ30">
-        <v>0.0760512</v>
+        <v>0.08684549999999999</v>
       </c>
       <c r="AK30">
-        <v>0.086072</v>
+        <v>0.08267389999999999</v>
       </c>
       <c r="AL30">
-        <v>0.08544249999999999</v>
+        <v>0.084357</v>
       </c>
       <c r="AM30">
-        <v>0.0419942</v>
+        <v>0.04231559999999999</v>
       </c>
       <c r="AN30">
-        <v>0.31534</v>
+        <v>0.321972</v>
       </c>
       <c r="AO30">
-        <v>874.187</v>
+        <v>871.604</v>
       </c>
       <c r="AP30">
-        <v>836.332</v>
+        <v>831.7360000000001</v>
       </c>
       <c r="AQ30">
-        <v>887.403</v>
+        <v>884.0890000000001</v>
       </c>
       <c r="AR30">
-        <v>749.7380000000001</v>
+        <v>745.141</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT30">
-        <v>731.051</v>
+        <v>727.159</v>
       </c>
       <c r="AU30">
-        <v>782.0790000000001</v>
+        <v>779.0650000000001</v>
       </c>
       <c r="AV30">
-        <v>743.787</v>
+        <v>739.078</v>
       </c>
       <c r="AW30">
-        <v>796.946</v>
+        <v>792.3149999999999</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>62</v>
@@ -5380,116 +5373,116 @@
       <c r="L31" t="s">
         <v>73</v>
       </c>
-      <c r="M31" s="3">
-        <v>46.6954</v>
+      <c r="M31">
+        <v>47.4298</v>
       </c>
       <c r="N31">
-        <v>16.7143</v>
+        <v>14.0824</v>
       </c>
       <c r="O31">
-        <v>22.6201</v>
+        <v>14.2673</v>
       </c>
       <c r="P31">
-        <v>42.5791</v>
+        <v>36.7772</v>
       </c>
       <c r="Q31">
-        <v>46.6935</v>
+        <v>47.4287</v>
       </c>
       <c r="R31">
-        <v>99.9958</v>
+        <v>99.9978</v>
       </c>
       <c r="S31">
-        <v>42.5791</v>
+        <v>36.7772</v>
       </c>
       <c r="T31">
-        <v>39.2737</v>
+        <v>34.2071</v>
       </c>
       <c r="U31">
-        <v>15.5056</v>
+        <v>12.1678</v>
       </c>
       <c r="V31">
-        <v>10.7393</v>
+        <v>8.35952</v>
       </c>
       <c r="W31">
-        <v>9.607360000000002</v>
+        <v>9.04134</v>
       </c>
       <c r="X31">
-        <v>10.4163</v>
+        <v>10.5991</v>
       </c>
       <c r="Y31">
-        <v>10.4163</v>
+        <v>10.5991</v>
       </c>
       <c r="Z31">
-        <v>10.4166</v>
+        <v>10.6005</v>
       </c>
       <c r="AA31">
-        <v>22.6201</v>
+        <v>14.2673</v>
       </c>
       <c r="AB31">
-        <v>11.5671</v>
+        <v>11.8565</v>
       </c>
       <c r="AC31">
-        <v>12.2094</v>
+        <v>12.7445</v>
       </c>
       <c r="AD31">
-        <v>16.7143</v>
+        <v>14.0824</v>
       </c>
       <c r="AE31">
-        <v>16.7143</v>
+        <v>14.0824</v>
       </c>
       <c r="AF31">
-        <v>16.7143</v>
+        <v>14.0824</v>
       </c>
       <c r="AG31">
-        <v>0.682026</v>
+        <v>0.682262</v>
       </c>
       <c r="AH31">
-        <v>0.270827</v>
+        <v>0.273184</v>
       </c>
       <c r="AI31">
-        <v>0.0592285</v>
+        <v>0.05922839999999999</v>
       </c>
       <c r="AJ31">
-        <v>0.0548122</v>
+        <v>0.0573751</v>
       </c>
       <c r="AK31">
-        <v>0.059658</v>
+        <v>0.0596662</v>
       </c>
       <c r="AL31">
-        <v>0.064359</v>
+        <v>0.06406679999999999</v>
       </c>
       <c r="AM31">
-        <v>0.0327714</v>
+        <v>0.03285</v>
       </c>
       <c r="AN31">
-        <v>0.211724</v>
+        <v>0.214081</v>
       </c>
       <c r="AO31">
-        <v>877.027</v>
+        <v>874.269</v>
       </c>
       <c r="AP31">
-        <v>841.215</v>
+        <v>835.4140000000001</v>
       </c>
       <c r="AQ31">
-        <v>893.3480000000001</v>
+        <v>889.899</v>
       </c>
       <c r="AR31">
-        <v>758.201</v>
+        <v>752.403</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT31">
-        <v>733.775</v>
+        <v>729.418</v>
       </c>
       <c r="AU31">
-        <v>786.5360000000001</v>
+        <v>783.3430000000001</v>
       </c>
       <c r="AV31">
-        <v>750.5029999999999</v>
+        <v>744.535</v>
       </c>
       <c r="AW31">
-        <v>804.899</v>
+        <v>799.8320000000001</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>62</v>
@@ -5533,115 +5526,115 @@
         <v>75</v>
       </c>
       <c r="M32">
-        <v>47.3534</v>
+        <v>47.4599</v>
       </c>
       <c r="N32">
-        <v>12.9059</v>
+        <v>10.9246</v>
       </c>
       <c r="O32">
-        <v>18.9186</v>
+        <v>12.715</v>
       </c>
       <c r="P32">
-        <v>33.0648</v>
+        <v>28.5328</v>
       </c>
       <c r="Q32">
-        <v>47.354</v>
+        <v>47.4591</v>
       </c>
       <c r="R32">
-        <v>100.001</v>
+        <v>99.99850000000001</v>
       </c>
       <c r="S32">
-        <v>33.0648</v>
+        <v>28.5328</v>
       </c>
       <c r="T32">
-        <v>30.4182</v>
+        <v>25.9893</v>
       </c>
       <c r="U32">
-        <v>14.3436</v>
+        <v>11.3609</v>
       </c>
       <c r="V32">
-        <v>8.76172</v>
+        <v>7.154520000000001</v>
       </c>
       <c r="W32">
-        <v>7.876890000000001</v>
+        <v>7.355619999999999</v>
       </c>
       <c r="X32">
-        <v>8.504519999999999</v>
+        <v>8.62256</v>
       </c>
       <c r="Y32">
-        <v>8.504519999999999</v>
+        <v>8.62256</v>
       </c>
       <c r="Z32">
-        <v>8.503299999999999</v>
+        <v>8.62275</v>
       </c>
       <c r="AA32">
-        <v>18.9186</v>
+        <v>12.715</v>
       </c>
       <c r="AB32">
-        <v>9.21228</v>
+        <v>9.285870000000001</v>
       </c>
       <c r="AC32">
-        <v>9.370340000000001</v>
+        <v>9.699009999999999</v>
       </c>
       <c r="AD32">
-        <v>12.9059</v>
+        <v>10.9246</v>
       </c>
       <c r="AE32">
-        <v>12.9059</v>
+        <v>10.9246</v>
       </c>
       <c r="AF32">
-        <v>12.9059</v>
+        <v>10.9246</v>
       </c>
       <c r="AG32">
-        <v>0.83266</v>
+        <v>0.83299</v>
       </c>
       <c r="AH32">
-        <v>0.411189</v>
+        <v>0.41571</v>
       </c>
       <c r="AI32">
         <v>0.141042</v>
       </c>
       <c r="AJ32">
-        <v>0.0714415</v>
+        <v>0.077196</v>
       </c>
       <c r="AK32">
-        <v>0.07718950000000001</v>
+        <v>0.0762621</v>
       </c>
       <c r="AL32">
-        <v>0.0810033</v>
+        <v>0.0804869</v>
       </c>
       <c r="AM32">
-        <v>0.0405406</v>
+        <v>0.0407471</v>
       </c>
       <c r="AN32">
-        <v>0.270333</v>
+        <v>0.274854</v>
       </c>
       <c r="AO32">
-        <v>874.895</v>
+        <v>872.3</v>
       </c>
       <c r="AP32">
-        <v>836.049</v>
+        <v>831.495</v>
       </c>
       <c r="AQ32">
-        <v>887.402</v>
+        <v>884.178</v>
       </c>
       <c r="AR32">
-        <v>748.693</v>
+        <v>744.1560000000001</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT32">
-        <v>730.616</v>
+        <v>726.8040000000001</v>
       </c>
       <c r="AU32">
-        <v>782.1880000000001</v>
+        <v>779.211</v>
       </c>
       <c r="AV32">
-        <v>742.8440000000001</v>
+        <v>738.1930000000001</v>
       </c>
       <c r="AW32">
-        <v>796.043</v>
+        <v>791.6139999999999</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>62</v>
@@ -5684,116 +5677,116 @@
       <c r="L33" t="s">
         <v>73</v>
       </c>
-      <c r="M33" s="3">
-        <v>46.8313</v>
+      <c r="M33">
+        <v>47.1984</v>
       </c>
       <c r="N33">
-        <v>18.4719</v>
+        <v>15.6879</v>
       </c>
       <c r="O33">
-        <v>25.055</v>
+        <v>16.2544</v>
       </c>
       <c r="P33">
-        <v>41.6356</v>
+        <v>36.0397</v>
       </c>
       <c r="Q33">
-        <v>46.8321</v>
+        <v>47.1974</v>
       </c>
       <c r="R33">
-        <v>100.002</v>
+        <v>99.9979</v>
       </c>
       <c r="S33">
-        <v>41.6356</v>
+        <v>36.0397</v>
       </c>
       <c r="T33">
-        <v>38.4654</v>
+        <v>33.2374</v>
       </c>
       <c r="U33">
-        <v>17.75</v>
+        <v>13.7246</v>
       </c>
       <c r="V33">
-        <v>12.3756</v>
+        <v>9.73049</v>
       </c>
       <c r="W33">
-        <v>10.9266</v>
+        <v>10.2388</v>
       </c>
       <c r="X33">
-        <v>11.6548</v>
+        <v>11.8</v>
       </c>
       <c r="Y33">
-        <v>11.6548</v>
+        <v>11.8</v>
       </c>
       <c r="Z33">
-        <v>11.6573</v>
+        <v>11.7996</v>
       </c>
       <c r="AA33">
-        <v>25.055</v>
+        <v>16.2544</v>
       </c>
       <c r="AB33">
-        <v>13.3325</v>
+        <v>13.5266</v>
       </c>
       <c r="AC33">
-        <v>13.6579</v>
+        <v>14.0903</v>
       </c>
       <c r="AD33">
-        <v>18.4719</v>
+        <v>15.6879</v>
       </c>
       <c r="AE33">
-        <v>18.4719</v>
+        <v>15.6879</v>
       </c>
       <c r="AF33">
-        <v>18.4719</v>
+        <v>15.6879</v>
       </c>
       <c r="AG33">
-        <v>0.678818</v>
+        <v>0.679112</v>
       </c>
       <c r="AH33">
-        <v>0.353783</v>
+        <v>0.357386</v>
       </c>
       <c r="AI33">
-        <v>0.13109</v>
+        <v>0.131118</v>
       </c>
       <c r="AJ33">
-        <v>0.0575071</v>
+        <v>0.0633956</v>
       </c>
       <c r="AK33">
-        <v>0.06576130000000001</v>
+        <v>0.0639879</v>
       </c>
       <c r="AL33">
-        <v>0.0676059</v>
+        <v>0.0669363</v>
       </c>
       <c r="AM33">
-        <v>0.0336105</v>
+        <v>0.0337682</v>
       </c>
       <c r="AN33">
-        <v>0.246885</v>
+        <v>0.250488</v>
       </c>
       <c r="AO33">
-        <v>875.562</v>
+        <v>872.829</v>
       </c>
       <c r="AP33">
-        <v>840.2619999999999</v>
+        <v>834.7230000000001</v>
       </c>
       <c r="AQ33">
-        <v>891.989</v>
+        <v>888.428</v>
       </c>
       <c r="AR33">
-        <v>757.256</v>
+        <v>751.664</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT33">
-        <v>733.658</v>
+        <v>729.193</v>
       </c>
       <c r="AU33">
-        <v>785.4689999999999</v>
+        <v>782.256</v>
       </c>
       <c r="AV33">
-        <v>749.967</v>
+        <v>744.239</v>
       </c>
       <c r="AW33">
-        <v>804.09</v>
+        <v>798.862</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>62</v>
@@ -5837,115 +5830,115 @@
         <v>75</v>
       </c>
       <c r="M34">
-        <v>47.2015</v>
+        <v>47.1653</v>
       </c>
       <c r="N34">
-        <v>14.809</v>
+        <v>12.6405</v>
       </c>
       <c r="O34">
-        <v>21.411</v>
+        <v>14.6138</v>
       </c>
       <c r="P34">
-        <v>34.0574</v>
+        <v>29.4723</v>
       </c>
       <c r="Q34">
-        <v>47.2065</v>
+        <v>47.1669</v>
       </c>
       <c r="R34">
-        <v>100.01</v>
+        <v>100.003</v>
       </c>
       <c r="S34">
-        <v>34.0574</v>
+        <v>29.4723</v>
       </c>
       <c r="T34">
-        <v>31.2631</v>
+        <v>26.6425</v>
       </c>
       <c r="U34">
-        <v>16.2915</v>
+        <v>12.9346</v>
       </c>
       <c r="V34">
-        <v>10.4719</v>
+        <v>8.50319</v>
       </c>
       <c r="W34">
-        <v>9.2127</v>
+        <v>8.57272</v>
       </c>
       <c r="X34">
-        <v>9.76679</v>
+        <v>9.884399999999999</v>
       </c>
       <c r="Y34">
-        <v>9.76679</v>
+        <v>9.884399999999999</v>
       </c>
       <c r="Z34">
-        <v>9.76886</v>
+        <v>9.88035</v>
       </c>
       <c r="AA34">
-        <v>21.411</v>
+        <v>14.6138</v>
       </c>
       <c r="AB34">
-        <v>10.9739</v>
+        <v>10.9386</v>
       </c>
       <c r="AC34">
-        <v>10.897</v>
+        <v>11.1536</v>
       </c>
       <c r="AD34">
-        <v>14.809</v>
+        <v>12.6405</v>
       </c>
       <c r="AE34">
-        <v>14.809</v>
+        <v>12.6405</v>
       </c>
       <c r="AF34">
-        <v>14.809</v>
+        <v>12.6405</v>
       </c>
       <c r="AG34">
-        <v>0.829501</v>
+        <v>0.8298680000000001</v>
       </c>
       <c r="AH34">
-        <v>0.515512</v>
+        <v>0.522151</v>
       </c>
       <c r="AI34">
-        <v>0.228117</v>
+        <v>0.228147</v>
       </c>
       <c r="AJ34">
-        <v>0.0760604</v>
+        <v>0.0868322</v>
       </c>
       <c r="AK34">
-        <v>0.0860567</v>
+        <v>0.0826817</v>
       </c>
       <c r="AL34">
-        <v>0.0854506</v>
+        <v>0.08436059999999999</v>
       </c>
       <c r="AM34">
-        <v>0.0417208</v>
+        <v>0.0420514</v>
       </c>
       <c r="AN34">
-        <v>0.315068</v>
+        <v>0.321706</v>
       </c>
       <c r="AO34">
-        <v>874.1890000000001</v>
+        <v>871.604</v>
       </c>
       <c r="AP34">
-        <v>836.3180000000001</v>
+        <v>831.7380000000001</v>
       </c>
       <c r="AQ34">
-        <v>887.404</v>
+        <v>884.088</v>
       </c>
       <c r="AR34">
-        <v>749.694</v>
+        <v>745.097</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT34">
-        <v>731.054</v>
+        <v>727.16</v>
       </c>
       <c r="AU34">
-        <v>782.0799999999999</v>
+        <v>779.069</v>
       </c>
       <c r="AV34">
-        <v>743.79</v>
+        <v>739.079</v>
       </c>
       <c r="AW34">
-        <v>796.888</v>
+        <v>792.268</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>62</v>
@@ -6107,116 +6100,116 @@
       <c r="L36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="3">
-        <v>46.6954</v>
+      <c r="M36" s="1">
+        <v>47.1653</v>
       </c>
       <c r="N36" s="1">
-        <v>9.493980000000001</v>
+        <v>8.263870000000001</v>
       </c>
       <c r="O36" s="1">
-        <v>15.8003</v>
+        <v>11.7538</v>
       </c>
       <c r="P36" s="1">
-        <v>25.929</v>
+        <v>22.0296</v>
       </c>
       <c r="Q36" s="1">
-        <v>46.6935</v>
+        <v>47.1669</v>
       </c>
       <c r="R36" s="1">
-        <v>99.9924</v>
+        <v>99.9905</v>
       </c>
       <c r="S36" s="1">
-        <v>25.929</v>
+        <v>22.0296</v>
       </c>
       <c r="T36" s="1">
-        <v>25.4621</v>
+        <v>21.8429</v>
       </c>
       <c r="U36" s="1">
-        <v>14.3426</v>
+        <v>11.3594</v>
       </c>
       <c r="V36" s="1">
-        <v>8.160030000000001</v>
+        <v>6.81128</v>
       </c>
       <c r="W36" s="1">
-        <v>7.28281</v>
+        <v>6.670170000000001</v>
       </c>
       <c r="X36" s="1">
-        <v>7.65233</v>
+        <v>7.68747</v>
       </c>
       <c r="Y36" s="1">
-        <v>7.65233</v>
+        <v>7.68747</v>
       </c>
       <c r="Z36" s="1">
-        <v>7.65156</v>
+        <v>7.688409999999999</v>
       </c>
       <c r="AA36" s="1">
-        <v>15.654</v>
+        <v>11.7538</v>
       </c>
       <c r="AB36" s="1">
-        <v>7.370620000000001</v>
+        <v>6.93267</v>
       </c>
       <c r="AC36" s="1">
-        <v>6.84251</v>
+        <v>6.84565</v>
       </c>
       <c r="AD36" s="1">
-        <v>9.493980000000001</v>
+        <v>8.263870000000001</v>
       </c>
       <c r="AE36" s="1">
-        <v>9.493980000000001</v>
+        <v>8.263870000000001</v>
       </c>
       <c r="AF36" s="1">
-        <v>9.493980000000001</v>
+        <v>8.263870000000001</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.677127</v>
+        <v>0.677509</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.222936</v>
+        <v>0.225928</v>
       </c>
       <c r="AI36" s="1">
-        <v>0.0204357</v>
+        <v>0.0204356</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.0514263</v>
+        <v>0.0538892</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.0568696</v>
+        <v>0.057437</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.0621169</v>
+        <v>0.062031</v>
       </c>
       <c r="AM36" s="1">
-        <v>0.0322976</v>
+        <v>0.0323406</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.202717</v>
+        <v>0.205708</v>
       </c>
       <c r="AO36" s="1">
-        <v>874.187</v>
+        <v>871.604</v>
       </c>
       <c r="AP36" s="1">
-        <v>831.826</v>
+        <v>827.9280000000001</v>
       </c>
       <c r="AQ36" s="1">
-        <v>884.958</v>
+        <v>882.1060000000001</v>
       </c>
       <c r="AR36" s="1">
-        <v>741.553</v>
+        <v>737.657</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT36" s="1">
-        <v>725.849</v>
+        <v>722.424</v>
       </c>
       <c r="AU36" s="1">
-        <v>780.0880000000001</v>
+        <v>777.549</v>
       </c>
       <c r="AV36" s="1">
-        <v>736.331</v>
+        <v>732.376</v>
       </c>
       <c r="AW36" s="1">
-        <v>791.087</v>
+        <v>787.468</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>124</v>
@@ -6227,115 +6220,115 @@
         <v>125</v>
       </c>
       <c r="M37" s="1">
-        <v>52.4386</v>
+        <v>52.3278</v>
       </c>
       <c r="N37" s="1">
-        <v>20.4159</v>
+        <v>17.4045</v>
       </c>
       <c r="O37" s="1">
-        <v>25.0567</v>
+        <v>16.2544</v>
       </c>
       <c r="P37" s="1">
-        <v>55.6565</v>
+        <v>48.402</v>
       </c>
       <c r="Q37" s="1">
-        <v>52.4395</v>
+        <v>52.3265</v>
       </c>
       <c r="R37" s="1">
-        <v>100.01</v>
+        <v>100.006</v>
       </c>
       <c r="S37" s="1">
-        <v>55.6565</v>
+        <v>48.402</v>
       </c>
       <c r="T37" s="1">
-        <v>54.6245</v>
+        <v>48.0913</v>
       </c>
       <c r="U37" s="1">
-        <v>21.4383</v>
+        <v>15.2558</v>
       </c>
       <c r="V37" s="1">
-        <v>16.2577</v>
+        <v>13.1706</v>
       </c>
       <c r="W37" s="1">
-        <v>15.4456</v>
+        <v>14.4805</v>
       </c>
       <c r="X37" s="1">
-        <v>15.9588</v>
+        <v>16.146</v>
       </c>
       <c r="Y37" s="1">
-        <v>15.9588</v>
+        <v>16.146</v>
       </c>
       <c r="Z37" s="1">
-        <v>15.9552</v>
+        <v>16.142</v>
       </c>
       <c r="AA37" s="1">
-        <v>25.0567</v>
+        <v>16.2544</v>
       </c>
       <c r="AB37" s="1">
-        <v>14.5419</v>
+        <v>13.9711</v>
       </c>
       <c r="AC37" s="1">
-        <v>15.016</v>
+        <v>15.3943</v>
       </c>
       <c r="AD37" s="1">
-        <v>20.4159</v>
+        <v>17.4045</v>
       </c>
       <c r="AE37" s="1">
-        <v>20.4159</v>
+        <v>17.4045</v>
       </c>
       <c r="AF37" s="1">
-        <v>20.4159</v>
+        <v>17.4045</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.8340340000000001</v>
+        <v>0.834301</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.70338</v>
+        <v>0.715566</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.376371</v>
+        <v>0.376749</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.0892867</v>
+        <v>0.109493</v>
       </c>
       <c r="AK37" s="1">
-        <v>0.10414</v>
+        <v>0.0978435</v>
       </c>
       <c r="AL37" s="1">
-        <v>0.0944281</v>
+        <v>0.0926231</v>
       </c>
       <c r="AM37" s="1">
-        <v>0.0438379</v>
+        <v>0.0439587</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.39043</v>
+        <v>0.402616</v>
       </c>
       <c r="AO37" s="1">
-        <v>882.888</v>
+        <v>880.0210000000001</v>
       </c>
       <c r="AP37" s="1">
-        <v>847.5590000000001</v>
+        <v>840.0549999999999</v>
       </c>
       <c r="AQ37" s="1">
-        <v>906.138</v>
+        <v>901.534</v>
       </c>
       <c r="AR37" s="1">
-        <v>771.2800000000001</v>
+        <v>764.027</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT37" s="1">
-        <v>734.1949999999999</v>
+        <v>729.777</v>
       </c>
       <c r="AU37" s="1">
-        <v>794.441</v>
+        <v>790.192</v>
       </c>
       <c r="AV37" s="1">
-        <v>758.725</v>
+        <v>751.1360000000001</v>
       </c>
       <c r="AW37" s="1">
-        <v>820.249</v>
+        <v>813.716</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>124</v>
@@ -6381,115 +6374,115 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>49.31817272727272</v>
+        <v>49.64161515151516</v>
       </c>
       <c r="N42" s="1">
-        <v>14.17522727272727</v>
+        <v>12.50687727272727</v>
       </c>
       <c r="O42" s="1">
-        <v>20.07104545454545</v>
+        <v>14.00263333333333</v>
       </c>
       <c r="P42" s="1">
-        <v>37.77266363636363</v>
+        <v>32.68679393939394</v>
       </c>
       <c r="Q42" s="1">
-        <v>49.31843030303032</v>
+        <v>49.64161515151515</v>
       </c>
       <c r="R42" s="1">
-        <v>100.0005181818182</v>
+        <v>99.99996363636366</v>
       </c>
       <c r="S42" s="1">
-        <v>37.3374696969697</v>
+        <v>32.19356666666666</v>
       </c>
       <c r="T42" s="1">
-        <v>36.65623333333333</v>
+        <v>31.83548484848485</v>
       </c>
       <c r="U42" s="1">
-        <v>17.52434848484848</v>
+        <v>13.18694242424242</v>
       </c>
       <c r="V42" s="1">
-        <v>11.65807454545455</v>
+        <v>9.63824</v>
       </c>
       <c r="W42" s="1">
-        <v>10.83844939393939</v>
+        <v>10.04751939393939</v>
       </c>
       <c r="X42" s="1">
-        <v>11.24604393939394</v>
+        <v>11.33698090909091</v>
       </c>
       <c r="Y42" s="1">
-        <v>11.24604393939394</v>
+        <v>11.33698090909091</v>
       </c>
       <c r="Z42" s="1">
-        <v>11.24438666666667</v>
+        <v>11.33766272727273</v>
       </c>
       <c r="AA42" s="1">
-        <v>19.62663939393939</v>
+        <v>13.76392727272727</v>
       </c>
       <c r="AB42" s="1">
-        <v>10.39666515151515</v>
+        <v>9.996449696969693</v>
       </c>
       <c r="AC42" s="1">
-        <v>10.32668363636364</v>
+        <v>10.48057757575757</v>
       </c>
       <c r="AD42" s="1">
-        <v>14.12959393939394</v>
+        <v>12.15012060606061</v>
       </c>
       <c r="AE42" s="1">
-        <v>14.12959393939394</v>
+        <v>12.15012060606061</v>
       </c>
       <c r="AF42" s="1">
-        <v>14.12959393939394</v>
+        <v>12.15012060606061</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7557338787878789</v>
+        <v>0.7560895151515151</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3927999393939394</v>
+        <v>0.397530212121212</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1417926363636364</v>
+        <v>0.1418707848484849</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.06610436363636363</v>
+        <v>0.07298412424242423</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.07349525151515152</v>
+        <v>0.07190223636363637</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.07514129090909093</v>
+        <v>0.07445383030303029</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.03726066666666666</v>
+        <v>0.03739246363636364</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2642067575757576</v>
+        <v>0.2689371515151515</v>
       </c>
       <c r="AO42" s="1">
-        <v>878.1522424242426</v>
+        <v>875.3936060606062</v>
       </c>
       <c r="AP42" s="1">
-        <v>837.8448787878785</v>
+        <v>832.6570909090909</v>
       </c>
       <c r="AQ42" s="1">
-        <v>892.8766666666666</v>
+        <v>889.2973333333334</v>
       </c>
       <c r="AR42" s="1">
-        <v>752.9631515151516</v>
+        <v>747.8187878787879</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT42" s="1">
-        <v>729.7203636363638</v>
+        <v>725.8768787878788</v>
       </c>
       <c r="AU42" s="1">
-        <v>785.4512121212121</v>
+        <v>782.2582727272728</v>
       </c>
       <c r="AV42" s="1">
-        <v>745.0125151515153</v>
+        <v>739.7418484848486</v>
       </c>
       <c r="AW42" s="1">
-        <v>802.2812121212123</v>
+        <v>797.4604545454546</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>124</v>
@@ -6500,115 +6493,115 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>1.693445220821408</v>
+        <v>1.65703721015282</v>
       </c>
       <c r="N43" s="1">
-        <v>3.014445423835111</v>
+        <v>2.415060573068413</v>
       </c>
       <c r="O43" s="1">
-        <v>2.597369609885764</v>
+        <v>1.296152868758897</v>
       </c>
       <c r="P43" s="1">
-        <v>7.934792382910204</v>
+        <v>7.005223402054393</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.693412458748713</v>
+        <v>1.657372703484428</v>
       </c>
       <c r="R43" s="1">
-        <v>0.003272053802760036</v>
+        <v>0.0027478717033497</v>
       </c>
       <c r="S43" s="1">
-        <v>7.981086188721997</v>
+        <v>7.083564573637266</v>
       </c>
       <c r="T43" s="1">
-        <v>7.830858176032262</v>
+        <v>7.078053573145367</v>
       </c>
       <c r="U43" s="1">
-        <v>2.12005433308323</v>
+        <v>1.135213398716042</v>
       </c>
       <c r="V43" s="1">
-        <v>2.215276286152233</v>
+        <v>1.848403661289023</v>
       </c>
       <c r="W43" s="1">
-        <v>2.357691871244621</v>
+        <v>2.225514082448231</v>
       </c>
       <c r="X43" s="1">
-        <v>2.308228573285793</v>
+        <v>2.340859511331272</v>
       </c>
       <c r="Y43" s="1">
-        <v>2.308228573285793</v>
+        <v>2.340859511331272</v>
       </c>
       <c r="Z43" s="1">
-        <v>2.308883593536281</v>
+        <v>2.340810551774454</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.796349965844479</v>
+        <v>1.277850475739281</v>
       </c>
       <c r="AB43" s="1">
-        <v>1.950672977763442</v>
+        <v>2.057428241098485</v>
       </c>
       <c r="AC43" s="1">
-        <v>2.267531372720481</v>
+        <v>2.444356395448479</v>
       </c>
       <c r="AD43" s="1">
-        <v>3.03104695659411</v>
+        <v>2.477252557327878</v>
       </c>
       <c r="AE43" s="1">
-        <v>3.03104695659411</v>
+        <v>2.477252557327878</v>
       </c>
       <c r="AF43" s="1">
-        <v>3.03104695659411</v>
+        <v>2.477252557327878</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07423750325680066</v>
+        <v>0.07424912092250602</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1206128919658258</v>
+        <v>0.1231328937227204</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.08920758318871443</v>
+        <v>0.08929607426353897</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.01061277397404337</v>
+        <v>0.01484345963660948</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.01251742773634499</v>
+        <v>0.01097764998842533</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.00958047939590561</v>
+        <v>0.009249331449991885</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.004039616679884867</v>
+        <v>0.004075511587430926</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.04796749510331642</v>
+        <v>0.05036784407050172</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.764549259444871</v>
+        <v>2.581480018755907</v>
       </c>
       <c r="AP43" s="1">
-        <v>4.220632451225519</v>
+        <v>3.276655116015616</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.871119012986064</v>
+        <v>5.408597054783244</v>
       </c>
       <c r="AR43" s="1">
-        <v>7.980922116242466</v>
+        <v>7.084013832941563</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.819662797571897</v>
+        <v>2.40338702614225</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.888560197495983</v>
+        <v>3.460338144912287</v>
       </c>
       <c r="AV43" s="1">
-        <v>6.204305602349565</v>
+        <v>5.257183311525538</v>
       </c>
       <c r="AW43" s="1">
-        <v>7.830832076836454</v>
+        <v>7.078061389661209</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>124</v>
@@ -6619,115 +6612,115 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>3.433714444746532</v>
+        <v>3.338000194182327</v>
       </c>
       <c r="N44" s="1">
-        <v>21.26558795734314</v>
+        <v>19.30986065030588</v>
       </c>
       <c r="O44" s="1">
-        <v>12.94087851959671</v>
+        <v>9.256493674467638</v>
       </c>
       <c r="P44" s="1">
-        <v>21.00670595883368</v>
+        <v>21.43135669727381</v>
       </c>
       <c r="Q44" s="1">
-        <v>3.433630081784381</v>
+        <v>3.33867602499602</v>
       </c>
       <c r="R44" s="1">
-        <v>0.003272036847660007</v>
+        <v>0.002747872702576137</v>
       </c>
       <c r="S44" s="1">
-        <v>21.37554112128209</v>
+        <v>22.003043797479</v>
       </c>
       <c r="T44" s="1">
-        <v>21.36296466912566</v>
+        <v>22.23322059278213</v>
       </c>
       <c r="U44" s="1">
-        <v>12.09776406190635</v>
+        <v>8.608617238133263</v>
       </c>
       <c r="V44" s="1">
-        <v>19.00207686539423</v>
+        <v>19.17781318258337</v>
       </c>
       <c r="W44" s="1">
-        <v>21.75303667112186</v>
+        <v>22.14988590905978</v>
       </c>
       <c r="X44" s="1">
-        <v>20.5248048622704</v>
+        <v>20.6479972940078</v>
       </c>
       <c r="Y44" s="1">
-        <v>20.5248048622704</v>
+        <v>20.6479972940078</v>
       </c>
       <c r="Z44" s="1">
-        <v>20.53365525378838</v>
+        <v>20.64632374487237</v>
       </c>
       <c r="AA44" s="1">
-        <v>14.24772682534728</v>
+        <v>9.284054255875763</v>
       </c>
       <c r="AB44" s="1">
-        <v>18.76248729121723</v>
+        <v>20.58158949894151</v>
       </c>
       <c r="AC44" s="1">
-        <v>21.95798237428092</v>
+        <v>23.32272604042809</v>
       </c>
       <c r="AD44" s="1">
-        <v>21.45176265924682</v>
+        <v>20.3887075498839</v>
       </c>
       <c r="AE44" s="1">
-        <v>21.45176265924682</v>
+        <v>20.3887075498839</v>
       </c>
       <c r="AF44" s="1">
-        <v>21.45176265924682</v>
+        <v>20.3887075498839</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.823233460946616</v>
+        <v>9.820149523912788</v>
       </c>
       <c r="AH44" s="1">
-        <v>30.70593446422684</v>
+        <v>30.97447438414459</v>
       </c>
       <c r="AI44" s="1">
-        <v>62.91411562440788</v>
+        <v>62.94183426059521</v>
       </c>
       <c r="AJ44" s="1">
-        <v>16.05457399518077</v>
+        <v>20.3379293657144</v>
       </c>
       <c r="AK44" s="1">
-        <v>17.03161425845919</v>
+        <v>15.26746669311824</v>
       </c>
       <c r="AL44" s="1">
-        <v>12.74995316156662</v>
+        <v>12.4229088179167</v>
       </c>
       <c r="AM44" s="1">
-        <v>10.84150403432986</v>
+        <v>10.89928608894213</v>
       </c>
       <c r="AN44" s="1">
-        <v>18.15528699698849</v>
+        <v>18.72848127777693</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.314814348342721</v>
+        <v>0.2948936342330541</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.5037486721087996</v>
+        <v>0.3935179501609937</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.6575509510069772</v>
+        <v>0.6081877064120186</v>
       </c>
       <c r="AR44" s="1">
-        <v>1.059935283709812</v>
+        <v>0.9472901654471126</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.3864031947143247</v>
+        <v>0.3311011958605979</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4950734224464975</v>
+        <v>0.4423523873832782</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.8327787085681074</v>
+        <v>0.7106780997037531</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.9760707291314876</v>
+        <v>0.8875752207293641</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>124</v>

--- a/dca_mission_timing_pre_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_pre_tsmc2p_meas.xlsx
@@ -966,115 +966,115 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>49.7618</v>
+        <v>49.7793</v>
       </c>
       <c r="N2">
-        <v>11.2693</v>
+        <v>11.1182</v>
       </c>
       <c r="O2">
-        <v>13.1307</v>
+        <v>13.2487</v>
       </c>
       <c r="P2">
-        <v>30.4</v>
+        <v>30.0615</v>
       </c>
       <c r="Q2">
-        <v>49.7624</v>
+        <v>49.7798</v>
       </c>
       <c r="R2">
         <v>100.001</v>
       </c>
       <c r="S2">
-        <v>30.4</v>
+        <v>30.0615</v>
       </c>
       <c r="T2">
-        <v>30.1632</v>
+        <v>29.8411</v>
       </c>
       <c r="U2">
-        <v>12.5999</v>
+        <v>12.7451</v>
       </c>
       <c r="V2">
-        <v>8.82455</v>
+        <v>9.271240000000001</v>
       </c>
       <c r="W2">
-        <v>9.204980000000001</v>
+        <v>8.376859999999999</v>
       </c>
       <c r="X2">
-        <v>10.5263</v>
+        <v>10.3059</v>
       </c>
       <c r="Y2">
-        <v>10.5263</v>
+        <v>10.3059</v>
       </c>
       <c r="Z2">
-        <v>10.5277</v>
+        <v>10.296</v>
       </c>
       <c r="AA2">
-        <v>13.1307</v>
+        <v>13.2487</v>
       </c>
       <c r="AB2">
-        <v>9.072899999999999</v>
+        <v>9.339970000000001</v>
       </c>
       <c r="AC2">
-        <v>9.523620000000001</v>
+        <v>8.52197</v>
       </c>
       <c r="AD2">
-        <v>11.2693</v>
+        <v>11.1182</v>
       </c>
       <c r="AE2">
-        <v>11.2693</v>
+        <v>11.1182</v>
       </c>
       <c r="AF2">
-        <v>11.2693</v>
+        <v>11.1182</v>
       </c>
       <c r="AG2">
-        <v>0.756849</v>
+        <v>0.757347</v>
       </c>
       <c r="AH2">
-        <v>0.35553</v>
+        <v>0.352405</v>
       </c>
       <c r="AI2">
-        <v>0.107529</v>
+        <v>0.10753</v>
       </c>
       <c r="AJ2">
-        <v>0.06886919999999999</v>
+        <v>0.071066</v>
       </c>
       <c r="AK2">
-        <v>0.0692058</v>
+        <v>0.0728678</v>
       </c>
       <c r="AL2">
-        <v>0.07291350000000001</v>
+        <v>0.0639777</v>
       </c>
       <c r="AM2">
-        <v>0.0369832</v>
+        <v>0.0369356</v>
       </c>
       <c r="AN2">
-        <v>0.248577</v>
+        <v>0.245452</v>
       </c>
       <c r="AO2">
-        <v>875.2</v>
+        <v>875.3870000000001</v>
       </c>
       <c r="AP2">
-        <v>831.9400000000001</v>
+        <v>832.2819999999999</v>
       </c>
       <c r="AQ2">
-        <v>888.176</v>
+        <v>888.0490000000001</v>
       </c>
       <c r="AR2">
-        <v>746.028</v>
+        <v>745.688</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT2">
-        <v>725.4829999999999</v>
+        <v>725.5870000000001</v>
       </c>
       <c r="AU2">
-        <v>781.622</v>
+        <v>782.0170000000001</v>
       </c>
       <c r="AV2">
-        <v>738.4450000000001</v>
+        <v>738.373</v>
       </c>
       <c r="AW2">
-        <v>795.788</v>
+        <v>795.466</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>62</v>
@@ -1118,115 +1118,115 @@
         <v>73</v>
       </c>
       <c r="M3">
-        <v>49.882</v>
+        <v>49.8899</v>
       </c>
       <c r="N3">
-        <v>9.752640000000001</v>
+        <v>9.61032</v>
       </c>
       <c r="O3">
-        <v>12.4428</v>
+        <v>12.5794</v>
       </c>
       <c r="P3">
-        <v>26.5625</v>
+        <v>26.3159</v>
       </c>
       <c r="Q3">
-        <v>49.8832</v>
+        <v>49.8902</v>
       </c>
       <c r="R3">
-        <v>100.003</v>
+        <v>100.001</v>
       </c>
       <c r="S3">
-        <v>26.5625</v>
+        <v>26.3159</v>
       </c>
       <c r="T3">
-        <v>26.4453</v>
+        <v>26.2063</v>
       </c>
       <c r="U3">
-        <v>12.0008</v>
+        <v>12.1439</v>
       </c>
       <c r="V3">
-        <v>7.78766</v>
+        <v>8.20096</v>
       </c>
       <c r="W3">
-        <v>7.88062</v>
+        <v>7.166790000000001</v>
       </c>
       <c r="X3">
-        <v>9.12384</v>
+        <v>8.92393</v>
       </c>
       <c r="Y3">
-        <v>9.12384</v>
+        <v>8.92393</v>
       </c>
       <c r="Z3">
-        <v>9.12115</v>
+        <v>8.92658</v>
       </c>
       <c r="AA3">
-        <v>12.4428</v>
+        <v>12.5794</v>
       </c>
       <c r="AB3">
-        <v>7.89951</v>
+        <v>8.124509999999999</v>
       </c>
       <c r="AC3">
-        <v>8.029670000000001</v>
+        <v>7.19569</v>
       </c>
       <c r="AD3">
-        <v>9.752640000000001</v>
+        <v>9.61032</v>
       </c>
       <c r="AE3">
-        <v>9.752640000000001</v>
+        <v>9.61032</v>
       </c>
       <c r="AF3">
-        <v>9.752640000000001</v>
+        <v>9.61032</v>
       </c>
       <c r="AG3">
-        <v>0.681266</v>
+        <v>0.681698</v>
       </c>
       <c r="AH3">
-        <v>0.361364</v>
+        <v>0.358739</v>
       </c>
       <c r="AI3">
         <v>0.129435</v>
       </c>
       <c r="AJ3">
-        <v>0.06613429999999999</v>
+        <v>0.0682246</v>
       </c>
       <c r="AK3">
-        <v>0.06495910000000001</v>
+        <v>0.06845499999999999</v>
       </c>
       <c r="AL3">
-        <v>0.0671933</v>
+        <v>0.0590543</v>
       </c>
       <c r="AM3">
-        <v>0.0336552</v>
+        <v>0.0335841</v>
       </c>
       <c r="AN3">
-        <v>0.232383</v>
+        <v>0.229758</v>
       </c>
       <c r="AO3">
-        <v>874.443</v>
+        <v>874.624</v>
       </c>
       <c r="AP3">
-        <v>830.1950000000001</v>
+        <v>830.5200000000001</v>
       </c>
       <c r="AQ3">
-        <v>885.521</v>
+        <v>885.442</v>
       </c>
       <c r="AR3">
-        <v>742.189</v>
+        <v>741.942</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT3">
-        <v>724.4929999999999</v>
+        <v>724.595</v>
       </c>
       <c r="AU3">
-        <v>779.908</v>
+        <v>780.277</v>
       </c>
       <c r="AV3">
-        <v>735.615</v>
+        <v>735.586</v>
       </c>
       <c r="AW3">
-        <v>792.0700000000001</v>
+        <v>791.831</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>62</v>
@@ -1270,115 +1270,115 @@
         <v>75</v>
       </c>
       <c r="M4">
-        <v>49.8021</v>
+        <v>49.8272</v>
       </c>
       <c r="N4">
-        <v>8.3101</v>
+        <v>8.190379999999999</v>
       </c>
       <c r="O4">
-        <v>11.7538</v>
+        <v>11.93</v>
       </c>
       <c r="P4">
-        <v>22.0793</v>
+        <v>21.8935</v>
       </c>
       <c r="Q4">
-        <v>49.7974</v>
+        <v>49.8273</v>
       </c>
       <c r="R4">
-        <v>99.9905</v>
+        <v>100</v>
       </c>
       <c r="S4">
-        <v>22.0793</v>
+        <v>21.8935</v>
       </c>
       <c r="T4">
-        <v>21.8794</v>
+        <v>21.7184</v>
       </c>
       <c r="U4">
-        <v>11.4358</v>
+        <v>11.6039</v>
       </c>
       <c r="V4">
-        <v>6.81348</v>
+        <v>7.20228</v>
       </c>
       <c r="W4">
-        <v>6.670170000000001</v>
+        <v>6.07685</v>
       </c>
       <c r="X4">
-        <v>7.71072</v>
+        <v>7.54462</v>
       </c>
       <c r="Y4">
-        <v>7.71072</v>
+        <v>7.54462</v>
       </c>
       <c r="Z4">
-        <v>7.71241</v>
+        <v>7.54683</v>
       </c>
       <c r="AA4">
-        <v>11.7538</v>
+        <v>11.93</v>
       </c>
       <c r="AB4">
-        <v>6.93267</v>
+        <v>7.16661</v>
       </c>
       <c r="AC4">
-        <v>6.84565</v>
+        <v>6.133710000000001</v>
       </c>
       <c r="AD4">
-        <v>8.3101</v>
+        <v>8.190379999999999</v>
       </c>
       <c r="AE4">
-        <v>8.3101</v>
+        <v>8.190379999999999</v>
       </c>
       <c r="AF4">
-        <v>8.3101</v>
+        <v>8.190379999999999</v>
       </c>
       <c r="AG4">
-        <v>0.831847</v>
+        <v>0.83226</v>
       </c>
       <c r="AH4">
-        <v>0.54753</v>
+        <v>0.544656</v>
       </c>
       <c r="AI4">
         <v>0.240592</v>
       </c>
       <c r="AJ4">
-        <v>0.09480240000000001</v>
+        <v>0.09742820000000001</v>
       </c>
       <c r="AK4">
-        <v>0.08523889999999999</v>
+        <v>0.08981019999999999</v>
       </c>
       <c r="AL4">
-        <v>0.08517559999999999</v>
+        <v>0.07527829999999999</v>
       </c>
       <c r="AM4">
-        <v>0.0418463</v>
+        <v>0.041675</v>
       </c>
       <c r="AN4">
-        <v>0.307621</v>
+        <v>0.304747</v>
       </c>
       <c r="AO4">
-        <v>873.0160000000001</v>
+        <v>873.1880000000001</v>
       </c>
       <c r="AP4">
-        <v>827.937</v>
+        <v>828.215</v>
       </c>
       <c r="AQ4">
-        <v>882.1060000000001</v>
+        <v>882.0700000000001</v>
       </c>
       <c r="AR4">
-        <v>737.697</v>
+        <v>737.5260000000001</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT4">
-        <v>723.259</v>
+        <v>723.3579999999999</v>
       </c>
       <c r="AU4">
-        <v>777.549</v>
+        <v>777.8850000000001</v>
       </c>
       <c r="AV4">
-        <v>732.376</v>
+        <v>732.3680000000001</v>
       </c>
       <c r="AW4">
-        <v>787.504</v>
+        <v>787.3430000000001</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>62</v>
@@ -1422,115 +1422,115 @@
         <v>73</v>
       </c>
       <c r="M5">
-        <v>49.3208</v>
+        <v>49.3357</v>
       </c>
       <c r="N5">
-        <v>11.3724</v>
+        <v>11.2013</v>
       </c>
       <c r="O5">
-        <v>14.4953</v>
+        <v>14.7297</v>
       </c>
       <c r="P5">
-        <v>27.247</v>
+        <v>27.0466</v>
       </c>
       <c r="Q5">
-        <v>49.32020000000001</v>
+        <v>49.3375</v>
       </c>
       <c r="R5">
-        <v>99.99890000000001</v>
+        <v>100.004</v>
       </c>
       <c r="S5">
-        <v>27.247</v>
+        <v>27.0466</v>
       </c>
       <c r="T5">
-        <v>26.5684</v>
+        <v>26.3852</v>
       </c>
       <c r="U5">
-        <v>13.937</v>
+        <v>14.1269</v>
       </c>
       <c r="V5">
-        <v>9.298820000000001</v>
+        <v>9.842640000000001</v>
       </c>
       <c r="W5">
-        <v>9.088149999999999</v>
+        <v>8.359960000000001</v>
       </c>
       <c r="X5">
-        <v>10.2928</v>
+        <v>10.0423</v>
       </c>
       <c r="Y5">
-        <v>10.2928</v>
+        <v>10.0423</v>
       </c>
       <c r="Z5">
-        <v>10.2891</v>
+        <v>10.0418</v>
       </c>
       <c r="AA5">
-        <v>14.4953</v>
+        <v>14.7297</v>
       </c>
       <c r="AB5">
-        <v>9.527149999999999</v>
+        <v>9.953320000000001</v>
       </c>
       <c r="AC5">
-        <v>9.480180000000001</v>
+        <v>8.55547</v>
       </c>
       <c r="AD5">
-        <v>11.3724</v>
+        <v>11.2013</v>
       </c>
       <c r="AE5">
-        <v>11.3724</v>
+        <v>11.2013</v>
       </c>
       <c r="AF5">
-        <v>11.3724</v>
+        <v>11.2013</v>
       </c>
       <c r="AG5">
-        <v>0.677509</v>
+        <v>0.6777260000000001</v>
       </c>
       <c r="AH5">
-        <v>0.50465</v>
+        <v>0.502969</v>
       </c>
       <c r="AI5">
-        <v>0.248263</v>
+        <v>0.2483</v>
       </c>
       <c r="AJ5">
-        <v>0.07806790000000001</v>
+        <v>0.08022359999999999</v>
       </c>
       <c r="AK5">
-        <v>0.0744679</v>
+        <v>0.0783079</v>
       </c>
       <c r="AL5">
-        <v>0.07316360000000001</v>
+        <v>0.0657152</v>
       </c>
       <c r="AM5">
-        <v>0.035361</v>
+        <v>0.0351326</v>
       </c>
       <c r="AN5">
-        <v>0.312809</v>
+        <v>0.311128</v>
       </c>
       <c r="AO5">
-        <v>873.5600000000001</v>
+        <v>873.753</v>
       </c>
       <c r="AP5">
-        <v>830.393</v>
+        <v>830.7600000000001</v>
       </c>
       <c r="AQ5">
-        <v>885.101</v>
+        <v>885.076</v>
       </c>
       <c r="AR5">
-        <v>742.8710000000001</v>
+        <v>742.6669999999999</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT5">
-        <v>724.7790000000001</v>
+        <v>724.8820000000001</v>
       </c>
       <c r="AU5">
-        <v>779.4059999999999</v>
+        <v>779.829</v>
       </c>
       <c r="AV5">
-        <v>736.272</v>
+        <v>736.264</v>
       </c>
       <c r="AW5">
-        <v>792.193</v>
+        <v>792.0100000000001</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>62</v>
@@ -1574,115 +1574,115 @@
         <v>75</v>
       </c>
       <c r="M6">
-        <v>49.2677</v>
+        <v>49.2948</v>
       </c>
       <c r="N6">
-        <v>9.873949999999999</v>
+        <v>9.723889999999999</v>
       </c>
       <c r="O6">
-        <v>13.8969</v>
+        <v>14.1542</v>
       </c>
       <c r="P6">
-        <v>23.649</v>
+        <v>23.4923</v>
       </c>
       <c r="Q6">
-        <v>49.2672</v>
+        <v>49.29510000000001</v>
       </c>
       <c r="R6">
-        <v>99.99890000000001</v>
+        <v>100</v>
       </c>
       <c r="S6">
-        <v>23.649</v>
+        <v>23.4923</v>
       </c>
       <c r="T6">
-        <v>22.916</v>
+        <v>22.7837</v>
       </c>
       <c r="U6">
-        <v>13.4126</v>
+        <v>13.6138</v>
       </c>
       <c r="V6">
-        <v>8.36651</v>
+        <v>8.86416</v>
       </c>
       <c r="W6">
-        <v>7.89636</v>
+        <v>7.26667</v>
       </c>
       <c r="X6">
-        <v>8.920260000000001</v>
+        <v>8.69829</v>
       </c>
       <c r="Y6">
-        <v>8.920260000000001</v>
+        <v>8.69829</v>
       </c>
       <c r="Z6">
-        <v>8.921430000000001</v>
+        <v>8.701269999999999</v>
       </c>
       <c r="AA6">
-        <v>13.8969</v>
+        <v>14.1542</v>
       </c>
       <c r="AB6">
-        <v>8.53431</v>
+        <v>8.932830000000001</v>
       </c>
       <c r="AC6">
-        <v>8.223410000000001</v>
+        <v>7.42536</v>
       </c>
       <c r="AD6">
-        <v>9.873949999999999</v>
+        <v>9.723889999999999</v>
       </c>
       <c r="AE6">
-        <v>9.873949999999999</v>
+        <v>9.723889999999999</v>
       </c>
       <c r="AF6">
-        <v>9.873949999999999</v>
+        <v>9.723889999999999</v>
       </c>
       <c r="AG6">
-        <v>0.827836</v>
+        <v>0.828049</v>
       </c>
       <c r="AH6">
-        <v>0.715566</v>
+        <v>0.71375</v>
       </c>
       <c r="AI6">
-        <v>0.376749</v>
+        <v>0.376779</v>
       </c>
       <c r="AJ6">
-        <v>0.109475</v>
+        <v>0.112157</v>
       </c>
       <c r="AK6">
-        <v>0.0978368</v>
+        <v>0.102707</v>
       </c>
       <c r="AL6">
-        <v>0.0926081</v>
+        <v>0.08359</v>
       </c>
       <c r="AM6">
-        <v>0.0439587</v>
+        <v>0.0436078</v>
       </c>
       <c r="AN6">
-        <v>0.402616</v>
+        <v>0.4008</v>
       </c>
       <c r="AO6">
-        <v>872.616</v>
+        <v>872.796</v>
       </c>
       <c r="AP6">
-        <v>828.7</v>
+        <v>829.0250000000001</v>
       </c>
       <c r="AQ6">
-        <v>882.4920000000001</v>
+        <v>882.4930000000001</v>
       </c>
       <c r="AR6">
-        <v>739.273</v>
+        <v>739.117</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT6">
-        <v>723.874</v>
+        <v>723.967</v>
       </c>
       <c r="AU6">
-        <v>777.659</v>
+        <v>778.0419999999999</v>
       </c>
       <c r="AV6">
-        <v>733.6899999999999</v>
+        <v>733.6940000000001</v>
       </c>
       <c r="AW6">
-        <v>788.5409999999999</v>
+        <v>788.409</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>62</v>
@@ -1726,115 +1726,115 @@
         <v>73</v>
       </c>
       <c r="M7">
-        <v>49.8838</v>
+        <v>49.897</v>
       </c>
       <c r="N7">
-        <v>9.696610000000002</v>
+        <v>9.55461</v>
       </c>
       <c r="O7">
-        <v>12.451</v>
+        <v>12.5824</v>
       </c>
       <c r="P7">
-        <v>26.5198</v>
+        <v>26.2722</v>
       </c>
       <c r="Q7">
-        <v>49.8853</v>
+        <v>49.8963</v>
       </c>
       <c r="R7">
-        <v>100.003</v>
+        <v>99.9986</v>
       </c>
       <c r="S7">
-        <v>26.5198</v>
+        <v>26.2722</v>
       </c>
       <c r="T7">
-        <v>26.4065</v>
+        <v>26.1664</v>
       </c>
       <c r="U7">
-        <v>11.9946</v>
+        <v>12.1484</v>
       </c>
       <c r="V7">
-        <v>7.791320000000001</v>
+        <v>8.19244</v>
       </c>
       <c r="W7">
-        <v>7.882630000000001</v>
+        <v>7.16482</v>
       </c>
       <c r="X7">
-        <v>9.08747</v>
+        <v>8.893050000000001</v>
       </c>
       <c r="Y7">
-        <v>9.08747</v>
+        <v>8.893050000000001</v>
       </c>
       <c r="Z7">
-        <v>9.088560000000001</v>
+        <v>8.892669999999999</v>
       </c>
       <c r="AA7">
-        <v>12.451</v>
+        <v>12.5824</v>
       </c>
       <c r="AB7">
-        <v>7.89761</v>
+        <v>8.121879999999999</v>
       </c>
       <c r="AC7">
-        <v>8.03153</v>
+        <v>7.196730000000001</v>
       </c>
       <c r="AD7">
-        <v>9.696610000000002</v>
+        <v>9.55461</v>
       </c>
       <c r="AE7">
-        <v>9.696610000000002</v>
+        <v>9.55461</v>
       </c>
       <c r="AF7">
-        <v>9.696610000000002</v>
+        <v>9.55461</v>
       </c>
       <c r="AG7">
-        <v>0.681289</v>
+        <v>0.6817</v>
       </c>
       <c r="AH7">
-        <v>0.36114</v>
+        <v>0.358516</v>
       </c>
       <c r="AI7">
         <v>0.129435</v>
       </c>
       <c r="AJ7">
-        <v>0.0661332</v>
+        <v>0.0682242</v>
       </c>
       <c r="AK7">
-        <v>0.06496200000000001</v>
+        <v>0.0684535</v>
       </c>
       <c r="AL7">
-        <v>0.0671924</v>
+        <v>0.05905559999999999</v>
       </c>
       <c r="AM7">
-        <v>0.0334307</v>
+        <v>0.0333613</v>
       </c>
       <c r="AN7">
-        <v>0.232159</v>
+        <v>0.229535</v>
       </c>
       <c r="AO7">
-        <v>874.441</v>
+        <v>874.624</v>
       </c>
       <c r="AP7">
-        <v>830.1950000000001</v>
+        <v>830.5200000000001</v>
       </c>
       <c r="AQ7">
-        <v>885.52</v>
+        <v>885.442</v>
       </c>
       <c r="AR7">
-        <v>742.147</v>
+        <v>741.895</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT7">
-        <v>724.494</v>
+        <v>724.593</v>
       </c>
       <c r="AU7">
-        <v>779.907</v>
+        <v>780.275</v>
       </c>
       <c r="AV7">
-        <v>735.617</v>
+        <v>735.583</v>
       </c>
       <c r="AW7">
-        <v>792.0310000000001</v>
+        <v>791.7910000000001</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>62</v>
@@ -1878,115 +1878,115 @@
         <v>75</v>
       </c>
       <c r="M8">
-        <v>49.8098</v>
+        <v>49.8275</v>
       </c>
       <c r="N8">
-        <v>8.263870000000001</v>
+        <v>8.145760000000001</v>
       </c>
       <c r="O8">
-        <v>11.7692</v>
+        <v>11.93</v>
       </c>
       <c r="P8">
-        <v>22.0296</v>
+        <v>21.8536</v>
       </c>
       <c r="Q8">
-        <v>49.8103</v>
+        <v>49.8313</v>
       </c>
       <c r="R8">
-        <v>100.001</v>
+        <v>100.008</v>
       </c>
       <c r="S8">
-        <v>22.0296</v>
+        <v>21.8536</v>
       </c>
       <c r="T8">
-        <v>21.8429</v>
+        <v>21.6883</v>
       </c>
       <c r="U8">
-        <v>11.4351</v>
+        <v>11.5994</v>
       </c>
       <c r="V8">
-        <v>6.81128</v>
+        <v>7.20183</v>
       </c>
       <c r="W8">
-        <v>6.67137</v>
+        <v>6.075</v>
       </c>
       <c r="X8">
-        <v>7.68747</v>
+        <v>7.52197</v>
       </c>
       <c r="Y8">
-        <v>7.68747</v>
+        <v>7.52197</v>
       </c>
       <c r="Z8">
-        <v>7.688409999999999</v>
+        <v>7.51979</v>
       </c>
       <c r="AA8">
-        <v>11.7692</v>
+        <v>11.93</v>
       </c>
       <c r="AB8">
-        <v>6.932840000000001</v>
+        <v>7.16227</v>
       </c>
       <c r="AC8">
-        <v>6.84759</v>
+        <v>6.132980000000001</v>
       </c>
       <c r="AD8">
-        <v>8.263870000000001</v>
+        <v>8.145760000000001</v>
       </c>
       <c r="AE8">
-        <v>8.263870000000001</v>
+        <v>8.145760000000001</v>
       </c>
       <c r="AF8">
-        <v>8.263870000000001</v>
+        <v>8.145760000000001</v>
       </c>
       <c r="AG8">
-        <v>0.831871</v>
+        <v>0.8322929999999999</v>
       </c>
       <c r="AH8">
-        <v>0.547277</v>
+        <v>0.5444020000000001</v>
       </c>
       <c r="AI8">
         <v>0.240592</v>
       </c>
       <c r="AJ8">
-        <v>0.0948056</v>
+        <v>0.097428</v>
       </c>
       <c r="AK8">
-        <v>0.0852344</v>
+        <v>0.08981690000000001</v>
       </c>
       <c r="AL8">
-        <v>0.08518050000000001</v>
+        <v>0.075279</v>
       </c>
       <c r="AM8">
-        <v>0.0415892</v>
+        <v>0.0414141</v>
       </c>
       <c r="AN8">
-        <v>0.307367</v>
+        <v>0.304493</v>
       </c>
       <c r="AO8">
-        <v>873.0160000000001</v>
+        <v>873.187</v>
       </c>
       <c r="AP8">
-        <v>827.9280000000001</v>
+        <v>828.216</v>
       </c>
       <c r="AQ8">
-        <v>882.1060000000001</v>
+        <v>882.0690000000001</v>
       </c>
       <c r="AR8">
-        <v>737.657</v>
+        <v>737.486</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT8">
-        <v>723.259</v>
+        <v>723.3560000000001</v>
       </c>
       <c r="AU8">
-        <v>777.551</v>
+        <v>777.889</v>
       </c>
       <c r="AV8">
-        <v>732.376</v>
+        <v>732.367</v>
       </c>
       <c r="AW8">
-        <v>787.468</v>
+        <v>787.313</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>62</v>
@@ -2030,115 +2030,115 @@
         <v>73</v>
       </c>
       <c r="M9">
-        <v>49.3209</v>
+        <v>49.3375</v>
       </c>
       <c r="N9">
-        <v>11.3138</v>
+        <v>11.1422</v>
       </c>
       <c r="O9">
-        <v>14.5048</v>
+        <v>14.7456</v>
       </c>
       <c r="P9">
-        <v>27.2017</v>
+        <v>26.9991</v>
       </c>
       <c r="Q9">
-        <v>49.32190000000001</v>
+        <v>49.3391</v>
       </c>
       <c r="R9">
-        <v>100.002</v>
+        <v>100.003</v>
       </c>
       <c r="S9">
-        <v>27.2017</v>
+        <v>26.9991</v>
       </c>
       <c r="T9">
-        <v>26.526</v>
+        <v>26.3398</v>
       </c>
       <c r="U9">
-        <v>13.9495</v>
+        <v>14.126</v>
       </c>
       <c r="V9">
-        <v>9.296760000000001</v>
+        <v>9.852869999999999</v>
       </c>
       <c r="W9">
-        <v>9.08952</v>
+        <v>8.361420000000001</v>
       </c>
       <c r="X9">
-        <v>10.2551</v>
+        <v>10.0037</v>
       </c>
       <c r="Y9">
-        <v>10.2551</v>
+        <v>10.0037</v>
       </c>
       <c r="Z9">
-        <v>10.2607</v>
+        <v>10.0043</v>
       </c>
       <c r="AA9">
-        <v>14.5048</v>
+        <v>14.7456</v>
       </c>
       <c r="AB9">
-        <v>9.51843</v>
+        <v>9.953090000000001</v>
       </c>
       <c r="AC9">
-        <v>9.480369999999999</v>
+        <v>8.559059999999999</v>
       </c>
       <c r="AD9">
-        <v>11.3138</v>
+        <v>11.1422</v>
       </c>
       <c r="AE9">
-        <v>11.3138</v>
+        <v>11.1422</v>
       </c>
       <c r="AF9">
-        <v>11.3138</v>
+        <v>11.1422</v>
       </c>
       <c r="AG9">
-        <v>0.677516</v>
+        <v>0.677742</v>
       </c>
       <c r="AH9">
-        <v>0.504436</v>
+        <v>0.502744</v>
       </c>
       <c r="AI9">
-        <v>0.248263</v>
+        <v>0.2483</v>
       </c>
       <c r="AJ9">
-        <v>0.0780694</v>
+        <v>0.08022700000000001</v>
       </c>
       <c r="AK9">
-        <v>0.0744648</v>
+        <v>0.0783049</v>
       </c>
       <c r="AL9">
-        <v>0.07316</v>
+        <v>0.06570240000000001</v>
       </c>
       <c r="AM9">
-        <v>0.0351519</v>
+        <v>0.0349202</v>
       </c>
       <c r="AN9">
-        <v>0.312595</v>
+        <v>0.310903</v>
       </c>
       <c r="AO9">
-        <v>873.561</v>
+        <v>873.7510000000001</v>
       </c>
       <c r="AP9">
-        <v>830.394</v>
+        <v>830.7570000000001</v>
       </c>
       <c r="AQ9">
-        <v>885.1030000000001</v>
+        <v>885.074</v>
       </c>
       <c r="AR9">
-        <v>742.828</v>
+        <v>742.624</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT9">
-        <v>724.778</v>
+        <v>724.881</v>
       </c>
       <c r="AU9">
-        <v>779.408</v>
+        <v>779.828</v>
       </c>
       <c r="AV9">
-        <v>736.272</v>
+        <v>736.263</v>
       </c>
       <c r="AW9">
-        <v>792.1510000000001</v>
+        <v>791.965</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>62</v>
@@ -2182,115 +2182,115 @@
         <v>75</v>
       </c>
       <c r="M10">
-        <v>49.2715</v>
+        <v>49.2951</v>
       </c>
       <c r="N10">
-        <v>9.818280000000001</v>
+        <v>9.675940000000001</v>
       </c>
       <c r="O10">
-        <v>13.8918</v>
+        <v>14.1456</v>
       </c>
       <c r="P10">
-        <v>23.6031</v>
+        <v>23.4515</v>
       </c>
       <c r="Q10">
-        <v>49.2724</v>
+        <v>49.2953</v>
       </c>
       <c r="R10">
-        <v>100.002</v>
+        <v>100</v>
       </c>
       <c r="S10">
-        <v>23.6031</v>
+        <v>23.4515</v>
       </c>
       <c r="T10">
-        <v>22.874</v>
+        <v>22.7431</v>
       </c>
       <c r="U10">
-        <v>13.4195</v>
+        <v>13.6048</v>
       </c>
       <c r="V10">
-        <v>8.3714</v>
+        <v>8.86088</v>
       </c>
       <c r="W10">
-        <v>7.897549999999999</v>
+        <v>7.26682</v>
       </c>
       <c r="X10">
-        <v>8.892380000000001</v>
+        <v>8.67116</v>
       </c>
       <c r="Y10">
-        <v>8.892380000000001</v>
+        <v>8.67116</v>
       </c>
       <c r="Z10">
-        <v>8.89442</v>
+        <v>8.671250000000001</v>
       </c>
       <c r="AA10">
-        <v>13.8918</v>
+        <v>14.1456</v>
       </c>
       <c r="AB10">
-        <v>8.527249999999999</v>
+        <v>8.92895</v>
       </c>
       <c r="AC10">
-        <v>8.224350000000001</v>
+        <v>7.42451</v>
       </c>
       <c r="AD10">
-        <v>9.818280000000001</v>
+        <v>9.675940000000001</v>
       </c>
       <c r="AE10">
-        <v>9.818280000000001</v>
+        <v>9.675940000000001</v>
       </c>
       <c r="AF10">
-        <v>9.818280000000001</v>
+        <v>9.675940000000001</v>
       </c>
       <c r="AG10">
-        <v>0.8278489999999999</v>
+        <v>0.8280650000000001</v>
       </c>
       <c r="AH10">
-        <v>0.7153590000000001</v>
+        <v>0.713477</v>
       </c>
       <c r="AI10">
-        <v>0.376749</v>
+        <v>0.376779</v>
       </c>
       <c r="AJ10">
-        <v>0.109493</v>
+        <v>0.112146</v>
       </c>
       <c r="AK10">
-        <v>0.0978435</v>
+        <v>0.102706</v>
       </c>
       <c r="AL10">
-        <v>0.0926231</v>
+        <v>0.0835823</v>
       </c>
       <c r="AM10">
-        <v>0.0437133</v>
+        <v>0.0433545</v>
       </c>
       <c r="AN10">
-        <v>0.402409</v>
+        <v>0.400527</v>
       </c>
       <c r="AO10">
-        <v>872.616</v>
+        <v>872.796</v>
       </c>
       <c r="AP10">
-        <v>828.7</v>
+        <v>829.024</v>
       </c>
       <c r="AQ10">
-        <v>882.4930000000001</v>
+        <v>882.4920000000001</v>
       </c>
       <c r="AR10">
-        <v>739.2310000000001</v>
+        <v>739.078</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT10">
-        <v>723.8750000000001</v>
+        <v>723.9680000000001</v>
       </c>
       <c r="AU10">
-        <v>777.658</v>
+        <v>778.0419999999999</v>
       </c>
       <c r="AV10">
-        <v>733.691</v>
+        <v>733.6950000000001</v>
       </c>
       <c r="AW10">
-        <v>788.499</v>
+        <v>788.3680000000001</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>62</v>
@@ -2334,115 +2334,115 @@
         <v>73</v>
       </c>
       <c r="M11">
-        <v>49.6866</v>
+        <v>49.7243</v>
       </c>
       <c r="N11">
-        <v>15.8362</v>
+        <v>15.5936</v>
       </c>
       <c r="O11">
-        <v>15.4277</v>
+        <v>15.0776</v>
       </c>
       <c r="P11">
-        <v>48.402</v>
+        <v>47.60440000000001</v>
       </c>
       <c r="Q11">
-        <v>49.6881</v>
+        <v>49.7243</v>
       </c>
       <c r="R11">
-        <v>100.003</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S11">
-        <v>48.402</v>
+        <v>47.60440000000001</v>
       </c>
       <c r="T11">
-        <v>48.0913</v>
+        <v>47.323</v>
       </c>
       <c r="U11">
-        <v>13.794</v>
+        <v>13.9825</v>
       </c>
       <c r="V11">
-        <v>12.2693</v>
+        <v>12.8205</v>
       </c>
       <c r="W11">
-        <v>13.7213</v>
+        <v>12.4205</v>
       </c>
       <c r="X11">
-        <v>15.4277</v>
+        <v>15.0776</v>
       </c>
       <c r="Y11">
-        <v>15.4277</v>
+        <v>15.0776</v>
       </c>
       <c r="Z11">
-        <v>15.426</v>
+        <v>15.0752</v>
       </c>
       <c r="AA11">
-        <v>14.3374</v>
+        <v>14.4585</v>
       </c>
       <c r="AB11">
-        <v>12.737</v>
+        <v>13.0699</v>
       </c>
       <c r="AC11">
-        <v>14.1636</v>
+        <v>12.6344</v>
       </c>
       <c r="AD11">
-        <v>15.8362</v>
+        <v>15.5936</v>
       </c>
       <c r="AE11">
-        <v>15.8362</v>
+        <v>15.5936</v>
       </c>
       <c r="AF11">
-        <v>15.8362</v>
+        <v>15.5936</v>
       </c>
       <c r="AG11">
-        <v>0.683386</v>
+        <v>0.683903</v>
       </c>
       <c r="AH11">
-        <v>0.226156</v>
+        <v>0.222488</v>
       </c>
       <c r="AI11">
         <v>0.0204356</v>
       </c>
       <c r="AJ11">
-        <v>0.0538892</v>
+        <v>0.0553787</v>
       </c>
       <c r="AK11">
-        <v>0.0574387</v>
+        <v>0.0601754</v>
       </c>
       <c r="AL11">
-        <v>0.062031</v>
+        <v>0.0541258</v>
       </c>
       <c r="AM11">
-        <v>0.0325713</v>
+        <v>0.03258399999999999</v>
       </c>
       <c r="AN11">
-        <v>0.205937</v>
+        <v>0.202269</v>
       </c>
       <c r="AO11">
-        <v>880.019</v>
+        <v>880.1809999999999</v>
       </c>
       <c r="AP11">
-        <v>840.0540000000001</v>
+        <v>840.466</v>
       </c>
       <c r="AQ11">
-        <v>901.533</v>
+        <v>901.192</v>
       </c>
       <c r="AR11">
-        <v>764.027</v>
+        <v>763.23</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT11">
-        <v>729.777</v>
+        <v>729.867</v>
       </c>
       <c r="AU11">
-        <v>790.191</v>
+        <v>790.654</v>
       </c>
       <c r="AV11">
-        <v>751.133</v>
+        <v>750.9359999999999</v>
       </c>
       <c r="AW11">
-        <v>813.716</v>
+        <v>812.948</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>62</v>
@@ -2486,115 +2486,115 @@
         <v>75</v>
       </c>
       <c r="M12">
-        <v>49.8521</v>
+        <v>49.8851</v>
       </c>
       <c r="N12">
-        <v>11.9469</v>
+        <v>11.7746</v>
       </c>
       <c r="O12">
-        <v>12.8724</v>
+        <v>12.9686</v>
       </c>
       <c r="P12">
-        <v>34.8732</v>
+        <v>34.3859</v>
       </c>
       <c r="Q12">
-        <v>49.8518</v>
+        <v>49.8844</v>
       </c>
       <c r="R12">
-        <v>99.99940000000001</v>
+        <v>99.9986</v>
       </c>
       <c r="S12">
-        <v>34.8732</v>
+        <v>34.3859</v>
       </c>
       <c r="T12">
-        <v>34.7259</v>
+        <v>34.2661</v>
       </c>
       <c r="U12">
-        <v>12.364</v>
+        <v>12.4941</v>
       </c>
       <c r="V12">
-        <v>9.236130000000001</v>
+        <v>9.666840000000001</v>
       </c>
       <c r="W12">
-        <v>10.0728</v>
+        <v>9.14223</v>
       </c>
       <c r="X12">
-        <v>11.4292</v>
+        <v>11.1638</v>
       </c>
       <c r="Y12">
-        <v>11.4292</v>
+        <v>11.1638</v>
       </c>
       <c r="Z12">
-        <v>11.4322</v>
+        <v>11.1639</v>
       </c>
       <c r="AA12">
-        <v>12.8724</v>
+        <v>12.9686</v>
       </c>
       <c r="AB12">
-        <v>9.68642</v>
+        <v>9.930200000000001</v>
       </c>
       <c r="AC12">
-        <v>10.5184</v>
+        <v>9.379350000000001</v>
       </c>
       <c r="AD12">
-        <v>11.9469</v>
+        <v>11.7746</v>
       </c>
       <c r="AE12">
-        <v>11.9469</v>
+        <v>11.7746</v>
       </c>
       <c r="AF12">
-        <v>11.9469</v>
+        <v>11.7746</v>
       </c>
       <c r="AG12">
-        <v>0.8342270000000001</v>
+        <v>0.834836</v>
       </c>
       <c r="AH12">
-        <v>0.327021</v>
+        <v>0.32291</v>
       </c>
       <c r="AI12">
         <v>0.0684575</v>
       </c>
       <c r="AJ12">
-        <v>0.06897539999999999</v>
+        <v>0.0711445</v>
       </c>
       <c r="AK12">
-        <v>0.07188079999999999</v>
+        <v>0.0754783</v>
       </c>
       <c r="AL12">
-        <v>0.0775602</v>
+        <v>0.06768199999999999</v>
       </c>
       <c r="AM12">
-        <v>0.0401231</v>
+        <v>0.0401249</v>
       </c>
       <c r="AN12">
-        <v>0.25855</v>
+        <v>0.254439</v>
       </c>
       <c r="AO12">
-        <v>876.7569999999999</v>
+        <v>876.9399999999999</v>
       </c>
       <c r="AP12">
-        <v>834.046</v>
+        <v>834.3770000000001</v>
       </c>
       <c r="AQ12">
-        <v>891.8190000000001</v>
+        <v>891.61</v>
       </c>
       <c r="AR12">
-        <v>750.498</v>
+        <v>750.0120000000001</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT12">
-        <v>726.6719999999999</v>
+        <v>726.772</v>
       </c>
       <c r="AU12">
-        <v>784.1079999999999</v>
+        <v>784.492</v>
       </c>
       <c r="AV12">
-        <v>741.644</v>
+        <v>741.519</v>
       </c>
       <c r="AW12">
-        <v>800.3510000000001</v>
+        <v>799.8910000000001</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>62</v>
@@ -2638,115 +2638,115 @@
         <v>73</v>
       </c>
       <c r="M13">
-        <v>49.4365</v>
+        <v>49.4784</v>
       </c>
       <c r="N13">
-        <v>17.4045</v>
+        <v>17.1341</v>
       </c>
       <c r="O13">
-        <v>16.146</v>
+        <v>16.2575</v>
       </c>
       <c r="P13">
-        <v>45.9935</v>
+        <v>45.3141</v>
       </c>
       <c r="Q13">
-        <v>49.43620000000001</v>
+        <v>49.47940000000001</v>
       </c>
       <c r="R13">
-        <v>99.99930000000001</v>
+        <v>100.002</v>
       </c>
       <c r="S13">
-        <v>45.9935</v>
+        <v>45.3141</v>
       </c>
       <c r="T13">
-        <v>45.42910000000001</v>
+        <v>44.7902</v>
       </c>
       <c r="U13">
-        <v>15.1557</v>
+        <v>15.3714</v>
       </c>
       <c r="V13">
-        <v>13.1634</v>
+        <v>13.7978</v>
       </c>
       <c r="W13">
-        <v>14.4777</v>
+        <v>13.2122</v>
       </c>
       <c r="X13">
-        <v>16.146</v>
+        <v>15.7269</v>
       </c>
       <c r="Y13">
-        <v>16.146</v>
+        <v>15.7269</v>
       </c>
       <c r="Z13">
-        <v>16.142</v>
+        <v>15.7269</v>
       </c>
       <c r="AA13">
-        <v>16.09</v>
+        <v>16.2575</v>
       </c>
       <c r="AB13">
-        <v>13.9641</v>
+        <v>14.3907</v>
       </c>
       <c r="AC13">
-        <v>15.3943</v>
+        <v>13.7803</v>
       </c>
       <c r="AD13">
-        <v>17.4045</v>
+        <v>17.1341</v>
       </c>
       <c r="AE13">
-        <v>17.4045</v>
+        <v>17.1341</v>
       </c>
       <c r="AF13">
-        <v>17.4045</v>
+        <v>17.1341</v>
       </c>
       <c r="AG13">
-        <v>0.680431</v>
+        <v>0.6808340000000001</v>
       </c>
       <c r="AH13">
-        <v>0.258137</v>
+        <v>0.254953</v>
       </c>
       <c r="AI13">
-        <v>0.04715159999999999</v>
+        <v>0.0471527</v>
       </c>
       <c r="AJ13">
-        <v>0.0561487</v>
+        <v>0.0577732</v>
       </c>
       <c r="AK13">
-        <v>0.05888239999999999</v>
+        <v>0.061887</v>
       </c>
       <c r="AL13">
-        <v>0.0631983</v>
+        <v>0.05541479999999999</v>
       </c>
       <c r="AM13">
-        <v>0.0328851</v>
+        <v>0.0328572</v>
       </c>
       <c r="AN13">
-        <v>0.213042</v>
+        <v>0.209859</v>
       </c>
       <c r="AO13">
-        <v>878.248</v>
+        <v>878.426</v>
       </c>
       <c r="AP13">
-        <v>838.6660000000001</v>
+        <v>839.103</v>
       </c>
       <c r="AQ13">
-        <v>898.87</v>
+        <v>898.582</v>
       </c>
       <c r="AR13">
-        <v>761.617</v>
+        <v>760.939</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT13">
-        <v>729.0340000000001</v>
+        <v>729.1319999999999</v>
       </c>
       <c r="AU13">
-        <v>788.306</v>
+        <v>788.812</v>
       </c>
       <c r="AV13">
-        <v>749.6089999999999</v>
+        <v>749.4150000000001</v>
       </c>
       <c r="AW13">
-        <v>811.0540000000001</v>
+        <v>810.4150000000001</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>62</v>
@@ -2790,115 +2790,115 @@
         <v>75</v>
       </c>
       <c r="M14">
-        <v>49.5319</v>
+        <v>49.5652</v>
       </c>
       <c r="N14">
-        <v>13.6964</v>
+        <v>13.4907</v>
       </c>
       <c r="O14">
-        <v>14.4018</v>
+        <v>14.5466</v>
       </c>
       <c r="P14">
-        <v>35.2242</v>
+        <v>34.7734</v>
       </c>
       <c r="Q14">
-        <v>49.5304</v>
+        <v>49.5665</v>
       </c>
       <c r="R14">
-        <v>99.997</v>
+        <v>100.003</v>
       </c>
       <c r="S14">
-        <v>35.2242</v>
+        <v>34.7734</v>
       </c>
       <c r="T14">
-        <v>34.7543</v>
+        <v>34.3398</v>
       </c>
       <c r="U14">
-        <v>13.7548</v>
+        <v>13.9171</v>
       </c>
       <c r="V14">
-        <v>10.532</v>
+        <v>11.0707</v>
       </c>
       <c r="W14">
-        <v>11.2833</v>
+        <v>10.2954</v>
       </c>
       <c r="X14">
-        <v>12.6413</v>
+        <v>12.3318</v>
       </c>
       <c r="Y14">
-        <v>12.6413</v>
+        <v>12.3318</v>
       </c>
       <c r="Z14">
-        <v>12.6417</v>
+        <v>12.3322</v>
       </c>
       <c r="AA14">
-        <v>14.4018</v>
+        <v>14.5466</v>
       </c>
       <c r="AB14">
-        <v>11.1414</v>
+        <v>11.4966</v>
       </c>
       <c r="AC14">
-        <v>11.9697</v>
+        <v>10.705</v>
       </c>
       <c r="AD14">
-        <v>13.6964</v>
+        <v>13.4907</v>
       </c>
       <c r="AE14">
-        <v>13.6964</v>
+        <v>13.4907</v>
       </c>
       <c r="AF14">
-        <v>13.6964</v>
+        <v>13.4907</v>
       </c>
       <c r="AG14">
-        <v>0.831601</v>
+        <v>0.832063</v>
       </c>
       <c r="AH14">
-        <v>0.36649</v>
+        <v>0.362967</v>
       </c>
       <c r="AI14">
-        <v>0.0981863</v>
+        <v>0.09818729999999999</v>
       </c>
       <c r="AJ14">
-        <v>0.07375040000000001</v>
+        <v>0.07602779999999999</v>
       </c>
       <c r="AK14">
-        <v>0.0746655</v>
+        <v>0.0785642</v>
       </c>
       <c r="AL14">
-        <v>0.0793031</v>
+        <v>0.06968539999999999</v>
       </c>
       <c r="AM14">
-        <v>0.0406632</v>
+        <v>0.0405807</v>
       </c>
       <c r="AN14">
-        <v>0.270558</v>
+        <v>0.267035</v>
       </c>
       <c r="AO14">
-        <v>875.768</v>
+        <v>875.957</v>
       </c>
       <c r="AP14">
-        <v>833.908</v>
+        <v>834.277</v>
       </c>
       <c r="AQ14">
-        <v>891.264</v>
+        <v>891.082</v>
       </c>
       <c r="AR14">
-        <v>750.846</v>
+        <v>750.398</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT14">
-        <v>726.554</v>
+        <v>726.66</v>
       </c>
       <c r="AU14">
-        <v>783.485</v>
+        <v>783.9259999999999</v>
       </c>
       <c r="AV14">
-        <v>741.9640000000001</v>
+        <v>741.8330000000001</v>
       </c>
       <c r="AW14">
-        <v>800.379</v>
+        <v>799.965</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>62</v>
@@ -2942,115 +2942,115 @@
         <v>73</v>
       </c>
       <c r="M15">
-        <v>49.7032</v>
+        <v>49.7267</v>
       </c>
       <c r="N15">
-        <v>15.7446</v>
+        <v>15.4951</v>
       </c>
       <c r="O15">
-        <v>15.3524</v>
+        <v>14.9987</v>
       </c>
       <c r="P15">
-        <v>48.3394</v>
+        <v>47.5478</v>
       </c>
       <c r="Q15">
-        <v>49.7032</v>
+        <v>49.7274</v>
       </c>
       <c r="R15">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S15">
-        <v>48.3394</v>
+        <v>47.5478</v>
       </c>
       <c r="T15">
-        <v>48.03720000000001</v>
+        <v>47.2775</v>
       </c>
       <c r="U15">
-        <v>13.7959</v>
+        <v>13.9779</v>
       </c>
       <c r="V15">
-        <v>12.2754</v>
+        <v>12.8132</v>
       </c>
       <c r="W15">
-        <v>13.721</v>
+        <v>12.4201</v>
       </c>
       <c r="X15">
-        <v>15.3524</v>
+        <v>14.9987</v>
       </c>
       <c r="Y15">
-        <v>15.3524</v>
+        <v>14.9987</v>
       </c>
       <c r="Z15">
-        <v>15.3561</v>
+        <v>14.9985</v>
       </c>
       <c r="AA15">
-        <v>14.339</v>
+        <v>14.4606</v>
       </c>
       <c r="AB15">
-        <v>12.7347</v>
+        <v>13.0726</v>
       </c>
       <c r="AC15">
-        <v>14.165</v>
+        <v>12.6315</v>
       </c>
       <c r="AD15">
-        <v>15.7446</v>
+        <v>15.4951</v>
       </c>
       <c r="AE15">
-        <v>15.7446</v>
+        <v>15.4951</v>
       </c>
       <c r="AF15">
-        <v>15.7446</v>
+        <v>15.4951</v>
       </c>
       <c r="AG15">
-        <v>0.683426</v>
+        <v>0.683976</v>
       </c>
       <c r="AH15">
-        <v>0.225928</v>
+        <v>0.222258</v>
       </c>
       <c r="AI15">
         <v>0.0204356</v>
       </c>
       <c r="AJ15">
-        <v>0.0538895</v>
+        <v>0.0553759</v>
       </c>
       <c r="AK15">
-        <v>0.057437</v>
+        <v>0.0601756</v>
       </c>
       <c r="AL15">
-        <v>0.0620349</v>
+        <v>0.0541285</v>
       </c>
       <c r="AM15">
-        <v>0.0323406</v>
+        <v>0.032353</v>
       </c>
       <c r="AN15">
-        <v>0.205708</v>
+        <v>0.202038</v>
       </c>
       <c r="AO15">
-        <v>880.0210000000001</v>
+        <v>880.183</v>
       </c>
       <c r="AP15">
-        <v>840.0549999999999</v>
+        <v>840.4649999999999</v>
       </c>
       <c r="AQ15">
-        <v>901.534</v>
+        <v>901.192</v>
       </c>
       <c r="AR15">
-        <v>763.972</v>
+        <v>763.1709999999999</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT15">
-        <v>729.777</v>
+        <v>729.8679999999999</v>
       </c>
       <c r="AU15">
-        <v>790.192</v>
+        <v>790.6560000000001</v>
       </c>
       <c r="AV15">
-        <v>751.1360000000001</v>
+        <v>750.938</v>
       </c>
       <c r="AW15">
-        <v>813.662</v>
+        <v>812.903</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>62</v>
@@ -3094,115 +3094,115 @@
         <v>75</v>
       </c>
       <c r="M16">
-        <v>49.8628</v>
+        <v>49.8915</v>
       </c>
       <c r="N16">
-        <v>11.8758</v>
+        <v>11.7008</v>
       </c>
       <c r="O16">
-        <v>12.8854</v>
+        <v>12.973</v>
       </c>
       <c r="P16">
-        <v>34.8209</v>
+        <v>34.3335</v>
       </c>
       <c r="Q16">
-        <v>49.8633</v>
+        <v>49.89409999999999</v>
       </c>
       <c r="R16">
-        <v>100.001</v>
+        <v>100.005</v>
       </c>
       <c r="S16">
-        <v>34.8209</v>
+        <v>34.3335</v>
       </c>
       <c r="T16">
-        <v>34.68450000000001</v>
+        <v>34.2262</v>
       </c>
       <c r="U16">
-        <v>12.3594</v>
+        <v>12.4823</v>
       </c>
       <c r="V16">
-        <v>9.23789</v>
+        <v>9.667159999999999</v>
       </c>
       <c r="W16">
-        <v>10.0745</v>
+        <v>9.14245</v>
       </c>
       <c r="X16">
-        <v>11.3815</v>
+        <v>11.1138</v>
       </c>
       <c r="Y16">
-        <v>11.3815</v>
+        <v>11.1138</v>
       </c>
       <c r="Z16">
-        <v>11.3812</v>
+        <v>11.1146</v>
       </c>
       <c r="AA16">
-        <v>12.8854</v>
+        <v>12.973</v>
       </c>
       <c r="AB16">
-        <v>9.68393</v>
+        <v>9.931980000000001</v>
       </c>
       <c r="AC16">
-        <v>10.5193</v>
+        <v>9.380450000000002</v>
       </c>
       <c r="AD16">
-        <v>11.8758</v>
+        <v>11.7008</v>
       </c>
       <c r="AE16">
-        <v>11.8758</v>
+        <v>11.7008</v>
       </c>
       <c r="AF16">
-        <v>11.8758</v>
+        <v>11.7008</v>
       </c>
       <c r="AG16">
-        <v>0.834301</v>
+        <v>0.83486</v>
       </c>
       <c r="AH16">
-        <v>0.326718</v>
+        <v>0.322634</v>
       </c>
       <c r="AI16">
-        <v>0.06845759999999999</v>
+        <v>0.0684575</v>
       </c>
       <c r="AJ16">
-        <v>0.0689636</v>
+        <v>0.07115909999999999</v>
       </c>
       <c r="AK16">
-        <v>0.07187060000000001</v>
+        <v>0.0754779</v>
       </c>
       <c r="AL16">
-        <v>0.0775656</v>
+        <v>0.0676822</v>
       </c>
       <c r="AM16">
-        <v>0.0398352</v>
+        <v>0.03983399999999999</v>
       </c>
       <c r="AN16">
-        <v>0.258246</v>
+        <v>0.254162</v>
       </c>
       <c r="AO16">
-        <v>876.759</v>
+        <v>876.939</v>
       </c>
       <c r="AP16">
-        <v>834.044</v>
+        <v>834.374</v>
       </c>
       <c r="AQ16">
-        <v>891.821</v>
+        <v>891.609</v>
       </c>
       <c r="AR16">
-        <v>750.448</v>
+        <v>749.9580000000001</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT16">
-        <v>726.673</v>
+        <v>726.772</v>
       </c>
       <c r="AU16">
-        <v>784.1079999999999</v>
+        <v>784.494</v>
       </c>
       <c r="AV16">
-        <v>741.644</v>
+        <v>741.5160000000001</v>
       </c>
       <c r="AW16">
-        <v>800.3100000000001</v>
+        <v>799.851</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>62</v>
@@ -3246,115 +3246,115 @@
         <v>73</v>
       </c>
       <c r="M17">
-        <v>49.441</v>
+        <v>49.4809</v>
       </c>
       <c r="N17">
-        <v>17.3002</v>
+        <v>17.0303</v>
       </c>
       <c r="O17">
-        <v>16.0955</v>
+        <v>16.2571</v>
       </c>
       <c r="P17">
-        <v>45.9303</v>
+        <v>45.2513</v>
       </c>
       <c r="Q17">
-        <v>49.44090000000001</v>
+        <v>49.4819</v>
       </c>
       <c r="R17">
-        <v>99.9996</v>
+        <v>100.002</v>
       </c>
       <c r="S17">
-        <v>45.9303</v>
+        <v>45.2513</v>
       </c>
       <c r="T17">
-        <v>45.37260000000001</v>
+        <v>44.7354</v>
       </c>
       <c r="U17">
-        <v>15.1508</v>
+        <v>15.3748</v>
       </c>
       <c r="V17">
-        <v>13.1706</v>
+        <v>13.8041</v>
       </c>
       <c r="W17">
-        <v>14.4805</v>
+        <v>13.2132</v>
       </c>
       <c r="X17">
-        <v>16.0703</v>
+        <v>15.6567</v>
       </c>
       <c r="Y17">
-        <v>16.0703</v>
+        <v>15.6567</v>
       </c>
       <c r="Z17">
-        <v>16.074</v>
+        <v>15.657</v>
       </c>
       <c r="AA17">
-        <v>16.0955</v>
+        <v>16.2571</v>
       </c>
       <c r="AB17">
-        <v>13.9711</v>
+        <v>14.3931</v>
       </c>
       <c r="AC17">
-        <v>15.3929</v>
+        <v>13.7821</v>
       </c>
       <c r="AD17">
-        <v>17.3002</v>
+        <v>17.0303</v>
       </c>
       <c r="AE17">
-        <v>17.3002</v>
+        <v>17.0303</v>
       </c>
       <c r="AF17">
-        <v>17.3002</v>
+        <v>17.0303</v>
       </c>
       <c r="AG17">
-        <v>0.680493</v>
+        <v>0.680872</v>
       </c>
       <c r="AH17">
-        <v>0.257912</v>
+        <v>0.254717</v>
       </c>
       <c r="AI17">
-        <v>0.04715159999999999</v>
+        <v>0.0471527</v>
       </c>
       <c r="AJ17">
-        <v>0.0561489</v>
+        <v>0.05777359999999999</v>
       </c>
       <c r="AK17">
-        <v>0.0588864</v>
+        <v>0.0618804</v>
       </c>
       <c r="AL17">
-        <v>0.06319889999999999</v>
+        <v>0.0554146</v>
       </c>
       <c r="AM17">
-        <v>0.0326557</v>
+        <v>0.032627</v>
       </c>
       <c r="AN17">
-        <v>0.212818</v>
+        <v>0.209623</v>
       </c>
       <c r="AO17">
-        <v>878.249</v>
+        <v>878.427</v>
       </c>
       <c r="AP17">
-        <v>838.6610000000001</v>
+        <v>839.103</v>
       </c>
       <c r="AQ17">
-        <v>898.867</v>
+        <v>898.581</v>
       </c>
       <c r="AR17">
-        <v>761.5549999999999</v>
+        <v>760.875</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT17">
-        <v>729.0340000000001</v>
+        <v>729.14</v>
       </c>
       <c r="AU17">
-        <v>788.307</v>
+        <v>788.811</v>
       </c>
       <c r="AV17">
-        <v>749.61</v>
+        <v>749.4110000000001</v>
       </c>
       <c r="AW17">
-        <v>810.9979999999999</v>
+        <v>810.36</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>62</v>
@@ -3398,115 +3398,115 @@
         <v>75</v>
       </c>
       <c r="M18">
-        <v>49.5351</v>
+        <v>49.5654</v>
       </c>
       <c r="N18">
-        <v>13.6176</v>
+        <v>13.4141</v>
       </c>
       <c r="O18">
-        <v>14.4045</v>
+        <v>14.5524</v>
       </c>
       <c r="P18">
-        <v>35.1696</v>
+        <v>34.7236</v>
       </c>
       <c r="Q18">
-        <v>49.5346</v>
+        <v>49.5661</v>
       </c>
       <c r="R18">
-        <v>99.9991</v>
+        <v>100.001</v>
       </c>
       <c r="S18">
-        <v>35.1696</v>
+        <v>34.7236</v>
       </c>
       <c r="T18">
-        <v>34.7079</v>
+        <v>34.2892</v>
       </c>
       <c r="U18">
-        <v>13.7528</v>
+        <v>13.9223</v>
       </c>
       <c r="V18">
-        <v>10.5276</v>
+        <v>11.0709</v>
       </c>
       <c r="W18">
-        <v>11.2827</v>
+        <v>10.2947</v>
       </c>
       <c r="X18">
-        <v>12.5876</v>
+        <v>12.2797</v>
       </c>
       <c r="Y18">
-        <v>12.5876</v>
+        <v>12.2797</v>
       </c>
       <c r="Z18">
-        <v>12.5951</v>
+        <v>12.2791</v>
       </c>
       <c r="AA18">
-        <v>14.4045</v>
+        <v>14.5524</v>
       </c>
       <c r="AB18">
-        <v>11.1373</v>
+        <v>11.4921</v>
       </c>
       <c r="AC18">
-        <v>11.9709</v>
+        <v>10.7049</v>
       </c>
       <c r="AD18">
-        <v>13.6176</v>
+        <v>13.4141</v>
       </c>
       <c r="AE18">
-        <v>13.6176</v>
+        <v>13.4141</v>
       </c>
       <c r="AF18">
-        <v>13.6176</v>
+        <v>13.4141</v>
       </c>
       <c r="AG18">
-        <v>0.831643</v>
+        <v>0.83209</v>
       </c>
       <c r="AH18">
-        <v>0.366212</v>
+        <v>0.362676</v>
       </c>
       <c r="AI18">
-        <v>0.0981863</v>
+        <v>0.09818729999999999</v>
       </c>
       <c r="AJ18">
-        <v>0.0737433</v>
+        <v>0.0760202</v>
       </c>
       <c r="AK18">
-        <v>0.0746594</v>
+        <v>0.0785568</v>
       </c>
       <c r="AL18">
-        <v>0.0793112</v>
+        <v>0.0696832</v>
       </c>
       <c r="AM18">
-        <v>0.04039</v>
+        <v>0.0403076</v>
       </c>
       <c r="AN18">
-        <v>0.27028</v>
+        <v>0.266744</v>
       </c>
       <c r="AO18">
-        <v>875.768</v>
+        <v>875.955</v>
       </c>
       <c r="AP18">
-        <v>833.9050000000001</v>
+        <v>834.279</v>
       </c>
       <c r="AQ18">
-        <v>891.2620000000001</v>
+        <v>891.081</v>
       </c>
       <c r="AR18">
-        <v>750.794</v>
+        <v>750.345</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT18">
-        <v>726.552</v>
+        <v>726.658</v>
       </c>
       <c r="AU18">
-        <v>783.49</v>
+        <v>783.925</v>
       </c>
       <c r="AV18">
-        <v>741.9640000000001</v>
+        <v>741.832</v>
       </c>
       <c r="AW18">
-        <v>800.333</v>
+        <v>799.914</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>62</v>
@@ -3550,115 +3550,115 @@
         <v>73</v>
       </c>
       <c r="M19">
-        <v>52.2738</v>
+        <v>52.0117</v>
       </c>
       <c r="N19">
-        <v>13.5258</v>
+        <v>13.3784</v>
       </c>
       <c r="O19">
-        <v>13.7826</v>
+        <v>13.986</v>
       </c>
       <c r="P19">
-        <v>36.6763</v>
+        <v>36.0615</v>
       </c>
       <c r="Q19">
-        <v>52.2738</v>
+        <v>52.0113</v>
       </c>
       <c r="R19">
-        <v>99.9999</v>
+        <v>99.9992</v>
       </c>
       <c r="S19">
-        <v>34.4022</v>
+        <v>34.0519</v>
       </c>
       <c r="T19">
-        <v>36.6763</v>
+        <v>36.0615</v>
       </c>
       <c r="U19">
-        <v>13.7826</v>
+        <v>13.986</v>
       </c>
       <c r="V19">
-        <v>11.5137</v>
+        <v>12.3135</v>
       </c>
       <c r="W19">
-        <v>12.2613</v>
+        <v>10.9456</v>
       </c>
       <c r="X19">
-        <v>13.5188</v>
+        <v>13.378</v>
       </c>
       <c r="Y19">
-        <v>13.5188</v>
+        <v>13.378</v>
       </c>
       <c r="Z19">
-        <v>13.5258</v>
+        <v>13.3784</v>
       </c>
       <c r="AA19">
-        <v>12.7185</v>
+        <v>12.8105</v>
       </c>
       <c r="AB19">
-        <v>8.483369999999999</v>
+        <v>8.682739999999999</v>
       </c>
       <c r="AC19">
-        <v>9.115920000000001</v>
+        <v>8.302470000000001</v>
       </c>
       <c r="AD19">
-        <v>11.1241</v>
+        <v>10.8213</v>
       </c>
       <c r="AE19">
-        <v>11.1241</v>
+        <v>10.8213</v>
       </c>
       <c r="AF19">
-        <v>11.1241</v>
+        <v>10.8213</v>
       </c>
       <c r="AG19">
-        <v>0.682274</v>
+        <v>0.682739</v>
       </c>
       <c r="AH19">
-        <v>0.276051</v>
+        <v>0.272665</v>
       </c>
       <c r="AI19">
-        <v>0.06196400000000001</v>
+        <v>0.06196409999999999</v>
       </c>
       <c r="AJ19">
-        <v>0.0573223</v>
+        <v>0.0590854</v>
       </c>
       <c r="AK19">
-        <v>0.0599812</v>
+        <v>0.0629358</v>
       </c>
       <c r="AL19">
-        <v>0.0641259</v>
+        <v>0.0560297</v>
       </c>
       <c r="AM19">
-        <v>0.0328701</v>
+        <v>0.0328636</v>
       </c>
       <c r="AN19">
-        <v>0.21445</v>
+        <v>0.211063</v>
       </c>
       <c r="AO19">
-        <v>879.6129999999999</v>
+        <v>879.793</v>
       </c>
       <c r="AP19">
-        <v>833.489</v>
+        <v>833.8820000000001</v>
       </c>
       <c r="AQ19">
-        <v>894.6160000000001</v>
+        <v>894.25</v>
       </c>
       <c r="AR19">
-        <v>750.028</v>
+        <v>749.677</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT19">
-        <v>724.253</v>
+        <v>724.3570000000001</v>
       </c>
       <c r="AU19">
-        <v>785.378</v>
+        <v>785.747</v>
       </c>
       <c r="AV19">
-        <v>739.728</v>
+        <v>739.696</v>
       </c>
       <c r="AW19">
-        <v>802.301</v>
+        <v>801.686</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>62</v>
@@ -3702,115 +3702,115 @@
         <v>75</v>
       </c>
       <c r="M20">
-        <v>52.3149</v>
+        <v>52.2063</v>
       </c>
       <c r="N20">
-        <v>10.2771</v>
+        <v>10.1433</v>
       </c>
       <c r="O20">
-        <v>12.2642</v>
+        <v>12.459</v>
       </c>
       <c r="P20">
-        <v>28.4346</v>
+        <v>28.0651</v>
       </c>
       <c r="Q20">
-        <v>52.3149</v>
+        <v>52.2056</v>
       </c>
       <c r="R20">
-        <v>100</v>
+        <v>99.9987</v>
       </c>
       <c r="S20">
-        <v>26.1183</v>
+        <v>25.8673</v>
       </c>
       <c r="T20">
-        <v>28.4346</v>
+        <v>28.0651</v>
       </c>
       <c r="U20">
-        <v>12.2642</v>
+        <v>12.459</v>
       </c>
       <c r="V20">
-        <v>8.92658</v>
+        <v>9.554790000000001</v>
       </c>
       <c r="W20">
-        <v>9.208580000000001</v>
+        <v>8.259960000000001</v>
       </c>
       <c r="X20">
-        <v>10.2751</v>
+        <v>10.1459</v>
       </c>
       <c r="Y20">
-        <v>10.2751</v>
+        <v>10.1459</v>
       </c>
       <c r="Z20">
-        <v>10.2771</v>
+        <v>10.1433</v>
       </c>
       <c r="AA20">
-        <v>11.8477</v>
+        <v>11.9395</v>
       </c>
       <c r="AB20">
-        <v>7.30192</v>
+        <v>7.45864</v>
       </c>
       <c r="AC20">
-        <v>7.47186</v>
+        <v>6.767580000000001</v>
       </c>
       <c r="AD20">
-        <v>9.10787</v>
+        <v>8.89625</v>
       </c>
       <c r="AE20">
-        <v>9.10787</v>
+        <v>8.89625</v>
       </c>
       <c r="AF20">
-        <v>9.10787</v>
+        <v>8.89625</v>
       </c>
       <c r="AG20">
-        <v>0.833083</v>
+        <v>0.833589</v>
       </c>
       <c r="AH20">
-        <v>0.41387</v>
+        <v>0.410094</v>
       </c>
       <c r="AI20">
         <v>0.13906</v>
       </c>
       <c r="AJ20">
-        <v>0.0769941</v>
+        <v>0.0793441</v>
       </c>
       <c r="AK20">
-        <v>0.0766681</v>
+        <v>0.0805767</v>
       </c>
       <c r="AL20">
-        <v>0.0805497</v>
+        <v>0.07058499999999999</v>
       </c>
       <c r="AM20">
-        <v>0.0406628</v>
+        <v>0.0405935</v>
       </c>
       <c r="AN20">
-        <v>0.275069</v>
+        <v>0.271293</v>
       </c>
       <c r="AO20">
-        <v>876.812</v>
+        <v>876.9979999999999</v>
       </c>
       <c r="AP20">
-        <v>829.409</v>
+        <v>829.7430000000001</v>
       </c>
       <c r="AQ20">
-        <v>888.1080000000001</v>
+        <v>887.899</v>
       </c>
       <c r="AR20">
-        <v>741.7430000000001</v>
+        <v>741.491</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT20">
-        <v>722.424</v>
+        <v>722.523</v>
       </c>
       <c r="AU20">
-        <v>781.388</v>
+        <v>781.7180000000001</v>
       </c>
       <c r="AV20">
-        <v>734.1990000000001</v>
+        <v>734.1790000000001</v>
       </c>
       <c r="AW20">
-        <v>794.0600000000001</v>
+        <v>793.6899999999999</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>62</v>
@@ -3854,115 +3854,115 @@
         <v>73</v>
       </c>
       <c r="M21">
-        <v>51.7641</v>
+        <v>51.6069</v>
       </c>
       <c r="N21">
-        <v>14.2074</v>
+        <v>14.0141</v>
       </c>
       <c r="O21">
-        <v>15.2497</v>
+        <v>15.5309</v>
       </c>
       <c r="P21">
-        <v>35.4219</v>
+        <v>34.9362</v>
       </c>
       <c r="Q21">
-        <v>51.7655</v>
+        <v>51.60740000000001</v>
       </c>
       <c r="R21">
-        <v>100.003</v>
+        <v>100.001</v>
       </c>
       <c r="S21">
-        <v>33.6553</v>
+        <v>33.3278</v>
       </c>
       <c r="T21">
-        <v>35.4219</v>
+        <v>34.9362</v>
       </c>
       <c r="U21">
-        <v>15.2497</v>
+        <v>15.5309</v>
       </c>
       <c r="V21">
-        <v>12.6321</v>
+        <v>13.5776</v>
       </c>
       <c r="W21">
-        <v>13.0317</v>
+        <v>11.7281</v>
       </c>
       <c r="X21">
-        <v>14.224</v>
+        <v>14.017</v>
       </c>
       <c r="Y21">
-        <v>14.224</v>
+        <v>14.017</v>
       </c>
       <c r="Z21">
-        <v>14.2074</v>
+        <v>14.0141</v>
       </c>
       <c r="AA21">
-        <v>14.343</v>
+        <v>14.4636</v>
       </c>
       <c r="AB21">
-        <v>9.90713</v>
+        <v>10.1583</v>
       </c>
       <c r="AC21">
-        <v>10.4651</v>
+        <v>9.545059999999999</v>
       </c>
       <c r="AD21">
-        <v>12.6402</v>
+        <v>12.3237</v>
       </c>
       <c r="AE21">
-        <v>12.6402</v>
+        <v>12.3237</v>
       </c>
       <c r="AF21">
-        <v>12.6402</v>
+        <v>12.3237</v>
       </c>
       <c r="AG21">
-        <v>0.679238</v>
+        <v>0.679562</v>
       </c>
       <c r="AH21">
-        <v>0.338169</v>
+        <v>0.335508</v>
       </c>
       <c r="AI21">
-        <v>0.111895</v>
+        <v>0.111918</v>
       </c>
       <c r="AJ21">
-        <v>0.06313390000000001</v>
+        <v>0.0650034</v>
       </c>
       <c r="AK21">
-        <v>0.06423760000000001</v>
+        <v>0.0675231</v>
       </c>
       <c r="AL21">
-        <v>0.0669242</v>
+        <v>0.0592005</v>
       </c>
       <c r="AM21">
-        <v>0.0336287</v>
+        <v>0.0335365</v>
       </c>
       <c r="AN21">
-        <v>0.245311</v>
+        <v>0.242651</v>
       </c>
       <c r="AO21">
-        <v>878.3009999999999</v>
+        <v>878.4920000000001</v>
       </c>
       <c r="AP21">
-        <v>832.8969999999999</v>
+        <v>833.3390000000001</v>
       </c>
       <c r="AQ21">
-        <v>893.178</v>
+        <v>892.8869999999999</v>
       </c>
       <c r="AR21">
-        <v>749.283</v>
+        <v>748.953</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT21">
-        <v>723.88</v>
+        <v>723.9930000000001</v>
       </c>
       <c r="AU21">
-        <v>784.1079999999999</v>
+        <v>784.518</v>
       </c>
       <c r="AV21">
-        <v>739.245</v>
+        <v>739.2180000000001</v>
       </c>
       <c r="AW21">
-        <v>801.047</v>
+        <v>800.561</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>62</v>
@@ -4006,115 +4006,115 @@
         <v>75</v>
       </c>
       <c r="M22">
-        <v>51.7609</v>
+        <v>51.6871</v>
       </c>
       <c r="N22">
-        <v>11.4248</v>
+        <v>11.2495</v>
       </c>
       <c r="O22">
-        <v>13.935</v>
+        <v>14.1688</v>
       </c>
       <c r="P22">
-        <v>28.9414</v>
+        <v>28.6211</v>
       </c>
       <c r="Q22">
-        <v>51.7642</v>
+        <v>51.6874</v>
       </c>
       <c r="R22">
-        <v>100.006</v>
+        <v>100.001</v>
       </c>
       <c r="S22">
-        <v>27.1764</v>
+        <v>26.9338</v>
       </c>
       <c r="T22">
-        <v>28.9414</v>
+        <v>28.6211</v>
       </c>
       <c r="U22">
-        <v>13.935</v>
+        <v>14.1688</v>
       </c>
       <c r="V22">
-        <v>10.3256</v>
+        <v>11.0976</v>
       </c>
       <c r="W22">
-        <v>10.3772</v>
+        <v>9.38584</v>
       </c>
       <c r="X22">
-        <v>11.4211</v>
+        <v>11.2486</v>
       </c>
       <c r="Y22">
-        <v>11.4211</v>
+        <v>11.2486</v>
       </c>
       <c r="Z22">
-        <v>11.4248</v>
+        <v>11.2495</v>
       </c>
       <c r="AA22">
-        <v>13.4791</v>
+        <v>13.6114</v>
       </c>
       <c r="AB22">
-        <v>8.687710000000001</v>
+        <v>8.904400000000001</v>
       </c>
       <c r="AC22">
-        <v>8.806889999999999</v>
+        <v>8.00324</v>
       </c>
       <c r="AD22">
-        <v>10.6783</v>
+        <v>10.4223</v>
       </c>
       <c r="AE22">
-        <v>10.6783</v>
+        <v>10.4223</v>
       </c>
       <c r="AF22">
-        <v>10.6783</v>
+        <v>10.4223</v>
       </c>
       <c r="AG22">
-        <v>0.8300070000000001</v>
+        <v>0.830339</v>
       </c>
       <c r="AH22">
-        <v>0.479016</v>
+        <v>0.47607</v>
       </c>
       <c r="AI22">
-        <v>0.185379</v>
+        <v>0.185403</v>
       </c>
       <c r="AJ22">
-        <v>0.08630249999999999</v>
+        <v>0.0886942</v>
       </c>
       <c r="AK22">
-        <v>0.08294299999999999</v>
+        <v>0.08718669999999999</v>
       </c>
       <c r="AL22">
-        <v>0.0843275</v>
+        <v>0.0748899</v>
       </c>
       <c r="AM22">
-        <v>0.041825</v>
+        <v>0.0416805</v>
       </c>
       <c r="AN22">
-        <v>0.314669</v>
+        <v>0.311722</v>
       </c>
       <c r="AO22">
-        <v>876.24</v>
+        <v>876.4250000000001</v>
       </c>
       <c r="AP22">
-        <v>829.813</v>
+        <v>830.1940000000001</v>
       </c>
       <c r="AQ22">
-        <v>888.1170000000001</v>
+        <v>887.941</v>
       </c>
       <c r="AR22">
-        <v>742.807</v>
+        <v>742.558</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT22">
-        <v>722.653</v>
+        <v>722.755</v>
       </c>
       <c r="AU22">
-        <v>781.085</v>
+        <v>781.4590000000001</v>
       </c>
       <c r="AV22">
-        <v>734.995</v>
+        <v>734.9789999999999</v>
       </c>
       <c r="AW22">
-        <v>794.566</v>
+        <v>794.246</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>62</v>
@@ -4158,115 +4158,115 @@
         <v>73</v>
       </c>
       <c r="M23">
-        <v>52.2869</v>
+        <v>52.0256</v>
       </c>
       <c r="N23">
-        <v>13.4509</v>
+        <v>13.3125</v>
       </c>
       <c r="O23">
-        <v>13.782</v>
+        <v>13.9876</v>
       </c>
       <c r="P23">
-        <v>36.6351</v>
+        <v>36.0244</v>
       </c>
       <c r="Q23">
-        <v>52.2869</v>
+        <v>52.0261</v>
       </c>
       <c r="R23">
-        <v>99.9999</v>
+        <v>100.001</v>
       </c>
       <c r="S23">
-        <v>34.3482</v>
+        <v>33.9974</v>
       </c>
       <c r="T23">
-        <v>36.6351</v>
+        <v>36.0244</v>
       </c>
       <c r="U23">
-        <v>13.782</v>
+        <v>13.9876</v>
       </c>
       <c r="V23">
-        <v>11.5131</v>
+        <v>12.3104</v>
       </c>
       <c r="W23">
-        <v>12.2618</v>
+        <v>10.9573</v>
       </c>
       <c r="X23">
-        <v>13.4515</v>
+        <v>13.3079</v>
       </c>
       <c r="Y23">
-        <v>13.4515</v>
+        <v>13.3079</v>
       </c>
       <c r="Z23">
-        <v>13.4509</v>
+        <v>13.3125</v>
       </c>
       <c r="AA23">
-        <v>12.716</v>
+        <v>12.8087</v>
       </c>
       <c r="AB23">
-        <v>8.48381</v>
+        <v>8.679160000000001</v>
       </c>
       <c r="AC23">
-        <v>9.115690000000001</v>
+        <v>8.301459999999999</v>
       </c>
       <c r="AD23">
-        <v>11.0577</v>
+        <v>10.7556</v>
       </c>
       <c r="AE23">
-        <v>11.0577</v>
+        <v>10.7556</v>
       </c>
       <c r="AF23">
-        <v>11.0577</v>
+        <v>10.7556</v>
       </c>
       <c r="AG23">
-        <v>0.68227</v>
+        <v>0.6827839999999999</v>
       </c>
       <c r="AH23">
-        <v>0.275805</v>
+        <v>0.272425</v>
       </c>
       <c r="AI23">
-        <v>0.06196400000000001</v>
+        <v>0.06196409999999999</v>
       </c>
       <c r="AJ23">
-        <v>0.0573213</v>
+        <v>0.05908339999999999</v>
       </c>
       <c r="AK23">
-        <v>0.0599751</v>
+        <v>0.06293119999999999</v>
       </c>
       <c r="AL23">
-        <v>0.064128</v>
+        <v>0.0560301</v>
       </c>
       <c r="AM23">
-        <v>0.03262959999999999</v>
+        <v>0.03262979999999999</v>
       </c>
       <c r="AN23">
-        <v>0.214204</v>
+        <v>0.210824</v>
       </c>
       <c r="AO23">
-        <v>879.6110000000001</v>
+        <v>879.7910000000001</v>
       </c>
       <c r="AP23">
-        <v>833.49</v>
+        <v>833.883</v>
       </c>
       <c r="AQ23">
-        <v>894.6130000000001</v>
+        <v>894.2450000000001</v>
       </c>
       <c r="AR23">
-        <v>749.973</v>
+        <v>749.6229999999999</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT23">
-        <v>724.253</v>
+        <v>724.36</v>
       </c>
       <c r="AU23">
-        <v>785.375</v>
+        <v>785.748</v>
       </c>
       <c r="AV23">
-        <v>739.729</v>
+        <v>739.696</v>
       </c>
       <c r="AW23">
-        <v>802.26</v>
+        <v>801.649</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>62</v>
@@ -4310,115 +4310,115 @@
         <v>75</v>
       </c>
       <c r="M24">
-        <v>52.3278</v>
+        <v>52.2125</v>
       </c>
       <c r="N24">
-        <v>10.2311</v>
+        <v>10.098</v>
       </c>
       <c r="O24">
-        <v>12.2774</v>
+        <v>12.4573</v>
       </c>
       <c r="P24">
-        <v>28.3962</v>
+        <v>28.0336</v>
       </c>
       <c r="Q24">
-        <v>52.3265</v>
+        <v>52.2119</v>
       </c>
       <c r="R24">
-        <v>99.9974</v>
+        <v>99.9988</v>
       </c>
       <c r="S24">
-        <v>26.0722</v>
+        <v>25.8225</v>
       </c>
       <c r="T24">
-        <v>28.3962</v>
+        <v>28.0336</v>
       </c>
       <c r="U24">
-        <v>12.2774</v>
+        <v>12.4573</v>
       </c>
       <c r="V24">
-        <v>8.921000000000001</v>
+        <v>9.555300000000001</v>
       </c>
       <c r="W24">
-        <v>9.20865</v>
+        <v>8.26172</v>
       </c>
       <c r="X24">
-        <v>10.229</v>
+        <v>10.0947</v>
       </c>
       <c r="Y24">
-        <v>10.229</v>
+        <v>10.0947</v>
       </c>
       <c r="Z24">
-        <v>10.2311</v>
+        <v>10.098</v>
       </c>
       <c r="AA24">
-        <v>11.835</v>
+        <v>11.9372</v>
       </c>
       <c r="AB24">
-        <v>7.3078</v>
+        <v>7.45978</v>
       </c>
       <c r="AC24">
-        <v>7.47001</v>
+        <v>6.76865</v>
       </c>
       <c r="AD24">
-        <v>9.06066</v>
+        <v>8.84436</v>
       </c>
       <c r="AE24">
-        <v>9.06066</v>
+        <v>8.84436</v>
       </c>
       <c r="AF24">
-        <v>9.06066</v>
+        <v>8.84436</v>
       </c>
       <c r="AG24">
-        <v>0.833113</v>
+        <v>0.833632</v>
       </c>
       <c r="AH24">
-        <v>0.413576</v>
+        <v>0.4098</v>
       </c>
       <c r="AI24">
         <v>0.13906</v>
       </c>
       <c r="AJ24">
-        <v>0.0769899</v>
+        <v>0.07933879999999999</v>
       </c>
       <c r="AK24">
-        <v>0.0766643</v>
+        <v>0.080577</v>
       </c>
       <c r="AL24">
-        <v>0.0805496</v>
+        <v>0.07058399999999999</v>
       </c>
       <c r="AM24">
-        <v>0.040377</v>
+        <v>0.0403055</v>
       </c>
       <c r="AN24">
-        <v>0.274775</v>
+        <v>0.270999</v>
       </c>
       <c r="AO24">
-        <v>876.812</v>
+        <v>876.9930000000001</v>
       </c>
       <c r="AP24">
-        <v>829.408</v>
+        <v>829.7430000000001</v>
       </c>
       <c r="AQ24">
-        <v>888.109</v>
+        <v>887.895</v>
       </c>
       <c r="AR24">
-        <v>741.6950000000001</v>
+        <v>741.4480000000001</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT24">
-        <v>722.424</v>
+        <v>722.524</v>
       </c>
       <c r="AU24">
-        <v>781.385</v>
+        <v>781.722</v>
       </c>
       <c r="AV24">
-        <v>734.197</v>
+        <v>734.1800000000001</v>
       </c>
       <c r="AW24">
-        <v>794.0210000000001</v>
+        <v>793.659</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>62</v>
@@ -4462,115 +4462,115 @@
         <v>73</v>
       </c>
       <c r="M25">
-        <v>51.7761</v>
+        <v>51.6256</v>
       </c>
       <c r="N25">
-        <v>14.1496</v>
+        <v>13.952</v>
       </c>
       <c r="O25">
-        <v>15.2558</v>
+        <v>15.529</v>
       </c>
       <c r="P25">
-        <v>35.3821</v>
+        <v>34.8908</v>
       </c>
       <c r="Q25">
-        <v>51.7778</v>
+        <v>51.626</v>
       </c>
       <c r="R25">
-        <v>100.003</v>
+        <v>100.001</v>
       </c>
       <c r="S25">
-        <v>33.6029</v>
+        <v>33.2709</v>
       </c>
       <c r="T25">
-        <v>35.3821</v>
+        <v>34.8908</v>
       </c>
       <c r="U25">
-        <v>15.2558</v>
+        <v>15.529</v>
       </c>
       <c r="V25">
-        <v>12.633</v>
+        <v>13.5764</v>
       </c>
       <c r="W25">
-        <v>13.026</v>
+        <v>11.7285</v>
       </c>
       <c r="X25">
-        <v>14.1396</v>
+        <v>13.9424</v>
       </c>
       <c r="Y25">
-        <v>14.1396</v>
+        <v>13.9424</v>
       </c>
       <c r="Z25">
-        <v>14.1496</v>
+        <v>13.952</v>
       </c>
       <c r="AA25">
-        <v>14.3396</v>
+        <v>14.462</v>
       </c>
       <c r="AB25">
-        <v>9.915100000000001</v>
+        <v>10.157</v>
       </c>
       <c r="AC25">
-        <v>10.4661</v>
+        <v>9.54247</v>
       </c>
       <c r="AD25">
-        <v>12.5796</v>
+        <v>12.2587</v>
       </c>
       <c r="AE25">
-        <v>12.5796</v>
+        <v>12.2587</v>
       </c>
       <c r="AF25">
-        <v>12.5796</v>
+        <v>12.2587</v>
       </c>
       <c r="AG25">
-        <v>0.679253</v>
+        <v>0.679586</v>
       </c>
       <c r="AH25">
-        <v>0.337961</v>
+        <v>0.335268</v>
       </c>
       <c r="AI25">
-        <v>0.111895</v>
+        <v>0.111918</v>
       </c>
       <c r="AJ25">
-        <v>0.06313820000000001</v>
+        <v>0.0649969</v>
       </c>
       <c r="AK25">
-        <v>0.06423920000000001</v>
+        <v>0.0675196</v>
       </c>
       <c r="AL25">
-        <v>0.0669265</v>
+        <v>0.059195</v>
       </c>
       <c r="AM25">
-        <v>0.0334128</v>
+        <v>0.0333119</v>
       </c>
       <c r="AN25">
-        <v>0.245103</v>
+        <v>0.24241</v>
       </c>
       <c r="AO25">
-        <v>878.3</v>
+        <v>878.494</v>
       </c>
       <c r="AP25">
-        <v>832.899</v>
+        <v>833.336</v>
       </c>
       <c r="AQ25">
-        <v>893.179</v>
+        <v>892.8910000000001</v>
       </c>
       <c r="AR25">
-        <v>749.226</v>
+        <v>748.8950000000001</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT25">
-        <v>723.881</v>
+        <v>723.989</v>
       </c>
       <c r="AU25">
-        <v>784.1130000000001</v>
+        <v>784.5169999999999</v>
       </c>
       <c r="AV25">
-        <v>739.2439999999999</v>
+        <v>739.2140000000001</v>
       </c>
       <c r="AW25">
-        <v>801.0069999999999</v>
+        <v>800.5160000000001</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>62</v>
@@ -4614,115 +4614,115 @@
         <v>75</v>
       </c>
       <c r="M26">
-        <v>51.7665</v>
+        <v>51.6929</v>
       </c>
       <c r="N26">
-        <v>11.3778</v>
+        <v>11.1937</v>
       </c>
       <c r="O26">
-        <v>13.9322</v>
+        <v>14.1685</v>
       </c>
       <c r="P26">
-        <v>28.8995</v>
+        <v>28.5776</v>
       </c>
       <c r="Q26">
-        <v>51.7662</v>
+        <v>51.6939</v>
       </c>
       <c r="R26">
-        <v>99.99940000000001</v>
+        <v>100.002</v>
       </c>
       <c r="S26">
-        <v>27.1351</v>
+        <v>26.885</v>
       </c>
       <c r="T26">
-        <v>28.8995</v>
+        <v>28.5776</v>
       </c>
       <c r="U26">
-        <v>13.9322</v>
+        <v>14.1685</v>
       </c>
       <c r="V26">
-        <v>10.3272</v>
+        <v>11.0974</v>
       </c>
       <c r="W26">
-        <v>10.3789</v>
+        <v>9.38294</v>
       </c>
       <c r="X26">
-        <v>11.3763</v>
+        <v>11.1998</v>
       </c>
       <c r="Y26">
-        <v>11.3763</v>
+        <v>11.1998</v>
       </c>
       <c r="Z26">
-        <v>11.3778</v>
+        <v>11.1937</v>
       </c>
       <c r="AA26">
-        <v>13.4824</v>
+        <v>13.6043</v>
       </c>
       <c r="AB26">
-        <v>8.6814</v>
+        <v>8.896929999999999</v>
       </c>
       <c r="AC26">
-        <v>8.80682</v>
+        <v>8.00529</v>
       </c>
       <c r="AD26">
-        <v>10.6231</v>
+        <v>10.3668</v>
       </c>
       <c r="AE26">
-        <v>10.6231</v>
+        <v>10.3668</v>
       </c>
       <c r="AF26">
-        <v>10.6231</v>
+        <v>10.3668</v>
       </c>
       <c r="AG26">
-        <v>0.830021</v>
+        <v>0.830364</v>
       </c>
       <c r="AH26">
-        <v>0.478772</v>
+        <v>0.475772</v>
       </c>
       <c r="AI26">
-        <v>0.185379</v>
+        <v>0.185403</v>
       </c>
       <c r="AJ26">
-        <v>0.0863073</v>
+        <v>0.08868860000000001</v>
       </c>
       <c r="AK26">
-        <v>0.0829512</v>
+        <v>0.08719200000000001</v>
       </c>
       <c r="AL26">
-        <v>0.0843352</v>
+        <v>0.07489179999999999</v>
       </c>
       <c r="AM26">
-        <v>0.0415599</v>
+        <v>0.041381</v>
       </c>
       <c r="AN26">
-        <v>0.314424</v>
+        <v>0.311425</v>
       </c>
       <c r="AO26">
-        <v>876.2389999999999</v>
+        <v>876.4250000000001</v>
       </c>
       <c r="AP26">
-        <v>829.8150000000001</v>
+        <v>830.1930000000001</v>
       </c>
       <c r="AQ26">
-        <v>888.1170000000001</v>
+        <v>887.9390000000001</v>
       </c>
       <c r="AR26">
-        <v>742.76</v>
+        <v>742.513</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT26">
-        <v>722.653</v>
+        <v>722.7569999999999</v>
       </c>
       <c r="AU26">
-        <v>781.085</v>
+        <v>781.456</v>
       </c>
       <c r="AV26">
-        <v>734.996</v>
+        <v>734.98</v>
       </c>
       <c r="AW26">
-        <v>794.525</v>
+        <v>794.2030000000001</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>62</v>
@@ -4766,115 +4766,115 @@
         <v>73</v>
       </c>
       <c r="M27">
-        <v>47.4357</v>
+        <v>47.7047</v>
       </c>
       <c r="N27">
-        <v>14.1756</v>
+        <v>14.0844</v>
       </c>
       <c r="O27">
-        <v>14.2685</v>
+        <v>14.5047</v>
       </c>
       <c r="P27">
-        <v>36.824</v>
+        <v>36.2633</v>
       </c>
       <c r="Q27">
-        <v>47.4357</v>
+        <v>47.704</v>
       </c>
       <c r="R27">
-        <v>100</v>
+        <v>99.9987</v>
       </c>
       <c r="S27">
-        <v>36.824</v>
+        <v>36.2633</v>
       </c>
       <c r="T27">
-        <v>34.2597</v>
+        <v>33.968</v>
       </c>
       <c r="U27">
-        <v>12.1699</v>
+        <v>12.308</v>
       </c>
       <c r="V27">
-        <v>8.36027</v>
+        <v>8.741990000000001</v>
       </c>
       <c r="W27">
-        <v>9.040850000000001</v>
+        <v>8.3468</v>
       </c>
       <c r="X27">
-        <v>10.6375</v>
+        <v>10.2485</v>
       </c>
       <c r="Y27">
-        <v>10.6375</v>
+        <v>10.2485</v>
       </c>
       <c r="Z27">
-        <v>10.6375</v>
+        <v>10.2477</v>
       </c>
       <c r="AA27">
-        <v>14.2685</v>
+        <v>14.5047</v>
       </c>
       <c r="AB27">
-        <v>11.8561</v>
+        <v>12.5595</v>
       </c>
       <c r="AC27">
-        <v>12.7417</v>
+        <v>11.2077</v>
       </c>
       <c r="AD27">
-        <v>14.1756</v>
+        <v>14.0844</v>
       </c>
       <c r="AE27">
-        <v>14.1756</v>
+        <v>14.0844</v>
       </c>
       <c r="AF27">
-        <v>14.1756</v>
+        <v>14.0844</v>
       </c>
       <c r="AG27">
-        <v>0.682234</v>
+        <v>0.682701</v>
       </c>
       <c r="AH27">
-        <v>0.273418</v>
+        <v>0.270477</v>
       </c>
       <c r="AI27">
         <v>0.05922839999999999</v>
       </c>
       <c r="AJ27">
-        <v>0.0573754</v>
+        <v>0.0593492</v>
       </c>
       <c r="AK27">
-        <v>0.0596614</v>
+        <v>0.06289740000000001</v>
       </c>
       <c r="AL27">
-        <v>0.06406719999999999</v>
+        <v>0.0559203</v>
       </c>
       <c r="AM27">
-        <v>0.0330878</v>
+        <v>0.0330857</v>
       </c>
       <c r="AN27">
-        <v>0.214315</v>
+        <v>0.211374</v>
       </c>
       <c r="AO27">
-        <v>874.269</v>
+        <v>874.46</v>
       </c>
       <c r="AP27">
-        <v>835.412</v>
+        <v>835.7529999999999</v>
       </c>
       <c r="AQ27">
-        <v>889.899</v>
+        <v>889.8190000000001</v>
       </c>
       <c r="AR27">
-        <v>752.4490000000001</v>
+        <v>751.8860000000001</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT27">
-        <v>729.4190000000001</v>
+        <v>729.522</v>
       </c>
       <c r="AU27">
-        <v>783.342</v>
+        <v>783.8000000000001</v>
       </c>
       <c r="AV27">
-        <v>744.5310000000001</v>
+        <v>744.3040000000001</v>
       </c>
       <c r="AW27">
-        <v>799.885</v>
+        <v>799.593</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>62</v>
@@ -4918,115 +4918,115 @@
         <v>75</v>
       </c>
       <c r="M28">
-        <v>47.4604</v>
+        <v>47.6211</v>
       </c>
       <c r="N28">
-        <v>10.9895</v>
+        <v>10.9058</v>
       </c>
       <c r="O28">
-        <v>12.7006</v>
+        <v>12.9757</v>
       </c>
       <c r="P28">
-        <v>28.5798</v>
+        <v>28.2279</v>
       </c>
       <c r="Q28">
-        <v>47.4582</v>
+        <v>47.6213</v>
       </c>
       <c r="R28">
-        <v>99.99550000000001</v>
+        <v>100</v>
       </c>
       <c r="S28">
-        <v>28.5798</v>
+        <v>28.2279</v>
       </c>
       <c r="T28">
-        <v>26.0379</v>
+        <v>25.8484</v>
       </c>
       <c r="U28">
-        <v>11.3594</v>
+        <v>11.5136</v>
       </c>
       <c r="V28">
-        <v>7.15422</v>
+        <v>7.48511</v>
       </c>
       <c r="W28">
-        <v>7.357049999999999</v>
+        <v>6.77035</v>
       </c>
       <c r="X28">
-        <v>8.650509999999999</v>
+        <v>8.3658</v>
       </c>
       <c r="Y28">
-        <v>8.650509999999999</v>
+        <v>8.3658</v>
       </c>
       <c r="Z28">
-        <v>8.649140000000001</v>
+        <v>8.365130000000001</v>
       </c>
       <c r="AA28">
-        <v>12.7006</v>
+        <v>12.9757</v>
       </c>
       <c r="AB28">
-        <v>9.283610000000001</v>
+        <v>9.872720000000001</v>
       </c>
       <c r="AC28">
-        <v>9.69849</v>
+        <v>8.551500000000001</v>
       </c>
       <c r="AD28">
-        <v>10.9895</v>
+        <v>10.9058</v>
       </c>
       <c r="AE28">
-        <v>10.9895</v>
+        <v>10.9058</v>
       </c>
       <c r="AF28">
-        <v>10.9895</v>
+        <v>10.9058</v>
       </c>
       <c r="AG28">
-        <v>0.832958</v>
+        <v>0.833491</v>
       </c>
       <c r="AH28">
-        <v>0.415979</v>
+        <v>0.412624</v>
       </c>
       <c r="AI28">
         <v>0.141042</v>
       </c>
       <c r="AJ28">
-        <v>0.0771945</v>
+        <v>0.07977319999999999</v>
       </c>
       <c r="AK28">
-        <v>0.07625799999999999</v>
+        <v>0.0804416</v>
       </c>
       <c r="AL28">
-        <v>0.08048669999999999</v>
+        <v>0.0704485</v>
       </c>
       <c r="AM28">
-        <v>0.0410218</v>
+        <v>0.0409452</v>
       </c>
       <c r="AN28">
-        <v>0.275123</v>
+        <v>0.271768</v>
       </c>
       <c r="AO28">
-        <v>872.3</v>
+        <v>872.4830000000001</v>
       </c>
       <c r="AP28">
-        <v>831.501</v>
+        <v>831.789</v>
       </c>
       <c r="AQ28">
-        <v>884.178</v>
+        <v>884.146</v>
       </c>
       <c r="AR28">
-        <v>744.201</v>
+        <v>743.852</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT28">
-        <v>726.8040000000001</v>
+        <v>726.9019999999999</v>
       </c>
       <c r="AU28">
-        <v>779.211</v>
+        <v>779.62</v>
       </c>
       <c r="AV28">
-        <v>738.1949999999999</v>
+        <v>738.057</v>
       </c>
       <c r="AW28">
-        <v>791.663</v>
+        <v>791.473</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>62</v>
@@ -5070,115 +5070,115 @@
         <v>73</v>
       </c>
       <c r="M29">
-        <v>47.2065</v>
+        <v>47.3921</v>
       </c>
       <c r="N29">
-        <v>15.78</v>
+        <v>15.6644</v>
       </c>
       <c r="O29">
-        <v>16.2519</v>
+        <v>16.7961</v>
       </c>
       <c r="P29">
-        <v>36.0913</v>
+        <v>35.653</v>
       </c>
       <c r="Q29">
-        <v>47.2054</v>
+        <v>47.39320000000001</v>
       </c>
       <c r="R29">
-        <v>99.9978</v>
+        <v>100.002</v>
       </c>
       <c r="S29">
-        <v>36.0913</v>
+        <v>35.653</v>
       </c>
       <c r="T29">
-        <v>33.2957</v>
+        <v>33.0465</v>
       </c>
       <c r="U29">
-        <v>13.7265</v>
+        <v>13.9171</v>
       </c>
       <c r="V29">
-        <v>9.729430000000001</v>
+        <v>10.2016</v>
       </c>
       <c r="W29">
-        <v>10.2389</v>
+        <v>9.506830000000001</v>
       </c>
       <c r="X29">
-        <v>11.8422</v>
+        <v>11.4009</v>
       </c>
       <c r="Y29">
-        <v>11.8422</v>
+        <v>11.4009</v>
       </c>
       <c r="Z29">
-        <v>11.84</v>
+        <v>11.3989</v>
       </c>
       <c r="AA29">
-        <v>16.2519</v>
+        <v>16.7961</v>
       </c>
       <c r="AB29">
-        <v>13.5268</v>
+        <v>14.5513</v>
       </c>
       <c r="AC29">
-        <v>14.0801</v>
+        <v>12.4741</v>
       </c>
       <c r="AD29">
-        <v>15.78</v>
+        <v>15.6644</v>
       </c>
       <c r="AE29">
-        <v>15.78</v>
+        <v>15.6644</v>
       </c>
       <c r="AF29">
-        <v>15.78</v>
+        <v>15.6644</v>
       </c>
       <c r="AG29">
-        <v>0.679076</v>
+        <v>0.679424</v>
       </c>
       <c r="AH29">
-        <v>0.357606</v>
+        <v>0.355326</v>
       </c>
       <c r="AI29">
-        <v>0.131118</v>
+        <v>0.131123</v>
       </c>
       <c r="AJ29">
-        <v>0.0633933</v>
+        <v>0.0654715</v>
       </c>
       <c r="AK29">
-        <v>0.0639889</v>
+        <v>0.06751349999999999</v>
       </c>
       <c r="AL29">
-        <v>0.06693499999999999</v>
+        <v>0.0591536</v>
       </c>
       <c r="AM29">
-        <v>0.03398979999999999</v>
+        <v>0.0338887</v>
       </c>
       <c r="AN29">
-        <v>0.250707</v>
+        <v>0.248427</v>
       </c>
       <c r="AO29">
-        <v>872.828</v>
+        <v>873.0219999999999</v>
       </c>
       <c r="AP29">
-        <v>834.724</v>
+        <v>835.0980000000001</v>
       </c>
       <c r="AQ29">
-        <v>888.428</v>
+        <v>888.389</v>
       </c>
       <c r="AR29">
-        <v>751.716</v>
+        <v>751.282</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT29">
-        <v>729.192</v>
+        <v>729.3009999999999</v>
       </c>
       <c r="AU29">
-        <v>782.254</v>
+        <v>782.778</v>
       </c>
       <c r="AV29">
-        <v>744.24</v>
+        <v>744.0409999999999</v>
       </c>
       <c r="AW29">
-        <v>798.9209999999999</v>
+        <v>798.671</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>62</v>
@@ -5222,115 +5222,115 @@
         <v>75</v>
       </c>
       <c r="M30">
-        <v>47.1767</v>
+        <v>47.2878</v>
       </c>
       <c r="N30">
-        <v>12.7088</v>
+        <v>12.6023</v>
       </c>
       <c r="O30">
-        <v>14.6145</v>
+        <v>15.0475</v>
       </c>
       <c r="P30">
-        <v>29.5149</v>
+        <v>29.2248</v>
       </c>
       <c r="Q30">
-        <v>47.1773</v>
+        <v>47.2874</v>
       </c>
       <c r="R30">
-        <v>100.001</v>
+        <v>99.9991</v>
       </c>
       <c r="S30">
-        <v>29.5149</v>
+        <v>29.2248</v>
       </c>
       <c r="T30">
-        <v>26.6898</v>
+        <v>26.5096</v>
       </c>
       <c r="U30">
-        <v>12.9343</v>
+        <v>13.1055</v>
       </c>
       <c r="V30">
-        <v>8.503900000000002</v>
+        <v>8.92581</v>
       </c>
       <c r="W30">
-        <v>8.57358</v>
+        <v>7.93769</v>
       </c>
       <c r="X30">
-        <v>9.916360000000001</v>
+        <v>9.569430000000001</v>
       </c>
       <c r="Y30">
-        <v>9.916360000000001</v>
+        <v>9.569430000000001</v>
       </c>
       <c r="Z30">
-        <v>9.91635</v>
+        <v>9.569700000000001</v>
       </c>
       <c r="AA30">
-        <v>14.6145</v>
+        <v>15.0475</v>
       </c>
       <c r="AB30">
-        <v>10.9419</v>
+        <v>11.7684</v>
       </c>
       <c r="AC30">
-        <v>11.1525</v>
+        <v>9.887120000000001</v>
       </c>
       <c r="AD30">
-        <v>12.7088</v>
+        <v>12.6023</v>
       </c>
       <c r="AE30">
-        <v>12.7088</v>
+        <v>12.6023</v>
       </c>
       <c r="AF30">
-        <v>12.7088</v>
+        <v>12.6023</v>
       </c>
       <c r="AG30">
-        <v>0.829855</v>
+        <v>0.830221</v>
       </c>
       <c r="AH30">
-        <v>0.5224169999999999</v>
+        <v>0.519891</v>
       </c>
       <c r="AI30">
-        <v>0.228147</v>
+        <v>0.228145</v>
       </c>
       <c r="AJ30">
-        <v>0.08684549999999999</v>
+        <v>0.0894548</v>
       </c>
       <c r="AK30">
-        <v>0.08267389999999999</v>
+        <v>0.08716109999999999</v>
       </c>
       <c r="AL30">
-        <v>0.084357</v>
+        <v>0.07483590000000001</v>
       </c>
       <c r="AM30">
-        <v>0.04231559999999999</v>
+        <v>0.0422144</v>
       </c>
       <c r="AN30">
-        <v>0.321972</v>
+        <v>0.319447</v>
       </c>
       <c r="AO30">
-        <v>871.604</v>
+        <v>871.788</v>
       </c>
       <c r="AP30">
-        <v>831.7360000000001</v>
+        <v>832.064</v>
       </c>
       <c r="AQ30">
-        <v>884.0890000000001</v>
+        <v>884.076</v>
       </c>
       <c r="AR30">
-        <v>745.141</v>
+        <v>744.853</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT30">
-        <v>727.159</v>
+        <v>727.2620000000001</v>
       </c>
       <c r="AU30">
-        <v>779.0650000000001</v>
+        <v>779.5210000000001</v>
       </c>
       <c r="AV30">
-        <v>739.078</v>
+        <v>738.961</v>
       </c>
       <c r="AW30">
-        <v>792.3149999999999</v>
+        <v>792.135</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>62</v>
@@ -5374,115 +5374,115 @@
         <v>73</v>
       </c>
       <c r="M31">
-        <v>47.4298</v>
+        <v>47.6992</v>
       </c>
       <c r="N31">
-        <v>14.0824</v>
+        <v>13.9918</v>
       </c>
       <c r="O31">
-        <v>14.2673</v>
+        <v>14.5057</v>
       </c>
       <c r="P31">
-        <v>36.7772</v>
+        <v>36.2146</v>
       </c>
       <c r="Q31">
-        <v>47.4287</v>
+        <v>47.6981</v>
       </c>
       <c r="R31">
-        <v>99.9978</v>
+        <v>99.99760000000001</v>
       </c>
       <c r="S31">
-        <v>36.7772</v>
+        <v>36.2146</v>
       </c>
       <c r="T31">
-        <v>34.2071</v>
+        <v>33.9136</v>
       </c>
       <c r="U31">
-        <v>12.1678</v>
+        <v>12.305</v>
       </c>
       <c r="V31">
-        <v>8.35952</v>
+        <v>8.74258</v>
       </c>
       <c r="W31">
-        <v>9.04134</v>
+        <v>8.344959999999999</v>
       </c>
       <c r="X31">
-        <v>10.5991</v>
+        <v>10.2099</v>
       </c>
       <c r="Y31">
-        <v>10.5991</v>
+        <v>10.2099</v>
       </c>
       <c r="Z31">
-        <v>10.6005</v>
+        <v>10.21</v>
       </c>
       <c r="AA31">
-        <v>14.2673</v>
+        <v>14.5057</v>
       </c>
       <c r="AB31">
-        <v>11.8565</v>
+        <v>12.5573</v>
       </c>
       <c r="AC31">
-        <v>12.7445</v>
+        <v>11.2068</v>
       </c>
       <c r="AD31">
-        <v>14.0824</v>
+        <v>13.9918</v>
       </c>
       <c r="AE31">
-        <v>14.0824</v>
+        <v>13.9918</v>
       </c>
       <c r="AF31">
-        <v>14.0824</v>
+        <v>13.9918</v>
       </c>
       <c r="AG31">
-        <v>0.682262</v>
+        <v>0.682735</v>
       </c>
       <c r="AH31">
-        <v>0.273184</v>
+        <v>0.270233</v>
       </c>
       <c r="AI31">
         <v>0.05922839999999999</v>
       </c>
       <c r="AJ31">
-        <v>0.0573751</v>
+        <v>0.0593435</v>
       </c>
       <c r="AK31">
-        <v>0.0596662</v>
+        <v>0.0628943</v>
       </c>
       <c r="AL31">
-        <v>0.06406679999999999</v>
+        <v>0.0559238</v>
       </c>
       <c r="AM31">
-        <v>0.03285</v>
+        <v>0.0328464</v>
       </c>
       <c r="AN31">
-        <v>0.214081</v>
+        <v>0.211129</v>
       </c>
       <c r="AO31">
-        <v>874.269</v>
+        <v>874.46</v>
       </c>
       <c r="AP31">
-        <v>835.4140000000001</v>
+        <v>835.7529999999999</v>
       </c>
       <c r="AQ31">
-        <v>889.899</v>
+        <v>889.8190000000001</v>
       </c>
       <c r="AR31">
-        <v>752.403</v>
+        <v>751.8380000000001</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT31">
-        <v>729.418</v>
+        <v>729.522</v>
       </c>
       <c r="AU31">
-        <v>783.3430000000001</v>
+        <v>783.797</v>
       </c>
       <c r="AV31">
-        <v>744.535</v>
+        <v>744.3040000000001</v>
       </c>
       <c r="AW31">
-        <v>799.8320000000001</v>
+        <v>799.539</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>62</v>
@@ -5526,115 +5526,115 @@
         <v>75</v>
       </c>
       <c r="M32">
-        <v>47.4599</v>
+        <v>47.6163</v>
       </c>
       <c r="N32">
-        <v>10.9246</v>
+        <v>10.8396</v>
       </c>
       <c r="O32">
-        <v>12.715</v>
+        <v>12.9768</v>
       </c>
       <c r="P32">
-        <v>28.5328</v>
+        <v>28.186</v>
       </c>
       <c r="Q32">
-        <v>47.4591</v>
+        <v>47.6163</v>
       </c>
       <c r="R32">
-        <v>99.99850000000001</v>
+        <v>99.9999</v>
       </c>
       <c r="S32">
-        <v>28.5328</v>
+        <v>28.186</v>
       </c>
       <c r="T32">
-        <v>25.9893</v>
+        <v>25.8013</v>
       </c>
       <c r="U32">
-        <v>11.3609</v>
+        <v>11.5126</v>
       </c>
       <c r="V32">
-        <v>7.154520000000001</v>
+        <v>7.48496</v>
       </c>
       <c r="W32">
-        <v>7.355619999999999</v>
+        <v>6.77149</v>
       </c>
       <c r="X32">
-        <v>8.62256</v>
+        <v>8.33559</v>
       </c>
       <c r="Y32">
-        <v>8.62256</v>
+        <v>8.33559</v>
       </c>
       <c r="Z32">
-        <v>8.62275</v>
+        <v>8.33691</v>
       </c>
       <c r="AA32">
-        <v>12.715</v>
+        <v>12.9768</v>
       </c>
       <c r="AB32">
-        <v>9.285870000000001</v>
+        <v>9.876569999999999</v>
       </c>
       <c r="AC32">
-        <v>9.699009999999999</v>
+        <v>8.55193</v>
       </c>
       <c r="AD32">
-        <v>10.9246</v>
+        <v>10.8396</v>
       </c>
       <c r="AE32">
-        <v>10.9246</v>
+        <v>10.8396</v>
       </c>
       <c r="AF32">
-        <v>10.9246</v>
+        <v>10.8396</v>
       </c>
       <c r="AG32">
-        <v>0.83299</v>
+        <v>0.833523</v>
       </c>
       <c r="AH32">
-        <v>0.41571</v>
+        <v>0.412334</v>
       </c>
       <c r="AI32">
         <v>0.141042</v>
       </c>
       <c r="AJ32">
-        <v>0.077196</v>
+        <v>0.07977239999999999</v>
       </c>
       <c r="AK32">
-        <v>0.0762621</v>
+        <v>0.0804414</v>
       </c>
       <c r="AL32">
-        <v>0.0804869</v>
+        <v>0.0704473</v>
       </c>
       <c r="AM32">
-        <v>0.0407471</v>
+        <v>0.0406569</v>
       </c>
       <c r="AN32">
-        <v>0.274854</v>
+        <v>0.271478</v>
       </c>
       <c r="AO32">
-        <v>872.3</v>
+        <v>872.485</v>
       </c>
       <c r="AP32">
-        <v>831.495</v>
+        <v>831.789</v>
       </c>
       <c r="AQ32">
-        <v>884.178</v>
+        <v>884.145</v>
       </c>
       <c r="AR32">
-        <v>744.1560000000001</v>
+        <v>743.812</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT32">
-        <v>726.8040000000001</v>
+        <v>726.904</v>
       </c>
       <c r="AU32">
-        <v>779.211</v>
+        <v>779.619</v>
       </c>
       <c r="AV32">
-        <v>738.1930000000001</v>
+        <v>738.0600000000001</v>
       </c>
       <c r="AW32">
-        <v>791.6139999999999</v>
+        <v>791.426</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>62</v>
@@ -5678,115 +5678,115 @@
         <v>73</v>
       </c>
       <c r="M33">
-        <v>47.1984</v>
+        <v>47.3787</v>
       </c>
       <c r="N33">
-        <v>15.6879</v>
+        <v>15.5779</v>
       </c>
       <c r="O33">
-        <v>16.2544</v>
+        <v>16.7831</v>
       </c>
       <c r="P33">
-        <v>36.0397</v>
+        <v>35.6094</v>
       </c>
       <c r="Q33">
-        <v>47.1974</v>
+        <v>47.3778</v>
       </c>
       <c r="R33">
-        <v>99.9979</v>
+        <v>99.99810000000001</v>
       </c>
       <c r="S33">
-        <v>36.0397</v>
+        <v>35.6094</v>
       </c>
       <c r="T33">
-        <v>33.2374</v>
+        <v>32.98670000000001</v>
       </c>
       <c r="U33">
-        <v>13.7246</v>
+        <v>13.914</v>
       </c>
       <c r="V33">
-        <v>9.73049</v>
+        <v>10.1983</v>
       </c>
       <c r="W33">
-        <v>10.2388</v>
+        <v>9.50604</v>
       </c>
       <c r="X33">
-        <v>11.8</v>
+        <v>11.3579</v>
       </c>
       <c r="Y33">
-        <v>11.8</v>
+        <v>11.3579</v>
       </c>
       <c r="Z33">
-        <v>11.7996</v>
+        <v>11.3581</v>
       </c>
       <c r="AA33">
-        <v>16.2544</v>
+        <v>16.7831</v>
       </c>
       <c r="AB33">
-        <v>13.5266</v>
+        <v>14.5515</v>
       </c>
       <c r="AC33">
-        <v>14.0903</v>
+        <v>12.4714</v>
       </c>
       <c r="AD33">
-        <v>15.6879</v>
+        <v>15.5779</v>
       </c>
       <c r="AE33">
-        <v>15.6879</v>
+        <v>15.5779</v>
       </c>
       <c r="AF33">
-        <v>15.6879</v>
+        <v>15.5779</v>
       </c>
       <c r="AG33">
-        <v>0.679112</v>
+        <v>0.679439</v>
       </c>
       <c r="AH33">
-        <v>0.357386</v>
+        <v>0.3551</v>
       </c>
       <c r="AI33">
-        <v>0.131118</v>
+        <v>0.131123</v>
       </c>
       <c r="AJ33">
-        <v>0.0633956</v>
+        <v>0.0654715</v>
       </c>
       <c r="AK33">
-        <v>0.0639879</v>
+        <v>0.0675157</v>
       </c>
       <c r="AL33">
-        <v>0.0669363</v>
+        <v>0.0591528</v>
       </c>
       <c r="AM33">
-        <v>0.0337682</v>
+        <v>0.033661</v>
       </c>
       <c r="AN33">
-        <v>0.250488</v>
+        <v>0.248201</v>
       </c>
       <c r="AO33">
-        <v>872.829</v>
+        <v>873.0219999999999</v>
       </c>
       <c r="AP33">
-        <v>834.7230000000001</v>
+        <v>835.1010000000001</v>
       </c>
       <c r="AQ33">
-        <v>888.428</v>
+        <v>888.389</v>
       </c>
       <c r="AR33">
-        <v>751.664</v>
+        <v>751.2330000000001</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT33">
-        <v>729.193</v>
+        <v>729.302</v>
       </c>
       <c r="AU33">
-        <v>782.256</v>
+        <v>782.778</v>
       </c>
       <c r="AV33">
-        <v>744.239</v>
+        <v>744.038</v>
       </c>
       <c r="AW33">
-        <v>798.862</v>
+        <v>798.6120000000001</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>62</v>
@@ -5830,115 +5830,115 @@
         <v>75</v>
       </c>
       <c r="M34">
-        <v>47.1653</v>
+        <v>47.2785</v>
       </c>
       <c r="N34">
-        <v>12.6405</v>
+        <v>12.5346</v>
       </c>
       <c r="O34">
-        <v>14.6138</v>
+        <v>15.0589</v>
       </c>
       <c r="P34">
-        <v>29.4723</v>
+        <v>29.1844</v>
       </c>
       <c r="Q34">
-        <v>47.1669</v>
+        <v>47.2773</v>
       </c>
       <c r="R34">
-        <v>100.003</v>
+        <v>99.9974</v>
       </c>
       <c r="S34">
-        <v>29.4723</v>
+        <v>29.1844</v>
       </c>
       <c r="T34">
-        <v>26.6425</v>
+        <v>26.4601</v>
       </c>
       <c r="U34">
-        <v>12.9346</v>
+        <v>13.1165</v>
       </c>
       <c r="V34">
-        <v>8.50319</v>
+        <v>8.924949999999999</v>
       </c>
       <c r="W34">
-        <v>8.57272</v>
+        <v>7.93804</v>
       </c>
       <c r="X34">
-        <v>9.884399999999999</v>
+        <v>9.538120000000001</v>
       </c>
       <c r="Y34">
-        <v>9.884399999999999</v>
+        <v>9.538120000000001</v>
       </c>
       <c r="Z34">
-        <v>9.88035</v>
+        <v>9.537800000000001</v>
       </c>
       <c r="AA34">
-        <v>14.6138</v>
+        <v>15.0589</v>
       </c>
       <c r="AB34">
-        <v>10.9386</v>
+        <v>11.7597</v>
       </c>
       <c r="AC34">
-        <v>11.1536</v>
+        <v>9.888779999999999</v>
       </c>
       <c r="AD34">
-        <v>12.6405</v>
+        <v>12.5346</v>
       </c>
       <c r="AE34">
-        <v>12.6405</v>
+        <v>12.5346</v>
       </c>
       <c r="AF34">
-        <v>12.6405</v>
+        <v>12.5346</v>
       </c>
       <c r="AG34">
-        <v>0.8298680000000001</v>
+        <v>0.830244</v>
       </c>
       <c r="AH34">
-        <v>0.522151</v>
+        <v>0.519549</v>
       </c>
       <c r="AI34">
-        <v>0.228147</v>
+        <v>0.228145</v>
       </c>
       <c r="AJ34">
-        <v>0.0868322</v>
+        <v>0.0894546</v>
       </c>
       <c r="AK34">
-        <v>0.0826817</v>
+        <v>0.0871555</v>
       </c>
       <c r="AL34">
-        <v>0.08436059999999999</v>
+        <v>0.0748442</v>
       </c>
       <c r="AM34">
-        <v>0.0420514</v>
+        <v>0.0418698</v>
       </c>
       <c r="AN34">
-        <v>0.321706</v>
+        <v>0.319104</v>
       </c>
       <c r="AO34">
-        <v>871.604</v>
+        <v>871.788</v>
       </c>
       <c r="AP34">
-        <v>831.7380000000001</v>
+        <v>832.069</v>
       </c>
       <c r="AQ34">
-        <v>884.088</v>
+        <v>884.076</v>
       </c>
       <c r="AR34">
-        <v>745.097</v>
+        <v>744.807</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT34">
-        <v>727.16</v>
+        <v>727.2610000000001</v>
       </c>
       <c r="AU34">
-        <v>779.069</v>
+        <v>779.522</v>
       </c>
       <c r="AV34">
-        <v>739.079</v>
+        <v>738.9590000000001</v>
       </c>
       <c r="AW34">
-        <v>792.268</v>
+        <v>792.0849999999999</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>62</v>
@@ -6101,115 +6101,115 @@
         <v>123</v>
       </c>
       <c r="M36" s="1">
-        <v>47.1653</v>
+        <v>47.2785</v>
       </c>
       <c r="N36" s="1">
-        <v>8.263870000000001</v>
+        <v>8.145760000000001</v>
       </c>
       <c r="O36" s="1">
-        <v>11.7538</v>
+        <v>11.93</v>
       </c>
       <c r="P36" s="1">
-        <v>22.0296</v>
+        <v>21.8536</v>
       </c>
       <c r="Q36" s="1">
-        <v>47.1669</v>
+        <v>47.2773</v>
       </c>
       <c r="R36" s="1">
-        <v>99.9905</v>
+        <v>99.9974</v>
       </c>
       <c r="S36" s="1">
-        <v>22.0296</v>
+        <v>21.8536</v>
       </c>
       <c r="T36" s="1">
-        <v>21.8429</v>
+        <v>21.6883</v>
       </c>
       <c r="U36" s="1">
-        <v>11.3594</v>
+        <v>11.5126</v>
       </c>
       <c r="V36" s="1">
-        <v>6.81128</v>
+        <v>7.20183</v>
       </c>
       <c r="W36" s="1">
-        <v>6.670170000000001</v>
+        <v>6.075</v>
       </c>
       <c r="X36" s="1">
-        <v>7.68747</v>
+        <v>7.52197</v>
       </c>
       <c r="Y36" s="1">
-        <v>7.68747</v>
+        <v>7.52197</v>
       </c>
       <c r="Z36" s="1">
-        <v>7.688409999999999</v>
+        <v>7.51979</v>
       </c>
       <c r="AA36" s="1">
-        <v>11.7538</v>
+        <v>11.93</v>
       </c>
       <c r="AB36" s="1">
-        <v>6.93267</v>
+        <v>7.16227</v>
       </c>
       <c r="AC36" s="1">
-        <v>6.84565</v>
+        <v>6.132980000000001</v>
       </c>
       <c r="AD36" s="1">
-        <v>8.263870000000001</v>
+        <v>8.145760000000001</v>
       </c>
       <c r="AE36" s="1">
-        <v>8.263870000000001</v>
+        <v>8.145760000000001</v>
       </c>
       <c r="AF36" s="1">
-        <v>8.263870000000001</v>
+        <v>8.145760000000001</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.677509</v>
+        <v>0.6777260000000001</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.225928</v>
+        <v>0.222258</v>
       </c>
       <c r="AI36" s="1">
         <v>0.0204356</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.0538892</v>
+        <v>0.0553759</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.057437</v>
+        <v>0.0601754</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.062031</v>
+        <v>0.0541258</v>
       </c>
       <c r="AM36" s="1">
-        <v>0.0323406</v>
+        <v>0.032353</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.205708</v>
+        <v>0.202038</v>
       </c>
       <c r="AO36" s="1">
-        <v>871.604</v>
+        <v>871.788</v>
       </c>
       <c r="AP36" s="1">
-        <v>827.9280000000001</v>
+        <v>828.215</v>
       </c>
       <c r="AQ36" s="1">
-        <v>882.1060000000001</v>
+        <v>882.0690000000001</v>
       </c>
       <c r="AR36" s="1">
-        <v>737.657</v>
+        <v>737.486</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT36" s="1">
-        <v>722.424</v>
+        <v>722.523</v>
       </c>
       <c r="AU36" s="1">
-        <v>777.549</v>
+        <v>777.8850000000001</v>
       </c>
       <c r="AV36" s="1">
-        <v>732.376</v>
+        <v>732.367</v>
       </c>
       <c r="AW36" s="1">
-        <v>787.468</v>
+        <v>787.313</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>124</v>
@@ -6220,115 +6220,115 @@
         <v>125</v>
       </c>
       <c r="M37" s="1">
-        <v>52.3278</v>
+        <v>52.2125</v>
       </c>
       <c r="N37" s="1">
-        <v>17.4045</v>
+        <v>17.1341</v>
       </c>
       <c r="O37" s="1">
-        <v>16.2544</v>
+        <v>16.7961</v>
       </c>
       <c r="P37" s="1">
-        <v>48.402</v>
+        <v>47.60440000000001</v>
       </c>
       <c r="Q37" s="1">
-        <v>52.3265</v>
+        <v>52.2119</v>
       </c>
       <c r="R37" s="1">
-        <v>100.006</v>
+        <v>100.008</v>
       </c>
       <c r="S37" s="1">
-        <v>48.402</v>
+        <v>47.60440000000001</v>
       </c>
       <c r="T37" s="1">
-        <v>48.0913</v>
+        <v>47.323</v>
       </c>
       <c r="U37" s="1">
-        <v>15.2558</v>
+        <v>15.5309</v>
       </c>
       <c r="V37" s="1">
-        <v>13.1706</v>
+        <v>13.8041</v>
       </c>
       <c r="W37" s="1">
-        <v>14.4805</v>
+        <v>13.2132</v>
       </c>
       <c r="X37" s="1">
-        <v>16.146</v>
+        <v>15.7269</v>
       </c>
       <c r="Y37" s="1">
-        <v>16.146</v>
+        <v>15.7269</v>
       </c>
       <c r="Z37" s="1">
-        <v>16.142</v>
+        <v>15.7269</v>
       </c>
       <c r="AA37" s="1">
-        <v>16.2544</v>
+        <v>16.7961</v>
       </c>
       <c r="AB37" s="1">
-        <v>13.9711</v>
+        <v>14.5515</v>
       </c>
       <c r="AC37" s="1">
-        <v>15.3943</v>
+        <v>13.7821</v>
       </c>
       <c r="AD37" s="1">
-        <v>17.4045</v>
+        <v>17.1341</v>
       </c>
       <c r="AE37" s="1">
-        <v>17.4045</v>
+        <v>17.1341</v>
       </c>
       <c r="AF37" s="1">
-        <v>17.4045</v>
+        <v>17.1341</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.834301</v>
+        <v>0.83486</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.715566</v>
+        <v>0.71375</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.376749</v>
+        <v>0.376779</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.109493</v>
+        <v>0.112157</v>
       </c>
       <c r="AK37" s="1">
-        <v>0.0978435</v>
+        <v>0.102707</v>
       </c>
       <c r="AL37" s="1">
-        <v>0.0926231</v>
+        <v>0.08359</v>
       </c>
       <c r="AM37" s="1">
-        <v>0.0439587</v>
+        <v>0.0436078</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.402616</v>
+        <v>0.4008</v>
       </c>
       <c r="AO37" s="1">
-        <v>880.0210000000001</v>
+        <v>880.183</v>
       </c>
       <c r="AP37" s="1">
-        <v>840.0549999999999</v>
+        <v>840.466</v>
       </c>
       <c r="AQ37" s="1">
-        <v>901.534</v>
+        <v>901.192</v>
       </c>
       <c r="AR37" s="1">
-        <v>764.027</v>
+        <v>763.23</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT37" s="1">
-        <v>729.777</v>
+        <v>729.8679999999999</v>
       </c>
       <c r="AU37" s="1">
-        <v>790.192</v>
+        <v>790.6560000000001</v>
       </c>
       <c r="AV37" s="1">
-        <v>751.1360000000001</v>
+        <v>750.938</v>
       </c>
       <c r="AW37" s="1">
-        <v>813.716</v>
+        <v>812.948</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>124</v>
@@ -6374,115 +6374,115 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>49.64161515151516</v>
+        <v>49.66207575757576</v>
       </c>
       <c r="N42" s="1">
-        <v>12.50687727272727</v>
+        <v>12.34964242424243</v>
       </c>
       <c r="O42" s="1">
-        <v>14.00263333333333</v>
+        <v>14.20038484848485</v>
       </c>
       <c r="P42" s="1">
-        <v>32.68679393939394</v>
+        <v>32.27557272727273</v>
       </c>
       <c r="Q42" s="1">
-        <v>49.64161515151515</v>
+        <v>49.66245454545454</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99996363636366</v>
+        <v>100.0007121212121</v>
       </c>
       <c r="S42" s="1">
-        <v>32.19356666666666</v>
+        <v>31.81940000000001</v>
       </c>
       <c r="T42" s="1">
-        <v>31.83548484848485</v>
+        <v>31.48073333333333</v>
       </c>
       <c r="U42" s="1">
-        <v>13.18694242424242</v>
+        <v>13.37012121212121</v>
       </c>
       <c r="V42" s="1">
-        <v>9.63824</v>
+        <v>10.18147848484849</v>
       </c>
       <c r="W42" s="1">
-        <v>10.04751939393939</v>
+        <v>9.152367575757577</v>
       </c>
       <c r="X42" s="1">
-        <v>11.33698090909091</v>
+        <v>11.07013212121212</v>
       </c>
       <c r="Y42" s="1">
-        <v>11.33698090909091</v>
+        <v>11.07013212121212</v>
       </c>
       <c r="Z42" s="1">
-        <v>11.33766272727273</v>
+        <v>11.07011</v>
       </c>
       <c r="AA42" s="1">
-        <v>13.76392727272727</v>
+        <v>13.96380606060606</v>
       </c>
       <c r="AB42" s="1">
-        <v>9.996449696969693</v>
+        <v>10.40468333333333</v>
       </c>
       <c r="AC42" s="1">
-        <v>10.48057757575757</v>
+        <v>9.38239484848485</v>
       </c>
       <c r="AD42" s="1">
-        <v>12.15012060606061</v>
+        <v>11.96623363636364</v>
       </c>
       <c r="AE42" s="1">
-        <v>12.15012060606061</v>
+        <v>11.96623363636364</v>
       </c>
       <c r="AF42" s="1">
-        <v>12.15012060606061</v>
+        <v>11.96623363636364</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7560895151515151</v>
+        <v>0.756505666666667</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.397530212121212</v>
+        <v>0.3945574848484847</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1418707848484849</v>
+        <v>0.1418780363636363</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.07298412424242423</v>
+        <v>0.0751546393939394</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.07190223636363637</v>
+        <v>0.0756390121212121</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.07445383030303029</v>
+        <v>0.06567223333333333</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.03739246363636364</v>
+        <v>0.03729466666666666</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2689371515151515</v>
+        <v>0.2659644545454545</v>
       </c>
       <c r="AO42" s="1">
-        <v>875.3936060606062</v>
+        <v>875.5767575757576</v>
       </c>
       <c r="AP42" s="1">
-        <v>832.6570909090909</v>
+        <v>833.0149090909091</v>
       </c>
       <c r="AQ42" s="1">
-        <v>889.2973333333334</v>
+        <v>889.1497575757576</v>
       </c>
       <c r="AR42" s="1">
-        <v>747.8187878787879</v>
+        <v>747.4446060606059</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT42" s="1">
-        <v>725.8768787878788</v>
+        <v>725.9784848484848</v>
       </c>
       <c r="AU42" s="1">
-        <v>782.2582727272728</v>
+        <v>782.6719393939392</v>
       </c>
       <c r="AV42" s="1">
-        <v>739.7418484848486</v>
+        <v>739.6502727272727</v>
       </c>
       <c r="AW42" s="1">
-        <v>797.4604545454546</v>
+        <v>797.1056666666668</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>124</v>
@@ -6493,115 +6493,115 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>1.65703721015282</v>
+        <v>1.542531088047862</v>
       </c>
       <c r="N43" s="1">
-        <v>2.415060573068413</v>
+        <v>2.389459533684414</v>
       </c>
       <c r="O43" s="1">
-        <v>1.296152868758897</v>
+        <v>1.324871027484336</v>
       </c>
       <c r="P43" s="1">
-        <v>7.005223402054393</v>
+        <v>6.834701636824223</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.657372703484428</v>
+        <v>1.542670143475347</v>
       </c>
       <c r="R43" s="1">
-        <v>0.0027478717033497</v>
+        <v>0.002178650899726446</v>
       </c>
       <c r="S43" s="1">
-        <v>7.083564573637266</v>
+        <v>6.915348893759755</v>
       </c>
       <c r="T43" s="1">
-        <v>7.078053573145367</v>
+        <v>6.908710737667896</v>
       </c>
       <c r="U43" s="1">
-        <v>1.135213398716042</v>
+        <v>1.164452486704576</v>
       </c>
       <c r="V43" s="1">
-        <v>1.848403661289023</v>
+        <v>1.975658132963846</v>
       </c>
       <c r="W43" s="1">
-        <v>2.225514082448231</v>
+        <v>1.984918662834034</v>
       </c>
       <c r="X43" s="1">
-        <v>2.340859511331272</v>
+        <v>2.308901442269393</v>
       </c>
       <c r="Y43" s="1">
-        <v>2.340859511331272</v>
+        <v>2.308901442269393</v>
       </c>
       <c r="Z43" s="1">
-        <v>2.340810551774454</v>
+        <v>2.309075283228804</v>
       </c>
       <c r="AA43" s="1">
-        <v>1.277850475739281</v>
+        <v>1.348933190146354</v>
       </c>
       <c r="AB43" s="1">
-        <v>2.057428241098485</v>
+        <v>2.215646996777987</v>
       </c>
       <c r="AC43" s="1">
-        <v>2.444356395448479</v>
+        <v>2.141030991411043</v>
       </c>
       <c r="AD43" s="1">
-        <v>2.477252557327878</v>
+        <v>2.464906418796288</v>
       </c>
       <c r="AE43" s="1">
-        <v>2.477252557327878</v>
+        <v>2.464906418796288</v>
       </c>
       <c r="AF43" s="1">
-        <v>2.477252557327878</v>
+        <v>2.464906418796288</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07424912092250602</v>
+        <v>0.07426601421983685</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1231328937227204</v>
+        <v>0.1235173263164767</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.08929607426353897</v>
+        <v>0.08930350120352715</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.01484345963660948</v>
+        <v>0.01515300988770657</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.01097764998842533</v>
+        <v>0.01155304768057113</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.009249331449991885</v>
+        <v>0.008547499825437762</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.004075511587430926</v>
+        <v>0.004023319539254805</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.05036784407050172</v>
+        <v>0.0507099734091532</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.581480018755907</v>
+        <v>2.578767629447252</v>
       </c>
       <c r="AP43" s="1">
-        <v>3.276655116015616</v>
+        <v>3.305940606660329</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.408597054783244</v>
+        <v>5.302803695418071</v>
       </c>
       <c r="AR43" s="1">
-        <v>7.084013832941563</v>
+        <v>6.914493727777792</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.40338702614225</v>
+        <v>2.403226935667091</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.460338144912287</v>
+        <v>3.485489791583964</v>
       </c>
       <c r="AV43" s="1">
-        <v>5.257183311525538</v>
+        <v>5.188244604597489</v>
       </c>
       <c r="AW43" s="1">
-        <v>7.078061389661209</v>
+        <v>6.90873342190517</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>124</v>
@@ -6612,115 +6612,115 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>3.338000194182327</v>
+        <v>3.106054397681022</v>
       </c>
       <c r="N44" s="1">
-        <v>19.30986065030588</v>
+        <v>19.34841067943708</v>
       </c>
       <c r="O44" s="1">
-        <v>9.256493674467638</v>
+        <v>9.329824801372881</v>
       </c>
       <c r="P44" s="1">
-        <v>21.43135669727381</v>
+        <v>21.17608165957943</v>
       </c>
       <c r="Q44" s="1">
-        <v>3.33867602499602</v>
+        <v>3.106310708149528</v>
       </c>
       <c r="R44" s="1">
-        <v>0.002747872702576137</v>
+        <v>0.002178635385201732</v>
       </c>
       <c r="S44" s="1">
-        <v>22.003043797479</v>
+        <v>21.73312159801804</v>
       </c>
       <c r="T44" s="1">
-        <v>22.23322059278213</v>
+        <v>21.94583799721278</v>
       </c>
       <c r="U44" s="1">
-        <v>8.608617238133263</v>
+        <v>8.709363724009439</v>
       </c>
       <c r="V44" s="1">
-        <v>19.17781318258337</v>
+        <v>19.40443262640009</v>
       </c>
       <c r="W44" s="1">
-        <v>22.14988590905978</v>
+        <v>21.68748847119741</v>
       </c>
       <c r="X44" s="1">
-        <v>20.6479972940078</v>
+        <v>20.85703600452223</v>
       </c>
       <c r="Y44" s="1">
-        <v>20.6479972940078</v>
+        <v>20.85703600452223</v>
       </c>
       <c r="Z44" s="1">
-        <v>20.64632374487237</v>
+        <v>20.85864804621457</v>
       </c>
       <c r="AA44" s="1">
-        <v>9.284054255875763</v>
+        <v>9.66021143728064</v>
       </c>
       <c r="AB44" s="1">
-        <v>20.58158949894151</v>
+        <v>21.29470860184423</v>
       </c>
       <c r="AC44" s="1">
-        <v>23.32272604042809</v>
+        <v>22.81966412612442</v>
       </c>
       <c r="AD44" s="1">
-        <v>20.3887075498839</v>
+        <v>20.59884917594954</v>
       </c>
       <c r="AE44" s="1">
-        <v>20.3887075498839</v>
+        <v>20.59884917594954</v>
       </c>
       <c r="AF44" s="1">
-        <v>20.3887075498839</v>
+        <v>20.59884917594954</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.820149523912788</v>
+        <v>9.816980558396807</v>
       </c>
       <c r="AH44" s="1">
-        <v>30.97447438414459</v>
+        <v>31.30528023411062</v>
       </c>
       <c r="AI44" s="1">
-        <v>62.94183426059521</v>
+        <v>62.94385198188142</v>
       </c>
       <c r="AJ44" s="1">
-        <v>20.3379293657144</v>
+        <v>20.1624410813533</v>
       </c>
       <c r="AK44" s="1">
-        <v>15.26746669311824</v>
+        <v>15.27392724545012</v>
       </c>
       <c r="AL44" s="1">
-        <v>12.4229088179167</v>
+        <v>13.01539386067947</v>
       </c>
       <c r="AM44" s="1">
-        <v>10.89928608894213</v>
+        <v>10.78792197075937</v>
       </c>
       <c r="AN44" s="1">
-        <v>18.72848127777693</v>
+        <v>19.06644761828</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.2948936342330541</v>
+        <v>0.2945221657764401</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.3935179501609937</v>
+        <v>0.3968645183395563</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.6081877064120186</v>
+        <v>0.5963903887097737</v>
       </c>
       <c r="AR44" s="1">
-        <v>0.9472901654471126</v>
+        <v>0.9250844372562288</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.3311011958605979</v>
+        <v>0.3310328041152151</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4423523873832782</v>
+        <v>0.4453321520997607</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.7106780997037531</v>
+        <v>0.7014456420690758</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.8875752207293641</v>
+        <v>0.8667274253357253</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>124</v>

--- a/dca_mission_timing_pre_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_pre_tsmc2p_meas.xlsx
@@ -5282,28 +5282,28 @@
         <v>12.6023</v>
       </c>
       <c r="AG30">
-        <v>0.830221</v>
+        <v>0.83022</v>
       </c>
       <c r="AH30">
-        <v>0.519891</v>
+        <v>0.5198769999999999</v>
       </c>
       <c r="AI30">
         <v>0.228145</v>
       </c>
       <c r="AJ30">
-        <v>0.0894548</v>
+        <v>0.0894586</v>
       </c>
       <c r="AK30">
-        <v>0.08716109999999999</v>
+        <v>0.0871606</v>
       </c>
       <c r="AL30">
-        <v>0.07483590000000001</v>
+        <v>0.0748341</v>
       </c>
       <c r="AM30">
-        <v>0.0422144</v>
+        <v>0.0421996</v>
       </c>
       <c r="AN30">
-        <v>0.319447</v>
+        <v>0.319433</v>
       </c>
       <c r="AO30">
         <v>871.788</v>
@@ -6434,28 +6434,28 @@
         <v>11.96623363636364</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.756505666666667</v>
+        <v>0.7565056363636365</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3945574848484847</v>
+        <v>0.3945570606060604</v>
       </c>
       <c r="AI42" s="1">
         <v>0.1418780363636363</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.0751546393939394</v>
+        <v>0.07515475454545456</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.0756390121212121</v>
+        <v>0.07563899696969696</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.06567223333333333</v>
+        <v>0.06567217878787877</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.03729466666666666</v>
+        <v>0.03729421818181818</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2659644545454545</v>
+        <v>0.2659640303030302</v>
       </c>
       <c r="AO42" s="1">
         <v>875.5767575757576</v>
@@ -6553,28 +6553,28 @@
         <v>2.464906418796288</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07426601421983685</v>
+        <v>0.07426598414169462</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1235173263164767</v>
+        <v>0.1235168958585901</v>
       </c>
       <c r="AI43" s="1">
         <v>0.08930350120352715</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.01515300988770657</v>
+        <v>0.01515311857181783</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.01155304768057113</v>
+        <v>0.01155303256996699</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.008547499825437762</v>
+        <v>0.008547441353313746</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.004023319539254805</v>
+        <v>0.004022771892572263</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.0507099734091532</v>
+        <v>0.05070952602605312</v>
       </c>
       <c r="AO43" s="1">
         <v>2.578767629447252</v>
@@ -6672,28 +6672,28 @@
         <v>20.59884917594954</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.816980558396807</v>
+        <v>9.816976975700484</v>
       </c>
       <c r="AH44" s="1">
-        <v>31.30528023411062</v>
+        <v>31.30520479569206</v>
       </c>
       <c r="AI44" s="1">
         <v>62.94385198188142</v>
       </c>
       <c r="AJ44" s="1">
-        <v>20.1624410813533</v>
+        <v>20.16255480237518</v>
       </c>
       <c r="AK44" s="1">
-        <v>15.27392724545012</v>
+        <v>15.27391032775785</v>
       </c>
       <c r="AL44" s="1">
-        <v>13.01539386067947</v>
+        <v>13.01531563452766</v>
       </c>
       <c r="AM44" s="1">
-        <v>10.78792197075937</v>
+        <v>10.78658325255752</v>
       </c>
       <c r="AN44" s="1">
-        <v>19.06644761828</v>
+        <v>19.06630981951824</v>
       </c>
       <c r="AO44" s="1">
         <v>0.2945221657764401</v>

--- a/dca_mission_timing_pre_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_pre_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="133">
   <si>
     <t>Process</t>
   </si>
@@ -202,6 +202,9 @@
     <t>0.750</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>error</t>
   </si>
   <si>
@@ -229,7 +232,7 @@
     <t>beol_rcbest</t>
   </si>
   <si>
-    <t>rcbest_ccbest</t>
+    <t>rcbest_ccbest_t</t>
   </si>
   <si>
     <t>-40</t>
@@ -265,7 +268,7 @@
     <t>beol_rcworst</t>
   </si>
   <si>
-    <t>rcworst_ccworst</t>
+    <t>rcworst_ccworst_t</t>
   </si>
   <si>
     <t>tsmc2p (6)</t>
@@ -386,9 +389,6 @@
   </si>
   <si>
     <t>Min</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Max</t>
@@ -443,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +453,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6FFF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,10 +475,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,4982 +973,4982 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>49.7793</v>
+        <v>49.1103</v>
       </c>
       <c r="N2">
-        <v>11.1182</v>
+        <v>15.9975</v>
       </c>
       <c r="O2">
-        <v>13.2487</v>
+        <v>16.892</v>
       </c>
       <c r="P2">
-        <v>30.0615</v>
+        <v>33.70500000000001</v>
       </c>
       <c r="Q2">
-        <v>49.7798</v>
+        <v>49.11049999999999</v>
       </c>
       <c r="R2">
         <v>100.001</v>
       </c>
       <c r="S2">
-        <v>30.0615</v>
+        <v>33.70500000000001</v>
       </c>
       <c r="T2">
-        <v>29.8411</v>
+        <v>32.8147</v>
       </c>
       <c r="U2">
-        <v>12.7451</v>
+        <v>12.7399</v>
       </c>
       <c r="V2">
-        <v>9.271240000000001</v>
+        <v>16.7824</v>
       </c>
       <c r="W2">
-        <v>8.376859999999999</v>
+        <v>10.2192</v>
       </c>
       <c r="X2">
-        <v>10.3059</v>
+        <v>14.3826</v>
       </c>
       <c r="Y2">
-        <v>10.3059</v>
+        <v>14.3826</v>
       </c>
       <c r="Z2">
-        <v>10.296</v>
+        <v>14.3869</v>
       </c>
       <c r="AA2">
-        <v>13.2487</v>
+        <v>15.475</v>
       </c>
       <c r="AB2">
-        <v>9.339970000000001</v>
+        <v>16.892</v>
       </c>
       <c r="AC2">
-        <v>8.52197</v>
+        <v>10.2211</v>
       </c>
       <c r="AD2">
-        <v>11.1182</v>
+        <v>15.9975</v>
       </c>
       <c r="AE2">
-        <v>11.1182</v>
+        <v>15.9975</v>
       </c>
       <c r="AF2">
-        <v>11.1182</v>
+        <v>15.9975</v>
       </c>
       <c r="AG2">
-        <v>0.757347</v>
+        <v>0.770656</v>
       </c>
       <c r="AH2">
-        <v>0.352405</v>
+        <v>0.312425</v>
       </c>
       <c r="AI2">
-        <v>0.10753</v>
-      </c>
-      <c r="AJ2">
-        <v>0.071066</v>
-      </c>
-      <c r="AK2">
-        <v>0.0728678</v>
-      </c>
-      <c r="AL2">
-        <v>0.0639777</v>
-      </c>
-      <c r="AM2">
-        <v>0.0369356</v>
+        <v>0.107512</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN2">
-        <v>0.245452</v>
+        <v>0.205472</v>
       </c>
       <c r="AO2">
-        <v>875.3870000000001</v>
+        <v>872.083</v>
       </c>
       <c r="AP2">
-        <v>832.2819999999999</v>
+        <v>831.687</v>
       </c>
       <c r="AQ2">
-        <v>888.0490000000001</v>
+        <v>887.9290000000001</v>
       </c>
       <c r="AR2">
-        <v>745.688</v>
+        <v>749.331</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT2">
-        <v>725.5870000000001</v>
+        <v>723.9300000000001</v>
       </c>
       <c r="AU2">
-        <v>782.0170000000001</v>
+        <v>780.5700000000001</v>
       </c>
       <c r="AV2">
-        <v>738.373</v>
+        <v>739.246</v>
       </c>
       <c r="AW2">
-        <v>795.466</v>
+        <v>798.4400000000001</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:50">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M3">
-        <v>49.8899</v>
+        <v>49.1076</v>
       </c>
       <c r="N3">
-        <v>9.61032</v>
+        <v>13.8223</v>
       </c>
       <c r="O3">
-        <v>12.5794</v>
+        <v>14.7721</v>
       </c>
       <c r="P3">
-        <v>26.3159</v>
+        <v>29.7127</v>
       </c>
       <c r="Q3">
-        <v>49.8902</v>
+        <v>49.1077</v>
       </c>
       <c r="R3">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S3">
-        <v>26.3159</v>
+        <v>29.7127</v>
       </c>
       <c r="T3">
-        <v>26.2063</v>
+        <v>28.8204</v>
       </c>
       <c r="U3">
-        <v>12.1439</v>
+        <v>12.292</v>
       </c>
       <c r="V3">
-        <v>8.20096</v>
+        <v>14.7721</v>
       </c>
       <c r="W3">
-        <v>7.166790000000001</v>
+        <v>8.90413</v>
       </c>
       <c r="X3">
-        <v>8.92393</v>
+        <v>12.5029</v>
       </c>
       <c r="Y3">
-        <v>8.92393</v>
+        <v>12.5029</v>
       </c>
       <c r="Z3">
-        <v>8.92658</v>
+        <v>12.5027</v>
       </c>
       <c r="AA3">
-        <v>12.5794</v>
+        <v>14.5858</v>
       </c>
       <c r="AB3">
-        <v>8.124509999999999</v>
+        <v>14.7484</v>
       </c>
       <c r="AC3">
-        <v>7.19569</v>
+        <v>8.82569</v>
       </c>
       <c r="AD3">
-        <v>9.61032</v>
+        <v>13.8223</v>
       </c>
       <c r="AE3">
-        <v>9.61032</v>
+        <v>13.8223</v>
       </c>
       <c r="AF3">
-        <v>9.61032</v>
+        <v>13.8223</v>
       </c>
       <c r="AG3">
-        <v>0.681698</v>
+        <v>0.693728</v>
       </c>
       <c r="AH3">
-        <v>0.358739</v>
+        <v>0.324258</v>
       </c>
       <c r="AI3">
-        <v>0.129435</v>
-      </c>
-      <c r="AJ3">
-        <v>0.0682246</v>
-      </c>
-      <c r="AK3">
-        <v>0.06845499999999999</v>
-      </c>
-      <c r="AL3">
-        <v>0.0590543</v>
-      </c>
-      <c r="AM3">
-        <v>0.0335841</v>
+        <v>0.129419</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN3">
-        <v>0.229758</v>
+        <v>0.195276</v>
       </c>
       <c r="AO3">
-        <v>874.624</v>
+        <v>871.612</v>
       </c>
       <c r="AP3">
-        <v>830.5200000000001</v>
+        <v>830.148</v>
       </c>
       <c r="AQ3">
-        <v>885.442</v>
+        <v>885.367</v>
       </c>
       <c r="AR3">
-        <v>741.942</v>
+        <v>745.3380000000001</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT3">
-        <v>724.595</v>
+        <v>723.2670000000001</v>
       </c>
       <c r="AU3">
-        <v>780.277</v>
+        <v>778.972</v>
       </c>
       <c r="AV3">
-        <v>735.586</v>
+        <v>736.533</v>
       </c>
       <c r="AW3">
-        <v>791.831</v>
+        <v>794.4450000000001</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:50">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4">
-        <v>49.8272</v>
+        <v>49.1749</v>
       </c>
       <c r="N4">
-        <v>8.190379999999999</v>
+        <v>12.0787</v>
       </c>
       <c r="O4">
-        <v>11.93</v>
+        <v>14.2318</v>
       </c>
       <c r="P4">
-        <v>21.8935</v>
+        <v>25.2959</v>
       </c>
       <c r="Q4">
-        <v>49.8273</v>
+        <v>49.175</v>
       </c>
       <c r="R4">
         <v>100</v>
       </c>
       <c r="S4">
-        <v>21.8935</v>
+        <v>25.2959</v>
       </c>
       <c r="T4">
-        <v>21.7184</v>
+        <v>24.4721</v>
       </c>
       <c r="U4">
-        <v>11.6039</v>
+        <v>12.49</v>
       </c>
       <c r="V4">
-        <v>7.20228</v>
+        <v>13.4745</v>
       </c>
       <c r="W4">
-        <v>6.07685</v>
+        <v>8.166030000000001</v>
       </c>
       <c r="X4">
-        <v>7.54462</v>
+        <v>10.852</v>
       </c>
       <c r="Y4">
-        <v>7.54462</v>
+        <v>10.852</v>
       </c>
       <c r="Z4">
-        <v>7.54683</v>
+        <v>10.8489</v>
       </c>
       <c r="AA4">
-        <v>11.93</v>
+        <v>14.2318</v>
       </c>
       <c r="AB4">
-        <v>7.16661</v>
+        <v>13.3632</v>
       </c>
       <c r="AC4">
-        <v>6.133710000000001</v>
+        <v>8.044550000000001</v>
       </c>
       <c r="AD4">
-        <v>8.190379999999999</v>
+        <v>12.0787</v>
       </c>
       <c r="AE4">
-        <v>8.190379999999999</v>
+        <v>12.0787</v>
       </c>
       <c r="AF4">
-        <v>8.190379999999999</v>
+        <v>12.0787</v>
       </c>
       <c r="AG4">
-        <v>0.83226</v>
+        <v>0.845127</v>
       </c>
       <c r="AH4">
-        <v>0.544656</v>
+        <v>0.503816</v>
       </c>
       <c r="AI4">
-        <v>0.240592</v>
-      </c>
-      <c r="AJ4">
-        <v>0.09742820000000001</v>
-      </c>
-      <c r="AK4">
-        <v>0.08981019999999999</v>
-      </c>
-      <c r="AL4">
-        <v>0.07527829999999999</v>
-      </c>
-      <c r="AM4">
-        <v>0.041675</v>
+        <v>0.240573</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN4">
-        <v>0.304747</v>
+        <v>0.263907</v>
       </c>
       <c r="AO4">
-        <v>873.1880000000001</v>
+        <v>870.4789999999999</v>
       </c>
       <c r="AP4">
-        <v>828.215</v>
+        <v>828.114</v>
       </c>
       <c r="AQ4">
-        <v>882.0700000000001</v>
+        <v>882.402</v>
       </c>
       <c r="AR4">
-        <v>737.5260000000001</v>
+        <v>740.9209999999999</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT4">
-        <v>723.3579999999999</v>
+        <v>722.307</v>
       </c>
       <c r="AU4">
-        <v>777.8850000000001</v>
+        <v>776.966</v>
       </c>
       <c r="AV4">
-        <v>732.3680000000001</v>
+        <v>733.5700000000001</v>
       </c>
       <c r="AW4">
-        <v>787.3430000000001</v>
+        <v>790.097</v>
       </c>
       <c r="AX4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>49.3357</v>
+        <v>48.5687</v>
       </c>
       <c r="N5">
-        <v>11.2013</v>
+        <v>15.8681</v>
       </c>
       <c r="O5">
-        <v>14.7297</v>
+        <v>17.1286</v>
       </c>
       <c r="P5">
-        <v>27.0466</v>
+        <v>30.9832</v>
       </c>
       <c r="Q5">
-        <v>49.3375</v>
+        <v>48.5681</v>
       </c>
       <c r="R5">
-        <v>100.004</v>
+        <v>99.99890000000001</v>
       </c>
       <c r="S5">
-        <v>27.0466</v>
+        <v>30.9832</v>
       </c>
       <c r="T5">
-        <v>26.3852</v>
+        <v>29.5524</v>
       </c>
       <c r="U5">
-        <v>14.1269</v>
+        <v>15.2565</v>
       </c>
       <c r="V5">
-        <v>9.842640000000001</v>
+        <v>17.1286</v>
       </c>
       <c r="W5">
-        <v>8.359960000000001</v>
+        <v>10.7105</v>
       </c>
       <c r="X5">
-        <v>10.0423</v>
+        <v>13.9078</v>
       </c>
       <c r="Y5">
-        <v>10.0423</v>
+        <v>13.9078</v>
       </c>
       <c r="Z5">
-        <v>10.0418</v>
+        <v>13.9088</v>
       </c>
       <c r="AA5">
-        <v>14.7297</v>
+        <v>17.1052</v>
       </c>
       <c r="AB5">
-        <v>9.953320000000001</v>
+        <v>17.1057</v>
       </c>
       <c r="AC5">
-        <v>8.55547</v>
+        <v>10.8231</v>
       </c>
       <c r="AD5">
-        <v>11.2013</v>
+        <v>15.8681</v>
       </c>
       <c r="AE5">
-        <v>11.2013</v>
+        <v>15.8681</v>
       </c>
       <c r="AF5">
-        <v>11.2013</v>
+        <v>15.8681</v>
       </c>
       <c r="AG5">
-        <v>0.6777260000000001</v>
+        <v>0.6865560000000001</v>
       </c>
       <c r="AH5">
-        <v>0.502969</v>
+        <v>0.473143</v>
       </c>
       <c r="AI5">
-        <v>0.2483</v>
-      </c>
-      <c r="AJ5">
-        <v>0.08022359999999999</v>
-      </c>
-      <c r="AK5">
-        <v>0.0783079</v>
-      </c>
-      <c r="AL5">
-        <v>0.0657152</v>
-      </c>
-      <c r="AM5">
-        <v>0.0351326</v>
+        <v>0.247035</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN5">
-        <v>0.311128</v>
+        <v>0.281301</v>
       </c>
       <c r="AO5">
-        <v>873.753</v>
+        <v>870.581</v>
       </c>
       <c r="AP5">
-        <v>830.7600000000001</v>
+        <v>830.633</v>
       </c>
       <c r="AQ5">
-        <v>885.076</v>
+        <v>885.379</v>
       </c>
       <c r="AR5">
-        <v>742.6669999999999</v>
+        <v>746.605</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT5">
-        <v>724.8820000000001</v>
+        <v>723.663</v>
       </c>
       <c r="AU5">
-        <v>779.829</v>
+        <v>778.792</v>
       </c>
       <c r="AV5">
-        <v>736.264</v>
+        <v>737.732</v>
       </c>
       <c r="AW5">
-        <v>792.0100000000001</v>
+        <v>795.177</v>
       </c>
       <c r="AX5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:50">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>49.2948</v>
+        <v>48.6364</v>
       </c>
       <c r="N6">
-        <v>9.723889999999999</v>
+        <v>14.1141</v>
       </c>
       <c r="O6">
-        <v>14.1542</v>
+        <v>16.4286</v>
       </c>
       <c r="P6">
-        <v>23.4923</v>
+        <v>27.534</v>
       </c>
       <c r="Q6">
-        <v>49.29510000000001</v>
+        <v>48.637</v>
       </c>
       <c r="R6">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S6">
-        <v>23.4923</v>
+        <v>27.534</v>
       </c>
       <c r="T6">
-        <v>22.7837</v>
+        <v>26.1707</v>
       </c>
       <c r="U6">
-        <v>13.6138</v>
+        <v>15.3116</v>
       </c>
       <c r="V6">
-        <v>8.86416</v>
+        <v>15.9243</v>
       </c>
       <c r="W6">
-        <v>7.26667</v>
+        <v>10.0241</v>
       </c>
       <c r="X6">
-        <v>8.69829</v>
+        <v>12.4135</v>
       </c>
       <c r="Y6">
-        <v>8.69829</v>
+        <v>12.4135</v>
       </c>
       <c r="Z6">
-        <v>8.701269999999999</v>
+        <v>12.4151</v>
       </c>
       <c r="AA6">
-        <v>14.1542</v>
+        <v>16.4286</v>
       </c>
       <c r="AB6">
-        <v>8.932830000000001</v>
+        <v>15.7455</v>
       </c>
       <c r="AC6">
-        <v>7.42536</v>
+        <v>10.0622</v>
       </c>
       <c r="AD6">
-        <v>9.723889999999999</v>
+        <v>14.1141</v>
       </c>
       <c r="AE6">
-        <v>9.723889999999999</v>
+        <v>14.1141</v>
       </c>
       <c r="AF6">
-        <v>9.723889999999999</v>
+        <v>14.1141</v>
       </c>
       <c r="AG6">
-        <v>0.828049</v>
+        <v>0.837534</v>
       </c>
       <c r="AH6">
-        <v>0.71375</v>
+        <v>0.680546</v>
       </c>
       <c r="AI6">
-        <v>0.376779</v>
-      </c>
-      <c r="AJ6">
-        <v>0.112157</v>
-      </c>
-      <c r="AK6">
-        <v>0.102707</v>
-      </c>
-      <c r="AL6">
-        <v>0.08359</v>
-      </c>
-      <c r="AM6">
-        <v>0.0436078</v>
+        <v>0.375374</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN6">
-        <v>0.4008</v>
+        <v>0.367596</v>
       </c>
       <c r="AO6">
-        <v>872.796</v>
+        <v>869.859</v>
       </c>
       <c r="AP6">
-        <v>829.0250000000001</v>
+        <v>829.14</v>
       </c>
       <c r="AQ6">
-        <v>882.4930000000001</v>
+        <v>883.236</v>
       </c>
       <c r="AR6">
-        <v>739.117</v>
+        <v>743.1590000000001</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT6">
-        <v>723.967</v>
+        <v>722.973</v>
       </c>
       <c r="AU6">
-        <v>778.0419999999999</v>
+        <v>777.3620000000001</v>
       </c>
       <c r="AV6">
-        <v>733.6940000000001</v>
+        <v>735.4450000000001</v>
       </c>
       <c r="AW6">
-        <v>788.409</v>
+        <v>791.7959999999999</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:50">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M7">
-        <v>49.897</v>
+        <v>49.1022</v>
       </c>
       <c r="N7">
-        <v>9.55461</v>
+        <v>14.7724</v>
       </c>
       <c r="O7">
-        <v>12.5824</v>
+        <v>15.7853</v>
       </c>
       <c r="P7">
-        <v>26.2722</v>
+        <v>30.8285</v>
       </c>
       <c r="Q7">
-        <v>49.8963</v>
+        <v>49.1022</v>
       </c>
       <c r="R7">
-        <v>99.9986</v>
+        <v>100</v>
       </c>
       <c r="S7">
-        <v>26.2722</v>
+        <v>30.8285</v>
       </c>
       <c r="T7">
-        <v>26.1664</v>
+        <v>29.9312</v>
       </c>
       <c r="U7">
-        <v>12.1484</v>
+        <v>12.5975</v>
       </c>
       <c r="V7">
-        <v>8.19244</v>
+        <v>15.7853</v>
       </c>
       <c r="W7">
-        <v>7.16482</v>
+        <v>9.650079999999999</v>
       </c>
       <c r="X7">
-        <v>8.893050000000001</v>
+        <v>13.3141</v>
       </c>
       <c r="Y7">
-        <v>8.893050000000001</v>
+        <v>13.3141</v>
       </c>
       <c r="Z7">
-        <v>8.892669999999999</v>
+        <v>13.3156</v>
       </c>
       <c r="AA7">
-        <v>12.5824</v>
+        <v>15.2559</v>
       </c>
       <c r="AB7">
-        <v>8.121879999999999</v>
+        <v>15.7255</v>
       </c>
       <c r="AC7">
-        <v>7.196730000000001</v>
+        <v>9.541170000000001</v>
       </c>
       <c r="AD7">
-        <v>9.55461</v>
+        <v>14.7724</v>
       </c>
       <c r="AE7">
-        <v>9.55461</v>
+        <v>14.7724</v>
       </c>
       <c r="AF7">
-        <v>9.55461</v>
+        <v>14.7724</v>
       </c>
       <c r="AG7">
-        <v>0.6817</v>
+        <v>0.69278</v>
       </c>
       <c r="AH7">
-        <v>0.358516</v>
+        <v>0.320621</v>
       </c>
       <c r="AI7">
-        <v>0.129435</v>
-      </c>
-      <c r="AJ7">
-        <v>0.0682242</v>
-      </c>
-      <c r="AK7">
-        <v>0.0684535</v>
-      </c>
-      <c r="AL7">
-        <v>0.05905559999999999</v>
-      </c>
-      <c r="AM7">
-        <v>0.0333613</v>
+        <v>0.129419</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN7">
-        <v>0.229535</v>
+        <v>0.19164</v>
       </c>
       <c r="AO7">
-        <v>874.624</v>
+        <v>871.4590000000001</v>
       </c>
       <c r="AP7">
-        <v>830.5200000000001</v>
+        <v>830.4639999999999</v>
       </c>
       <c r="AQ7">
-        <v>885.442</v>
+        <v>885.942</v>
       </c>
       <c r="AR7">
-        <v>741.895</v>
+        <v>746.454</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT7">
-        <v>724.593</v>
+        <v>723.312</v>
       </c>
       <c r="AU7">
-        <v>780.275</v>
+        <v>779.235</v>
       </c>
       <c r="AV7">
-        <v>735.583</v>
+        <v>737.159</v>
       </c>
       <c r="AW7">
-        <v>791.7910000000001</v>
+        <v>795.5559999999999</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:50">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8">
-        <v>49.8275</v>
+        <v>49.1634</v>
       </c>
       <c r="N8">
-        <v>8.145760000000001</v>
+        <v>13.0379</v>
       </c>
       <c r="O8">
-        <v>11.93</v>
+        <v>14.7734</v>
       </c>
       <c r="P8">
-        <v>21.8536</v>
+        <v>26.4627</v>
       </c>
       <c r="Q8">
-        <v>49.8313</v>
+        <v>49.1631</v>
       </c>
       <c r="R8">
-        <v>100.008</v>
+        <v>99.9995</v>
       </c>
       <c r="S8">
-        <v>21.8536</v>
+        <v>26.4627</v>
       </c>
       <c r="T8">
-        <v>21.6883</v>
+        <v>25.6269</v>
       </c>
       <c r="U8">
-        <v>11.5994</v>
+        <v>12.902</v>
       </c>
       <c r="V8">
-        <v>7.20183</v>
+        <v>14.5431</v>
       </c>
       <c r="W8">
-        <v>6.075</v>
+        <v>8.986649999999999</v>
       </c>
       <c r="X8">
-        <v>7.52197</v>
+        <v>11.6936</v>
       </c>
       <c r="Y8">
-        <v>7.52197</v>
+        <v>11.6936</v>
       </c>
       <c r="Z8">
-        <v>7.51979</v>
+        <v>11.693</v>
       </c>
       <c r="AA8">
-        <v>11.93</v>
+        <v>14.7734</v>
       </c>
       <c r="AB8">
-        <v>7.16227</v>
+        <v>14.3905</v>
       </c>
       <c r="AC8">
-        <v>6.132980000000001</v>
+        <v>8.827350000000001</v>
       </c>
       <c r="AD8">
-        <v>8.145760000000001</v>
+        <v>13.0379</v>
       </c>
       <c r="AE8">
-        <v>8.145760000000001</v>
+        <v>13.0379</v>
       </c>
       <c r="AF8">
-        <v>8.145760000000001</v>
+        <v>13.0379</v>
       </c>
       <c r="AG8">
-        <v>0.8322929999999999</v>
+        <v>0.844094</v>
       </c>
       <c r="AH8">
-        <v>0.5444020000000001</v>
+        <v>0.500189</v>
       </c>
       <c r="AI8">
-        <v>0.240592</v>
-      </c>
-      <c r="AJ8">
-        <v>0.097428</v>
-      </c>
-      <c r="AK8">
-        <v>0.08981690000000001</v>
-      </c>
-      <c r="AL8">
-        <v>0.075279</v>
-      </c>
-      <c r="AM8">
-        <v>0.0414141</v>
+        <v>0.240573</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN8">
-        <v>0.304493</v>
+        <v>0.260276</v>
       </c>
       <c r="AO8">
-        <v>873.187</v>
+        <v>870.3099999999999</v>
       </c>
       <c r="AP8">
-        <v>828.216</v>
+        <v>828.466</v>
       </c>
       <c r="AQ8">
-        <v>882.0690000000001</v>
+        <v>883.0360000000001</v>
       </c>
       <c r="AR8">
-        <v>737.486</v>
+        <v>742.09</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT8">
-        <v>723.3560000000001</v>
+        <v>722.3870000000001</v>
       </c>
       <c r="AU8">
-        <v>777.889</v>
+        <v>777.261</v>
       </c>
       <c r="AV8">
-        <v>732.367</v>
+        <v>734.26</v>
       </c>
       <c r="AW8">
-        <v>787.313</v>
+        <v>791.2520000000001</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:50">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M9">
-        <v>49.3375</v>
+        <v>48.5705</v>
       </c>
       <c r="N9">
-        <v>11.1422</v>
+        <v>16.9227</v>
       </c>
       <c r="O9">
-        <v>14.7456</v>
+        <v>18.2903</v>
       </c>
       <c r="P9">
-        <v>26.9991</v>
+        <v>32.1818</v>
       </c>
       <c r="Q9">
-        <v>49.3391</v>
+        <v>48.56930000000001</v>
       </c>
       <c r="R9">
-        <v>100.003</v>
+        <v>99.9975</v>
       </c>
       <c r="S9">
-        <v>26.9991</v>
+        <v>32.1818</v>
       </c>
       <c r="T9">
-        <v>26.3398</v>
+        <v>30.751</v>
       </c>
       <c r="U9">
-        <v>14.126</v>
+        <v>15.721</v>
       </c>
       <c r="V9">
-        <v>9.852869999999999</v>
+        <v>18.2903</v>
       </c>
       <c r="W9">
-        <v>8.361420000000001</v>
+        <v>11.628</v>
       </c>
       <c r="X9">
-        <v>10.0037</v>
+        <v>14.8282</v>
       </c>
       <c r="Y9">
-        <v>10.0037</v>
+        <v>14.8282</v>
       </c>
       <c r="Z9">
-        <v>10.0043</v>
+        <v>14.828</v>
       </c>
       <c r="AA9">
-        <v>14.7456</v>
+        <v>17.7601</v>
       </c>
       <c r="AB9">
-        <v>9.953090000000001</v>
+        <v>18.2084</v>
       </c>
       <c r="AC9">
-        <v>8.559059999999999</v>
+        <v>11.7127</v>
       </c>
       <c r="AD9">
-        <v>11.1422</v>
+        <v>16.9227</v>
       </c>
       <c r="AE9">
-        <v>11.1422</v>
+        <v>16.9227</v>
       </c>
       <c r="AF9">
-        <v>11.1422</v>
+        <v>16.9227</v>
       </c>
       <c r="AG9">
-        <v>0.677742</v>
+        <v>0.685578</v>
       </c>
       <c r="AH9">
-        <v>0.502744</v>
+        <v>0.470676</v>
       </c>
       <c r="AI9">
-        <v>0.2483</v>
-      </c>
-      <c r="AJ9">
-        <v>0.08022700000000001</v>
-      </c>
-      <c r="AK9">
-        <v>0.0783049</v>
-      </c>
-      <c r="AL9">
-        <v>0.06570240000000001</v>
-      </c>
-      <c r="AM9">
-        <v>0.0349202</v>
+        <v>0.247036</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN9">
-        <v>0.310903</v>
+        <v>0.278835</v>
       </c>
       <c r="AO9">
-        <v>873.7510000000001</v>
+        <v>870.3670000000001</v>
       </c>
       <c r="AP9">
-        <v>830.7570000000001</v>
+        <v>830.981</v>
       </c>
       <c r="AQ9">
-        <v>885.074</v>
+        <v>886.019</v>
       </c>
       <c r="AR9">
-        <v>742.624</v>
+        <v>747.806</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT9">
-        <v>724.881</v>
+        <v>723.73</v>
       </c>
       <c r="AU9">
-        <v>779.828</v>
+        <v>779.1</v>
       </c>
       <c r="AV9">
-        <v>736.263</v>
+        <v>738.4499999999999</v>
       </c>
       <c r="AW9">
-        <v>791.965</v>
+        <v>796.376</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:50">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M10">
-        <v>49.2951</v>
+        <v>48.6291</v>
       </c>
       <c r="N10">
-        <v>9.675940000000001</v>
+        <v>15.2149</v>
       </c>
       <c r="O10">
-        <v>14.1456</v>
+        <v>17.1553</v>
       </c>
       <c r="P10">
-        <v>23.4515</v>
+        <v>28.8118</v>
       </c>
       <c r="Q10">
-        <v>49.2953</v>
+        <v>48.628</v>
       </c>
       <c r="R10">
-        <v>100</v>
+        <v>99.99760000000001</v>
       </c>
       <c r="S10">
-        <v>23.4515</v>
+        <v>28.8118</v>
       </c>
       <c r="T10">
-        <v>22.7431</v>
+        <v>27.4391</v>
       </c>
       <c r="U10">
-        <v>13.6048</v>
+        <v>15.8388</v>
       </c>
       <c r="V10">
-        <v>8.86088</v>
+        <v>17.1553</v>
       </c>
       <c r="W10">
-        <v>7.26682</v>
+        <v>11.0272</v>
       </c>
       <c r="X10">
-        <v>8.67116</v>
+        <v>13.3905</v>
       </c>
       <c r="Y10">
-        <v>8.67116</v>
+        <v>13.3905</v>
       </c>
       <c r="Z10">
-        <v>8.671250000000001</v>
+        <v>13.39</v>
       </c>
       <c r="AA10">
-        <v>14.1456</v>
+        <v>17.0912</v>
       </c>
       <c r="AB10">
-        <v>8.92895</v>
+        <v>16.9215</v>
       </c>
       <c r="AC10">
-        <v>7.42451</v>
+        <v>11.0323</v>
       </c>
       <c r="AD10">
-        <v>9.675940000000001</v>
+        <v>15.2149</v>
       </c>
       <c r="AE10">
-        <v>9.675940000000001</v>
+        <v>15.2149</v>
       </c>
       <c r="AF10">
-        <v>9.675940000000001</v>
+        <v>15.2149</v>
       </c>
       <c r="AG10">
-        <v>0.8280650000000001</v>
+        <v>0.836511</v>
       </c>
       <c r="AH10">
-        <v>0.713477</v>
+        <v>0.6785829999999999</v>
       </c>
       <c r="AI10">
-        <v>0.376779</v>
-      </c>
-      <c r="AJ10">
-        <v>0.112146</v>
-      </c>
-      <c r="AK10">
-        <v>0.102706</v>
-      </c>
-      <c r="AL10">
-        <v>0.0835823</v>
-      </c>
-      <c r="AM10">
-        <v>0.0433545</v>
+        <v>0.375375</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN10">
-        <v>0.400527</v>
+        <v>0.365632</v>
       </c>
       <c r="AO10">
-        <v>872.796</v>
+        <v>869.6210000000001</v>
       </c>
       <c r="AP10">
-        <v>829.024</v>
+        <v>829.538</v>
       </c>
       <c r="AQ10">
-        <v>882.4920000000001</v>
+        <v>883.9490000000001</v>
       </c>
       <c r="AR10">
-        <v>739.078</v>
+        <v>744.4350000000001</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT10">
-        <v>723.9680000000001</v>
+        <v>723.0740000000001</v>
       </c>
       <c r="AU10">
-        <v>778.0419999999999</v>
+        <v>777.712</v>
       </c>
       <c r="AV10">
-        <v>733.6950000000001</v>
+        <v>736.232</v>
       </c>
       <c r="AW10">
-        <v>788.3680000000001</v>
+        <v>793.064</v>
       </c>
       <c r="AX10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:50">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11">
-        <v>49.7243</v>
+        <v>48.8913</v>
       </c>
       <c r="N11">
-        <v>15.5936</v>
+        <v>20.8417</v>
       </c>
       <c r="O11">
-        <v>15.0776</v>
+        <v>20.7555</v>
       </c>
       <c r="P11">
-        <v>47.60440000000001</v>
+        <v>50.3282</v>
       </c>
       <c r="Q11">
-        <v>49.7243</v>
+        <v>48.8899</v>
       </c>
       <c r="R11">
-        <v>99.99980000000001</v>
+        <v>99.997</v>
       </c>
       <c r="S11">
-        <v>47.60440000000001</v>
+        <v>50.3282</v>
       </c>
       <c r="T11">
-        <v>47.323</v>
+        <v>49.2197</v>
       </c>
       <c r="U11">
-        <v>13.9825</v>
+        <v>12.0524</v>
       </c>
       <c r="V11">
-        <v>12.8205</v>
+        <v>19.0472</v>
       </c>
       <c r="W11">
-        <v>12.4205</v>
+        <v>12.3586</v>
       </c>
       <c r="X11">
-        <v>15.0776</v>
+        <v>19.5465</v>
       </c>
       <c r="Y11">
-        <v>15.0776</v>
+        <v>19.5465</v>
       </c>
       <c r="Z11">
-        <v>15.0752</v>
+        <v>19.5465</v>
       </c>
       <c r="AA11">
-        <v>14.4585</v>
+        <v>14.0295</v>
       </c>
       <c r="AB11">
-        <v>13.0699</v>
+        <v>20.7555</v>
       </c>
       <c r="AC11">
-        <v>12.6344</v>
+        <v>12.6011</v>
       </c>
       <c r="AD11">
-        <v>15.5936</v>
+        <v>20.8417</v>
       </c>
       <c r="AE11">
-        <v>15.5936</v>
+        <v>20.8417</v>
       </c>
       <c r="AF11">
-        <v>15.5936</v>
+        <v>20.8417</v>
       </c>
       <c r="AG11">
-        <v>0.683903</v>
+        <v>0.701762</v>
       </c>
       <c r="AH11">
-        <v>0.222488</v>
+        <v>0.185046</v>
       </c>
       <c r="AI11">
-        <v>0.0204356</v>
-      </c>
-      <c r="AJ11">
-        <v>0.0553787</v>
-      </c>
-      <c r="AK11">
-        <v>0.0601754</v>
-      </c>
-      <c r="AL11">
-        <v>0.0541258</v>
-      </c>
-      <c r="AM11">
-        <v>0.03258399999999999</v>
+        <v>0.0204355</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN11">
-        <v>0.202269</v>
+        <v>0.164827</v>
       </c>
       <c r="AO11">
-        <v>880.1809999999999</v>
+        <v>876.4290000000001</v>
       </c>
       <c r="AP11">
-        <v>840.466</v>
+        <v>838.793</v>
       </c>
       <c r="AQ11">
-        <v>901.192</v>
+        <v>899.7569999999999</v>
       </c>
       <c r="AR11">
-        <v>763.23</v>
+        <v>765.95</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT11">
-        <v>729.867</v>
+        <v>727.639</v>
       </c>
       <c r="AU11">
-        <v>790.654</v>
+        <v>788.131</v>
       </c>
       <c r="AV11">
-        <v>750.9359999999999</v>
+        <v>750.6070000000001</v>
       </c>
       <c r="AW11">
-        <v>812.948</v>
+        <v>814.845</v>
       </c>
       <c r="AX11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:50">
       <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12">
-        <v>49.8851</v>
+        <v>49.2512</v>
       </c>
       <c r="N12">
-        <v>11.7746</v>
+        <v>16.1361</v>
       </c>
       <c r="O12">
-        <v>12.9686</v>
+        <v>17.0209</v>
       </c>
       <c r="P12">
-        <v>34.3859</v>
+        <v>36.9999</v>
       </c>
       <c r="Q12">
-        <v>49.8844</v>
+        <v>49.2514</v>
       </c>
       <c r="R12">
-        <v>99.9986</v>
+        <v>100</v>
       </c>
       <c r="S12">
-        <v>34.3859</v>
+        <v>36.9999</v>
       </c>
       <c r="T12">
-        <v>34.2661</v>
+        <v>36.25</v>
       </c>
       <c r="U12">
-        <v>12.4941</v>
+        <v>11.6084</v>
       </c>
       <c r="V12">
-        <v>9.666840000000001</v>
+        <v>16.4402</v>
       </c>
       <c r="W12">
-        <v>9.14223</v>
+        <v>10.0233</v>
       </c>
       <c r="X12">
-        <v>11.1638</v>
+        <v>14.8417</v>
       </c>
       <c r="Y12">
-        <v>11.1638</v>
+        <v>14.8417</v>
       </c>
       <c r="Z12">
-        <v>11.1639</v>
+        <v>14.8427</v>
       </c>
       <c r="AA12">
-        <v>12.9686</v>
+        <v>13.9668</v>
       </c>
       <c r="AB12">
-        <v>9.930200000000001</v>
+        <v>17.0209</v>
       </c>
       <c r="AC12">
-        <v>9.379350000000001</v>
+        <v>10.1375</v>
       </c>
       <c r="AD12">
-        <v>11.7746</v>
+        <v>16.1361</v>
       </c>
       <c r="AE12">
-        <v>11.7746</v>
+        <v>16.1361</v>
       </c>
       <c r="AF12">
-        <v>11.7746</v>
+        <v>16.1361</v>
       </c>
       <c r="AG12">
-        <v>0.834836</v>
+        <v>0.853121</v>
       </c>
       <c r="AH12">
-        <v>0.32291</v>
+        <v>0.279143</v>
       </c>
       <c r="AI12">
-        <v>0.0684575</v>
-      </c>
-      <c r="AJ12">
-        <v>0.0711445</v>
-      </c>
-      <c r="AK12">
-        <v>0.0754783</v>
-      </c>
-      <c r="AL12">
-        <v>0.06768199999999999</v>
-      </c>
-      <c r="AM12">
-        <v>0.0401249</v>
+        <v>0.0684573</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN12">
-        <v>0.254439</v>
+        <v>0.210671</v>
       </c>
       <c r="AO12">
-        <v>876.9399999999999</v>
+        <v>873.634</v>
       </c>
       <c r="AP12">
-        <v>834.3770000000001</v>
+        <v>833.292</v>
       </c>
       <c r="AQ12">
-        <v>891.61</v>
+        <v>890.8190000000001</v>
       </c>
       <c r="AR12">
-        <v>750.0120000000001</v>
+        <v>752.624</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT12">
-        <v>726.772</v>
+        <v>724.859</v>
       </c>
       <c r="AU12">
-        <v>784.492</v>
+        <v>782.6410000000001</v>
       </c>
       <c r="AV12">
-        <v>741.519</v>
+        <v>741.62</v>
       </c>
       <c r="AW12">
-        <v>799.8910000000001</v>
+        <v>801.875</v>
       </c>
       <c r="AX12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:50">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
         <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13">
-        <v>49.4784</v>
+        <v>48.9173</v>
       </c>
       <c r="N13">
-        <v>17.1341</v>
+        <v>22.5398</v>
       </c>
       <c r="O13">
-        <v>16.2575</v>
+        <v>23.0034</v>
       </c>
       <c r="P13">
-        <v>45.3141</v>
+        <v>47.472</v>
       </c>
       <c r="Q13">
-        <v>49.47940000000001</v>
+        <v>48.9179</v>
       </c>
       <c r="R13">
-        <v>100.002</v>
+        <v>100.001</v>
       </c>
       <c r="S13">
-        <v>45.3141</v>
+        <v>47.472</v>
       </c>
       <c r="T13">
-        <v>44.7902</v>
+        <v>46.3899</v>
       </c>
       <c r="U13">
-        <v>15.3714</v>
+        <v>14.1782</v>
       </c>
       <c r="V13">
-        <v>13.7978</v>
+        <v>21.6761</v>
       </c>
       <c r="W13">
-        <v>13.2122</v>
+        <v>13.4846</v>
       </c>
       <c r="X13">
-        <v>15.7269</v>
+        <v>20.0936</v>
       </c>
       <c r="Y13">
-        <v>15.7269</v>
+        <v>20.0936</v>
       </c>
       <c r="Z13">
-        <v>15.7269</v>
+        <v>20.0956</v>
       </c>
       <c r="AA13">
-        <v>16.2575</v>
+        <v>17.2684</v>
       </c>
       <c r="AB13">
-        <v>14.3907</v>
+        <v>23.0034</v>
       </c>
       <c r="AC13">
-        <v>13.7803</v>
+        <v>13.9702</v>
       </c>
       <c r="AD13">
-        <v>17.1341</v>
+        <v>22.5398</v>
       </c>
       <c r="AE13">
-        <v>17.1341</v>
+        <v>22.5398</v>
       </c>
       <c r="AF13">
-        <v>17.1341</v>
+        <v>22.5398</v>
       </c>
       <c r="AG13">
-        <v>0.6808340000000001</v>
+        <v>0.693493</v>
       </c>
       <c r="AH13">
-        <v>0.254953</v>
+        <v>0.21839</v>
       </c>
       <c r="AI13">
-        <v>0.0471527</v>
-      </c>
-      <c r="AJ13">
-        <v>0.0577732</v>
-      </c>
-      <c r="AK13">
-        <v>0.061887</v>
-      </c>
-      <c r="AL13">
-        <v>0.05541479999999999</v>
-      </c>
-      <c r="AM13">
-        <v>0.0328572</v>
+        <v>0.0471109</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN13">
-        <v>0.209859</v>
+        <v>0.173296</v>
       </c>
       <c r="AO13">
-        <v>878.426</v>
+        <v>874.331</v>
       </c>
       <c r="AP13">
-        <v>839.103</v>
+        <v>837.226</v>
       </c>
       <c r="AQ13">
-        <v>898.582</v>
+        <v>896.803</v>
       </c>
       <c r="AR13">
-        <v>760.939</v>
+        <v>763.098</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT13">
-        <v>729.1319999999999</v>
+        <v>726.657</v>
       </c>
       <c r="AU13">
-        <v>788.812</v>
+        <v>786.167</v>
       </c>
       <c r="AV13">
-        <v>749.4150000000001</v>
+        <v>748.7429999999999</v>
       </c>
       <c r="AW13">
-        <v>810.4150000000001</v>
+        <v>812.015</v>
       </c>
       <c r="AX13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:50">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
         <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>49.5652</v>
+        <v>49.0172</v>
       </c>
       <c r="N14">
-        <v>13.4907</v>
+        <v>18.1601</v>
       </c>
       <c r="O14">
-        <v>14.5466</v>
+        <v>19.0999</v>
       </c>
       <c r="P14">
-        <v>34.7734</v>
+        <v>37.296</v>
       </c>
       <c r="Q14">
-        <v>49.5665</v>
+        <v>49.0177</v>
       </c>
       <c r="R14">
-        <v>100.003</v>
+        <v>100.001</v>
       </c>
       <c r="S14">
-        <v>34.7734</v>
+        <v>37.296</v>
       </c>
       <c r="T14">
-        <v>34.3398</v>
+        <v>36.3137</v>
       </c>
       <c r="U14">
-        <v>13.9171</v>
+        <v>13.638</v>
       </c>
       <c r="V14">
-        <v>11.0707</v>
+        <v>18.5946</v>
       </c>
       <c r="W14">
-        <v>10.2954</v>
+        <v>11.3904</v>
       </c>
       <c r="X14">
-        <v>12.3318</v>
+        <v>16.1418</v>
       </c>
       <c r="Y14">
-        <v>12.3318</v>
+        <v>16.1418</v>
       </c>
       <c r="Z14">
-        <v>12.3322</v>
+        <v>16.1443</v>
       </c>
       <c r="AA14">
-        <v>14.5466</v>
+        <v>16.4445</v>
       </c>
       <c r="AB14">
-        <v>11.4966</v>
+        <v>19.0999</v>
       </c>
       <c r="AC14">
-        <v>10.705</v>
+        <v>11.6208</v>
       </c>
       <c r="AD14">
-        <v>13.4907</v>
+        <v>18.1601</v>
       </c>
       <c r="AE14">
-        <v>13.4907</v>
+        <v>18.1601</v>
       </c>
       <c r="AF14">
-        <v>13.4907</v>
+        <v>18.1601</v>
       </c>
       <c r="AG14">
-        <v>0.832063</v>
+        <v>0.846861</v>
       </c>
       <c r="AH14">
-        <v>0.362967</v>
+        <v>0.32111</v>
       </c>
       <c r="AI14">
-        <v>0.09818729999999999</v>
-      </c>
-      <c r="AJ14">
-        <v>0.07602779999999999</v>
-      </c>
-      <c r="AK14">
-        <v>0.0785642</v>
-      </c>
-      <c r="AL14">
-        <v>0.06968539999999999</v>
-      </c>
-      <c r="AM14">
-        <v>0.0405807</v>
+        <v>0.09814079999999999</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN14">
-        <v>0.267035</v>
+        <v>0.225178</v>
       </c>
       <c r="AO14">
-        <v>875.957</v>
+        <v>872.438</v>
       </c>
       <c r="AP14">
-        <v>834.277</v>
+        <v>833.09</v>
       </c>
       <c r="AQ14">
-        <v>891.082</v>
+        <v>890.158</v>
       </c>
       <c r="AR14">
-        <v>750.398</v>
+        <v>752.922</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT14">
-        <v>726.66</v>
+        <v>724.624</v>
       </c>
       <c r="AU14">
-        <v>783.9259999999999</v>
+        <v>782.001</v>
       </c>
       <c r="AV14">
-        <v>741.8330000000001</v>
+        <v>741.8729999999999</v>
       </c>
       <c r="AW14">
-        <v>799.965</v>
+        <v>801.9390000000001</v>
       </c>
       <c r="AX14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:50">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>49.7267</v>
+        <v>48.8633</v>
       </c>
       <c r="N15">
-        <v>15.4951</v>
+        <v>21.7948</v>
       </c>
       <c r="O15">
-        <v>14.9987</v>
+        <v>21.6304</v>
       </c>
       <c r="P15">
-        <v>47.5478</v>
+        <v>51.2666</v>
       </c>
       <c r="Q15">
-        <v>49.7274</v>
+        <v>48.863</v>
       </c>
       <c r="R15">
-        <v>100.001</v>
+        <v>99.9995</v>
       </c>
       <c r="S15">
-        <v>47.5478</v>
+        <v>51.2666</v>
       </c>
       <c r="T15">
-        <v>47.2775</v>
+        <v>50.13</v>
       </c>
       <c r="U15">
-        <v>13.9779</v>
+        <v>12.2247</v>
       </c>
       <c r="V15">
-        <v>12.8132</v>
+        <v>20.1637</v>
       </c>
       <c r="W15">
-        <v>12.4201</v>
+        <v>12.9178</v>
       </c>
       <c r="X15">
-        <v>14.9987</v>
+        <v>20.3696</v>
       </c>
       <c r="Y15">
-        <v>14.9987</v>
+        <v>20.3696</v>
       </c>
       <c r="Z15">
-        <v>14.9985</v>
+        <v>20.3702</v>
       </c>
       <c r="AA15">
-        <v>14.4606</v>
+        <v>14.6957</v>
       </c>
       <c r="AB15">
-        <v>13.0726</v>
+        <v>21.6304</v>
       </c>
       <c r="AC15">
-        <v>12.6315</v>
+        <v>13.1286</v>
       </c>
       <c r="AD15">
-        <v>15.4951</v>
+        <v>21.7948</v>
       </c>
       <c r="AE15">
-        <v>15.4951</v>
+        <v>21.7948</v>
       </c>
       <c r="AF15">
-        <v>15.4951</v>
+        <v>21.7948</v>
       </c>
       <c r="AG15">
-        <v>0.683976</v>
+        <v>0.700137</v>
       </c>
       <c r="AH15">
-        <v>0.222258</v>
+        <v>0.180183</v>
       </c>
       <c r="AI15">
-        <v>0.0204356</v>
-      </c>
-      <c r="AJ15">
-        <v>0.0553759</v>
-      </c>
-      <c r="AK15">
-        <v>0.0601756</v>
-      </c>
-      <c r="AL15">
-        <v>0.0541285</v>
-      </c>
-      <c r="AM15">
-        <v>0.032353</v>
+        <v>0.0204355</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN15">
-        <v>0.202038</v>
+        <v>0.159963</v>
       </c>
       <c r="AO15">
-        <v>880.183</v>
+        <v>876.2370000000001</v>
       </c>
       <c r="AP15">
-        <v>840.4649999999999</v>
+        <v>839.01</v>
       </c>
       <c r="AQ15">
-        <v>901.192</v>
+        <v>900.121</v>
       </c>
       <c r="AR15">
-        <v>763.1709999999999</v>
+        <v>766.8920000000001</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT15">
-        <v>729.8679999999999</v>
+        <v>727.6210000000001</v>
       </c>
       <c r="AU15">
-        <v>790.6560000000001</v>
+        <v>788.2769999999999</v>
       </c>
       <c r="AV15">
-        <v>750.938</v>
+        <v>751.0600000000001</v>
       </c>
       <c r="AW15">
-        <v>812.903</v>
+        <v>815.7550000000001</v>
       </c>
       <c r="AX15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:50">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>49.8915</v>
+        <v>49.2327</v>
       </c>
       <c r="N16">
-        <v>11.7008</v>
+        <v>17.0623</v>
       </c>
       <c r="O16">
-        <v>12.973</v>
+        <v>17.8842</v>
       </c>
       <c r="P16">
-        <v>34.3335</v>
+        <v>38.0326</v>
       </c>
       <c r="Q16">
-        <v>49.89409999999999</v>
+        <v>49.2328</v>
       </c>
       <c r="R16">
-        <v>100.005</v>
+        <v>100</v>
       </c>
       <c r="S16">
-        <v>34.3335</v>
+        <v>38.0326</v>
       </c>
       <c r="T16">
-        <v>34.2262</v>
+        <v>37.2659</v>
       </c>
       <c r="U16">
-        <v>12.4823</v>
+        <v>11.7931</v>
       </c>
       <c r="V16">
-        <v>9.667159999999999</v>
+        <v>17.3905</v>
       </c>
       <c r="W16">
-        <v>9.14245</v>
+        <v>10.6666</v>
       </c>
       <c r="X16">
-        <v>11.1138</v>
+        <v>15.6411</v>
       </c>
       <c r="Y16">
-        <v>11.1138</v>
+        <v>15.6411</v>
       </c>
       <c r="Z16">
-        <v>11.1146</v>
+        <v>15.644</v>
       </c>
       <c r="AA16">
-        <v>12.973</v>
+        <v>14.7973</v>
       </c>
       <c r="AB16">
-        <v>9.931980000000001</v>
+        <v>17.8842</v>
       </c>
       <c r="AC16">
-        <v>9.380450000000002</v>
+        <v>10.7509</v>
       </c>
       <c r="AD16">
-        <v>11.7008</v>
+        <v>17.0623</v>
       </c>
       <c r="AE16">
-        <v>11.7008</v>
+        <v>17.0623</v>
       </c>
       <c r="AF16">
-        <v>11.7008</v>
+        <v>17.0623</v>
       </c>
       <c r="AG16">
-        <v>0.83486</v>
+        <v>0.85181</v>
       </c>
       <c r="AH16">
-        <v>0.322634</v>
+        <v>0.273788</v>
       </c>
       <c r="AI16">
-        <v>0.0684575</v>
-      </c>
-      <c r="AJ16">
-        <v>0.07115909999999999</v>
-      </c>
-      <c r="AK16">
-        <v>0.0754779</v>
-      </c>
-      <c r="AL16">
-        <v>0.0676822</v>
-      </c>
-      <c r="AM16">
-        <v>0.03983399999999999</v>
+        <v>0.0684573</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN16">
-        <v>0.254162</v>
+        <v>0.205316</v>
       </c>
       <c r="AO16">
-        <v>876.939</v>
+        <v>873.471</v>
       </c>
       <c r="AP16">
-        <v>834.374</v>
+        <v>833.5599999999999</v>
       </c>
       <c r="AQ16">
-        <v>891.609</v>
+        <v>891.296</v>
       </c>
       <c r="AR16">
-        <v>749.9580000000001</v>
+        <v>753.658</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT16">
-        <v>726.772</v>
+        <v>724.869</v>
       </c>
       <c r="AU16">
-        <v>784.494</v>
+        <v>782.853</v>
       </c>
       <c r="AV16">
-        <v>741.5160000000001</v>
+        <v>742.162</v>
       </c>
       <c r="AW16">
-        <v>799.851</v>
+        <v>802.8910000000001</v>
       </c>
       <c r="AX16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:50">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>49.4809</v>
+        <v>48.911</v>
       </c>
       <c r="N17">
-        <v>17.0303</v>
+        <v>23.5489</v>
       </c>
       <c r="O17">
-        <v>16.2571</v>
+        <v>23.7804</v>
       </c>
       <c r="P17">
-        <v>45.2513</v>
+        <v>48.3198</v>
       </c>
       <c r="Q17">
-        <v>49.4819</v>
+        <v>48.9109</v>
       </c>
       <c r="R17">
-        <v>100.002</v>
+        <v>99.9997</v>
       </c>
       <c r="S17">
-        <v>45.2513</v>
+        <v>48.3198</v>
       </c>
       <c r="T17">
-        <v>44.7354</v>
+        <v>47.2302</v>
       </c>
       <c r="U17">
-        <v>15.3748</v>
+        <v>14.4028</v>
       </c>
       <c r="V17">
-        <v>13.8041</v>
+        <v>22.6394</v>
       </c>
       <c r="W17">
-        <v>13.2132</v>
+        <v>14.102</v>
       </c>
       <c r="X17">
-        <v>15.6567</v>
+        <v>20.9623</v>
       </c>
       <c r="Y17">
-        <v>15.6567</v>
+        <v>20.9623</v>
       </c>
       <c r="Z17">
-        <v>15.657</v>
+        <v>20.9623</v>
       </c>
       <c r="AA17">
-        <v>16.2571</v>
+        <v>18.1695</v>
       </c>
       <c r="AB17">
-        <v>14.3931</v>
+        <v>23.7804</v>
       </c>
       <c r="AC17">
-        <v>13.7821</v>
+        <v>14.5565</v>
       </c>
       <c r="AD17">
-        <v>17.0303</v>
+        <v>23.5489</v>
       </c>
       <c r="AE17">
-        <v>17.0303</v>
+        <v>23.5489</v>
       </c>
       <c r="AF17">
-        <v>17.0303</v>
+        <v>23.5489</v>
       </c>
       <c r="AG17">
-        <v>0.680872</v>
+        <v>0.6918299999999999</v>
       </c>
       <c r="AH17">
-        <v>0.254717</v>
+        <v>0.213736</v>
       </c>
       <c r="AI17">
-        <v>0.0471527</v>
-      </c>
-      <c r="AJ17">
-        <v>0.05777359999999999</v>
-      </c>
-      <c r="AK17">
-        <v>0.0618804</v>
-      </c>
-      <c r="AL17">
-        <v>0.0554146</v>
-      </c>
-      <c r="AM17">
-        <v>0.032627</v>
+        <v>0.0471109</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN17">
-        <v>0.209623</v>
+        <v>0.168641</v>
       </c>
       <c r="AO17">
-        <v>878.427</v>
+        <v>874.1130000000001</v>
       </c>
       <c r="AP17">
-        <v>839.103</v>
+        <v>837.3910000000001</v>
       </c>
       <c r="AQ17">
-        <v>898.581</v>
+        <v>897.117</v>
       </c>
       <c r="AR17">
-        <v>760.875</v>
+        <v>763.9450000000001</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT17">
-        <v>729.14</v>
+        <v>726.623</v>
       </c>
       <c r="AU17">
-        <v>788.811</v>
+        <v>786.278</v>
       </c>
       <c r="AV17">
-        <v>749.4110000000001</v>
+        <v>749.148</v>
       </c>
       <c r="AW17">
-        <v>810.36</v>
+        <v>812.855</v>
       </c>
       <c r="AX17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:50">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18">
-        <v>49.5654</v>
+        <v>49.0125</v>
       </c>
       <c r="N18">
-        <v>13.4141</v>
+        <v>19.1518</v>
       </c>
       <c r="O18">
-        <v>14.5524</v>
+        <v>19.9931</v>
       </c>
       <c r="P18">
-        <v>34.7236</v>
+        <v>38.2932</v>
       </c>
       <c r="Q18">
-        <v>49.5661</v>
+        <v>49.0127</v>
       </c>
       <c r="R18">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S18">
-        <v>34.7236</v>
+        <v>38.2932</v>
       </c>
       <c r="T18">
-        <v>34.2892</v>
+        <v>37.3056</v>
       </c>
       <c r="U18">
-        <v>13.9223</v>
+        <v>13.9254</v>
       </c>
       <c r="V18">
-        <v>11.0709</v>
+        <v>19.5818</v>
       </c>
       <c r="W18">
-        <v>10.2947</v>
+        <v>12.0865</v>
       </c>
       <c r="X18">
-        <v>12.2797</v>
+        <v>17.0012</v>
       </c>
       <c r="Y18">
-        <v>12.2797</v>
+        <v>17.0012</v>
       </c>
       <c r="Z18">
-        <v>12.2791</v>
+        <v>16.9968</v>
       </c>
       <c r="AA18">
-        <v>14.5524</v>
+        <v>17.2253</v>
       </c>
       <c r="AB18">
-        <v>11.4921</v>
+        <v>19.9931</v>
       </c>
       <c r="AC18">
-        <v>10.7049</v>
+        <v>12.2905</v>
       </c>
       <c r="AD18">
-        <v>13.4141</v>
+        <v>19.1518</v>
       </c>
       <c r="AE18">
-        <v>13.4141</v>
+        <v>19.1518</v>
       </c>
       <c r="AF18">
-        <v>13.4141</v>
+        <v>19.1518</v>
       </c>
       <c r="AG18">
-        <v>0.83209</v>
+        <v>0.845688</v>
       </c>
       <c r="AH18">
-        <v>0.362676</v>
+        <v>0.31607</v>
       </c>
       <c r="AI18">
-        <v>0.09818729999999999</v>
-      </c>
-      <c r="AJ18">
-        <v>0.0760202</v>
-      </c>
-      <c r="AK18">
-        <v>0.0785568</v>
-      </c>
-      <c r="AL18">
-        <v>0.0696832</v>
-      </c>
-      <c r="AM18">
-        <v>0.0403076</v>
+        <v>0.09814079999999999</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN18">
-        <v>0.266744</v>
+        <v>0.220138</v>
       </c>
       <c r="AO18">
-        <v>875.955</v>
+        <v>872.2460000000001</v>
       </c>
       <c r="AP18">
-        <v>834.279</v>
+        <v>833.3290000000001</v>
       </c>
       <c r="AQ18">
-        <v>891.081</v>
+        <v>890.6160000000001</v>
       </c>
       <c r="AR18">
-        <v>750.345</v>
+        <v>753.9200000000001</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT18">
-        <v>726.658</v>
+        <v>724.624</v>
       </c>
       <c r="AU18">
-        <v>783.925</v>
+        <v>782.1980000000001</v>
       </c>
       <c r="AV18">
-        <v>741.832</v>
+        <v>742.4059999999999</v>
       </c>
       <c r="AW18">
-        <v>799.914</v>
+        <v>802.931</v>
       </c>
       <c r="AX18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:50">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>52.0117</v>
+        <v>50.2177</v>
       </c>
       <c r="N19">
-        <v>13.3784</v>
+        <v>17.9415</v>
       </c>
       <c r="O19">
-        <v>13.986</v>
+        <v>18.714</v>
       </c>
       <c r="P19">
-        <v>36.0615</v>
+        <v>37.9305</v>
       </c>
       <c r="Q19">
-        <v>52.0113</v>
+        <v>50.2176</v>
       </c>
       <c r="R19">
-        <v>99.9992</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S19">
-        <v>34.0519</v>
+        <v>37.7118</v>
       </c>
       <c r="T19">
-        <v>36.0615</v>
+        <v>37.9305</v>
       </c>
       <c r="U19">
-        <v>13.986</v>
+        <v>13.3421</v>
       </c>
       <c r="V19">
-        <v>12.3135</v>
+        <v>18.714</v>
       </c>
       <c r="W19">
-        <v>10.9456</v>
+        <v>11.4768</v>
       </c>
       <c r="X19">
-        <v>13.378</v>
+        <v>17.9423</v>
       </c>
       <c r="Y19">
-        <v>13.378</v>
+        <v>17.9423</v>
       </c>
       <c r="Z19">
-        <v>13.3784</v>
+        <v>17.9415</v>
       </c>
       <c r="AA19">
-        <v>12.8105</v>
+        <v>12.8857</v>
       </c>
       <c r="AB19">
-        <v>8.682739999999999</v>
+        <v>13.4398</v>
       </c>
       <c r="AC19">
-        <v>8.302470000000001</v>
+        <v>9.321899999999999</v>
       </c>
       <c r="AD19">
-        <v>10.8213</v>
+        <v>14.614</v>
       </c>
       <c r="AE19">
-        <v>10.8213</v>
+        <v>14.614</v>
       </c>
       <c r="AF19">
-        <v>10.8213</v>
+        <v>14.614</v>
       </c>
       <c r="AG19">
-        <v>0.682739</v>
+        <v>0.697394</v>
       </c>
       <c r="AH19">
-        <v>0.272665</v>
+        <v>0.23659</v>
       </c>
       <c r="AI19">
-        <v>0.06196409999999999</v>
-      </c>
-      <c r="AJ19">
-        <v>0.0590854</v>
-      </c>
-      <c r="AK19">
-        <v>0.0629358</v>
-      </c>
-      <c r="AL19">
-        <v>0.0560297</v>
-      </c>
-      <c r="AM19">
-        <v>0.0328636</v>
+        <v>0.0619567</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN19">
-        <v>0.211063</v>
+        <v>0.174988</v>
       </c>
       <c r="AO19">
-        <v>879.793</v>
+        <v>876.341</v>
       </c>
       <c r="AP19">
-        <v>833.8820000000001</v>
+        <v>833.092</v>
       </c>
       <c r="AQ19">
-        <v>894.25</v>
+        <v>893.706</v>
       </c>
       <c r="AR19">
-        <v>749.677</v>
+        <v>753.337</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT19">
-        <v>724.3570000000001</v>
+        <v>722.6080000000001</v>
       </c>
       <c r="AU19">
-        <v>785.747</v>
+        <v>783.8440000000001</v>
       </c>
       <c r="AV19">
-        <v>739.696</v>
+        <v>739.9180000000001</v>
       </c>
       <c r="AW19">
-        <v>801.686</v>
+        <v>803.5550000000001</v>
       </c>
       <c r="AX19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:50">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
         <v>104</v>
       </c>
-      <c r="B20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>103</v>
-      </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
         <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M20">
-        <v>52.2063</v>
+        <v>51.1749</v>
       </c>
       <c r="N20">
-        <v>10.1433</v>
+        <v>14.0307</v>
       </c>
       <c r="O20">
-        <v>12.459</v>
+        <v>15.5911</v>
       </c>
       <c r="P20">
-        <v>28.0651</v>
+        <v>30.2552</v>
       </c>
       <c r="Q20">
-        <v>52.2056</v>
+        <v>51.1752</v>
       </c>
       <c r="R20">
-        <v>99.9987</v>
+        <v>100.001</v>
       </c>
       <c r="S20">
-        <v>25.8673</v>
+        <v>29.0809</v>
       </c>
       <c r="T20">
-        <v>28.0651</v>
+        <v>30.2552</v>
       </c>
       <c r="U20">
-        <v>12.459</v>
+        <v>12.8896</v>
       </c>
       <c r="V20">
-        <v>9.554790000000001</v>
+        <v>15.5911</v>
       </c>
       <c r="W20">
-        <v>8.259960000000001</v>
+        <v>9.617140000000001</v>
       </c>
       <c r="X20">
-        <v>10.1459</v>
+        <v>14.0315</v>
       </c>
       <c r="Y20">
-        <v>10.1459</v>
+        <v>14.0315</v>
       </c>
       <c r="Z20">
-        <v>10.1433</v>
+        <v>14.0307</v>
       </c>
       <c r="AA20">
-        <v>11.9395</v>
+        <v>12.8491</v>
       </c>
       <c r="AB20">
-        <v>7.45864</v>
+        <v>13.5266</v>
       </c>
       <c r="AC20">
-        <v>6.767580000000001</v>
+        <v>8.21984</v>
       </c>
       <c r="AD20">
-        <v>8.89625</v>
+        <v>12.5259</v>
       </c>
       <c r="AE20">
-        <v>8.89625</v>
+        <v>12.5259</v>
       </c>
       <c r="AF20">
-        <v>8.89625</v>
+        <v>12.5259</v>
       </c>
       <c r="AG20">
-        <v>0.833589</v>
+        <v>0.8491570000000001</v>
       </c>
       <c r="AH20">
-        <v>0.410094</v>
+        <v>0.367439</v>
       </c>
       <c r="AI20">
-        <v>0.13906</v>
-      </c>
-      <c r="AJ20">
-        <v>0.0793441</v>
-      </c>
-      <c r="AK20">
-        <v>0.0805767</v>
-      </c>
-      <c r="AL20">
-        <v>0.07058499999999999</v>
-      </c>
-      <c r="AM20">
-        <v>0.0405935</v>
+        <v>0.139051</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN20">
-        <v>0.271293</v>
+        <v>0.228637</v>
       </c>
       <c r="AO20">
-        <v>876.9979999999999</v>
+        <v>873.973</v>
       </c>
       <c r="AP20">
-        <v>829.7430000000001</v>
+        <v>829.1930000000001</v>
       </c>
       <c r="AQ20">
-        <v>887.899</v>
+        <v>887.859</v>
       </c>
       <c r="AR20">
-        <v>741.491</v>
+        <v>744.706</v>
       </c>
       <c r="AS20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT20">
-        <v>722.523</v>
+        <v>721.051</v>
       </c>
       <c r="AU20">
-        <v>781.7180000000001</v>
+        <v>780.312</v>
       </c>
       <c r="AV20">
-        <v>734.1790000000001</v>
+        <v>734.625</v>
       </c>
       <c r="AW20">
-        <v>793.6899999999999</v>
+        <v>795.8800000000001</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:50">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
         <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M21">
-        <v>51.6069</v>
+        <v>50.3749</v>
       </c>
       <c r="N21">
-        <v>14.0141</v>
+        <v>18.6024</v>
       </c>
       <c r="O21">
-        <v>15.5309</v>
+        <v>20.3742</v>
       </c>
       <c r="P21">
-        <v>34.9362</v>
+        <v>37.1102</v>
       </c>
       <c r="Q21">
-        <v>51.60740000000001</v>
+        <v>50.3754</v>
       </c>
       <c r="R21">
         <v>100.001</v>
       </c>
       <c r="S21">
-        <v>33.3278</v>
+        <v>36.7361</v>
       </c>
       <c r="T21">
-        <v>34.9362</v>
+        <v>37.1102</v>
       </c>
       <c r="U21">
-        <v>15.5309</v>
+        <v>15.7853</v>
       </c>
       <c r="V21">
-        <v>13.5776</v>
+        <v>20.3742</v>
       </c>
       <c r="W21">
-        <v>11.7281</v>
+        <v>12.8059</v>
       </c>
       <c r="X21">
-        <v>14.017</v>
+        <v>18.5938</v>
       </c>
       <c r="Y21">
-        <v>14.017</v>
+        <v>18.5938</v>
       </c>
       <c r="Z21">
-        <v>14.0141</v>
+        <v>18.6024</v>
       </c>
       <c r="AA21">
-        <v>14.4636</v>
+        <v>15.4542</v>
       </c>
       <c r="AB21">
-        <v>10.1583</v>
+        <v>17.1181</v>
       </c>
       <c r="AC21">
-        <v>9.545059999999999</v>
+        <v>10.8406</v>
       </c>
       <c r="AD21">
-        <v>12.3237</v>
+        <v>16.4818</v>
       </c>
       <c r="AE21">
-        <v>12.3237</v>
+        <v>16.4818</v>
       </c>
       <c r="AF21">
-        <v>12.3237</v>
+        <v>16.4818</v>
       </c>
       <c r="AG21">
-        <v>0.679562</v>
+        <v>0.690798</v>
       </c>
       <c r="AH21">
-        <v>0.335508</v>
+        <v>0.301703</v>
       </c>
       <c r="AI21">
-        <v>0.111918</v>
-      </c>
-      <c r="AJ21">
-        <v>0.0650034</v>
-      </c>
-      <c r="AK21">
-        <v>0.0675231</v>
-      </c>
-      <c r="AL21">
-        <v>0.0592005</v>
-      </c>
-      <c r="AM21">
-        <v>0.0335365</v>
+        <v>0.111296</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM21" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN21">
-        <v>0.242651</v>
+        <v>0.208845</v>
       </c>
       <c r="AO21">
-        <v>878.4920000000001</v>
+        <v>874.922</v>
       </c>
       <c r="AP21">
-        <v>833.3390000000001</v>
+        <v>832.4730000000001</v>
       </c>
       <c r="AQ21">
-        <v>892.8869999999999</v>
+        <v>892.48</v>
       </c>
       <c r="AR21">
-        <v>748.953</v>
+        <v>752.364</v>
       </c>
       <c r="AS21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT21">
-        <v>723.9930000000001</v>
+        <v>722.1370000000001</v>
       </c>
       <c r="AU21">
-        <v>784.518</v>
+        <v>782.756</v>
       </c>
       <c r="AV21">
-        <v>739.2180000000001</v>
+        <v>739.4300000000001</v>
       </c>
       <c r="AW21">
-        <v>800.561</v>
+        <v>802.735</v>
       </c>
       <c r="AX21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:50">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
         <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M22">
-        <v>51.6871</v>
+        <v>50.8634</v>
       </c>
       <c r="N22">
-        <v>11.2495</v>
+        <v>15.3356</v>
       </c>
       <c r="O22">
-        <v>14.1688</v>
+        <v>17.6827</v>
       </c>
       <c r="P22">
-        <v>28.6211</v>
+        <v>31.2267</v>
       </c>
       <c r="Q22">
-        <v>51.6874</v>
+        <v>50.8629</v>
       </c>
       <c r="R22">
-        <v>100.001</v>
+        <v>99.9991</v>
       </c>
       <c r="S22">
-        <v>26.9338</v>
+        <v>30.362</v>
       </c>
       <c r="T22">
-        <v>28.6211</v>
+        <v>31.2267</v>
       </c>
       <c r="U22">
-        <v>14.1688</v>
+        <v>15.278</v>
       </c>
       <c r="V22">
-        <v>11.0976</v>
+        <v>17.6827</v>
       </c>
       <c r="W22">
-        <v>9.38584</v>
+        <v>11.1873</v>
       </c>
       <c r="X22">
-        <v>11.2486</v>
+        <v>15.335</v>
       </c>
       <c r="Y22">
-        <v>11.2486</v>
+        <v>15.335</v>
       </c>
       <c r="Z22">
-        <v>11.2495</v>
+        <v>15.3356</v>
       </c>
       <c r="AA22">
-        <v>13.6114</v>
+        <v>15.248</v>
       </c>
       <c r="AB22">
-        <v>8.904400000000001</v>
+        <v>15.9155</v>
       </c>
       <c r="AC22">
-        <v>8.00324</v>
+        <v>9.718630000000001</v>
       </c>
       <c r="AD22">
-        <v>10.4223</v>
+        <v>14.4324</v>
       </c>
       <c r="AE22">
-        <v>10.4223</v>
+        <v>14.4324</v>
       </c>
       <c r="AF22">
-        <v>10.4223</v>
+        <v>14.4324</v>
       </c>
       <c r="AG22">
-        <v>0.830339</v>
+        <v>0.842824</v>
       </c>
       <c r="AH22">
-        <v>0.47607</v>
+        <v>0.437485</v>
       </c>
       <c r="AI22">
-        <v>0.185403</v>
-      </c>
-      <c r="AJ22">
-        <v>0.0886942</v>
-      </c>
-      <c r="AK22">
-        <v>0.08718669999999999</v>
-      </c>
-      <c r="AL22">
-        <v>0.0748899</v>
-      </c>
-      <c r="AM22">
-        <v>0.0416805</v>
+        <v>0.184723</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN22">
-        <v>0.311722</v>
+        <v>0.273137</v>
       </c>
       <c r="AO22">
-        <v>876.4250000000001</v>
+        <v>873.2859999999999</v>
       </c>
       <c r="AP22">
-        <v>830.1940000000001</v>
+        <v>829.727</v>
       </c>
       <c r="AQ22">
-        <v>887.941</v>
+        <v>888.1450000000001</v>
       </c>
       <c r="AR22">
-        <v>742.558</v>
+        <v>745.986</v>
       </c>
       <c r="AS22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT22">
-        <v>722.755</v>
+        <v>721.248</v>
       </c>
       <c r="AU22">
-        <v>781.4590000000001</v>
+        <v>780.169</v>
       </c>
       <c r="AV22">
-        <v>734.9789999999999</v>
+        <v>735.658</v>
       </c>
       <c r="AW22">
-        <v>794.246</v>
+        <v>796.852</v>
       </c>
       <c r="AX22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:50">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M23">
-        <v>52.0256</v>
+        <v>50.1227</v>
       </c>
       <c r="N23">
-        <v>13.3125</v>
+        <v>18.7586</v>
       </c>
       <c r="O23">
-        <v>13.9876</v>
+        <v>19.5482</v>
       </c>
       <c r="P23">
-        <v>36.0244</v>
+        <v>38.9434</v>
       </c>
       <c r="Q23">
-        <v>52.0261</v>
+        <v>50.1227</v>
       </c>
       <c r="R23">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S23">
-        <v>33.9974</v>
+        <v>38.8237</v>
       </c>
       <c r="T23">
-        <v>36.0244</v>
+        <v>38.9434</v>
       </c>
       <c r="U23">
-        <v>13.9876</v>
+        <v>13.4459</v>
       </c>
       <c r="V23">
-        <v>12.3104</v>
+        <v>19.5482</v>
       </c>
       <c r="W23">
-        <v>10.9573</v>
+        <v>12.1442</v>
       </c>
       <c r="X23">
-        <v>13.3079</v>
+        <v>18.7586</v>
       </c>
       <c r="Y23">
-        <v>13.3079</v>
+        <v>18.7586</v>
       </c>
       <c r="Z23">
-        <v>13.3125</v>
+        <v>18.7586</v>
       </c>
       <c r="AA23">
-        <v>12.8087</v>
+        <v>13.6086</v>
       </c>
       <c r="AB23">
-        <v>8.679160000000001</v>
+        <v>14.7543</v>
       </c>
       <c r="AC23">
-        <v>8.301459999999999</v>
+        <v>9.934669999999999</v>
       </c>
       <c r="AD23">
-        <v>10.7556</v>
+        <v>15.5266</v>
       </c>
       <c r="AE23">
-        <v>10.7556</v>
+        <v>15.5266</v>
       </c>
       <c r="AF23">
-        <v>10.7556</v>
+        <v>15.5266</v>
       </c>
       <c r="AG23">
-        <v>0.6827839999999999</v>
+        <v>0.696295</v>
       </c>
       <c r="AH23">
-        <v>0.272425</v>
+        <v>0.232246</v>
       </c>
       <c r="AI23">
-        <v>0.06196409999999999</v>
-      </c>
-      <c r="AJ23">
-        <v>0.05908339999999999</v>
-      </c>
-      <c r="AK23">
-        <v>0.06293119999999999</v>
-      </c>
-      <c r="AL23">
-        <v>0.0560301</v>
-      </c>
-      <c r="AM23">
-        <v>0.03262979999999999</v>
+        <v>0.0619567</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN23">
-        <v>0.210824</v>
+        <v>0.170645</v>
       </c>
       <c r="AO23">
-        <v>879.7910000000001</v>
+        <v>876.162</v>
       </c>
       <c r="AP23">
-        <v>833.883</v>
+        <v>833.421</v>
       </c>
       <c r="AQ23">
-        <v>894.2450000000001</v>
+        <v>894.2479999999999</v>
       </c>
       <c r="AR23">
-        <v>749.6229999999999</v>
+        <v>754.4490000000001</v>
       </c>
       <c r="AS23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT23">
-        <v>724.36</v>
+        <v>722.616</v>
       </c>
       <c r="AU23">
-        <v>785.748</v>
+        <v>784.008</v>
       </c>
       <c r="AV23">
-        <v>739.696</v>
+        <v>740.4480000000001</v>
       </c>
       <c r="AW23">
-        <v>801.649</v>
+        <v>804.5680000000001</v>
       </c>
       <c r="AX23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:50">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M24">
-        <v>52.2125</v>
+        <v>51.0945</v>
       </c>
       <c r="N24">
-        <v>10.098</v>
+        <v>14.8429</v>
       </c>
       <c r="O24">
-        <v>12.4573</v>
+        <v>16.5237</v>
       </c>
       <c r="P24">
-        <v>28.0336</v>
+        <v>31.317</v>
       </c>
       <c r="Q24">
-        <v>52.2119</v>
+        <v>51.0945</v>
       </c>
       <c r="R24">
-        <v>99.9988</v>
+        <v>99.9999</v>
       </c>
       <c r="S24">
-        <v>25.8225</v>
+        <v>30.2248</v>
       </c>
       <c r="T24">
-        <v>28.0336</v>
+        <v>31.317</v>
       </c>
       <c r="U24">
-        <v>12.4573</v>
+        <v>13.0865</v>
       </c>
       <c r="V24">
-        <v>9.555300000000001</v>
+        <v>16.5237</v>
       </c>
       <c r="W24">
-        <v>8.26172</v>
+        <v>10.3416</v>
       </c>
       <c r="X24">
-        <v>10.0947</v>
+        <v>14.8455</v>
       </c>
       <c r="Y24">
-        <v>10.0947</v>
+        <v>14.8455</v>
       </c>
       <c r="Z24">
-        <v>10.098</v>
+        <v>14.8429</v>
       </c>
       <c r="AA24">
-        <v>11.9372</v>
+        <v>13.7089</v>
       </c>
       <c r="AB24">
-        <v>7.45978</v>
+        <v>14.6923</v>
       </c>
       <c r="AC24">
-        <v>6.76865</v>
+        <v>8.89649</v>
       </c>
       <c r="AD24">
-        <v>8.84436</v>
+        <v>13.4425</v>
       </c>
       <c r="AE24">
-        <v>8.84436</v>
+        <v>13.4425</v>
       </c>
       <c r="AF24">
-        <v>8.84436</v>
+        <v>13.4425</v>
       </c>
       <c r="AG24">
-        <v>0.833632</v>
+        <v>0.848067</v>
       </c>
       <c r="AH24">
-        <v>0.4098</v>
+        <v>0.3627649999999999</v>
       </c>
       <c r="AI24">
-        <v>0.13906</v>
-      </c>
-      <c r="AJ24">
-        <v>0.07933879999999999</v>
-      </c>
-      <c r="AK24">
-        <v>0.080577</v>
-      </c>
-      <c r="AL24">
-        <v>0.07058399999999999</v>
-      </c>
-      <c r="AM24">
-        <v>0.0403055</v>
+        <v>0.139051</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN24">
-        <v>0.270999</v>
+        <v>0.223964</v>
       </c>
       <c r="AO24">
-        <v>876.9930000000001</v>
+        <v>873.8130000000001</v>
       </c>
       <c r="AP24">
-        <v>829.7430000000001</v>
+        <v>829.5550000000001</v>
       </c>
       <c r="AQ24">
-        <v>887.895</v>
+        <v>888.453</v>
       </c>
       <c r="AR24">
-        <v>741.4480000000001</v>
+        <v>745.8489999999999</v>
       </c>
       <c r="AS24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT24">
-        <v>722.524</v>
+        <v>721.093</v>
       </c>
       <c r="AU24">
-        <v>781.722</v>
+        <v>780.522</v>
       </c>
       <c r="AV24">
-        <v>734.1800000000001</v>
+        <v>735.218</v>
       </c>
       <c r="AW24">
-        <v>793.659</v>
+        <v>796.942</v>
       </c>
       <c r="AX24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:50">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M25">
-        <v>51.6256</v>
+        <v>50.3117</v>
       </c>
       <c r="N25">
-        <v>13.952</v>
+        <v>19.484</v>
       </c>
       <c r="O25">
-        <v>15.529</v>
+        <v>21.3119</v>
       </c>
       <c r="P25">
-        <v>34.8908</v>
+        <v>38.1301</v>
       </c>
       <c r="Q25">
-        <v>51.626</v>
+        <v>50.3109</v>
       </c>
       <c r="R25">
-        <v>100.001</v>
+        <v>99.9984</v>
       </c>
       <c r="S25">
-        <v>33.2709</v>
+        <v>37.8188</v>
       </c>
       <c r="T25">
-        <v>34.8908</v>
+        <v>38.1301</v>
       </c>
       <c r="U25">
-        <v>15.529</v>
+        <v>15.9499</v>
       </c>
       <c r="V25">
-        <v>13.5764</v>
+        <v>21.3119</v>
       </c>
       <c r="W25">
-        <v>11.7285</v>
+        <v>13.5715</v>
       </c>
       <c r="X25">
-        <v>13.9424</v>
+        <v>19.4842</v>
       </c>
       <c r="Y25">
-        <v>13.9424</v>
+        <v>19.4842</v>
       </c>
       <c r="Z25">
-        <v>13.952</v>
+        <v>19.484</v>
       </c>
       <c r="AA25">
-        <v>14.462</v>
+        <v>16.0928</v>
       </c>
       <c r="AB25">
-        <v>10.157</v>
+        <v>18.3533</v>
       </c>
       <c r="AC25">
-        <v>9.54247</v>
+        <v>11.5291</v>
       </c>
       <c r="AD25">
-        <v>12.2587</v>
+        <v>17.4781</v>
       </c>
       <c r="AE25">
-        <v>12.2587</v>
+        <v>17.4781</v>
       </c>
       <c r="AF25">
-        <v>12.2587</v>
+        <v>17.4781</v>
       </c>
       <c r="AG25">
-        <v>0.679586</v>
+        <v>0.689715</v>
       </c>
       <c r="AH25">
-        <v>0.335268</v>
+        <v>0.297899</v>
       </c>
       <c r="AI25">
-        <v>0.111918</v>
-      </c>
-      <c r="AJ25">
-        <v>0.0649969</v>
-      </c>
-      <c r="AK25">
-        <v>0.0675196</v>
-      </c>
-      <c r="AL25">
-        <v>0.059195</v>
-      </c>
-      <c r="AM25">
-        <v>0.0333119</v>
+        <v>0.111296</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN25">
-        <v>0.24241</v>
+        <v>0.205042</v>
       </c>
       <c r="AO25">
-        <v>878.494</v>
+        <v>874.711</v>
       </c>
       <c r="AP25">
-        <v>833.336</v>
+        <v>832.788</v>
       </c>
       <c r="AQ25">
-        <v>892.8910000000001</v>
+        <v>893.022</v>
       </c>
       <c r="AR25">
-        <v>748.8950000000001</v>
+        <v>753.442</v>
       </c>
       <c r="AS25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT25">
-        <v>723.989</v>
+        <v>722.141</v>
       </c>
       <c r="AU25">
-        <v>784.5169999999999</v>
+        <v>782.922</v>
       </c>
       <c r="AV25">
-        <v>739.2140000000001</v>
+        <v>739.9589999999999</v>
       </c>
       <c r="AW25">
-        <v>800.5160000000001</v>
+        <v>803.755</v>
       </c>
       <c r="AX25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:50">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M26">
-        <v>51.6929</v>
+        <v>50.7974</v>
       </c>
       <c r="N26">
-        <v>11.1937</v>
+        <v>16.2136</v>
       </c>
       <c r="O26">
-        <v>14.1685</v>
+        <v>18.728</v>
       </c>
       <c r="P26">
-        <v>28.5776</v>
+        <v>32.3375</v>
       </c>
       <c r="Q26">
-        <v>51.6939</v>
+        <v>50.7977</v>
       </c>
       <c r="R26">
-        <v>100.002</v>
+        <v>100.001</v>
       </c>
       <c r="S26">
-        <v>26.885</v>
+        <v>31.5405</v>
       </c>
       <c r="T26">
-        <v>28.5776</v>
+        <v>32.3375</v>
       </c>
       <c r="U26">
-        <v>14.1685</v>
+        <v>15.592</v>
       </c>
       <c r="V26">
-        <v>11.0974</v>
+        <v>18.728</v>
       </c>
       <c r="W26">
-        <v>9.38294</v>
+        <v>12.0401</v>
       </c>
       <c r="X26">
-        <v>11.1998</v>
+        <v>16.2184</v>
       </c>
       <c r="Y26">
-        <v>11.1998</v>
+        <v>16.2184</v>
       </c>
       <c r="Z26">
-        <v>11.1937</v>
+        <v>16.2136</v>
       </c>
       <c r="AA26">
-        <v>13.6043</v>
+        <v>16.1728</v>
       </c>
       <c r="AB26">
-        <v>8.896929999999999</v>
+        <v>17.0438</v>
       </c>
       <c r="AC26">
-        <v>8.00529</v>
+        <v>10.4844</v>
       </c>
       <c r="AD26">
-        <v>10.3668</v>
+        <v>15.4205</v>
       </c>
       <c r="AE26">
-        <v>10.3668</v>
+        <v>15.4205</v>
       </c>
       <c r="AF26">
-        <v>10.3668</v>
+        <v>15.4205</v>
       </c>
       <c r="AG26">
-        <v>0.830364</v>
+        <v>0.8417249999999999</v>
       </c>
       <c r="AH26">
-        <v>0.475772</v>
+        <v>0.433675</v>
       </c>
       <c r="AI26">
-        <v>0.185403</v>
-      </c>
-      <c r="AJ26">
-        <v>0.08868860000000001</v>
-      </c>
-      <c r="AK26">
-        <v>0.08719200000000001</v>
-      </c>
-      <c r="AL26">
-        <v>0.07489179999999999</v>
-      </c>
-      <c r="AM26">
-        <v>0.041381</v>
+        <v>0.184723</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN26">
-        <v>0.311425</v>
+        <v>0.269328</v>
       </c>
       <c r="AO26">
-        <v>876.4250000000001</v>
+        <v>873.082</v>
       </c>
       <c r="AP26">
-        <v>830.1930000000001</v>
+        <v>830.102</v>
       </c>
       <c r="AQ26">
-        <v>887.9390000000001</v>
+        <v>888.779</v>
       </c>
       <c r="AR26">
-        <v>742.513</v>
+        <v>747.1660000000001</v>
       </c>
       <c r="AS26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT26">
-        <v>722.7569999999999</v>
+        <v>721.2950000000001</v>
       </c>
       <c r="AU26">
-        <v>781.456</v>
+        <v>780.3910000000001</v>
       </c>
       <c r="AV26">
-        <v>734.98</v>
+        <v>736.295</v>
       </c>
       <c r="AW26">
-        <v>794.2030000000001</v>
+        <v>797.9630000000001</v>
       </c>
       <c r="AX26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:50">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M27">
-        <v>47.7047</v>
+        <v>47.9265</v>
       </c>
       <c r="N27">
-        <v>14.0844</v>
+        <v>19.4884</v>
       </c>
       <c r="O27">
-        <v>14.5047</v>
+        <v>19.3759</v>
       </c>
       <c r="P27">
-        <v>36.2633</v>
+        <v>39.0627</v>
       </c>
       <c r="Q27">
-        <v>47.704</v>
+        <v>47.9269</v>
       </c>
       <c r="R27">
-        <v>99.9987</v>
+        <v>100.001</v>
       </c>
       <c r="S27">
-        <v>36.2633</v>
+        <v>39.0627</v>
       </c>
       <c r="T27">
-        <v>33.968</v>
+        <v>36.9879</v>
       </c>
       <c r="U27">
-        <v>12.308</v>
+        <v>11.1954</v>
       </c>
       <c r="V27">
-        <v>8.741990000000001</v>
+        <v>13.3487</v>
       </c>
       <c r="W27">
-        <v>8.3468</v>
+        <v>9.53309</v>
       </c>
       <c r="X27">
-        <v>10.2485</v>
+        <v>13.4344</v>
       </c>
       <c r="Y27">
-        <v>10.2485</v>
+        <v>13.4344</v>
       </c>
       <c r="Z27">
-        <v>10.2477</v>
+        <v>13.4326</v>
       </c>
       <c r="AA27">
-        <v>14.5047</v>
+        <v>17.5662</v>
       </c>
       <c r="AB27">
-        <v>12.5595</v>
+        <v>19.3759</v>
       </c>
       <c r="AC27">
-        <v>11.2077</v>
+        <v>11.8732</v>
       </c>
       <c r="AD27">
-        <v>14.0844</v>
+        <v>19.4884</v>
       </c>
       <c r="AE27">
-        <v>14.0844</v>
+        <v>19.4884</v>
       </c>
       <c r="AF27">
-        <v>14.0844</v>
+        <v>19.4884</v>
       </c>
       <c r="AG27">
-        <v>0.682701</v>
+        <v>0.697149</v>
       </c>
       <c r="AH27">
-        <v>0.270477</v>
+        <v>0.234562</v>
       </c>
       <c r="AI27">
-        <v>0.05922839999999999</v>
-      </c>
-      <c r="AJ27">
-        <v>0.0593492</v>
-      </c>
-      <c r="AK27">
-        <v>0.06289740000000001</v>
-      </c>
-      <c r="AL27">
-        <v>0.0559203</v>
-      </c>
-      <c r="AM27">
-        <v>0.0330857</v>
+        <v>0.0592262</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN27">
-        <v>0.211374</v>
+        <v>0.175458</v>
       </c>
       <c r="AO27">
-        <v>874.46</v>
+        <v>871.144</v>
       </c>
       <c r="AP27">
-        <v>835.7529999999999</v>
+        <v>834.773</v>
       </c>
       <c r="AQ27">
-        <v>889.8190000000001</v>
+        <v>889.1170000000001</v>
       </c>
       <c r="AR27">
-        <v>751.8860000000001</v>
+        <v>754.689</v>
       </c>
       <c r="AS27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT27">
-        <v>729.522</v>
+        <v>727.6950000000001</v>
       </c>
       <c r="AU27">
-        <v>783.8000000000001</v>
+        <v>782.2139999999999</v>
       </c>
       <c r="AV27">
-        <v>744.3040000000001</v>
+        <v>744.9400000000001</v>
       </c>
       <c r="AW27">
-        <v>799.593</v>
+        <v>802.6130000000001</v>
       </c>
       <c r="AX27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:50">
       <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
         <v>116</v>
       </c>
-      <c r="B28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>115</v>
-      </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
         <v>57</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M28">
-        <v>47.6211</v>
+        <v>47.383</v>
       </c>
       <c r="N28">
-        <v>10.9058</v>
+        <v>15.4714</v>
       </c>
       <c r="O28">
-        <v>12.9757</v>
+        <v>15.9313</v>
       </c>
       <c r="P28">
-        <v>28.2279</v>
+        <v>31.0954</v>
       </c>
       <c r="Q28">
-        <v>47.6213</v>
+        <v>47.3809</v>
       </c>
       <c r="R28">
-        <v>100</v>
+        <v>99.9954</v>
       </c>
       <c r="S28">
-        <v>28.2279</v>
+        <v>31.0954</v>
       </c>
       <c r="T28">
-        <v>25.8484</v>
+        <v>28.4738</v>
       </c>
       <c r="U28">
-        <v>11.5136</v>
+        <v>10.9987</v>
       </c>
       <c r="V28">
-        <v>7.48511</v>
+        <v>13.3934</v>
       </c>
       <c r="W28">
-        <v>6.77035</v>
+        <v>8.404269999999999</v>
       </c>
       <c r="X28">
-        <v>8.3658</v>
+        <v>11.4297</v>
       </c>
       <c r="Y28">
-        <v>8.3658</v>
+        <v>11.4297</v>
       </c>
       <c r="Z28">
-        <v>8.365130000000001</v>
+        <v>11.4307</v>
       </c>
       <c r="AA28">
-        <v>12.9757</v>
+        <v>15.2313</v>
       </c>
       <c r="AB28">
-        <v>9.872720000000001</v>
+        <v>15.9313</v>
       </c>
       <c r="AC28">
-        <v>8.551500000000001</v>
+        <v>9.826140000000001</v>
       </c>
       <c r="AD28">
-        <v>10.9058</v>
+        <v>15.4714</v>
       </c>
       <c r="AE28">
-        <v>10.9058</v>
+        <v>15.4714</v>
       </c>
       <c r="AF28">
-        <v>10.9058</v>
+        <v>15.4714</v>
       </c>
       <c r="AG28">
-        <v>0.833491</v>
+        <v>0.848594</v>
       </c>
       <c r="AH28">
-        <v>0.412624</v>
+        <v>0.370196</v>
       </c>
       <c r="AI28">
-        <v>0.141042</v>
-      </c>
-      <c r="AJ28">
-        <v>0.07977319999999999</v>
-      </c>
-      <c r="AK28">
-        <v>0.0804416</v>
-      </c>
-      <c r="AL28">
-        <v>0.0704485</v>
-      </c>
-      <c r="AM28">
-        <v>0.0409452</v>
+        <v>0.141039</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN28">
-        <v>0.271768</v>
+        <v>0.22934</v>
       </c>
       <c r="AO28">
-        <v>872.4830000000001</v>
+        <v>869.5840000000001</v>
       </c>
       <c r="AP28">
-        <v>831.789</v>
+        <v>831.186</v>
       </c>
       <c r="AQ28">
-        <v>884.146</v>
+        <v>883.763</v>
       </c>
       <c r="AR28">
-        <v>743.852</v>
+        <v>746.72</v>
       </c>
       <c r="AS28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT28">
-        <v>726.9019999999999</v>
+        <v>725.398</v>
       </c>
       <c r="AU28">
-        <v>779.62</v>
+        <v>778.3190000000001</v>
       </c>
       <c r="AV28">
-        <v>738.057</v>
+        <v>738.937</v>
       </c>
       <c r="AW28">
-        <v>791.473</v>
+        <v>794.0989999999999</v>
       </c>
       <c r="AX28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:50">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H29" t="s">
         <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M29">
-        <v>47.3921</v>
+        <v>47.2633</v>
       </c>
       <c r="N29">
-        <v>15.6644</v>
+        <v>21.3188</v>
       </c>
       <c r="O29">
-        <v>16.7961</v>
+        <v>21.2302</v>
       </c>
       <c r="P29">
-        <v>35.653</v>
+        <v>38.6975</v>
       </c>
       <c r="Q29">
-        <v>47.39320000000001</v>
+        <v>47.2636</v>
       </c>
       <c r="R29">
-        <v>100.002</v>
+        <v>100.001</v>
       </c>
       <c r="S29">
-        <v>35.653</v>
+        <v>38.6975</v>
       </c>
       <c r="T29">
-        <v>33.0465</v>
+        <v>35.9583</v>
       </c>
       <c r="U29">
-        <v>13.9171</v>
+        <v>13.4386</v>
       </c>
       <c r="V29">
-        <v>10.2016</v>
+        <v>16.2902</v>
       </c>
       <c r="W29">
-        <v>9.506830000000001</v>
+        <v>11.0242</v>
       </c>
       <c r="X29">
-        <v>11.4009</v>
+        <v>14.7903</v>
       </c>
       <c r="Y29">
-        <v>11.4009</v>
+        <v>14.7903</v>
       </c>
       <c r="Z29">
-        <v>11.3989</v>
+        <v>14.7943</v>
       </c>
       <c r="AA29">
-        <v>16.7961</v>
+        <v>19.0864</v>
       </c>
       <c r="AB29">
-        <v>14.5513</v>
+        <v>21.2302</v>
       </c>
       <c r="AC29">
-        <v>12.4741</v>
+        <v>13.5918</v>
       </c>
       <c r="AD29">
-        <v>15.6644</v>
+        <v>21.3188</v>
       </c>
       <c r="AE29">
-        <v>15.6644</v>
+        <v>21.3188</v>
       </c>
       <c r="AF29">
-        <v>15.6644</v>
+        <v>21.3188</v>
       </c>
       <c r="AG29">
-        <v>0.679424</v>
+        <v>0.690237</v>
       </c>
       <c r="AH29">
-        <v>0.355326</v>
+        <v>0.32165</v>
       </c>
       <c r="AI29">
-        <v>0.131123</v>
-      </c>
-      <c r="AJ29">
-        <v>0.0654715</v>
-      </c>
-      <c r="AK29">
-        <v>0.06751349999999999</v>
-      </c>
-      <c r="AL29">
-        <v>0.0591536</v>
-      </c>
-      <c r="AM29">
-        <v>0.0338887</v>
+        <v>0.130782</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN29">
-        <v>0.248427</v>
+        <v>0.214752</v>
       </c>
       <c r="AO29">
-        <v>873.0219999999999</v>
+        <v>869.4930000000001</v>
       </c>
       <c r="AP29">
-        <v>835.0980000000001</v>
+        <v>834.2420000000001</v>
       </c>
       <c r="AQ29">
-        <v>888.389</v>
+        <v>887.5650000000001</v>
       </c>
       <c r="AR29">
-        <v>751.282</v>
+        <v>754.325</v>
       </c>
       <c r="AS29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT29">
-        <v>729.3009999999999</v>
+        <v>727.5150000000001</v>
       </c>
       <c r="AU29">
-        <v>782.778</v>
+        <v>781.1600000000001</v>
       </c>
       <c r="AV29">
-        <v>744.0409999999999</v>
+        <v>744.875</v>
       </c>
       <c r="AW29">
-        <v>798.671</v>
+        <v>801.583</v>
       </c>
       <c r="AX29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:50">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
         <v>57</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
-      </c>
-      <c r="M30">
-        <v>47.2878</v>
+        <v>76</v>
+      </c>
+      <c r="M30" s="3">
+        <v>46.8869</v>
       </c>
       <c r="N30">
-        <v>12.6023</v>
+        <v>17.5333</v>
       </c>
       <c r="O30">
-        <v>15.0475</v>
+        <v>18.0761</v>
       </c>
       <c r="P30">
-        <v>29.2248</v>
+        <v>32.5605</v>
       </c>
       <c r="Q30">
-        <v>47.2874</v>
+        <v>46.8843</v>
       </c>
       <c r="R30">
-        <v>99.9991</v>
+        <v>99.9943</v>
       </c>
       <c r="S30">
-        <v>29.2248</v>
+        <v>32.5605</v>
       </c>
       <c r="T30">
-        <v>26.5096</v>
+        <v>29.4449</v>
       </c>
       <c r="U30">
-        <v>13.1055</v>
+        <v>13.303</v>
       </c>
       <c r="V30">
-        <v>8.92581</v>
+        <v>15.8391</v>
       </c>
       <c r="W30">
-        <v>7.93769</v>
+        <v>9.89268</v>
       </c>
       <c r="X30">
-        <v>9.569430000000001</v>
+        <v>12.8866</v>
       </c>
       <c r="Y30">
-        <v>9.569430000000001</v>
+        <v>12.8866</v>
       </c>
       <c r="Z30">
-        <v>9.569700000000001</v>
+        <v>12.8862</v>
       </c>
       <c r="AA30">
-        <v>15.0475</v>
+        <v>17.0833</v>
       </c>
       <c r="AB30">
-        <v>11.7684</v>
+        <v>18.0761</v>
       </c>
       <c r="AC30">
-        <v>9.887120000000001</v>
+        <v>11.6344</v>
       </c>
       <c r="AD30">
-        <v>12.6023</v>
+        <v>17.5333</v>
       </c>
       <c r="AE30">
-        <v>12.6023</v>
+        <v>17.5333</v>
       </c>
       <c r="AF30">
-        <v>12.6023</v>
+        <v>17.5333</v>
       </c>
       <c r="AG30">
-        <v>0.83022</v>
+        <v>0.84229</v>
       </c>
       <c r="AH30">
-        <v>0.5198769999999999</v>
+        <v>0.481616</v>
       </c>
       <c r="AI30">
-        <v>0.228145</v>
-      </c>
-      <c r="AJ30">
-        <v>0.0894586</v>
-      </c>
-      <c r="AK30">
-        <v>0.0871606</v>
-      </c>
-      <c r="AL30">
-        <v>0.0748341</v>
-      </c>
-      <c r="AM30">
-        <v>0.0421996</v>
+        <v>0.227755</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN30">
-        <v>0.319433</v>
+        <v>0.281172</v>
       </c>
       <c r="AO30">
-        <v>871.788</v>
+        <v>868.684</v>
       </c>
       <c r="AP30">
-        <v>832.064</v>
+        <v>831.607</v>
       </c>
       <c r="AQ30">
-        <v>884.076</v>
+        <v>883.851</v>
       </c>
       <c r="AR30">
-        <v>744.853</v>
+        <v>748.179</v>
       </c>
       <c r="AS30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT30">
-        <v>727.2620000000001</v>
+        <v>725.819</v>
       </c>
       <c r="AU30">
-        <v>779.5210000000001</v>
+        <v>778.365</v>
       </c>
       <c r="AV30">
-        <v>738.961</v>
+        <v>740.224</v>
       </c>
       <c r="AW30">
-        <v>792.135</v>
+        <v>795.0700000000001</v>
       </c>
       <c r="AX30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:50">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
         <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M31">
-        <v>47.6992</v>
+        <v>47.9843</v>
       </c>
       <c r="N31">
-        <v>13.9918</v>
+        <v>20.4435</v>
       </c>
       <c r="O31">
-        <v>14.5057</v>
+        <v>20.1475</v>
       </c>
       <c r="P31">
-        <v>36.2146</v>
+        <v>40.0748</v>
       </c>
       <c r="Q31">
-        <v>47.6981</v>
+        <v>47.9849</v>
       </c>
       <c r="R31">
-        <v>99.99760000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S31">
-        <v>36.2146</v>
+        <v>40.0748</v>
       </c>
       <c r="T31">
-        <v>33.9136</v>
+        <v>38.0592</v>
       </c>
       <c r="U31">
-        <v>12.305</v>
+        <v>11.4187</v>
       </c>
       <c r="V31">
-        <v>8.74258</v>
+        <v>14.6398</v>
       </c>
       <c r="W31">
-        <v>8.344959999999999</v>
+        <v>10.1693</v>
       </c>
       <c r="X31">
-        <v>10.2099</v>
+        <v>14.2176</v>
       </c>
       <c r="Y31">
-        <v>10.2099</v>
+        <v>14.2176</v>
       </c>
       <c r="Z31">
-        <v>10.21</v>
+        <v>14.2159</v>
       </c>
       <c r="AA31">
-        <v>14.5057</v>
+        <v>18.0903</v>
       </c>
       <c r="AB31">
-        <v>12.5573</v>
+        <v>20.1475</v>
       </c>
       <c r="AC31">
-        <v>11.2068</v>
+        <v>12.5074</v>
       </c>
       <c r="AD31">
-        <v>13.9918</v>
+        <v>20.4435</v>
       </c>
       <c r="AE31">
-        <v>13.9918</v>
+        <v>20.4435</v>
       </c>
       <c r="AF31">
-        <v>13.9918</v>
+        <v>20.4435</v>
       </c>
       <c r="AG31">
-        <v>0.682735</v>
+        <v>0.696183</v>
       </c>
       <c r="AH31">
-        <v>0.270233</v>
+        <v>0.230175</v>
       </c>
       <c r="AI31">
-        <v>0.05922839999999999</v>
-      </c>
-      <c r="AJ31">
-        <v>0.0593435</v>
-      </c>
-      <c r="AK31">
-        <v>0.0628943</v>
-      </c>
-      <c r="AL31">
-        <v>0.0559238</v>
-      </c>
-      <c r="AM31">
-        <v>0.0328464</v>
+        <v>0.0592262</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN31">
-        <v>0.211129</v>
+        <v>0.171072</v>
       </c>
       <c r="AO31">
-        <v>874.46</v>
+        <v>870.975</v>
       </c>
       <c r="AP31">
-        <v>835.7529999999999</v>
+        <v>834.9929999999999</v>
       </c>
       <c r="AQ31">
-        <v>889.8190000000001</v>
+        <v>889.5640000000001</v>
       </c>
       <c r="AR31">
-        <v>751.8380000000001</v>
+        <v>755.702</v>
       </c>
       <c r="AS31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT31">
-        <v>729.522</v>
+        <v>727.703</v>
       </c>
       <c r="AU31">
-        <v>783.797</v>
+        <v>782.468</v>
       </c>
       <c r="AV31">
-        <v>744.3040000000001</v>
+        <v>745.5359999999999</v>
       </c>
       <c r="AW31">
-        <v>799.539</v>
+        <v>803.684</v>
       </c>
       <c r="AX31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:50">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
         <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M32">
-        <v>47.6163</v>
+        <v>47.4411</v>
       </c>
       <c r="N32">
-        <v>10.8396</v>
+        <v>16.4189</v>
       </c>
       <c r="O32">
-        <v>12.9768</v>
+        <v>16.8138</v>
       </c>
       <c r="P32">
-        <v>28.186</v>
+        <v>32.1538</v>
       </c>
       <c r="Q32">
-        <v>47.6163</v>
+        <v>47.44</v>
       </c>
       <c r="R32">
-        <v>99.9999</v>
+        <v>99.9978</v>
       </c>
       <c r="S32">
-        <v>28.186</v>
+        <v>32.1538</v>
       </c>
       <c r="T32">
-        <v>25.8013</v>
+        <v>29.5922</v>
       </c>
       <c r="U32">
-        <v>11.5126</v>
+        <v>11.2857</v>
       </c>
       <c r="V32">
-        <v>7.48496</v>
+        <v>14.6492</v>
       </c>
       <c r="W32">
-        <v>6.77149</v>
+        <v>9.1128</v>
       </c>
       <c r="X32">
-        <v>8.33559</v>
+        <v>12.2216</v>
       </c>
       <c r="Y32">
-        <v>8.33559</v>
+        <v>12.2216</v>
       </c>
       <c r="Z32">
-        <v>8.33691</v>
+        <v>12.2136</v>
       </c>
       <c r="AA32">
-        <v>12.9768</v>
+        <v>15.7702</v>
       </c>
       <c r="AB32">
-        <v>9.876569999999999</v>
+        <v>16.8138</v>
       </c>
       <c r="AC32">
-        <v>8.55193</v>
+        <v>10.5175</v>
       </c>
       <c r="AD32">
-        <v>10.8396</v>
+        <v>16.4189</v>
       </c>
       <c r="AE32">
-        <v>10.8396</v>
+        <v>16.4189</v>
       </c>
       <c r="AF32">
-        <v>10.8396</v>
+        <v>16.4189</v>
       </c>
       <c r="AG32">
-        <v>0.833523</v>
+        <v>0.8475200000000001</v>
       </c>
       <c r="AH32">
-        <v>0.412334</v>
+        <v>0.365431</v>
       </c>
       <c r="AI32">
-        <v>0.141042</v>
-      </c>
-      <c r="AJ32">
-        <v>0.07977239999999999</v>
-      </c>
-      <c r="AK32">
-        <v>0.0804414</v>
-      </c>
-      <c r="AL32">
-        <v>0.0704473</v>
-      </c>
-      <c r="AM32">
-        <v>0.0406569</v>
+        <v>0.141039</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN32">
-        <v>0.271478</v>
+        <v>0.224575</v>
       </c>
       <c r="AO32">
-        <v>872.485</v>
+        <v>869.442</v>
       </c>
       <c r="AP32">
-        <v>831.789</v>
+        <v>831.4440000000001</v>
       </c>
       <c r="AQ32">
-        <v>884.145</v>
+        <v>884.293</v>
       </c>
       <c r="AR32">
-        <v>743.812</v>
+        <v>747.778</v>
       </c>
       <c r="AS32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT32">
-        <v>726.904</v>
+        <v>725.4290000000001</v>
       </c>
       <c r="AU32">
-        <v>779.619</v>
+        <v>778.6229999999999</v>
       </c>
       <c r="AV32">
-        <v>738.0600000000001</v>
+        <v>739.575</v>
       </c>
       <c r="AW32">
-        <v>791.426</v>
+        <v>795.2170000000001</v>
       </c>
       <c r="AX32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:50">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M33">
-        <v>47.3787</v>
+        <v>47.2996</v>
       </c>
       <c r="N33">
-        <v>15.5779</v>
+        <v>22.3505</v>
       </c>
       <c r="O33">
-        <v>16.7831</v>
+        <v>22.0899</v>
       </c>
       <c r="P33">
-        <v>35.6094</v>
+        <v>39.721</v>
       </c>
       <c r="Q33">
-        <v>47.3778</v>
+        <v>47.2994</v>
       </c>
       <c r="R33">
-        <v>99.99810000000001</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S33">
-        <v>35.6094</v>
+        <v>39.721</v>
       </c>
       <c r="T33">
-        <v>32.98670000000001</v>
+        <v>37.0206</v>
       </c>
       <c r="U33">
-        <v>13.914</v>
+        <v>13.7707</v>
       </c>
       <c r="V33">
-        <v>10.1983</v>
+        <v>17.7</v>
       </c>
       <c r="W33">
-        <v>9.50604</v>
+        <v>11.7389</v>
       </c>
       <c r="X33">
-        <v>11.3579</v>
+        <v>15.6591</v>
       </c>
       <c r="Y33">
-        <v>11.3579</v>
+        <v>15.6591</v>
       </c>
       <c r="Z33">
-        <v>11.3581</v>
+        <v>15.6595</v>
       </c>
       <c r="AA33">
-        <v>16.7831</v>
+        <v>19.601</v>
       </c>
       <c r="AB33">
-        <v>14.5515</v>
+        <v>22.0899</v>
       </c>
       <c r="AC33">
-        <v>12.4714</v>
+        <v>14.3395</v>
       </c>
       <c r="AD33">
-        <v>15.5779</v>
+        <v>22.3505</v>
       </c>
       <c r="AE33">
-        <v>15.5779</v>
+        <v>22.3505</v>
       </c>
       <c r="AF33">
-        <v>15.5779</v>
+        <v>22.3505</v>
       </c>
       <c r="AG33">
-        <v>0.679439</v>
+        <v>0.68935</v>
       </c>
       <c r="AH33">
-        <v>0.3551</v>
+        <v>0.317804</v>
       </c>
       <c r="AI33">
-        <v>0.131123</v>
-      </c>
-      <c r="AJ33">
-        <v>0.0654715</v>
-      </c>
-      <c r="AK33">
-        <v>0.0675157</v>
-      </c>
-      <c r="AL33">
-        <v>0.0591528</v>
-      </c>
-      <c r="AM33">
-        <v>0.033661</v>
+        <v>0.130781</v>
+      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN33">
-        <v>0.248201</v>
+        <v>0.210906</v>
       </c>
       <c r="AO33">
-        <v>873.0219999999999</v>
+        <v>869.2940000000001</v>
       </c>
       <c r="AP33">
-        <v>835.1010000000001</v>
+        <v>834.4480000000001</v>
       </c>
       <c r="AQ33">
-        <v>888.389</v>
+        <v>888.004</v>
       </c>
       <c r="AR33">
-        <v>751.2330000000001</v>
+        <v>755.3460000000001</v>
       </c>
       <c r="AS33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT33">
-        <v>729.302</v>
+        <v>727.522</v>
       </c>
       <c r="AU33">
-        <v>782.778</v>
+        <v>781.421</v>
       </c>
       <c r="AV33">
-        <v>744.038</v>
+        <v>745.503</v>
       </c>
       <c r="AW33">
-        <v>798.6120000000001</v>
+        <v>802.646</v>
       </c>
       <c r="AX33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:50">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
         <v>57</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L34" t="s">
-        <v>75</v>
-      </c>
-      <c r="M34">
-        <v>47.2785</v>
+        <v>76</v>
+      </c>
+      <c r="M34" s="3">
+        <v>46.9414</v>
       </c>
       <c r="N34">
-        <v>12.5346</v>
+        <v>18.5754</v>
       </c>
       <c r="O34">
-        <v>15.0589</v>
+        <v>19.0564</v>
       </c>
       <c r="P34">
-        <v>29.1844</v>
+        <v>33.6797</v>
       </c>
       <c r="Q34">
-        <v>47.2773</v>
+        <v>46.9407</v>
       </c>
       <c r="R34">
-        <v>99.9974</v>
+        <v>99.99850000000001</v>
       </c>
       <c r="S34">
-        <v>29.1844</v>
+        <v>33.6797</v>
       </c>
       <c r="T34">
-        <v>26.4601</v>
+        <v>30.6205</v>
       </c>
       <c r="U34">
-        <v>13.1165</v>
+        <v>13.7231</v>
       </c>
       <c r="V34">
-        <v>8.924949999999999</v>
+        <v>17.0862</v>
       </c>
       <c r="W34">
-        <v>7.93804</v>
+        <v>10.6927</v>
       </c>
       <c r="X34">
-        <v>9.538120000000001</v>
+        <v>13.7578</v>
       </c>
       <c r="Y34">
-        <v>9.538120000000001</v>
+        <v>13.7578</v>
       </c>
       <c r="Z34">
-        <v>9.537800000000001</v>
+        <v>13.7502</v>
       </c>
       <c r="AA34">
-        <v>15.0589</v>
+        <v>17.6386</v>
       </c>
       <c r="AB34">
-        <v>11.7597</v>
+        <v>19.0564</v>
       </c>
       <c r="AC34">
-        <v>9.888779999999999</v>
+        <v>12.4615</v>
       </c>
       <c r="AD34">
-        <v>12.5346</v>
+        <v>18.5754</v>
       </c>
       <c r="AE34">
-        <v>12.5346</v>
+        <v>18.5754</v>
       </c>
       <c r="AF34">
-        <v>12.5346</v>
+        <v>18.5754</v>
       </c>
       <c r="AG34">
-        <v>0.830244</v>
+        <v>0.841101</v>
       </c>
       <c r="AH34">
-        <v>0.519549</v>
+        <v>0.477757</v>
       </c>
       <c r="AI34">
-        <v>0.228145</v>
-      </c>
-      <c r="AJ34">
-        <v>0.0894546</v>
-      </c>
-      <c r="AK34">
-        <v>0.0871555</v>
-      </c>
-      <c r="AL34">
-        <v>0.0748442</v>
-      </c>
-      <c r="AM34">
-        <v>0.0418698</v>
+        <v>0.227754</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM34" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN34">
-        <v>0.319104</v>
+        <v>0.277313</v>
       </c>
       <c r="AO34">
-        <v>871.788</v>
+        <v>868.4930000000001</v>
       </c>
       <c r="AP34">
-        <v>832.069</v>
+        <v>831.8680000000001</v>
       </c>
       <c r="AQ34">
-        <v>884.076</v>
+        <v>884.421</v>
       </c>
       <c r="AR34">
-        <v>744.807</v>
+        <v>749.302</v>
       </c>
       <c r="AS34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT34">
-        <v>727.2610000000001</v>
+        <v>725.8630000000001</v>
       </c>
       <c r="AU34">
-        <v>779.522</v>
+        <v>778.701</v>
       </c>
       <c r="AV34">
-        <v>738.9590000000001</v>
+        <v>740.936</v>
       </c>
       <c r="AW34">
-        <v>792.0849999999999</v>
+        <v>796.246</v>
       </c>
       <c r="AX34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="1" customFormat="1">
@@ -6098,121 +6105,121 @@
     </row>
     <row r="36" spans="1:50" s="1" customFormat="1">
       <c r="L36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M36" s="1">
-        <v>47.2785</v>
+        <v>124</v>
+      </c>
+      <c r="M36" s="3">
+        <v>46.8869</v>
       </c>
       <c r="N36" s="1">
-        <v>8.145760000000001</v>
+        <v>12.0787</v>
       </c>
       <c r="O36" s="1">
-        <v>11.93</v>
+        <v>14.2318</v>
       </c>
       <c r="P36" s="1">
-        <v>21.8536</v>
+        <v>25.2959</v>
       </c>
       <c r="Q36" s="1">
-        <v>47.2773</v>
+        <v>46.8843</v>
       </c>
       <c r="R36" s="1">
-        <v>99.9974</v>
+        <v>99.9943</v>
       </c>
       <c r="S36" s="1">
-        <v>21.8536</v>
+        <v>25.2959</v>
       </c>
       <c r="T36" s="1">
-        <v>21.6883</v>
+        <v>24.4721</v>
       </c>
       <c r="U36" s="1">
-        <v>11.5126</v>
+        <v>10.9987</v>
       </c>
       <c r="V36" s="1">
-        <v>7.20183</v>
+        <v>13.3487</v>
       </c>
       <c r="W36" s="1">
-        <v>6.075</v>
+        <v>8.166030000000001</v>
       </c>
       <c r="X36" s="1">
-        <v>7.52197</v>
+        <v>10.852</v>
       </c>
       <c r="Y36" s="1">
-        <v>7.52197</v>
+        <v>10.852</v>
       </c>
       <c r="Z36" s="1">
-        <v>7.51979</v>
+        <v>10.8489</v>
       </c>
       <c r="AA36" s="1">
-        <v>11.93</v>
+        <v>12.8491</v>
       </c>
       <c r="AB36" s="1">
-        <v>7.16227</v>
+        <v>13.3632</v>
       </c>
       <c r="AC36" s="1">
-        <v>6.132980000000001</v>
+        <v>8.044550000000001</v>
       </c>
       <c r="AD36" s="1">
-        <v>8.145760000000001</v>
+        <v>12.0787</v>
       </c>
       <c r="AE36" s="1">
-        <v>8.145760000000001</v>
+        <v>12.0787</v>
       </c>
       <c r="AF36" s="1">
-        <v>8.145760000000001</v>
+        <v>12.0787</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.6777260000000001</v>
+        <v>0.685578</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.222258</v>
+        <v>0.180183</v>
       </c>
       <c r="AI36" s="1">
-        <v>0.0204356</v>
-      </c>
-      <c r="AJ36" s="1">
-        <v>0.0553759</v>
-      </c>
-      <c r="AK36" s="1">
-        <v>0.0601754</v>
-      </c>
-      <c r="AL36" s="1">
-        <v>0.0541258</v>
-      </c>
-      <c r="AM36" s="1">
-        <v>0.032353</v>
+        <v>0.0204355</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.202038</v>
+        <v>0.159963</v>
       </c>
       <c r="AO36" s="1">
-        <v>871.788</v>
+        <v>868.4930000000001</v>
       </c>
       <c r="AP36" s="1">
-        <v>828.215</v>
+        <v>828.114</v>
       </c>
       <c r="AQ36" s="1">
-        <v>882.0690000000001</v>
+        <v>882.402</v>
       </c>
       <c r="AR36" s="1">
-        <v>737.486</v>
+        <v>740.9209999999999</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AT36" s="1">
-        <v>722.523</v>
+        <v>721.051</v>
       </c>
       <c r="AU36" s="1">
-        <v>777.8850000000001</v>
+        <v>776.966</v>
       </c>
       <c r="AV36" s="1">
-        <v>732.367</v>
+        <v>733.5700000000001</v>
       </c>
       <c r="AW36" s="1">
-        <v>787.313</v>
+        <v>790.097</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="1" customFormat="1">
@@ -6220,118 +6227,118 @@
         <v>125</v>
       </c>
       <c r="M37" s="1">
-        <v>52.2125</v>
+        <v>51.1749</v>
       </c>
       <c r="N37" s="1">
-        <v>17.1341</v>
+        <v>23.5489</v>
       </c>
       <c r="O37" s="1">
-        <v>16.7961</v>
+        <v>23.7804</v>
       </c>
       <c r="P37" s="1">
-        <v>47.60440000000001</v>
+        <v>51.2666</v>
       </c>
       <c r="Q37" s="1">
-        <v>52.2119</v>
+        <v>51.1752</v>
       </c>
       <c r="R37" s="1">
-        <v>100.008</v>
+        <v>100.001</v>
       </c>
       <c r="S37" s="1">
-        <v>47.60440000000001</v>
+        <v>51.2666</v>
       </c>
       <c r="T37" s="1">
-        <v>47.323</v>
+        <v>50.13</v>
       </c>
       <c r="U37" s="1">
-        <v>15.5309</v>
+        <v>15.9499</v>
       </c>
       <c r="V37" s="1">
-        <v>13.8041</v>
+        <v>22.6394</v>
       </c>
       <c r="W37" s="1">
-        <v>13.2132</v>
+        <v>14.102</v>
       </c>
       <c r="X37" s="1">
-        <v>15.7269</v>
+        <v>20.9623</v>
       </c>
       <c r="Y37" s="1">
-        <v>15.7269</v>
+        <v>20.9623</v>
       </c>
       <c r="Z37" s="1">
-        <v>15.7269</v>
+        <v>20.9623</v>
       </c>
       <c r="AA37" s="1">
-        <v>16.7961</v>
+        <v>19.601</v>
       </c>
       <c r="AB37" s="1">
-        <v>14.5515</v>
+        <v>23.7804</v>
       </c>
       <c r="AC37" s="1">
-        <v>13.7821</v>
+        <v>14.5565</v>
       </c>
       <c r="AD37" s="1">
-        <v>17.1341</v>
+        <v>23.5489</v>
       </c>
       <c r="AE37" s="1">
-        <v>17.1341</v>
+        <v>23.5489</v>
       </c>
       <c r="AF37" s="1">
-        <v>17.1341</v>
+        <v>23.5489</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.83486</v>
+        <v>0.853121</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.71375</v>
+        <v>0.680546</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.376779</v>
-      </c>
-      <c r="AJ37" s="1">
-        <v>0.112157</v>
-      </c>
-      <c r="AK37" s="1">
-        <v>0.102707</v>
-      </c>
-      <c r="AL37" s="1">
-        <v>0.08359</v>
-      </c>
-      <c r="AM37" s="1">
-        <v>0.0436078</v>
+        <v>0.375375</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.4008</v>
+        <v>0.367596</v>
       </c>
       <c r="AO37" s="1">
-        <v>880.183</v>
+        <v>876.4290000000001</v>
       </c>
       <c r="AP37" s="1">
-        <v>840.466</v>
+        <v>839.01</v>
       </c>
       <c r="AQ37" s="1">
-        <v>901.192</v>
+        <v>900.121</v>
       </c>
       <c r="AR37" s="1">
-        <v>763.23</v>
+        <v>766.8920000000001</v>
       </c>
       <c r="AS37" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AT37" s="1">
-        <v>729.8679999999999</v>
+        <v>727.703</v>
       </c>
       <c r="AU37" s="1">
-        <v>790.6560000000001</v>
+        <v>788.2769999999999</v>
       </c>
       <c r="AV37" s="1">
-        <v>750.938</v>
+        <v>751.0600000000001</v>
       </c>
       <c r="AW37" s="1">
-        <v>812.948</v>
+        <v>815.7550000000001</v>
       </c>
       <c r="AX37" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="1" customFormat="1">
@@ -6374,118 +6381,118 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>49.66207575757576</v>
+        <v>48.97705757575758</v>
       </c>
       <c r="N42" s="1">
-        <v>12.34964242424243</v>
+        <v>17.51132121212121</v>
       </c>
       <c r="O42" s="1">
-        <v>14.20038484848485</v>
+        <v>18.47939696969698</v>
       </c>
       <c r="P42" s="1">
-        <v>32.27557272727273</v>
+        <v>35.69151212121212</v>
       </c>
       <c r="Q42" s="1">
-        <v>49.66245454545454</v>
+        <v>48.97681212121212</v>
       </c>
       <c r="R42" s="1">
-        <v>100.0007121212121</v>
+        <v>99.99946363636366</v>
       </c>
       <c r="S42" s="1">
-        <v>31.81940000000001</v>
+        <v>35.54145151515151</v>
       </c>
       <c r="T42" s="1">
-        <v>31.48073333333333</v>
+        <v>34.51792424242424</v>
       </c>
       <c r="U42" s="1">
-        <v>13.37012121212121</v>
+        <v>13.43865151515152</v>
       </c>
       <c r="V42" s="1">
-        <v>10.18147848484849</v>
+        <v>17.29726666666667</v>
       </c>
       <c r="W42" s="1">
-        <v>9.152367575757577</v>
+        <v>10.91206575757576</v>
       </c>
       <c r="X42" s="1">
-        <v>11.07013212121212</v>
+        <v>15.3178606060606</v>
       </c>
       <c r="Y42" s="1">
-        <v>11.07013212121212</v>
+        <v>15.3178606060606</v>
       </c>
       <c r="Z42" s="1">
-        <v>11.07011</v>
+        <v>15.31768787878788</v>
       </c>
       <c r="AA42" s="1">
-        <v>13.96380606060606</v>
+        <v>15.92095151515151</v>
       </c>
       <c r="AB42" s="1">
-        <v>10.40468333333333</v>
+        <v>17.69191818181818</v>
       </c>
       <c r="AC42" s="1">
-        <v>9.38239484848485</v>
+        <v>11.02555545454545</v>
       </c>
       <c r="AD42" s="1">
-        <v>11.96623363636364</v>
+        <v>17.04806363636363</v>
       </c>
       <c r="AE42" s="1">
-        <v>11.96623363636364</v>
+        <v>17.04806363636363</v>
       </c>
       <c r="AF42" s="1">
-        <v>11.96623363636364</v>
+        <v>17.04806363636363</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7565056363636365</v>
+        <v>0.7692625757575756</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3945570606060604</v>
+        <v>0.3551732121212121</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1418780363636363</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.07515475454545456</v>
-      </c>
-      <c r="AK42" s="1">
-        <v>0.07563899696969696</v>
-      </c>
-      <c r="AL42" s="1">
-        <v>0.06567217878787877</v>
-      </c>
-      <c r="AM42" s="1">
-        <v>0.03729421818181818</v>
+        <v>0.1415836606060606</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM42" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2659640303030302</v>
+        <v>0.2265799696969696</v>
       </c>
       <c r="AO42" s="1">
-        <v>875.5767575757576</v>
+        <v>872.2020909090905</v>
       </c>
       <c r="AP42" s="1">
-        <v>833.0149090909091</v>
+        <v>832.4173939393937</v>
       </c>
       <c r="AQ42" s="1">
-        <v>889.1497575757576</v>
+        <v>889.0065454545453</v>
       </c>
       <c r="AR42" s="1">
-        <v>747.4446060606059</v>
+        <v>751.166303030303</v>
       </c>
       <c r="AS42" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AT42" s="1">
-        <v>725.9784848484848</v>
+        <v>724.3421818181819</v>
       </c>
       <c r="AU42" s="1">
-        <v>782.6719393939392</v>
+        <v>781.2336666666667</v>
       </c>
       <c r="AV42" s="1">
-        <v>739.6502727272727</v>
+        <v>740.5552424242424</v>
       </c>
       <c r="AW42" s="1">
-        <v>797.1056666666668</v>
+        <v>800.1429393939394</v>
       </c>
       <c r="AX42" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="1" customFormat="1">
@@ -6493,118 +6500,118 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>1.542531088047862</v>
+        <v>1.166332474827203</v>
       </c>
       <c r="N43" s="1">
-        <v>2.389459533684414</v>
+        <v>2.905350828214141</v>
       </c>
       <c r="O43" s="1">
-        <v>1.324871027484336</v>
+        <v>2.40943999333994</v>
       </c>
       <c r="P43" s="1">
-        <v>6.834701636824223</v>
+        <v>6.474449058847452</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.542670143475347</v>
+        <v>1.166634554646614</v>
       </c>
       <c r="R43" s="1">
-        <v>0.002178650899726446</v>
+        <v>0.001631474176621942</v>
       </c>
       <c r="S43" s="1">
-        <v>6.915348893759755</v>
+        <v>6.554837419989736</v>
       </c>
       <c r="T43" s="1">
-        <v>6.908710737667896</v>
+        <v>6.519608094887872</v>
       </c>
       <c r="U43" s="1">
-        <v>1.164452486704576</v>
+        <v>1.485951155264209</v>
       </c>
       <c r="V43" s="1">
-        <v>1.975658132963846</v>
+        <v>2.382381975157543</v>
       </c>
       <c r="W43" s="1">
-        <v>1.984918662834034</v>
+        <v>1.494277703258243</v>
       </c>
       <c r="X43" s="1">
-        <v>2.308901442269393</v>
+        <v>2.751811680807743</v>
       </c>
       <c r="Y43" s="1">
-        <v>2.308901442269393</v>
+        <v>2.751811680807743</v>
       </c>
       <c r="Z43" s="1">
-        <v>2.309075283228804</v>
+        <v>2.752611046366768</v>
       </c>
       <c r="AA43" s="1">
-        <v>1.348933190146354</v>
+        <v>1.718362919850137</v>
       </c>
       <c r="AB43" s="1">
-        <v>2.215646996777987</v>
+        <v>2.751044295431645</v>
       </c>
       <c r="AC43" s="1">
-        <v>2.141030991411043</v>
+        <v>1.715433335655845</v>
       </c>
       <c r="AD43" s="1">
-        <v>2.464906418796288</v>
+        <v>3.053328821865614</v>
       </c>
       <c r="AE43" s="1">
-        <v>2.464906418796288</v>
+        <v>3.053328821865614</v>
       </c>
       <c r="AF43" s="1">
-        <v>2.464906418796288</v>
+        <v>3.053328821865614</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07426598414169462</v>
+        <v>0.07488008163684939</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1235168958585901</v>
+        <v>0.1244002018705752</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.08930350120352715</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.01515311857181783</v>
-      </c>
-      <c r="AK43" s="1">
-        <v>0.01155303256996699</v>
-      </c>
-      <c r="AL43" s="1">
-        <v>0.008547441353313746</v>
-      </c>
-      <c r="AM43" s="1">
-        <v>0.004022771892572263</v>
+        <v>0.08896463063495119</v>
+      </c>
+      <c r="AJ43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM43" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.05070952602605312</v>
+        <v>0.05150400951528529</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.578767629447252</v>
+        <v>2.366898614715385</v>
       </c>
       <c r="AP43" s="1">
-        <v>3.305940606660329</v>
+        <v>2.80197645545657</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.302803695418071</v>
+        <v>4.745103154295325</v>
       </c>
       <c r="AR43" s="1">
-        <v>6.914493727777792</v>
+        <v>6.55502395569138</v>
       </c>
       <c r="AS43" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.403226935667091</v>
+        <v>2.153237934670903</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.485489791583964</v>
+        <v>2.963903340208815</v>
       </c>
       <c r="AV43" s="1">
-        <v>5.188244604597489</v>
+        <v>4.719505001203206</v>
       </c>
       <c r="AW43" s="1">
-        <v>6.90873342190517</v>
+        <v>6.519607270842628</v>
       </c>
       <c r="AX43" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:50" s="1" customFormat="1">
@@ -6612,118 +6619,118 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>3.106054397681022</v>
+        <v>2.381385351749894</v>
       </c>
       <c r="N44" s="1">
-        <v>19.34841067943708</v>
+        <v>16.5912714010584</v>
       </c>
       <c r="O44" s="1">
-        <v>9.329824801372881</v>
+        <v>13.03852066867228</v>
       </c>
       <c r="P44" s="1">
-        <v>21.17608165957943</v>
+        <v>18.14002454381743</v>
       </c>
       <c r="Q44" s="1">
-        <v>3.106310708149528</v>
+        <v>2.382014067717034</v>
       </c>
       <c r="R44" s="1">
-        <v>0.002178635385201732</v>
+        <v>0.001631482927303097</v>
       </c>
       <c r="S44" s="1">
-        <v>21.73312159801804</v>
+        <v>18.44279606080628</v>
       </c>
       <c r="T44" s="1">
-        <v>21.94583799721278</v>
+        <v>18.88760184158162</v>
       </c>
       <c r="U44" s="1">
-        <v>8.709363724009439</v>
+        <v>11.0572936100684</v>
       </c>
       <c r="V44" s="1">
-        <v>19.40443262640009</v>
+        <v>13.77317018386842</v>
       </c>
       <c r="W44" s="1">
-        <v>21.68748847119741</v>
+        <v>13.69381138691208</v>
       </c>
       <c r="X44" s="1">
-        <v>20.85703600452223</v>
+        <v>17.96472595996187</v>
       </c>
       <c r="Y44" s="1">
-        <v>20.85703600452223</v>
+        <v>17.96472595996187</v>
       </c>
       <c r="Z44" s="1">
-        <v>20.85864804621457</v>
+        <v>17.97014711455648</v>
       </c>
       <c r="AA44" s="1">
-        <v>9.66021143728064</v>
+        <v>10.79309184639385</v>
       </c>
       <c r="AB44" s="1">
-        <v>21.29470860184423</v>
+        <v>15.54972314002032</v>
       </c>
       <c r="AC44" s="1">
-        <v>22.81966412612442</v>
+        <v>15.55870216904701</v>
       </c>
       <c r="AD44" s="1">
-        <v>20.59884917594954</v>
+        <v>17.91012097909374</v>
       </c>
       <c r="AE44" s="1">
-        <v>20.59884917594954</v>
+        <v>17.91012097909374</v>
       </c>
       <c r="AF44" s="1">
-        <v>20.59884917594954</v>
+        <v>17.91012097909374</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.816976975700484</v>
+        <v>9.734008126302896</v>
       </c>
       <c r="AH44" s="1">
-        <v>31.30520479569206</v>
+        <v>35.02522082890654</v>
       </c>
       <c r="AI44" s="1">
-        <v>62.94385198188142</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>20.16255480237518</v>
-      </c>
-      <c r="AK44" s="1">
-        <v>15.27391032775785</v>
-      </c>
-      <c r="AL44" s="1">
-        <v>13.01531563452766</v>
-      </c>
-      <c r="AM44" s="1">
-        <v>10.78658325255752</v>
+        <v>62.83537962935181</v>
+      </c>
+      <c r="AJ44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM44" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AN44" s="1">
-        <v>19.06630981951824</v>
+        <v>22.73105146238976</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.2945221657764401</v>
+        <v>0.2713704357494009</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.3968645183395563</v>
+        <v>0.336607148752177</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.5963903887097737</v>
+        <v>0.5337534553099577</v>
       </c>
       <c r="AR44" s="1">
-        <v>0.9250844372562288</v>
+        <v>0.8726461675993129</v>
       </c>
       <c r="AS44" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.3310328041152151</v>
+        <v>0.2972680576555722</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4453321520997607</v>
+        <v>0.3793875592759675</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.7014456420690758</v>
+        <v>0.6372927677554053</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.8667274253357253</v>
+        <v>0.814805324131316</v>
       </c>
       <c r="AX44" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:50" s="1" customFormat="1"/>

--- a/dca_mission_timing_pre_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_pre_tsmc2p_meas.xlsx
@@ -973,73 +973,73 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>49.1103</v>
+        <v>49.1082</v>
       </c>
       <c r="N2">
-        <v>15.9975</v>
+        <v>15.9957</v>
       </c>
       <c r="O2">
-        <v>16.892</v>
+        <v>16.8921</v>
       </c>
       <c r="P2">
-        <v>33.70500000000001</v>
+        <v>33.7075</v>
       </c>
       <c r="Q2">
-        <v>49.11049999999999</v>
+        <v>49.1094</v>
       </c>
       <c r="R2">
-        <v>100.001</v>
+        <v>100.002</v>
       </c>
       <c r="S2">
-        <v>33.70500000000001</v>
+        <v>33.7075</v>
       </c>
       <c r="T2">
-        <v>32.8147</v>
+        <v>32.8157</v>
       </c>
       <c r="U2">
-        <v>12.7399</v>
+        <v>12.7382</v>
       </c>
       <c r="V2">
-        <v>16.7824</v>
+        <v>16.7846</v>
       </c>
       <c r="W2">
-        <v>10.2192</v>
+        <v>10.2226</v>
       </c>
       <c r="X2">
-        <v>14.3826</v>
+        <v>14.3803</v>
       </c>
       <c r="Y2">
-        <v>14.3826</v>
+        <v>14.3803</v>
       </c>
       <c r="Z2">
-        <v>14.3869</v>
+        <v>14.3918</v>
       </c>
       <c r="AA2">
-        <v>15.475</v>
+        <v>15.4797</v>
       </c>
       <c r="AB2">
-        <v>16.892</v>
+        <v>16.8921</v>
       </c>
       <c r="AC2">
-        <v>10.2211</v>
+        <v>10.2213</v>
       </c>
       <c r="AD2">
-        <v>15.9975</v>
+        <v>15.9957</v>
       </c>
       <c r="AE2">
-        <v>15.9975</v>
+        <v>15.9957</v>
       </c>
       <c r="AF2">
-        <v>15.9975</v>
+        <v>15.9957</v>
       </c>
       <c r="AG2">
-        <v>0.770656</v>
+        <v>0.770616</v>
       </c>
       <c r="AH2">
-        <v>0.312425</v>
+        <v>0.205656</v>
       </c>
       <c r="AI2">
-        <v>0.107512</v>
+        <v>0.000716982</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>62</v>
@@ -1054,34 +1054,34 @@
         <v>62</v>
       </c>
       <c r="AN2">
-        <v>0.205472</v>
+        <v>0.205498</v>
       </c>
       <c r="AO2">
         <v>872.083</v>
       </c>
       <c r="AP2">
-        <v>831.687</v>
+        <v>831.6880000000001</v>
       </c>
       <c r="AQ2">
-        <v>887.9290000000001</v>
+        <v>887.932</v>
       </c>
       <c r="AR2">
-        <v>749.331</v>
+        <v>749.333</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT2">
-        <v>723.9300000000001</v>
+        <v>723.928</v>
       </c>
       <c r="AU2">
-        <v>780.5700000000001</v>
+        <v>780.571</v>
       </c>
       <c r="AV2">
-        <v>739.246</v>
+        <v>739.249</v>
       </c>
       <c r="AW2">
-        <v>798.4400000000001</v>
+        <v>798.441</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>63</v>
@@ -1125,73 +1125,73 @@
         <v>74</v>
       </c>
       <c r="M3">
-        <v>49.1076</v>
+        <v>49.1088</v>
       </c>
       <c r="N3">
-        <v>13.8223</v>
+        <v>13.8244</v>
       </c>
       <c r="O3">
-        <v>14.7721</v>
+        <v>14.7738</v>
       </c>
       <c r="P3">
-        <v>29.7127</v>
+        <v>29.7133</v>
       </c>
       <c r="Q3">
-        <v>49.1077</v>
+        <v>49.1081</v>
       </c>
       <c r="R3">
-        <v>100</v>
+        <v>99.9986</v>
       </c>
       <c r="S3">
-        <v>29.7127</v>
+        <v>29.7133</v>
       </c>
       <c r="T3">
-        <v>28.8204</v>
+        <v>28.8219</v>
       </c>
       <c r="U3">
-        <v>12.292</v>
+        <v>12.2863</v>
       </c>
       <c r="V3">
-        <v>14.7721</v>
+        <v>14.7738</v>
       </c>
       <c r="W3">
-        <v>8.90413</v>
+        <v>8.905140000000001</v>
       </c>
       <c r="X3">
-        <v>12.5029</v>
+        <v>12.5009</v>
       </c>
       <c r="Y3">
-        <v>12.5029</v>
+        <v>12.5009</v>
       </c>
       <c r="Z3">
-        <v>12.5027</v>
+        <v>12.5038</v>
       </c>
       <c r="AA3">
-        <v>14.5858</v>
+        <v>14.5819</v>
       </c>
       <c r="AB3">
-        <v>14.7484</v>
+        <v>14.7476</v>
       </c>
       <c r="AC3">
-        <v>8.82569</v>
+        <v>8.829320000000001</v>
       </c>
       <c r="AD3">
-        <v>13.8223</v>
+        <v>13.8244</v>
       </c>
       <c r="AE3">
-        <v>13.8223</v>
+        <v>13.8244</v>
       </c>
       <c r="AF3">
-        <v>13.8223</v>
+        <v>13.8244</v>
       </c>
       <c r="AG3">
-        <v>0.693728</v>
+        <v>0.6936909999999999</v>
       </c>
       <c r="AH3">
-        <v>0.324258</v>
+        <v>0.195379</v>
       </c>
       <c r="AI3">
-        <v>0.129419</v>
+        <v>0.00052008</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>62</v>
@@ -1206,16 +1206,16 @@
         <v>62</v>
       </c>
       <c r="AN3">
-        <v>0.195276</v>
+        <v>0.195297</v>
       </c>
       <c r="AO3">
-        <v>871.612</v>
+        <v>871.6129999999999</v>
       </c>
       <c r="AP3">
-        <v>830.148</v>
+        <v>830.1460000000001</v>
       </c>
       <c r="AQ3">
-        <v>885.367</v>
+        <v>885.3720000000001</v>
       </c>
       <c r="AR3">
         <v>745.3380000000001</v>
@@ -1224,16 +1224,16 @@
         <v>63</v>
       </c>
       <c r="AT3">
-        <v>723.2670000000001</v>
+        <v>723.266</v>
       </c>
       <c r="AU3">
-        <v>778.972</v>
+        <v>778.974</v>
       </c>
       <c r="AV3">
-        <v>736.533</v>
+        <v>736.535</v>
       </c>
       <c r="AW3">
-        <v>794.4450000000001</v>
+        <v>794.447</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>63</v>
@@ -1277,73 +1277,73 @@
         <v>76</v>
       </c>
       <c r="M4">
-        <v>49.1749</v>
+        <v>49.1742</v>
       </c>
       <c r="N4">
-        <v>12.0787</v>
+        <v>12.0785</v>
       </c>
       <c r="O4">
-        <v>14.2318</v>
+        <v>14.2304</v>
       </c>
       <c r="P4">
-        <v>25.2959</v>
+        <v>25.2955</v>
       </c>
       <c r="Q4">
-        <v>49.175</v>
+        <v>49.174</v>
       </c>
       <c r="R4">
-        <v>100</v>
+        <v>99.9996</v>
       </c>
       <c r="S4">
-        <v>25.2959</v>
+        <v>25.2955</v>
       </c>
       <c r="T4">
-        <v>24.4721</v>
+        <v>24.4733</v>
       </c>
       <c r="U4">
-        <v>12.49</v>
+        <v>12.4859</v>
       </c>
       <c r="V4">
-        <v>13.4745</v>
+        <v>13.4766</v>
       </c>
       <c r="W4">
-        <v>8.166030000000001</v>
+        <v>8.165510000000001</v>
       </c>
       <c r="X4">
-        <v>10.852</v>
+        <v>10.8514</v>
       </c>
       <c r="Y4">
-        <v>10.852</v>
+        <v>10.8514</v>
       </c>
       <c r="Z4">
-        <v>10.8489</v>
+        <v>10.8516</v>
       </c>
       <c r="AA4">
-        <v>14.2318</v>
+        <v>14.2304</v>
       </c>
       <c r="AB4">
-        <v>13.3632</v>
+        <v>13.3648</v>
       </c>
       <c r="AC4">
-        <v>8.044550000000001</v>
+        <v>8.04346</v>
       </c>
       <c r="AD4">
-        <v>12.0787</v>
+        <v>12.0785</v>
       </c>
       <c r="AE4">
-        <v>12.0787</v>
+        <v>12.0785</v>
       </c>
       <c r="AF4">
-        <v>12.0787</v>
+        <v>12.0785</v>
       </c>
       <c r="AG4">
-        <v>0.845127</v>
+        <v>0.845083</v>
       </c>
       <c r="AH4">
-        <v>0.503816</v>
+        <v>0.263922</v>
       </c>
       <c r="AI4">
-        <v>0.240573</v>
+        <v>0.000660054</v>
       </c>
       <c r="AJ4" s="2" t="s">
         <v>62</v>
@@ -1358,34 +1358,34 @@
         <v>62</v>
       </c>
       <c r="AN4">
-        <v>0.263907</v>
+        <v>0.26392</v>
       </c>
       <c r="AO4">
-        <v>870.4789999999999</v>
+        <v>870.4760000000001</v>
       </c>
       <c r="AP4">
-        <v>828.114</v>
+        <v>828.1129999999999</v>
       </c>
       <c r="AQ4">
-        <v>882.402</v>
+        <v>882.401</v>
       </c>
       <c r="AR4">
-        <v>740.9209999999999</v>
+        <v>740.923</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT4">
-        <v>722.307</v>
+        <v>722.3080000000001</v>
       </c>
       <c r="AU4">
-        <v>776.966</v>
+        <v>776.9670000000001</v>
       </c>
       <c r="AV4">
-        <v>733.5700000000001</v>
+        <v>733.573</v>
       </c>
       <c r="AW4">
-        <v>790.097</v>
+        <v>790.098</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>63</v>
@@ -1429,73 +1429,73 @@
         <v>74</v>
       </c>
       <c r="M5">
-        <v>48.5687</v>
+        <v>48.5718</v>
       </c>
       <c r="N5">
-        <v>15.8681</v>
+        <v>15.8634</v>
       </c>
       <c r="O5">
-        <v>17.1286</v>
+        <v>17.1323</v>
       </c>
       <c r="P5">
-        <v>30.9832</v>
+        <v>30.9829</v>
       </c>
       <c r="Q5">
-        <v>48.5681</v>
+        <v>48.5714</v>
       </c>
       <c r="R5">
-        <v>99.99890000000001</v>
+        <v>99.999</v>
       </c>
       <c r="S5">
-        <v>30.9832</v>
+        <v>30.9829</v>
       </c>
       <c r="T5">
-        <v>29.5524</v>
+        <v>29.552</v>
       </c>
       <c r="U5">
-        <v>15.2565</v>
+        <v>15.2458</v>
       </c>
       <c r="V5">
-        <v>17.1286</v>
+        <v>17.1323</v>
       </c>
       <c r="W5">
-        <v>10.7105</v>
+        <v>10.7209</v>
       </c>
       <c r="X5">
-        <v>13.9078</v>
+        <v>13.9109</v>
       </c>
       <c r="Y5">
-        <v>13.9078</v>
+        <v>13.9109</v>
       </c>
       <c r="Z5">
-        <v>13.9088</v>
+        <v>13.9098</v>
       </c>
       <c r="AA5">
-        <v>17.1052</v>
+        <v>17.107</v>
       </c>
       <c r="AB5">
-        <v>17.1057</v>
+        <v>17.1068</v>
       </c>
       <c r="AC5">
-        <v>10.8231</v>
+        <v>10.824</v>
       </c>
       <c r="AD5">
-        <v>15.8681</v>
+        <v>15.8634</v>
       </c>
       <c r="AE5">
-        <v>15.8681</v>
+        <v>15.8634</v>
       </c>
       <c r="AF5">
-        <v>15.8681</v>
+        <v>15.8634</v>
       </c>
       <c r="AG5">
-        <v>0.6865560000000001</v>
+        <v>0.686452</v>
       </c>
       <c r="AH5">
-        <v>0.473143</v>
+        <v>0.287981</v>
       </c>
       <c r="AI5">
-        <v>0.247035</v>
+        <v>0.0618496</v>
       </c>
       <c r="AJ5" s="2" t="s">
         <v>62</v>
@@ -1510,31 +1510,31 @@
         <v>62</v>
       </c>
       <c r="AN5">
-        <v>0.281301</v>
+        <v>0.281038</v>
       </c>
       <c r="AO5">
         <v>870.581</v>
       </c>
       <c r="AP5">
-        <v>830.633</v>
+        <v>830.634</v>
       </c>
       <c r="AQ5">
-        <v>885.379</v>
+        <v>885.381</v>
       </c>
       <c r="AR5">
-        <v>746.605</v>
+        <v>746.6070000000001</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT5">
-        <v>723.663</v>
+        <v>723.662</v>
       </c>
       <c r="AU5">
         <v>778.792</v>
       </c>
       <c r="AV5">
-        <v>737.732</v>
+        <v>737.735</v>
       </c>
       <c r="AW5">
         <v>795.177</v>
@@ -1581,73 +1581,73 @@
         <v>76</v>
       </c>
       <c r="M6">
-        <v>48.6364</v>
+        <v>48.6324</v>
       </c>
       <c r="N6">
-        <v>14.1141</v>
+        <v>14.1107</v>
       </c>
       <c r="O6">
-        <v>16.4286</v>
+        <v>16.4525</v>
       </c>
       <c r="P6">
-        <v>27.534</v>
+        <v>27.5398</v>
       </c>
       <c r="Q6">
-        <v>48.637</v>
+        <v>48.6305</v>
       </c>
       <c r="R6">
-        <v>100.001</v>
+        <v>99.996</v>
       </c>
       <c r="S6">
-        <v>27.534</v>
+        <v>27.5398</v>
       </c>
       <c r="T6">
-        <v>26.1707</v>
+        <v>26.1696</v>
       </c>
       <c r="U6">
         <v>15.3116</v>
       </c>
       <c r="V6">
-        <v>15.9243</v>
+        <v>15.923</v>
       </c>
       <c r="W6">
-        <v>10.0241</v>
+        <v>10.0251</v>
       </c>
       <c r="X6">
-        <v>12.4135</v>
+        <v>12.4143</v>
       </c>
       <c r="Y6">
-        <v>12.4135</v>
+        <v>12.4143</v>
       </c>
       <c r="Z6">
-        <v>12.4151</v>
+        <v>12.4177</v>
       </c>
       <c r="AA6">
-        <v>16.4286</v>
+        <v>16.4525</v>
       </c>
       <c r="AB6">
-        <v>15.7455</v>
+        <v>15.7488</v>
       </c>
       <c r="AC6">
-        <v>10.0622</v>
+        <v>10.0617</v>
       </c>
       <c r="AD6">
-        <v>14.1141</v>
+        <v>14.1107</v>
       </c>
       <c r="AE6">
-        <v>14.1141</v>
+        <v>14.1107</v>
       </c>
       <c r="AF6">
-        <v>14.1141</v>
+        <v>14.1107</v>
       </c>
       <c r="AG6">
         <v>0.837534</v>
       </c>
       <c r="AH6">
-        <v>0.680546</v>
+        <v>0.375274</v>
       </c>
       <c r="AI6">
-        <v>0.375374</v>
+        <v>0.07008250000000001</v>
       </c>
       <c r="AJ6" s="2" t="s">
         <v>62</v>
@@ -1662,19 +1662,19 @@
         <v>62</v>
       </c>
       <c r="AN6">
-        <v>0.367596</v>
+        <v>0.367144</v>
       </c>
       <c r="AO6">
-        <v>869.859</v>
+        <v>869.857</v>
       </c>
       <c r="AP6">
-        <v>829.14</v>
+        <v>829.144</v>
       </c>
       <c r="AQ6">
-        <v>883.236</v>
+        <v>883.235</v>
       </c>
       <c r="AR6">
-        <v>743.1590000000001</v>
+        <v>743.1609999999999</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>63</v>
@@ -1683,13 +1683,13 @@
         <v>722.973</v>
       </c>
       <c r="AU6">
-        <v>777.3620000000001</v>
+        <v>777.361</v>
       </c>
       <c r="AV6">
-        <v>735.4450000000001</v>
+        <v>735.446</v>
       </c>
       <c r="AW6">
-        <v>791.7959999999999</v>
+        <v>791.795</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>63</v>
@@ -1733,73 +1733,73 @@
         <v>74</v>
       </c>
       <c r="M7">
-        <v>49.1022</v>
+        <v>49.1047</v>
       </c>
       <c r="N7">
-        <v>14.7724</v>
+        <v>14.7759</v>
       </c>
       <c r="O7">
-        <v>15.7853</v>
+        <v>15.7872</v>
       </c>
       <c r="P7">
-        <v>30.8285</v>
+        <v>30.8288</v>
       </c>
       <c r="Q7">
-        <v>49.1022</v>
+        <v>49.1068</v>
       </c>
       <c r="R7">
-        <v>100</v>
+        <v>100.004</v>
       </c>
       <c r="S7">
-        <v>30.8285</v>
+        <v>30.8288</v>
       </c>
       <c r="T7">
-        <v>29.9312</v>
+        <v>29.9348</v>
       </c>
       <c r="U7">
-        <v>12.5975</v>
+        <v>12.589</v>
       </c>
       <c r="V7">
-        <v>15.7853</v>
+        <v>15.7872</v>
       </c>
       <c r="W7">
-        <v>9.650079999999999</v>
+        <v>9.65265</v>
       </c>
       <c r="X7">
-        <v>13.3141</v>
+        <v>13.3152</v>
       </c>
       <c r="Y7">
-        <v>13.3141</v>
+        <v>13.3152</v>
       </c>
       <c r="Z7">
-        <v>13.3156</v>
+        <v>13.3143</v>
       </c>
       <c r="AA7">
-        <v>15.2559</v>
+        <v>15.2584</v>
       </c>
       <c r="AB7">
-        <v>15.7255</v>
+        <v>15.7273</v>
       </c>
       <c r="AC7">
-        <v>9.541170000000001</v>
+        <v>9.542920000000001</v>
       </c>
       <c r="AD7">
-        <v>14.7724</v>
+        <v>14.7759</v>
       </c>
       <c r="AE7">
-        <v>14.7724</v>
+        <v>14.7759</v>
       </c>
       <c r="AF7">
-        <v>14.7724</v>
+        <v>14.7759</v>
       </c>
       <c r="AG7">
-        <v>0.69278</v>
+        <v>0.692842</v>
       </c>
       <c r="AH7">
-        <v>0.320621</v>
+        <v>0.191739</v>
       </c>
       <c r="AI7">
-        <v>0.129419</v>
+        <v>0.0005200789999999999</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>62</v>
@@ -1814,7 +1814,7 @@
         <v>62</v>
       </c>
       <c r="AN7">
-        <v>0.19164</v>
+        <v>0.191657</v>
       </c>
       <c r="AO7">
         <v>871.4590000000001</v>
@@ -1823,25 +1823,25 @@
         <v>830.4639999999999</v>
       </c>
       <c r="AQ7">
-        <v>885.942</v>
+        <v>885.9450000000001</v>
       </c>
       <c r="AR7">
-        <v>746.454</v>
+        <v>746.452</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT7">
-        <v>723.312</v>
+        <v>723.3090000000001</v>
       </c>
       <c r="AU7">
-        <v>779.235</v>
+        <v>779.2379999999999</v>
       </c>
       <c r="AV7">
-        <v>737.159</v>
+        <v>737.157</v>
       </c>
       <c r="AW7">
-        <v>795.5559999999999</v>
+        <v>795.5600000000001</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>63</v>
@@ -1885,73 +1885,73 @@
         <v>76</v>
       </c>
       <c r="M8">
-        <v>49.1634</v>
+        <v>49.1636</v>
       </c>
       <c r="N8">
-        <v>13.0379</v>
+        <v>13.0384</v>
       </c>
       <c r="O8">
-        <v>14.7734</v>
+        <v>14.7708</v>
       </c>
       <c r="P8">
-        <v>26.4627</v>
+        <v>26.4648</v>
       </c>
       <c r="Q8">
-        <v>49.1631</v>
+        <v>49.1637</v>
       </c>
       <c r="R8">
-        <v>99.9995</v>
+        <v>100</v>
       </c>
       <c r="S8">
-        <v>26.4627</v>
+        <v>26.4648</v>
       </c>
       <c r="T8">
-        <v>25.6269</v>
+        <v>25.6239</v>
       </c>
       <c r="U8">
-        <v>12.902</v>
+        <v>12.9034</v>
       </c>
       <c r="V8">
-        <v>14.5431</v>
+        <v>14.544</v>
       </c>
       <c r="W8">
-        <v>8.986649999999999</v>
+        <v>8.9848</v>
       </c>
       <c r="X8">
-        <v>11.6936</v>
+        <v>11.6956</v>
       </c>
       <c r="Y8">
-        <v>11.6936</v>
+        <v>11.6956</v>
       </c>
       <c r="Z8">
-        <v>11.693</v>
+        <v>11.6944</v>
       </c>
       <c r="AA8">
-        <v>14.7734</v>
+        <v>14.7708</v>
       </c>
       <c r="AB8">
-        <v>14.3905</v>
+        <v>14.3918</v>
       </c>
       <c r="AC8">
-        <v>8.827350000000001</v>
+        <v>8.828050000000001</v>
       </c>
       <c r="AD8">
-        <v>13.0379</v>
+        <v>13.0384</v>
       </c>
       <c r="AE8">
-        <v>13.0379</v>
+        <v>13.0384</v>
       </c>
       <c r="AF8">
-        <v>13.0379</v>
+        <v>13.0384</v>
       </c>
       <c r="AG8">
-        <v>0.844094</v>
+        <v>0.844117</v>
       </c>
       <c r="AH8">
-        <v>0.500189</v>
+        <v>0.260289</v>
       </c>
       <c r="AI8">
-        <v>0.240573</v>
+        <v>0.000660065</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>62</v>
@@ -1966,34 +1966,34 @@
         <v>62</v>
       </c>
       <c r="AN8">
-        <v>0.260276</v>
+        <v>0.260291</v>
       </c>
       <c r="AO8">
-        <v>870.3099999999999</v>
+        <v>870.311</v>
       </c>
       <c r="AP8">
-        <v>828.466</v>
+        <v>828.4680000000001</v>
       </c>
       <c r="AQ8">
-        <v>883.0360000000001</v>
+        <v>883.04</v>
       </c>
       <c r="AR8">
-        <v>742.09</v>
+        <v>742.092</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT8">
-        <v>722.3870000000001</v>
+        <v>722.386</v>
       </c>
       <c r="AU8">
         <v>777.261</v>
       </c>
       <c r="AV8">
-        <v>734.26</v>
+        <v>734.2620000000001</v>
       </c>
       <c r="AW8">
-        <v>791.2520000000001</v>
+        <v>791.249</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>63</v>
@@ -2037,73 +2037,73 @@
         <v>74</v>
       </c>
       <c r="M9">
-        <v>48.5705</v>
+        <v>48.5674</v>
       </c>
       <c r="N9">
-        <v>16.9227</v>
+        <v>16.9225</v>
       </c>
       <c r="O9">
-        <v>18.2903</v>
+        <v>18.2922</v>
       </c>
       <c r="P9">
-        <v>32.1818</v>
+        <v>32.1808</v>
       </c>
       <c r="Q9">
-        <v>48.56930000000001</v>
+        <v>48.56769999999999</v>
       </c>
       <c r="R9">
-        <v>99.9975</v>
+        <v>100.001</v>
       </c>
       <c r="S9">
-        <v>32.1818</v>
+        <v>32.1808</v>
       </c>
       <c r="T9">
-        <v>30.751</v>
+        <v>30.7485</v>
       </c>
       <c r="U9">
-        <v>15.721</v>
+        <v>15.7202</v>
       </c>
       <c r="V9">
-        <v>18.2903</v>
+        <v>18.2922</v>
       </c>
       <c r="W9">
-        <v>11.628</v>
+        <v>11.6268</v>
       </c>
       <c r="X9">
-        <v>14.8282</v>
+        <v>14.8243</v>
       </c>
       <c r="Y9">
-        <v>14.8282</v>
+        <v>14.8243</v>
       </c>
       <c r="Z9">
-        <v>14.828</v>
+        <v>14.8245</v>
       </c>
       <c r="AA9">
-        <v>17.7601</v>
+        <v>17.7727</v>
       </c>
       <c r="AB9">
-        <v>18.2084</v>
+        <v>18.2085</v>
       </c>
       <c r="AC9">
-        <v>11.7127</v>
+        <v>11.7129</v>
       </c>
       <c r="AD9">
-        <v>16.9227</v>
+        <v>16.9225</v>
       </c>
       <c r="AE9">
-        <v>16.9227</v>
+        <v>16.9225</v>
       </c>
       <c r="AF9">
-        <v>16.9227</v>
+        <v>16.9225</v>
       </c>
       <c r="AG9">
-        <v>0.685578</v>
+        <v>0.685511</v>
       </c>
       <c r="AH9">
-        <v>0.470676</v>
+        <v>0.285497</v>
       </c>
       <c r="AI9">
-        <v>0.247036</v>
+        <v>0.0618503</v>
       </c>
       <c r="AJ9" s="2" t="s">
         <v>62</v>
@@ -2118,16 +2118,16 @@
         <v>62</v>
       </c>
       <c r="AN9">
-        <v>0.278835</v>
+        <v>0.278553</v>
       </c>
       <c r="AO9">
-        <v>870.3670000000001</v>
+        <v>870.3630000000001</v>
       </c>
       <c r="AP9">
-        <v>830.981</v>
+        <v>830.98</v>
       </c>
       <c r="AQ9">
-        <v>886.019</v>
+        <v>886.0170000000001</v>
       </c>
       <c r="AR9">
         <v>747.806</v>
@@ -2136,16 +2136,16 @@
         <v>63</v>
       </c>
       <c r="AT9">
-        <v>723.73</v>
+        <v>723.7280000000001</v>
       </c>
       <c r="AU9">
-        <v>779.1</v>
+        <v>779.096</v>
       </c>
       <c r="AV9">
         <v>738.4499999999999</v>
       </c>
       <c r="AW9">
-        <v>796.376</v>
+        <v>796.374</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>63</v>
@@ -2189,73 +2189,73 @@
         <v>76</v>
       </c>
       <c r="M10">
-        <v>48.6291</v>
+        <v>48.6249</v>
       </c>
       <c r="N10">
-        <v>15.2149</v>
+        <v>15.2192</v>
       </c>
       <c r="O10">
-        <v>17.1553</v>
+        <v>17.159</v>
       </c>
       <c r="P10">
-        <v>28.8118</v>
+        <v>28.811</v>
       </c>
       <c r="Q10">
-        <v>48.628</v>
+        <v>48.6244</v>
       </c>
       <c r="R10">
-        <v>99.99760000000001</v>
+        <v>99.9991</v>
       </c>
       <c r="S10">
-        <v>28.8118</v>
+        <v>28.811</v>
       </c>
       <c r="T10">
-        <v>27.4391</v>
+        <v>27.4361</v>
       </c>
       <c r="U10">
-        <v>15.8388</v>
+        <v>15.8378</v>
       </c>
       <c r="V10">
-        <v>17.1553</v>
+        <v>17.159</v>
       </c>
       <c r="W10">
-        <v>11.0272</v>
+        <v>11.0294</v>
       </c>
       <c r="X10">
-        <v>13.3905</v>
+        <v>13.3889</v>
       </c>
       <c r="Y10">
-        <v>13.3905</v>
+        <v>13.3889</v>
       </c>
       <c r="Z10">
-        <v>13.39</v>
+        <v>13.3894</v>
       </c>
       <c r="AA10">
-        <v>17.0912</v>
+        <v>17.0892</v>
       </c>
       <c r="AB10">
-        <v>16.9215</v>
+        <v>16.9236</v>
       </c>
       <c r="AC10">
-        <v>11.0323</v>
+        <v>11.0289</v>
       </c>
       <c r="AD10">
-        <v>15.2149</v>
+        <v>15.2192</v>
       </c>
       <c r="AE10">
-        <v>15.2149</v>
+        <v>15.2192</v>
       </c>
       <c r="AF10">
-        <v>15.2149</v>
+        <v>15.2192</v>
       </c>
       <c r="AG10">
-        <v>0.836511</v>
+        <v>0.836507</v>
       </c>
       <c r="AH10">
-        <v>0.6785829999999999</v>
+        <v>0.373294</v>
       </c>
       <c r="AI10">
-        <v>0.375375</v>
+        <v>0.0700832</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>62</v>
@@ -2270,34 +2270,34 @@
         <v>62</v>
       </c>
       <c r="AN10">
-        <v>0.365632</v>
+        <v>0.365165</v>
       </c>
       <c r="AO10">
-        <v>869.6210000000001</v>
+        <v>869.616</v>
       </c>
       <c r="AP10">
-        <v>829.538</v>
+        <v>829.537</v>
       </c>
       <c r="AQ10">
-        <v>883.9490000000001</v>
+        <v>883.9450000000001</v>
       </c>
       <c r="AR10">
-        <v>744.4350000000001</v>
+        <v>744.4340000000001</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT10">
-        <v>723.0740000000001</v>
+        <v>723.073</v>
       </c>
       <c r="AU10">
-        <v>777.712</v>
+        <v>777.7089999999999</v>
       </c>
       <c r="AV10">
-        <v>736.232</v>
+        <v>736.231</v>
       </c>
       <c r="AW10">
-        <v>793.064</v>
+        <v>793.0609999999999</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>63</v>
@@ -2341,73 +2341,73 @@
         <v>74</v>
       </c>
       <c r="M11">
-        <v>48.8913</v>
+        <v>48.8917</v>
       </c>
       <c r="N11">
-        <v>20.8417</v>
+        <v>20.8429</v>
       </c>
       <c r="O11">
-        <v>20.7555</v>
+        <v>20.7527</v>
       </c>
       <c r="P11">
-        <v>50.3282</v>
+        <v>50.33300000000001</v>
       </c>
       <c r="Q11">
-        <v>48.8899</v>
+        <v>48.892</v>
       </c>
       <c r="R11">
-        <v>99.997</v>
+        <v>100</v>
       </c>
       <c r="S11">
-        <v>50.3282</v>
+        <v>50.33300000000001</v>
       </c>
       <c r="T11">
-        <v>49.2197</v>
+        <v>49.2299</v>
       </c>
       <c r="U11">
-        <v>12.0524</v>
+        <v>12.0604</v>
       </c>
       <c r="V11">
-        <v>19.0472</v>
+        <v>19.0425</v>
       </c>
       <c r="W11">
-        <v>12.3586</v>
+        <v>12.3583</v>
       </c>
       <c r="X11">
-        <v>19.5465</v>
+        <v>19.5497</v>
       </c>
       <c r="Y11">
-        <v>19.5465</v>
+        <v>19.5497</v>
       </c>
       <c r="Z11">
-        <v>19.5465</v>
+        <v>19.5461</v>
       </c>
       <c r="AA11">
-        <v>14.0295</v>
+        <v>14.0148</v>
       </c>
       <c r="AB11">
-        <v>20.7555</v>
+        <v>20.7527</v>
       </c>
       <c r="AC11">
-        <v>12.6011</v>
+        <v>12.6007</v>
       </c>
       <c r="AD11">
-        <v>20.8417</v>
+        <v>20.8429</v>
       </c>
       <c r="AE11">
-        <v>20.8417</v>
+        <v>20.8429</v>
       </c>
       <c r="AF11">
-        <v>20.8417</v>
+        <v>20.8429</v>
       </c>
       <c r="AG11">
-        <v>0.701762</v>
+        <v>0.701732</v>
       </c>
       <c r="AH11">
-        <v>0.185046</v>
+        <v>0.164638</v>
       </c>
       <c r="AI11">
-        <v>0.0204355</v>
+        <v>5.672E-06</v>
       </c>
       <c r="AJ11" s="2" t="s">
         <v>62</v>
@@ -2422,34 +2422,34 @@
         <v>62</v>
       </c>
       <c r="AN11">
-        <v>0.164827</v>
+        <v>0.164848</v>
       </c>
       <c r="AO11">
-        <v>876.4290000000001</v>
+        <v>876.427</v>
       </c>
       <c r="AP11">
-        <v>838.793</v>
+        <v>838.796</v>
       </c>
       <c r="AQ11">
-        <v>899.7569999999999</v>
+        <v>899.766</v>
       </c>
       <c r="AR11">
-        <v>765.95</v>
+        <v>765.958</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT11">
-        <v>727.639</v>
+        <v>727.64</v>
       </c>
       <c r="AU11">
-        <v>788.131</v>
+        <v>788.136</v>
       </c>
       <c r="AV11">
-        <v>750.6070000000001</v>
+        <v>750.6129999999999</v>
       </c>
       <c r="AW11">
-        <v>814.845</v>
+        <v>814.855</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>63</v>
@@ -2493,73 +2493,73 @@
         <v>76</v>
       </c>
       <c r="M12">
-        <v>49.2512</v>
+        <v>49.253</v>
       </c>
       <c r="N12">
-        <v>16.1361</v>
+        <v>16.1334</v>
       </c>
       <c r="O12">
-        <v>17.0209</v>
+        <v>17.0215</v>
       </c>
       <c r="P12">
-        <v>36.9999</v>
+        <v>37.0023</v>
       </c>
       <c r="Q12">
-        <v>49.2514</v>
+        <v>49.2517</v>
       </c>
       <c r="R12">
-        <v>100</v>
+        <v>99.9973</v>
       </c>
       <c r="S12">
-        <v>36.9999</v>
+        <v>37.0023</v>
       </c>
       <c r="T12">
-        <v>36.25</v>
+        <v>36.255</v>
       </c>
       <c r="U12">
-        <v>11.6084</v>
+        <v>11.6109</v>
       </c>
       <c r="V12">
-        <v>16.4402</v>
+        <v>16.4403</v>
       </c>
       <c r="W12">
-        <v>10.0233</v>
+        <v>10.0236</v>
       </c>
       <c r="X12">
-        <v>14.8417</v>
+        <v>14.8414</v>
       </c>
       <c r="Y12">
-        <v>14.8417</v>
+        <v>14.8414</v>
       </c>
       <c r="Z12">
-        <v>14.8427</v>
+        <v>14.8355</v>
       </c>
       <c r="AA12">
-        <v>13.9668</v>
+        <v>13.9697</v>
       </c>
       <c r="AB12">
-        <v>17.0209</v>
+        <v>17.0215</v>
       </c>
       <c r="AC12">
-        <v>10.1375</v>
+        <v>10.1373</v>
       </c>
       <c r="AD12">
-        <v>16.1361</v>
+        <v>16.1334</v>
       </c>
       <c r="AE12">
-        <v>16.1361</v>
+        <v>16.1334</v>
       </c>
       <c r="AF12">
-        <v>16.1361</v>
+        <v>16.1334</v>
       </c>
       <c r="AG12">
-        <v>0.853121</v>
+        <v>0.853286</v>
       </c>
       <c r="AH12">
-        <v>0.279143</v>
+        <v>0.210718</v>
       </c>
       <c r="AI12">
-        <v>0.0684573</v>
+        <v>1.45534E-05</v>
       </c>
       <c r="AJ12" s="2" t="s">
         <v>62</v>
@@ -2574,34 +2574,34 @@
         <v>62</v>
       </c>
       <c r="AN12">
-        <v>0.210671</v>
+        <v>0.210689</v>
       </c>
       <c r="AO12">
         <v>873.634</v>
       </c>
       <c r="AP12">
-        <v>833.292</v>
+        <v>833.2930000000001</v>
       </c>
       <c r="AQ12">
-        <v>890.8190000000001</v>
+        <v>890.8200000000001</v>
       </c>
       <c r="AR12">
-        <v>752.624</v>
+        <v>752.626</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT12">
-        <v>724.859</v>
+        <v>724.8580000000001</v>
       </c>
       <c r="AU12">
-        <v>782.6410000000001</v>
+        <v>782.643</v>
       </c>
       <c r="AV12">
-        <v>741.62</v>
+        <v>741.624</v>
       </c>
       <c r="AW12">
-        <v>801.875</v>
+        <v>801.88</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>63</v>
@@ -2645,73 +2645,73 @@
         <v>74</v>
       </c>
       <c r="M13">
-        <v>48.9173</v>
+        <v>48.9207</v>
       </c>
       <c r="N13">
-        <v>22.5398</v>
+        <v>22.5402</v>
       </c>
       <c r="O13">
-        <v>23.0034</v>
+        <v>22.9995</v>
       </c>
       <c r="P13">
-        <v>47.472</v>
+        <v>47.476</v>
       </c>
       <c r="Q13">
-        <v>48.9179</v>
+        <v>48.9198</v>
       </c>
       <c r="R13">
-        <v>100.001</v>
+        <v>99.9982</v>
       </c>
       <c r="S13">
-        <v>47.472</v>
+        <v>47.476</v>
       </c>
       <c r="T13">
-        <v>46.3899</v>
+        <v>46.3988</v>
       </c>
       <c r="U13">
-        <v>14.1782</v>
+        <v>14.1885</v>
       </c>
       <c r="V13">
-        <v>21.6761</v>
+        <v>21.677</v>
       </c>
       <c r="W13">
-        <v>13.4846</v>
+        <v>13.4876</v>
       </c>
       <c r="X13">
-        <v>20.0936</v>
+        <v>20.0961</v>
       </c>
       <c r="Y13">
-        <v>20.0936</v>
+        <v>20.0961</v>
       </c>
       <c r="Z13">
-        <v>20.0956</v>
+        <v>20.0952</v>
       </c>
       <c r="AA13">
-        <v>17.2684</v>
+        <v>17.266</v>
       </c>
       <c r="AB13">
-        <v>23.0034</v>
+        <v>22.9995</v>
       </c>
       <c r="AC13">
-        <v>13.9702</v>
+        <v>13.9704</v>
       </c>
       <c r="AD13">
-        <v>22.5398</v>
+        <v>22.5402</v>
       </c>
       <c r="AE13">
-        <v>22.5398</v>
+        <v>22.5402</v>
       </c>
       <c r="AF13">
-        <v>22.5398</v>
+        <v>22.5402</v>
       </c>
       <c r="AG13">
-        <v>0.693493</v>
+        <v>0.6933589999999999</v>
       </c>
       <c r="AH13">
-        <v>0.21839</v>
+        <v>0.173601</v>
       </c>
       <c r="AI13">
-        <v>0.0471109</v>
+        <v>0.00229959</v>
       </c>
       <c r="AJ13" s="2" t="s">
         <v>62</v>
@@ -2726,19 +2726,19 @@
         <v>62</v>
       </c>
       <c r="AN13">
-        <v>0.173296</v>
+        <v>0.173317</v>
       </c>
       <c r="AO13">
         <v>874.331</v>
       </c>
       <c r="AP13">
-        <v>837.226</v>
+        <v>837.23</v>
       </c>
       <c r="AQ13">
-        <v>896.803</v>
+        <v>896.8090000000001</v>
       </c>
       <c r="AR13">
-        <v>763.098</v>
+        <v>763.101</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>63</v>
@@ -2747,13 +2747,13 @@
         <v>726.657</v>
       </c>
       <c r="AU13">
-        <v>786.167</v>
+        <v>786.173</v>
       </c>
       <c r="AV13">
-        <v>748.7429999999999</v>
+        <v>748.748</v>
       </c>
       <c r="AW13">
-        <v>812.015</v>
+        <v>812.024</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>63</v>
@@ -2797,73 +2797,73 @@
         <v>76</v>
       </c>
       <c r="M14">
-        <v>49.0172</v>
+        <v>49.0219</v>
       </c>
       <c r="N14">
-        <v>18.1601</v>
+        <v>18.1582</v>
       </c>
       <c r="O14">
-        <v>19.0999</v>
+        <v>19.1008</v>
       </c>
       <c r="P14">
-        <v>37.296</v>
+        <v>37.295</v>
       </c>
       <c r="Q14">
-        <v>49.0177</v>
+        <v>49.022</v>
       </c>
       <c r="R14">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S14">
-        <v>37.296</v>
+        <v>37.295</v>
       </c>
       <c r="T14">
-        <v>36.3137</v>
+        <v>36.3169</v>
       </c>
       <c r="U14">
-        <v>13.638</v>
+        <v>13.6357</v>
       </c>
       <c r="V14">
-        <v>18.5946</v>
+        <v>18.5963</v>
       </c>
       <c r="W14">
-        <v>11.3904</v>
+        <v>11.3915</v>
       </c>
       <c r="X14">
-        <v>16.1418</v>
+        <v>16.1435</v>
       </c>
       <c r="Y14">
-        <v>16.1418</v>
+        <v>16.1435</v>
       </c>
       <c r="Z14">
-        <v>16.1443</v>
+        <v>16.1447</v>
       </c>
       <c r="AA14">
-        <v>16.4445</v>
+        <v>16.4484</v>
       </c>
       <c r="AB14">
-        <v>19.0999</v>
+        <v>19.1008</v>
       </c>
       <c r="AC14">
-        <v>11.6208</v>
+        <v>11.6226</v>
       </c>
       <c r="AD14">
-        <v>18.1601</v>
+        <v>18.1582</v>
       </c>
       <c r="AE14">
-        <v>18.1601</v>
+        <v>18.1582</v>
       </c>
       <c r="AF14">
-        <v>18.1601</v>
+        <v>18.1582</v>
       </c>
       <c r="AG14">
-        <v>0.846861</v>
+        <v>0.84674</v>
       </c>
       <c r="AH14">
-        <v>0.32111</v>
+        <v>0.225606</v>
       </c>
       <c r="AI14">
-        <v>0.09814079999999999</v>
+        <v>0.00260216</v>
       </c>
       <c r="AJ14" s="2" t="s">
         <v>62</v>
@@ -2878,34 +2878,34 @@
         <v>62</v>
       </c>
       <c r="AN14">
-        <v>0.225178</v>
+        <v>0.225212</v>
       </c>
       <c r="AO14">
-        <v>872.438</v>
+        <v>872.441</v>
       </c>
       <c r="AP14">
         <v>833.09</v>
       </c>
       <c r="AQ14">
-        <v>890.158</v>
+        <v>890.1660000000001</v>
       </c>
       <c r="AR14">
-        <v>752.922</v>
+        <v>752.9230000000001</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT14">
-        <v>724.624</v>
+        <v>724.6229999999999</v>
       </c>
       <c r="AU14">
-        <v>782.001</v>
+        <v>782.004</v>
       </c>
       <c r="AV14">
-        <v>741.8729999999999</v>
+        <v>741.875</v>
       </c>
       <c r="AW14">
-        <v>801.9390000000001</v>
+        <v>801.942</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>63</v>
@@ -2949,73 +2949,73 @@
         <v>74</v>
       </c>
       <c r="M15">
-        <v>48.8633</v>
+        <v>48.8678</v>
       </c>
       <c r="N15">
-        <v>21.7948</v>
+        <v>21.7972</v>
       </c>
       <c r="O15">
-        <v>21.6304</v>
+        <v>21.6292</v>
       </c>
       <c r="P15">
-        <v>51.2666</v>
+        <v>51.2709</v>
       </c>
       <c r="Q15">
-        <v>48.863</v>
+        <v>48.8677</v>
       </c>
       <c r="R15">
-        <v>99.9995</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S15">
-        <v>51.2666</v>
+        <v>51.2709</v>
       </c>
       <c r="T15">
-        <v>50.13</v>
+        <v>50.13800000000001</v>
       </c>
       <c r="U15">
-        <v>12.2247</v>
+        <v>12.2369</v>
       </c>
       <c r="V15">
-        <v>20.1637</v>
+        <v>20.1625</v>
       </c>
       <c r="W15">
-        <v>12.9178</v>
+        <v>12.9184</v>
       </c>
       <c r="X15">
+        <v>20.3695</v>
+      </c>
+      <c r="Y15">
+        <v>20.3695</v>
+      </c>
+      <c r="Z15">
         <v>20.3696</v>
       </c>
-      <c r="Y15">
-        <v>20.3696</v>
-      </c>
-      <c r="Z15">
-        <v>20.3702</v>
-      </c>
       <c r="AA15">
-        <v>14.6957</v>
+        <v>14.6944</v>
       </c>
       <c r="AB15">
-        <v>21.6304</v>
+        <v>21.6292</v>
       </c>
       <c r="AC15">
-        <v>13.1286</v>
+        <v>13.1284</v>
       </c>
       <c r="AD15">
-        <v>21.7948</v>
+        <v>21.7972</v>
       </c>
       <c r="AE15">
-        <v>21.7948</v>
+        <v>21.7972</v>
       </c>
       <c r="AF15">
-        <v>21.7948</v>
+        <v>21.7972</v>
       </c>
       <c r="AG15">
-        <v>0.700137</v>
+        <v>0.700141</v>
       </c>
       <c r="AH15">
-        <v>0.180183</v>
+        <v>0.159772</v>
       </c>
       <c r="AI15">
-        <v>0.0204355</v>
+        <v>5.68332E-06</v>
       </c>
       <c r="AJ15" s="2" t="s">
         <v>62</v>
@@ -3030,34 +3030,34 @@
         <v>62</v>
       </c>
       <c r="AN15">
-        <v>0.159963</v>
+        <v>0.159983</v>
       </c>
       <c r="AO15">
         <v>876.2370000000001</v>
       </c>
       <c r="AP15">
-        <v>839.01</v>
+        <v>839.0120000000001</v>
       </c>
       <c r="AQ15">
-        <v>900.121</v>
+        <v>900.129</v>
       </c>
       <c r="AR15">
-        <v>766.8920000000001</v>
+        <v>766.896</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT15">
-        <v>727.6210000000001</v>
+        <v>727.62</v>
       </c>
       <c r="AU15">
-        <v>788.2769999999999</v>
+        <v>788.28</v>
       </c>
       <c r="AV15">
-        <v>751.0600000000001</v>
+        <v>751.062</v>
       </c>
       <c r="AW15">
-        <v>815.7550000000001</v>
+        <v>815.763</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>63</v>
@@ -3101,73 +3101,73 @@
         <v>76</v>
       </c>
       <c r="M16">
-        <v>49.2327</v>
+        <v>49.2352</v>
       </c>
       <c r="N16">
-        <v>17.0623</v>
+        <v>17.0698</v>
       </c>
       <c r="O16">
-        <v>17.8842</v>
+        <v>17.8832</v>
       </c>
       <c r="P16">
-        <v>38.0326</v>
+        <v>38.0335</v>
       </c>
       <c r="Q16">
-        <v>49.2328</v>
+        <v>49.2343</v>
       </c>
       <c r="R16">
-        <v>100</v>
+        <v>99.9983</v>
       </c>
       <c r="S16">
-        <v>38.0326</v>
+        <v>38.0335</v>
       </c>
       <c r="T16">
-        <v>37.2659</v>
+        <v>37.2677</v>
       </c>
       <c r="U16">
-        <v>11.7931</v>
+        <v>11.7916</v>
       </c>
       <c r="V16">
-        <v>17.3905</v>
+        <v>17.3901</v>
       </c>
       <c r="W16">
-        <v>10.6666</v>
+        <v>10.6667</v>
       </c>
       <c r="X16">
-        <v>15.6411</v>
+        <v>15.6384</v>
       </c>
       <c r="Y16">
-        <v>15.6411</v>
+        <v>15.6384</v>
       </c>
       <c r="Z16">
-        <v>15.644</v>
+        <v>15.6413</v>
       </c>
       <c r="AA16">
-        <v>14.7973</v>
+        <v>14.7923</v>
       </c>
       <c r="AB16">
-        <v>17.8842</v>
+        <v>17.8832</v>
       </c>
       <c r="AC16">
-        <v>10.7509</v>
+        <v>10.755</v>
       </c>
       <c r="AD16">
-        <v>17.0623</v>
+        <v>17.0698</v>
       </c>
       <c r="AE16">
-        <v>17.0623</v>
+        <v>17.0698</v>
       </c>
       <c r="AF16">
-        <v>17.0623</v>
+        <v>17.0698</v>
       </c>
       <c r="AG16">
-        <v>0.85181</v>
+        <v>0.8519370000000001</v>
       </c>
       <c r="AH16">
-        <v>0.273788</v>
+        <v>0.205358</v>
       </c>
       <c r="AI16">
-        <v>0.0684573</v>
+        <v>1.45634E-05</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>62</v>
@@ -3182,34 +3182,34 @@
         <v>62</v>
       </c>
       <c r="AN16">
-        <v>0.205316</v>
+        <v>0.205329</v>
       </c>
       <c r="AO16">
         <v>873.471</v>
       </c>
       <c r="AP16">
-        <v>833.5599999999999</v>
+        <v>833.563</v>
       </c>
       <c r="AQ16">
-        <v>891.296</v>
+        <v>891.297</v>
       </c>
       <c r="AR16">
-        <v>753.658</v>
+        <v>753.66</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT16">
-        <v>724.869</v>
+        <v>724.87</v>
       </c>
       <c r="AU16">
-        <v>782.853</v>
+        <v>782.855</v>
       </c>
       <c r="AV16">
-        <v>742.162</v>
+        <v>742.164</v>
       </c>
       <c r="AW16">
-        <v>802.8910000000001</v>
+        <v>802.893</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>63</v>
@@ -3253,73 +3253,73 @@
         <v>74</v>
       </c>
       <c r="M17">
-        <v>48.911</v>
+        <v>48.9101</v>
       </c>
       <c r="N17">
-        <v>23.5489</v>
+        <v>23.5543</v>
       </c>
       <c r="O17">
-        <v>23.7804</v>
+        <v>23.7813</v>
       </c>
       <c r="P17">
-        <v>48.3198</v>
+        <v>48.3235</v>
       </c>
       <c r="Q17">
-        <v>48.9109</v>
+        <v>48.9095</v>
       </c>
       <c r="R17">
-        <v>99.9997</v>
+        <v>99.99890000000001</v>
       </c>
       <c r="S17">
-        <v>48.3198</v>
+        <v>48.3235</v>
       </c>
       <c r="T17">
-        <v>47.2302</v>
+        <v>47.2342</v>
       </c>
       <c r="U17">
-        <v>14.4028</v>
+        <v>14.3999</v>
       </c>
       <c r="V17">
-        <v>22.6394</v>
+        <v>22.6436</v>
       </c>
       <c r="W17">
-        <v>14.102</v>
+        <v>14.1067</v>
       </c>
       <c r="X17">
-        <v>20.9623</v>
+        <v>20.9637</v>
       </c>
       <c r="Y17">
-        <v>20.9623</v>
+        <v>20.9637</v>
       </c>
       <c r="Z17">
-        <v>20.9623</v>
+        <v>20.9632</v>
       </c>
       <c r="AA17">
-        <v>18.1695</v>
+        <v>18.1734</v>
       </c>
       <c r="AB17">
-        <v>23.7804</v>
+        <v>23.7813</v>
       </c>
       <c r="AC17">
-        <v>14.5565</v>
+        <v>14.5547</v>
       </c>
       <c r="AD17">
-        <v>23.5489</v>
+        <v>23.5543</v>
       </c>
       <c r="AE17">
-        <v>23.5489</v>
+        <v>23.5543</v>
       </c>
       <c r="AF17">
-        <v>23.5489</v>
+        <v>23.5543</v>
       </c>
       <c r="AG17">
-        <v>0.6918299999999999</v>
+        <v>0.691816</v>
       </c>
       <c r="AH17">
-        <v>0.213736</v>
+        <v>0.168947</v>
       </c>
       <c r="AI17">
-        <v>0.0471109</v>
+        <v>0.00229959</v>
       </c>
       <c r="AJ17" s="2" t="s">
         <v>62</v>
@@ -3334,34 +3334,34 @@
         <v>62</v>
       </c>
       <c r="AN17">
-        <v>0.168641</v>
+        <v>0.168664</v>
       </c>
       <c r="AO17">
-        <v>874.1130000000001</v>
+        <v>874.1120000000001</v>
       </c>
       <c r="AP17">
-        <v>837.3910000000001</v>
+        <v>837.3919999999999</v>
       </c>
       <c r="AQ17">
         <v>897.117</v>
       </c>
       <c r="AR17">
-        <v>763.9450000000001</v>
+        <v>763.948</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT17">
-        <v>726.623</v>
+        <v>726.6239999999999</v>
       </c>
       <c r="AU17">
-        <v>786.278</v>
+        <v>786.2810000000001</v>
       </c>
       <c r="AV17">
-        <v>749.148</v>
+        <v>749.151</v>
       </c>
       <c r="AW17">
-        <v>812.855</v>
+        <v>812.859</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>63</v>
@@ -3405,73 +3405,73 @@
         <v>76</v>
       </c>
       <c r="M18">
-        <v>49.0125</v>
+        <v>49.0116</v>
       </c>
       <c r="N18">
-        <v>19.1518</v>
+        <v>19.1526</v>
       </c>
       <c r="O18">
-        <v>19.9931</v>
+        <v>19.993</v>
       </c>
       <c r="P18">
-        <v>38.2932</v>
+        <v>38.299</v>
       </c>
       <c r="Q18">
-        <v>49.0127</v>
+        <v>49.0101</v>
       </c>
       <c r="R18">
-        <v>100</v>
+        <v>99.9969</v>
       </c>
       <c r="S18">
-        <v>38.2932</v>
+        <v>38.299</v>
       </c>
       <c r="T18">
-        <v>37.3056</v>
+        <v>37.3093</v>
       </c>
       <c r="U18">
-        <v>13.9254</v>
+        <v>13.9194</v>
       </c>
       <c r="V18">
-        <v>19.5818</v>
+        <v>19.5827</v>
       </c>
       <c r="W18">
-        <v>12.0865</v>
+        <v>12.088</v>
       </c>
       <c r="X18">
-        <v>17.0012</v>
+        <v>17.0031</v>
       </c>
       <c r="Y18">
-        <v>17.0012</v>
+        <v>17.0031</v>
       </c>
       <c r="Z18">
-        <v>16.9968</v>
+        <v>17.0055</v>
       </c>
       <c r="AA18">
-        <v>17.2253</v>
+        <v>17.2327</v>
       </c>
       <c r="AB18">
-        <v>19.9931</v>
+        <v>19.993</v>
       </c>
       <c r="AC18">
-        <v>12.2905</v>
+        <v>12.2896</v>
       </c>
       <c r="AD18">
-        <v>19.1518</v>
+        <v>19.1526</v>
       </c>
       <c r="AE18">
-        <v>19.1518</v>
+        <v>19.1526</v>
       </c>
       <c r="AF18">
-        <v>19.1518</v>
+        <v>19.1526</v>
       </c>
       <c r="AG18">
-        <v>0.845688</v>
+        <v>0.845548</v>
       </c>
       <c r="AH18">
-        <v>0.31607</v>
+        <v>0.220558</v>
       </c>
       <c r="AI18">
-        <v>0.09814079999999999</v>
+        <v>0.00260218</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>62</v>
@@ -3486,34 +3486,34 @@
         <v>62</v>
       </c>
       <c r="AN18">
-        <v>0.220138</v>
+        <v>0.220164</v>
       </c>
       <c r="AO18">
-        <v>872.2460000000001</v>
+        <v>872.244</v>
       </c>
       <c r="AP18">
-        <v>833.3290000000001</v>
+        <v>833.333</v>
       </c>
       <c r="AQ18">
-        <v>890.6160000000001</v>
+        <v>890.619</v>
       </c>
       <c r="AR18">
-        <v>753.9200000000001</v>
+        <v>753.9230000000001</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT18">
-        <v>724.624</v>
+        <v>724.626</v>
       </c>
       <c r="AU18">
-        <v>782.1980000000001</v>
+        <v>782.201</v>
       </c>
       <c r="AV18">
-        <v>742.4059999999999</v>
+        <v>742.4110000000001</v>
       </c>
       <c r="AW18">
-        <v>802.931</v>
+        <v>802.934</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>63</v>
@@ -3557,73 +3557,73 @@
         <v>74</v>
       </c>
       <c r="M19">
-        <v>50.2177</v>
+        <v>50.2096</v>
       </c>
       <c r="N19">
-        <v>17.9415</v>
+        <v>17.9485</v>
       </c>
       <c r="O19">
-        <v>18.714</v>
+        <v>18.7136</v>
       </c>
       <c r="P19">
-        <v>37.9305</v>
+        <v>37.9327</v>
       </c>
       <c r="Q19">
-        <v>50.2176</v>
+        <v>50.2098</v>
       </c>
       <c r="R19">
-        <v>99.99980000000001</v>
+        <v>100</v>
       </c>
       <c r="S19">
-        <v>37.7118</v>
+        <v>37.7163</v>
       </c>
       <c r="T19">
-        <v>37.9305</v>
+        <v>37.9327</v>
       </c>
       <c r="U19">
-        <v>13.3421</v>
+        <v>13.3439</v>
       </c>
       <c r="V19">
-        <v>18.714</v>
+        <v>18.7136</v>
       </c>
       <c r="W19">
-        <v>11.4768</v>
+        <v>11.4772</v>
       </c>
       <c r="X19">
-        <v>17.9423</v>
+        <v>17.9488</v>
       </c>
       <c r="Y19">
-        <v>17.9423</v>
+        <v>17.9488</v>
       </c>
       <c r="Z19">
-        <v>17.9415</v>
+        <v>17.9485</v>
       </c>
       <c r="AA19">
-        <v>12.8857</v>
+        <v>12.8762</v>
       </c>
       <c r="AB19">
-        <v>13.4398</v>
+        <v>13.4385</v>
       </c>
       <c r="AC19">
-        <v>9.321899999999999</v>
+        <v>9.322100000000001</v>
       </c>
       <c r="AD19">
-        <v>14.614</v>
+        <v>14.6127</v>
       </c>
       <c r="AE19">
-        <v>14.614</v>
+        <v>14.6127</v>
       </c>
       <c r="AF19">
-        <v>14.614</v>
+        <v>14.6127</v>
       </c>
       <c r="AG19">
-        <v>0.697394</v>
+        <v>0.697342</v>
       </c>
       <c r="AH19">
-        <v>0.23659</v>
+        <v>0.174814</v>
       </c>
       <c r="AI19">
-        <v>0.0619567</v>
+        <v>0.000169989</v>
       </c>
       <c r="AJ19" s="2" t="s">
         <v>62</v>
@@ -3638,34 +3638,34 @@
         <v>62</v>
       </c>
       <c r="AN19">
-        <v>0.174988</v>
+        <v>0.175</v>
       </c>
       <c r="AO19">
-        <v>876.341</v>
+        <v>876.337</v>
       </c>
       <c r="AP19">
-        <v>833.092</v>
+        <v>833.096</v>
       </c>
       <c r="AQ19">
         <v>893.706</v>
       </c>
       <c r="AR19">
-        <v>753.337</v>
+        <v>753.342</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT19">
-        <v>722.6080000000001</v>
+        <v>722.609</v>
       </c>
       <c r="AU19">
-        <v>783.8440000000001</v>
+        <v>783.8480000000001</v>
       </c>
       <c r="AV19">
-        <v>739.9180000000001</v>
+        <v>739.9290000000001</v>
       </c>
       <c r="AW19">
-        <v>803.5550000000001</v>
+        <v>803.5580000000001</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>63</v>
@@ -3709,73 +3709,73 @@
         <v>76</v>
       </c>
       <c r="M20">
-        <v>51.1749</v>
+        <v>51.1735</v>
       </c>
       <c r="N20">
-        <v>14.0307</v>
+        <v>14.0294</v>
       </c>
       <c r="O20">
-        <v>15.5911</v>
+        <v>15.5914</v>
       </c>
       <c r="P20">
-        <v>30.2552</v>
+        <v>30.2574</v>
       </c>
       <c r="Q20">
-        <v>51.1752</v>
+        <v>51.1734</v>
       </c>
       <c r="R20">
-        <v>100.001</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S20">
-        <v>29.0809</v>
+        <v>29.083</v>
       </c>
       <c r="T20">
-        <v>30.2552</v>
+        <v>30.2574</v>
       </c>
       <c r="U20">
-        <v>12.8896</v>
+        <v>12.8929</v>
       </c>
       <c r="V20">
-        <v>15.5911</v>
+        <v>15.5914</v>
       </c>
       <c r="W20">
-        <v>9.617140000000001</v>
+        <v>9.61824</v>
       </c>
       <c r="X20">
-        <v>14.0315</v>
+        <v>14.0309</v>
       </c>
       <c r="Y20">
-        <v>14.0315</v>
+        <v>14.0309</v>
       </c>
       <c r="Z20">
-        <v>14.0307</v>
+        <v>14.0294</v>
       </c>
       <c r="AA20">
-        <v>12.8491</v>
+        <v>12.8527</v>
       </c>
       <c r="AB20">
-        <v>13.5266</v>
+        <v>13.5267</v>
       </c>
       <c r="AC20">
-        <v>8.21984</v>
+        <v>8.215959999999999</v>
       </c>
       <c r="AD20">
-        <v>12.5259</v>
+        <v>12.5284</v>
       </c>
       <c r="AE20">
-        <v>12.5259</v>
+        <v>12.5284</v>
       </c>
       <c r="AF20">
-        <v>12.5259</v>
+        <v>12.5284</v>
       </c>
       <c r="AG20">
-        <v>0.8491570000000001</v>
+        <v>0.849027</v>
       </c>
       <c r="AH20">
-        <v>0.367439</v>
+        <v>0.228611</v>
       </c>
       <c r="AI20">
-        <v>0.139051</v>
+        <v>0.000225089</v>
       </c>
       <c r="AJ20" s="2" t="s">
         <v>62</v>
@@ -3790,34 +3790,34 @@
         <v>62</v>
       </c>
       <c r="AN20">
-        <v>0.228637</v>
+        <v>0.228636</v>
       </c>
       <c r="AO20">
-        <v>873.973</v>
+        <v>873.9720000000001</v>
       </c>
       <c r="AP20">
-        <v>829.1930000000001</v>
+        <v>829.1950000000001</v>
       </c>
       <c r="AQ20">
         <v>887.859</v>
       </c>
       <c r="AR20">
-        <v>744.706</v>
+        <v>744.708</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT20">
-        <v>721.051</v>
+        <v>721.0500000000001</v>
       </c>
       <c r="AU20">
-        <v>780.312</v>
+        <v>780.313</v>
       </c>
       <c r="AV20">
-        <v>734.625</v>
+        <v>734.6279999999999</v>
       </c>
       <c r="AW20">
-        <v>795.8800000000001</v>
+        <v>795.8819999999999</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>63</v>
@@ -3861,73 +3861,73 @@
         <v>74</v>
       </c>
       <c r="M21">
-        <v>50.3749</v>
+        <v>50.3654</v>
       </c>
       <c r="N21">
-        <v>18.6024</v>
+        <v>18.589</v>
       </c>
       <c r="O21">
-        <v>20.3742</v>
+        <v>20.3736</v>
       </c>
       <c r="P21">
-        <v>37.1102</v>
+        <v>37.1075</v>
       </c>
       <c r="Q21">
-        <v>50.3754</v>
+        <v>50.3654</v>
       </c>
       <c r="R21">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S21">
-        <v>36.7361</v>
+        <v>36.743</v>
       </c>
       <c r="T21">
-        <v>37.1102</v>
+        <v>37.1075</v>
       </c>
       <c r="U21">
-        <v>15.7853</v>
+        <v>15.7928</v>
       </c>
       <c r="V21">
-        <v>20.3742</v>
+        <v>20.3736</v>
       </c>
       <c r="W21">
-        <v>12.8059</v>
+        <v>12.8067</v>
       </c>
       <c r="X21">
-        <v>18.5938</v>
+        <v>18.5887</v>
       </c>
       <c r="Y21">
-        <v>18.5938</v>
+        <v>18.5887</v>
       </c>
       <c r="Z21">
-        <v>18.6024</v>
+        <v>18.589</v>
       </c>
       <c r="AA21">
-        <v>15.4542</v>
+        <v>15.4523</v>
       </c>
       <c r="AB21">
-        <v>17.1181</v>
+        <v>17.121</v>
       </c>
       <c r="AC21">
-        <v>10.8406</v>
+        <v>10.8396</v>
       </c>
       <c r="AD21">
-        <v>16.4818</v>
+        <v>16.4824</v>
       </c>
       <c r="AE21">
-        <v>16.4818</v>
+        <v>16.4824</v>
       </c>
       <c r="AF21">
-        <v>16.4818</v>
+        <v>16.4824</v>
       </c>
       <c r="AG21">
-        <v>0.690798</v>
+        <v>0.6907990000000001</v>
       </c>
       <c r="AH21">
-        <v>0.301703</v>
+        <v>0.210315</v>
       </c>
       <c r="AI21">
-        <v>0.111296</v>
+        <v>0.0198889</v>
       </c>
       <c r="AJ21" s="2" t="s">
         <v>62</v>
@@ -3942,34 +3942,34 @@
         <v>62</v>
       </c>
       <c r="AN21">
-        <v>0.208845</v>
+        <v>0.208851</v>
       </c>
       <c r="AO21">
-        <v>874.922</v>
+        <v>874.918</v>
       </c>
       <c r="AP21">
-        <v>832.4730000000001</v>
+        <v>832.479</v>
       </c>
       <c r="AQ21">
-        <v>892.48</v>
+        <v>892.478</v>
       </c>
       <c r="AR21">
-        <v>752.364</v>
+        <v>752.3670000000001</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT21">
-        <v>722.1370000000001</v>
+        <v>722.139</v>
       </c>
       <c r="AU21">
-        <v>782.756</v>
+        <v>782.755</v>
       </c>
       <c r="AV21">
-        <v>739.4300000000001</v>
+        <v>739.4350000000001</v>
       </c>
       <c r="AW21">
-        <v>802.735</v>
+        <v>802.732</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>63</v>
@@ -4013,73 +4013,73 @@
         <v>76</v>
       </c>
       <c r="M22">
-        <v>50.8634</v>
+        <v>50.8647</v>
       </c>
       <c r="N22">
-        <v>15.3356</v>
+        <v>15.3438</v>
       </c>
       <c r="O22">
-        <v>17.6827</v>
+        <v>17.6833</v>
       </c>
       <c r="P22">
-        <v>31.2267</v>
+        <v>31.2245</v>
       </c>
       <c r="Q22">
-        <v>50.8629</v>
+        <v>50.8641</v>
       </c>
       <c r="R22">
-        <v>99.9991</v>
+        <v>99.9988</v>
       </c>
       <c r="S22">
         <v>30.362</v>
       </c>
       <c r="T22">
-        <v>31.2267</v>
+        <v>31.2245</v>
       </c>
       <c r="U22">
-        <v>15.278</v>
+        <v>15.2796</v>
       </c>
       <c r="V22">
-        <v>17.6827</v>
+        <v>17.6833</v>
       </c>
       <c r="W22">
-        <v>11.1873</v>
+        <v>11.1877</v>
       </c>
       <c r="X22">
-        <v>15.335</v>
+        <v>15.3361</v>
       </c>
       <c r="Y22">
-        <v>15.335</v>
+        <v>15.3361</v>
       </c>
       <c r="Z22">
-        <v>15.3356</v>
+        <v>15.3438</v>
       </c>
       <c r="AA22">
-        <v>15.248</v>
+        <v>15.2593</v>
       </c>
       <c r="AB22">
-        <v>15.9155</v>
+        <v>15.9187</v>
       </c>
       <c r="AC22">
-        <v>9.718630000000001</v>
+        <v>9.719150000000001</v>
       </c>
       <c r="AD22">
-        <v>14.4324</v>
+        <v>14.434</v>
       </c>
       <c r="AE22">
-        <v>14.4324</v>
+        <v>14.434</v>
       </c>
       <c r="AF22">
-        <v>14.4324</v>
+        <v>14.434</v>
       </c>
       <c r="AG22">
-        <v>0.842824</v>
+        <v>0.842695</v>
       </c>
       <c r="AH22">
-        <v>0.437485</v>
+        <v>0.274834</v>
       </c>
       <c r="AI22">
-        <v>0.184723</v>
+        <v>0.0220504</v>
       </c>
       <c r="AJ22" s="2" t="s">
         <v>62</v>
@@ -4094,19 +4094,19 @@
         <v>62</v>
       </c>
       <c r="AN22">
-        <v>0.273137</v>
+        <v>0.273138</v>
       </c>
       <c r="AO22">
-        <v>873.2859999999999</v>
+        <v>873.2840000000001</v>
       </c>
       <c r="AP22">
         <v>829.727</v>
       </c>
       <c r="AQ22">
-        <v>888.1450000000001</v>
+        <v>888.1469999999999</v>
       </c>
       <c r="AR22">
-        <v>745.986</v>
+        <v>745.989</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>63</v>
@@ -4115,13 +4115,13 @@
         <v>721.248</v>
       </c>
       <c r="AU22">
-        <v>780.169</v>
+        <v>780.167</v>
       </c>
       <c r="AV22">
-        <v>735.658</v>
+        <v>735.659</v>
       </c>
       <c r="AW22">
-        <v>796.852</v>
+        <v>796.85</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>63</v>
@@ -4165,73 +4165,73 @@
         <v>74</v>
       </c>
       <c r="M23">
-        <v>50.1227</v>
+        <v>50.1165</v>
       </c>
       <c r="N23">
-        <v>18.7586</v>
+        <v>18.7564</v>
       </c>
       <c r="O23">
-        <v>19.5482</v>
+        <v>19.5477</v>
       </c>
       <c r="P23">
-        <v>38.9434</v>
+        <v>38.9478</v>
       </c>
       <c r="Q23">
-        <v>50.1227</v>
+        <v>50.116</v>
       </c>
       <c r="R23">
-        <v>100</v>
+        <v>99.999</v>
       </c>
       <c r="S23">
-        <v>38.8237</v>
+        <v>38.8271</v>
       </c>
       <c r="T23">
-        <v>38.9434</v>
+        <v>38.9478</v>
       </c>
       <c r="U23">
-        <v>13.4459</v>
+        <v>13.451</v>
       </c>
       <c r="V23">
-        <v>19.5482</v>
+        <v>19.5477</v>
       </c>
       <c r="W23">
-        <v>12.1442</v>
+        <v>12.1469</v>
       </c>
       <c r="X23">
-        <v>18.7586</v>
+        <v>18.7564</v>
       </c>
       <c r="Y23">
-        <v>18.7586</v>
+        <v>18.7564</v>
       </c>
       <c r="Z23">
-        <v>18.7586</v>
+        <v>18.7564</v>
       </c>
       <c r="AA23">
-        <v>13.6086</v>
+        <v>13.6092</v>
       </c>
       <c r="AB23">
-        <v>14.7543</v>
+        <v>14.7495</v>
       </c>
       <c r="AC23">
-        <v>9.934669999999999</v>
+        <v>9.93385</v>
       </c>
       <c r="AD23">
-        <v>15.5266</v>
+        <v>15.5262</v>
       </c>
       <c r="AE23">
-        <v>15.5266</v>
+        <v>15.5262</v>
       </c>
       <c r="AF23">
-        <v>15.5266</v>
+        <v>15.5262</v>
       </c>
       <c r="AG23">
-        <v>0.696295</v>
+        <v>0.6962</v>
       </c>
       <c r="AH23">
-        <v>0.232246</v>
+        <v>0.170475</v>
       </c>
       <c r="AI23">
-        <v>0.0619567</v>
+        <v>0.000169993</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>62</v>
@@ -4246,19 +4246,19 @@
         <v>62</v>
       </c>
       <c r="AN23">
-        <v>0.170645</v>
+        <v>0.17066</v>
       </c>
       <c r="AO23">
-        <v>876.162</v>
+        <v>876.158</v>
       </c>
       <c r="AP23">
-        <v>833.421</v>
+        <v>833.423</v>
       </c>
       <c r="AQ23">
-        <v>894.2479999999999</v>
+        <v>894.249</v>
       </c>
       <c r="AR23">
-        <v>754.4490000000001</v>
+        <v>754.452</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>63</v>
@@ -4267,13 +4267,13 @@
         <v>722.616</v>
       </c>
       <c r="AU23">
-        <v>784.008</v>
+        <v>784.013</v>
       </c>
       <c r="AV23">
-        <v>740.4480000000001</v>
+        <v>740.4499999999999</v>
       </c>
       <c r="AW23">
-        <v>804.5680000000001</v>
+        <v>804.573</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>63</v>
@@ -4317,73 +4317,73 @@
         <v>76</v>
       </c>
       <c r="M24">
-        <v>51.0945</v>
+        <v>51.0969</v>
       </c>
       <c r="N24">
-        <v>14.8429</v>
+        <v>14.8428</v>
       </c>
       <c r="O24">
-        <v>16.5237</v>
+        <v>16.5213</v>
       </c>
       <c r="P24">
-        <v>31.317</v>
+        <v>31.3194</v>
       </c>
       <c r="Q24">
-        <v>51.0945</v>
+        <v>51.0967</v>
       </c>
       <c r="R24">
-        <v>99.9999</v>
+        <v>99.9997</v>
       </c>
       <c r="S24">
-        <v>30.2248</v>
+        <v>30.2261</v>
       </c>
       <c r="T24">
-        <v>31.317</v>
+        <v>31.3194</v>
       </c>
       <c r="U24">
-        <v>13.0865</v>
+        <v>13.0862</v>
       </c>
       <c r="V24">
-        <v>16.5237</v>
+        <v>16.5213</v>
       </c>
       <c r="W24">
-        <v>10.3416</v>
+        <v>10.3446</v>
       </c>
       <c r="X24">
-        <v>14.8455</v>
+        <v>14.843</v>
       </c>
       <c r="Y24">
-        <v>14.8455</v>
+        <v>14.843</v>
       </c>
       <c r="Z24">
-        <v>14.8429</v>
+        <v>14.8428</v>
       </c>
       <c r="AA24">
-        <v>13.7089</v>
+        <v>13.7053</v>
       </c>
       <c r="AB24">
-        <v>14.6923</v>
+        <v>14.6932</v>
       </c>
       <c r="AC24">
-        <v>8.89649</v>
+        <v>8.894860000000001</v>
       </c>
       <c r="AD24">
-        <v>13.4425</v>
+        <v>13.4445</v>
       </c>
       <c r="AE24">
-        <v>13.4425</v>
+        <v>13.4445</v>
       </c>
       <c r="AF24">
-        <v>13.4425</v>
+        <v>13.4445</v>
       </c>
       <c r="AG24">
-        <v>0.848067</v>
+        <v>0.848003</v>
       </c>
       <c r="AH24">
-        <v>0.3627649999999999</v>
+        <v>0.223956</v>
       </c>
       <c r="AI24">
-        <v>0.139051</v>
+        <v>0.000225091</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>62</v>
@@ -4398,19 +4398,19 @@
         <v>62</v>
       </c>
       <c r="AN24">
-        <v>0.223964</v>
+        <v>0.22398</v>
       </c>
       <c r="AO24">
-        <v>873.8130000000001</v>
+        <v>873.8140000000001</v>
       </c>
       <c r="AP24">
-        <v>829.5550000000001</v>
+        <v>829.557</v>
       </c>
       <c r="AQ24">
-        <v>888.453</v>
+        <v>888.456</v>
       </c>
       <c r="AR24">
-        <v>745.8489999999999</v>
+        <v>745.852</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>63</v>
@@ -4419,13 +4419,13 @@
         <v>721.093</v>
       </c>
       <c r="AU24">
-        <v>780.522</v>
+        <v>780.5240000000001</v>
       </c>
       <c r="AV24">
-        <v>735.218</v>
+        <v>735.2189999999999</v>
       </c>
       <c r="AW24">
-        <v>796.942</v>
+        <v>796.944</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>63</v>
@@ -4469,73 +4469,73 @@
         <v>74</v>
       </c>
       <c r="M25">
-        <v>50.3117</v>
+        <v>50.312</v>
       </c>
       <c r="N25">
-        <v>19.484</v>
+        <v>19.4735</v>
       </c>
       <c r="O25">
-        <v>21.3119</v>
+        <v>21.3145</v>
       </c>
       <c r="P25">
-        <v>38.1301</v>
+        <v>38.1308</v>
       </c>
       <c r="Q25">
-        <v>50.3109</v>
+        <v>50.3116</v>
       </c>
       <c r="R25">
-        <v>99.9984</v>
+        <v>99.9991</v>
       </c>
       <c r="S25">
-        <v>37.8188</v>
+        <v>37.8192</v>
       </c>
       <c r="T25">
-        <v>38.1301</v>
+        <v>38.1308</v>
       </c>
       <c r="U25">
-        <v>15.9499</v>
+        <v>15.9595</v>
       </c>
       <c r="V25">
-        <v>21.3119</v>
+        <v>21.3145</v>
       </c>
       <c r="W25">
-        <v>13.5715</v>
+        <v>13.5719</v>
       </c>
       <c r="X25">
-        <v>19.4842</v>
+        <v>19.4718</v>
       </c>
       <c r="Y25">
-        <v>19.4842</v>
+        <v>19.4718</v>
       </c>
       <c r="Z25">
-        <v>19.484</v>
+        <v>19.4735</v>
       </c>
       <c r="AA25">
-        <v>16.0928</v>
+        <v>16.086</v>
       </c>
       <c r="AB25">
-        <v>18.3533</v>
+        <v>18.3546</v>
       </c>
       <c r="AC25">
-        <v>11.5291</v>
+        <v>11.5298</v>
       </c>
       <c r="AD25">
-        <v>17.4781</v>
+        <v>17.4762</v>
       </c>
       <c r="AE25">
-        <v>17.4781</v>
+        <v>17.4762</v>
       </c>
       <c r="AF25">
-        <v>17.4781</v>
+        <v>17.4762</v>
       </c>
       <c r="AG25">
-        <v>0.689715</v>
+        <v>0.689659</v>
       </c>
       <c r="AH25">
-        <v>0.297899</v>
+        <v>0.206511</v>
       </c>
       <c r="AI25">
-        <v>0.111296</v>
+        <v>0.0198887</v>
       </c>
       <c r="AJ25" s="2" t="s">
         <v>62</v>
@@ -4550,34 +4550,34 @@
         <v>62</v>
       </c>
       <c r="AN25">
-        <v>0.205042</v>
+        <v>0.205048</v>
       </c>
       <c r="AO25">
-        <v>874.711</v>
+        <v>874.71</v>
       </c>
       <c r="AP25">
         <v>832.788</v>
       </c>
       <c r="AQ25">
-        <v>893.022</v>
+        <v>893.0260000000001</v>
       </c>
       <c r="AR25">
-        <v>753.442</v>
+        <v>753.447</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT25">
-        <v>722.141</v>
+        <v>722.1419999999999</v>
       </c>
       <c r="AU25">
         <v>782.922</v>
       </c>
       <c r="AV25">
-        <v>739.9589999999999</v>
+        <v>739.966</v>
       </c>
       <c r="AW25">
-        <v>803.755</v>
+        <v>803.756</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>63</v>
@@ -4621,73 +4621,73 @@
         <v>76</v>
       </c>
       <c r="M26">
-        <v>50.7974</v>
+        <v>50.7987</v>
       </c>
       <c r="N26">
-        <v>16.2136</v>
+        <v>16.2189</v>
       </c>
       <c r="O26">
-        <v>18.728</v>
+        <v>18.7288</v>
       </c>
       <c r="P26">
-        <v>32.3375</v>
+        <v>32.3353</v>
       </c>
       <c r="Q26">
-        <v>50.7977</v>
+        <v>50.7987</v>
       </c>
       <c r="R26">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S26">
-        <v>31.5405</v>
+        <v>31.5435</v>
       </c>
       <c r="T26">
-        <v>32.3375</v>
+        <v>32.3353</v>
       </c>
       <c r="U26">
-        <v>15.592</v>
+        <v>15.5941</v>
       </c>
       <c r="V26">
-        <v>18.728</v>
+        <v>18.7288</v>
       </c>
       <c r="W26">
-        <v>12.0401</v>
+        <v>12.0406</v>
       </c>
       <c r="X26">
-        <v>16.2184</v>
+        <v>16.2183</v>
       </c>
       <c r="Y26">
-        <v>16.2184</v>
+        <v>16.2183</v>
       </c>
       <c r="Z26">
-        <v>16.2136</v>
+        <v>16.2189</v>
       </c>
       <c r="AA26">
-        <v>16.1728</v>
+        <v>16.1779</v>
       </c>
       <c r="AB26">
-        <v>17.0438</v>
+        <v>17.0446</v>
       </c>
       <c r="AC26">
-        <v>10.4844</v>
+        <v>10.4858</v>
       </c>
       <c r="AD26">
-        <v>15.4205</v>
+        <v>15.4221</v>
       </c>
       <c r="AE26">
-        <v>15.4205</v>
+        <v>15.4221</v>
       </c>
       <c r="AF26">
-        <v>15.4205</v>
+        <v>15.4221</v>
       </c>
       <c r="AG26">
-        <v>0.8417249999999999</v>
+        <v>0.841515</v>
       </c>
       <c r="AH26">
-        <v>0.433675</v>
+        <v>0.271039</v>
       </c>
       <c r="AI26">
-        <v>0.184723</v>
+        <v>0.0220502</v>
       </c>
       <c r="AJ26" s="2" t="s">
         <v>62</v>
@@ -4702,34 +4702,34 @@
         <v>62</v>
       </c>
       <c r="AN26">
-        <v>0.269328</v>
+        <v>0.269344</v>
       </c>
       <c r="AO26">
-        <v>873.082</v>
+        <v>873.086</v>
       </c>
       <c r="AP26">
-        <v>830.102</v>
+        <v>830.103</v>
       </c>
       <c r="AQ26">
-        <v>888.779</v>
+        <v>888.783</v>
       </c>
       <c r="AR26">
-        <v>747.1660000000001</v>
+        <v>747.172</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT26">
-        <v>721.2950000000001</v>
+        <v>721.296</v>
       </c>
       <c r="AU26">
-        <v>780.3910000000001</v>
+        <v>780.389</v>
       </c>
       <c r="AV26">
-        <v>736.295</v>
+        <v>736.298</v>
       </c>
       <c r="AW26">
-        <v>797.9630000000001</v>
+        <v>797.96</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>63</v>
@@ -4773,73 +4773,73 @@
         <v>74</v>
       </c>
       <c r="M27">
-        <v>47.9265</v>
+        <v>47.9292</v>
       </c>
       <c r="N27">
-        <v>19.4884</v>
+        <v>19.4793</v>
       </c>
       <c r="O27">
-        <v>19.3759</v>
+        <v>19.3744</v>
       </c>
       <c r="P27">
-        <v>39.0627</v>
+        <v>39.0644</v>
       </c>
       <c r="Q27">
-        <v>47.9269</v>
+        <v>47.9281</v>
       </c>
       <c r="R27">
-        <v>100.001</v>
+        <v>99.9978</v>
       </c>
       <c r="S27">
-        <v>39.0627</v>
+        <v>39.0644</v>
       </c>
       <c r="T27">
-        <v>36.9879</v>
+        <v>36.9917</v>
       </c>
       <c r="U27">
-        <v>11.1954</v>
+        <v>11.2015</v>
       </c>
       <c r="V27">
         <v>13.3487</v>
       </c>
       <c r="W27">
-        <v>9.53309</v>
+        <v>9.534789999999999</v>
       </c>
       <c r="X27">
-        <v>13.4344</v>
+        <v>13.4319</v>
       </c>
       <c r="Y27">
-        <v>13.4344</v>
+        <v>13.4319</v>
       </c>
       <c r="Z27">
-        <v>13.4326</v>
+        <v>13.4321</v>
       </c>
       <c r="AA27">
-        <v>17.5662</v>
+        <v>17.5672</v>
       </c>
       <c r="AB27">
-        <v>19.3759</v>
+        <v>19.3744</v>
       </c>
       <c r="AC27">
-        <v>11.8732</v>
+        <v>11.8755</v>
       </c>
       <c r="AD27">
-        <v>19.4884</v>
+        <v>19.4793</v>
       </c>
       <c r="AE27">
-        <v>19.4884</v>
+        <v>19.4793</v>
       </c>
       <c r="AF27">
-        <v>19.4884</v>
+        <v>19.4793</v>
       </c>
       <c r="AG27">
-        <v>0.697149</v>
+        <v>0.696824</v>
       </c>
       <c r="AH27">
-        <v>0.234562</v>
+        <v>0.175515</v>
       </c>
       <c r="AI27">
-        <v>0.0592262</v>
+        <v>0.00015025</v>
       </c>
       <c r="AJ27" s="2" t="s">
         <v>62</v>
@@ -4854,34 +4854,34 @@
         <v>62</v>
       </c>
       <c r="AN27">
-        <v>0.175458</v>
+        <v>0.175487</v>
       </c>
       <c r="AO27">
-        <v>871.144</v>
+        <v>871.143</v>
       </c>
       <c r="AP27">
-        <v>834.773</v>
+        <v>834.7750000000001</v>
       </c>
       <c r="AQ27">
-        <v>889.1170000000001</v>
+        <v>889.1210000000001</v>
       </c>
       <c r="AR27">
-        <v>754.689</v>
+        <v>754.6900000000001</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT27">
-        <v>727.6950000000001</v>
+        <v>727.6940000000001</v>
       </c>
       <c r="AU27">
-        <v>782.2139999999999</v>
+        <v>782.2190000000001</v>
       </c>
       <c r="AV27">
-        <v>744.9400000000001</v>
+        <v>744.942</v>
       </c>
       <c r="AW27">
-        <v>802.6130000000001</v>
+        <v>802.6170000000001</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>63</v>
@@ -4925,73 +4925,73 @@
         <v>76</v>
       </c>
       <c r="M28">
-        <v>47.383</v>
+        <v>47.3836</v>
       </c>
       <c r="N28">
-        <v>15.4714</v>
+        <v>15.4737</v>
       </c>
       <c r="O28">
-        <v>15.9313</v>
+        <v>15.9303</v>
       </c>
       <c r="P28">
-        <v>31.0954</v>
+        <v>31.0926</v>
       </c>
       <c r="Q28">
-        <v>47.3809</v>
+        <v>47.3839</v>
       </c>
       <c r="R28">
-        <v>99.9954</v>
+        <v>100.001</v>
       </c>
       <c r="S28">
-        <v>31.0954</v>
+        <v>31.0926</v>
       </c>
       <c r="T28">
-        <v>28.4738</v>
+        <v>28.4764</v>
       </c>
       <c r="U28">
-        <v>10.9987</v>
+        <v>11.0013</v>
       </c>
       <c r="V28">
-        <v>13.3934</v>
+        <v>13.3883</v>
       </c>
       <c r="W28">
-        <v>8.404269999999999</v>
+        <v>8.40422</v>
       </c>
       <c r="X28">
-        <v>11.4297</v>
+        <v>11.4341</v>
       </c>
       <c r="Y28">
-        <v>11.4297</v>
+        <v>11.4341</v>
       </c>
       <c r="Z28">
-        <v>11.4307</v>
+        <v>11.434</v>
       </c>
       <c r="AA28">
-        <v>15.2313</v>
+        <v>15.2366</v>
       </c>
       <c r="AB28">
-        <v>15.9313</v>
+        <v>15.9303</v>
       </c>
       <c r="AC28">
-        <v>9.826140000000001</v>
+        <v>9.828520000000001</v>
       </c>
       <c r="AD28">
-        <v>15.4714</v>
+        <v>15.4737</v>
       </c>
       <c r="AE28">
-        <v>15.4714</v>
+        <v>15.4737</v>
       </c>
       <c r="AF28">
-        <v>15.4714</v>
+        <v>15.4737</v>
       </c>
       <c r="AG28">
-        <v>0.848594</v>
+        <v>0.848434</v>
       </c>
       <c r="AH28">
-        <v>0.370196</v>
+        <v>0.229362</v>
       </c>
       <c r="AI28">
-        <v>0.141039</v>
+        <v>0.000197191</v>
       </c>
       <c r="AJ28" s="2" t="s">
         <v>62</v>
@@ -5006,34 +5006,34 @@
         <v>62</v>
       </c>
       <c r="AN28">
-        <v>0.22934</v>
+        <v>0.229348</v>
       </c>
       <c r="AO28">
-        <v>869.5840000000001</v>
+        <v>869.582</v>
       </c>
       <c r="AP28">
-        <v>831.186</v>
+        <v>831.1849999999999</v>
       </c>
       <c r="AQ28">
         <v>883.763</v>
       </c>
       <c r="AR28">
-        <v>746.72</v>
+        <v>746.721</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT28">
-        <v>725.398</v>
+        <v>725.396</v>
       </c>
       <c r="AU28">
-        <v>778.3190000000001</v>
+        <v>778.3199999999999</v>
       </c>
       <c r="AV28">
-        <v>738.937</v>
+        <v>738.938</v>
       </c>
       <c r="AW28">
-        <v>794.0989999999999</v>
+        <v>794.101</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>63</v>
@@ -5077,73 +5077,73 @@
         <v>74</v>
       </c>
       <c r="M29">
-        <v>47.2633</v>
+        <v>47.2623</v>
       </c>
       <c r="N29">
-        <v>21.3188</v>
+        <v>21.3198</v>
       </c>
       <c r="O29">
-        <v>21.2302</v>
+        <v>21.2317</v>
       </c>
       <c r="P29">
-        <v>38.6975</v>
+        <v>38.6988</v>
       </c>
       <c r="Q29">
-        <v>47.2636</v>
+        <v>47.2618</v>
       </c>
       <c r="R29">
-        <v>100.001</v>
+        <v>99.99890000000001</v>
       </c>
       <c r="S29">
-        <v>38.6975</v>
+        <v>38.6988</v>
       </c>
       <c r="T29">
-        <v>35.9583</v>
+        <v>35.9603</v>
       </c>
       <c r="U29">
-        <v>13.4386</v>
+        <v>13.4298</v>
       </c>
       <c r="V29">
-        <v>16.2902</v>
+        <v>16.2862</v>
       </c>
       <c r="W29">
-        <v>11.0242</v>
+        <v>11.0246</v>
       </c>
       <c r="X29">
-        <v>14.7903</v>
+        <v>14.7942</v>
       </c>
       <c r="Y29">
-        <v>14.7903</v>
+        <v>14.7942</v>
       </c>
       <c r="Z29">
-        <v>14.7943</v>
+        <v>14.8001</v>
       </c>
       <c r="AA29">
-        <v>19.0864</v>
+        <v>19.0912</v>
       </c>
       <c r="AB29">
-        <v>21.2302</v>
+        <v>21.2317</v>
       </c>
       <c r="AC29">
-        <v>13.5918</v>
+        <v>13.5931</v>
       </c>
       <c r="AD29">
-        <v>21.3188</v>
+        <v>21.3198</v>
       </c>
       <c r="AE29">
-        <v>21.3188</v>
+        <v>21.3198</v>
       </c>
       <c r="AF29">
-        <v>21.3188</v>
+        <v>21.3198</v>
       </c>
       <c r="AG29">
-        <v>0.690237</v>
+        <v>0.690213</v>
       </c>
       <c r="AH29">
-        <v>0.32165</v>
+        <v>0.218746</v>
       </c>
       <c r="AI29">
-        <v>0.130782</v>
+        <v>0.027854</v>
       </c>
       <c r="AJ29" s="2" t="s">
         <v>62</v>
@@ -5158,19 +5158,19 @@
         <v>62</v>
       </c>
       <c r="AN29">
-        <v>0.214752</v>
+        <v>0.214762</v>
       </c>
       <c r="AO29">
-        <v>869.4930000000001</v>
+        <v>869.4889999999999</v>
       </c>
       <c r="AP29">
-        <v>834.2420000000001</v>
+        <v>834.2430000000001</v>
       </c>
       <c r="AQ29">
-        <v>887.5650000000001</v>
+        <v>887.566</v>
       </c>
       <c r="AR29">
-        <v>754.325</v>
+        <v>754.323</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>63</v>
@@ -5179,13 +5179,13 @@
         <v>727.5150000000001</v>
       </c>
       <c r="AU29">
-        <v>781.1600000000001</v>
+        <v>781.162</v>
       </c>
       <c r="AV29">
-        <v>744.875</v>
+        <v>744.874</v>
       </c>
       <c r="AW29">
-        <v>801.583</v>
+        <v>801.585</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>63</v>
@@ -5229,73 +5229,73 @@
         <v>76</v>
       </c>
       <c r="M30" s="3">
-        <v>46.8869</v>
+        <v>46.8915</v>
       </c>
       <c r="N30">
-        <v>17.5333</v>
+        <v>17.5347</v>
       </c>
       <c r="O30">
-        <v>18.0761</v>
+        <v>18.079</v>
       </c>
       <c r="P30">
-        <v>32.5605</v>
+        <v>32.5563</v>
       </c>
       <c r="Q30">
-        <v>46.8843</v>
+        <v>46.89210000000001</v>
       </c>
       <c r="R30">
-        <v>99.9943</v>
+        <v>100.001</v>
       </c>
       <c r="S30">
-        <v>32.5605</v>
+        <v>32.5563</v>
       </c>
       <c r="T30">
-        <v>29.4449</v>
+        <v>29.4497</v>
       </c>
       <c r="U30">
-        <v>13.303</v>
+        <v>13.3146</v>
       </c>
       <c r="V30">
-        <v>15.8391</v>
+        <v>15.8386</v>
       </c>
       <c r="W30">
-        <v>9.89268</v>
+        <v>9.89349</v>
       </c>
       <c r="X30">
-        <v>12.8866</v>
+        <v>12.8877</v>
       </c>
       <c r="Y30">
-        <v>12.8866</v>
+        <v>12.8877</v>
       </c>
       <c r="Z30">
-        <v>12.8862</v>
+        <v>12.8891</v>
       </c>
       <c r="AA30">
-        <v>17.0833</v>
+        <v>17.0881</v>
       </c>
       <c r="AB30">
-        <v>18.0761</v>
+        <v>18.079</v>
       </c>
       <c r="AC30">
-        <v>11.6344</v>
+        <v>11.635</v>
       </c>
       <c r="AD30">
-        <v>17.5333</v>
+        <v>17.5347</v>
       </c>
       <c r="AE30">
-        <v>17.5333</v>
+        <v>17.5347</v>
       </c>
       <c r="AF30">
-        <v>17.5333</v>
+        <v>17.5347</v>
       </c>
       <c r="AG30">
-        <v>0.84229</v>
+        <v>0.8421959999999999</v>
       </c>
       <c r="AH30">
-        <v>0.481616</v>
+        <v>0.285929</v>
       </c>
       <c r="AI30">
-        <v>0.227755</v>
+        <v>0.032038</v>
       </c>
       <c r="AJ30" s="2" t="s">
         <v>62</v>
@@ -5310,34 +5310,34 @@
         <v>62</v>
       </c>
       <c r="AN30">
-        <v>0.281172</v>
+        <v>0.28118</v>
       </c>
       <c r="AO30">
-        <v>868.684</v>
+        <v>868.682</v>
       </c>
       <c r="AP30">
-        <v>831.607</v>
+        <v>831.6020000000001</v>
       </c>
       <c r="AQ30">
-        <v>883.851</v>
+        <v>883.854</v>
       </c>
       <c r="AR30">
-        <v>748.179</v>
+        <v>748.1840000000001</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT30">
-        <v>725.819</v>
+        <v>725.8200000000001</v>
       </c>
       <c r="AU30">
-        <v>778.365</v>
+        <v>778.37</v>
       </c>
       <c r="AV30">
-        <v>740.224</v>
+        <v>740.226</v>
       </c>
       <c r="AW30">
-        <v>795.0700000000001</v>
+        <v>795.0749999999999</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>63</v>
@@ -5381,73 +5381,73 @@
         <v>74</v>
       </c>
       <c r="M31">
-        <v>47.9843</v>
+        <v>47.9877</v>
       </c>
       <c r="N31">
-        <v>20.4435</v>
+        <v>20.4401</v>
       </c>
       <c r="O31">
-        <v>20.1475</v>
+        <v>20.1482</v>
       </c>
       <c r="P31">
-        <v>40.0748</v>
+        <v>40.0751</v>
       </c>
       <c r="Q31">
-        <v>47.9849</v>
+        <v>47.9869</v>
       </c>
       <c r="R31">
-        <v>100.001</v>
+        <v>99.9983</v>
       </c>
       <c r="S31">
-        <v>40.0748</v>
+        <v>40.0751</v>
       </c>
       <c r="T31">
-        <v>38.0592</v>
+        <v>38.0637</v>
       </c>
       <c r="U31">
-        <v>11.4187</v>
+        <v>11.4122</v>
       </c>
       <c r="V31">
-        <v>14.6398</v>
+        <v>14.6341</v>
       </c>
       <c r="W31">
-        <v>10.1693</v>
+        <v>10.1694</v>
       </c>
       <c r="X31">
-        <v>14.2176</v>
+        <v>14.2175</v>
       </c>
       <c r="Y31">
-        <v>14.2176</v>
+        <v>14.2175</v>
       </c>
       <c r="Z31">
-        <v>14.2159</v>
+        <v>14.2208</v>
       </c>
       <c r="AA31">
-        <v>18.0903</v>
+        <v>18.0918</v>
       </c>
       <c r="AB31">
-        <v>20.1475</v>
+        <v>20.1482</v>
       </c>
       <c r="AC31">
-        <v>12.5074</v>
+        <v>12.5073</v>
       </c>
       <c r="AD31">
-        <v>20.4435</v>
+        <v>20.4401</v>
       </c>
       <c r="AE31">
-        <v>20.4435</v>
+        <v>20.4401</v>
       </c>
       <c r="AF31">
-        <v>20.4435</v>
+        <v>20.4401</v>
       </c>
       <c r="AG31">
-        <v>0.696183</v>
+        <v>0.696092</v>
       </c>
       <c r="AH31">
-        <v>0.230175</v>
+        <v>0.171108</v>
       </c>
       <c r="AI31">
-        <v>0.0592262</v>
+        <v>0.000150243</v>
       </c>
       <c r="AJ31" s="2" t="s">
         <v>62</v>
@@ -5462,19 +5462,19 @@
         <v>62</v>
       </c>
       <c r="AN31">
-        <v>0.171072</v>
+        <v>0.17108</v>
       </c>
       <c r="AO31">
         <v>870.975</v>
       </c>
       <c r="AP31">
-        <v>834.9929999999999</v>
+        <v>834.997</v>
       </c>
       <c r="AQ31">
-        <v>889.5640000000001</v>
+        <v>889.569</v>
       </c>
       <c r="AR31">
-        <v>755.702</v>
+        <v>755.699</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>63</v>
@@ -5483,13 +5483,13 @@
         <v>727.703</v>
       </c>
       <c r="AU31">
-        <v>782.468</v>
+        <v>782.471</v>
       </c>
       <c r="AV31">
         <v>745.5359999999999</v>
       </c>
       <c r="AW31">
-        <v>803.684</v>
+        <v>803.6890000000001</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>63</v>
@@ -5533,73 +5533,73 @@
         <v>76</v>
       </c>
       <c r="M32">
-        <v>47.4411</v>
+        <v>47.4412</v>
       </c>
       <c r="N32">
-        <v>16.4189</v>
+        <v>16.4203</v>
       </c>
       <c r="O32">
-        <v>16.8138</v>
+        <v>16.813</v>
       </c>
       <c r="P32">
-        <v>32.1538</v>
+        <v>32.156</v>
       </c>
       <c r="Q32">
-        <v>47.44</v>
+        <v>47.4397</v>
       </c>
       <c r="R32">
-        <v>99.9978</v>
+        <v>99.99680000000001</v>
       </c>
       <c r="S32">
-        <v>32.1538</v>
+        <v>32.156</v>
       </c>
       <c r="T32">
-        <v>29.5922</v>
+        <v>29.5947</v>
       </c>
       <c r="U32">
-        <v>11.2857</v>
+        <v>11.2809</v>
       </c>
       <c r="V32">
-        <v>14.6492</v>
+        <v>14.647</v>
       </c>
       <c r="W32">
-        <v>9.1128</v>
+        <v>9.11459</v>
       </c>
       <c r="X32">
+        <v>12.2175</v>
+      </c>
+      <c r="Y32">
+        <v>12.2175</v>
+      </c>
+      <c r="Z32">
         <v>12.2216</v>
       </c>
-      <c r="Y32">
-        <v>12.2216</v>
-      </c>
-      <c r="Z32">
-        <v>12.2136</v>
-      </c>
       <c r="AA32">
-        <v>15.7702</v>
+        <v>15.773</v>
       </c>
       <c r="AB32">
-        <v>16.8138</v>
+        <v>16.813</v>
       </c>
       <c r="AC32">
-        <v>10.5175</v>
+        <v>10.5172</v>
       </c>
       <c r="AD32">
-        <v>16.4189</v>
+        <v>16.4203</v>
       </c>
       <c r="AE32">
-        <v>16.4189</v>
+        <v>16.4203</v>
       </c>
       <c r="AF32">
-        <v>16.4189</v>
+        <v>16.4203</v>
       </c>
       <c r="AG32">
-        <v>0.8475200000000001</v>
+        <v>0.847606</v>
       </c>
       <c r="AH32">
-        <v>0.365431</v>
+        <v>0.224607</v>
       </c>
       <c r="AI32">
-        <v>0.141039</v>
+        <v>0.000197189</v>
       </c>
       <c r="AJ32" s="2" t="s">
         <v>62</v>
@@ -5614,34 +5614,34 @@
         <v>62</v>
       </c>
       <c r="AN32">
-        <v>0.224575</v>
+        <v>0.224593</v>
       </c>
       <c r="AO32">
-        <v>869.442</v>
+        <v>869.4409999999999</v>
       </c>
       <c r="AP32">
-        <v>831.4440000000001</v>
+        <v>831.4450000000001</v>
       </c>
       <c r="AQ32">
-        <v>884.293</v>
+        <v>884.295</v>
       </c>
       <c r="AR32">
-        <v>747.778</v>
+        <v>747.78</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT32">
-        <v>725.4290000000001</v>
+        <v>725.432</v>
       </c>
       <c r="AU32">
-        <v>778.6229999999999</v>
+        <v>778.6270000000001</v>
       </c>
       <c r="AV32">
-        <v>739.575</v>
+        <v>739.577</v>
       </c>
       <c r="AW32">
-        <v>795.2170000000001</v>
+        <v>795.22</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>63</v>
@@ -5685,73 +5685,73 @@
         <v>74</v>
       </c>
       <c r="M33">
-        <v>47.2996</v>
+        <v>47.3072</v>
       </c>
       <c r="N33">
-        <v>22.3505</v>
+        <v>22.3484</v>
       </c>
       <c r="O33">
-        <v>22.0899</v>
+        <v>22.0901</v>
       </c>
       <c r="P33">
-        <v>39.721</v>
+        <v>39.7215</v>
       </c>
       <c r="Q33">
-        <v>47.2994</v>
+        <v>47.30690000000001</v>
       </c>
       <c r="R33">
-        <v>99.99940000000001</v>
+        <v>99.99930000000001</v>
       </c>
       <c r="S33">
-        <v>39.721</v>
+        <v>39.7215</v>
       </c>
       <c r="T33">
-        <v>37.0206</v>
+        <v>37.0266</v>
       </c>
       <c r="U33">
-        <v>13.7707</v>
+        <v>13.7725</v>
       </c>
       <c r="V33">
-        <v>17.7</v>
+        <v>17.6983</v>
       </c>
       <c r="W33">
-        <v>11.7389</v>
+        <v>11.7411</v>
       </c>
       <c r="X33">
-        <v>15.6591</v>
+        <v>15.6612</v>
       </c>
       <c r="Y33">
-        <v>15.6591</v>
+        <v>15.6612</v>
       </c>
       <c r="Z33">
-        <v>15.6595</v>
+        <v>15.6577</v>
       </c>
       <c r="AA33">
-        <v>19.601</v>
+        <v>19.6045</v>
       </c>
       <c r="AB33">
-        <v>22.0899</v>
+        <v>22.0901</v>
       </c>
       <c r="AC33">
-        <v>14.3395</v>
+        <v>14.3406</v>
       </c>
       <c r="AD33">
-        <v>22.3505</v>
+        <v>22.3484</v>
       </c>
       <c r="AE33">
-        <v>22.3505</v>
+        <v>22.3484</v>
       </c>
       <c r="AF33">
-        <v>22.3505</v>
+        <v>22.3484</v>
       </c>
       <c r="AG33">
-        <v>0.68935</v>
+        <v>0.689239</v>
       </c>
       <c r="AH33">
-        <v>0.317804</v>
+        <v>0.214893</v>
       </c>
       <c r="AI33">
-        <v>0.130781</v>
+        <v>0.0278534</v>
       </c>
       <c r="AJ33" s="2" t="s">
         <v>62</v>
@@ -5766,19 +5766,19 @@
         <v>62</v>
       </c>
       <c r="AN33">
-        <v>0.210906</v>
+        <v>0.210909</v>
       </c>
       <c r="AO33">
-        <v>869.2940000000001</v>
+        <v>869.292</v>
       </c>
       <c r="AP33">
         <v>834.4480000000001</v>
       </c>
       <c r="AQ33">
-        <v>888.004</v>
+        <v>888.013</v>
       </c>
       <c r="AR33">
-        <v>755.3460000000001</v>
+        <v>755.348</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>63</v>
@@ -5787,13 +5787,13 @@
         <v>727.522</v>
       </c>
       <c r="AU33">
-        <v>781.421</v>
+        <v>781.424</v>
       </c>
       <c r="AV33">
-        <v>745.503</v>
+        <v>745.505</v>
       </c>
       <c r="AW33">
-        <v>802.646</v>
+        <v>802.652</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>63</v>
@@ -5837,73 +5837,73 @@
         <v>76</v>
       </c>
       <c r="M34" s="3">
-        <v>46.9414</v>
+        <v>46.9435</v>
       </c>
       <c r="N34">
-        <v>18.5754</v>
+        <v>18.5775</v>
       </c>
       <c r="O34">
-        <v>19.0564</v>
+        <v>19.058</v>
       </c>
       <c r="P34">
-        <v>33.6797</v>
+        <v>33.6786</v>
       </c>
       <c r="Q34">
-        <v>46.9407</v>
+        <v>46.9438</v>
       </c>
       <c r="R34">
-        <v>99.99850000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S34">
-        <v>33.6797</v>
+        <v>33.6786</v>
       </c>
       <c r="T34">
-        <v>30.6205</v>
+        <v>30.622</v>
       </c>
       <c r="U34">
-        <v>13.7231</v>
+        <v>13.7144</v>
       </c>
       <c r="V34">
-        <v>17.0862</v>
+        <v>17.0889</v>
       </c>
       <c r="W34">
-        <v>10.6927</v>
+        <v>10.6969</v>
       </c>
       <c r="X34">
-        <v>13.7578</v>
+        <v>13.7514</v>
       </c>
       <c r="Y34">
-        <v>13.7578</v>
+        <v>13.7514</v>
       </c>
       <c r="Z34">
-        <v>13.7502</v>
+        <v>13.7513</v>
       </c>
       <c r="AA34">
-        <v>17.6386</v>
+        <v>17.642</v>
       </c>
       <c r="AB34">
-        <v>19.0564</v>
+        <v>19.058</v>
       </c>
       <c r="AC34">
-        <v>12.4615</v>
+        <v>12.4631</v>
       </c>
       <c r="AD34">
-        <v>18.5754</v>
+        <v>18.5775</v>
       </c>
       <c r="AE34">
-        <v>18.5754</v>
+        <v>18.5775</v>
       </c>
       <c r="AF34">
-        <v>18.5754</v>
+        <v>18.5775</v>
       </c>
       <c r="AG34">
-        <v>0.841101</v>
+        <v>0.841185</v>
       </c>
       <c r="AH34">
-        <v>0.477757</v>
+        <v>0.282048</v>
       </c>
       <c r="AI34">
-        <v>0.227754</v>
+        <v>0.03203719999999999</v>
       </c>
       <c r="AJ34" s="2" t="s">
         <v>62</v>
@@ -5918,34 +5918,34 @@
         <v>62</v>
       </c>
       <c r="AN34">
-        <v>0.277313</v>
+        <v>0.277299</v>
       </c>
       <c r="AO34">
-        <v>868.4930000000001</v>
+        <v>868.492</v>
       </c>
       <c r="AP34">
-        <v>831.8680000000001</v>
+        <v>831.8670000000001</v>
       </c>
       <c r="AQ34">
-        <v>884.421</v>
+        <v>884.422</v>
       </c>
       <c r="AR34">
-        <v>749.302</v>
+        <v>749.303</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT34">
-        <v>725.8630000000001</v>
+        <v>725.8620000000001</v>
       </c>
       <c r="AU34">
-        <v>778.701</v>
+        <v>778.702</v>
       </c>
       <c r="AV34">
-        <v>740.936</v>
+        <v>740.938</v>
       </c>
       <c r="AW34">
-        <v>796.246</v>
+        <v>796.247</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>63</v>
@@ -6108,73 +6108,73 @@
         <v>124</v>
       </c>
       <c r="M36" s="3">
-        <v>46.8869</v>
+        <v>46.8915</v>
       </c>
       <c r="N36" s="1">
-        <v>12.0787</v>
+        <v>12.0785</v>
       </c>
       <c r="O36" s="1">
-        <v>14.2318</v>
+        <v>14.2304</v>
       </c>
       <c r="P36" s="1">
-        <v>25.2959</v>
+        <v>25.2955</v>
       </c>
       <c r="Q36" s="1">
-        <v>46.8843</v>
+        <v>46.89210000000001</v>
       </c>
       <c r="R36" s="1">
-        <v>99.9943</v>
+        <v>99.996</v>
       </c>
       <c r="S36" s="1">
-        <v>25.2959</v>
+        <v>25.2955</v>
       </c>
       <c r="T36" s="1">
-        <v>24.4721</v>
+        <v>24.4733</v>
       </c>
       <c r="U36" s="1">
-        <v>10.9987</v>
+        <v>11.0013</v>
       </c>
       <c r="V36" s="1">
         <v>13.3487</v>
       </c>
       <c r="W36" s="1">
-        <v>8.166030000000001</v>
+        <v>8.165510000000001</v>
       </c>
       <c r="X36" s="1">
-        <v>10.852</v>
+        <v>10.8514</v>
       </c>
       <c r="Y36" s="1">
-        <v>10.852</v>
+        <v>10.8514</v>
       </c>
       <c r="Z36" s="1">
-        <v>10.8489</v>
+        <v>10.8516</v>
       </c>
       <c r="AA36" s="1">
-        <v>12.8491</v>
+        <v>12.8527</v>
       </c>
       <c r="AB36" s="1">
-        <v>13.3632</v>
+        <v>13.3648</v>
       </c>
       <c r="AC36" s="1">
-        <v>8.044550000000001</v>
+        <v>8.04346</v>
       </c>
       <c r="AD36" s="1">
-        <v>12.0787</v>
+        <v>12.0785</v>
       </c>
       <c r="AE36" s="1">
-        <v>12.0787</v>
+        <v>12.0785</v>
       </c>
       <c r="AF36" s="1">
-        <v>12.0787</v>
+        <v>12.0785</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.685578</v>
+        <v>0.685511</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.180183</v>
+        <v>0.159772</v>
       </c>
       <c r="AI36" s="1">
-        <v>0.0204355</v>
+        <v>5.672E-06</v>
       </c>
       <c r="AJ36" s="1" t="s">
         <v>62</v>
@@ -6189,34 +6189,34 @@
         <v>62</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.159963</v>
+        <v>0.159983</v>
       </c>
       <c r="AO36" s="1">
-        <v>868.4930000000001</v>
+        <v>868.492</v>
       </c>
       <c r="AP36" s="1">
-        <v>828.114</v>
+        <v>828.1129999999999</v>
       </c>
       <c r="AQ36" s="1">
-        <v>882.402</v>
+        <v>882.401</v>
       </c>
       <c r="AR36" s="1">
-        <v>740.9209999999999</v>
+        <v>740.923</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT36" s="1">
-        <v>721.051</v>
+        <v>721.0500000000001</v>
       </c>
       <c r="AU36" s="1">
-        <v>776.966</v>
+        <v>776.9670000000001</v>
       </c>
       <c r="AV36" s="1">
-        <v>733.5700000000001</v>
+        <v>733.573</v>
       </c>
       <c r="AW36" s="1">
-        <v>790.097</v>
+        <v>790.098</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>62</v>
@@ -6227,73 +6227,73 @@
         <v>125</v>
       </c>
       <c r="M37" s="1">
-        <v>51.1749</v>
+        <v>51.1735</v>
       </c>
       <c r="N37" s="1">
-        <v>23.5489</v>
+        <v>23.5543</v>
       </c>
       <c r="O37" s="1">
-        <v>23.7804</v>
+        <v>23.7813</v>
       </c>
       <c r="P37" s="1">
-        <v>51.2666</v>
+        <v>51.2709</v>
       </c>
       <c r="Q37" s="1">
-        <v>51.1752</v>
+        <v>51.1734</v>
       </c>
       <c r="R37" s="1">
-        <v>100.001</v>
+        <v>100.004</v>
       </c>
       <c r="S37" s="1">
-        <v>51.2666</v>
+        <v>51.2709</v>
       </c>
       <c r="T37" s="1">
-        <v>50.13</v>
+        <v>50.13800000000001</v>
       </c>
       <c r="U37" s="1">
-        <v>15.9499</v>
+        <v>15.9595</v>
       </c>
       <c r="V37" s="1">
-        <v>22.6394</v>
+        <v>22.6436</v>
       </c>
       <c r="W37" s="1">
-        <v>14.102</v>
+        <v>14.1067</v>
       </c>
       <c r="X37" s="1">
-        <v>20.9623</v>
+        <v>20.9637</v>
       </c>
       <c r="Y37" s="1">
-        <v>20.9623</v>
+        <v>20.9637</v>
       </c>
       <c r="Z37" s="1">
-        <v>20.9623</v>
+        <v>20.9632</v>
       </c>
       <c r="AA37" s="1">
-        <v>19.601</v>
+        <v>19.6045</v>
       </c>
       <c r="AB37" s="1">
-        <v>23.7804</v>
+        <v>23.7813</v>
       </c>
       <c r="AC37" s="1">
-        <v>14.5565</v>
+        <v>14.5547</v>
       </c>
       <c r="AD37" s="1">
-        <v>23.5489</v>
+        <v>23.5543</v>
       </c>
       <c r="AE37" s="1">
-        <v>23.5489</v>
+        <v>23.5543</v>
       </c>
       <c r="AF37" s="1">
-        <v>23.5489</v>
+        <v>23.5543</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.853121</v>
+        <v>0.853286</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.680546</v>
+        <v>0.375274</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.375375</v>
+        <v>0.0700832</v>
       </c>
       <c r="AJ37" s="1" t="s">
         <v>62</v>
@@ -6308,19 +6308,19 @@
         <v>62</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.367596</v>
+        <v>0.367144</v>
       </c>
       <c r="AO37" s="1">
-        <v>876.4290000000001</v>
+        <v>876.427</v>
       </c>
       <c r="AP37" s="1">
-        <v>839.01</v>
+        <v>839.0120000000001</v>
       </c>
       <c r="AQ37" s="1">
-        <v>900.121</v>
+        <v>900.129</v>
       </c>
       <c r="AR37" s="1">
-        <v>766.8920000000001</v>
+        <v>766.896</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>62</v>
@@ -6329,13 +6329,13 @@
         <v>727.703</v>
       </c>
       <c r="AU37" s="1">
-        <v>788.2769999999999</v>
+        <v>788.28</v>
       </c>
       <c r="AV37" s="1">
-        <v>751.0600000000001</v>
+        <v>751.062</v>
       </c>
       <c r="AW37" s="1">
-        <v>815.7550000000001</v>
+        <v>815.763</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>62</v>
@@ -6381,73 +6381,73 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>48.97705757575758</v>
+        <v>48.97731818181819</v>
       </c>
       <c r="N42" s="1">
-        <v>17.51132121212121</v>
+        <v>17.51131515151515</v>
       </c>
       <c r="O42" s="1">
-        <v>18.47939696969698</v>
+        <v>18.48031515151515</v>
       </c>
       <c r="P42" s="1">
-        <v>35.69151212121212</v>
+        <v>35.69261515151515</v>
       </c>
       <c r="Q42" s="1">
-        <v>48.97681212121212</v>
+        <v>48.97703030303031</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99946363636366</v>
+        <v>99.99936969696972</v>
       </c>
       <c r="S42" s="1">
-        <v>35.54145151515151</v>
+        <v>35.54306363636363</v>
       </c>
       <c r="T42" s="1">
-        <v>34.51792424242424</v>
+        <v>34.52018484848485</v>
       </c>
       <c r="U42" s="1">
-        <v>13.43865151515152</v>
+        <v>13.43905151515152</v>
       </c>
       <c r="V42" s="1">
-        <v>17.29726666666667</v>
+        <v>17.29733333333333</v>
       </c>
       <c r="W42" s="1">
-        <v>10.91206575757576</v>
+        <v>10.91353424242424</v>
       </c>
       <c r="X42" s="1">
-        <v>15.3178606060606</v>
+        <v>15.31747575757575</v>
       </c>
       <c r="Y42" s="1">
-        <v>15.3178606060606</v>
+        <v>15.31747575757575</v>
       </c>
       <c r="Z42" s="1">
-        <v>15.31768787878788</v>
+        <v>15.31840606060606</v>
       </c>
       <c r="AA42" s="1">
-        <v>15.92095151515151</v>
+        <v>15.92265454545455</v>
       </c>
       <c r="AB42" s="1">
-        <v>17.69191818181818</v>
+        <v>17.69224242424242</v>
       </c>
       <c r="AC42" s="1">
-        <v>11.02555545454545</v>
+        <v>11.02583909090909</v>
       </c>
       <c r="AD42" s="1">
-        <v>17.04806363636363</v>
+        <v>17.04841212121212</v>
       </c>
       <c r="AE42" s="1">
-        <v>17.04806363636363</v>
+        <v>17.04841212121212</v>
       </c>
       <c r="AF42" s="1">
-        <v>17.04806363636363</v>
+        <v>17.04841212121212</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7692625757575756</v>
+        <v>0.7692103333333332</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3551732121212121</v>
+        <v>0.2282118787878788</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1415836606060606</v>
+        <v>0.01460402082181818</v>
       </c>
       <c r="AJ42" s="1" t="s">
         <v>62</v>
@@ -6462,34 +6462,34 @@
         <v>62</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2265799696969696</v>
+        <v>0.226548</v>
       </c>
       <c r="AO42" s="1">
-        <v>872.2020909090905</v>
+        <v>872.2009393939392</v>
       </c>
       <c r="AP42" s="1">
-        <v>832.4173939393937</v>
+        <v>832.4185757575757</v>
       </c>
       <c r="AQ42" s="1">
-        <v>889.0065454545453</v>
+        <v>889.00903030303</v>
       </c>
       <c r="AR42" s="1">
-        <v>751.166303030303</v>
+        <v>751.1684242424244</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT42" s="1">
-        <v>724.3421818181819</v>
+        <v>724.3420606060606</v>
       </c>
       <c r="AU42" s="1">
-        <v>781.2336666666667</v>
+        <v>781.2353939393939</v>
       </c>
       <c r="AV42" s="1">
-        <v>740.5552424242424</v>
+        <v>740.5577575757575</v>
       </c>
       <c r="AW42" s="1">
-        <v>800.1429393939394</v>
+        <v>800.1452424242423</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>62</v>
@@ -6500,73 +6500,73 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>1.166332474827203</v>
+        <v>1.164987701965144</v>
       </c>
       <c r="N43" s="1">
-        <v>2.905350828214141</v>
+        <v>2.904831102597691</v>
       </c>
       <c r="O43" s="1">
-        <v>2.40943999333994</v>
+        <v>2.408680354294519</v>
       </c>
       <c r="P43" s="1">
-        <v>6.474449058847452</v>
+        <v>6.475539785204816</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.166634554646614</v>
+        <v>1.16502063487639</v>
       </c>
       <c r="R43" s="1">
-        <v>0.001631474176621942</v>
+        <v>0.001538886816971796</v>
       </c>
       <c r="S43" s="1">
-        <v>6.554837419989736</v>
+        <v>6.555870793687607</v>
       </c>
       <c r="T43" s="1">
-        <v>6.519608094887872</v>
+        <v>6.521900854771361</v>
       </c>
       <c r="U43" s="1">
-        <v>1.485951155264209</v>
+        <v>1.486271096263603</v>
       </c>
       <c r="V43" s="1">
-        <v>2.382381975157543</v>
+        <v>2.383102754262546</v>
       </c>
       <c r="W43" s="1">
-        <v>1.494277703258243</v>
+        <v>1.494634523298772</v>
       </c>
       <c r="X43" s="1">
-        <v>2.751811680807743</v>
+        <v>2.751653365791722</v>
       </c>
       <c r="Y43" s="1">
-        <v>2.751811680807743</v>
+        <v>2.751653365791722</v>
       </c>
       <c r="Z43" s="1">
-        <v>2.752611046366768</v>
+        <v>2.751103893254201</v>
       </c>
       <c r="AA43" s="1">
-        <v>1.718362919850137</v>
+        <v>1.720958053138181</v>
       </c>
       <c r="AB43" s="1">
-        <v>2.751044295431645</v>
+        <v>2.750730211155544</v>
       </c>
       <c r="AC43" s="1">
-        <v>1.715433335655845</v>
+        <v>1.715545452839935</v>
       </c>
       <c r="AD43" s="1">
-        <v>3.053328821865614</v>
+        <v>3.05318409034733</v>
       </c>
       <c r="AE43" s="1">
-        <v>3.053328821865614</v>
+        <v>3.05318409034733</v>
       </c>
       <c r="AF43" s="1">
-        <v>3.053328821865614</v>
+        <v>3.05318409034733</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07488008163684939</v>
+        <v>0.074894915289101</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1244002018705752</v>
+        <v>0.05348920453175438</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.08896463063495119</v>
+        <v>0.02190215854057433</v>
       </c>
       <c r="AJ43" s="1" t="s">
         <v>62</v>
@@ -6581,34 +6581,34 @@
         <v>62</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.05150400951528529</v>
+        <v>0.0514053137018721</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.366898614715385</v>
+        <v>2.36702408661805</v>
       </c>
       <c r="AP43" s="1">
-        <v>2.80197645545657</v>
+        <v>2.80269473175591</v>
       </c>
       <c r="AQ43" s="1">
-        <v>4.745103154295325</v>
+        <v>4.746386086052165</v>
       </c>
       <c r="AR43" s="1">
-        <v>6.55502395569138</v>
+        <v>6.555732139175936</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.153237934670903</v>
+        <v>2.153242867121998</v>
       </c>
       <c r="AU43" s="1">
-        <v>2.963903340208815</v>
+        <v>2.965153079388263</v>
       </c>
       <c r="AV43" s="1">
-        <v>4.719505001203206</v>
+        <v>4.719970807757075</v>
       </c>
       <c r="AW43" s="1">
-        <v>6.519607270842628</v>
+        <v>6.521911102282764</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>62</v>
@@ -6619,73 +6619,73 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>2.381385351749894</v>
+        <v>2.378626975124214</v>
       </c>
       <c r="N44" s="1">
-        <v>16.5912714010584</v>
+        <v>16.58830920158703</v>
       </c>
       <c r="O44" s="1">
-        <v>13.03852066867228</v>
+        <v>13.03376232789535</v>
       </c>
       <c r="P44" s="1">
-        <v>18.14002454381743</v>
+        <v>18.14251983979361</v>
       </c>
       <c r="Q44" s="1">
-        <v>2.382014067717034</v>
+        <v>2.378708197839238</v>
       </c>
       <c r="R44" s="1">
-        <v>0.001631482927303097</v>
+        <v>0.001538896516683174</v>
       </c>
       <c r="S44" s="1">
-        <v>18.44279606080628</v>
+        <v>18.44486693876434</v>
       </c>
       <c r="T44" s="1">
-        <v>18.88760184158162</v>
+        <v>18.89300675357658</v>
       </c>
       <c r="U44" s="1">
-        <v>11.0572936100684</v>
+        <v>11.05934518212052</v>
       </c>
       <c r="V44" s="1">
-        <v>13.77317018386842</v>
+        <v>13.77728409540515</v>
       </c>
       <c r="W44" s="1">
-        <v>13.69381138691208</v>
+        <v>13.69523831692094</v>
       </c>
       <c r="X44" s="1">
-        <v>17.96472595996187</v>
+        <v>17.9641437619433</v>
       </c>
       <c r="Y44" s="1">
-        <v>17.96472595996187</v>
+        <v>17.9641437619433</v>
       </c>
       <c r="Z44" s="1">
-        <v>17.97014711455648</v>
+        <v>17.95946577189347</v>
       </c>
       <c r="AA44" s="1">
-        <v>10.79309184639385</v>
+        <v>10.80823582666663</v>
       </c>
       <c r="AB44" s="1">
-        <v>15.54972314002032</v>
+        <v>15.54766289764611</v>
       </c>
       <c r="AC44" s="1">
-        <v>15.55870216904701</v>
+        <v>15.55931878467571</v>
       </c>
       <c r="AD44" s="1">
-        <v>17.91012097909374</v>
+        <v>17.90890593586995</v>
       </c>
       <c r="AE44" s="1">
-        <v>17.91012097909374</v>
+        <v>17.90890593586995</v>
       </c>
       <c r="AF44" s="1">
-        <v>17.91012097909374</v>
+        <v>17.90890593586995</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.734008126302896</v>
+        <v>9.73659765652754</v>
       </c>
       <c r="AH44" s="1">
-        <v>35.02522082890654</v>
+        <v>23.43839629026155</v>
       </c>
       <c r="AI44" s="1">
-        <v>62.83537962935181</v>
+        <v>149.9734820143014</v>
       </c>
       <c r="AJ44" s="1" t="s">
         <v>62</v>
@@ -6700,34 +6700,34 @@
         <v>62</v>
       </c>
       <c r="AN44" s="1">
-        <v>22.73105146238976</v>
+        <v>22.69069411421513</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.2713704357494009</v>
+        <v>0.271385179688388</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.336607148752177</v>
+        <v>0.3366929587323548</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.5337534553099577</v>
+        <v>0.5338962737458695</v>
       </c>
       <c r="AR44" s="1">
-        <v>0.8726461675993129</v>
+        <v>0.8727379809378416</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.2972680576555722</v>
+        <v>0.2972687883567564</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.3793875592759675</v>
+        <v>0.3795466900746041</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.6372927677554053</v>
+        <v>0.6373535027447513</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.814805324131316</v>
+        <v>0.8150909055614685</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>62</v>

--- a/dca_mission_timing_pre_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_pre_tsmc2p_meas.xlsx
@@ -973,73 +973,73 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>49.1082</v>
+        <v>51.3048</v>
       </c>
       <c r="N2">
-        <v>15.9957</v>
+        <v>16.0131</v>
       </c>
       <c r="O2">
-        <v>16.8921</v>
+        <v>20.6301</v>
       </c>
       <c r="P2">
-        <v>33.7075</v>
+        <v>37.6278</v>
       </c>
       <c r="Q2">
-        <v>49.1094</v>
+        <v>51.3046</v>
       </c>
       <c r="R2">
-        <v>100.002</v>
+        <v>99.9997</v>
       </c>
       <c r="S2">
-        <v>33.7075</v>
+        <v>36.3214</v>
       </c>
       <c r="T2">
-        <v>32.8157</v>
+        <v>37.6278</v>
       </c>
       <c r="U2">
-        <v>12.7382</v>
+        <v>19.8017</v>
       </c>
       <c r="V2">
-        <v>16.7846</v>
+        <v>17.5529</v>
       </c>
       <c r="W2">
-        <v>10.2226</v>
+        <v>10.4064</v>
       </c>
       <c r="X2">
-        <v>14.3803</v>
+        <v>14.3887</v>
       </c>
       <c r="Y2">
-        <v>14.3803</v>
+        <v>14.3887</v>
       </c>
       <c r="Z2">
-        <v>14.3918</v>
+        <v>14.3887</v>
       </c>
       <c r="AA2">
-        <v>15.4797</v>
+        <v>20.6301</v>
       </c>
       <c r="AB2">
-        <v>16.8921</v>
+        <v>18.206</v>
       </c>
       <c r="AC2">
-        <v>10.2213</v>
+        <v>10.3127</v>
       </c>
       <c r="AD2">
-        <v>15.9957</v>
+        <v>16.0131</v>
       </c>
       <c r="AE2">
-        <v>15.9957</v>
+        <v>16.0131</v>
       </c>
       <c r="AF2">
-        <v>15.9957</v>
+        <v>16.0131</v>
       </c>
       <c r="AG2">
-        <v>0.770616</v>
+        <v>0.770379</v>
       </c>
       <c r="AH2">
-        <v>0.205656</v>
+        <v>0.201254</v>
       </c>
       <c r="AI2">
-        <v>0.000716982</v>
+        <v>0.0007148240000000001</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>62</v>
@@ -1054,34 +1054,34 @@
         <v>62</v>
       </c>
       <c r="AN2">
-        <v>0.205498</v>
+        <v>0.201096</v>
       </c>
       <c r="AO2">
-        <v>872.083</v>
+        <v>875.2330000000001</v>
       </c>
       <c r="AP2">
-        <v>831.6880000000001</v>
+        <v>834.2570000000001</v>
       </c>
       <c r="AQ2">
-        <v>887.932</v>
+        <v>892.727</v>
       </c>
       <c r="AR2">
-        <v>749.333</v>
+        <v>751.9450000000001</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT2">
-        <v>723.928</v>
+        <v>725.942</v>
       </c>
       <c r="AU2">
-        <v>780.571</v>
+        <v>785.304</v>
       </c>
       <c r="AV2">
-        <v>739.249</v>
+        <v>741.851</v>
       </c>
       <c r="AW2">
-        <v>798.441</v>
+        <v>803.253</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>63</v>
@@ -1733,73 +1733,73 @@
         <v>74</v>
       </c>
       <c r="M7">
-        <v>49.1047</v>
+        <v>50.9729</v>
       </c>
       <c r="N7">
-        <v>14.7759</v>
+        <v>14.7496</v>
       </c>
       <c r="O7">
-        <v>15.7872</v>
+        <v>19.6716</v>
       </c>
       <c r="P7">
-        <v>30.8288</v>
+        <v>33.7978</v>
       </c>
       <c r="Q7">
-        <v>49.1068</v>
+        <v>50.9719</v>
       </c>
       <c r="R7">
-        <v>100.004</v>
+        <v>99.998</v>
       </c>
       <c r="S7">
-        <v>30.8288</v>
+        <v>32.8266</v>
       </c>
       <c r="T7">
-        <v>29.9348</v>
+        <v>33.7978</v>
       </c>
       <c r="U7">
-        <v>12.589</v>
+        <v>19.4933</v>
       </c>
       <c r="V7">
-        <v>15.7872</v>
+        <v>16.4793</v>
       </c>
       <c r="W7">
-        <v>9.65265</v>
+        <v>9.655670000000001</v>
       </c>
       <c r="X7">
-        <v>13.3152</v>
+        <v>13.1766</v>
       </c>
       <c r="Y7">
-        <v>13.3152</v>
+        <v>13.1766</v>
       </c>
       <c r="Z7">
-        <v>13.3143</v>
+        <v>13.174</v>
       </c>
       <c r="AA7">
-        <v>15.2584</v>
+        <v>19.6716</v>
       </c>
       <c r="AB7">
-        <v>15.7273</v>
+        <v>16.0306</v>
       </c>
       <c r="AC7">
-        <v>9.542920000000001</v>
+        <v>8.96719</v>
       </c>
       <c r="AD7">
-        <v>14.7759</v>
+        <v>14.7496</v>
       </c>
       <c r="AE7">
-        <v>14.7759</v>
+        <v>14.7496</v>
       </c>
       <c r="AF7">
-        <v>14.7759</v>
+        <v>14.7496</v>
       </c>
       <c r="AG7">
-        <v>0.692842</v>
+        <v>0.692924</v>
       </c>
       <c r="AH7">
-        <v>0.191739</v>
+        <v>0.190289</v>
       </c>
       <c r="AI7">
-        <v>0.0005200789999999999</v>
+        <v>0.000521408</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>62</v>
@@ -1814,34 +1814,34 @@
         <v>62</v>
       </c>
       <c r="AN7">
-        <v>0.191657</v>
+        <v>0.190206</v>
       </c>
       <c r="AO7">
-        <v>871.4590000000001</v>
+        <v>874.399</v>
       </c>
       <c r="AP7">
-        <v>830.4639999999999</v>
+        <v>833.154</v>
       </c>
       <c r="AQ7">
-        <v>885.9450000000001</v>
+        <v>889.812</v>
       </c>
       <c r="AR7">
-        <v>746.452</v>
+        <v>748.45</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT7">
-        <v>723.3090000000001</v>
+        <v>725.3330000000001</v>
       </c>
       <c r="AU7">
-        <v>779.2379999999999</v>
+        <v>783.147</v>
       </c>
       <c r="AV7">
-        <v>737.157</v>
+        <v>739.318</v>
       </c>
       <c r="AW7">
-        <v>795.5600000000001</v>
+        <v>799.423</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>63</v>
@@ -1885,73 +1885,73 @@
         <v>76</v>
       </c>
       <c r="M8">
-        <v>49.1636</v>
+        <v>51.0401</v>
       </c>
       <c r="N8">
-        <v>13.0384</v>
+        <v>13.06</v>
       </c>
       <c r="O8">
-        <v>14.7708</v>
+        <v>18.8581</v>
       </c>
       <c r="P8">
-        <v>26.4648</v>
+        <v>29.2357</v>
       </c>
       <c r="Q8">
-        <v>49.1637</v>
+        <v>51.041</v>
       </c>
       <c r="R8">
-        <v>100</v>
+        <v>100.002</v>
       </c>
       <c r="S8">
-        <v>26.4648</v>
+        <v>28.1948</v>
       </c>
       <c r="T8">
-        <v>25.6239</v>
+        <v>29.2357</v>
       </c>
       <c r="U8">
-        <v>12.9034</v>
+        <v>18.8581</v>
       </c>
       <c r="V8">
-        <v>14.544</v>
+        <v>15.2031</v>
       </c>
       <c r="W8">
-        <v>8.9848</v>
+        <v>9.00895</v>
       </c>
       <c r="X8">
-        <v>11.6956</v>
+        <v>11.6196</v>
       </c>
       <c r="Y8">
-        <v>11.6956</v>
+        <v>11.6196</v>
       </c>
       <c r="Z8">
-        <v>11.6944</v>
+        <v>11.6184</v>
       </c>
       <c r="AA8">
-        <v>14.7708</v>
+        <v>18.2921</v>
       </c>
       <c r="AB8">
-        <v>14.3918</v>
+        <v>14.8197</v>
       </c>
       <c r="AC8">
-        <v>8.828050000000001</v>
+        <v>8.370039999999999</v>
       </c>
       <c r="AD8">
-        <v>13.0384</v>
+        <v>13.06</v>
       </c>
       <c r="AE8">
-        <v>13.0384</v>
+        <v>13.06</v>
       </c>
       <c r="AF8">
-        <v>13.0384</v>
+        <v>13.06</v>
       </c>
       <c r="AG8">
-        <v>0.844117</v>
+        <v>0.843784</v>
       </c>
       <c r="AH8">
-        <v>0.260289</v>
+        <v>0.257578</v>
       </c>
       <c r="AI8">
-        <v>0.000660065</v>
+        <v>0.000661979</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>62</v>
@@ -1966,34 +1966,34 @@
         <v>62</v>
       </c>
       <c r="AN8">
-        <v>0.260291</v>
+        <v>0.257578</v>
       </c>
       <c r="AO8">
-        <v>870.311</v>
+        <v>872.976</v>
       </c>
       <c r="AP8">
-        <v>828.4680000000001</v>
+        <v>830.752</v>
       </c>
       <c r="AQ8">
-        <v>883.04</v>
+        <v>886.648</v>
       </c>
       <c r="AR8">
-        <v>742.092</v>
+        <v>743.822</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT8">
-        <v>722.386</v>
+        <v>724</v>
       </c>
       <c r="AU8">
-        <v>777.261</v>
+        <v>780.854</v>
       </c>
       <c r="AV8">
-        <v>734.2620000000001</v>
+        <v>736.106</v>
       </c>
       <c r="AW8">
-        <v>791.249</v>
+        <v>794.861</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>63</v>
@@ -2037,73 +2037,73 @@
         <v>74</v>
       </c>
       <c r="M9">
-        <v>48.5674</v>
+        <v>51.0539</v>
       </c>
       <c r="N9">
-        <v>16.9225</v>
+        <v>16.9201</v>
       </c>
       <c r="O9">
-        <v>18.2922</v>
+        <v>23.2832</v>
       </c>
       <c r="P9">
-        <v>32.1808</v>
+        <v>34.9603</v>
       </c>
       <c r="Q9">
-        <v>48.56769999999999</v>
+        <v>51.0523</v>
       </c>
       <c r="R9">
-        <v>100.001</v>
+        <v>99.99680000000001</v>
       </c>
       <c r="S9">
-        <v>32.1808</v>
+        <v>33.9076</v>
       </c>
       <c r="T9">
-        <v>30.7485</v>
+        <v>34.9603</v>
       </c>
       <c r="U9">
-        <v>15.7202</v>
+        <v>23.2832</v>
       </c>
       <c r="V9">
-        <v>18.2922</v>
+        <v>19.292</v>
       </c>
       <c r="W9">
-        <v>11.6268</v>
+        <v>11.7904</v>
       </c>
       <c r="X9">
-        <v>14.8243</v>
+        <v>14.6824</v>
       </c>
       <c r="Y9">
-        <v>14.8243</v>
+        <v>14.6824</v>
       </c>
       <c r="Z9">
-        <v>14.8245</v>
+        <v>14.6759</v>
       </c>
       <c r="AA9">
-        <v>17.7727</v>
+        <v>22.3726</v>
       </c>
       <c r="AB9">
-        <v>18.2085</v>
+        <v>18.9368</v>
       </c>
       <c r="AC9">
-        <v>11.7129</v>
+        <v>11.2108</v>
       </c>
       <c r="AD9">
-        <v>16.9225</v>
+        <v>16.9201</v>
       </c>
       <c r="AE9">
-        <v>16.9225</v>
+        <v>16.9201</v>
       </c>
       <c r="AF9">
-        <v>16.9225</v>
+        <v>16.9201</v>
       </c>
       <c r="AG9">
-        <v>0.685511</v>
+        <v>0.685451</v>
       </c>
       <c r="AH9">
-        <v>0.285497</v>
+        <v>0.285473</v>
       </c>
       <c r="AI9">
-        <v>0.0618503</v>
+        <v>0.0619144</v>
       </c>
       <c r="AJ9" s="2" t="s">
         <v>62</v>
@@ -2118,34 +2118,34 @@
         <v>62</v>
       </c>
       <c r="AN9">
-        <v>0.278553</v>
+        <v>0.2785299999999999</v>
       </c>
       <c r="AO9">
-        <v>870.3630000000001</v>
+        <v>873.532</v>
       </c>
       <c r="AP9">
-        <v>830.98</v>
+        <v>833.4299999999999</v>
       </c>
       <c r="AQ9">
-        <v>886.0170000000001</v>
+        <v>890.212</v>
       </c>
       <c r="AR9">
-        <v>747.806</v>
+        <v>749.529</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT9">
-        <v>723.7280000000001</v>
+        <v>725.446</v>
       </c>
       <c r="AU9">
-        <v>779.096</v>
+        <v>783.186</v>
       </c>
       <c r="AV9">
-        <v>738.4499999999999</v>
+        <v>740.298</v>
       </c>
       <c r="AW9">
-        <v>796.374</v>
+        <v>800.585</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>63</v>
@@ -2189,73 +2189,73 @@
         <v>76</v>
       </c>
       <c r="M10">
-        <v>48.6249</v>
+        <v>51.1203</v>
       </c>
       <c r="N10">
-        <v>15.2192</v>
+        <v>15.2371</v>
       </c>
       <c r="O10">
-        <v>17.159</v>
+        <v>22.3954</v>
       </c>
       <c r="P10">
-        <v>28.811</v>
+        <v>31.4588</v>
       </c>
       <c r="Q10">
-        <v>48.6244</v>
+        <v>51.118</v>
       </c>
       <c r="R10">
-        <v>99.9991</v>
+        <v>99.9954</v>
       </c>
       <c r="S10">
-        <v>28.811</v>
+        <v>30.3345</v>
       </c>
       <c r="T10">
-        <v>27.4361</v>
+        <v>31.4588</v>
       </c>
       <c r="U10">
-        <v>15.8378</v>
+        <v>22.3954</v>
       </c>
       <c r="V10">
-        <v>17.159</v>
+        <v>18.0904</v>
       </c>
       <c r="W10">
-        <v>11.0294</v>
+        <v>11.2356</v>
       </c>
       <c r="X10">
-        <v>13.3889</v>
+        <v>13.2849</v>
       </c>
       <c r="Y10">
-        <v>13.3889</v>
+        <v>13.2849</v>
       </c>
       <c r="Z10">
-        <v>13.3894</v>
+        <v>13.2814</v>
       </c>
       <c r="AA10">
-        <v>17.0892</v>
+        <v>21.0235</v>
       </c>
       <c r="AB10">
-        <v>16.9236</v>
+        <v>17.7604</v>
       </c>
       <c r="AC10">
-        <v>11.0289</v>
+        <v>10.6448</v>
       </c>
       <c r="AD10">
-        <v>15.2192</v>
+        <v>15.2371</v>
       </c>
       <c r="AE10">
-        <v>15.2192</v>
+        <v>15.2371</v>
       </c>
       <c r="AF10">
-        <v>15.2192</v>
+        <v>15.2371</v>
       </c>
       <c r="AG10">
-        <v>0.836507</v>
+        <v>0.835938</v>
       </c>
       <c r="AH10">
-        <v>0.373294</v>
+        <v>0.372403</v>
       </c>
       <c r="AI10">
-        <v>0.0700832</v>
+        <v>0.0701579</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>62</v>
@@ -2270,34 +2270,34 @@
         <v>62</v>
       </c>
       <c r="AN10">
-        <v>0.365165</v>
+        <v>0.364274</v>
       </c>
       <c r="AO10">
-        <v>869.616</v>
+        <v>872.6</v>
       </c>
       <c r="AP10">
-        <v>829.537</v>
+        <v>831.6900000000001</v>
       </c>
       <c r="AQ10">
-        <v>883.9450000000001</v>
+        <v>887.944</v>
       </c>
       <c r="AR10">
-        <v>744.4340000000001</v>
+        <v>745.957</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT10">
-        <v>723.073</v>
+        <v>724.5029999999999</v>
       </c>
       <c r="AU10">
-        <v>777.7089999999999</v>
+        <v>781.548</v>
       </c>
       <c r="AV10">
-        <v>736.231</v>
+        <v>737.841</v>
       </c>
       <c r="AW10">
-        <v>793.0609999999999</v>
+        <v>797.0840000000001</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>63</v>
@@ -2949,73 +2949,73 @@
         <v>74</v>
       </c>
       <c r="M15">
-        <v>48.8678</v>
+        <v>51.268</v>
       </c>
       <c r="N15">
-        <v>21.7972</v>
+        <v>21.8138</v>
       </c>
       <c r="O15">
-        <v>21.6292</v>
+        <v>23.1875</v>
       </c>
       <c r="P15">
-        <v>51.2709</v>
+        <v>53.9271</v>
       </c>
       <c r="Q15">
-        <v>48.8677</v>
+        <v>51.2671</v>
       </c>
       <c r="R15">
-        <v>99.99980000000001</v>
+        <v>99.9982</v>
       </c>
       <c r="S15">
-        <v>51.2709</v>
+        <v>52.6621</v>
       </c>
       <c r="T15">
-        <v>50.13800000000001</v>
+        <v>53.9271</v>
       </c>
       <c r="U15">
-        <v>12.2369</v>
+        <v>22.8522</v>
       </c>
       <c r="V15">
-        <v>20.1625</v>
+        <v>22.3356</v>
       </c>
       <c r="W15">
-        <v>12.9184</v>
+        <v>12.7924</v>
       </c>
       <c r="X15">
-        <v>20.3695</v>
+        <v>20.0325</v>
       </c>
       <c r="Y15">
-        <v>20.3695</v>
+        <v>20.0325</v>
       </c>
       <c r="Z15">
-        <v>20.3696</v>
+        <v>20.0325</v>
       </c>
       <c r="AA15">
-        <v>14.6944</v>
+        <v>23.1875</v>
       </c>
       <c r="AB15">
-        <v>21.6292</v>
+        <v>20.5401</v>
       </c>
       <c r="AC15">
-        <v>13.1284</v>
+        <v>11.6758</v>
       </c>
       <c r="AD15">
-        <v>21.7972</v>
+        <v>21.8138</v>
       </c>
       <c r="AE15">
-        <v>21.7972</v>
+        <v>21.8138</v>
       </c>
       <c r="AF15">
-        <v>21.7972</v>
+        <v>21.8138</v>
       </c>
       <c r="AG15">
-        <v>0.700141</v>
+        <v>0.700669</v>
       </c>
       <c r="AH15">
-        <v>0.159772</v>
+        <v>0.157639</v>
       </c>
       <c r="AI15">
-        <v>5.68332E-06</v>
+        <v>5.73668E-06</v>
       </c>
       <c r="AJ15" s="2" t="s">
         <v>62</v>
@@ -3030,34 +3030,34 @@
         <v>62</v>
       </c>
       <c r="AN15">
-        <v>0.159983</v>
+        <v>0.15785</v>
       </c>
       <c r="AO15">
-        <v>876.2370000000001</v>
+        <v>879.3729999999999</v>
       </c>
       <c r="AP15">
-        <v>839.0120000000001</v>
+        <v>842.369</v>
       </c>
       <c r="AQ15">
-        <v>900.129</v>
+        <v>903.941</v>
       </c>
       <c r="AR15">
-        <v>766.896</v>
+        <v>768.287</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT15">
-        <v>727.62</v>
+        <v>729.817</v>
       </c>
       <c r="AU15">
-        <v>788.28</v>
+        <v>792.4910000000001</v>
       </c>
       <c r="AV15">
-        <v>751.062</v>
+        <v>753.1</v>
       </c>
       <c r="AW15">
-        <v>815.763</v>
+        <v>819.552</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>63</v>
@@ -3101,73 +3101,73 @@
         <v>76</v>
       </c>
       <c r="M16">
-        <v>49.2352</v>
+        <v>51.1711</v>
       </c>
       <c r="N16">
-        <v>17.0698</v>
+        <v>17.0584</v>
       </c>
       <c r="O16">
-        <v>17.8832</v>
+        <v>20.892</v>
       </c>
       <c r="P16">
-        <v>38.0335</v>
+        <v>40.9551</v>
       </c>
       <c r="Q16">
-        <v>49.2343</v>
+        <v>51.1724</v>
       </c>
       <c r="R16">
-        <v>99.9983</v>
+        <v>100.002</v>
       </c>
       <c r="S16">
-        <v>38.0335</v>
+        <v>39.7811</v>
       </c>
       <c r="T16">
-        <v>37.2677</v>
+        <v>40.9551</v>
       </c>
       <c r="U16">
-        <v>11.7916</v>
+        <v>20.2912</v>
       </c>
       <c r="V16">
-        <v>17.3901</v>
+        <v>18.2705</v>
       </c>
       <c r="W16">
-        <v>10.6667</v>
+        <v>10.5863</v>
       </c>
       <c r="X16">
-        <v>15.6384</v>
+        <v>15.427</v>
       </c>
       <c r="Y16">
-        <v>15.6384</v>
+        <v>15.427</v>
       </c>
       <c r="Z16">
-        <v>15.6413</v>
+        <v>15.4182</v>
       </c>
       <c r="AA16">
-        <v>14.7923</v>
+        <v>20.892</v>
       </c>
       <c r="AB16">
-        <v>17.8832</v>
+        <v>17.4671</v>
       </c>
       <c r="AC16">
-        <v>10.755</v>
+        <v>9.71452</v>
       </c>
       <c r="AD16">
-        <v>17.0698</v>
+        <v>17.0584</v>
       </c>
       <c r="AE16">
-        <v>17.0698</v>
+        <v>17.0584</v>
       </c>
       <c r="AF16">
-        <v>17.0698</v>
+        <v>17.0584</v>
       </c>
       <c r="AG16">
-        <v>0.8519370000000001</v>
+        <v>0.852409</v>
       </c>
       <c r="AH16">
-        <v>0.205358</v>
+        <v>0.204081</v>
       </c>
       <c r="AI16">
-        <v>1.45634E-05</v>
+        <v>1.47297E-05</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>62</v>
@@ -3182,34 +3182,34 @@
         <v>62</v>
       </c>
       <c r="AN16">
-        <v>0.205329</v>
+        <v>0.204052</v>
       </c>
       <c r="AO16">
-        <v>873.471</v>
+        <v>876.625</v>
       </c>
       <c r="AP16">
-        <v>833.563</v>
+        <v>836.601</v>
       </c>
       <c r="AQ16">
-        <v>891.297</v>
+        <v>894.9920000000001</v>
       </c>
       <c r="AR16">
-        <v>753.66</v>
+        <v>755.408</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT16">
-        <v>724.87</v>
+        <v>727.2149999999999</v>
       </c>
       <c r="AU16">
-        <v>782.855</v>
+        <v>786.783</v>
       </c>
       <c r="AV16">
-        <v>742.164</v>
+        <v>744.273</v>
       </c>
       <c r="AW16">
-        <v>802.893</v>
+        <v>806.58</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>63</v>
@@ -3253,73 +3253,73 @@
         <v>74</v>
       </c>
       <c r="M17">
-        <v>48.9101</v>
+        <v>51.5032</v>
       </c>
       <c r="N17">
-        <v>23.5543</v>
+        <v>23.5472</v>
       </c>
       <c r="O17">
-        <v>23.7813</v>
+        <v>26.8866</v>
       </c>
       <c r="P17">
-        <v>48.3235</v>
+        <v>51.2516</v>
       </c>
       <c r="Q17">
-        <v>48.9095</v>
+        <v>51.5031</v>
       </c>
       <c r="R17">
-        <v>99.99890000000001</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S17">
-        <v>48.3235</v>
+        <v>49.74850000000001</v>
       </c>
       <c r="T17">
-        <v>47.2342</v>
+        <v>51.2516</v>
       </c>
       <c r="U17">
-        <v>14.3999</v>
+        <v>26.6711</v>
       </c>
       <c r="V17">
-        <v>22.6436</v>
+        <v>24.0241</v>
       </c>
       <c r="W17">
-        <v>14.1067</v>
+        <v>14.0104</v>
       </c>
       <c r="X17">
-        <v>20.9637</v>
+        <v>20.6</v>
       </c>
       <c r="Y17">
-        <v>20.9637</v>
+        <v>20.6</v>
       </c>
       <c r="Z17">
-        <v>20.9632</v>
+        <v>20.5999</v>
       </c>
       <c r="AA17">
-        <v>18.1734</v>
+        <v>26.8866</v>
       </c>
       <c r="AB17">
-        <v>23.7813</v>
+        <v>23.1303</v>
       </c>
       <c r="AC17">
-        <v>14.5547</v>
+        <v>13.1034</v>
       </c>
       <c r="AD17">
-        <v>23.5543</v>
+        <v>23.5472</v>
       </c>
       <c r="AE17">
-        <v>23.5543</v>
+        <v>23.5472</v>
       </c>
       <c r="AF17">
-        <v>23.5543</v>
+        <v>23.5472</v>
       </c>
       <c r="AG17">
-        <v>0.691816</v>
+        <v>0.693441</v>
       </c>
       <c r="AH17">
-        <v>0.168947</v>
+        <v>0.16723</v>
       </c>
       <c r="AI17">
-        <v>0.00229959</v>
+        <v>0.0023072</v>
       </c>
       <c r="AJ17" s="2" t="s">
         <v>62</v>
@@ -3334,34 +3334,34 @@
         <v>62</v>
       </c>
       <c r="AN17">
-        <v>0.168664</v>
+        <v>0.166947</v>
       </c>
       <c r="AO17">
-        <v>874.1120000000001</v>
+        <v>877.556</v>
       </c>
       <c r="AP17">
-        <v>837.3919999999999</v>
+        <v>840.663</v>
       </c>
       <c r="AQ17">
-        <v>897.117</v>
+        <v>901.114</v>
       </c>
       <c r="AR17">
-        <v>763.948</v>
+        <v>765.374</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT17">
-        <v>726.6239999999999</v>
+        <v>728.918</v>
       </c>
       <c r="AU17">
-        <v>786.2810000000001</v>
+        <v>790.5419999999999</v>
       </c>
       <c r="AV17">
-        <v>749.151</v>
+        <v>751.09</v>
       </c>
       <c r="AW17">
-        <v>812.859</v>
+        <v>816.877</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>63</v>
@@ -3405,73 +3405,73 @@
         <v>76</v>
       </c>
       <c r="M18">
-        <v>49.0116</v>
+        <v>51.2883</v>
       </c>
       <c r="N18">
-        <v>19.1526</v>
+        <v>19.1471</v>
       </c>
       <c r="O18">
-        <v>19.993</v>
+        <v>23.4748</v>
       </c>
       <c r="P18">
-        <v>38.299</v>
+        <v>41.2395</v>
       </c>
       <c r="Q18">
-        <v>49.0101</v>
+        <v>51.2863</v>
       </c>
       <c r="R18">
-        <v>99.9969</v>
+        <v>99.996</v>
       </c>
       <c r="S18">
-        <v>38.299</v>
+        <v>39.9566</v>
       </c>
       <c r="T18">
-        <v>37.3093</v>
+        <v>41.2395</v>
       </c>
       <c r="U18">
-        <v>13.9194</v>
+        <v>23.4748</v>
       </c>
       <c r="V18">
-        <v>19.5827</v>
+        <v>20.5559</v>
       </c>
       <c r="W18">
-        <v>12.088</v>
+        <v>12.0197</v>
       </c>
       <c r="X18">
-        <v>17.0031</v>
+        <v>16.7542</v>
       </c>
       <c r="Y18">
-        <v>17.0031</v>
+        <v>16.7542</v>
       </c>
       <c r="Z18">
-        <v>17.0055</v>
+        <v>16.7543</v>
       </c>
       <c r="AA18">
-        <v>17.2327</v>
+        <v>23.169</v>
       </c>
       <c r="AB18">
-        <v>19.993</v>
+        <v>19.7953</v>
       </c>
       <c r="AC18">
-        <v>12.2896</v>
+        <v>11.1858</v>
       </c>
       <c r="AD18">
-        <v>19.1526</v>
+        <v>19.1471</v>
       </c>
       <c r="AE18">
-        <v>19.1526</v>
+        <v>19.1471</v>
       </c>
       <c r="AF18">
-        <v>19.1526</v>
+        <v>19.1471</v>
       </c>
       <c r="AG18">
-        <v>0.845548</v>
+        <v>0.846088</v>
       </c>
       <c r="AH18">
-        <v>0.220558</v>
+        <v>0.219411</v>
       </c>
       <c r="AI18">
-        <v>0.00260218</v>
+        <v>0.00261085</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>62</v>
@@ -3486,34 +3486,34 @@
         <v>62</v>
       </c>
       <c r="AN18">
-        <v>0.220164</v>
+        <v>0.219017</v>
       </c>
       <c r="AO18">
-        <v>872.244</v>
+        <v>875.552</v>
       </c>
       <c r="AP18">
-        <v>833.333</v>
+        <v>836.284</v>
       </c>
       <c r="AQ18">
-        <v>890.619</v>
+        <v>894.553</v>
       </c>
       <c r="AR18">
-        <v>753.9230000000001</v>
+        <v>755.579</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT18">
-        <v>724.626</v>
+        <v>726.847</v>
       </c>
       <c r="AU18">
-        <v>782.201</v>
+        <v>786.2629999999999</v>
       </c>
       <c r="AV18">
-        <v>742.4110000000001</v>
+        <v>744.385</v>
       </c>
       <c r="AW18">
-        <v>802.934</v>
+        <v>806.864</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>63</v>
@@ -4165,73 +4165,73 @@
         <v>74</v>
       </c>
       <c r="M23">
-        <v>50.1165</v>
+        <v>52.1876</v>
       </c>
       <c r="N23">
-        <v>18.7564</v>
+        <v>18.6572</v>
       </c>
       <c r="O23">
-        <v>19.5477</v>
+        <v>23.9599</v>
       </c>
       <c r="P23">
-        <v>38.9478</v>
+        <v>43.2139</v>
       </c>
       <c r="Q23">
-        <v>50.116</v>
+        <v>52.1883</v>
       </c>
       <c r="R23">
-        <v>99.999</v>
+        <v>100.001</v>
       </c>
       <c r="S23">
-        <v>38.8271</v>
+        <v>41.0229</v>
       </c>
       <c r="T23">
-        <v>38.9478</v>
+        <v>43.2139</v>
       </c>
       <c r="U23">
-        <v>13.451</v>
+        <v>23.9599</v>
       </c>
       <c r="V23">
-        <v>19.5477</v>
+        <v>20.2571</v>
       </c>
       <c r="W23">
-        <v>12.1469</v>
+        <v>12.2636</v>
       </c>
       <c r="X23">
-        <v>18.7564</v>
+        <v>18.6614</v>
       </c>
       <c r="Y23">
-        <v>18.7564</v>
+        <v>18.6614</v>
       </c>
       <c r="Z23">
-        <v>18.7564</v>
+        <v>18.6572</v>
       </c>
       <c r="AA23">
-        <v>13.6092</v>
+        <v>17.9663</v>
       </c>
       <c r="AB23">
-        <v>14.7495</v>
+        <v>15.7516</v>
       </c>
       <c r="AC23">
-        <v>9.93385</v>
+        <v>9.367760000000001</v>
       </c>
       <c r="AD23">
-        <v>15.5262</v>
+        <v>15.5516</v>
       </c>
       <c r="AE23">
-        <v>15.5262</v>
+        <v>15.5516</v>
       </c>
       <c r="AF23">
-        <v>15.5262</v>
+        <v>15.5516</v>
       </c>
       <c r="AG23">
-        <v>0.6962</v>
+        <v>0.696417</v>
       </c>
       <c r="AH23">
-        <v>0.170475</v>
+        <v>0.169101</v>
       </c>
       <c r="AI23">
-        <v>0.000169993</v>
+        <v>0.000170942</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>62</v>
@@ -4246,34 +4246,34 @@
         <v>62</v>
       </c>
       <c r="AN23">
-        <v>0.17066</v>
+        <v>0.169287</v>
       </c>
       <c r="AO23">
-        <v>876.158</v>
+        <v>879.5260000000001</v>
       </c>
       <c r="AP23">
-        <v>833.423</v>
+        <v>836.5110000000001</v>
       </c>
       <c r="AQ23">
-        <v>894.249</v>
+        <v>898.495</v>
       </c>
       <c r="AR23">
-        <v>754.452</v>
+        <v>756.647</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT23">
-        <v>722.616</v>
+        <v>724.763</v>
       </c>
       <c r="AU23">
-        <v>784.013</v>
+        <v>788.293</v>
       </c>
       <c r="AV23">
-        <v>740.4499999999999</v>
+        <v>742.907</v>
       </c>
       <c r="AW23">
-        <v>804.573</v>
+        <v>808.8389999999999</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>63</v>
@@ -4317,73 +4317,73 @@
         <v>76</v>
       </c>
       <c r="M24">
-        <v>51.0969</v>
+        <v>52.6302</v>
       </c>
       <c r="N24">
-        <v>14.8428</v>
+        <v>14.7333</v>
       </c>
       <c r="O24">
-        <v>16.5213</v>
+        <v>20.7388</v>
       </c>
       <c r="P24">
-        <v>31.3194</v>
+        <v>35.0093</v>
       </c>
       <c r="Q24">
-        <v>51.0967</v>
+        <v>52.63010000000001</v>
       </c>
       <c r="R24">
         <v>99.9997</v>
       </c>
       <c r="S24">
-        <v>30.2261</v>
+        <v>32.3792</v>
       </c>
       <c r="T24">
-        <v>31.3194</v>
+        <v>35.0093</v>
       </c>
       <c r="U24">
-        <v>13.0862</v>
+        <v>20.7388</v>
       </c>
       <c r="V24">
-        <v>16.5213</v>
+        <v>17.0813</v>
       </c>
       <c r="W24">
-        <v>10.3446</v>
+        <v>10.3839</v>
       </c>
       <c r="X24">
-        <v>14.843</v>
+        <v>14.7349</v>
       </c>
       <c r="Y24">
-        <v>14.843</v>
+        <v>14.7349</v>
       </c>
       <c r="Z24">
-        <v>14.8428</v>
+        <v>14.7333</v>
       </c>
       <c r="AA24">
-        <v>13.7053</v>
+        <v>17.7715</v>
       </c>
       <c r="AB24">
-        <v>14.6932</v>
+        <v>15.2431</v>
       </c>
       <c r="AC24">
-        <v>8.894860000000001</v>
+        <v>8.388730000000001</v>
       </c>
       <c r="AD24">
-        <v>13.4445</v>
+        <v>13.4334</v>
       </c>
       <c r="AE24">
-        <v>13.4445</v>
+        <v>13.4334</v>
       </c>
       <c r="AF24">
-        <v>13.4445</v>
+        <v>13.4334</v>
       </c>
       <c r="AG24">
-        <v>0.848003</v>
+        <v>0.848149</v>
       </c>
       <c r="AH24">
-        <v>0.223956</v>
+        <v>0.222233</v>
       </c>
       <c r="AI24">
-        <v>0.000225091</v>
+        <v>0.000226524</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>62</v>
@@ -4398,34 +4398,34 @@
         <v>62</v>
       </c>
       <c r="AN24">
-        <v>0.22398</v>
+        <v>0.222258</v>
       </c>
       <c r="AO24">
-        <v>873.8140000000001</v>
+        <v>876.8380000000001</v>
       </c>
       <c r="AP24">
-        <v>829.557</v>
+        <v>832.4350000000001</v>
       </c>
       <c r="AQ24">
-        <v>888.456</v>
+        <v>892.1420000000001</v>
       </c>
       <c r="AR24">
-        <v>745.852</v>
+        <v>748.004</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT24">
-        <v>721.093</v>
+        <v>723.087</v>
       </c>
       <c r="AU24">
-        <v>780.5240000000001</v>
+        <v>784.2619999999999</v>
       </c>
       <c r="AV24">
-        <v>735.2189999999999</v>
+        <v>737.559</v>
       </c>
       <c r="AW24">
-        <v>796.944</v>
+        <v>800.634</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>63</v>
@@ -4469,73 +4469,73 @@
         <v>74</v>
       </c>
       <c r="M25">
-        <v>50.312</v>
+        <v>52.5736</v>
       </c>
       <c r="N25">
-        <v>19.4735</v>
+        <v>19.345</v>
       </c>
       <c r="O25">
-        <v>21.3145</v>
+        <v>26.3373</v>
       </c>
       <c r="P25">
-        <v>38.1308</v>
+        <v>42.4586</v>
       </c>
       <c r="Q25">
-        <v>50.3116</v>
+        <v>52.57380000000001</v>
       </c>
       <c r="R25">
-        <v>99.9991</v>
+        <v>100</v>
       </c>
       <c r="S25">
-        <v>37.8192</v>
+        <v>39.8846</v>
       </c>
       <c r="T25">
-        <v>38.1308</v>
+        <v>42.4586</v>
       </c>
       <c r="U25">
-        <v>15.9595</v>
+        <v>26.3373</v>
       </c>
       <c r="V25">
-        <v>21.3145</v>
+        <v>22.2433</v>
       </c>
       <c r="W25">
-        <v>13.5719</v>
+        <v>13.7673</v>
       </c>
       <c r="X25">
-        <v>19.4718</v>
+        <v>19.3437</v>
       </c>
       <c r="Y25">
-        <v>19.4718</v>
+        <v>19.3437</v>
       </c>
       <c r="Z25">
-        <v>19.4735</v>
+        <v>19.345</v>
       </c>
       <c r="AA25">
-        <v>16.086</v>
+        <v>21.5921</v>
       </c>
       <c r="AB25">
-        <v>18.3546</v>
+        <v>19.4062</v>
       </c>
       <c r="AC25">
-        <v>11.5298</v>
+        <v>10.9615</v>
       </c>
       <c r="AD25">
-        <v>17.4762</v>
+        <v>17.5242</v>
       </c>
       <c r="AE25">
-        <v>17.4762</v>
+        <v>17.5242</v>
       </c>
       <c r="AF25">
-        <v>17.4762</v>
+        <v>17.5242</v>
       </c>
       <c r="AG25">
-        <v>0.689659</v>
+        <v>0.689881</v>
       </c>
       <c r="AH25">
-        <v>0.206511</v>
+        <v>0.205676</v>
       </c>
       <c r="AI25">
-        <v>0.0198887</v>
+        <v>0.0199434</v>
       </c>
       <c r="AJ25" s="2" t="s">
         <v>62</v>
@@ -4550,34 +4550,34 @@
         <v>62</v>
       </c>
       <c r="AN25">
-        <v>0.205048</v>
+        <v>0.204213</v>
       </c>
       <c r="AO25">
-        <v>874.71</v>
+        <v>878.2710000000001</v>
       </c>
       <c r="AP25">
-        <v>832.788</v>
+        <v>835.8049999999999</v>
       </c>
       <c r="AQ25">
-        <v>893.0260000000001</v>
+        <v>897.321</v>
       </c>
       <c r="AR25">
-        <v>753.447</v>
+        <v>755.5110000000001</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT25">
-        <v>722.1419999999999</v>
+        <v>724.0890000000001</v>
       </c>
       <c r="AU25">
-        <v>782.922</v>
+        <v>787.1410000000001</v>
       </c>
       <c r="AV25">
-        <v>739.966</v>
+        <v>742.2660000000001</v>
       </c>
       <c r="AW25">
-        <v>803.756</v>
+        <v>808.0840000000001</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>63</v>
@@ -4621,73 +4621,73 @@
         <v>76</v>
       </c>
       <c r="M26">
-        <v>50.7987</v>
+        <v>52.7629</v>
       </c>
       <c r="N26">
-        <v>16.2189</v>
+        <v>16.0872</v>
       </c>
       <c r="O26">
-        <v>18.7288</v>
+        <v>23.7377</v>
       </c>
       <c r="P26">
-        <v>32.3353</v>
+        <v>36.2838</v>
       </c>
       <c r="Q26">
-        <v>50.7987</v>
+        <v>52.7629</v>
       </c>
       <c r="R26">
         <v>100</v>
       </c>
       <c r="S26">
-        <v>31.5435</v>
+        <v>33.5224</v>
       </c>
       <c r="T26">
-        <v>32.3353</v>
+        <v>36.2838</v>
       </c>
       <c r="U26">
-        <v>15.5941</v>
+        <v>23.7377</v>
       </c>
       <c r="V26">
-        <v>18.7288</v>
+        <v>19.5146</v>
       </c>
       <c r="W26">
-        <v>12.0406</v>
+        <v>12.1797</v>
       </c>
       <c r="X26">
-        <v>16.2183</v>
+        <v>16.0872</v>
       </c>
       <c r="Y26">
-        <v>16.2183</v>
+        <v>16.0872</v>
       </c>
       <c r="Z26">
-        <v>16.2189</v>
+        <v>16.0872</v>
       </c>
       <c r="AA26">
-        <v>16.1779</v>
+        <v>20.6188</v>
       </c>
       <c r="AB26">
-        <v>17.0446</v>
+        <v>17.8233</v>
       </c>
       <c r="AC26">
-        <v>10.4858</v>
+        <v>10.0164</v>
       </c>
       <c r="AD26">
-        <v>15.4221</v>
+        <v>15.4374</v>
       </c>
       <c r="AE26">
-        <v>15.4221</v>
+        <v>15.4374</v>
       </c>
       <c r="AF26">
-        <v>15.4221</v>
+        <v>15.4374</v>
       </c>
       <c r="AG26">
-        <v>0.841515</v>
+        <v>0.84162</v>
       </c>
       <c r="AH26">
-        <v>0.271039</v>
+        <v>0.270059</v>
       </c>
       <c r="AI26">
-        <v>0.0220502</v>
+        <v>0.0221132</v>
       </c>
       <c r="AJ26" s="2" t="s">
         <v>62</v>
@@ -4702,34 +4702,34 @@
         <v>62</v>
       </c>
       <c r="AN26">
-        <v>0.269344</v>
+        <v>0.268364</v>
       </c>
       <c r="AO26">
-        <v>873.086</v>
+        <v>876.3050000000001</v>
       </c>
       <c r="AP26">
-        <v>830.103</v>
+        <v>832.874</v>
       </c>
       <c r="AQ26">
-        <v>888.783</v>
+        <v>892.722</v>
       </c>
       <c r="AR26">
-        <v>747.172</v>
+        <v>749.148</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT26">
-        <v>721.296</v>
+        <v>723.0400000000001</v>
       </c>
       <c r="AU26">
-        <v>780.389</v>
+        <v>784.2610000000001</v>
       </c>
       <c r="AV26">
-        <v>736.298</v>
+        <v>738.4440000000001</v>
       </c>
       <c r="AW26">
-        <v>797.96</v>
+        <v>801.909</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>63</v>
@@ -5381,73 +5381,73 @@
         <v>74</v>
       </c>
       <c r="M31">
-        <v>47.9877</v>
+        <v>49.9751</v>
       </c>
       <c r="N31">
-        <v>20.4401</v>
+        <v>20.4088</v>
       </c>
       <c r="O31">
-        <v>20.1482</v>
+        <v>23.268</v>
       </c>
       <c r="P31">
-        <v>40.0751</v>
+        <v>41.6955</v>
       </c>
       <c r="Q31">
-        <v>47.9869</v>
+        <v>49.9739</v>
       </c>
       <c r="R31">
-        <v>99.9983</v>
+        <v>99.9975</v>
       </c>
       <c r="S31">
-        <v>40.0751</v>
+        <v>41.6955</v>
       </c>
       <c r="T31">
-        <v>38.0637</v>
+        <v>41.6696</v>
       </c>
       <c r="U31">
-        <v>11.4122</v>
+        <v>16.9434</v>
       </c>
       <c r="V31">
-        <v>14.6341</v>
+        <v>17.4138</v>
       </c>
       <c r="W31">
-        <v>10.1694</v>
+        <v>9.99708</v>
       </c>
       <c r="X31">
-        <v>14.2175</v>
+        <v>13.9096</v>
       </c>
       <c r="Y31">
-        <v>14.2175</v>
+        <v>13.9096</v>
       </c>
       <c r="Z31">
-        <v>14.2208</v>
+        <v>13.9038</v>
       </c>
       <c r="AA31">
-        <v>18.0918</v>
+        <v>23.268</v>
       </c>
       <c r="AB31">
-        <v>20.1482</v>
+        <v>19.2186</v>
       </c>
       <c r="AC31">
-        <v>12.5073</v>
+        <v>11.11</v>
       </c>
       <c r="AD31">
-        <v>20.4401</v>
+        <v>20.4088</v>
       </c>
       <c r="AE31">
-        <v>20.4401</v>
+        <v>20.4088</v>
       </c>
       <c r="AF31">
-        <v>20.4401</v>
+        <v>20.4088</v>
       </c>
       <c r="AG31">
-        <v>0.696092</v>
+        <v>0.696558</v>
       </c>
       <c r="AH31">
-        <v>0.171108</v>
+        <v>0.170038</v>
       </c>
       <c r="AI31">
-        <v>0.000150243</v>
+        <v>0.000150302</v>
       </c>
       <c r="AJ31" s="2" t="s">
         <v>62</v>
@@ -5462,34 +5462,34 @@
         <v>62</v>
       </c>
       <c r="AN31">
-        <v>0.17108</v>
+        <v>0.17001</v>
       </c>
       <c r="AO31">
-        <v>870.975</v>
+        <v>874.0170000000001</v>
       </c>
       <c r="AP31">
-        <v>834.997</v>
+        <v>838.067</v>
       </c>
       <c r="AQ31">
-        <v>889.569</v>
+        <v>893.213</v>
       </c>
       <c r="AR31">
-        <v>755.699</v>
+        <v>757.318</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT31">
-        <v>727.703</v>
+        <v>730.1850000000001</v>
       </c>
       <c r="AU31">
-        <v>782.471</v>
+        <v>786.316</v>
       </c>
       <c r="AV31">
-        <v>745.5359999999999</v>
+        <v>747.505</v>
       </c>
       <c r="AW31">
-        <v>803.6890000000001</v>
+        <v>807.295</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>63</v>
@@ -5533,73 +5533,73 @@
         <v>76</v>
       </c>
       <c r="M32">
-        <v>47.4412</v>
+        <v>49.5187</v>
       </c>
       <c r="N32">
-        <v>16.4203</v>
+        <v>16.372</v>
       </c>
       <c r="O32">
-        <v>16.813</v>
+        <v>20.0781</v>
       </c>
       <c r="P32">
-        <v>32.156</v>
+        <v>33.7325</v>
       </c>
       <c r="Q32">
-        <v>47.4397</v>
+        <v>49.5188</v>
       </c>
       <c r="R32">
-        <v>99.99680000000001</v>
+        <v>100</v>
       </c>
       <c r="S32">
-        <v>32.156</v>
+        <v>33.7325</v>
       </c>
       <c r="T32">
-        <v>29.5947</v>
+        <v>33.251</v>
       </c>
       <c r="U32">
-        <v>11.2809</v>
+        <v>17.0139</v>
       </c>
       <c r="V32">
-        <v>14.647</v>
+        <v>15.8327</v>
       </c>
       <c r="W32">
-        <v>9.11459</v>
+        <v>9.004670000000001</v>
       </c>
       <c r="X32">
-        <v>12.2175</v>
+        <v>11.9971</v>
       </c>
       <c r="Y32">
-        <v>12.2175</v>
+        <v>11.9971</v>
       </c>
       <c r="Z32">
-        <v>12.2216</v>
+        <v>11.997</v>
       </c>
       <c r="AA32">
-        <v>15.773</v>
+        <v>20.0781</v>
       </c>
       <c r="AB32">
-        <v>16.813</v>
+        <v>16.3868</v>
       </c>
       <c r="AC32">
-        <v>10.5172</v>
+        <v>9.491060000000001</v>
       </c>
       <c r="AD32">
-        <v>16.4203</v>
+        <v>16.372</v>
       </c>
       <c r="AE32">
-        <v>16.4203</v>
+        <v>16.372</v>
       </c>
       <c r="AF32">
-        <v>16.4203</v>
+        <v>16.372</v>
       </c>
       <c r="AG32">
-        <v>0.847606</v>
+        <v>0.847794</v>
       </c>
       <c r="AH32">
-        <v>0.224607</v>
+        <v>0.2233</v>
       </c>
       <c r="AI32">
-        <v>0.000197189</v>
+        <v>0.000197372</v>
       </c>
       <c r="AJ32" s="2" t="s">
         <v>62</v>
@@ -5614,34 +5614,34 @@
         <v>62</v>
       </c>
       <c r="AN32">
-        <v>0.224593</v>
+        <v>0.223285</v>
       </c>
       <c r="AO32">
-        <v>869.4409999999999</v>
+        <v>872.245</v>
       </c>
       <c r="AP32">
-        <v>831.4450000000001</v>
+        <v>834.0309999999999</v>
       </c>
       <c r="AQ32">
-        <v>884.295</v>
+        <v>887.965</v>
       </c>
       <c r="AR32">
-        <v>747.78</v>
+        <v>749.357</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT32">
-        <v>725.432</v>
+        <v>727.609</v>
       </c>
       <c r="AU32">
-        <v>778.6270000000001</v>
+        <v>782.4050000000001</v>
       </c>
       <c r="AV32">
-        <v>739.577</v>
+        <v>741.3630000000001</v>
       </c>
       <c r="AW32">
-        <v>795.22</v>
+        <v>798.876</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>63</v>
@@ -5685,73 +5685,73 @@
         <v>74</v>
       </c>
       <c r="M33">
-        <v>47.3072</v>
+        <v>49.879</v>
       </c>
       <c r="N33">
-        <v>22.3484</v>
+        <v>22.3256</v>
       </c>
       <c r="O33">
-        <v>22.0901</v>
+        <v>25.2135</v>
       </c>
       <c r="P33">
-        <v>39.7215</v>
+        <v>41.188</v>
       </c>
       <c r="Q33">
-        <v>47.30690000000001</v>
+        <v>49.8795</v>
       </c>
       <c r="R33">
-        <v>99.99930000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S33">
-        <v>39.7215</v>
+        <v>41.188</v>
       </c>
       <c r="T33">
-        <v>37.0266</v>
+        <v>41.0666</v>
       </c>
       <c r="U33">
-        <v>13.7725</v>
+        <v>20.8753</v>
       </c>
       <c r="V33">
-        <v>17.6983</v>
+        <v>20.1342</v>
       </c>
       <c r="W33">
-        <v>11.7411</v>
+        <v>11.6077</v>
       </c>
       <c r="X33">
-        <v>15.6612</v>
+        <v>15.3207</v>
       </c>
       <c r="Y33">
-        <v>15.6612</v>
+        <v>15.3207</v>
       </c>
       <c r="Z33">
-        <v>15.6577</v>
+        <v>15.3207</v>
       </c>
       <c r="AA33">
-        <v>19.6045</v>
+        <v>25.2135</v>
       </c>
       <c r="AB33">
-        <v>22.0901</v>
+        <v>21.508</v>
       </c>
       <c r="AC33">
-        <v>14.3406</v>
+        <v>12.9534</v>
       </c>
       <c r="AD33">
-        <v>22.3484</v>
+        <v>22.3256</v>
       </c>
       <c r="AE33">
-        <v>22.3484</v>
+        <v>22.3256</v>
       </c>
       <c r="AF33">
-        <v>22.3484</v>
+        <v>22.3256</v>
       </c>
       <c r="AG33">
-        <v>0.689239</v>
+        <v>0.689667</v>
       </c>
       <c r="AH33">
-        <v>0.214893</v>
+        <v>0.214919</v>
       </c>
       <c r="AI33">
-        <v>0.0278534</v>
+        <v>0.0278638</v>
       </c>
       <c r="AJ33" s="2" t="s">
         <v>62</v>
@@ -5766,34 +5766,34 @@
         <v>62</v>
       </c>
       <c r="AN33">
-        <v>0.210909</v>
+        <v>0.210936</v>
       </c>
       <c r="AO33">
-        <v>869.292</v>
+        <v>872.437</v>
       </c>
       <c r="AP33">
-        <v>834.4480000000001</v>
+        <v>837.239</v>
       </c>
       <c r="AQ33">
-        <v>888.013</v>
+        <v>892.076</v>
       </c>
       <c r="AR33">
-        <v>755.348</v>
+        <v>756.812</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT33">
-        <v>727.522</v>
+        <v>729.8480000000001</v>
       </c>
       <c r="AU33">
-        <v>781.424</v>
+        <v>785.5309999999999</v>
       </c>
       <c r="AV33">
-        <v>745.505</v>
+        <v>747.226</v>
       </c>
       <c r="AW33">
-        <v>802.652</v>
+        <v>806.6920000000001</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>63</v>
@@ -5836,74 +5836,74 @@
       <c r="L34" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="3">
-        <v>46.9435</v>
+      <c r="M34">
+        <v>49.5639</v>
       </c>
       <c r="N34">
-        <v>18.5775</v>
+        <v>18.533</v>
       </c>
       <c r="O34">
-        <v>19.058</v>
+        <v>22.3332</v>
       </c>
       <c r="P34">
-        <v>33.6786</v>
+        <v>35.0743</v>
       </c>
       <c r="Q34">
-        <v>46.9438</v>
+        <v>49.565</v>
       </c>
       <c r="R34">
-        <v>100.001</v>
+        <v>100.002</v>
       </c>
       <c r="S34">
-        <v>33.6786</v>
+        <v>35.0743</v>
       </c>
       <c r="T34">
-        <v>30.622</v>
+        <v>34.6379</v>
       </c>
       <c r="U34">
-        <v>13.7144</v>
+        <v>20.3344</v>
       </c>
       <c r="V34">
-        <v>17.0889</v>
+        <v>18.3417</v>
       </c>
       <c r="W34">
-        <v>10.6969</v>
+        <v>10.6588</v>
       </c>
       <c r="X34">
-        <v>13.7514</v>
+        <v>13.52</v>
       </c>
       <c r="Y34">
-        <v>13.7514</v>
+        <v>13.52</v>
       </c>
       <c r="Z34">
-        <v>13.7513</v>
+        <v>13.5201</v>
       </c>
       <c r="AA34">
-        <v>17.642</v>
+        <v>22.3332</v>
       </c>
       <c r="AB34">
-        <v>19.058</v>
+        <v>18.9228</v>
       </c>
       <c r="AC34">
-        <v>12.4631</v>
+        <v>11.4533</v>
       </c>
       <c r="AD34">
-        <v>18.5775</v>
+        <v>18.533</v>
       </c>
       <c r="AE34">
-        <v>18.5775</v>
+        <v>18.533</v>
       </c>
       <c r="AF34">
-        <v>18.5775</v>
+        <v>18.533</v>
       </c>
       <c r="AG34">
-        <v>0.841185</v>
+        <v>0.841174</v>
       </c>
       <c r="AH34">
-        <v>0.282048</v>
+        <v>0.282407</v>
       </c>
       <c r="AI34">
-        <v>0.03203719999999999</v>
+        <v>0.03204899999999999</v>
       </c>
       <c r="AJ34" s="2" t="s">
         <v>62</v>
@@ -5918,34 +5918,34 @@
         <v>62</v>
       </c>
       <c r="AN34">
-        <v>0.277299</v>
+        <v>0.277658</v>
       </c>
       <c r="AO34">
-        <v>868.492</v>
+        <v>871.4630000000001</v>
       </c>
       <c r="AP34">
-        <v>831.8670000000001</v>
+        <v>834.265</v>
       </c>
       <c r="AQ34">
-        <v>884.422</v>
+        <v>888.4470000000001</v>
       </c>
       <c r="AR34">
-        <v>749.303</v>
+        <v>750.7030000000001</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT34">
-        <v>725.8620000000001</v>
+        <v>727.825</v>
       </c>
       <c r="AU34">
-        <v>778.702</v>
+        <v>782.7170000000001</v>
       </c>
       <c r="AV34">
-        <v>740.938</v>
+        <v>742.501</v>
       </c>
       <c r="AW34">
-        <v>796.247</v>
+        <v>800.263</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>63</v>
@@ -6123,7 +6123,7 @@
         <v>46.89210000000001</v>
       </c>
       <c r="R36" s="1">
-        <v>99.996</v>
+        <v>99.9954</v>
       </c>
       <c r="S36" s="1">
         <v>25.2955</v>
@@ -6168,10 +6168,10 @@
         <v>12.0785</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.685511</v>
+        <v>0.685451</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.159772</v>
+        <v>0.157639</v>
       </c>
       <c r="AI36" s="1">
         <v>5.672E-06</v>
@@ -6189,10 +6189,10 @@
         <v>62</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.159983</v>
+        <v>0.15785</v>
       </c>
       <c r="AO36" s="1">
-        <v>868.492</v>
+        <v>868.682</v>
       </c>
       <c r="AP36" s="1">
         <v>828.1129999999999</v>
@@ -6227,64 +6227,64 @@
         <v>125</v>
       </c>
       <c r="M37" s="1">
-        <v>51.1735</v>
+        <v>52.7629</v>
       </c>
       <c r="N37" s="1">
-        <v>23.5543</v>
+        <v>23.5472</v>
       </c>
       <c r="O37" s="1">
-        <v>23.7813</v>
+        <v>26.8866</v>
       </c>
       <c r="P37" s="1">
-        <v>51.2709</v>
+        <v>53.9271</v>
       </c>
       <c r="Q37" s="1">
-        <v>51.1734</v>
+        <v>52.7629</v>
       </c>
       <c r="R37" s="1">
-        <v>100.004</v>
+        <v>100.002</v>
       </c>
       <c r="S37" s="1">
-        <v>51.2709</v>
+        <v>52.6621</v>
       </c>
       <c r="T37" s="1">
-        <v>50.13800000000001</v>
+        <v>53.9271</v>
       </c>
       <c r="U37" s="1">
-        <v>15.9595</v>
+        <v>26.6711</v>
       </c>
       <c r="V37" s="1">
-        <v>22.6436</v>
+        <v>24.0241</v>
       </c>
       <c r="W37" s="1">
-        <v>14.1067</v>
+        <v>14.0104</v>
       </c>
       <c r="X37" s="1">
-        <v>20.9637</v>
+        <v>20.6</v>
       </c>
       <c r="Y37" s="1">
-        <v>20.9637</v>
+        <v>20.6</v>
       </c>
       <c r="Z37" s="1">
-        <v>20.9632</v>
+        <v>20.5999</v>
       </c>
       <c r="AA37" s="1">
-        <v>19.6045</v>
+        <v>26.8866</v>
       </c>
       <c r="AB37" s="1">
-        <v>23.7813</v>
+        <v>23.1303</v>
       </c>
       <c r="AC37" s="1">
-        <v>14.5547</v>
+        <v>13.9704</v>
       </c>
       <c r="AD37" s="1">
-        <v>23.5543</v>
+        <v>23.5472</v>
       </c>
       <c r="AE37" s="1">
-        <v>23.5543</v>
+        <v>23.5472</v>
       </c>
       <c r="AF37" s="1">
-        <v>23.5543</v>
+        <v>23.5472</v>
       </c>
       <c r="AG37" s="1">
         <v>0.853286</v>
@@ -6293,7 +6293,7 @@
         <v>0.375274</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.0700832</v>
+        <v>0.0701579</v>
       </c>
       <c r="AJ37" s="1" t="s">
         <v>62</v>
@@ -6311,31 +6311,31 @@
         <v>0.367144</v>
       </c>
       <c r="AO37" s="1">
-        <v>876.427</v>
+        <v>879.5260000000001</v>
       </c>
       <c r="AP37" s="1">
-        <v>839.0120000000001</v>
+        <v>842.369</v>
       </c>
       <c r="AQ37" s="1">
-        <v>900.129</v>
+        <v>903.941</v>
       </c>
       <c r="AR37" s="1">
-        <v>766.896</v>
+        <v>768.287</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT37" s="1">
-        <v>727.703</v>
+        <v>730.1850000000001</v>
       </c>
       <c r="AU37" s="1">
-        <v>788.28</v>
+        <v>792.4910000000001</v>
       </c>
       <c r="AV37" s="1">
-        <v>751.062</v>
+        <v>753.1</v>
       </c>
       <c r="AW37" s="1">
-        <v>815.763</v>
+        <v>819.552</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>62</v>
@@ -6381,73 +6381,73 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>48.97731818181819</v>
+        <v>50.1050878787879</v>
       </c>
       <c r="N42" s="1">
-        <v>17.51131515151515</v>
+        <v>17.49328484848485</v>
       </c>
       <c r="O42" s="1">
-        <v>18.48031515151515</v>
+        <v>20.43595757575758</v>
       </c>
       <c r="P42" s="1">
-        <v>35.69261515151515</v>
+        <v>37.1721696969697</v>
       </c>
       <c r="Q42" s="1">
-        <v>48.97703030303031</v>
+        <v>50.10476060606062</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99936969696972</v>
+        <v>99.99924545454547</v>
       </c>
       <c r="S42" s="1">
-        <v>35.54306363636363</v>
+        <v>36.46020606060607</v>
       </c>
       <c r="T42" s="1">
-        <v>34.52018484848485</v>
+        <v>36.56551515151514</v>
       </c>
       <c r="U42" s="1">
-        <v>13.43905151515152</v>
+        <v>17.58009696969697</v>
       </c>
       <c r="V42" s="1">
-        <v>17.29733333333333</v>
+        <v>17.90630303030303</v>
       </c>
       <c r="W42" s="1">
-        <v>10.91353424242424</v>
+        <v>10.92100484848485</v>
       </c>
       <c r="X42" s="1">
-        <v>15.31747575757575</v>
+        <v>15.22124545454545</v>
       </c>
       <c r="Y42" s="1">
-        <v>15.31747575757575</v>
+        <v>15.22124545454545</v>
       </c>
       <c r="Z42" s="1">
-        <v>15.31840606060606</v>
+        <v>15.22054545454546</v>
       </c>
       <c r="AA42" s="1">
-        <v>15.92265454545455</v>
+        <v>18.62002424242424</v>
       </c>
       <c r="AB42" s="1">
-        <v>17.69224242424242</v>
+        <v>17.76998484848485</v>
       </c>
       <c r="AC42" s="1">
-        <v>11.02583909090909</v>
+        <v>10.60744272727273</v>
       </c>
       <c r="AD42" s="1">
-        <v>17.04841212121212</v>
+        <v>17.04694242424243</v>
       </c>
       <c r="AE42" s="1">
-        <v>17.04841212121212</v>
+        <v>17.04694242424243</v>
       </c>
       <c r="AF42" s="1">
-        <v>17.04841212121212</v>
+        <v>17.04694242424243</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7692103333333332</v>
+        <v>0.7693257575757575</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.2282118787878788</v>
+        <v>0.2275253333333333</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.01460402082181818</v>
+        <v>0.01461307866</v>
       </c>
       <c r="AJ42" s="1" t="s">
         <v>62</v>
@@ -6462,34 +6462,34 @@
         <v>62</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.226548</v>
+        <v>0.2258614545454546</v>
       </c>
       <c r="AO42" s="1">
-        <v>872.2009393939392</v>
+        <v>873.8095454545456</v>
       </c>
       <c r="AP42" s="1">
-        <v>832.4185757575757</v>
+        <v>833.8537878787879</v>
       </c>
       <c r="AQ42" s="1">
-        <v>889.00903030303</v>
+        <v>891.0535757575757</v>
       </c>
       <c r="AR42" s="1">
-        <v>751.1684242424244</v>
+        <v>752.0852121212123</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT42" s="1">
-        <v>724.3420606060606</v>
+        <v>725.3916666666668</v>
       </c>
       <c r="AU42" s="1">
-        <v>781.2353939393939</v>
+        <v>783.3105454545454</v>
       </c>
       <c r="AV42" s="1">
-        <v>740.5577575757575</v>
+        <v>741.6003939393938</v>
       </c>
       <c r="AW42" s="1">
-        <v>800.1452424242423</v>
+        <v>802.1905757575755</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>62</v>
@@ -6500,73 +6500,73 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>1.164987701965144</v>
+        <v>1.546417705881951</v>
       </c>
       <c r="N43" s="1">
-        <v>2.904831102597691</v>
+        <v>2.903267594856903</v>
       </c>
       <c r="O43" s="1">
-        <v>2.408680354294519</v>
+        <v>3.236113259716868</v>
       </c>
       <c r="P43" s="1">
-        <v>6.475539785204816</v>
+        <v>6.741580651246673</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.16502063487639</v>
+        <v>1.54644394698786</v>
       </c>
       <c r="R43" s="1">
-        <v>0.001538886816971796</v>
+        <v>0.001701174444423335</v>
       </c>
       <c r="S43" s="1">
-        <v>6.555870793687607</v>
+        <v>6.625288237020306</v>
       </c>
       <c r="T43" s="1">
-        <v>6.521900854771361</v>
+        <v>6.962280468662255</v>
       </c>
       <c r="U43" s="1">
-        <v>1.486271096263603</v>
+        <v>4.698333961418784</v>
       </c>
       <c r="V43" s="1">
-        <v>2.383102754262546</v>
+        <v>2.612638364320269</v>
       </c>
       <c r="W43" s="1">
-        <v>1.494634523298772</v>
+        <v>1.504742516943581</v>
       </c>
       <c r="X43" s="1">
-        <v>2.751653365791722</v>
+        <v>2.720070996855391</v>
       </c>
       <c r="Y43" s="1">
-        <v>2.751653365791722</v>
+        <v>2.720070996855391</v>
       </c>
       <c r="Z43" s="1">
-        <v>2.751103893254201</v>
+        <v>2.719858813747831</v>
       </c>
       <c r="AA43" s="1">
-        <v>1.720958053138181</v>
+        <v>3.608849650262557</v>
       </c>
       <c r="AB43" s="1">
-        <v>2.750730211155544</v>
+        <v>2.56212711736323</v>
       </c>
       <c r="AC43" s="1">
-        <v>1.715545452839935</v>
+        <v>1.540536339430097</v>
       </c>
       <c r="AD43" s="1">
-        <v>3.05318409034733</v>
+        <v>3.05001793378039</v>
       </c>
       <c r="AE43" s="1">
-        <v>3.05318409034733</v>
+        <v>3.05001793378039</v>
       </c>
       <c r="AF43" s="1">
-        <v>3.05318409034733</v>
+        <v>3.05001793378039</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.074894915289101</v>
+        <v>0.07480847915684032</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.05348920453175438</v>
+        <v>0.05370681099951266</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.02190215854057433</v>
+        <v>0.02191326229344263</v>
       </c>
       <c r="AJ43" s="1" t="s">
         <v>62</v>
@@ -6581,34 +6581,34 @@
         <v>62</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.0514053137018721</v>
+        <v>0.05161516539891183</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.36702408661805</v>
+        <v>2.846010222632355</v>
       </c>
       <c r="AP43" s="1">
-        <v>2.80269473175591</v>
+        <v>3.307851914511585</v>
       </c>
       <c r="AQ43" s="1">
-        <v>4.746386086052165</v>
+        <v>5.247743624964134</v>
       </c>
       <c r="AR43" s="1">
-        <v>6.555732139175936</v>
+        <v>6.625136900850018</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.153242867121998</v>
+        <v>2.473129812748833</v>
       </c>
       <c r="AU43" s="1">
-        <v>2.965153079388263</v>
+        <v>3.692855642099807</v>
       </c>
       <c r="AV43" s="1">
-        <v>4.719970807757075</v>
+        <v>4.867545109217413</v>
       </c>
       <c r="AW43" s="1">
-        <v>6.521911102282764</v>
+        <v>6.962318209499011</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>62</v>
@@ -6619,73 +6619,73 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>2.378626975124214</v>
+        <v>3.086348655096623</v>
       </c>
       <c r="N44" s="1">
-        <v>16.58830920158703</v>
+        <v>16.59646898797492</v>
       </c>
       <c r="O44" s="1">
-        <v>13.03376232789535</v>
+        <v>15.83538842121962</v>
       </c>
       <c r="P44" s="1">
-        <v>18.14251983979361</v>
+        <v>18.1360967256002</v>
       </c>
       <c r="Q44" s="1">
-        <v>2.378708197839238</v>
+        <v>3.086421186893773</v>
       </c>
       <c r="R44" s="1">
-        <v>0.001538896516683174</v>
+        <v>0.001701187280654635</v>
       </c>
       <c r="S44" s="1">
-        <v>18.44486693876434</v>
+        <v>18.17128577388565</v>
       </c>
       <c r="T44" s="1">
-        <v>18.89300675357658</v>
+        <v>19.04056442200504</v>
       </c>
       <c r="U44" s="1">
-        <v>11.05934518212052</v>
+        <v>26.72530174047025</v>
       </c>
       <c r="V44" s="1">
-        <v>13.77728409540515</v>
+        <v>14.5906073403252</v>
       </c>
       <c r="W44" s="1">
-        <v>13.69523831692094</v>
+        <v>13.77842550040022</v>
       </c>
       <c r="X44" s="1">
-        <v>17.9641437619433</v>
+        <v>17.87022622411695</v>
       </c>
       <c r="Y44" s="1">
-        <v>17.9641437619433</v>
+        <v>17.87022622411695</v>
       </c>
       <c r="Z44" s="1">
-        <v>17.95946577189347</v>
+        <v>17.86965402698872</v>
       </c>
       <c r="AA44" s="1">
-        <v>10.80823582666663</v>
+        <v>19.38155183514789</v>
       </c>
       <c r="AB44" s="1">
-        <v>15.54766289764611</v>
+        <v>14.41828532330847</v>
       </c>
       <c r="AC44" s="1">
-        <v>15.55931878467571</v>
+        <v>14.5231643388395</v>
       </c>
       <c r="AD44" s="1">
-        <v>17.90890593586995</v>
+        <v>17.89187678280044</v>
       </c>
       <c r="AE44" s="1">
-        <v>17.90890593586995</v>
+        <v>17.89187678280044</v>
       </c>
       <c r="AF44" s="1">
-        <v>17.90890593586995</v>
+        <v>17.89187678280044</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.73659765652754</v>
+        <v>9.723901535881403</v>
       </c>
       <c r="AH44" s="1">
-        <v>23.43839629026155</v>
+        <v>23.60476093483187</v>
       </c>
       <c r="AI44" s="1">
-        <v>149.9734820143014</v>
+        <v>149.9565067929541</v>
       </c>
       <c r="AJ44" s="1" t="s">
         <v>62</v>
@@ -6700,34 +6700,34 @@
         <v>62</v>
       </c>
       <c r="AN44" s="1">
-        <v>22.69069411421513</v>
+        <v>22.85257814476896</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.271385179688388</v>
+        <v>0.3257014343041874</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.3366929587323548</v>
+        <v>0.3966944760095551</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.5338962737458695</v>
+        <v>0.5889369357507478</v>
       </c>
       <c r="AR44" s="1">
-        <v>0.8727379809378416</v>
+        <v>0.8809024288835846</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.2972687883567564</v>
+        <v>0.340937169034958</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.3795466900746041</v>
+        <v>0.4714420945216419</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.6373535027447513</v>
+        <v>0.6563568667164442</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.8150909055614685</v>
+        <v>0.8679132390609193</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>62</v>

--- a/dca_mission_timing_pre_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_pre_tsmc2p_meas.xlsx
@@ -1733,73 +1733,73 @@
         <v>74</v>
       </c>
       <c r="M7">
-        <v>50.9729</v>
+        <v>49.9091</v>
       </c>
       <c r="N7">
-        <v>14.7496</v>
+        <v>16.2858</v>
       </c>
       <c r="O7">
-        <v>19.6716</v>
+        <v>19.6591</v>
       </c>
       <c r="P7">
-        <v>33.7978</v>
+        <v>34.6471</v>
       </c>
       <c r="Q7">
-        <v>50.9719</v>
+        <v>49.9102</v>
       </c>
       <c r="R7">
-        <v>99.998</v>
+        <v>100.002</v>
       </c>
       <c r="S7">
-        <v>32.8266</v>
+        <v>34.6471</v>
       </c>
       <c r="T7">
-        <v>33.7978</v>
+        <v>34.5562</v>
       </c>
       <c r="U7">
-        <v>19.4933</v>
+        <v>19.4932</v>
       </c>
       <c r="V7">
-        <v>16.4793</v>
+        <v>16.4901</v>
       </c>
       <c r="W7">
-        <v>9.655670000000001</v>
+        <v>9.524100000000001</v>
       </c>
       <c r="X7">
-        <v>13.1766</v>
+        <v>16.2857</v>
       </c>
       <c r="Y7">
-        <v>13.1766</v>
+        <v>16.2857</v>
       </c>
       <c r="Z7">
-        <v>13.174</v>
+        <v>16.2858</v>
       </c>
       <c r="AA7">
-        <v>19.6716</v>
+        <v>19.6591</v>
       </c>
       <c r="AB7">
-        <v>16.0306</v>
+        <v>16.0285</v>
       </c>
       <c r="AC7">
-        <v>8.96719</v>
+        <v>8.805280000000002</v>
       </c>
       <c r="AD7">
-        <v>14.7496</v>
+        <v>16.1566</v>
       </c>
       <c r="AE7">
-        <v>14.7496</v>
+        <v>16.1566</v>
       </c>
       <c r="AF7">
-        <v>14.7496</v>
+        <v>16.1566</v>
       </c>
       <c r="AG7">
-        <v>0.692924</v>
+        <v>0.692994</v>
       </c>
       <c r="AH7">
-        <v>0.190289</v>
+        <v>0.189438</v>
       </c>
       <c r="AI7">
-        <v>0.000521408</v>
+        <v>0.0005205850000000001</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>62</v>
@@ -1814,34 +1814,34 @@
         <v>62</v>
       </c>
       <c r="AN7">
-        <v>0.190206</v>
+        <v>0.189356</v>
       </c>
       <c r="AO7">
-        <v>874.399</v>
+        <v>874.4069999999999</v>
       </c>
       <c r="AP7">
-        <v>833.154</v>
+        <v>833.151</v>
       </c>
       <c r="AQ7">
-        <v>889.812</v>
+        <v>889.774</v>
       </c>
       <c r="AR7">
-        <v>748.45</v>
+        <v>750.273</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT7">
-        <v>725.3330000000001</v>
+        <v>725.3349999999999</v>
       </c>
       <c r="AU7">
-        <v>783.147</v>
+        <v>783.149</v>
       </c>
       <c r="AV7">
-        <v>739.318</v>
+        <v>739.293</v>
       </c>
       <c r="AW7">
-        <v>799.423</v>
+        <v>800.181</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>63</v>
@@ -1885,73 +1885,73 @@
         <v>76</v>
       </c>
       <c r="M8">
-        <v>51.0401</v>
+        <v>50.1521</v>
       </c>
       <c r="N8">
-        <v>13.06</v>
+        <v>14.2338</v>
       </c>
       <c r="O8">
-        <v>18.8581</v>
+        <v>18.8511</v>
       </c>
       <c r="P8">
-        <v>29.2357</v>
+        <v>29.8587</v>
       </c>
       <c r="Q8">
-        <v>51.041</v>
+        <v>50.1518</v>
       </c>
       <c r="R8">
-        <v>100.002</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S8">
-        <v>28.1948</v>
+        <v>29.7094</v>
       </c>
       <c r="T8">
-        <v>29.2357</v>
+        <v>29.8587</v>
       </c>
       <c r="U8">
-        <v>18.8581</v>
+        <v>18.8511</v>
       </c>
       <c r="V8">
-        <v>15.2031</v>
+        <v>15.2125</v>
       </c>
       <c r="W8">
-        <v>9.00895</v>
+        <v>8.884600000000001</v>
       </c>
       <c r="X8">
-        <v>11.6196</v>
+        <v>14.2324</v>
       </c>
       <c r="Y8">
-        <v>11.6196</v>
+        <v>14.2324</v>
       </c>
       <c r="Z8">
-        <v>11.6184</v>
+        <v>14.2298</v>
       </c>
       <c r="AA8">
-        <v>18.2921</v>
+        <v>18.2814</v>
       </c>
       <c r="AB8">
-        <v>14.8197</v>
+        <v>14.8196</v>
       </c>
       <c r="AC8">
-        <v>8.370039999999999</v>
+        <v>8.20234</v>
       </c>
       <c r="AD8">
-        <v>13.06</v>
+        <v>14.2338</v>
       </c>
       <c r="AE8">
-        <v>13.06</v>
+        <v>14.2338</v>
       </c>
       <c r="AF8">
-        <v>13.06</v>
+        <v>14.2338</v>
       </c>
       <c r="AG8">
-        <v>0.843784</v>
+        <v>0.8439720000000001</v>
       </c>
       <c r="AH8">
-        <v>0.257578</v>
+        <v>0.256379</v>
       </c>
       <c r="AI8">
-        <v>0.000661979</v>
+        <v>0.0006609130000000001</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>62</v>
@@ -1966,34 +1966,34 @@
         <v>62</v>
       </c>
       <c r="AN8">
-        <v>0.257578</v>
+        <v>0.256378</v>
       </c>
       <c r="AO8">
-        <v>872.976</v>
+        <v>872.9739999999999</v>
       </c>
       <c r="AP8">
-        <v>830.752</v>
+        <v>830.751</v>
       </c>
       <c r="AQ8">
-        <v>886.648</v>
+        <v>886.614</v>
       </c>
       <c r="AR8">
-        <v>743.822</v>
+        <v>745.332</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT8">
-        <v>724</v>
+        <v>723.999</v>
       </c>
       <c r="AU8">
         <v>780.854</v>
       </c>
       <c r="AV8">
-        <v>736.106</v>
+        <v>736.081</v>
       </c>
       <c r="AW8">
-        <v>794.861</v>
+        <v>795.4839999999999</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>63</v>
@@ -2037,73 +2037,73 @@
         <v>74</v>
       </c>
       <c r="M9">
-        <v>51.0539</v>
+        <v>49.9313</v>
       </c>
       <c r="N9">
-        <v>16.9201</v>
+        <v>18.4414</v>
       </c>
       <c r="O9">
-        <v>23.2832</v>
+        <v>23.2802</v>
       </c>
       <c r="P9">
-        <v>34.9603</v>
+        <v>35.8021</v>
       </c>
       <c r="Q9">
-        <v>51.0523</v>
+        <v>49.9311</v>
       </c>
       <c r="R9">
-        <v>99.99680000000001</v>
+        <v>99.9996</v>
       </c>
       <c r="S9">
-        <v>33.9076</v>
+        <v>35.8021</v>
       </c>
       <c r="T9">
-        <v>34.9603</v>
+        <v>35.7354</v>
       </c>
       <c r="U9">
-        <v>23.2832</v>
+        <v>23.2802</v>
       </c>
       <c r="V9">
-        <v>19.292</v>
+        <v>19.3013</v>
       </c>
       <c r="W9">
-        <v>11.7904</v>
+        <v>11.6461</v>
       </c>
       <c r="X9">
-        <v>14.6824</v>
+        <v>18.014</v>
       </c>
       <c r="Y9">
-        <v>14.6824</v>
+        <v>18.014</v>
       </c>
       <c r="Z9">
-        <v>14.6759</v>
+        <v>18.014</v>
       </c>
       <c r="AA9">
-        <v>22.3726</v>
+        <v>22.3656</v>
       </c>
       <c r="AB9">
-        <v>18.9368</v>
+        <v>18.9299</v>
       </c>
       <c r="AC9">
-        <v>11.2108</v>
+        <v>11.0114</v>
       </c>
       <c r="AD9">
-        <v>16.9201</v>
+        <v>18.4414</v>
       </c>
       <c r="AE9">
-        <v>16.9201</v>
+        <v>18.4414</v>
       </c>
       <c r="AF9">
-        <v>16.9201</v>
+        <v>18.4414</v>
       </c>
       <c r="AG9">
-        <v>0.685451</v>
+        <v>0.685427</v>
       </c>
       <c r="AH9">
-        <v>0.285473</v>
+        <v>0.284226</v>
       </c>
       <c r="AI9">
-        <v>0.0619144</v>
+        <v>0.0617844</v>
       </c>
       <c r="AJ9" s="2" t="s">
         <v>62</v>
@@ -2118,34 +2118,34 @@
         <v>62</v>
       </c>
       <c r="AN9">
-        <v>0.2785299999999999</v>
+        <v>0.277282</v>
       </c>
       <c r="AO9">
-        <v>873.532</v>
+        <v>873.5350000000001</v>
       </c>
       <c r="AP9">
         <v>833.4299999999999</v>
       </c>
       <c r="AQ9">
-        <v>890.212</v>
+        <v>890.163</v>
       </c>
       <c r="AR9">
-        <v>749.529</v>
+        <v>751.427</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT9">
-        <v>725.446</v>
+        <v>725.447</v>
       </c>
       <c r="AU9">
-        <v>783.186</v>
+        <v>783.187</v>
       </c>
       <c r="AV9">
-        <v>740.298</v>
+        <v>740.2660000000001</v>
       </c>
       <c r="AW9">
-        <v>800.585</v>
+        <v>801.36</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>63</v>
@@ -2189,73 +2189,73 @@
         <v>76</v>
       </c>
       <c r="M10">
-        <v>51.1203</v>
+        <v>50.1242</v>
       </c>
       <c r="N10">
-        <v>15.2371</v>
+        <v>16.5046</v>
       </c>
       <c r="O10">
-        <v>22.3954</v>
+        <v>22.3877</v>
       </c>
       <c r="P10">
-        <v>31.4588</v>
+        <v>32.1001</v>
       </c>
       <c r="Q10">
-        <v>51.118</v>
+        <v>50.1243</v>
       </c>
       <c r="R10">
-        <v>99.9954</v>
+        <v>100</v>
       </c>
       <c r="S10">
-        <v>30.3345</v>
+        <v>31.9775</v>
       </c>
       <c r="T10">
-        <v>31.4588</v>
+        <v>32.1001</v>
       </c>
       <c r="U10">
-        <v>22.3954</v>
+        <v>22.3877</v>
       </c>
       <c r="V10">
-        <v>18.0904</v>
+        <v>18.1012</v>
       </c>
       <c r="W10">
-        <v>11.2356</v>
+        <v>11.0986</v>
       </c>
       <c r="X10">
-        <v>13.2849</v>
+        <v>16.1312</v>
       </c>
       <c r="Y10">
-        <v>13.2849</v>
+        <v>16.1312</v>
       </c>
       <c r="Z10">
-        <v>13.2814</v>
+        <v>16.1313</v>
       </c>
       <c r="AA10">
-        <v>21.0235</v>
+        <v>21.0209</v>
       </c>
       <c r="AB10">
-        <v>17.7604</v>
+        <v>17.757</v>
       </c>
       <c r="AC10">
-        <v>10.6448</v>
+        <v>10.4458</v>
       </c>
       <c r="AD10">
-        <v>15.2371</v>
+        <v>16.5046</v>
       </c>
       <c r="AE10">
-        <v>15.2371</v>
+        <v>16.5046</v>
       </c>
       <c r="AF10">
-        <v>15.2371</v>
+        <v>16.5046</v>
       </c>
       <c r="AG10">
-        <v>0.835938</v>
+        <v>0.836408</v>
       </c>
       <c r="AH10">
-        <v>0.372403</v>
+        <v>0.370582</v>
       </c>
       <c r="AI10">
-        <v>0.0701579</v>
+        <v>0.0700079</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>62</v>
@@ -2270,34 +2270,34 @@
         <v>62</v>
       </c>
       <c r="AN10">
-        <v>0.364274</v>
+        <v>0.362453</v>
       </c>
       <c r="AO10">
-        <v>872.6</v>
+        <v>872.602</v>
       </c>
       <c r="AP10">
-        <v>831.6900000000001</v>
+        <v>831.693</v>
       </c>
       <c r="AQ10">
-        <v>887.944</v>
+        <v>887.9</v>
       </c>
       <c r="AR10">
-        <v>745.957</v>
+        <v>747.602</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT10">
-        <v>724.5029999999999</v>
+        <v>724.509</v>
       </c>
       <c r="AU10">
-        <v>781.548</v>
+        <v>781.542</v>
       </c>
       <c r="AV10">
-        <v>737.841</v>
+        <v>737.813</v>
       </c>
       <c r="AW10">
-        <v>797.0840000000001</v>
+        <v>797.725</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>63</v>
@@ -2949,73 +2949,73 @@
         <v>74</v>
       </c>
       <c r="M15">
-        <v>51.268</v>
+        <v>49.9523</v>
       </c>
       <c r="N15">
-        <v>21.8138</v>
+        <v>25.5669</v>
       </c>
       <c r="O15">
-        <v>23.1875</v>
+        <v>25.5649</v>
       </c>
       <c r="P15">
-        <v>53.9271</v>
+        <v>55.6219</v>
       </c>
       <c r="Q15">
-        <v>51.2671</v>
+        <v>49.9511</v>
       </c>
       <c r="R15">
-        <v>99.9982</v>
+        <v>99.99769999999999</v>
       </c>
       <c r="S15">
-        <v>52.6621</v>
+        <v>55.6219</v>
       </c>
       <c r="T15">
-        <v>53.9271</v>
+        <v>55.5717</v>
       </c>
       <c r="U15">
-        <v>22.8522</v>
+        <v>22.8618</v>
       </c>
       <c r="V15">
-        <v>22.3356</v>
+        <v>22.3614</v>
       </c>
       <c r="W15">
-        <v>12.7924</v>
+        <v>12.6524</v>
       </c>
       <c r="X15">
-        <v>20.0325</v>
+        <v>25.5649</v>
       </c>
       <c r="Y15">
-        <v>20.0325</v>
+        <v>25.5649</v>
       </c>
       <c r="Z15">
-        <v>20.0325</v>
+        <v>25.5669</v>
       </c>
       <c r="AA15">
-        <v>23.1875</v>
+        <v>23.2027</v>
       </c>
       <c r="AB15">
-        <v>20.5401</v>
+        <v>20.6066</v>
       </c>
       <c r="AC15">
-        <v>11.6758</v>
+        <v>11.525</v>
       </c>
       <c r="AD15">
-        <v>21.8138</v>
+        <v>25.1626</v>
       </c>
       <c r="AE15">
-        <v>21.8138</v>
+        <v>25.1626</v>
       </c>
       <c r="AF15">
-        <v>21.8138</v>
+        <v>25.1626</v>
       </c>
       <c r="AG15">
-        <v>0.700669</v>
+        <v>0.695952</v>
       </c>
       <c r="AH15">
-        <v>0.157639</v>
+        <v>0.156438</v>
       </c>
       <c r="AI15">
-        <v>5.73668E-06</v>
+        <v>5.7252E-06</v>
       </c>
       <c r="AJ15" s="2" t="s">
         <v>62</v>
@@ -3030,34 +3030,34 @@
         <v>62</v>
       </c>
       <c r="AN15">
-        <v>0.15785</v>
+        <v>0.156648</v>
       </c>
       <c r="AO15">
-        <v>879.3729999999999</v>
+        <v>879.3680000000001</v>
       </c>
       <c r="AP15">
-        <v>842.369</v>
+        <v>842.37</v>
       </c>
       <c r="AQ15">
-        <v>903.941</v>
+        <v>903.853</v>
       </c>
       <c r="AR15">
-        <v>768.287</v>
+        <v>771.245</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT15">
-        <v>729.817</v>
+        <v>729.812</v>
       </c>
       <c r="AU15">
-        <v>792.4910000000001</v>
+        <v>792.4880000000001</v>
       </c>
       <c r="AV15">
-        <v>753.1</v>
+        <v>753.048</v>
       </c>
       <c r="AW15">
-        <v>819.552</v>
+        <v>821.197</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>63</v>
@@ -3101,73 +3101,73 @@
         <v>76</v>
       </c>
       <c r="M16">
-        <v>51.1711</v>
+        <v>50.1997</v>
       </c>
       <c r="N16">
-        <v>17.0584</v>
+        <v>19.3119</v>
       </c>
       <c r="O16">
-        <v>20.892</v>
+        <v>20.8856</v>
       </c>
       <c r="P16">
-        <v>40.9551</v>
+        <v>42.1911</v>
       </c>
       <c r="Q16">
-        <v>51.1724</v>
+        <v>50.1988</v>
       </c>
       <c r="R16">
-        <v>100.002</v>
+        <v>99.9984</v>
       </c>
       <c r="S16">
-        <v>39.7811</v>
+        <v>41.99160000000001</v>
       </c>
       <c r="T16">
-        <v>40.9551</v>
+        <v>42.1911</v>
       </c>
       <c r="U16">
-        <v>20.2912</v>
+        <v>20.2928</v>
       </c>
       <c r="V16">
-        <v>18.2705</v>
+        <v>18.2855</v>
       </c>
       <c r="W16">
-        <v>10.5863</v>
+        <v>10.4525</v>
       </c>
       <c r="X16">
-        <v>15.427</v>
+        <v>19.3014</v>
       </c>
       <c r="Y16">
-        <v>15.427</v>
+        <v>19.3014</v>
       </c>
       <c r="Z16">
-        <v>15.4182</v>
+        <v>19.2994</v>
       </c>
       <c r="AA16">
-        <v>20.892</v>
+        <v>20.8856</v>
       </c>
       <c r="AB16">
-        <v>17.4671</v>
+        <v>17.4765</v>
       </c>
       <c r="AC16">
-        <v>9.71452</v>
+        <v>9.55204</v>
       </c>
       <c r="AD16">
-        <v>17.0584</v>
+        <v>19.3119</v>
       </c>
       <c r="AE16">
-        <v>17.0584</v>
+        <v>19.3119</v>
       </c>
       <c r="AF16">
-        <v>17.0584</v>
+        <v>19.3119</v>
       </c>
       <c r="AG16">
-        <v>0.852409</v>
+        <v>0.852095</v>
       </c>
       <c r="AH16">
-        <v>0.204081</v>
+        <v>0.203147</v>
       </c>
       <c r="AI16">
-        <v>1.47297E-05</v>
+        <v>1.47011E-05</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>62</v>
@@ -3182,34 +3182,34 @@
         <v>62</v>
       </c>
       <c r="AN16">
-        <v>0.204052</v>
+        <v>0.203118</v>
       </c>
       <c r="AO16">
-        <v>876.625</v>
+        <v>876.629</v>
       </c>
       <c r="AP16">
-        <v>836.601</v>
+        <v>836.602</v>
       </c>
       <c r="AQ16">
-        <v>894.9920000000001</v>
+        <v>894.9390000000001</v>
       </c>
       <c r="AR16">
-        <v>755.408</v>
+        <v>757.617</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT16">
-        <v>727.2149999999999</v>
+        <v>727.217</v>
       </c>
       <c r="AU16">
-        <v>786.783</v>
+        <v>786.7809999999999</v>
       </c>
       <c r="AV16">
-        <v>744.273</v>
+        <v>744.24</v>
       </c>
       <c r="AW16">
-        <v>806.58</v>
+        <v>807.816</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>63</v>
@@ -3253,73 +3253,73 @@
         <v>74</v>
       </c>
       <c r="M17">
-        <v>51.5032</v>
+        <v>50.3258</v>
       </c>
       <c r="N17">
-        <v>23.5472</v>
+        <v>26.962</v>
       </c>
       <c r="O17">
-        <v>26.8866</v>
+        <v>26.8845</v>
       </c>
       <c r="P17">
-        <v>51.2516</v>
+        <v>52.8594</v>
       </c>
       <c r="Q17">
-        <v>51.5031</v>
+        <v>50.3252</v>
       </c>
       <c r="R17">
-        <v>99.99980000000001</v>
+        <v>99.999</v>
       </c>
       <c r="S17">
-        <v>49.74850000000001</v>
+        <v>52.535</v>
       </c>
       <c r="T17">
-        <v>51.2516</v>
+        <v>52.8594</v>
       </c>
       <c r="U17">
-        <v>26.6711</v>
+        <v>26.6763</v>
       </c>
       <c r="V17">
-        <v>24.0241</v>
+        <v>24.0374</v>
       </c>
       <c r="W17">
-        <v>14.0104</v>
+        <v>13.8434</v>
       </c>
       <c r="X17">
-        <v>20.6</v>
+        <v>26.0698</v>
       </c>
       <c r="Y17">
-        <v>20.6</v>
+        <v>26.0698</v>
       </c>
       <c r="Z17">
-        <v>20.5999</v>
+        <v>26.0686</v>
       </c>
       <c r="AA17">
-        <v>26.8866</v>
+        <v>26.8845</v>
       </c>
       <c r="AB17">
-        <v>23.1303</v>
+        <v>23.1206</v>
       </c>
       <c r="AC17">
-        <v>13.1034</v>
+        <v>12.9068</v>
       </c>
       <c r="AD17">
-        <v>23.5472</v>
+        <v>26.962</v>
       </c>
       <c r="AE17">
-        <v>23.5472</v>
+        <v>26.962</v>
       </c>
       <c r="AF17">
-        <v>23.5472</v>
+        <v>26.962</v>
       </c>
       <c r="AG17">
-        <v>0.693441</v>
+        <v>0.6877259999999999</v>
       </c>
       <c r="AH17">
-        <v>0.16723</v>
+        <v>0.16591</v>
       </c>
       <c r="AI17">
-        <v>0.0023072</v>
+        <v>0.00230248</v>
       </c>
       <c r="AJ17" s="2" t="s">
         <v>62</v>
@@ -3334,34 +3334,34 @@
         <v>62</v>
       </c>
       <c r="AN17">
-        <v>0.166947</v>
+        <v>0.165627</v>
       </c>
       <c r="AO17">
-        <v>877.556</v>
+        <v>877.552</v>
       </c>
       <c r="AP17">
-        <v>840.663</v>
+        <v>840.6690000000001</v>
       </c>
       <c r="AQ17">
-        <v>901.114</v>
+        <v>901.0310000000001</v>
       </c>
       <c r="AR17">
-        <v>765.374</v>
+        <v>768.16</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT17">
-        <v>728.918</v>
+        <v>728.917</v>
       </c>
       <c r="AU17">
-        <v>790.5419999999999</v>
+        <v>790.5409999999999</v>
       </c>
       <c r="AV17">
-        <v>751.09</v>
+        <v>751.0400000000001</v>
       </c>
       <c r="AW17">
-        <v>816.877</v>
+        <v>818.484</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>63</v>
@@ -3405,73 +3405,73 @@
         <v>76</v>
       </c>
       <c r="M18">
-        <v>51.2883</v>
+        <v>50.3</v>
       </c>
       <c r="N18">
-        <v>19.1471</v>
+        <v>21.5761</v>
       </c>
       <c r="O18">
-        <v>23.4748</v>
+        <v>23.4682</v>
       </c>
       <c r="P18">
-        <v>41.2395</v>
+        <v>42.5185</v>
       </c>
       <c r="Q18">
-        <v>51.2863</v>
+        <v>50.3007</v>
       </c>
       <c r="R18">
-        <v>99.996</v>
+        <v>100.001</v>
       </c>
       <c r="S18">
-        <v>39.9566</v>
+        <v>42.2127</v>
       </c>
       <c r="T18">
-        <v>41.2395</v>
+        <v>42.5185</v>
       </c>
       <c r="U18">
-        <v>23.4748</v>
+        <v>23.4682</v>
       </c>
       <c r="V18">
-        <v>20.5559</v>
+        <v>20.5691</v>
       </c>
       <c r="W18">
-        <v>12.0197</v>
+        <v>11.8649</v>
       </c>
       <c r="X18">
-        <v>16.7542</v>
+        <v>20.9069</v>
       </c>
       <c r="Y18">
-        <v>16.7542</v>
+        <v>20.9069</v>
       </c>
       <c r="Z18">
-        <v>16.7543</v>
+        <v>20.908</v>
       </c>
       <c r="AA18">
-        <v>23.169</v>
+        <v>23.1697</v>
       </c>
       <c r="AB18">
-        <v>19.7953</v>
+        <v>19.794</v>
       </c>
       <c r="AC18">
-        <v>11.1858</v>
+        <v>10.9968</v>
       </c>
       <c r="AD18">
-        <v>19.1471</v>
+        <v>21.5761</v>
       </c>
       <c r="AE18">
-        <v>19.1471</v>
+        <v>21.5761</v>
       </c>
       <c r="AF18">
-        <v>19.1471</v>
+        <v>21.5761</v>
       </c>
       <c r="AG18">
-        <v>0.846088</v>
+        <v>0.844769</v>
       </c>
       <c r="AH18">
-        <v>0.219411</v>
+        <v>0.218306</v>
       </c>
       <c r="AI18">
-        <v>0.00261085</v>
+        <v>0.00260543</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>62</v>
@@ -3486,34 +3486,34 @@
         <v>62</v>
       </c>
       <c r="AN18">
-        <v>0.219017</v>
+        <v>0.217912</v>
       </c>
       <c r="AO18">
-        <v>875.552</v>
+        <v>875.551</v>
       </c>
       <c r="AP18">
-        <v>836.284</v>
+        <v>836.2810000000001</v>
       </c>
       <c r="AQ18">
-        <v>894.553</v>
+        <v>894.495</v>
       </c>
       <c r="AR18">
-        <v>755.579</v>
+        <v>757.836</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT18">
-        <v>726.847</v>
+        <v>726.849</v>
       </c>
       <c r="AU18">
-        <v>786.2629999999999</v>
+        <v>786.2670000000001</v>
       </c>
       <c r="AV18">
-        <v>744.385</v>
+        <v>744.346</v>
       </c>
       <c r="AW18">
-        <v>806.864</v>
+        <v>808.143</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>63</v>
@@ -4165,73 +4165,73 @@
         <v>74</v>
       </c>
       <c r="M23">
-        <v>52.1876</v>
+        <v>50.0938</v>
       </c>
       <c r="N23">
-        <v>18.6572</v>
+        <v>23.7282</v>
       </c>
       <c r="O23">
-        <v>23.9599</v>
+        <v>23.9475</v>
       </c>
       <c r="P23">
-        <v>43.2139</v>
+        <v>44.0077</v>
       </c>
       <c r="Q23">
-        <v>52.1883</v>
+        <v>50.09350000000001</v>
       </c>
       <c r="R23">
-        <v>100.001</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S23">
-        <v>41.0229</v>
+        <v>43.9147</v>
       </c>
       <c r="T23">
-        <v>43.2139</v>
+        <v>44.0077</v>
       </c>
       <c r="U23">
-        <v>23.9599</v>
+        <v>23.9475</v>
       </c>
       <c r="V23">
-        <v>20.2571</v>
+        <v>20.2556</v>
       </c>
       <c r="W23">
-        <v>12.2636</v>
+        <v>12.0983</v>
       </c>
       <c r="X23">
-        <v>18.6614</v>
+        <v>23.7287</v>
       </c>
       <c r="Y23">
-        <v>18.6614</v>
+        <v>23.7287</v>
       </c>
       <c r="Z23">
-        <v>18.6572</v>
+        <v>23.7282</v>
       </c>
       <c r="AA23">
-        <v>17.9663</v>
+        <v>17.9743</v>
       </c>
       <c r="AB23">
-        <v>15.7516</v>
+        <v>15.8448</v>
       </c>
       <c r="AC23">
-        <v>9.367760000000001</v>
+        <v>9.250970000000001</v>
       </c>
       <c r="AD23">
-        <v>15.5516</v>
+        <v>17.0489</v>
       </c>
       <c r="AE23">
-        <v>15.5516</v>
+        <v>17.0489</v>
       </c>
       <c r="AF23">
-        <v>15.5516</v>
+        <v>17.0489</v>
       </c>
       <c r="AG23">
-        <v>0.696417</v>
+        <v>0.694727</v>
       </c>
       <c r="AH23">
-        <v>0.169101</v>
+        <v>0.168294</v>
       </c>
       <c r="AI23">
-        <v>0.000170942</v>
+        <v>0.00017092</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>62</v>
@@ -4246,34 +4246,34 @@
         <v>62</v>
       </c>
       <c r="AN23">
-        <v>0.169287</v>
+        <v>0.168479</v>
       </c>
       <c r="AO23">
-        <v>879.5260000000001</v>
+        <v>879.528</v>
       </c>
       <c r="AP23">
-        <v>836.5110000000001</v>
+        <v>836.508</v>
       </c>
       <c r="AQ23">
-        <v>898.495</v>
+        <v>898.429</v>
       </c>
       <c r="AR23">
-        <v>756.647</v>
+        <v>759.5390000000001</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT23">
-        <v>724.763</v>
+        <v>724.76</v>
       </c>
       <c r="AU23">
-        <v>788.293</v>
+        <v>788.297</v>
       </c>
       <c r="AV23">
-        <v>742.907</v>
+        <v>742.8770000000001</v>
       </c>
       <c r="AW23">
-        <v>808.8389999999999</v>
+        <v>809.633</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>63</v>
@@ -4317,73 +4317,73 @@
         <v>76</v>
       </c>
       <c r="M24">
-        <v>52.6302</v>
+        <v>51.1948</v>
       </c>
       <c r="N24">
-        <v>14.7333</v>
+        <v>18.4139</v>
       </c>
       <c r="O24">
-        <v>20.7388</v>
+        <v>20.737</v>
       </c>
       <c r="P24">
-        <v>35.0093</v>
+        <v>35.6814</v>
       </c>
       <c r="Q24">
-        <v>52.63010000000001</v>
+        <v>51.195</v>
       </c>
       <c r="R24">
-        <v>99.9997</v>
+        <v>100</v>
       </c>
       <c r="S24">
-        <v>32.3792</v>
+        <v>34.4865</v>
       </c>
       <c r="T24">
-        <v>35.0093</v>
+        <v>35.6814</v>
       </c>
       <c r="U24">
-        <v>20.7388</v>
+        <v>20.737</v>
       </c>
       <c r="V24">
-        <v>17.0813</v>
+        <v>17.0826</v>
       </c>
       <c r="W24">
-        <v>10.3839</v>
+        <v>10.2333</v>
       </c>
       <c r="X24">
-        <v>14.7349</v>
+        <v>18.4144</v>
       </c>
       <c r="Y24">
-        <v>14.7349</v>
+        <v>18.4144</v>
       </c>
       <c r="Z24">
-        <v>14.7333</v>
+        <v>18.4139</v>
       </c>
       <c r="AA24">
-        <v>17.7715</v>
+        <v>17.7696</v>
       </c>
       <c r="AB24">
-        <v>15.2431</v>
+        <v>15.2763</v>
       </c>
       <c r="AC24">
-        <v>8.388730000000001</v>
+        <v>8.260719999999999</v>
       </c>
       <c r="AD24">
-        <v>13.4334</v>
+        <v>14.6556</v>
       </c>
       <c r="AE24">
-        <v>13.4334</v>
+        <v>14.6556</v>
       </c>
       <c r="AF24">
-        <v>13.4334</v>
+        <v>14.6556</v>
       </c>
       <c r="AG24">
-        <v>0.848149</v>
+        <v>0.847916</v>
       </c>
       <c r="AH24">
-        <v>0.222233</v>
+        <v>0.221274</v>
       </c>
       <c r="AI24">
-        <v>0.000226524</v>
+        <v>0.000226473</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>62</v>
@@ -4398,34 +4398,34 @@
         <v>62</v>
       </c>
       <c r="AN24">
-        <v>0.222258</v>
+        <v>0.221298</v>
       </c>
       <c r="AO24">
         <v>876.8380000000001</v>
       </c>
       <c r="AP24">
-        <v>832.4350000000001</v>
+        <v>832.436</v>
       </c>
       <c r="AQ24">
-        <v>892.1420000000001</v>
+        <v>892.092</v>
       </c>
       <c r="AR24">
-        <v>748.004</v>
+        <v>750.111</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT24">
-        <v>723.087</v>
+        <v>723.0890000000001</v>
       </c>
       <c r="AU24">
-        <v>784.2619999999999</v>
+        <v>784.2610000000001</v>
       </c>
       <c r="AV24">
-        <v>737.559</v>
+        <v>737.5359999999999</v>
       </c>
       <c r="AW24">
-        <v>800.634</v>
+        <v>801.3059999999999</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>63</v>
@@ -4469,73 +4469,73 @@
         <v>74</v>
       </c>
       <c r="M25">
-        <v>52.5736</v>
+        <v>50.6406</v>
       </c>
       <c r="N25">
-        <v>19.345</v>
+        <v>24.4344</v>
       </c>
       <c r="O25">
-        <v>26.3373</v>
+        <v>26.3323</v>
       </c>
       <c r="P25">
-        <v>42.4586</v>
+        <v>43.2945</v>
       </c>
       <c r="Q25">
-        <v>52.57380000000001</v>
+        <v>50.6405</v>
       </c>
       <c r="R25">
-        <v>100</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S25">
-        <v>39.8846</v>
+        <v>42.654</v>
       </c>
       <c r="T25">
-        <v>42.4586</v>
+        <v>43.2945</v>
       </c>
       <c r="U25">
-        <v>26.3373</v>
+        <v>26.3323</v>
       </c>
       <c r="V25">
-        <v>22.2433</v>
+        <v>22.2438</v>
       </c>
       <c r="W25">
-        <v>13.7673</v>
+        <v>13.5861</v>
       </c>
       <c r="X25">
-        <v>19.3437</v>
+        <v>24.436</v>
       </c>
       <c r="Y25">
-        <v>19.3437</v>
+        <v>24.436</v>
       </c>
       <c r="Z25">
-        <v>19.345</v>
+        <v>24.4344</v>
       </c>
       <c r="AA25">
-        <v>21.5921</v>
+        <v>21.5968</v>
       </c>
       <c r="AB25">
-        <v>19.4062</v>
+        <v>19.4472</v>
       </c>
       <c r="AC25">
-        <v>10.9615</v>
+        <v>10.8083</v>
       </c>
       <c r="AD25">
-        <v>17.5242</v>
+        <v>19.1879</v>
       </c>
       <c r="AE25">
-        <v>17.5242</v>
+        <v>19.1879</v>
       </c>
       <c r="AF25">
-        <v>17.5242</v>
+        <v>19.1879</v>
       </c>
       <c r="AG25">
-        <v>0.689881</v>
+        <v>0.687326</v>
       </c>
       <c r="AH25">
-        <v>0.205676</v>
+        <v>0.204691</v>
       </c>
       <c r="AI25">
-        <v>0.0199434</v>
+        <v>0.0199367</v>
       </c>
       <c r="AJ25" s="2" t="s">
         <v>62</v>
@@ -4550,34 +4550,34 @@
         <v>62</v>
       </c>
       <c r="AN25">
-        <v>0.204213</v>
+        <v>0.203227</v>
       </c>
       <c r="AO25">
-        <v>878.2710000000001</v>
+        <v>878.272</v>
       </c>
       <c r="AP25">
-        <v>835.8049999999999</v>
+        <v>835.806</v>
       </c>
       <c r="AQ25">
-        <v>897.321</v>
+        <v>897.255</v>
       </c>
       <c r="AR25">
-        <v>755.5110000000001</v>
+        <v>758.2769999999999</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT25">
-        <v>724.0890000000001</v>
+        <v>724.086</v>
       </c>
       <c r="AU25">
-        <v>787.1410000000001</v>
+        <v>787.1420000000001</v>
       </c>
       <c r="AV25">
-        <v>742.2660000000001</v>
+        <v>742.226</v>
       </c>
       <c r="AW25">
-        <v>808.0840000000001</v>
+        <v>808.9190000000001</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>63</v>
@@ -4621,73 +4621,73 @@
         <v>76</v>
       </c>
       <c r="M26">
-        <v>52.7629</v>
+        <v>51.3269</v>
       </c>
       <c r="N26">
-        <v>16.0872</v>
+        <v>20.0545</v>
       </c>
       <c r="O26">
-        <v>23.7377</v>
+        <v>23.7297</v>
       </c>
       <c r="P26">
-        <v>36.2838</v>
+        <v>37.0167</v>
       </c>
       <c r="Q26">
-        <v>52.7629</v>
+        <v>51.3261</v>
       </c>
       <c r="R26">
-        <v>100</v>
+        <v>99.99850000000001</v>
       </c>
       <c r="S26">
-        <v>33.5224</v>
+        <v>35.6912</v>
       </c>
       <c r="T26">
-        <v>36.2838</v>
+        <v>37.0167</v>
       </c>
       <c r="U26">
-        <v>23.7377</v>
+        <v>23.7297</v>
       </c>
       <c r="V26">
-        <v>19.5146</v>
+        <v>19.5161</v>
       </c>
       <c r="W26">
-        <v>12.1797</v>
+        <v>12.0163</v>
       </c>
       <c r="X26">
-        <v>16.0872</v>
+        <v>20.0538</v>
       </c>
       <c r="Y26">
-        <v>16.0872</v>
+        <v>20.0538</v>
       </c>
       <c r="Z26">
-        <v>16.0872</v>
+        <v>20.0545</v>
       </c>
       <c r="AA26">
-        <v>20.6188</v>
+        <v>20.6114</v>
       </c>
       <c r="AB26">
-        <v>17.8233</v>
+        <v>17.8405</v>
       </c>
       <c r="AC26">
-        <v>10.0164</v>
+        <v>9.85726</v>
       </c>
       <c r="AD26">
-        <v>15.4374</v>
+        <v>16.8064</v>
       </c>
       <c r="AE26">
-        <v>15.4374</v>
+        <v>16.8064</v>
       </c>
       <c r="AF26">
-        <v>15.4374</v>
+        <v>16.8064</v>
       </c>
       <c r="AG26">
-        <v>0.84162</v>
+        <v>0.840823</v>
       </c>
       <c r="AH26">
-        <v>0.270059</v>
+        <v>0.268852</v>
       </c>
       <c r="AI26">
-        <v>0.0221132</v>
+        <v>0.0221055</v>
       </c>
       <c r="AJ26" s="2" t="s">
         <v>62</v>
@@ -4702,19 +4702,19 @@
         <v>62</v>
       </c>
       <c r="AN26">
-        <v>0.268364</v>
+        <v>0.267157</v>
       </c>
       <c r="AO26">
-        <v>876.3050000000001</v>
+        <v>876.3100000000001</v>
       </c>
       <c r="AP26">
-        <v>832.874</v>
+        <v>832.8729999999999</v>
       </c>
       <c r="AQ26">
-        <v>892.722</v>
+        <v>892.67</v>
       </c>
       <c r="AR26">
-        <v>749.148</v>
+        <v>751.3150000000001</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>63</v>
@@ -4723,13 +4723,13 @@
         <v>723.0400000000001</v>
       </c>
       <c r="AU26">
-        <v>784.2610000000001</v>
+        <v>784.2619999999999</v>
       </c>
       <c r="AV26">
-        <v>738.4440000000001</v>
+        <v>738.414</v>
       </c>
       <c r="AW26">
-        <v>801.909</v>
+        <v>802.6420000000001</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>63</v>
@@ -5381,73 +5381,73 @@
         <v>74</v>
       </c>
       <c r="M31">
-        <v>49.9751</v>
+        <v>49.6949</v>
       </c>
       <c r="N31">
-        <v>20.4088</v>
+        <v>23.3744</v>
       </c>
       <c r="O31">
-        <v>23.268</v>
+        <v>23.263</v>
       </c>
       <c r="P31">
-        <v>41.6955</v>
+        <v>43.5973</v>
       </c>
       <c r="Q31">
-        <v>49.9739</v>
+        <v>49.6948</v>
       </c>
       <c r="R31">
-        <v>99.9975</v>
+        <v>99.9999</v>
       </c>
       <c r="S31">
-        <v>41.6955</v>
+        <v>43.5973</v>
       </c>
       <c r="T31">
-        <v>41.6696</v>
+        <v>43.295</v>
       </c>
       <c r="U31">
-        <v>16.9434</v>
+        <v>16.9458</v>
       </c>
       <c r="V31">
-        <v>17.4138</v>
+        <v>17.4908</v>
       </c>
       <c r="W31">
-        <v>9.99708</v>
+        <v>9.881679999999999</v>
       </c>
       <c r="X31">
-        <v>13.9096</v>
+        <v>17.1472</v>
       </c>
       <c r="Y31">
-        <v>13.9096</v>
+        <v>17.1472</v>
       </c>
       <c r="Z31">
-        <v>13.9038</v>
+        <v>17.1485</v>
       </c>
       <c r="AA31">
-        <v>23.268</v>
+        <v>23.263</v>
       </c>
       <c r="AB31">
-        <v>19.2186</v>
+        <v>19.2022</v>
       </c>
       <c r="AC31">
-        <v>11.11</v>
+        <v>10.8962</v>
       </c>
       <c r="AD31">
-        <v>20.4088</v>
+        <v>23.3744</v>
       </c>
       <c r="AE31">
-        <v>20.4088</v>
+        <v>23.3744</v>
       </c>
       <c r="AF31">
-        <v>20.4088</v>
+        <v>23.3744</v>
       </c>
       <c r="AG31">
-        <v>0.696558</v>
+        <v>0.696418</v>
       </c>
       <c r="AH31">
-        <v>0.170038</v>
+        <v>0.169189</v>
       </c>
       <c r="AI31">
-        <v>0.000150302</v>
+        <v>0.000149817</v>
       </c>
       <c r="AJ31" s="2" t="s">
         <v>62</v>
@@ -5462,34 +5462,34 @@
         <v>62</v>
       </c>
       <c r="AN31">
-        <v>0.17001</v>
+        <v>0.169161</v>
       </c>
       <c r="AO31">
         <v>874.0170000000001</v>
       </c>
       <c r="AP31">
-        <v>838.067</v>
+        <v>838.0650000000001</v>
       </c>
       <c r="AQ31">
-        <v>893.213</v>
+        <v>893.162</v>
       </c>
       <c r="AR31">
-        <v>757.318</v>
+        <v>759.22</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT31">
-        <v>730.1850000000001</v>
+        <v>730.186</v>
       </c>
       <c r="AU31">
         <v>786.316</v>
       </c>
       <c r="AV31">
-        <v>747.505</v>
+        <v>747.4590000000001</v>
       </c>
       <c r="AW31">
-        <v>807.295</v>
+        <v>808.9200000000001</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>63</v>
@@ -5533,73 +5533,73 @@
         <v>76</v>
       </c>
       <c r="M32">
-        <v>49.5187</v>
+        <v>49.0878</v>
       </c>
       <c r="N32">
-        <v>16.372</v>
+        <v>18.4707</v>
       </c>
       <c r="O32">
-        <v>20.0781</v>
+        <v>20.0706</v>
       </c>
       <c r="P32">
-        <v>33.7325</v>
+        <v>35.3075</v>
       </c>
       <c r="Q32">
-        <v>49.5188</v>
+        <v>49.088</v>
       </c>
       <c r="R32">
         <v>100</v>
       </c>
       <c r="S32">
-        <v>33.7325</v>
+        <v>35.3075</v>
       </c>
       <c r="T32">
-        <v>33.251</v>
+        <v>34.3986</v>
       </c>
       <c r="U32">
-        <v>17.0139</v>
+        <v>17.0103</v>
       </c>
       <c r="V32">
-        <v>15.8327</v>
+        <v>15.8628</v>
       </c>
       <c r="W32">
-        <v>9.004670000000001</v>
+        <v>8.88616</v>
       </c>
       <c r="X32">
-        <v>11.9971</v>
+        <v>14.6692</v>
       </c>
       <c r="Y32">
-        <v>11.9971</v>
+        <v>14.6692</v>
       </c>
       <c r="Z32">
-        <v>11.997</v>
+        <v>14.6675</v>
       </c>
       <c r="AA32">
-        <v>20.0781</v>
+        <v>20.0706</v>
       </c>
       <c r="AB32">
-        <v>16.3868</v>
+        <v>16.3761</v>
       </c>
       <c r="AC32">
-        <v>9.491060000000001</v>
+        <v>9.29257</v>
       </c>
       <c r="AD32">
-        <v>16.372</v>
+        <v>18.4707</v>
       </c>
       <c r="AE32">
-        <v>16.372</v>
+        <v>18.4707</v>
       </c>
       <c r="AF32">
-        <v>16.372</v>
+        <v>18.4707</v>
       </c>
       <c r="AG32">
-        <v>0.847794</v>
+        <v>0.848245</v>
       </c>
       <c r="AH32">
-        <v>0.2233</v>
+        <v>0.222284</v>
       </c>
       <c r="AI32">
-        <v>0.000197372</v>
+        <v>0.000196748</v>
       </c>
       <c r="AJ32" s="2" t="s">
         <v>62</v>
@@ -5614,34 +5614,34 @@
         <v>62</v>
       </c>
       <c r="AN32">
-        <v>0.223285</v>
+        <v>0.22227</v>
       </c>
       <c r="AO32">
-        <v>872.245</v>
+        <v>872.249</v>
       </c>
       <c r="AP32">
-        <v>834.0309999999999</v>
+        <v>834.032</v>
       </c>
       <c r="AQ32">
-        <v>887.965</v>
+        <v>887.9290000000001</v>
       </c>
       <c r="AR32">
-        <v>749.357</v>
+        <v>750.9330000000001</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT32">
-        <v>727.609</v>
+        <v>727.6080000000001</v>
       </c>
       <c r="AU32">
-        <v>782.4050000000001</v>
+        <v>782.41</v>
       </c>
       <c r="AV32">
-        <v>741.3630000000001</v>
+        <v>741.3299999999999</v>
       </c>
       <c r="AW32">
-        <v>798.876</v>
+        <v>800.024</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>63</v>
@@ -5685,73 +5685,73 @@
         <v>74</v>
       </c>
       <c r="M33">
-        <v>49.879</v>
+        <v>49.4978</v>
       </c>
       <c r="N33">
-        <v>22.3256</v>
+        <v>25.3639</v>
       </c>
       <c r="O33">
-        <v>25.2135</v>
+        <v>25.2036</v>
       </c>
       <c r="P33">
-        <v>41.188</v>
+        <v>43.1486</v>
       </c>
       <c r="Q33">
-        <v>49.8795</v>
+        <v>49.4984</v>
       </c>
       <c r="R33">
         <v>100.001</v>
       </c>
       <c r="S33">
-        <v>41.188</v>
+        <v>43.1486</v>
       </c>
       <c r="T33">
-        <v>41.0666</v>
+        <v>42.64700000000001</v>
       </c>
       <c r="U33">
-        <v>20.8753</v>
+        <v>20.8965</v>
       </c>
       <c r="V33">
-        <v>20.1342</v>
+        <v>20.1883</v>
       </c>
       <c r="W33">
-        <v>11.6077</v>
+        <v>11.4707</v>
       </c>
       <c r="X33">
-        <v>15.3207</v>
+        <v>18.8196</v>
       </c>
       <c r="Y33">
-        <v>15.3207</v>
+        <v>18.8196</v>
       </c>
       <c r="Z33">
-        <v>15.3207</v>
+        <v>18.8185</v>
       </c>
       <c r="AA33">
-        <v>25.2135</v>
+        <v>25.2036</v>
       </c>
       <c r="AB33">
-        <v>21.508</v>
+        <v>21.4912</v>
       </c>
       <c r="AC33">
-        <v>12.9534</v>
+        <v>12.6863</v>
       </c>
       <c r="AD33">
-        <v>22.3256</v>
+        <v>25.3639</v>
       </c>
       <c r="AE33">
-        <v>22.3256</v>
+        <v>25.3639</v>
       </c>
       <c r="AF33">
-        <v>22.3256</v>
+        <v>25.3639</v>
       </c>
       <c r="AG33">
-        <v>0.689667</v>
+        <v>0.688994</v>
       </c>
       <c r="AH33">
-        <v>0.214919</v>
+        <v>0.213837</v>
       </c>
       <c r="AI33">
-        <v>0.0278638</v>
+        <v>0.0277708</v>
       </c>
       <c r="AJ33" s="2" t="s">
         <v>62</v>
@@ -5766,34 +5766,34 @@
         <v>62</v>
       </c>
       <c r="AN33">
-        <v>0.210936</v>
+        <v>0.209853</v>
       </c>
       <c r="AO33">
         <v>872.437</v>
       </c>
       <c r="AP33">
-        <v>837.239</v>
+        <v>837.2379999999999</v>
       </c>
       <c r="AQ33">
-        <v>892.076</v>
+        <v>892.022</v>
       </c>
       <c r="AR33">
-        <v>756.812</v>
+        <v>758.7760000000001</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT33">
-        <v>729.8480000000001</v>
+        <v>729.851</v>
       </c>
       <c r="AU33">
-        <v>785.5309999999999</v>
+        <v>785.533</v>
       </c>
       <c r="AV33">
-        <v>747.226</v>
+        <v>747.182</v>
       </c>
       <c r="AW33">
-        <v>806.6920000000001</v>
+        <v>808.2719999999999</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>63</v>
@@ -5837,73 +5837,73 @@
         <v>76</v>
       </c>
       <c r="M34">
-        <v>49.5639</v>
+        <v>49.0352</v>
       </c>
       <c r="N34">
-        <v>18.533</v>
+        <v>20.7842</v>
       </c>
       <c r="O34">
-        <v>22.3332</v>
+        <v>22.3221</v>
       </c>
       <c r="P34">
-        <v>35.0743</v>
+        <v>36.771</v>
       </c>
       <c r="Q34">
-        <v>49.565</v>
+        <v>49.0368</v>
       </c>
       <c r="R34">
-        <v>100.002</v>
+        <v>100.003</v>
       </c>
       <c r="S34">
-        <v>35.0743</v>
+        <v>36.771</v>
       </c>
       <c r="T34">
-        <v>34.6379</v>
+        <v>35.80549999999999</v>
       </c>
       <c r="U34">
-        <v>20.3344</v>
+        <v>20.3299</v>
       </c>
       <c r="V34">
-        <v>18.3417</v>
+        <v>18.3731</v>
       </c>
       <c r="W34">
-        <v>10.6588</v>
+        <v>10.5271</v>
       </c>
       <c r="X34">
-        <v>13.52</v>
+        <v>16.4972</v>
       </c>
       <c r="Y34">
-        <v>13.52</v>
+        <v>16.4972</v>
       </c>
       <c r="Z34">
-        <v>13.5201</v>
+        <v>16.4884</v>
       </c>
       <c r="AA34">
-        <v>22.3332</v>
+        <v>22.3221</v>
       </c>
       <c r="AB34">
-        <v>18.9228</v>
+        <v>18.9117</v>
       </c>
       <c r="AC34">
-        <v>11.4533</v>
+        <v>11.2088</v>
       </c>
       <c r="AD34">
-        <v>18.533</v>
+        <v>20.7842</v>
       </c>
       <c r="AE34">
-        <v>18.533</v>
+        <v>20.7842</v>
       </c>
       <c r="AF34">
-        <v>18.533</v>
+        <v>20.7842</v>
       </c>
       <c r="AG34">
-        <v>0.841174</v>
+        <v>0.841439</v>
       </c>
       <c r="AH34">
-        <v>0.282407</v>
+        <v>0.2810569999999999</v>
       </c>
       <c r="AI34">
-        <v>0.03204899999999999</v>
+        <v>0.0319418</v>
       </c>
       <c r="AJ34" s="2" t="s">
         <v>62</v>
@@ -5918,34 +5918,34 @@
         <v>62</v>
       </c>
       <c r="AN34">
-        <v>0.277658</v>
+        <v>0.276308</v>
       </c>
       <c r="AO34">
-        <v>871.4630000000001</v>
+        <v>871.4640000000001</v>
       </c>
       <c r="AP34">
         <v>834.265</v>
       </c>
       <c r="AQ34">
-        <v>888.4470000000001</v>
+        <v>888.4019999999999</v>
       </c>
       <c r="AR34">
-        <v>750.7030000000001</v>
+        <v>752.396</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT34">
-        <v>727.825</v>
+        <v>727.822</v>
       </c>
       <c r="AU34">
         <v>782.7170000000001</v>
       </c>
       <c r="AV34">
-        <v>742.501</v>
+        <v>742.4580000000001</v>
       </c>
       <c r="AW34">
-        <v>800.263</v>
+        <v>801.4300000000001</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>63</v>
@@ -6123,7 +6123,7 @@
         <v>46.89210000000001</v>
       </c>
       <c r="R36" s="1">
-        <v>99.9954</v>
+        <v>99.996</v>
       </c>
       <c r="S36" s="1">
         <v>25.2955</v>
@@ -6168,10 +6168,10 @@
         <v>12.0785</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.685451</v>
+        <v>0.685427</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.157639</v>
+        <v>0.156438</v>
       </c>
       <c r="AI36" s="1">
         <v>5.672E-06</v>
@@ -6189,7 +6189,7 @@
         <v>62</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.15785</v>
+        <v>0.156648</v>
       </c>
       <c r="AO36" s="1">
         <v>868.682</v>
@@ -6227,64 +6227,64 @@
         <v>125</v>
       </c>
       <c r="M37" s="1">
-        <v>52.7629</v>
+        <v>51.3269</v>
       </c>
       <c r="N37" s="1">
-        <v>23.5472</v>
+        <v>26.962</v>
       </c>
       <c r="O37" s="1">
-        <v>26.8866</v>
+        <v>26.8845</v>
       </c>
       <c r="P37" s="1">
-        <v>53.9271</v>
+        <v>55.6219</v>
       </c>
       <c r="Q37" s="1">
-        <v>52.7629</v>
+        <v>51.3261</v>
       </c>
       <c r="R37" s="1">
-        <v>100.002</v>
+        <v>100.003</v>
       </c>
       <c r="S37" s="1">
-        <v>52.6621</v>
+        <v>55.6219</v>
       </c>
       <c r="T37" s="1">
-        <v>53.9271</v>
+        <v>55.5717</v>
       </c>
       <c r="U37" s="1">
-        <v>26.6711</v>
+        <v>26.6763</v>
       </c>
       <c r="V37" s="1">
-        <v>24.0241</v>
+        <v>24.0374</v>
       </c>
       <c r="W37" s="1">
-        <v>14.0104</v>
+        <v>13.8434</v>
       </c>
       <c r="X37" s="1">
-        <v>20.6</v>
+        <v>26.0698</v>
       </c>
       <c r="Y37" s="1">
-        <v>20.6</v>
+        <v>26.0698</v>
       </c>
       <c r="Z37" s="1">
-        <v>20.5999</v>
+        <v>26.0686</v>
       </c>
       <c r="AA37" s="1">
-        <v>26.8866</v>
+        <v>26.8845</v>
       </c>
       <c r="AB37" s="1">
-        <v>23.1303</v>
+        <v>23.1206</v>
       </c>
       <c r="AC37" s="1">
         <v>13.9704</v>
       </c>
       <c r="AD37" s="1">
-        <v>23.5472</v>
+        <v>26.962</v>
       </c>
       <c r="AE37" s="1">
-        <v>23.5472</v>
+        <v>26.962</v>
       </c>
       <c r="AF37" s="1">
-        <v>23.5472</v>
+        <v>26.962</v>
       </c>
       <c r="AG37" s="1">
         <v>0.853286</v>
@@ -6293,7 +6293,7 @@
         <v>0.375274</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.0701579</v>
+        <v>0.07008250000000001</v>
       </c>
       <c r="AJ37" s="1" t="s">
         <v>62</v>
@@ -6311,31 +6311,31 @@
         <v>0.367144</v>
       </c>
       <c r="AO37" s="1">
-        <v>879.5260000000001</v>
+        <v>879.528</v>
       </c>
       <c r="AP37" s="1">
-        <v>842.369</v>
+        <v>842.37</v>
       </c>
       <c r="AQ37" s="1">
-        <v>903.941</v>
+        <v>903.853</v>
       </c>
       <c r="AR37" s="1">
-        <v>768.287</v>
+        <v>771.245</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT37" s="1">
-        <v>730.1850000000001</v>
+        <v>730.186</v>
       </c>
       <c r="AU37" s="1">
-        <v>792.4910000000001</v>
+        <v>792.4880000000001</v>
       </c>
       <c r="AV37" s="1">
-        <v>753.1</v>
+        <v>753.048</v>
       </c>
       <c r="AW37" s="1">
-        <v>819.552</v>
+        <v>821.197</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>62</v>
@@ -6381,73 +6381,73 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>50.1050878787879</v>
+        <v>49.5886484848485</v>
       </c>
       <c r="N42" s="1">
-        <v>17.49328484848485</v>
+        <v>18.87241515151516</v>
       </c>
       <c r="O42" s="1">
-        <v>20.43595757575758</v>
+        <v>20.50478787878788</v>
       </c>
       <c r="P42" s="1">
-        <v>37.1721696969697</v>
+        <v>37.74616363636363</v>
       </c>
       <c r="Q42" s="1">
-        <v>50.10476060606062</v>
+        <v>49.58845454545455</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99924545454547</v>
+        <v>99.99952727272729</v>
       </c>
       <c r="S42" s="1">
-        <v>36.46020606060607</v>
+        <v>37.49526363636362</v>
       </c>
       <c r="T42" s="1">
-        <v>36.56551515151514</v>
+        <v>37.0843303030303</v>
       </c>
       <c r="U42" s="1">
-        <v>17.58009696969697</v>
+        <v>17.5795</v>
       </c>
       <c r="V42" s="1">
-        <v>17.90630303030303</v>
+        <v>17.91545454545455</v>
       </c>
       <c r="W42" s="1">
-        <v>10.92100484848485</v>
+        <v>10.85143121212122</v>
       </c>
       <c r="X42" s="1">
-        <v>15.22124545454545</v>
+        <v>17.07338484848485</v>
       </c>
       <c r="Y42" s="1">
-        <v>15.22124545454545</v>
+        <v>17.07338484848485</v>
       </c>
       <c r="Z42" s="1">
-        <v>15.22054545454546</v>
+        <v>17.07323636363636</v>
       </c>
       <c r="AA42" s="1">
-        <v>18.62002424242424</v>
+        <v>18.61834242424243</v>
       </c>
       <c r="AB42" s="1">
-        <v>17.76998484848485</v>
+        <v>17.7755</v>
       </c>
       <c r="AC42" s="1">
-        <v>10.60744272727273</v>
+        <v>10.51932393939394</v>
       </c>
       <c r="AD42" s="1">
-        <v>17.04694242424243</v>
+        <v>18.0445696969697</v>
       </c>
       <c r="AE42" s="1">
-        <v>17.04694242424243</v>
+        <v>18.0445696969697</v>
       </c>
       <c r="AF42" s="1">
-        <v>17.04694242424243</v>
+        <v>18.0445696969697</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7693257575757575</v>
+        <v>0.7688186969696972</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.2275253333333333</v>
+        <v>0.2269819090909091</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.01461307866</v>
+        <v>0.01459768923333334</v>
       </c>
       <c r="AJ42" s="1" t="s">
         <v>62</v>
@@ -6462,34 +6462,34 @@
         <v>62</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2258614545454546</v>
+        <v>0.2253178787878788</v>
       </c>
       <c r="AO42" s="1">
-        <v>873.8095454545456</v>
+        <v>873.8100909090911</v>
       </c>
       <c r="AP42" s="1">
-        <v>833.8537878787879</v>
+        <v>833.853787878788</v>
       </c>
       <c r="AQ42" s="1">
-        <v>891.0535757575757</v>
+        <v>891.0273030303028</v>
       </c>
       <c r="AR42" s="1">
-        <v>752.0852121212123</v>
+        <v>753.1201515151516</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT42" s="1">
-        <v>725.3916666666668</v>
+        <v>725.3917272727273</v>
       </c>
       <c r="AU42" s="1">
-        <v>783.3105454545454</v>
+        <v>783.3107575757574</v>
       </c>
       <c r="AV42" s="1">
-        <v>741.6003939393938</v>
+        <v>741.5830303030302</v>
       </c>
       <c r="AW42" s="1">
-        <v>802.1905757575755</v>
+        <v>802.709303030303</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>62</v>
@@ -6500,73 +6500,73 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>1.546417705881951</v>
+        <v>1.128313267568201</v>
       </c>
       <c r="N43" s="1">
-        <v>2.903267594856903</v>
+        <v>3.764006347136729</v>
       </c>
       <c r="O43" s="1">
-        <v>3.236113259716868</v>
+        <v>3.319961198089938</v>
       </c>
       <c r="P43" s="1">
-        <v>6.741580651246673</v>
+        <v>7.048097505337047</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.54644394698786</v>
+        <v>1.128309204904966</v>
       </c>
       <c r="R43" s="1">
-        <v>0.001701174444423335</v>
+        <v>0.00133627086876651</v>
       </c>
       <c r="S43" s="1">
-        <v>6.625288237020306</v>
+        <v>7.097760123973306</v>
       </c>
       <c r="T43" s="1">
-        <v>6.962280468662255</v>
+        <v>7.287775189356274</v>
       </c>
       <c r="U43" s="1">
-        <v>4.698333961418784</v>
+        <v>4.69756398256618</v>
       </c>
       <c r="V43" s="1">
-        <v>2.612638364320269</v>
+        <v>2.615522495931122</v>
       </c>
       <c r="W43" s="1">
-        <v>1.504742516943581</v>
+        <v>1.481027785037498</v>
       </c>
       <c r="X43" s="1">
-        <v>2.720070996855391</v>
+        <v>3.909121613193958</v>
       </c>
       <c r="Y43" s="1">
-        <v>2.720070996855391</v>
+        <v>3.909121613193958</v>
       </c>
       <c r="Z43" s="1">
-        <v>2.719858813747831</v>
+        <v>3.908752582991321</v>
       </c>
       <c r="AA43" s="1">
-        <v>3.608849650262557</v>
+        <v>3.607622895366128</v>
       </c>
       <c r="AB43" s="1">
-        <v>2.56212711736323</v>
+        <v>2.560260336076167</v>
       </c>
       <c r="AC43" s="1">
-        <v>1.540536339430097</v>
+        <v>1.536485923009285</v>
       </c>
       <c r="AD43" s="1">
-        <v>3.05001793378039</v>
+        <v>3.720017239572699</v>
       </c>
       <c r="AE43" s="1">
-        <v>3.05001793378039</v>
+        <v>3.720017239572699</v>
       </c>
       <c r="AF43" s="1">
-        <v>3.05001793378039</v>
+        <v>3.720017239572699</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07480847915684032</v>
+        <v>0.07524077415446176</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.05370681099951266</v>
+        <v>0.05363604960616853</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.02191326229344263</v>
+        <v>0.02188907289056977</v>
       </c>
       <c r="AJ43" s="1" t="s">
         <v>62</v>
@@ -6581,34 +6581,34 @@
         <v>62</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.05161516539891183</v>
+        <v>0.05154646698750943</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.846010222632355</v>
+        <v>2.845900574975292</v>
       </c>
       <c r="AP43" s="1">
-        <v>3.307851914511585</v>
+        <v>3.308085372808953</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.247743624964134</v>
+        <v>5.230537793109069</v>
       </c>
       <c r="AR43" s="1">
-        <v>6.625136900850018</v>
+        <v>7.097480291779229</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.473129812748833</v>
+        <v>2.472967941719288</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.692855642099807</v>
+        <v>3.692888029961984</v>
       </c>
       <c r="AV43" s="1">
-        <v>4.867545109217413</v>
+        <v>4.859132230078213</v>
       </c>
       <c r="AW43" s="1">
-        <v>6.962318209499011</v>
+        <v>7.287765503183057</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>62</v>
@@ -6619,73 +6619,73 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>3.086348655096623</v>
+        <v>2.275345874596582</v>
       </c>
       <c r="N44" s="1">
-        <v>16.59646898797492</v>
+        <v>19.94448679153043</v>
       </c>
       <c r="O44" s="1">
-        <v>15.83538842121962</v>
+        <v>16.19115114828583</v>
       </c>
       <c r="P44" s="1">
-        <v>18.1360967256002</v>
+        <v>18.67235455564841</v>
       </c>
       <c r="Q44" s="1">
-        <v>3.086421186893773</v>
+        <v>2.275346580665703</v>
       </c>
       <c r="R44" s="1">
-        <v>0.001701187280654635</v>
+        <v>0.001336277185713206</v>
       </c>
       <c r="S44" s="1">
-        <v>18.17128577388565</v>
+        <v>18.9297512155369</v>
       </c>
       <c r="T44" s="1">
-        <v>19.04056442200504</v>
+        <v>19.65189914393779</v>
       </c>
       <c r="U44" s="1">
-        <v>26.72530174047025</v>
+        <v>26.72182930439535</v>
       </c>
       <c r="V44" s="1">
-        <v>14.5906073403252</v>
+        <v>14.59925278086078</v>
       </c>
       <c r="W44" s="1">
-        <v>13.77842550040022</v>
+        <v>13.64822534545643</v>
       </c>
       <c r="X44" s="1">
-        <v>17.87022622411695</v>
+        <v>22.89599659285409</v>
       </c>
       <c r="Y44" s="1">
-        <v>17.87022622411695</v>
+        <v>22.89599659285409</v>
       </c>
       <c r="Z44" s="1">
-        <v>17.86965402698872</v>
+        <v>22.8940342635707</v>
       </c>
       <c r="AA44" s="1">
-        <v>19.38155183514789</v>
+        <v>19.3767136362727</v>
       </c>
       <c r="AB44" s="1">
-        <v>14.41828532330847</v>
+        <v>14.40330981449842</v>
       </c>
       <c r="AC44" s="1">
-        <v>14.5231643388395</v>
+        <v>14.60631816133431</v>
       </c>
       <c r="AD44" s="1">
-        <v>17.89187678280044</v>
+        <v>20.61571598572072</v>
       </c>
       <c r="AE44" s="1">
-        <v>17.89187678280044</v>
+        <v>20.61571598572072</v>
       </c>
       <c r="AF44" s="1">
-        <v>17.89187678280044</v>
+        <v>20.61571598572072</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.723901535881403</v>
+        <v>9.786543231977014</v>
       </c>
       <c r="AH44" s="1">
-        <v>23.60476093483187</v>
+        <v>23.63009890126822</v>
       </c>
       <c r="AI44" s="1">
-        <v>149.9565067929541</v>
+        <v>149.9488894487957</v>
       </c>
       <c r="AJ44" s="1" t="s">
         <v>62</v>
@@ -6700,34 +6700,34 @@
         <v>62</v>
       </c>
       <c r="AN44" s="1">
-        <v>22.85257814476896</v>
+        <v>22.87722007006682</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.3257014343041874</v>
+        <v>0.3256886827679554</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.3966944760095551</v>
+        <v>0.3967224735195216</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.5889369357507478</v>
+        <v>0.5870232904559136</v>
       </c>
       <c r="AR44" s="1">
-        <v>0.8809024288835846</v>
+        <v>0.9424100892135587</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.340937169034958</v>
+        <v>0.3409148255683816</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4714420945216419</v>
+        <v>0.4714461015945934</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.6563568667164442</v>
+        <v>0.6552377861306569</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.8679132390609193</v>
+        <v>0.9078959812314443</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>62</v>

--- a/dca_mission_timing_pre_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_pre_tsmc2p_meas.xlsx
@@ -1733,73 +1733,73 @@
         <v>74</v>
       </c>
       <c r="M7">
-        <v>49.9091</v>
+        <v>48.9861</v>
       </c>
       <c r="N7">
-        <v>16.2858</v>
+        <v>16.2917</v>
       </c>
       <c r="O7">
-        <v>19.6591</v>
+        <v>19.665</v>
       </c>
       <c r="P7">
-        <v>34.6471</v>
+        <v>34.6966</v>
       </c>
       <c r="Q7">
-        <v>49.9102</v>
+        <v>48.9861</v>
       </c>
       <c r="R7">
-        <v>100.002</v>
+        <v>100</v>
       </c>
       <c r="S7">
-        <v>34.6471</v>
+        <v>34.6966</v>
       </c>
       <c r="T7">
-        <v>34.5562</v>
+        <v>33.6834</v>
       </c>
       <c r="U7">
-        <v>19.4932</v>
+        <v>19.494</v>
       </c>
       <c r="V7">
-        <v>16.4901</v>
+        <v>16.4934</v>
       </c>
       <c r="W7">
-        <v>9.524100000000001</v>
+        <v>9.582370000000001</v>
       </c>
       <c r="X7">
-        <v>16.2857</v>
+        <v>16.296</v>
       </c>
       <c r="Y7">
-        <v>16.2857</v>
+        <v>16.296</v>
       </c>
       <c r="Z7">
-        <v>16.2858</v>
+        <v>16.2917</v>
       </c>
       <c r="AA7">
-        <v>19.6591</v>
+        <v>19.665</v>
       </c>
       <c r="AB7">
-        <v>16.0285</v>
+        <v>16.0211</v>
       </c>
       <c r="AC7">
-        <v>8.805280000000002</v>
+        <v>8.830540000000001</v>
       </c>
       <c r="AD7">
-        <v>16.1566</v>
+        <v>14.7091</v>
       </c>
       <c r="AE7">
-        <v>16.1566</v>
+        <v>14.7091</v>
       </c>
       <c r="AF7">
-        <v>16.1566</v>
+        <v>14.7091</v>
       </c>
       <c r="AG7">
-        <v>0.692994</v>
+        <v>0.692877</v>
       </c>
       <c r="AH7">
-        <v>0.189438</v>
+        <v>0.189663</v>
       </c>
       <c r="AI7">
-        <v>0.0005205850000000001</v>
+        <v>0.000520596</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>62</v>
@@ -1814,34 +1814,34 @@
         <v>62</v>
       </c>
       <c r="AN7">
-        <v>0.189356</v>
+        <v>0.189581</v>
       </c>
       <c r="AO7">
-        <v>874.4069999999999</v>
+        <v>874.404</v>
       </c>
       <c r="AP7">
-        <v>833.151</v>
+        <v>833.152</v>
       </c>
       <c r="AQ7">
-        <v>889.774</v>
+        <v>889.776</v>
       </c>
       <c r="AR7">
-        <v>750.273</v>
+        <v>750.322</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT7">
-        <v>725.3349999999999</v>
+        <v>725.3340000000001</v>
       </c>
       <c r="AU7">
         <v>783.149</v>
       </c>
       <c r="AV7">
-        <v>739.293</v>
+        <v>739.307</v>
       </c>
       <c r="AW7">
-        <v>800.181</v>
+        <v>799.308</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>63</v>
@@ -1885,73 +1885,73 @@
         <v>76</v>
       </c>
       <c r="M8">
-        <v>50.1521</v>
+        <v>49.3611</v>
       </c>
       <c r="N8">
-        <v>14.2338</v>
+        <v>14.2395</v>
       </c>
       <c r="O8">
-        <v>18.8511</v>
+        <v>18.8508</v>
       </c>
       <c r="P8">
-        <v>29.8587</v>
+        <v>29.7555</v>
       </c>
       <c r="Q8">
-        <v>50.1518</v>
+        <v>49.3613</v>
       </c>
       <c r="R8">
-        <v>99.99940000000001</v>
+        <v>100</v>
       </c>
       <c r="S8">
-        <v>29.7094</v>
+        <v>29.7555</v>
       </c>
       <c r="T8">
-        <v>29.8587</v>
+        <v>29.1155</v>
       </c>
       <c r="U8">
-        <v>18.8511</v>
+        <v>18.8508</v>
       </c>
       <c r="V8">
-        <v>15.2125</v>
+        <v>15.2184</v>
       </c>
       <c r="W8">
-        <v>8.884600000000001</v>
+        <v>8.94383</v>
       </c>
       <c r="X8">
-        <v>14.2324</v>
+        <v>14.2402</v>
       </c>
       <c r="Y8">
-        <v>14.2324</v>
+        <v>14.2402</v>
       </c>
       <c r="Z8">
-        <v>14.2298</v>
+        <v>14.2395</v>
       </c>
       <c r="AA8">
-        <v>18.2814</v>
+        <v>18.2917</v>
       </c>
       <c r="AB8">
-        <v>14.8196</v>
+        <v>14.8118</v>
       </c>
       <c r="AC8">
-        <v>8.20234</v>
+        <v>8.22616</v>
       </c>
       <c r="AD8">
-        <v>14.2338</v>
+        <v>13.0262</v>
       </c>
       <c r="AE8">
-        <v>14.2338</v>
+        <v>13.0262</v>
       </c>
       <c r="AF8">
-        <v>14.2338</v>
+        <v>13.0262</v>
       </c>
       <c r="AG8">
-        <v>0.8439720000000001</v>
+        <v>0.843983</v>
       </c>
       <c r="AH8">
-        <v>0.256379</v>
+        <v>0.256691</v>
       </c>
       <c r="AI8">
-        <v>0.0006609130000000001</v>
+        <v>0.0006609539999999999</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>62</v>
@@ -1966,34 +1966,34 @@
         <v>62</v>
       </c>
       <c r="AN8">
-        <v>0.256378</v>
+        <v>0.25669</v>
       </c>
       <c r="AO8">
-        <v>872.9739999999999</v>
+        <v>872.973</v>
       </c>
       <c r="AP8">
-        <v>830.751</v>
+        <v>830.748</v>
       </c>
       <c r="AQ8">
-        <v>886.614</v>
+        <v>886.616</v>
       </c>
       <c r="AR8">
-        <v>745.332</v>
+        <v>745.381</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT8">
-        <v>723.999</v>
+        <v>723.9979999999999</v>
       </c>
       <c r="AU8">
-        <v>780.854</v>
+        <v>780.852</v>
       </c>
       <c r="AV8">
-        <v>736.081</v>
+        <v>736.09</v>
       </c>
       <c r="AW8">
-        <v>795.4839999999999</v>
+        <v>794.741</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>63</v>
@@ -2037,73 +2037,73 @@
         <v>74</v>
       </c>
       <c r="M9">
-        <v>49.9313</v>
+        <v>48.897</v>
       </c>
       <c r="N9">
-        <v>18.4414</v>
+        <v>18.0288</v>
       </c>
       <c r="O9">
-        <v>23.2802</v>
+        <v>23.2784</v>
       </c>
       <c r="P9">
-        <v>35.8021</v>
+        <v>35.876</v>
       </c>
       <c r="Q9">
-        <v>49.9311</v>
+        <v>48.8976</v>
       </c>
       <c r="R9">
-        <v>99.9996</v>
+        <v>100.001</v>
       </c>
       <c r="S9">
-        <v>35.8021</v>
+        <v>35.876</v>
       </c>
       <c r="T9">
-        <v>35.7354</v>
+        <v>34.77509999999999</v>
       </c>
       <c r="U9">
-        <v>23.2802</v>
+        <v>23.2784</v>
       </c>
       <c r="V9">
-        <v>19.3013</v>
+        <v>19.3091</v>
       </c>
       <c r="W9">
-        <v>11.6461</v>
+        <v>11.7167</v>
       </c>
       <c r="X9">
-        <v>18.014</v>
+        <v>18.0139</v>
       </c>
       <c r="Y9">
-        <v>18.014</v>
+        <v>18.0139</v>
       </c>
       <c r="Z9">
-        <v>18.014</v>
+        <v>18.0288</v>
       </c>
       <c r="AA9">
-        <v>22.3656</v>
+        <v>22.3724</v>
       </c>
       <c r="AB9">
-        <v>18.9299</v>
+        <v>18.9246</v>
       </c>
       <c r="AC9">
-        <v>11.0114</v>
+        <v>11.0343</v>
       </c>
       <c r="AD9">
-        <v>18.4414</v>
+        <v>16.8605</v>
       </c>
       <c r="AE9">
-        <v>18.4414</v>
+        <v>16.8605</v>
       </c>
       <c r="AF9">
-        <v>18.4414</v>
+        <v>16.8605</v>
       </c>
       <c r="AG9">
-        <v>0.685427</v>
+        <v>0.685117</v>
       </c>
       <c r="AH9">
-        <v>0.284226</v>
+        <v>0.284563</v>
       </c>
       <c r="AI9">
-        <v>0.0617844</v>
+        <v>0.0617845</v>
       </c>
       <c r="AJ9" s="2" t="s">
         <v>62</v>
@@ -2118,34 +2118,34 @@
         <v>62</v>
       </c>
       <c r="AN9">
-        <v>0.277282</v>
+        <v>0.277619</v>
       </c>
       <c r="AO9">
-        <v>873.5350000000001</v>
+        <v>873.53</v>
       </c>
       <c r="AP9">
-        <v>833.4299999999999</v>
+        <v>833.429</v>
       </c>
       <c r="AQ9">
-        <v>890.163</v>
+        <v>890.1690000000001</v>
       </c>
       <c r="AR9">
-        <v>751.427</v>
+        <v>751.5010000000001</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT9">
-        <v>725.447</v>
+        <v>725.4449999999999</v>
       </c>
       <c r="AU9">
-        <v>783.187</v>
+        <v>783.186</v>
       </c>
       <c r="AV9">
-        <v>740.2660000000001</v>
+        <v>740.2790000000001</v>
       </c>
       <c r="AW9">
-        <v>801.36</v>
+        <v>800.4000000000001</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>63</v>
@@ -2189,73 +2189,73 @@
         <v>76</v>
       </c>
       <c r="M10">
-        <v>50.1242</v>
+        <v>49.2136</v>
       </c>
       <c r="N10">
-        <v>16.5046</v>
+        <v>16.1491</v>
       </c>
       <c r="O10">
-        <v>22.3877</v>
+        <v>22.3882</v>
       </c>
       <c r="P10">
-        <v>32.1001</v>
+        <v>32.0528</v>
       </c>
       <c r="Q10">
-        <v>50.1243</v>
+        <v>49.2144</v>
       </c>
       <c r="R10">
-        <v>100</v>
+        <v>100.002</v>
       </c>
       <c r="S10">
-        <v>31.9775</v>
+        <v>32.0528</v>
       </c>
       <c r="T10">
-        <v>32.1001</v>
+        <v>31.2686</v>
       </c>
       <c r="U10">
-        <v>22.3877</v>
+        <v>22.3882</v>
       </c>
       <c r="V10">
-        <v>18.1012</v>
+        <v>18.1048</v>
       </c>
       <c r="W10">
-        <v>11.0986</v>
+        <v>11.1677</v>
       </c>
       <c r="X10">
-        <v>16.1312</v>
+        <v>16.1474</v>
       </c>
       <c r="Y10">
-        <v>16.1312</v>
+        <v>16.1474</v>
       </c>
       <c r="Z10">
-        <v>16.1313</v>
+        <v>16.1491</v>
       </c>
       <c r="AA10">
-        <v>21.0209</v>
+        <v>21.0262</v>
       </c>
       <c r="AB10">
-        <v>17.757</v>
+        <v>17.7503</v>
       </c>
       <c r="AC10">
-        <v>10.4458</v>
+        <v>10.4711</v>
       </c>
       <c r="AD10">
-        <v>16.5046</v>
+        <v>15.1701</v>
       </c>
       <c r="AE10">
-        <v>16.5046</v>
+        <v>15.1701</v>
       </c>
       <c r="AF10">
-        <v>16.5046</v>
+        <v>15.1701</v>
       </c>
       <c r="AG10">
-        <v>0.836408</v>
+        <v>0.836234</v>
       </c>
       <c r="AH10">
-        <v>0.370582</v>
+        <v>0.371057</v>
       </c>
       <c r="AI10">
-        <v>0.0700079</v>
+        <v>0.070008</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>62</v>
@@ -2270,34 +2270,34 @@
         <v>62</v>
       </c>
       <c r="AN10">
-        <v>0.362453</v>
+        <v>0.3629269999999999</v>
       </c>
       <c r="AO10">
-        <v>872.602</v>
+        <v>872.6080000000001</v>
       </c>
       <c r="AP10">
-        <v>831.693</v>
+        <v>831.6890000000001</v>
       </c>
       <c r="AQ10">
-        <v>887.9</v>
+        <v>887.913</v>
       </c>
       <c r="AR10">
-        <v>747.602</v>
+        <v>747.6750000000001</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT10">
-        <v>724.509</v>
+        <v>724.5029999999999</v>
       </c>
       <c r="AU10">
-        <v>781.542</v>
+        <v>781.55</v>
       </c>
       <c r="AV10">
-        <v>737.813</v>
+        <v>737.8200000000001</v>
       </c>
       <c r="AW10">
-        <v>797.725</v>
+        <v>796.894</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>63</v>
@@ -2949,73 +2949,73 @@
         <v>74</v>
       </c>
       <c r="M15">
-        <v>49.9523</v>
+        <v>47.7819</v>
       </c>
       <c r="N15">
-        <v>25.5669</v>
+        <v>25.529</v>
       </c>
       <c r="O15">
-        <v>25.5649</v>
+        <v>25.5258</v>
       </c>
       <c r="P15">
-        <v>55.6219</v>
+        <v>55.8431</v>
       </c>
       <c r="Q15">
-        <v>49.9511</v>
+        <v>47.78290000000001</v>
       </c>
       <c r="R15">
-        <v>99.99769999999999</v>
+        <v>100.002</v>
       </c>
       <c r="S15">
-        <v>55.6219</v>
+        <v>55.8431</v>
       </c>
       <c r="T15">
-        <v>55.5717</v>
+        <v>53.6223</v>
       </c>
       <c r="U15">
-        <v>22.8618</v>
+        <v>22.8597</v>
       </c>
       <c r="V15">
-        <v>22.3614</v>
+        <v>22.3732</v>
       </c>
       <c r="W15">
-        <v>12.6524</v>
+        <v>12.72</v>
       </c>
       <c r="X15">
-        <v>25.5649</v>
+        <v>25.5258</v>
       </c>
       <c r="Y15">
-        <v>25.5649</v>
+        <v>25.5258</v>
       </c>
       <c r="Z15">
-        <v>25.5669</v>
+        <v>25.529</v>
       </c>
       <c r="AA15">
-        <v>23.2027</v>
+        <v>23.2016</v>
       </c>
       <c r="AB15">
-        <v>20.6066</v>
+        <v>20.5806</v>
       </c>
       <c r="AC15">
-        <v>11.525</v>
+        <v>11.5506</v>
       </c>
       <c r="AD15">
-        <v>25.1626</v>
+        <v>21.8168</v>
       </c>
       <c r="AE15">
-        <v>25.1626</v>
+        <v>21.8168</v>
       </c>
       <c r="AF15">
-        <v>25.1626</v>
+        <v>21.8168</v>
       </c>
       <c r="AG15">
-        <v>0.695952</v>
+        <v>0.695318</v>
       </c>
       <c r="AH15">
-        <v>0.156438</v>
+        <v>0.156869</v>
       </c>
       <c r="AI15">
-        <v>5.7252E-06</v>
+        <v>5.73031E-06</v>
       </c>
       <c r="AJ15" s="2" t="s">
         <v>62</v>
@@ -3030,34 +3030,34 @@
         <v>62</v>
       </c>
       <c r="AN15">
-        <v>0.156648</v>
+        <v>0.157079</v>
       </c>
       <c r="AO15">
-        <v>879.3680000000001</v>
+        <v>879.365</v>
       </c>
       <c r="AP15">
-        <v>842.37</v>
+        <v>842.369</v>
       </c>
       <c r="AQ15">
-        <v>903.853</v>
+        <v>903.86</v>
       </c>
       <c r="AR15">
-        <v>771.245</v>
+        <v>771.467</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT15">
-        <v>729.812</v>
+        <v>729.819</v>
       </c>
       <c r="AU15">
-        <v>792.4880000000001</v>
+        <v>792.49</v>
       </c>
       <c r="AV15">
-        <v>753.048</v>
+        <v>753.083</v>
       </c>
       <c r="AW15">
-        <v>821.197</v>
+        <v>819.2470000000001</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>63</v>
@@ -3101,73 +3101,73 @@
         <v>76</v>
       </c>
       <c r="M16">
-        <v>50.1997</v>
+        <v>48.7626</v>
       </c>
       <c r="N16">
-        <v>19.3119</v>
+        <v>19.3046</v>
       </c>
       <c r="O16">
-        <v>20.8856</v>
+        <v>20.8911</v>
       </c>
       <c r="P16">
-        <v>42.1911</v>
+        <v>42.05820000000001</v>
       </c>
       <c r="Q16">
-        <v>50.1988</v>
+        <v>48.762</v>
       </c>
       <c r="R16">
-        <v>99.9984</v>
+        <v>99.9988</v>
       </c>
       <c r="S16">
-        <v>41.99160000000001</v>
+        <v>42.05820000000001</v>
       </c>
       <c r="T16">
-        <v>42.1911</v>
+        <v>40.8184</v>
       </c>
       <c r="U16">
-        <v>20.2928</v>
+        <v>20.2884</v>
       </c>
       <c r="V16">
-        <v>18.2855</v>
+        <v>18.2889</v>
       </c>
       <c r="W16">
-        <v>10.4525</v>
+        <v>10.516</v>
       </c>
       <c r="X16">
-        <v>19.3014</v>
+        <v>19.3114</v>
       </c>
       <c r="Y16">
-        <v>19.3014</v>
+        <v>19.3114</v>
       </c>
       <c r="Z16">
-        <v>19.2994</v>
+        <v>19.3046</v>
       </c>
       <c r="AA16">
-        <v>20.8856</v>
+        <v>20.8911</v>
       </c>
       <c r="AB16">
-        <v>17.4765</v>
+        <v>17.4611</v>
       </c>
       <c r="AC16">
-        <v>9.55204</v>
+        <v>9.588510000000001</v>
       </c>
       <c r="AD16">
-        <v>19.3119</v>
+        <v>17.0235</v>
       </c>
       <c r="AE16">
-        <v>19.3119</v>
+        <v>17.0235</v>
       </c>
       <c r="AF16">
-        <v>19.3119</v>
+        <v>17.0235</v>
       </c>
       <c r="AG16">
-        <v>0.852095</v>
+        <v>0.851509</v>
       </c>
       <c r="AH16">
-        <v>0.203147</v>
+        <v>0.203432</v>
       </c>
       <c r="AI16">
-        <v>1.47011E-05</v>
+        <v>1.47239E-05</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>62</v>
@@ -3182,34 +3182,34 @@
         <v>62</v>
       </c>
       <c r="AN16">
-        <v>0.203118</v>
+        <v>0.203403</v>
       </c>
       <c r="AO16">
-        <v>876.629</v>
+        <v>876.627</v>
       </c>
       <c r="AP16">
-        <v>836.602</v>
+        <v>836.604</v>
       </c>
       <c r="AQ16">
-        <v>894.9390000000001</v>
+        <v>894.946</v>
       </c>
       <c r="AR16">
-        <v>757.617</v>
+        <v>757.682</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT16">
-        <v>727.217</v>
+        <v>727.2140000000001</v>
       </c>
       <c r="AU16">
-        <v>786.7809999999999</v>
+        <v>786.7790000000001</v>
       </c>
       <c r="AV16">
-        <v>744.24</v>
+        <v>744.2570000000001</v>
       </c>
       <c r="AW16">
-        <v>807.816</v>
+        <v>806.443</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>63</v>
@@ -3253,73 +3253,73 @@
         <v>74</v>
       </c>
       <c r="M17">
-        <v>50.3258</v>
+        <v>48.1237</v>
       </c>
       <c r="N17">
-        <v>26.962</v>
+        <v>26.0046</v>
       </c>
       <c r="O17">
-        <v>26.8845</v>
+        <v>26.8911</v>
       </c>
       <c r="P17">
-        <v>52.8594</v>
+        <v>52.7859</v>
       </c>
       <c r="Q17">
-        <v>50.3252</v>
+        <v>48.1229</v>
       </c>
       <c r="R17">
-        <v>99.999</v>
+        <v>99.9984</v>
       </c>
       <c r="S17">
-        <v>52.535</v>
+        <v>52.7859</v>
       </c>
       <c r="T17">
-        <v>52.8594</v>
+        <v>50.9093</v>
       </c>
       <c r="U17">
-        <v>26.6763</v>
+        <v>26.6749</v>
       </c>
       <c r="V17">
-        <v>24.0374</v>
+        <v>24.0531</v>
       </c>
       <c r="W17">
-        <v>13.8434</v>
+        <v>13.9254</v>
       </c>
       <c r="X17">
-        <v>26.0698</v>
+        <v>26.0062</v>
       </c>
       <c r="Y17">
-        <v>26.0698</v>
+        <v>26.0062</v>
       </c>
       <c r="Z17">
-        <v>26.0686</v>
+        <v>26.0046</v>
       </c>
       <c r="AA17">
-        <v>26.8845</v>
+        <v>26.8911</v>
       </c>
       <c r="AB17">
-        <v>23.1206</v>
+        <v>23.108</v>
       </c>
       <c r="AC17">
-        <v>12.9068</v>
+        <v>12.9378</v>
       </c>
       <c r="AD17">
-        <v>26.962</v>
+        <v>23.5738</v>
       </c>
       <c r="AE17">
-        <v>26.962</v>
+        <v>23.5738</v>
       </c>
       <c r="AF17">
-        <v>26.962</v>
+        <v>23.5738</v>
       </c>
       <c r="AG17">
-        <v>0.6877259999999999</v>
+        <v>0.68689</v>
       </c>
       <c r="AH17">
-        <v>0.16591</v>
+        <v>0.166402</v>
       </c>
       <c r="AI17">
-        <v>0.00230248</v>
+        <v>0.0023025</v>
       </c>
       <c r="AJ17" s="2" t="s">
         <v>62</v>
@@ -3334,34 +3334,34 @@
         <v>62</v>
       </c>
       <c r="AN17">
-        <v>0.165627</v>
+        <v>0.166119</v>
       </c>
       <c r="AO17">
-        <v>877.552</v>
+        <v>877.5500000000001</v>
       </c>
       <c r="AP17">
-        <v>840.6690000000001</v>
+        <v>840.664</v>
       </c>
       <c r="AQ17">
-        <v>901.0310000000001</v>
+        <v>901.037</v>
       </c>
       <c r="AR17">
-        <v>768.16</v>
+        <v>768.4119999999999</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT17">
-        <v>728.917</v>
+        <v>728.919</v>
       </c>
       <c r="AU17">
-        <v>790.5409999999999</v>
+        <v>790.5390000000001</v>
       </c>
       <c r="AV17">
-        <v>751.0400000000001</v>
+        <v>751.0699999999999</v>
       </c>
       <c r="AW17">
-        <v>818.484</v>
+        <v>816.534</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>63</v>
@@ -3405,73 +3405,73 @@
         <v>76</v>
       </c>
       <c r="M18">
-        <v>50.3</v>
+        <v>48.7576</v>
       </c>
       <c r="N18">
-        <v>21.5761</v>
+        <v>20.9037</v>
       </c>
       <c r="O18">
-        <v>23.4682</v>
+        <v>23.4672</v>
       </c>
       <c r="P18">
-        <v>42.5185</v>
+        <v>42.3076</v>
       </c>
       <c r="Q18">
-        <v>50.3007</v>
+        <v>48.7594</v>
       </c>
       <c r="R18">
-        <v>100.001</v>
+        <v>100.004</v>
       </c>
       <c r="S18">
-        <v>42.2127</v>
+        <v>42.3076</v>
       </c>
       <c r="T18">
-        <v>42.5185</v>
+        <v>41.07100000000001</v>
       </c>
       <c r="U18">
-        <v>23.4682</v>
+        <v>23.4672</v>
       </c>
       <c r="V18">
-        <v>20.5691</v>
+        <v>20.5759</v>
       </c>
       <c r="W18">
-        <v>11.8649</v>
+        <v>11.9417</v>
       </c>
       <c r="X18">
-        <v>20.9069</v>
+        <v>20.9041</v>
       </c>
       <c r="Y18">
-        <v>20.9069</v>
+        <v>20.9041</v>
       </c>
       <c r="Z18">
-        <v>20.908</v>
+        <v>20.9037</v>
       </c>
       <c r="AA18">
-        <v>23.1697</v>
+        <v>23.1689</v>
       </c>
       <c r="AB18">
-        <v>19.794</v>
+        <v>19.7816</v>
       </c>
       <c r="AC18">
-        <v>10.9968</v>
+        <v>11.0254</v>
       </c>
       <c r="AD18">
-        <v>21.5761</v>
+        <v>19.1225</v>
       </c>
       <c r="AE18">
-        <v>21.5761</v>
+        <v>19.1225</v>
       </c>
       <c r="AF18">
-        <v>21.5761</v>
+        <v>19.1225</v>
       </c>
       <c r="AG18">
-        <v>0.844769</v>
+        <v>0.844295</v>
       </c>
       <c r="AH18">
-        <v>0.218306</v>
+        <v>0.21866</v>
       </c>
       <c r="AI18">
-        <v>0.00260543</v>
+        <v>0.00260547</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>62</v>
@@ -3486,34 +3486,34 @@
         <v>62</v>
       </c>
       <c r="AN18">
-        <v>0.217912</v>
+        <v>0.218266</v>
       </c>
       <c r="AO18">
-        <v>875.551</v>
+        <v>875.554</v>
       </c>
       <c r="AP18">
-        <v>836.2810000000001</v>
+        <v>836.282</v>
       </c>
       <c r="AQ18">
-        <v>894.495</v>
+        <v>894.503</v>
       </c>
       <c r="AR18">
-        <v>757.836</v>
+        <v>757.936</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT18">
-        <v>726.849</v>
+        <v>726.853</v>
       </c>
       <c r="AU18">
-        <v>786.2670000000001</v>
+        <v>786.264</v>
       </c>
       <c r="AV18">
-        <v>744.346</v>
+        <v>744.371</v>
       </c>
       <c r="AW18">
-        <v>808.143</v>
+        <v>806.696</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>63</v>
@@ -4165,73 +4165,73 @@
         <v>74</v>
       </c>
       <c r="M23">
-        <v>50.0938</v>
+        <v>49.0723</v>
       </c>
       <c r="N23">
-        <v>23.7282</v>
+        <v>23.744</v>
       </c>
       <c r="O23">
-        <v>23.9475</v>
+        <v>23.9509</v>
       </c>
       <c r="P23">
-        <v>44.0077</v>
+        <v>43.9862</v>
       </c>
       <c r="Q23">
-        <v>50.09350000000001</v>
+        <v>49.0713</v>
       </c>
       <c r="R23">
-        <v>99.99940000000001</v>
+        <v>99.998</v>
       </c>
       <c r="S23">
-        <v>43.9147</v>
+        <v>43.9862</v>
       </c>
       <c r="T23">
-        <v>44.0077</v>
+        <v>43.0576</v>
       </c>
       <c r="U23">
-        <v>23.9475</v>
+        <v>23.9509</v>
       </c>
       <c r="V23">
-        <v>20.2556</v>
+        <v>20.2637</v>
       </c>
       <c r="W23">
-        <v>12.0983</v>
+        <v>12.1821</v>
       </c>
       <c r="X23">
-        <v>23.7287</v>
+        <v>23.7439</v>
       </c>
       <c r="Y23">
-        <v>23.7287</v>
+        <v>23.7439</v>
       </c>
       <c r="Z23">
-        <v>23.7282</v>
+        <v>23.744</v>
       </c>
       <c r="AA23">
-        <v>17.9743</v>
+        <v>17.9714</v>
       </c>
       <c r="AB23">
-        <v>15.8448</v>
+        <v>15.8193</v>
       </c>
       <c r="AC23">
-        <v>9.250970000000001</v>
+        <v>9.27378</v>
       </c>
       <c r="AD23">
-        <v>17.0489</v>
+        <v>15.5301</v>
       </c>
       <c r="AE23">
-        <v>17.0489</v>
+        <v>15.5301</v>
       </c>
       <c r="AF23">
-        <v>17.0489</v>
+        <v>15.5301</v>
       </c>
       <c r="AG23">
-        <v>0.694727</v>
+        <v>0.694553</v>
       </c>
       <c r="AH23">
-        <v>0.168294</v>
+        <v>0.168525</v>
       </c>
       <c r="AI23">
-        <v>0.00017092</v>
+        <v>0.000170935</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>62</v>
@@ -4246,34 +4246,34 @@
         <v>62</v>
       </c>
       <c r="AN23">
-        <v>0.168479</v>
+        <v>0.16871</v>
       </c>
       <c r="AO23">
-        <v>879.528</v>
+        <v>879.527</v>
       </c>
       <c r="AP23">
-        <v>836.508</v>
+        <v>836.515</v>
       </c>
       <c r="AQ23">
-        <v>898.429</v>
+        <v>898.4390000000001</v>
       </c>
       <c r="AR23">
-        <v>759.5390000000001</v>
+        <v>759.6110000000001</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT23">
-        <v>724.76</v>
+        <v>724.7670000000001</v>
       </c>
       <c r="AU23">
-        <v>788.297</v>
+        <v>788.293</v>
       </c>
       <c r="AV23">
-        <v>742.8770000000001</v>
+        <v>742.902</v>
       </c>
       <c r="AW23">
-        <v>809.633</v>
+        <v>808.683</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>63</v>
@@ -4317,73 +4317,73 @@
         <v>76</v>
       </c>
       <c r="M24">
-        <v>51.1948</v>
+        <v>50.3616</v>
       </c>
       <c r="N24">
-        <v>18.4139</v>
+        <v>18.4152</v>
       </c>
       <c r="O24">
-        <v>20.737</v>
+        <v>20.7319</v>
       </c>
       <c r="P24">
-        <v>35.6814</v>
+        <v>34.89720000000001</v>
       </c>
       <c r="Q24">
-        <v>51.195</v>
+        <v>50.361</v>
       </c>
       <c r="R24">
-        <v>100</v>
+        <v>99.9987</v>
       </c>
       <c r="S24">
-        <v>34.4865</v>
+        <v>34.5367</v>
       </c>
       <c r="T24">
-        <v>35.6814</v>
+        <v>34.89720000000001</v>
       </c>
       <c r="U24">
-        <v>20.737</v>
+        <v>20.7319</v>
       </c>
       <c r="V24">
-        <v>17.0826</v>
+        <v>17.0891</v>
       </c>
       <c r="W24">
-        <v>10.2333</v>
+        <v>10.3097</v>
       </c>
       <c r="X24">
-        <v>18.4144</v>
+        <v>18.4147</v>
       </c>
       <c r="Y24">
-        <v>18.4144</v>
+        <v>18.4147</v>
       </c>
       <c r="Z24">
-        <v>18.4139</v>
+        <v>18.4152</v>
       </c>
       <c r="AA24">
-        <v>17.7696</v>
+        <v>17.772</v>
       </c>
       <c r="AB24">
-        <v>15.2763</v>
+        <v>15.2565</v>
       </c>
       <c r="AC24">
-        <v>8.260719999999999</v>
+        <v>8.28623</v>
       </c>
       <c r="AD24">
-        <v>14.6556</v>
+        <v>13.4018</v>
       </c>
       <c r="AE24">
-        <v>14.6556</v>
+        <v>13.4018</v>
       </c>
       <c r="AF24">
-        <v>14.6556</v>
+        <v>13.4018</v>
       </c>
       <c r="AG24">
-        <v>0.847916</v>
+        <v>0.847746</v>
       </c>
       <c r="AH24">
-        <v>0.221274</v>
+        <v>0.22154</v>
       </c>
       <c r="AI24">
-        <v>0.000226473</v>
+        <v>0.000226518</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>62</v>
@@ -4398,34 +4398,34 @@
         <v>62</v>
       </c>
       <c r="AN24">
-        <v>0.221298</v>
+        <v>0.221564</v>
       </c>
       <c r="AO24">
         <v>876.8380000000001</v>
       </c>
       <c r="AP24">
-        <v>832.436</v>
+        <v>832.437</v>
       </c>
       <c r="AQ24">
-        <v>892.092</v>
+        <v>892.099</v>
       </c>
       <c r="AR24">
-        <v>750.111</v>
+        <v>750.1610000000001</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT24">
-        <v>723.0890000000001</v>
+        <v>723.091</v>
       </c>
       <c r="AU24">
         <v>784.2610000000001</v>
       </c>
       <c r="AV24">
-        <v>737.5359999999999</v>
+        <v>737.551</v>
       </c>
       <c r="AW24">
-        <v>801.3059999999999</v>
+        <v>800.5219999999999</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>63</v>
@@ -4469,70 +4469,70 @@
         <v>74</v>
       </c>
       <c r="M25">
-        <v>50.6406</v>
+        <v>49.5233</v>
       </c>
       <c r="N25">
-        <v>24.4344</v>
+        <v>24.4506</v>
       </c>
       <c r="O25">
-        <v>26.3323</v>
+        <v>26.3344</v>
       </c>
       <c r="P25">
-        <v>43.2945</v>
+        <v>42.7413</v>
       </c>
       <c r="Q25">
-        <v>50.6405</v>
+        <v>49.52679999999999</v>
       </c>
       <c r="R25">
-        <v>99.99980000000001</v>
+        <v>100.007</v>
       </c>
       <c r="S25">
-        <v>42.654</v>
+        <v>42.7413</v>
       </c>
       <c r="T25">
-        <v>43.2945</v>
+        <v>42.2673</v>
       </c>
       <c r="U25">
-        <v>26.3323</v>
+        <v>26.3344</v>
       </c>
       <c r="V25">
-        <v>22.2438</v>
+        <v>22.2517</v>
       </c>
       <c r="W25">
-        <v>13.5861</v>
+        <v>13.6802</v>
       </c>
       <c r="X25">
-        <v>24.436</v>
+        <v>24.4485</v>
       </c>
       <c r="Y25">
-        <v>24.436</v>
+        <v>24.4485</v>
       </c>
       <c r="Z25">
-        <v>24.4344</v>
+        <v>24.4506</v>
       </c>
       <c r="AA25">
-        <v>21.5968</v>
+        <v>21.5873</v>
       </c>
       <c r="AB25">
-        <v>19.4472</v>
+        <v>19.4259</v>
       </c>
       <c r="AC25">
-        <v>10.8083</v>
+        <v>10.8348</v>
       </c>
       <c r="AD25">
-        <v>19.1879</v>
+        <v>17.5204</v>
       </c>
       <c r="AE25">
-        <v>19.1879</v>
+        <v>17.5204</v>
       </c>
       <c r="AF25">
-        <v>19.1879</v>
+        <v>17.5204</v>
       </c>
       <c r="AG25">
-        <v>0.687326</v>
+        <v>0.687011</v>
       </c>
       <c r="AH25">
-        <v>0.204691</v>
+        <v>0.204978</v>
       </c>
       <c r="AI25">
         <v>0.0199367</v>
@@ -4550,34 +4550,34 @@
         <v>62</v>
       </c>
       <c r="AN25">
-        <v>0.203227</v>
+        <v>0.203515</v>
       </c>
       <c r="AO25">
-        <v>878.272</v>
+        <v>878.276</v>
       </c>
       <c r="AP25">
-        <v>835.806</v>
+        <v>835.803</v>
       </c>
       <c r="AQ25">
-        <v>897.255</v>
+        <v>897.2670000000001</v>
       </c>
       <c r="AR25">
-        <v>758.2769999999999</v>
+        <v>758.3710000000001</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT25">
-        <v>724.086</v>
+        <v>724.0880000000001</v>
       </c>
       <c r="AU25">
         <v>787.1420000000001</v>
       </c>
       <c r="AV25">
-        <v>742.226</v>
+        <v>742.248</v>
       </c>
       <c r="AW25">
-        <v>808.9190000000001</v>
+        <v>807.8920000000001</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>63</v>
@@ -4621,73 +4621,73 @@
         <v>76</v>
       </c>
       <c r="M26">
-        <v>51.3269</v>
+        <v>50.371</v>
       </c>
       <c r="N26">
-        <v>20.0545</v>
+        <v>20.0831</v>
       </c>
       <c r="O26">
-        <v>23.7297</v>
+        <v>23.7339</v>
       </c>
       <c r="P26">
-        <v>37.0167</v>
+        <v>36.1354</v>
       </c>
       <c r="Q26">
-        <v>51.3261</v>
+        <v>50.3697</v>
       </c>
       <c r="R26">
-        <v>99.99850000000001</v>
+        <v>99.9975</v>
       </c>
       <c r="S26">
-        <v>35.6912</v>
+        <v>35.7662</v>
       </c>
       <c r="T26">
-        <v>37.0167</v>
+        <v>36.1354</v>
       </c>
       <c r="U26">
-        <v>23.7297</v>
+        <v>23.7339</v>
       </c>
       <c r="V26">
-        <v>19.5161</v>
+        <v>19.5222</v>
       </c>
       <c r="W26">
-        <v>12.0163</v>
+        <v>12.1022</v>
       </c>
       <c r="X26">
-        <v>20.0538</v>
+        <v>20.069</v>
       </c>
       <c r="Y26">
-        <v>20.0538</v>
+        <v>20.069</v>
       </c>
       <c r="Z26">
-        <v>20.0545</v>
+        <v>20.0831</v>
       </c>
       <c r="AA26">
-        <v>20.6114</v>
+        <v>20.6112</v>
       </c>
       <c r="AB26">
-        <v>17.8405</v>
+        <v>17.8226</v>
       </c>
       <c r="AC26">
-        <v>9.85726</v>
+        <v>9.885479999999999</v>
       </c>
       <c r="AD26">
-        <v>16.8064</v>
+        <v>15.4075</v>
       </c>
       <c r="AE26">
-        <v>16.8064</v>
+        <v>15.4075</v>
       </c>
       <c r="AF26">
-        <v>16.8064</v>
+        <v>15.4075</v>
       </c>
       <c r="AG26">
-        <v>0.840823</v>
+        <v>0.840746</v>
       </c>
       <c r="AH26">
-        <v>0.268852</v>
+        <v>0.269207</v>
       </c>
       <c r="AI26">
-        <v>0.0221055</v>
+        <v>0.0221056</v>
       </c>
       <c r="AJ26" s="2" t="s">
         <v>62</v>
@@ -4702,19 +4702,19 @@
         <v>62</v>
       </c>
       <c r="AN26">
-        <v>0.267157</v>
+        <v>0.267511</v>
       </c>
       <c r="AO26">
-        <v>876.3100000000001</v>
+        <v>876.3050000000001</v>
       </c>
       <c r="AP26">
-        <v>832.8729999999999</v>
+        <v>832.878</v>
       </c>
       <c r="AQ26">
-        <v>892.67</v>
+        <v>892.6780000000001</v>
       </c>
       <c r="AR26">
-        <v>751.3150000000001</v>
+        <v>751.3910000000001</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>63</v>
@@ -4723,13 +4723,13 @@
         <v>723.0400000000001</v>
       </c>
       <c r="AU26">
-        <v>784.2619999999999</v>
+        <v>784.2610000000001</v>
       </c>
       <c r="AV26">
-        <v>738.414</v>
+        <v>738.431</v>
       </c>
       <c r="AW26">
-        <v>802.6420000000001</v>
+        <v>801.76</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>63</v>
@@ -5381,73 +5381,73 @@
         <v>74</v>
       </c>
       <c r="M31">
-        <v>49.6949</v>
+        <v>47.8467</v>
       </c>
       <c r="N31">
-        <v>23.3744</v>
+        <v>20.3559</v>
       </c>
       <c r="O31">
-        <v>23.263</v>
+        <v>23.2668</v>
       </c>
       <c r="P31">
-        <v>43.5973</v>
+        <v>43.6772</v>
       </c>
       <c r="Q31">
-        <v>49.6948</v>
+        <v>47.8474</v>
       </c>
       <c r="R31">
-        <v>99.9999</v>
+        <v>100.002</v>
       </c>
       <c r="S31">
-        <v>43.5973</v>
+        <v>43.6772</v>
       </c>
       <c r="T31">
-        <v>43.295</v>
+        <v>41.5262</v>
       </c>
       <c r="U31">
-        <v>16.9458</v>
+        <v>16.9481</v>
       </c>
       <c r="V31">
-        <v>17.4908</v>
+        <v>17.4746</v>
       </c>
       <c r="W31">
-        <v>9.881679999999999</v>
+        <v>9.928570000000001</v>
       </c>
       <c r="X31">
-        <v>17.1472</v>
+        <v>17.1469</v>
       </c>
       <c r="Y31">
-        <v>17.1472</v>
+        <v>17.1469</v>
       </c>
       <c r="Z31">
-        <v>17.1485</v>
+        <v>17.1461</v>
       </c>
       <c r="AA31">
-        <v>23.263</v>
+        <v>23.2668</v>
       </c>
       <c r="AB31">
-        <v>19.2022</v>
+        <v>19.1977</v>
       </c>
       <c r="AC31">
-        <v>10.8962</v>
+        <v>10.9295</v>
       </c>
       <c r="AD31">
-        <v>23.3744</v>
+        <v>20.3559</v>
       </c>
       <c r="AE31">
-        <v>23.3744</v>
+        <v>20.3559</v>
       </c>
       <c r="AF31">
-        <v>23.3744</v>
+        <v>20.3559</v>
       </c>
       <c r="AG31">
-        <v>0.696418</v>
+        <v>0.696107</v>
       </c>
       <c r="AH31">
-        <v>0.169189</v>
+        <v>0.169467</v>
       </c>
       <c r="AI31">
-        <v>0.000149817</v>
+        <v>0.000149819</v>
       </c>
       <c r="AJ31" s="2" t="s">
         <v>62</v>
@@ -5462,34 +5462,34 @@
         <v>62</v>
       </c>
       <c r="AN31">
-        <v>0.169161</v>
+        <v>0.169439</v>
       </c>
       <c r="AO31">
-        <v>874.0170000000001</v>
+        <v>874.018</v>
       </c>
       <c r="AP31">
-        <v>838.0650000000001</v>
+        <v>838.066</v>
       </c>
       <c r="AQ31">
-        <v>893.162</v>
+        <v>893.164</v>
       </c>
       <c r="AR31">
-        <v>759.22</v>
+        <v>759.3050000000001</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT31">
-        <v>730.186</v>
+        <v>730.1850000000001</v>
       </c>
       <c r="AU31">
-        <v>786.316</v>
+        <v>786.3150000000001</v>
       </c>
       <c r="AV31">
-        <v>747.4590000000001</v>
+        <v>747.484</v>
       </c>
       <c r="AW31">
-        <v>808.9200000000001</v>
+        <v>807.151</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>63</v>
@@ -5533,73 +5533,73 @@
         <v>76</v>
       </c>
       <c r="M32">
-        <v>49.0878</v>
+        <v>47.7749</v>
       </c>
       <c r="N32">
-        <v>18.4707</v>
+        <v>16.3436</v>
       </c>
       <c r="O32">
-        <v>20.0706</v>
+        <v>20.0754</v>
       </c>
       <c r="P32">
-        <v>35.3075</v>
+        <v>35.358</v>
       </c>
       <c r="Q32">
-        <v>49.088</v>
+        <v>47.7758</v>
       </c>
       <c r="R32">
-        <v>100</v>
+        <v>100.002</v>
       </c>
       <c r="S32">
-        <v>35.3075</v>
+        <v>35.358</v>
       </c>
       <c r="T32">
-        <v>34.3986</v>
+        <v>33.1347</v>
       </c>
       <c r="U32">
-        <v>17.0103</v>
+        <v>17.0108</v>
       </c>
       <c r="V32">
-        <v>15.8628</v>
+        <v>15.8636</v>
       </c>
       <c r="W32">
-        <v>8.88616</v>
+        <v>8.93554</v>
       </c>
       <c r="X32">
-        <v>14.6692</v>
+        <v>14.6834</v>
       </c>
       <c r="Y32">
-        <v>14.6692</v>
+        <v>14.6834</v>
       </c>
       <c r="Z32">
-        <v>14.6675</v>
+        <v>14.6778</v>
       </c>
       <c r="AA32">
-        <v>20.0706</v>
+        <v>20.0754</v>
       </c>
       <c r="AB32">
-        <v>16.3761</v>
+        <v>16.3689</v>
       </c>
       <c r="AC32">
-        <v>9.29257</v>
+        <v>9.31845</v>
       </c>
       <c r="AD32">
-        <v>18.4707</v>
+        <v>16.3436</v>
       </c>
       <c r="AE32">
-        <v>18.4707</v>
+        <v>16.3436</v>
       </c>
       <c r="AF32">
-        <v>18.4707</v>
+        <v>16.3436</v>
       </c>
       <c r="AG32">
-        <v>0.848245</v>
+        <v>0.847958</v>
       </c>
       <c r="AH32">
-        <v>0.222284</v>
+        <v>0.222577</v>
       </c>
       <c r="AI32">
-        <v>0.000196748</v>
+        <v>0.000196764</v>
       </c>
       <c r="AJ32" s="2" t="s">
         <v>62</v>
@@ -5614,34 +5614,34 @@
         <v>62</v>
       </c>
       <c r="AN32">
-        <v>0.22227</v>
+        <v>0.222562</v>
       </c>
       <c r="AO32">
         <v>872.249</v>
       </c>
       <c r="AP32">
-        <v>834.032</v>
+        <v>834.0309999999999</v>
       </c>
       <c r="AQ32">
-        <v>887.9290000000001</v>
+        <v>887.932</v>
       </c>
       <c r="AR32">
-        <v>750.9330000000001</v>
+        <v>750.9829999999999</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT32">
-        <v>727.6080000000001</v>
+        <v>727.609</v>
       </c>
       <c r="AU32">
-        <v>782.41</v>
+        <v>782.408</v>
       </c>
       <c r="AV32">
-        <v>741.3299999999999</v>
+        <v>741.345</v>
       </c>
       <c r="AW32">
-        <v>800.024</v>
+        <v>798.7600000000001</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>63</v>
@@ -5685,73 +5685,73 @@
         <v>74</v>
       </c>
       <c r="M33">
-        <v>49.4978</v>
+        <v>47.6041</v>
       </c>
       <c r="N33">
-        <v>25.3639</v>
+        <v>22.2575</v>
       </c>
       <c r="O33">
-        <v>25.2036</v>
+        <v>25.2035</v>
       </c>
       <c r="P33">
-        <v>43.1486</v>
+        <v>43.2644</v>
       </c>
       <c r="Q33">
-        <v>49.4984</v>
+        <v>47.6031</v>
       </c>
       <c r="R33">
-        <v>100.001</v>
+        <v>99.9979</v>
       </c>
       <c r="S33">
-        <v>43.1486</v>
+        <v>43.2644</v>
       </c>
       <c r="T33">
-        <v>42.64700000000001</v>
+        <v>40.8671</v>
       </c>
       <c r="U33">
-        <v>20.8965</v>
+        <v>20.8948</v>
       </c>
       <c r="V33">
-        <v>20.1883</v>
+        <v>20.1879</v>
       </c>
       <c r="W33">
-        <v>11.4707</v>
+        <v>11.5325</v>
       </c>
       <c r="X33">
-        <v>18.8196</v>
+        <v>18.7903</v>
       </c>
       <c r="Y33">
-        <v>18.8196</v>
+        <v>18.7903</v>
       </c>
       <c r="Z33">
-        <v>18.8185</v>
+        <v>18.7953</v>
       </c>
       <c r="AA33">
-        <v>25.2036</v>
+        <v>25.2035</v>
       </c>
       <c r="AB33">
-        <v>21.4912</v>
+        <v>21.4862</v>
       </c>
       <c r="AC33">
-        <v>12.6863</v>
+        <v>12.718</v>
       </c>
       <c r="AD33">
-        <v>25.3639</v>
+        <v>22.2575</v>
       </c>
       <c r="AE33">
-        <v>25.3639</v>
+        <v>22.2575</v>
       </c>
       <c r="AF33">
-        <v>25.3639</v>
+        <v>22.2575</v>
       </c>
       <c r="AG33">
-        <v>0.688994</v>
+        <v>0.688697</v>
       </c>
       <c r="AH33">
-        <v>0.213837</v>
+        <v>0.214201</v>
       </c>
       <c r="AI33">
-        <v>0.0277708</v>
+        <v>0.0277709</v>
       </c>
       <c r="AJ33" s="2" t="s">
         <v>62</v>
@@ -5766,34 +5766,34 @@
         <v>62</v>
       </c>
       <c r="AN33">
-        <v>0.209853</v>
+        <v>0.210217</v>
       </c>
       <c r="AO33">
-        <v>872.437</v>
+        <v>872.436</v>
       </c>
       <c r="AP33">
-        <v>837.2379999999999</v>
+        <v>837.241</v>
       </c>
       <c r="AQ33">
-        <v>892.022</v>
+        <v>892.0260000000001</v>
       </c>
       <c r="AR33">
-        <v>758.7760000000001</v>
+        <v>758.89</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT33">
-        <v>729.851</v>
+        <v>729.8520000000001</v>
       </c>
       <c r="AU33">
-        <v>785.533</v>
+        <v>785.534</v>
       </c>
       <c r="AV33">
-        <v>747.182</v>
+        <v>747.203</v>
       </c>
       <c r="AW33">
-        <v>808.2719999999999</v>
+        <v>806.492</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>63</v>
@@ -5837,70 +5837,70 @@
         <v>76</v>
       </c>
       <c r="M34">
-        <v>49.0352</v>
+        <v>47.6219</v>
       </c>
       <c r="N34">
-        <v>20.7842</v>
+        <v>18.4688</v>
       </c>
       <c r="O34">
-        <v>22.3221</v>
+        <v>22.3271</v>
       </c>
       <c r="P34">
-        <v>36.771</v>
+        <v>36.8439</v>
       </c>
       <c r="Q34">
-        <v>49.0368</v>
+        <v>47.6218</v>
       </c>
       <c r="R34">
-        <v>100.003</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S34">
-        <v>36.771</v>
+        <v>36.8439</v>
       </c>
       <c r="T34">
-        <v>35.80549999999999</v>
+        <v>34.4664</v>
       </c>
       <c r="U34">
-        <v>20.3299</v>
+        <v>20.3333</v>
       </c>
       <c r="V34">
-        <v>18.3731</v>
+        <v>18.3776</v>
       </c>
       <c r="W34">
-        <v>10.5271</v>
+        <v>10.5869</v>
       </c>
       <c r="X34">
-        <v>16.4972</v>
+        <v>16.4944</v>
       </c>
       <c r="Y34">
-        <v>16.4972</v>
+        <v>16.4944</v>
       </c>
       <c r="Z34">
-        <v>16.4884</v>
+        <v>16.4867</v>
       </c>
       <c r="AA34">
-        <v>22.3221</v>
+        <v>22.3271</v>
       </c>
       <c r="AB34">
-        <v>18.9117</v>
+        <v>18.906</v>
       </c>
       <c r="AC34">
-        <v>11.2088</v>
+        <v>11.237</v>
       </c>
       <c r="AD34">
-        <v>20.7842</v>
+        <v>18.4688</v>
       </c>
       <c r="AE34">
-        <v>20.7842</v>
+        <v>18.4688</v>
       </c>
       <c r="AF34">
-        <v>20.7842</v>
+        <v>18.4688</v>
       </c>
       <c r="AG34">
-        <v>0.841439</v>
+        <v>0.841089</v>
       </c>
       <c r="AH34">
-        <v>0.2810569999999999</v>
+        <v>0.281451</v>
       </c>
       <c r="AI34">
         <v>0.0319418</v>
@@ -5918,34 +5918,34 @@
         <v>62</v>
       </c>
       <c r="AN34">
-        <v>0.276308</v>
+        <v>0.2767019999999999</v>
       </c>
       <c r="AO34">
-        <v>871.4640000000001</v>
+        <v>871.4630000000001</v>
       </c>
       <c r="AP34">
         <v>834.265</v>
       </c>
       <c r="AQ34">
-        <v>888.4019999999999</v>
+        <v>888.407</v>
       </c>
       <c r="AR34">
-        <v>752.396</v>
+        <v>752.471</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT34">
-        <v>727.822</v>
+        <v>727.825</v>
       </c>
       <c r="AU34">
-        <v>782.7170000000001</v>
+        <v>782.7180000000001</v>
       </c>
       <c r="AV34">
-        <v>742.4580000000001</v>
+        <v>742.477</v>
       </c>
       <c r="AW34">
-        <v>801.4300000000001</v>
+        <v>800.091</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>63</v>
@@ -6168,10 +6168,10 @@
         <v>12.0785</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.685427</v>
+        <v>0.685117</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.156438</v>
+        <v>0.156869</v>
       </c>
       <c r="AI36" s="1">
         <v>5.672E-06</v>
@@ -6189,7 +6189,7 @@
         <v>62</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.156648</v>
+        <v>0.157079</v>
       </c>
       <c r="AO36" s="1">
         <v>868.682</v>
@@ -6227,64 +6227,64 @@
         <v>125</v>
       </c>
       <c r="M37" s="1">
-        <v>51.3269</v>
+        <v>51.3048</v>
       </c>
       <c r="N37" s="1">
-        <v>26.962</v>
+        <v>26.0046</v>
       </c>
       <c r="O37" s="1">
-        <v>26.8845</v>
+        <v>26.8911</v>
       </c>
       <c r="P37" s="1">
-        <v>55.6219</v>
+        <v>55.8431</v>
       </c>
       <c r="Q37" s="1">
-        <v>51.3261</v>
+        <v>51.3046</v>
       </c>
       <c r="R37" s="1">
-        <v>100.003</v>
+        <v>100.007</v>
       </c>
       <c r="S37" s="1">
-        <v>55.6219</v>
+        <v>55.8431</v>
       </c>
       <c r="T37" s="1">
-        <v>55.5717</v>
+        <v>53.6223</v>
       </c>
       <c r="U37" s="1">
-        <v>26.6763</v>
+        <v>26.6749</v>
       </c>
       <c r="V37" s="1">
-        <v>24.0374</v>
+        <v>24.0531</v>
       </c>
       <c r="W37" s="1">
-        <v>13.8434</v>
+        <v>13.9254</v>
       </c>
       <c r="X37" s="1">
-        <v>26.0698</v>
+        <v>26.0062</v>
       </c>
       <c r="Y37" s="1">
-        <v>26.0698</v>
+        <v>26.0062</v>
       </c>
       <c r="Z37" s="1">
-        <v>26.0686</v>
+        <v>26.0046</v>
       </c>
       <c r="AA37" s="1">
-        <v>26.8845</v>
+        <v>26.8911</v>
       </c>
       <c r="AB37" s="1">
-        <v>23.1206</v>
+        <v>23.108</v>
       </c>
       <c r="AC37" s="1">
         <v>13.9704</v>
       </c>
       <c r="AD37" s="1">
-        <v>26.962</v>
+        <v>23.5738</v>
       </c>
       <c r="AE37" s="1">
-        <v>26.962</v>
+        <v>23.5738</v>
       </c>
       <c r="AF37" s="1">
-        <v>26.962</v>
+        <v>23.5738</v>
       </c>
       <c r="AG37" s="1">
         <v>0.853286</v>
@@ -6311,31 +6311,31 @@
         <v>0.367144</v>
       </c>
       <c r="AO37" s="1">
-        <v>879.528</v>
+        <v>879.527</v>
       </c>
       <c r="AP37" s="1">
-        <v>842.37</v>
+        <v>842.369</v>
       </c>
       <c r="AQ37" s="1">
-        <v>903.853</v>
+        <v>903.86</v>
       </c>
       <c r="AR37" s="1">
-        <v>771.245</v>
+        <v>771.467</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT37" s="1">
-        <v>730.186</v>
+        <v>730.1850000000001</v>
       </c>
       <c r="AU37" s="1">
-        <v>792.4880000000001</v>
+        <v>792.49</v>
       </c>
       <c r="AV37" s="1">
-        <v>753.048</v>
+        <v>753.083</v>
       </c>
       <c r="AW37" s="1">
-        <v>821.197</v>
+        <v>819.2470000000001</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>62</v>
@@ -6381,73 +6381,73 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>49.5886484848485</v>
+        <v>48.93995454545455</v>
       </c>
       <c r="N42" s="1">
-        <v>18.87241515151516</v>
+        <v>18.48038484848485</v>
       </c>
       <c r="O42" s="1">
-        <v>20.50478787878788</v>
+        <v>20.50461818181818</v>
       </c>
       <c r="P42" s="1">
-        <v>37.74616363636363</v>
+        <v>37.68118484848485</v>
       </c>
       <c r="Q42" s="1">
-        <v>49.58845454545455</v>
+        <v>48.93988484848487</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99952727272729</v>
+        <v>99.99984242424243</v>
       </c>
       <c r="S42" s="1">
-        <v>37.49526363636362</v>
+        <v>37.54015757575758</v>
       </c>
       <c r="T42" s="1">
-        <v>37.0843303030303</v>
+        <v>36.48063333333333</v>
       </c>
       <c r="U42" s="1">
-        <v>17.5795</v>
+        <v>17.57948181818182</v>
       </c>
       <c r="V42" s="1">
-        <v>17.91545454545455</v>
+        <v>17.91774545454546</v>
       </c>
       <c r="W42" s="1">
-        <v>10.85143121212122</v>
+        <v>10.88492121212121</v>
       </c>
       <c r="X42" s="1">
-        <v>17.07338484848485</v>
+        <v>17.07228484848485</v>
       </c>
       <c r="Y42" s="1">
-        <v>17.07338484848485</v>
+        <v>17.07228484848485</v>
       </c>
       <c r="Z42" s="1">
-        <v>17.07323636363636</v>
+        <v>17.07299696969697</v>
       </c>
       <c r="AA42" s="1">
-        <v>18.61834242424243</v>
+        <v>18.61960909090909</v>
       </c>
       <c r="AB42" s="1">
-        <v>17.7755</v>
+        <v>17.76942424242424</v>
       </c>
       <c r="AC42" s="1">
-        <v>10.51932393939394</v>
+        <v>10.5326896969697</v>
       </c>
       <c r="AD42" s="1">
-        <v>18.0445696969697</v>
+        <v>17.03084545454546</v>
       </c>
       <c r="AE42" s="1">
-        <v>18.0445696969697</v>
+        <v>17.03084545454546</v>
       </c>
       <c r="AF42" s="1">
-        <v>18.0445696969697</v>
+        <v>17.03084545454546</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7688186969696972</v>
+        <v>0.7686641212121212</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.2269819090909091</v>
+        <v>0.2271449090909091</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.01459768923333334</v>
+        <v>0.01459770795787879</v>
       </c>
       <c r="AJ42" s="1" t="s">
         <v>62</v>
@@ -6462,34 +6462,34 @@
         <v>62</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2253178787878788</v>
+        <v>0.2254808181818182</v>
       </c>
       <c r="AO42" s="1">
-        <v>873.8100909090911</v>
+        <v>873.8097878787881</v>
       </c>
       <c r="AP42" s="1">
-        <v>833.853787878788</v>
+        <v>833.8538787878788</v>
       </c>
       <c r="AQ42" s="1">
-        <v>891.0273030303028</v>
+        <v>891.0303939393938</v>
       </c>
       <c r="AR42" s="1">
-        <v>753.1201515151516</v>
+        <v>753.1656060606061</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT42" s="1">
-        <v>725.3917272727273</v>
+        <v>725.3921818181817</v>
       </c>
       <c r="AU42" s="1">
-        <v>783.3107575757574</v>
+        <v>783.3105757575756</v>
       </c>
       <c r="AV42" s="1">
-        <v>741.5830303030302</v>
+        <v>741.5923939393939</v>
       </c>
       <c r="AW42" s="1">
-        <v>802.709303030303</v>
+        <v>802.1056060606059</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>62</v>
@@ -6500,73 +6500,73 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>1.128313267568201</v>
+        <v>1.123234359930207</v>
       </c>
       <c r="N43" s="1">
-        <v>3.764006347136729</v>
+        <v>3.485215713781375</v>
       </c>
       <c r="O43" s="1">
-        <v>3.319961198089938</v>
+        <v>3.318948232767518</v>
       </c>
       <c r="P43" s="1">
-        <v>7.048097505337047</v>
+        <v>7.060335569762192</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.128309204904966</v>
+        <v>1.123160030455524</v>
       </c>
       <c r="R43" s="1">
-        <v>0.00133627086876651</v>
+        <v>0.002065888949908601</v>
       </c>
       <c r="S43" s="1">
-        <v>7.097760123973306</v>
+        <v>7.136731430573773</v>
       </c>
       <c r="T43" s="1">
-        <v>7.287775189356274</v>
+        <v>6.910089834028457</v>
       </c>
       <c r="U43" s="1">
-        <v>4.69756398256618</v>
+        <v>4.697586057428023</v>
       </c>
       <c r="V43" s="1">
-        <v>2.615522495931122</v>
+        <v>2.61810526041268</v>
       </c>
       <c r="W43" s="1">
-        <v>1.481027785037498</v>
+        <v>1.493475989371384</v>
       </c>
       <c r="X43" s="1">
-        <v>3.909121613193958</v>
+        <v>3.903076601249965</v>
       </c>
       <c r="Y43" s="1">
-        <v>3.909121613193958</v>
+        <v>3.903076601249965</v>
       </c>
       <c r="Z43" s="1">
-        <v>3.908752582991321</v>
+        <v>3.90342652864586</v>
       </c>
       <c r="AA43" s="1">
-        <v>3.607622895366128</v>
+        <v>3.608572338647334</v>
       </c>
       <c r="AB43" s="1">
-        <v>2.560260336076167</v>
+        <v>2.559197555464829</v>
       </c>
       <c r="AC43" s="1">
-        <v>1.536485923009285</v>
+        <v>1.535769148751688</v>
       </c>
       <c r="AD43" s="1">
-        <v>3.720017239572699</v>
+        <v>3.050818929610084</v>
       </c>
       <c r="AE43" s="1">
-        <v>3.720017239572699</v>
+        <v>3.050818929610084</v>
       </c>
       <c r="AF43" s="1">
-        <v>3.720017239572699</v>
+        <v>3.050818929610084</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07524077415446176</v>
+        <v>0.07526950487687262</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.05363604960616853</v>
+        <v>0.05364220350216323</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.02188907289056977</v>
+        <v>0.02188908582974276</v>
       </c>
       <c r="AJ43" s="1" t="s">
         <v>62</v>
@@ -6581,34 +6581,34 @@
         <v>62</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.05154646698750943</v>
+        <v>0.0515517121653497</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.845900574975292</v>
+        <v>2.845604816763289</v>
       </c>
       <c r="AP43" s="1">
-        <v>3.308085372808953</v>
+        <v>3.308118963431744</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.230537793109069</v>
+        <v>5.232293940052953</v>
       </c>
       <c r="AR43" s="1">
-        <v>7.097480291779229</v>
+        <v>7.136863346076426</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.472967941719288</v>
+        <v>2.473489958136633</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.692888029961984</v>
+        <v>3.692547942121659</v>
       </c>
       <c r="AV43" s="1">
-        <v>4.859132230078213</v>
+        <v>4.864650194153568</v>
       </c>
       <c r="AW43" s="1">
-        <v>7.287765503183057</v>
+        <v>6.910035411650685</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>62</v>
@@ -6619,73 +6619,73 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>2.275345874596582</v>
+        <v>2.295127509542265</v>
       </c>
       <c r="N44" s="1">
-        <v>19.94448679153043</v>
+        <v>18.85899964938834</v>
       </c>
       <c r="O44" s="1">
-        <v>16.19115114828583</v>
+        <v>16.186344965499</v>
       </c>
       <c r="P44" s="1">
-        <v>18.67235455564841</v>
+        <v>18.73703175245586</v>
       </c>
       <c r="Q44" s="1">
-        <v>2.275346580665703</v>
+        <v>2.294978898975272</v>
       </c>
       <c r="R44" s="1">
-        <v>0.001336277185713206</v>
+        <v>0.002065892205253894</v>
       </c>
       <c r="S44" s="1">
-        <v>18.9297512155369</v>
+        <v>19.01092560991934</v>
       </c>
       <c r="T44" s="1">
-        <v>19.65189914393779</v>
+        <v>18.9418033697198</v>
       </c>
       <c r="U44" s="1">
-        <v>26.72182930439535</v>
+        <v>26.72198251355441</v>
       </c>
       <c r="V44" s="1">
-        <v>14.59925278086078</v>
+        <v>14.61180072601437</v>
       </c>
       <c r="W44" s="1">
-        <v>13.64822534545643</v>
+        <v>13.72059531040318</v>
       </c>
       <c r="X44" s="1">
-        <v>22.89599659285409</v>
+        <v>22.86206348997487</v>
       </c>
       <c r="Y44" s="1">
-        <v>22.89599659285409</v>
+        <v>22.86206348997487</v>
       </c>
       <c r="Z44" s="1">
-        <v>22.8940342635707</v>
+        <v>22.86315950019841</v>
       </c>
       <c r="AA44" s="1">
-        <v>19.3767136362727</v>
+        <v>19.38049462278559</v>
       </c>
       <c r="AB44" s="1">
-        <v>14.40330981449842</v>
+        <v>14.40225367209581</v>
       </c>
       <c r="AC44" s="1">
-        <v>14.60631816133431</v>
+        <v>14.58097782177648</v>
       </c>
       <c r="AD44" s="1">
-        <v>20.61571598572072</v>
+        <v>17.91349077620708</v>
       </c>
       <c r="AE44" s="1">
-        <v>20.61571598572072</v>
+        <v>17.91349077620708</v>
       </c>
       <c r="AF44" s="1">
-        <v>20.61571598572072</v>
+        <v>17.91349077620708</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.786543231977014</v>
+        <v>9.792249020050354</v>
       </c>
       <c r="AH44" s="1">
-        <v>23.63009890126822</v>
+        <v>23.61585109560799</v>
       </c>
       <c r="AI44" s="1">
-        <v>149.9488894487957</v>
+        <v>149.9487857470707</v>
       </c>
       <c r="AJ44" s="1" t="s">
         <v>62</v>
@@ -6700,34 +6700,34 @@
         <v>62</v>
       </c>
       <c r="AN44" s="1">
-        <v>22.87722007006682</v>
+        <v>22.86301450431166</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.3256886827679554</v>
+        <v>0.3256549487355961</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.3967224735195216</v>
+        <v>0.3967264586261264</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.5870232904559136</v>
+        <v>0.5872183458209669</v>
       </c>
       <c r="AR44" s="1">
-        <v>0.9424100892135587</v>
+        <v>0.9475822167989616</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.3409148255683816</v>
+        <v>0.3409865752808194</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4714461015945934</v>
+        <v>0.4714027942940036</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.6552377861306569</v>
+        <v>0.655973582511032</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.9078959812314443</v>
+        <v>0.8614869861822875</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>62</v>
